--- a/ML Apply in OS/summary (new version).xlsx
+++ b/ML Apply in OS/summary (new version).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\柳滢颖\Desktop\HKU\23Fall\AI-OS\ML Apply in OS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HKU\HKU\23Fall\AI-OS\ML Apply in OS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3949D7D-F3D0-4DFC-B182-C60E86EC1F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368933E3-3E40-4D53-82D1-433B9FABEFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="503">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1983,6 +1982,62 @@
   </si>
   <si>
     <t>Workshop Proceedings of the 48th International Conference on Parallel Processing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allow both the CPU and GPU to share virtual memory, migrating the pages to/from GPU/CPU upon page fault.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heterogeneous Memory Management (HMM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kernel.org/doc/html/v4.18/vm/
+hmm.html.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Tiering in Heterogeneous Memory Systems. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heterogeneous memory architectures: A HW/SW approach for mixing diestacked and off-package memories</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLP aware heterogeneous memory system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Design, Automation Test in Europe Conference Exhibition (DATE)</t>
+  </si>
+  <si>
+    <t>High Performance Computer Architecture
+(HPCA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proceedings of the Eleventh European Conference on Computer Systems (EuroSys ’16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memtis: Efficient Memory Tiering with Dynamic
+Page Classification and Page Size Determination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proceedings of the 29th Symposium on Operating Systems Principles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heteroos: Os design for heterogeneous memory management in datacenter</t>
+  </si>
+  <si>
+    <t>Proceedings of the 44th Annual International Symposium on Computer Architecture</t>
+  </si>
+  <si>
+    <t>Statistic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1990,7 +2045,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2038,6 +2093,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2258,10 +2321,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2390,14 +2454,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2417,9 +2479,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2430,15 +2497,26 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2722,10 +2800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG155"/>
+  <dimension ref="A1:AG161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2760,14 +2838,14 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61"/>
     </row>
     <row r="3" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3"/>
@@ -3666,7 +3744,7 @@
       <c r="AF23"/>
       <c r="AG23"/>
     </row>
-    <row r="24" spans="1:33" s="59" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C24" s="6" t="s">
         <v>471</v>
       </c>
@@ -3783,22 +3861,22 @@
     <row r="27" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27"/>
       <c r="B27"/>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="60">
+      <c r="D27" s="50">
         <v>2017</v>
       </c>
-      <c r="E27" s="60" t="s">
+      <c r="E27" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="60" t="s">
+      <c r="F27" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="G27" s="60" t="s">
+      <c r="G27" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="H27" s="60" t="s">
+      <c r="H27" s="50" t="s">
         <v>74</v>
       </c>
       <c r="I27"/>
@@ -3830,20 +3908,20 @@
     <row r="28" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28"/>
       <c r="B28"/>
-      <c r="C28" s="65" t="s">
+      <c r="C28" s="52" t="s">
         <v>485</v>
       </c>
-      <c r="D28" s="65">
+      <c r="D28" s="52">
         <v>2019</v>
       </c>
-      <c r="E28" s="65" t="s">
+      <c r="E28" s="52" t="s">
         <v>488</v>
       </c>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65" t="s">
+      <c r="F28" s="52"/>
+      <c r="G28" s="52" t="s">
         <v>473</v>
       </c>
-      <c r="H28" s="65" t="s">
+      <c r="H28" s="52" t="s">
         <v>470</v>
       </c>
       <c r="I28"/>
@@ -3872,7 +3950,7 @@
       <c r="AF28"/>
       <c r="AG28"/>
     </row>
-    <row r="29" spans="1:33" s="64" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:33" s="51" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="28"/>
       <c r="B29" s="28"/>
       <c r="C29" s="6" t="s">
@@ -3917,9 +3995,9 @@
       <c r="AF29" s="28"/>
       <c r="AG29" s="28"/>
     </row>
-    <row r="30" spans="1:33" s="67" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="66"/>
-      <c r="B30" s="66"/>
+    <row r="30" spans="1:33" s="11" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30"/>
+      <c r="B30"/>
       <c r="C30" s="6" t="s">
         <v>486</v>
       </c>
@@ -3936,41 +4014,41 @@
       <c r="H30" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="66"/>
-      <c r="Q30" s="66"/>
-      <c r="R30" s="66"/>
-      <c r="S30" s="66"/>
-      <c r="T30" s="66"/>
-      <c r="U30" s="66"/>
-      <c r="V30" s="66"/>
-      <c r="W30" s="66"/>
-      <c r="X30" s="66"/>
-      <c r="Y30" s="66"/>
-      <c r="Z30" s="66"/>
-      <c r="AA30" s="66"/>
-      <c r="AB30" s="66"/>
-      <c r="AC30" s="66"/>
-      <c r="AD30" s="66"/>
-      <c r="AE30" s="66"/>
-      <c r="AF30" s="66"/>
-      <c r="AG30" s="66"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+      <c r="AE30"/>
+      <c r="AF30"/>
+      <c r="AG30"/>
     </row>
     <row r="31" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="64"/>
     </row>
     <row r="32" spans="1:33" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A32"/>
@@ -4892,115 +4970,115 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C65" s="18" t="s">
+    <row r="65" spans="3:8" s="65" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C65" s="66" t="s">
+        <v>490</v>
+      </c>
+      <c r="D65" s="66"/>
+      <c r="E65" s="67" t="s">
+        <v>491</v>
+      </c>
+      <c r="F65" s="66" t="s">
+        <v>489</v>
+      </c>
+      <c r="G65" s="66"/>
+      <c r="H65" s="66"/>
+    </row>
+    <row r="66" spans="3:8" s="68" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C66" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="D66" s="8">
+        <v>2011</v>
+      </c>
+      <c r="E66" s="70" t="s">
+        <v>495</v>
+      </c>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" s="65" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C67" s="66" t="s">
+        <v>493</v>
+      </c>
+      <c r="D67" s="66">
+        <v>2015</v>
+      </c>
+      <c r="E67" s="67" t="s">
+        <v>496</v>
+      </c>
+      <c r="F67" s="66"/>
+      <c r="G67" s="66"/>
+      <c r="H67" s="66"/>
+    </row>
+    <row r="68" spans="3:8" s="68" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C68" s="66" t="s">
+        <v>492</v>
+      </c>
+      <c r="D68" s="66">
+        <v>2016</v>
+      </c>
+      <c r="E68" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="F68" s="66"/>
+      <c r="G68" s="66"/>
+      <c r="H68" s="66"/>
+    </row>
+    <row r="69" spans="3:8" s="68" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C69" s="66" t="s">
+        <v>500</v>
+      </c>
+      <c r="D69" s="66">
+        <v>2017</v>
+      </c>
+      <c r="E69" s="69" t="s">
+        <v>501</v>
+      </c>
+      <c r="F69" s="66"/>
+      <c r="G69" s="66"/>
+      <c r="H69" s="66"/>
+    </row>
+    <row r="70" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C70" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="D65" s="18">
+      <c r="D70" s="18">
         <v>2019</v>
       </c>
-      <c r="E65" s="18" t="s">
+      <c r="E70" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="F65" s="18" t="s">
+      <c r="F70" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="G65" s="18" t="s">
+      <c r="G70" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="H65" s="18" t="s">
+      <c r="H70" s="18" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="66" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C66" s="53" t="s">
-        <v>216</v>
-      </c>
-      <c r="D66" s="54"/>
-      <c r="E66" s="54"/>
-      <c r="F66" s="54"/>
-      <c r="G66" s="54"/>
-      <c r="H66" s="55"/>
-    </row>
-    <row r="67" spans="3:8" ht="15" x14ac:dyDescent="0.4">
-      <c r="C67" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D67" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E67" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="F67" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="G67" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="H67" s="21" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="68" spans="3:8" ht="111" x14ac:dyDescent="0.4">
-      <c r="C68" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D68" s="7">
-        <v>2019</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="69" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C69" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="D69" s="7">
-        <v>2019</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="70" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C70" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="D70" s="7">
-        <v>2021</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="71" spans="3:8" ht="70.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C71" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="D71" s="7">
-        <v>2022</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>225</v>
-      </c>
+    <row r="71" spans="3:8" s="65" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C71" s="66" t="s">
+        <v>498</v>
+      </c>
+      <c r="D71" s="66">
+        <v>2023</v>
+      </c>
+      <c r="E71" s="67" t="s">
+        <v>499</v>
+      </c>
+      <c r="F71" s="66"/>
+      <c r="G71" s="66"/>
+      <c r="H71" s="66"/>
     </row>
     <row r="72" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="C72" s="53" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="D72" s="54"/>
       <c r="E72" s="54"/>
@@ -5008,1232 +5086,1329 @@
       <c r="G72" s="54"/>
       <c r="H72" s="55"/>
     </row>
-    <row r="73" spans="3:8" s="23" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C73" s="22" t="s">
+    <row r="73" spans="3:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="C73" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D73" s="22" t="s">
+      <c r="D73" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E73" s="22" t="s">
+      <c r="E73" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="F73" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="G73" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="H73" s="21" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8" ht="111" x14ac:dyDescent="0.4">
+      <c r="C74" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D74" s="7">
+        <v>2019</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="75" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C75" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D75" s="7">
+        <v>2019</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C76" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D76" s="7">
+        <v>2021</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="77" spans="3:8" ht="70.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C77" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D77" s="7">
+        <v>2022</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="78" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C78" s="53" t="s">
+        <v>231</v>
+      </c>
+      <c r="D78" s="54"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="54"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="55"/>
+    </row>
+    <row r="79" spans="3:8" s="23" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C79" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E79" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="F73" s="22" t="s">
+      <c r="F79" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="G73" s="22" t="s">
+      <c r="G79" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="H73" s="22" t="s">
+      <c r="H79" s="22" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="74" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
-      <c r="C74" s="26" t="s">
+    <row r="80" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="C80" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="D74" s="26">
+      <c r="D80" s="26">
         <v>2007</v>
       </c>
-      <c r="E74" s="26" t="s">
+      <c r="E80" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="F74" s="26" t="s">
+      <c r="F80" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="G74" s="26" t="s">
+      <c r="G80" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="H74" s="26" t="s">
+      <c r="H80" s="26" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="75" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C75" s="26" t="s">
+    <row r="81" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C81" s="26" t="s">
         <v>460</v>
       </c>
-      <c r="D75" s="26">
+      <c r="D81" s="26">
         <v>2008</v>
       </c>
-      <c r="E75" s="26" t="s">
+      <c r="E81" s="26" t="s">
         <v>461</v>
       </c>
-      <c r="F75" s="26"/>
-      <c r="G75" s="26"/>
-      <c r="H75" s="26"/>
-    </row>
-    <row r="76" spans="3:8" s="28" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
-      <c r="C76" s="7" t="s">
+      <c r="F81" s="26"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="26"/>
+    </row>
+    <row r="82" spans="3:8" s="28" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="C82" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D82" s="7">
         <v>2009</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E82" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="F82" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="G76" s="7" t="s">
+      <c r="G82" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="H76" s="7" t="s">
+      <c r="H82" s="7" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="77" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C77" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="D77" s="27">
-        <v>2016</v>
-      </c>
-      <c r="E77" s="27" t="s">
-        <v>424</v>
-      </c>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="27"/>
-    </row>
-    <row r="78" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C78" s="27" t="s">
-        <v>418</v>
-      </c>
-      <c r="D78" s="27">
-        <v>2017</v>
-      </c>
-      <c r="E78" s="27" t="s">
-        <v>419</v>
-      </c>
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="27"/>
-    </row>
-    <row r="79" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C79" s="27" t="s">
-        <v>420</v>
-      </c>
-      <c r="D79" s="27">
-        <v>2019</v>
-      </c>
-      <c r="E79" s="27" t="s">
-        <v>421</v>
-      </c>
-      <c r="F79" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="G79" s="27"/>
-      <c r="H79" s="27"/>
-    </row>
-    <row r="80" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C80" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="D80" s="27">
-        <v>2019</v>
-      </c>
-      <c r="E80" s="27" t="s">
-        <v>414</v>
-      </c>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="27"/>
-    </row>
-    <row r="81" spans="3:8" ht="111" x14ac:dyDescent="0.4">
-      <c r="C81" s="27" t="s">
-        <v>301</v>
-      </c>
-      <c r="D81" s="27">
-        <v>2020</v>
-      </c>
-      <c r="E81" s="27" t="s">
-        <v>302</v>
-      </c>
-      <c r="F81" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="G81" s="27" t="s">
-        <v>304</v>
-      </c>
-      <c r="H81" s="27" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="82" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C82" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="D82" s="27">
-        <v>2020</v>
-      </c>
-      <c r="E82" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="27"/>
     </row>
     <row r="83" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C83" s="27" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D83" s="27">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="E83" s="27" t="s">
-        <v>428</v>
-      </c>
-      <c r="F83" s="27" t="s">
-        <v>422</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="F83" s="27"/>
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
     </row>
     <row r="84" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C84" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="D84" s="7">
-        <v>2021</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="85" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C85" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="D85" s="7">
-        <v>2021</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="87" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C87" s="56" t="s">
-        <v>239</v>
-      </c>
-      <c r="D87" s="57"/>
-      <c r="E87" s="57"/>
-      <c r="F87" s="57"/>
-      <c r="G87" s="57"/>
-      <c r="H87" s="58"/>
-    </row>
-    <row r="88" spans="3:8" s="28" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C88" s="49" t="s">
-        <v>467</v>
-      </c>
-      <c r="D88" s="48">
-        <v>1992</v>
-      </c>
-      <c r="E88" s="28" t="s">
-        <v>468</v>
-      </c>
+      <c r="C84" s="27" t="s">
+        <v>418</v>
+      </c>
+      <c r="D84" s="27">
+        <v>2017</v>
+      </c>
+      <c r="E84" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="27"/>
+    </row>
+    <row r="85" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C85" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="D85" s="27">
+        <v>2019</v>
+      </c>
+      <c r="E85" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="F85" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="G85" s="27"/>
+      <c r="H85" s="27"/>
+    </row>
+    <row r="86" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C86" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="D86" s="27">
+        <v>2019</v>
+      </c>
+      <c r="E86" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="F86" s="27"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="27"/>
+    </row>
+    <row r="87" spans="3:8" ht="111" x14ac:dyDescent="0.4">
+      <c r="C87" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="D87" s="27">
+        <v>2020</v>
+      </c>
+      <c r="E87" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="F87" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="G87" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="H87" s="27" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C88" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="D88" s="27">
+        <v>2020</v>
+      </c>
+      <c r="E88" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="27"/>
     </row>
     <row r="89" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C89" s="27" t="s">
-        <v>395</v>
+        <v>427</v>
       </c>
       <c r="D89" s="27">
-        <v>2004</v>
+        <v>2020</v>
       </c>
       <c r="E89" s="27" t="s">
-        <v>397</v>
+        <v>428</v>
       </c>
       <c r="F89" s="27" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
     </row>
-    <row r="90" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="90" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C90" s="7" t="s">
-        <v>246</v>
+        <v>411</v>
       </c>
       <c r="D90" s="7">
-        <v>2005</v>
+        <v>2021</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H90" s="7" t="s">
-        <v>251</v>
+        <v>412</v>
       </c>
     </row>
     <row r="91" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C91" s="7" t="s">
-        <v>398</v>
+        <v>429</v>
       </c>
       <c r="D91" s="7">
-        <v>2007</v>
+        <v>2021</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="92" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
-      <c r="C92" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="D92" s="7">
-        <v>2015</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="H92" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="93" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C93" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="D93" s="7">
-        <v>2016</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="H93" s="7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="94" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C94" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="D94" s="7">
-        <v>2016</v>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C93" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="D93" s="57"/>
+      <c r="E93" s="57"/>
+      <c r="F93" s="57"/>
+      <c r="G93" s="57"/>
+      <c r="H93" s="58"/>
+    </row>
+    <row r="94" spans="3:8" s="28" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C94" s="49" t="s">
+        <v>467</v>
+      </c>
+      <c r="D94" s="48">
+        <v>1992</v>
+      </c>
+      <c r="E94" s="28" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="95" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C95" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="D95" s="7">
-        <v>2016</v>
-      </c>
-      <c r="E95" t="s">
-        <v>479</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>477</v>
-      </c>
+      <c r="C95" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="D95" s="27">
+        <v>2004</v>
+      </c>
+      <c r="E95" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="F95" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="G95" s="27"/>
+      <c r="H95" s="27"/>
     </row>
     <row r="96" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C96" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D96" s="7">
+        <v>2005</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="97" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C97" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D97" s="7">
+        <v>2007</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="98" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="C98" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D98" s="7">
+        <v>2015</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="99" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C99" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="D99" s="7">
+        <v>2016</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="100" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C100" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="D100" s="7">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="101" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C101" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="D101" s="7">
+        <v>2016</v>
+      </c>
+      <c r="E101" t="s">
+        <v>479</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="102" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C102" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="D96" s="7">
+      <c r="D102" s="7">
         <v>2017</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="E102" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="F96" s="7" t="s">
+      <c r="F102" s="7" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="97" spans="3:8" s="28" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C97" s="29" t="s">
+    <row r="103" spans="3:8" s="28" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C103" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="D97" s="7">
+      <c r="D103" s="7">
         <v>2017</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="E103" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="F103" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="G97" s="7" t="s">
+      <c r="G103" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="H97" s="7" t="s">
+      <c r="H103" s="7" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="98" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C98" s="29" t="s">
+    <row r="104" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C104" s="29" t="s">
         <v>405</v>
       </c>
-      <c r="D98" s="7">
+      <c r="D104" s="7">
         <v>2018</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="E104" s="7" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="99" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C99" s="29" t="s">
+    <row r="105" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C105" s="29" t="s">
         <v>403</v>
       </c>
-      <c r="D99" s="7">
+      <c r="D105" s="7">
         <v>2018</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="E105" s="7" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="100" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C100" s="29" t="s">
+    <row r="106" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C106" s="29" t="s">
         <v>480</v>
       </c>
-      <c r="D100" s="7">
+      <c r="D106" s="7">
         <v>2019</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="E106" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="F106" s="7" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="101" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C101" s="29" t="s">
+    <row r="107" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C107" s="29" t="s">
         <v>401</v>
       </c>
-      <c r="D101" s="7">
+      <c r="D107" s="7">
         <v>2019</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="E107" s="7" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="102" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C102" s="29" t="s">
+    <row r="108" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C108" s="29" t="s">
         <v>482</v>
       </c>
-      <c r="D102" s="7">
+      <c r="D108" s="7">
         <v>2019</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="E108" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="F102" s="7" t="s">
+      <c r="F108" s="7" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="103" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
-      <c r="C103" s="7" t="s">
+    <row r="109" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="C109" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="D103" s="7">
+      <c r="D109" s="7">
         <v>2020</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="E109" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="F103" s="7" t="s">
+      <c r="F109" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="G103" s="7" t="s">
+      <c r="G109" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="H103" s="7" t="s">
+      <c r="H109" s="7" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="104" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C104" s="7" t="s">
+    <row r="110" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C110" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="D104" s="7">
+      <c r="D110" s="7">
         <v>2020</v>
       </c>
-      <c r="E104" s="7" t="s">
+      <c r="E110" s="7" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="105" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C105" s="7" t="s">
+    <row r="111" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C111" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="D105" s="7">
+      <c r="D111" s="7">
         <v>2022</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="E111" s="7" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="106" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C106" s="7" t="s">
+    <row r="112" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C112" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="D106" s="7">
+      <c r="D112" s="7">
         <v>2023</v>
       </c>
-      <c r="E106" s="7" t="s">
+      <c r="E112" s="7" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="108" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C108" s="53" t="s">
+    <row r="114" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C114" s="53" t="s">
         <v>240</v>
       </c>
-      <c r="D108" s="54"/>
-      <c r="E108" s="54"/>
-      <c r="F108" s="54"/>
-      <c r="G108" s="54"/>
-      <c r="H108" s="55"/>
-    </row>
-    <row r="109" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C109" s="10" t="s">
+      <c r="D114" s="54"/>
+      <c r="E114" s="54"/>
+      <c r="F114" s="54"/>
+      <c r="G114" s="54"/>
+      <c r="H114" s="55"/>
+    </row>
+    <row r="115" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C115" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="D109" s="10">
+      <c r="D115" s="10">
         <v>2002</v>
       </c>
-      <c r="E109" s="10" t="s">
+      <c r="E115" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="F109" s="10" t="s">
+      <c r="F115" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="G109" s="10" t="s">
+      <c r="G115" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="H109" s="10"/>
-    </row>
-    <row r="110" spans="3:8" ht="111" x14ac:dyDescent="0.4">
-      <c r="C110" s="33" t="s">
+      <c r="H115" s="10"/>
+    </row>
+    <row r="116" spans="3:8" ht="111" x14ac:dyDescent="0.4">
+      <c r="C116" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="D110" s="33">
+      <c r="D116" s="33">
         <v>2008</v>
       </c>
-      <c r="E110" s="33" t="s">
+      <c r="E116" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="F110" s="33" t="s">
+      <c r="F116" s="33" t="s">
         <v>343</v>
       </c>
-      <c r="G110" s="33" t="s">
+      <c r="G116" s="33" t="s">
         <v>345</v>
       </c>
-      <c r="H110" s="33" t="s">
+      <c r="H116" s="33" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="111" spans="3:8" ht="124.9" x14ac:dyDescent="0.4">
-      <c r="C111" s="33" t="s">
+    <row r="117" spans="3:8" ht="124.9" x14ac:dyDescent="0.4">
+      <c r="C117" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="D111" s="33">
+      <c r="D117" s="33">
         <v>2009</v>
       </c>
-      <c r="E111" s="33" t="s">
+      <c r="E117" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="F111" s="33" t="s">
+      <c r="F117" s="33" t="s">
         <v>347</v>
       </c>
-      <c r="G111" s="33" t="s">
+      <c r="G117" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="H111" s="33" t="s">
+      <c r="H117" s="33" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="112" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
-      <c r="C112" s="41" t="s">
+    <row r="118" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="C118" s="41" t="s">
         <v>259</v>
       </c>
-      <c r="D112" s="41">
+      <c r="D118" s="41">
         <v>2011</v>
       </c>
-      <c r="E112" s="41" t="s">
+      <c r="E118" s="41" t="s">
         <v>260</v>
       </c>
-      <c r="F112" s="41" t="s">
+      <c r="F118" s="41" t="s">
         <v>263</v>
       </c>
-      <c r="G112" s="41" t="s">
+      <c r="G118" s="41" t="s">
         <v>261</v>
       </c>
-      <c r="H112" s="41" t="s">
+      <c r="H118" s="41" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="113" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C113" s="33" t="s">
+    <row r="119" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C119" s="33" t="s">
         <v>378</v>
       </c>
-      <c r="D113" s="33">
+      <c r="D119" s="33">
         <v>2015</v>
       </c>
-      <c r="E113" s="33" t="s">
+      <c r="E119" s="33" t="s">
         <v>379</v>
       </c>
-      <c r="F113" s="33" t="s">
+      <c r="F119" s="33" t="s">
         <v>380</v>
       </c>
-      <c r="G113" s="33"/>
-      <c r="H113" s="33"/>
-    </row>
-    <row r="114" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C114" s="33" t="s">
+      <c r="G119" s="33"/>
+      <c r="H119" s="33"/>
+    </row>
+    <row r="120" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C120" s="33" t="s">
         <v>389</v>
       </c>
-      <c r="D114" s="33">
+      <c r="D120" s="33">
         <v>2015</v>
       </c>
-      <c r="E114" s="33" t="s">
+      <c r="E120" s="33" t="s">
         <v>390</v>
       </c>
-      <c r="F114" s="33" t="s">
+      <c r="F120" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="G114" s="33"/>
-      <c r="H114" s="33"/>
-    </row>
-    <row r="115" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C115" s="41" t="s">
+      <c r="G120" s="33"/>
+      <c r="H120" s="33"/>
+    </row>
+    <row r="121" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C121" s="41" t="s">
         <v>264</v>
       </c>
-      <c r="D115" s="41">
+      <c r="D121" s="41">
         <v>2016</v>
       </c>
-      <c r="E115" s="41" t="s">
+      <c r="E121" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="F115" s="41" t="s">
+      <c r="F121" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="G115" s="41" t="s">
+      <c r="G121" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="H115" s="41" t="s">
+      <c r="H121" s="41" t="s">
         <v>267</v>
-      </c>
-    </row>
-    <row r="116" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C116" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="D116" s="10">
-        <v>2016</v>
-      </c>
-      <c r="E116" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="F116" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="G116" s="10"/>
-      <c r="H116" s="10"/>
-    </row>
-    <row r="117" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C117" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="D117" s="10">
-        <v>2017</v>
-      </c>
-      <c r="E117" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="F117" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="G117" s="10"/>
-      <c r="H117" s="10"/>
-    </row>
-    <row r="118" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C118" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="D118" s="10">
-        <v>2017</v>
-      </c>
-      <c r="E118" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="F118" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="G118" s="10"/>
-      <c r="H118" s="10"/>
-    </row>
-    <row r="119" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C119" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="D119" s="41">
-        <v>2017</v>
-      </c>
-      <c r="E119" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="F119" s="41" t="s">
-        <v>371</v>
-      </c>
-      <c r="G119" s="41"/>
-      <c r="H119" s="41"/>
-    </row>
-    <row r="120" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C120" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="D120" s="8">
-        <v>2017</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="F120" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="G120" s="8"/>
-      <c r="H120" s="8"/>
-    </row>
-    <row r="121" spans="3:8" ht="83.25" x14ac:dyDescent="0.4">
-      <c r="C121" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="D121" s="8">
-        <v>2018</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="F121" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="G121" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="H121" s="8" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="122" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C122" s="10" t="s">
-        <v>416</v>
+        <v>369</v>
       </c>
       <c r="D122" s="10">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="F122" s="10"/>
+        <v>370</v>
+      </c>
+      <c r="F122" s="10" t="s">
+        <v>375</v>
+      </c>
       <c r="G122" s="10"/>
       <c r="H122" s="10"/>
     </row>
     <row r="123" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C123" s="33" t="s">
+      <c r="C123" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="D123" s="10">
+        <v>2017</v>
+      </c>
+      <c r="E123" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="F123" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="G123" s="10"/>
+      <c r="H123" s="10"/>
+    </row>
+    <row r="124" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C124" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="D124" s="10">
+        <v>2017</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F124" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="G124" s="10"/>
+      <c r="H124" s="10"/>
+    </row>
+    <row r="125" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C125" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="D125" s="41">
+        <v>2017</v>
+      </c>
+      <c r="E125" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="F125" s="41" t="s">
+        <v>371</v>
+      </c>
+      <c r="G125" s="41"/>
+      <c r="H125" s="41"/>
+    </row>
+    <row r="126" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C126" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="D126" s="8">
+        <v>2017</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="G126" s="8"/>
+      <c r="H126" s="8"/>
+    </row>
+    <row r="127" spans="3:8" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="C127" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D127" s="8">
+        <v>2018</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="H127" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="128" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C128" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="D128" s="10">
+        <v>2018</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="10"/>
+    </row>
+    <row r="129" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C129" s="33" t="s">
         <v>321</v>
       </c>
-      <c r="D123" s="33">
+      <c r="D129" s="33">
         <v>2018</v>
       </c>
-      <c r="E123" s="33" t="s">
+      <c r="E129" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="F123" s="33" t="s">
+      <c r="F129" s="33" t="s">
         <v>351</v>
       </c>
-      <c r="G123" s="33" t="s">
+      <c r="G129" s="33" t="s">
         <v>349</v>
       </c>
-      <c r="H123" s="33" t="s">
+      <c r="H129" s="33" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="124" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C124" s="8" t="s">
+    <row r="130" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C130" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="D124" s="8">
+      <c r="D130" s="8">
         <v>2019</v>
       </c>
-      <c r="E124" s="8" t="s">
+      <c r="E130" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="F124" s="8" t="s">
+      <c r="F130" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="G124" s="8" t="s">
+      <c r="G130" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="H124" s="8" t="s">
+      <c r="H130" s="8" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="125" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C125" s="10" t="s">
+    <row r="131" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C131" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="D125" s="10">
+      <c r="D131" s="10">
         <v>2019</v>
       </c>
-      <c r="E125" s="10" t="s">
+      <c r="E131" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="F125" s="10" t="s">
+      <c r="F131" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="G125" s="10"/>
-      <c r="H125" s="10"/>
-    </row>
-    <row r="126" spans="3:8" s="14" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
-      <c r="C126" s="16" t="s">
+      <c r="G131" s="10"/>
+      <c r="H131" s="10"/>
+    </row>
+    <row r="132" spans="3:8" s="14" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="C132" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="D126" s="8">
+      <c r="D132" s="8">
         <v>2019</v>
       </c>
-      <c r="E126" s="16" t="s">
+      <c r="E132" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="F126" s="16" t="s">
+      <c r="F132" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="G126" s="16" t="s">
+      <c r="G132" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="H126" s="16" t="s">
+      <c r="H132" s="16" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="127" spans="3:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C127" s="16" t="s">
+    <row r="133" spans="3:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C133" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="D127" s="8">
+      <c r="D133" s="8">
         <v>2019</v>
       </c>
-      <c r="E127" s="16" t="s">
+      <c r="E133" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="F127" s="16" t="s">
+      <c r="F133" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="G127" s="16"/>
-      <c r="H127" s="16"/>
-    </row>
-    <row r="128" spans="3:8" s="14" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C128" s="16" t="s">
+      <c r="G133" s="16"/>
+      <c r="H133" s="16"/>
+    </row>
+    <row r="134" spans="3:8" s="14" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C134" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="D128" s="8">
+      <c r="D134" s="8">
         <v>2020</v>
       </c>
-      <c r="E128" s="16" t="s">
+      <c r="E134" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="F128" s="16" t="s">
+      <c r="F134" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="G128" s="16" t="s">
+      <c r="G134" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="H128" s="16" t="s">
+      <c r="H134" s="16" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="129" spans="3:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C129" s="34" t="s">
+    <row r="135" spans="3:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C135" s="34" t="s">
         <v>392</v>
       </c>
-      <c r="D129" s="33">
+      <c r="D135" s="33">
         <v>2020</v>
       </c>
-      <c r="E129" s="35" t="s">
+      <c r="E135" s="35" t="s">
         <v>393</v>
       </c>
-      <c r="F129" s="36" t="s">
+      <c r="F135" s="36" t="s">
         <v>394</v>
       </c>
-      <c r="G129" s="34"/>
-      <c r="H129" s="34"/>
-    </row>
-    <row r="130" spans="3:8" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C130" s="16" t="s">
+      <c r="G135" s="34"/>
+      <c r="H135" s="34"/>
+    </row>
+    <row r="136" spans="3:8" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C136" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="D130" s="38">
+      <c r="D136" s="38">
         <v>2020</v>
       </c>
-      <c r="E130" s="39" t="s">
+      <c r="E136" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="F130" s="16" t="s">
+      <c r="F136" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="G130" s="16" t="s">
+      <c r="G136" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="H130" s="16" t="s">
+      <c r="H136" s="16" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="131" spans="3:8" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C131" s="34" t="s">
+    <row r="137" spans="3:8" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C137" s="34" t="s">
         <v>316</v>
       </c>
-      <c r="D131" s="40">
+      <c r="D137" s="40">
         <v>2021</v>
       </c>
-      <c r="E131" s="33" t="s">
+      <c r="E137" s="33" t="s">
         <v>317</v>
       </c>
-      <c r="F131" s="34" t="s">
+      <c r="F137" s="34" t="s">
         <v>322</v>
       </c>
-      <c r="G131" s="34" t="s">
+      <c r="G137" s="34" t="s">
         <v>323</v>
       </c>
-      <c r="H131" s="34" t="s">
+      <c r="H137" s="34" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="132" spans="3:8" s="46" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C132" s="25" t="s">
+    <row r="138" spans="3:8" s="46" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C138" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="D132" s="43">
+      <c r="D138" s="43">
         <v>2022</v>
       </c>
-      <c r="E132" s="47"/>
-      <c r="F132" s="25"/>
-      <c r="G132" s="25"/>
-      <c r="H132" s="25"/>
-    </row>
-    <row r="133" spans="3:8" s="14" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C133" s="44" t="s">
+      <c r="E138" s="47"/>
+      <c r="F138" s="25"/>
+      <c r="G138" s="25"/>
+      <c r="H138" s="25"/>
+    </row>
+    <row r="139" spans="3:8" s="14" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C139" s="44" t="s">
         <v>333</v>
       </c>
-      <c r="D133" s="45">
+      <c r="D139" s="45">
         <v>2023</v>
       </c>
-      <c r="E133" s="42" t="s">
+      <c r="E139" s="42" t="s">
         <v>334</v>
       </c>
-      <c r="F133" s="44" t="s">
+      <c r="F139" s="44" t="s">
         <v>335</v>
       </c>
-      <c r="G133" s="44" t="s">
+      <c r="G139" s="44" t="s">
         <v>336</v>
       </c>
-      <c r="H133" s="44" t="s">
+      <c r="H139" s="44" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="134" spans="3:8" ht="111" x14ac:dyDescent="0.4">
-      <c r="C134" s="10" t="s">
+    <row r="140" spans="3:8" ht="111" x14ac:dyDescent="0.4">
+      <c r="C140" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="D134" s="10">
+      <c r="D140" s="10">
         <v>2023</v>
       </c>
-      <c r="E134" s="10" t="s">
+      <c r="E140" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="F134" s="10" t="s">
+      <c r="F140" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="G134" s="10" t="s">
+      <c r="G140" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="H134" s="10" t="s">
+      <c r="H140" s="10" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="135" spans="3:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C135" s="16" t="s">
+    <row r="141" spans="3:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C141" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="D135" s="37"/>
-      <c r="E135" s="16"/>
-      <c r="F135" s="16" t="s">
+      <c r="D141" s="37"/>
+      <c r="E141" s="16"/>
+      <c r="F141" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="G135" s="16"/>
-      <c r="H135" s="16"/>
-    </row>
-    <row r="137" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C137" s="56" t="s">
+      <c r="G141" s="16"/>
+      <c r="H141" s="16"/>
+    </row>
+    <row r="143" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C143" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="D137" s="57"/>
-      <c r="E137" s="57"/>
-      <c r="F137" s="57"/>
-      <c r="G137" s="57"/>
-      <c r="H137" s="58"/>
-    </row>
-    <row r="138" spans="3:8" s="25" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C138" s="25" t="s">
+      <c r="D143" s="57"/>
+      <c r="E143" s="57"/>
+      <c r="F143" s="57"/>
+      <c r="G143" s="57"/>
+      <c r="H143" s="58"/>
+    </row>
+    <row r="144" spans="3:8" s="25" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C144" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="D138" s="25">
+      <c r="D144" s="25">
         <v>2016</v>
       </c>
-      <c r="E138" s="25" t="s">
+      <c r="E144" s="25" t="s">
         <v>438</v>
       </c>
-      <c r="F138" s="25" t="s">
+      <c r="F144" s="25" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="139" spans="3:8" s="30" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C139" s="31" t="s">
+    <row r="145" spans="3:8" s="30" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C145" s="31" t="s">
         <v>457</v>
       </c>
-      <c r="D139" s="31">
+      <c r="D145" s="31">
         <v>2017</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E145" t="s">
         <v>458</v>
       </c>
-      <c r="F139" s="31" t="s">
+      <c r="F145" s="31" t="s">
         <v>459</v>
       </c>
-      <c r="G139" s="31"/>
-      <c r="H139" s="31"/>
-    </row>
-    <row r="140" spans="3:8" s="30" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C140" s="31" t="s">
+      <c r="G145" s="31"/>
+      <c r="H145" s="31"/>
+    </row>
+    <row r="146" spans="3:8" s="30" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C146" s="31" t="s">
         <v>440</v>
       </c>
-      <c r="D140" s="31">
+      <c r="D146" s="31">
         <v>2018</v>
       </c>
-      <c r="E140" s="28" t="s">
+      <c r="E146" s="28" t="s">
         <v>441</v>
       </c>
-      <c r="F140" s="31" t="s">
+      <c r="F146" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="G140" s="31"/>
-      <c r="H140" s="31"/>
-    </row>
-    <row r="141" spans="3:8" s="30" customFormat="1" ht="111" x14ac:dyDescent="0.4">
-      <c r="C141" s="31" t="s">
+      <c r="G146" s="31"/>
+      <c r="H146" s="31"/>
+    </row>
+    <row r="147" spans="3:8" s="30" customFormat="1" ht="111" x14ac:dyDescent="0.4">
+      <c r="C147" s="31" t="s">
         <v>446</v>
       </c>
-      <c r="D141" s="31">
+      <c r="D147" s="31">
         <v>2018</v>
       </c>
-      <c r="E141" s="32" t="s">
+      <c r="E147" s="32" t="s">
         <v>447</v>
       </c>
-      <c r="F141" s="31" t="s">
+      <c r="F147" s="31" t="s">
         <v>449</v>
       </c>
-      <c r="G141" s="31" t="s">
+      <c r="G147" s="31" t="s">
         <v>448</v>
       </c>
-      <c r="H141" s="31" t="s">
+      <c r="H147" s="31" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="142" spans="3:8" ht="97.15" x14ac:dyDescent="0.4">
-      <c r="C142" s="27" t="s">
+    <row r="148" spans="3:8" ht="97.15" x14ac:dyDescent="0.4">
+      <c r="C148" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="D142" s="27">
+      <c r="D148" s="27">
         <v>2019</v>
       </c>
-      <c r="E142" s="27" t="s">
+      <c r="E148" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="F142" s="27" t="s">
+      <c r="F148" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="G142" s="27" t="s">
+      <c r="G148" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="H142" s="27" t="s">
+      <c r="H148" s="27" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="143" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C143" s="7" t="s">
+    <row r="149" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C149" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="D143" s="7">
+      <c r="D149" s="7">
         <v>2019</v>
       </c>
-      <c r="E143" s="7" t="s">
+      <c r="E149" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="F143" s="7" t="s">
+      <c r="F149" s="7" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="144" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C144" s="7" t="s">
+    <row r="150" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C150" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="D144" s="7">
+      <c r="D150" s="7">
         <v>2019</v>
       </c>
-      <c r="E144" s="28" t="s">
+      <c r="E150" s="28" t="s">
         <v>444</v>
       </c>
-      <c r="F144" s="7" t="s">
+      <c r="F150" s="7" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="145" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C145" s="29" t="s">
+    <row r="151" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C151" s="29" t="s">
         <v>434</v>
       </c>
-      <c r="D145" s="7">
+      <c r="D151" s="7">
         <v>2019</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E151" t="s">
         <v>435</v>
       </c>
-      <c r="F145" s="7" t="s">
+      <c r="F151" s="7" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="146" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C146" s="29" t="s">
+    <row r="152" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C152" s="29" t="s">
         <v>451</v>
       </c>
-      <c r="D146" s="7">
+      <c r="D152" s="7">
         <v>2019</v>
       </c>
-      <c r="E146" s="7" t="s">
+      <c r="E152" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="F146" s="7" t="s">
+      <c r="F152" s="7" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="147" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C147" s="7" t="s">
+    <row r="153" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C153" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="D147" s="7">
+      <c r="D153" s="7">
         <v>2019</v>
       </c>
-      <c r="E147" s="7" t="s">
+      <c r="E153" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="F147" s="7" t="s">
+      <c r="F153" s="7" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="151" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C151" s="53" t="s">
+    <row r="157" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C157" s="53" t="s">
         <v>293</v>
       </c>
-      <c r="D151" s="54"/>
-      <c r="E151" s="54"/>
-      <c r="F151" s="54"/>
-      <c r="G151" s="54"/>
-      <c r="H151" s="55"/>
-    </row>
-    <row r="152" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C152" s="7" t="s">
+      <c r="D157" s="54"/>
+      <c r="E157" s="54"/>
+      <c r="F157" s="54"/>
+      <c r="G157" s="54"/>
+      <c r="H157" s="55"/>
+    </row>
+    <row r="158" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C158" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="D152" s="7">
+      <c r="D158" s="7">
         <v>2020</v>
       </c>
-      <c r="E152" s="7" t="s">
+      <c r="E158" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="F152" s="7" t="s">
+      <c r="F158" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="153" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C153" s="7" t="s">
+    <row r="159" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C159" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="D153" s="7">
+      <c r="D159" s="7">
         <v>2021</v>
       </c>
-      <c r="E153" s="7" t="s">
+      <c r="E159" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="F153" s="7" t="s">
+      <c r="F159" s="7" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="154" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C154" s="7" t="s">
+    <row r="160" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C160" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="D154" s="7">
+      <c r="D160" s="7">
         <v>2022</v>
       </c>
-      <c r="E154" s="7" t="s">
+      <c r="E160" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="F154" s="7" t="s">
+      <c r="F160" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="G154" s="7" t="s">
+      <c r="G160" s="7" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="155" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C155" s="7" t="s">
+    <row r="161" spans="3:6" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C161" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="D155" s="7">
+      <c r="D161" s="7">
         <v>2023</v>
       </c>
-      <c r="E155" s="7" t="s">
+      <c r="E161" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="F155" s="7" t="s">
+      <c r="F161" s="7" t="s">
         <v>340</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C151:H151"/>
-    <mergeCell ref="C87:H87"/>
-    <mergeCell ref="C108:H108"/>
-    <mergeCell ref="C137:H137"/>
-    <mergeCell ref="C72:H72"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="C157:H157"/>
+    <mergeCell ref="C93:H93"/>
+    <mergeCell ref="C114:H114"/>
+    <mergeCell ref="C143:H143"/>
+    <mergeCell ref="C78:H78"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E65" r:id="rId1" xr:uid="{AF0C9DA7-0840-4939-9FB7-B8EA5F17F2E0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="74117954-47dd-4623-be10-f2d34b3fe6e8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100650C27B66691BA4BB901C940018B449F" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="856977a71e7c379887d8f02f6ee17dc3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="74117954-47dd-4623-be10-f2d34b3fe6e8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f93a31a691d6cd74e693f1feb46bcb1" ns3:_="">
     <xsd:import namespace="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
@@ -6377,14 +6552,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="74117954-47dd-4623-be10-f2d34b3fe6e8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6395,6 +6562,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C05F824-F09D-405F-9153-DBE4FFD9352F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{411558D9-DEA1-49BF-987E-1A683BCBCD59}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6412,22 +6595,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C05F824-F09D-405F-9153-DBE4FFD9352F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16812470-A4E1-4DBD-AEE1-4642C4933AF0}">
   <ds:schemaRefs>

--- a/ML Apply in OS/summary (new version).xlsx
+++ b/ML Apply in OS/summary (new version).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HKU\HKU\23Fall\AI-OS\ML Apply in OS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368933E3-3E40-4D53-82D1-433B9FABEFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C009C2C-A821-4BF6-A6ED-78E1909204A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="504">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2031,13 +2032,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Heteroos: Os design for heterogeneous memory management in datacenter</t>
-  </si>
-  <si>
-    <t>Proceedings of the 44th Annual International Symposium on Computer Architecture</t>
-  </si>
-  <si>
     <t>Statistic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model-based:greedy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statistic-history</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2325,7 +2332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2461,6 +2468,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2468,6 +2493,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2478,40 +2512,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2800,10 +2800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG161"/>
+  <dimension ref="A1:AG160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2838,14 +2838,14 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="61"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="58"/>
     </row>
     <row r="3" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3"/>
@@ -3433,14 +3433,14 @@
       <c r="AE15"/>
     </row>
     <row r="16" spans="1:31" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="55"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="61"/>
     </row>
     <row r="17" spans="1:33" s="11" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A17"/>
@@ -4561,14 +4561,14 @@
       </c>
     </row>
     <row r="44" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C44" s="53" t="s">
+      <c r="C44" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="55"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="61"/>
     </row>
     <row r="45" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C45" s="8" t="s">
@@ -4970,291 +4970,290 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="3:8" s="65" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C65" s="66" t="s">
+    <row r="65" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C65" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="D65" s="66"/>
-      <c r="E65" s="67" t="s">
+      <c r="E65" s="53" t="s">
         <v>491</v>
       </c>
-      <c r="F65" s="66" t="s">
+      <c r="F65" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="G65" s="66"/>
-      <c r="H65" s="66"/>
-    </row>
-    <row r="66" spans="3:8" s="68" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    </row>
+    <row r="66" spans="3:8" s="54" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C66" s="8" t="s">
         <v>494</v>
       </c>
       <c r="D66" s="8">
         <v>2011</v>
       </c>
-      <c r="E66" s="70" t="s">
+      <c r="E66" s="55" t="s">
         <v>495</v>
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="67" spans="3:8" s="65" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C67" s="66" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C67" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="D67" s="66">
+      <c r="D67" s="7">
         <v>2015</v>
       </c>
-      <c r="E67" s="67" t="s">
+      <c r="E67" s="53" t="s">
         <v>496</v>
       </c>
-      <c r="F67" s="66"/>
-      <c r="G67" s="66"/>
-      <c r="H67" s="66"/>
-    </row>
-    <row r="68" spans="3:8" s="68" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C68" s="66" t="s">
+      <c r="H67" s="7" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" s="54" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C68" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="D68" s="66">
+      <c r="D68" s="7">
         <v>2016</v>
       </c>
       <c r="E68" s="29" t="s">
         <v>497</v>
       </c>
-      <c r="F68" s="66"/>
-      <c r="G68" s="66"/>
-      <c r="H68" s="66"/>
-    </row>
-    <row r="69" spans="3:8" s="68" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C69" s="66" t="s">
-        <v>500</v>
-      </c>
-      <c r="D69" s="66">
-        <v>2017</v>
-      </c>
-      <c r="E69" s="69" t="s">
-        <v>501</v>
-      </c>
-      <c r="F69" s="66"/>
-      <c r="G69" s="66"/>
-      <c r="H69" s="66"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C69" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D69" s="18">
+        <v>2019</v>
+      </c>
+      <c r="E69" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F69" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="G69" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="H69" s="18" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="70" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C70" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D70" s="18">
+      <c r="C70" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="D70" s="7">
+        <v>2023</v>
+      </c>
+      <c r="E70" s="53" t="s">
+        <v>499</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C71" s="59" t="s">
+        <v>216</v>
+      </c>
+      <c r="D71" s="60"/>
+      <c r="E71" s="60"/>
+      <c r="F71" s="60"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="61"/>
+    </row>
+    <row r="72" spans="3:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="C72" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="F72" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="G72" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="H72" s="21" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8" ht="111" x14ac:dyDescent="0.4">
+      <c r="C73" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D73" s="7">
         <v>2019</v>
       </c>
-      <c r="E70" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="F70" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="G70" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="H70" s="18" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="71" spans="3:8" s="65" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C71" s="66" t="s">
-        <v>498</v>
-      </c>
-      <c r="D71" s="66">
-        <v>2023</v>
-      </c>
-      <c r="E71" s="67" t="s">
-        <v>499</v>
-      </c>
-      <c r="F71" s="66"/>
-      <c r="G71" s="66"/>
-      <c r="H71" s="66"/>
-    </row>
-    <row r="72" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C72" s="53" t="s">
-        <v>216</v>
-      </c>
-      <c r="D72" s="54"/>
-      <c r="E72" s="54"/>
-      <c r="F72" s="54"/>
-      <c r="G72" s="54"/>
-      <c r="H72" s="55"/>
-    </row>
-    <row r="73" spans="3:8" ht="15" x14ac:dyDescent="0.4">
-      <c r="C73" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D73" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E73" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="F73" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="G73" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="H73" s="21" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="74" spans="3:8" ht="111" x14ac:dyDescent="0.4">
+      <c r="E73" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C74" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D74" s="7">
         <v>2019</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="75" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C75" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D75" s="7">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="76" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8" ht="70.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C76" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D76" s="7">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="77" spans="3:8" ht="70.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C77" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="D77" s="7">
-        <v>2022</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H77" s="7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="78" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C78" s="53" t="s">
+    <row r="77" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C77" s="59" t="s">
         <v>231</v>
       </c>
-      <c r="D78" s="54"/>
-      <c r="E78" s="54"/>
-      <c r="F78" s="54"/>
-      <c r="G78" s="54"/>
-      <c r="H78" s="55"/>
-    </row>
-    <row r="79" spans="3:8" s="23" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C79" s="22" t="s">
+      <c r="D77" s="60"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="60"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="61"/>
+    </row>
+    <row r="78" spans="3:8" s="23" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C78" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D79" s="22" t="s">
+      <c r="D78" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E79" s="22" t="s">
+      <c r="E78" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="F79" s="22" t="s">
+      <c r="F78" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="G79" s="22" t="s">
+      <c r="G78" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="H79" s="22" t="s">
+      <c r="H78" s="22" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="80" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+    <row r="79" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="C79" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="D79" s="26">
+        <v>2007</v>
+      </c>
+      <c r="E79" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="F79" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="G79" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="H79" s="26" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="80" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C80" s="26" t="s">
-        <v>229</v>
+        <v>460</v>
       </c>
       <c r="D80" s="26">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E80" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="F80" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="G80" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="H80" s="26" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="81" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C81" s="26" t="s">
-        <v>460</v>
-      </c>
-      <c r="D81" s="26">
-        <v>2008</v>
-      </c>
-      <c r="E81" s="26" t="s">
         <v>461</v>
       </c>
-      <c r="F81" s="26"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="26"/>
-    </row>
-    <row r="82" spans="3:8" s="28" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
-      <c r="C82" s="7" t="s">
+      <c r="F80" s="26"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="26"/>
+    </row>
+    <row r="81" spans="3:8" s="28" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="C81" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D81" s="7">
         <v>2009</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E81" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="F81" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="G82" s="7" t="s">
+      <c r="G81" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="H82" s="7" t="s">
+      <c r="H81" s="7" t="s">
         <v>255</v>
       </c>
+    </row>
+    <row r="82" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C82" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="D82" s="27">
+        <v>2016</v>
+      </c>
+      <c r="E82" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="F82" s="27"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="27"/>
     </row>
     <row r="83" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C83" s="27" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D83" s="27">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E83" s="27" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="F83" s="27"/>
       <c r="G83" s="27"/>
@@ -5262,550 +5261,552 @@
     </row>
     <row r="84" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C84" s="27" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D84" s="27">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E84" s="27" t="s">
-        <v>419</v>
-      </c>
-      <c r="F84" s="27"/>
+        <v>421</v>
+      </c>
+      <c r="F84" s="27" t="s">
+        <v>422</v>
+      </c>
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
     </row>
     <row r="85" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C85" s="27" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D85" s="27">
         <v>2019</v>
       </c>
       <c r="E85" s="27" t="s">
-        <v>421</v>
-      </c>
-      <c r="F85" s="27" t="s">
-        <v>422</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="F85" s="27"/>
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
     </row>
-    <row r="86" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="86" spans="3:8" ht="111" x14ac:dyDescent="0.4">
       <c r="C86" s="27" t="s">
-        <v>413</v>
+        <v>301</v>
       </c>
       <c r="D86" s="27">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E86" s="27" t="s">
-        <v>414</v>
-      </c>
-      <c r="F86" s="27"/>
-      <c r="G86" s="27"/>
-      <c r="H86" s="27"/>
-    </row>
-    <row r="87" spans="3:8" ht="111" x14ac:dyDescent="0.4">
+        <v>302</v>
+      </c>
+      <c r="F86" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="G86" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="H86" s="27" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C87" s="27" t="s">
-        <v>301</v>
+        <v>415</v>
       </c>
       <c r="D87" s="27">
         <v>2020</v>
       </c>
       <c r="E87" s="27" t="s">
-        <v>302</v>
-      </c>
-      <c r="F87" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="G87" s="27" t="s">
-        <v>304</v>
-      </c>
-      <c r="H87" s="27" t="s">
-        <v>303</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="27"/>
     </row>
     <row r="88" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C88" s="27" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="D88" s="27">
         <v>2020</v>
       </c>
       <c r="E88" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="F88" s="27"/>
+        <v>428</v>
+      </c>
+      <c r="F88" s="27" t="s">
+        <v>422</v>
+      </c>
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
     </row>
     <row r="89" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C89" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="D89" s="27">
-        <v>2020</v>
-      </c>
-      <c r="E89" s="27" t="s">
-        <v>428</v>
-      </c>
-      <c r="F89" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="G89" s="27"/>
-      <c r="H89" s="27"/>
-    </row>
-    <row r="90" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C89" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="D89" s="7">
+        <v>2021</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C90" s="7" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="D90" s="7">
         <v>2021</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="91" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C91" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="D91" s="7">
-        <v>2021</v>
-      </c>
-      <c r="E91" s="7" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="93" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C93" s="56" t="s">
+    <row r="92" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C92" s="65" t="s">
         <v>239</v>
       </c>
-      <c r="D93" s="57"/>
-      <c r="E93" s="57"/>
-      <c r="F93" s="57"/>
-      <c r="G93" s="57"/>
-      <c r="H93" s="58"/>
-    </row>
-    <row r="94" spans="3:8" s="28" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C94" s="49" t="s">
+      <c r="D92" s="66"/>
+      <c r="E92" s="66"/>
+      <c r="F92" s="66"/>
+      <c r="G92" s="66"/>
+      <c r="H92" s="67"/>
+    </row>
+    <row r="93" spans="3:8" s="28" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C93" s="49" t="s">
         <v>467</v>
       </c>
-      <c r="D94" s="48">
+      <c r="D93" s="48">
         <v>1992</v>
       </c>
-      <c r="E94" s="28" t="s">
+      <c r="E93" s="28" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="95" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C95" s="27" t="s">
+    <row r="94" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C94" s="27" t="s">
         <v>395</v>
       </c>
-      <c r="D95" s="27">
+      <c r="D94" s="27">
         <v>2004</v>
       </c>
-      <c r="E95" s="27" t="s">
+      <c r="E94" s="27" t="s">
         <v>397</v>
       </c>
-      <c r="F95" s="27" t="s">
+      <c r="F94" s="27" t="s">
         <v>396</v>
       </c>
-      <c r="G95" s="27"/>
-      <c r="H95" s="27"/>
+      <c r="G94" s="27"/>
+      <c r="H94" s="27"/>
+    </row>
+    <row r="95" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C95" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D95" s="7">
+        <v>2005</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="96" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C96" s="7" t="s">
-        <v>246</v>
+        <v>398</v>
       </c>
       <c r="D96" s="7">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>247</v>
+        <v>399</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H96" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="97" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="C97" s="7" t="s">
-        <v>398</v>
+        <v>362</v>
       </c>
       <c r="D97" s="7">
-        <v>2007</v>
+        <v>2015</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>399</v>
+        <v>363</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="98" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+        <v>365</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="98" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
       <c r="C98" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D98" s="7">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="99" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="99" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C99" s="7" t="s">
-        <v>357</v>
+        <v>463</v>
       </c>
       <c r="D99" s="7">
         <v>2016</v>
       </c>
-      <c r="E99" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="H99" s="7" t="s">
-        <v>361</v>
-      </c>
     </row>
     <row r="100" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C100" s="7" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="D100" s="7">
         <v>2016</v>
       </c>
-    </row>
-    <row r="101" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="E100" t="s">
+        <v>479</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="101" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C101" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D101" s="7">
-        <v>2016</v>
-      </c>
-      <c r="E101" t="s">
-        <v>479</v>
+        <v>2017</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>476</v>
       </c>
       <c r="F101" s="7" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="102" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C102" s="7" t="s">
-        <v>475</v>
+    <row r="102" spans="3:8" s="28" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C102" s="29" t="s">
+        <v>352</v>
       </c>
       <c r="D102" s="7">
         <v>2017</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>476</v>
+        <v>353</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="103" spans="3:8" s="28" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+        <v>356</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="103" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C103" s="29" t="s">
-        <v>352</v>
+        <v>405</v>
       </c>
       <c r="D103" s="7">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="H103" s="7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="104" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="104" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C104" s="29" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D104" s="7">
         <v>2018</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="105" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="105" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C105" s="29" t="s">
-        <v>403</v>
+        <v>480</v>
       </c>
       <c r="D105" s="7">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>404</v>
+        <v>481</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="106" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C106" s="29" t="s">
-        <v>480</v>
+        <v>401</v>
       </c>
       <c r="D106" s="7">
         <v>2019</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>477</v>
+        <v>402</v>
       </c>
     </row>
     <row r="107" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C107" s="29" t="s">
-        <v>401</v>
+        <v>482</v>
       </c>
       <c r="D107" s="7">
         <v>2019</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="108" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C108" s="29" t="s">
-        <v>482</v>
+        <v>483</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="108" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="C108" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="D108" s="7">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>483</v>
+        <v>307</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="109" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+        <v>308</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="109" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C109" s="7" t="s">
-        <v>306</v>
+        <v>407</v>
       </c>
       <c r="D109" s="7">
         <v>2020</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="H109" s="7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="110" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="110" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C110" s="7" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="D110" s="7">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="111" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="111" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C111" s="7" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="D111" s="7">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="112" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C112" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="D112" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E112" s="7" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="114" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C114" s="53" t="s">
+    <row r="113" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C113" s="59" t="s">
         <v>240</v>
       </c>
-      <c r="D114" s="54"/>
-      <c r="E114" s="54"/>
-      <c r="F114" s="54"/>
-      <c r="G114" s="54"/>
-      <c r="H114" s="55"/>
-    </row>
-    <row r="115" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C115" s="10" t="s">
+      <c r="D113" s="60"/>
+      <c r="E113" s="60"/>
+      <c r="F113" s="60"/>
+      <c r="G113" s="60"/>
+      <c r="H113" s="61"/>
+    </row>
+    <row r="114" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C114" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="D115" s="10">
+      <c r="D114" s="10">
         <v>2002</v>
       </c>
-      <c r="E115" s="10" t="s">
+      <c r="E114" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="F115" s="10" t="s">
+      <c r="F114" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="G115" s="10" t="s">
+      <c r="G114" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="H115" s="10"/>
-    </row>
-    <row r="116" spans="3:8" ht="111" x14ac:dyDescent="0.4">
+      <c r="H114" s="10"/>
+    </row>
+    <row r="115" spans="3:8" ht="111" x14ac:dyDescent="0.4">
+      <c r="C115" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="D115" s="33">
+        <v>2008</v>
+      </c>
+      <c r="E115" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="F115" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="G115" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="H115" s="33" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="116" spans="3:8" ht="124.9" x14ac:dyDescent="0.4">
       <c r="C116" s="33" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D116" s="33">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E116" s="33" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F116" s="33" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="G116" s="33" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="H116" s="33" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="117" spans="3:8" ht="124.9" x14ac:dyDescent="0.4">
-      <c r="C117" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="D117" s="33">
-        <v>2009</v>
-      </c>
-      <c r="E117" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="F117" s="33" t="s">
-        <v>347</v>
-      </c>
-      <c r="G117" s="33" t="s">
-        <v>348</v>
-      </c>
-      <c r="H117" s="33" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="118" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
-      <c r="C118" s="41" t="s">
+    <row r="117" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="C117" s="41" t="s">
         <v>259</v>
       </c>
-      <c r="D118" s="41">
+      <c r="D117" s="41">
         <v>2011</v>
       </c>
-      <c r="E118" s="41" t="s">
+      <c r="E117" s="41" t="s">
         <v>260</v>
       </c>
-      <c r="F118" s="41" t="s">
+      <c r="F117" s="41" t="s">
         <v>263</v>
       </c>
-      <c r="G118" s="41" t="s">
+      <c r="G117" s="41" t="s">
         <v>261</v>
       </c>
-      <c r="H118" s="41" t="s">
+      <c r="H117" s="41" t="s">
         <v>262</v>
       </c>
+    </row>
+    <row r="118" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C118" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="D118" s="33">
+        <v>2015</v>
+      </c>
+      <c r="E118" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="F118" s="33" t="s">
+        <v>380</v>
+      </c>
+      <c r="G118" s="33"/>
+      <c r="H118" s="33"/>
     </row>
     <row r="119" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C119" s="33" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="D119" s="33">
         <v>2015</v>
       </c>
       <c r="E119" s="33" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="F119" s="33" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="G119" s="33"/>
       <c r="H119" s="33"/>
     </row>
-    <row r="120" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C120" s="33" t="s">
-        <v>389</v>
-      </c>
-      <c r="D120" s="33">
-        <v>2015</v>
-      </c>
-      <c r="E120" s="33" t="s">
-        <v>390</v>
-      </c>
-      <c r="F120" s="33" t="s">
-        <v>391</v>
-      </c>
-      <c r="G120" s="33"/>
-      <c r="H120" s="33"/>
-    </row>
-    <row r="121" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C121" s="41" t="s">
+    <row r="120" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C120" s="41" t="s">
         <v>264</v>
       </c>
-      <c r="D121" s="41">
+      <c r="D120" s="41">
         <v>2016</v>
       </c>
-      <c r="E121" s="41" t="s">
+      <c r="E120" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="F121" s="41" t="s">
+      <c r="F120" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="G121" s="41" t="s">
+      <c r="G120" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="H121" s="41" t="s">
+      <c r="H120" s="41" t="s">
         <v>267</v>
       </c>
+    </row>
+    <row r="121" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C121" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="D121" s="10">
+        <v>2016</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="F121" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
     </row>
     <row r="122" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C122" s="10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D122" s="10">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F122" s="10" t="s">
         <v>375</v>
@@ -5813,583 +5814,567 @@
       <c r="G122" s="10"/>
       <c r="H122" s="10"/>
     </row>
-    <row r="123" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="123" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C123" s="10" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="D123" s="10">
         <v>2017</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G123" s="10"/>
       <c r="H123" s="10"/>
     </row>
-    <row r="124" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C124" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="D124" s="10">
+    <row r="124" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C124" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="D124" s="41">
         <v>2017</v>
       </c>
-      <c r="E124" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="F124" s="10" t="s">
+      <c r="E124" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="F124" s="41" t="s">
+        <v>371</v>
+      </c>
+      <c r="G124" s="41"/>
+      <c r="H124" s="41"/>
+    </row>
+    <row r="125" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C125" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="D125" s="8">
+        <v>2017</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
+    </row>
+    <row r="126" spans="3:8" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="C126" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D126" s="8">
+        <v>2018</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="H126" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="127" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C127" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="D127" s="10">
+        <v>2018</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="10"/>
+    </row>
+    <row r="128" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C128" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="D128" s="33">
+        <v>2018</v>
+      </c>
+      <c r="E128" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="F128" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="G128" s="33" t="s">
+        <v>349</v>
+      </c>
+      <c r="H128" s="33" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="129" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C129" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D129" s="8">
+        <v>2019</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="G129" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="H129" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="130" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C130" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="D130" s="10">
+        <v>2019</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="F130" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="G124" s="10"/>
-      <c r="H124" s="10"/>
-    </row>
-    <row r="125" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C125" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="D125" s="41">
-        <v>2017</v>
-      </c>
-      <c r="E125" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="F125" s="41" t="s">
-        <v>371</v>
-      </c>
-      <c r="G125" s="41"/>
-      <c r="H125" s="41"/>
-    </row>
-    <row r="126" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C126" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="D126" s="8">
-        <v>2017</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="F126" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="G126" s="8"/>
-      <c r="H126" s="8"/>
-    </row>
-    <row r="127" spans="3:8" ht="83.25" x14ac:dyDescent="0.4">
-      <c r="C127" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="D127" s="8">
-        <v>2018</v>
-      </c>
-      <c r="E127" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="F127" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="G127" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="H127" s="8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="128" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C128" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="D128" s="10">
-        <v>2018</v>
-      </c>
-      <c r="E128" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="F128" s="10"/>
-      <c r="G128" s="10"/>
-      <c r="H128" s="10"/>
-    </row>
-    <row r="129" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C129" s="33" t="s">
-        <v>321</v>
-      </c>
-      <c r="D129" s="33">
-        <v>2018</v>
-      </c>
-      <c r="E129" s="33" t="s">
-        <v>320</v>
-      </c>
-      <c r="F129" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="G129" s="33" t="s">
-        <v>349</v>
-      </c>
-      <c r="H129" s="33" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="130" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C130" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="D130" s="8">
+      <c r="G130" s="10"/>
+      <c r="H130" s="10"/>
+    </row>
+    <row r="131" spans="3:8" s="14" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="C131" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="D131" s="8">
         <v>2019</v>
       </c>
-      <c r="E130" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="F130" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="G130" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="H130" s="8" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="131" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C131" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="D131" s="10">
-        <v>2019</v>
-      </c>
-      <c r="E131" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="F131" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="G131" s="10"/>
-      <c r="H131" s="10"/>
-    </row>
-    <row r="132" spans="3:8" s="14" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="E131" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="F131" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="G131" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="H131" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="132" spans="3:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C132" s="16" t="s">
-        <v>283</v>
+        <v>381</v>
       </c>
       <c r="D132" s="8">
         <v>2019</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>284</v>
+        <v>382</v>
       </c>
       <c r="F132" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="G132" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="H132" s="16" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="133" spans="3:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+        <v>383</v>
+      </c>
+      <c r="G132" s="16"/>
+      <c r="H132" s="16"/>
+    </row>
+    <row r="133" spans="3:8" s="14" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
       <c r="C133" s="16" t="s">
-        <v>381</v>
+        <v>288</v>
       </c>
       <c r="D133" s="8">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>382</v>
+        <v>289</v>
       </c>
       <c r="F133" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="G133" s="16"/>
-      <c r="H133" s="16"/>
-    </row>
-    <row r="134" spans="3:8" s="14" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C134" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="D134" s="8">
+        <v>292</v>
+      </c>
+      <c r="G133" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="H133" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="134" spans="3:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C134" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="D134" s="33">
         <v>2020</v>
       </c>
-      <c r="E134" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="F134" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="G134" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="H134" s="16" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="135" spans="3:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C135" s="34" t="s">
-        <v>392</v>
-      </c>
-      <c r="D135" s="33">
+      <c r="E134" s="35" t="s">
+        <v>393</v>
+      </c>
+      <c r="F134" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="G134" s="34"/>
+      <c r="H134" s="34"/>
+    </row>
+    <row r="135" spans="3:8" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C135" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="D135" s="38">
         <v>2020</v>
       </c>
-      <c r="E135" s="35" t="s">
-        <v>393</v>
-      </c>
-      <c r="F135" s="36" t="s">
-        <v>394</v>
-      </c>
-      <c r="G135" s="34"/>
-      <c r="H135" s="34"/>
+      <c r="E135" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="F135" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="G135" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="H135" s="16" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="136" spans="3:8" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C136" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="D136" s="38">
-        <v>2020</v>
-      </c>
-      <c r="E136" s="39" t="s">
-        <v>295</v>
-      </c>
-      <c r="F136" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="G136" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="H136" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="137" spans="3:8" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C137" s="34" t="s">
+      <c r="C136" s="34" t="s">
         <v>316</v>
       </c>
-      <c r="D137" s="40">
+      <c r="D136" s="40">
         <v>2021</v>
       </c>
-      <c r="E137" s="33" t="s">
+      <c r="E136" s="33" t="s">
         <v>317</v>
       </c>
-      <c r="F137" s="34" t="s">
+      <c r="F136" s="34" t="s">
         <v>322</v>
       </c>
-      <c r="G137" s="34" t="s">
+      <c r="G136" s="34" t="s">
         <v>323</v>
       </c>
-      <c r="H137" s="34" t="s">
+      <c r="H136" s="34" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="138" spans="3:8" s="46" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C138" s="25" t="s">
+    <row r="137" spans="3:8" s="46" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C137" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="D138" s="43">
+      <c r="D137" s="43">
         <v>2022</v>
       </c>
-      <c r="E138" s="47"/>
-      <c r="F138" s="25"/>
-      <c r="G138" s="25"/>
-      <c r="H138" s="25"/>
-    </row>
-    <row r="139" spans="3:8" s="14" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C139" s="44" t="s">
+      <c r="E137" s="47"/>
+      <c r="F137" s="25"/>
+      <c r="G137" s="25"/>
+      <c r="H137" s="25"/>
+    </row>
+    <row r="138" spans="3:8" s="14" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C138" s="44" t="s">
         <v>333</v>
       </c>
-      <c r="D139" s="45">
+      <c r="D138" s="45">
         <v>2023</v>
       </c>
-      <c r="E139" s="42" t="s">
+      <c r="E138" s="42" t="s">
         <v>334</v>
       </c>
-      <c r="F139" s="44" t="s">
+      <c r="F138" s="44" t="s">
         <v>335</v>
       </c>
-      <c r="G139" s="44" t="s">
+      <c r="G138" s="44" t="s">
         <v>336</v>
       </c>
-      <c r="H139" s="44" t="s">
+      <c r="H138" s="44" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="140" spans="3:8" ht="111" x14ac:dyDescent="0.4">
-      <c r="C140" s="10" t="s">
+    <row r="139" spans="3:8" ht="111" x14ac:dyDescent="0.4">
+      <c r="C139" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="D140" s="10">
+      <c r="D139" s="10">
         <v>2023</v>
       </c>
-      <c r="E140" s="10" t="s">
+      <c r="E139" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="F140" s="10" t="s">
+      <c r="F139" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="G140" s="10" t="s">
+      <c r="G139" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="H140" s="10" t="s">
+      <c r="H139" s="10" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="141" spans="3:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C141" s="16" t="s">
+    <row r="140" spans="3:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C140" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="D141" s="37"/>
-      <c r="E141" s="16"/>
-      <c r="F141" s="16" t="s">
+      <c r="D140" s="37"/>
+      <c r="E140" s="16"/>
+      <c r="F140" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="G141" s="16"/>
-      <c r="H141" s="16"/>
-    </row>
-    <row r="143" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C143" s="56" t="s">
+      <c r="G140" s="16"/>
+      <c r="H140" s="16"/>
+    </row>
+    <row r="142" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C142" s="65" t="s">
         <v>241</v>
       </c>
-      <c r="D143" s="57"/>
-      <c r="E143" s="57"/>
-      <c r="F143" s="57"/>
-      <c r="G143" s="57"/>
-      <c r="H143" s="58"/>
-    </row>
-    <row r="144" spans="3:8" s="25" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C144" s="25" t="s">
+      <c r="D142" s="66"/>
+      <c r="E142" s="66"/>
+      <c r="F142" s="66"/>
+      <c r="G142" s="66"/>
+      <c r="H142" s="67"/>
+    </row>
+    <row r="143" spans="3:8" s="25" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C143" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="D144" s="25">
+      <c r="D143" s="25">
         <v>2016</v>
       </c>
-      <c r="E144" s="25" t="s">
+      <c r="E143" s="25" t="s">
         <v>438</v>
       </c>
-      <c r="F144" s="25" t="s">
+      <c r="F143" s="25" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="145" spans="3:8" s="30" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="144" spans="3:8" s="30" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C144" s="31" t="s">
+        <v>457</v>
+      </c>
+      <c r="D144" s="31">
+        <v>2017</v>
+      </c>
+      <c r="E144" t="s">
+        <v>458</v>
+      </c>
+      <c r="F144" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="G144" s="31"/>
+      <c r="H144" s="31"/>
+    </row>
+    <row r="145" spans="3:8" s="30" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C145" s="31" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D145" s="31">
-        <v>2017</v>
-      </c>
-      <c r="E145" t="s">
-        <v>458</v>
+        <v>2018</v>
+      </c>
+      <c r="E145" s="28" t="s">
+        <v>441</v>
       </c>
       <c r="F145" s="31" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="G145" s="31"/>
       <c r="H145" s="31"/>
     </row>
-    <row r="146" spans="3:8" s="30" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="146" spans="3:8" s="30" customFormat="1" ht="111" x14ac:dyDescent="0.4">
       <c r="C146" s="31" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="D146" s="31">
         <v>2018</v>
       </c>
-      <c r="E146" s="28" t="s">
-        <v>441</v>
+      <c r="E146" s="32" t="s">
+        <v>447</v>
       </c>
       <c r="F146" s="31" t="s">
-        <v>442</v>
-      </c>
-      <c r="G146" s="31"/>
-      <c r="H146" s="31"/>
-    </row>
-    <row r="147" spans="3:8" s="30" customFormat="1" ht="111" x14ac:dyDescent="0.4">
-      <c r="C147" s="31" t="s">
-        <v>446</v>
-      </c>
-      <c r="D147" s="31">
-        <v>2018</v>
-      </c>
-      <c r="E147" s="32" t="s">
-        <v>447</v>
-      </c>
-      <c r="F147" s="31" t="s">
         <v>449</v>
       </c>
-      <c r="G147" s="31" t="s">
+      <c r="G146" s="31" t="s">
         <v>448</v>
       </c>
-      <c r="H147" s="31" t="s">
+      <c r="H146" s="31" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="148" spans="3:8" ht="97.15" x14ac:dyDescent="0.4">
-      <c r="C148" s="27" t="s">
+    <row r="147" spans="3:8" ht="97.15" x14ac:dyDescent="0.4">
+      <c r="C147" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="D148" s="27">
+      <c r="D147" s="27">
         <v>2019</v>
       </c>
-      <c r="E148" s="27" t="s">
+      <c r="E147" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="F148" s="27" t="s">
+      <c r="F147" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="G148" s="27" t="s">
+      <c r="G147" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="H148" s="27" t="s">
+      <c r="H147" s="27" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="149" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="148" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C148" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="D148" s="7">
+        <v>2019</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F148" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="149" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C149" s="7" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="D149" s="7">
         <v>2019</v>
       </c>
-      <c r="E149" s="7" t="s">
-        <v>433</v>
+      <c r="E149" s="28" t="s">
+        <v>444</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
     </row>
     <row r="150" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C150" s="7" t="s">
-        <v>443</v>
+      <c r="C150" s="29" t="s">
+        <v>434</v>
       </c>
       <c r="D150" s="7">
         <v>2019</v>
       </c>
-      <c r="E150" s="28" t="s">
-        <v>444</v>
+      <c r="E150" t="s">
+        <v>435</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="151" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C151" s="29" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="D151" s="7">
         <v>2019</v>
       </c>
-      <c r="E151" t="s">
-        <v>435</v>
+      <c r="E151" s="7" t="s">
+        <v>452</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
     </row>
     <row r="152" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C152" s="29" t="s">
-        <v>451</v>
+      <c r="C152" s="7" t="s">
+        <v>454</v>
       </c>
       <c r="D152" s="7">
         <v>2019</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="153" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C153" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="D153" s="7">
-        <v>2019</v>
-      </c>
-      <c r="E153" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="F153" s="7" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="157" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C157" s="53" t="s">
+    <row r="156" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C156" s="59" t="s">
         <v>293</v>
       </c>
-      <c r="D157" s="54"/>
-      <c r="E157" s="54"/>
-      <c r="F157" s="54"/>
-      <c r="G157" s="54"/>
-      <c r="H157" s="55"/>
-    </row>
-    <row r="158" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="D156" s="60"/>
+      <c r="E156" s="60"/>
+      <c r="F156" s="60"/>
+      <c r="G156" s="60"/>
+      <c r="H156" s="61"/>
+    </row>
+    <row r="157" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C157" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D157" s="7">
+        <v>2020</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F157" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="158" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C158" s="7" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="D158" s="7">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="159" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="159" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
       <c r="C159" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D159" s="7">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="160" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+        <v>331</v>
+      </c>
+      <c r="G159" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="160" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C160" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="D160" s="7">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G160" s="7" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="161" spans="3:6" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C161" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="D161" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E161" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="F161" s="7" t="s">
         <v>340</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C156:H156"/>
+    <mergeCell ref="C92:H92"/>
+    <mergeCell ref="C113:H113"/>
+    <mergeCell ref="C142:H142"/>
+    <mergeCell ref="C77:H77"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="C157:H157"/>
-    <mergeCell ref="C93:H93"/>
-    <mergeCell ref="C114:H114"/>
-    <mergeCell ref="C143:H143"/>
-    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C71:H71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6409,6 +6394,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100650C27B66691BA4BB901C940018B449F" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="856977a71e7c379887d8f02f6ee17dc3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="74117954-47dd-4623-be10-f2d34b3fe6e8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f93a31a691d6cd74e693f1feb46bcb1" ns3:_="">
     <xsd:import namespace="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
@@ -6552,15 +6546,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C05F824-F09D-405F-9153-DBE4FFD9352F}">
   <ds:schemaRefs>
@@ -6578,6 +6563,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16812470-A4E1-4DBD-AEE1-4642C4933AF0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{411558D9-DEA1-49BF-987E-1A683BCBCD59}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6593,12 +6586,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16812470-A4E1-4DBD-AEE1-4642C4933AF0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ML Apply in OS/summary (new version).xlsx
+++ b/ML Apply in OS/summary (new version).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HKU\HKU\23Fall\AI-OS\ML Apply in OS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C009C2C-A821-4BF6-A6ED-78E1909204A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AB271C-26C8-4890-B0AB-42159DB2D4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="520">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -936,10 +935,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Operating System Scheduling On Heterogeneous Core Systems</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">System Simulation; GPUs (Design Space Exploration, Cross-Platform Prediction,  GPU Specific Prediction &amp; Classification &amp; Scheduling); Memory Systems and Branch Prediction (Cache &amp; Schedulers &amp; Control), NoC, System-level Optimization, ML-Enabled Approximate Computing  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -948,10 +943,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Proceedings of the Workshop on Operating System Support for Heterogeneous Multicore Architectures</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Source</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -968,14 +959,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Average normalized IPC; Average cache affinity; the average cache miss rate of threads</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>the expected future normalized IPC on that core (including no migration and has migration) /the expected discounted sum of future reinforcement signals</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ML-Process Scheduling</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1013,10 +996,6 @@
   </si>
   <si>
     <t>Model/Method/Objective/Dataset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reinforcement Learning; Not mention specific basis functions; Scheduling on HMC system. Only a proposed feamework , no experiments.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1603,19 +1582,6 @@
   </si>
   <si>
     <t>Task allocation in many-core systems; Reinforcement Learning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adaptive job routing and scheduling.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scheduling jobs in single-core processors; Q-Learning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Engineering Applications of Artificial
- Intelligence 17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2045,6 +2011,103 @@
   </si>
   <si>
     <t>statistic-history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Decision </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-processor; asymmetric mean-field thermodynamic neural network; offline scheduling; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minimizing processor overload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reinforcement learning for thermal-aware many-core task allocation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Proceedings of the 25th edition on Great Lakes Symposium on VLSI. ACM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximizing normalized aggregate IPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reinforcement learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maximize expected temperature reduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minimizing the runtime of a user's Directed Acyclic Graph (DAG)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> minimize energy consumption while maintaining high quality of service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work-In-Progress: Reinforcement Learning-based
+DAG Scheduling Algorithm
+in Clustered Many-Core Platform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021 IEEE Real-Time Systems Symposium (RTSS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimize communication delays and execution time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I/O request patterns, file sizes, and device performance metrics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select the most suitable algorithm among aIOLi, MLF, SJF, TO, and TO-agg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OS for ML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSD throughput</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decision tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cloud; Decision tree; random forest; Multivariate Adaptive Regression Splines (MARS); Adaptive Boosting (AdaBoost); Gradient Boosting Decision Tree (GBDT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 variables: the operation type (read/write), block size, number of I/O operations, and the type of I/O operation (sequential/random)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequences of I/O requests</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>future i/o request</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2111,7 +2174,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2175,6 +2238,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2332,7 +2401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2512,6 +2581,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2800,10 +2882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG160"/>
+  <dimension ref="A1:AG163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2813,7 +2895,7 @@
     <col min="5" max="5" width="42.265625" style="7" customWidth="1"/>
     <col min="6" max="6" width="58.6640625" style="7" customWidth="1"/>
     <col min="7" max="7" width="20.06640625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="34.46484375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="38.265625" style="7" customWidth="1"/>
     <col min="9" max="9" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3632,7 +3714,7 @@
     </row>
     <row r="21" spans="1:33" ht="55.5" x14ac:dyDescent="0.4">
       <c r="C21" s="6" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="D21" s="6">
         <v>2002</v>
@@ -3641,13 +3723,13 @@
         <v>10</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="22" spans="1:33" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
@@ -3713,10 +3795,10 @@
         <v>60</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
@@ -3746,7 +3828,7 @@
     </row>
     <row r="24" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C24" s="6" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="D24" s="6">
         <v>2013</v>
@@ -3755,13 +3837,13 @@
         <v>10</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="25" spans="1:33" s="3" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
@@ -3909,20 +3991,20 @@
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28" s="52" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="D28" s="52">
         <v>2019</v>
       </c>
       <c r="E28" s="52" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="F28" s="52"/>
       <c r="G28" s="52" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="H28" s="52" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="I28"/>
       <c r="J28"/>
@@ -3954,7 +4036,7 @@
       <c r="A29" s="28"/>
       <c r="B29" s="28"/>
       <c r="C29" s="6" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="D29" s="6">
         <v>2020</v>
@@ -3964,10 +4046,10 @@
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="I29" s="28"/>
       <c r="J29" s="28"/>
@@ -3999,20 +4081,20 @@
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30" s="6" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="D30" s="6">
         <v>2022</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
@@ -4972,59 +5054,59 @@
     </row>
     <row r="65" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C65" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="E65" s="53" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="66" spans="3:8" s="54" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C66" s="8" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="D66" s="8">
         <v>2011</v>
       </c>
       <c r="E66" s="55" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="67" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C67" s="7" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="D67" s="7">
         <v>2015</v>
       </c>
       <c r="E67" s="53" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="68" spans="3:8" s="54" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C68" s="7" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="D68" s="7">
         <v>2016</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="69" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
@@ -5049,16 +5131,16 @@
     </row>
     <row r="70" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C70" s="7" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="D70" s="7">
         <v>2023</v>
       </c>
       <c r="E70" s="53" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="71" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
@@ -5079,13 +5161,13 @@
         <v>1</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F72" s="21" t="s">
         <v>224</v>
       </c>
       <c r="G72" s="24" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H72" s="21" t="s">
         <v>228</v>
@@ -5102,7 +5184,7 @@
         <v>220</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="74" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
@@ -5149,7 +5231,7 @@
     </row>
     <row r="77" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="C77" s="59" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D77" s="60"/>
       <c r="E77" s="60"/>
@@ -5165,799 +5247,871 @@
         <v>1</v>
       </c>
       <c r="E78" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="F78" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="G78" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="H78" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="F78" s="22" t="s">
+    </row>
+    <row r="79" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C79" s="26" t="s">
+        <v>452</v>
+      </c>
+      <c r="D79" s="26">
+        <v>2008</v>
+      </c>
+      <c r="E79" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="F79" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="G79" s="26" t="s">
+        <v>509</v>
+      </c>
+      <c r="H79" s="26"/>
+    </row>
+    <row r="80" spans="3:8" s="28" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="C80" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="G78" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="H78" s="22" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="79" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
-      <c r="C79" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="D79" s="26">
-        <v>2007</v>
-      </c>
-      <c r="E79" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="F79" s="26" t="s">
+      <c r="D80" s="41">
+        <v>2009</v>
+      </c>
+      <c r="E80" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="F80" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G80" s="41" t="s">
         <v>249</v>
       </c>
-      <c r="G79" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="H79" s="26" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="80" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C80" s="26" t="s">
-        <v>460</v>
-      </c>
-      <c r="D80" s="26">
-        <v>2008</v>
-      </c>
-      <c r="E80" s="26" t="s">
-        <v>461</v>
-      </c>
-      <c r="F80" s="26"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="26"/>
-    </row>
-    <row r="81" spans="3:8" s="28" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
-      <c r="C81" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="D81" s="7">
-        <v>2009</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="82" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C82" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="D82" s="27">
+      <c r="H80" s="41" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C81" s="72" t="s">
+        <v>415</v>
+      </c>
+      <c r="D81" s="72">
         <v>2016</v>
       </c>
-      <c r="E82" s="27" t="s">
-        <v>424</v>
-      </c>
-      <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="27"/>
+      <c r="E81" s="72" t="s">
+        <v>416</v>
+      </c>
+      <c r="F81" s="72" t="s">
+        <v>514</v>
+      </c>
+      <c r="G81" s="72" t="s">
+        <v>510</v>
+      </c>
+      <c r="H81" s="72" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" ht="97.15" x14ac:dyDescent="0.4">
+      <c r="C82" s="72" t="s">
+        <v>412</v>
+      </c>
+      <c r="D82" s="72">
+        <v>2019</v>
+      </c>
+      <c r="E82" s="72" t="s">
+        <v>413</v>
+      </c>
+      <c r="F82" s="72" t="s">
+        <v>515</v>
+      </c>
+      <c r="G82" s="72" t="s">
+        <v>516</v>
+      </c>
+      <c r="H82" s="72" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="83" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C83" s="27" t="s">
-        <v>418</v>
-      </c>
-      <c r="D83" s="27">
-        <v>2017</v>
-      </c>
-      <c r="E83" s="27" t="s">
-        <v>419</v>
-      </c>
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="27"/>
-    </row>
-    <row r="84" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C84" s="27" t="s">
-        <v>420</v>
-      </c>
-      <c r="D84" s="27">
+      <c r="C83" s="72" t="s">
+        <v>405</v>
+      </c>
+      <c r="D83" s="72">
         <v>2019</v>
       </c>
-      <c r="E84" s="27" t="s">
-        <v>421</v>
-      </c>
-      <c r="F84" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="G84" s="27"/>
-      <c r="H84" s="27"/>
+      <c r="E83" s="72" t="s">
+        <v>406</v>
+      </c>
+      <c r="F83" s="72" t="s">
+        <v>517</v>
+      </c>
+      <c r="G83" s="72" t="s">
+        <v>518</v>
+      </c>
+      <c r="H83" s="72" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" ht="111" x14ac:dyDescent="0.4">
+      <c r="C84" s="72" t="s">
+        <v>296</v>
+      </c>
+      <c r="D84" s="72">
+        <v>2020</v>
+      </c>
+      <c r="E84" s="72" t="s">
+        <v>297</v>
+      </c>
+      <c r="F84" s="72" t="s">
+        <v>300</v>
+      </c>
+      <c r="G84" s="72" t="s">
+        <v>299</v>
+      </c>
+      <c r="H84" s="72" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="85" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C85" s="27" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D85" s="27">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E85" s="27" t="s">
-        <v>414</v>
-      </c>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
+        <v>241</v>
+      </c>
+      <c r="F85" s="27" t="s">
+        <v>502</v>
+      </c>
+      <c r="G85" s="27" t="s">
+        <v>509</v>
+      </c>
       <c r="H85" s="27"/>
     </row>
-    <row r="86" spans="3:8" ht="111" x14ac:dyDescent="0.4">
+    <row r="86" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C86" s="27" t="s">
-        <v>301</v>
+        <v>419</v>
       </c>
       <c r="D86" s="27">
         <v>2020</v>
       </c>
       <c r="E86" s="27" t="s">
-        <v>302</v>
+        <v>420</v>
       </c>
       <c r="F86" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="G86" s="27" t="s">
-        <v>304</v>
-      </c>
-      <c r="H86" s="27" t="s">
-        <v>303</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="G86" s="27"/>
+      <c r="H86" s="27"/>
     </row>
     <row r="87" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C87" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="D87" s="27">
-        <v>2020</v>
-      </c>
-      <c r="E87" s="27" t="s">
+      <c r="C87" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="D87" s="7">
+        <v>2021</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C88" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="D88" s="7">
+        <v>2021</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C90" s="65" t="s">
+        <v>235</v>
+      </c>
+      <c r="D90" s="66"/>
+      <c r="E90" s="66"/>
+      <c r="F90" s="66"/>
+      <c r="G90" s="66"/>
+      <c r="H90" s="67"/>
+    </row>
+    <row r="91" spans="3:8" s="28" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C91" s="49" t="s">
+        <v>459</v>
+      </c>
+      <c r="D91" s="48">
+        <v>1992</v>
+      </c>
+      <c r="E91" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="F91" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="G91" s="28" t="s">
+        <v>496</v>
+      </c>
+      <c r="H91" s="29" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C92" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D92" s="7">
+        <v>2005</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G92" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="27"/>
-    </row>
-    <row r="88" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C88" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="D88" s="27">
-        <v>2020</v>
-      </c>
-      <c r="E88" s="27" t="s">
-        <v>428</v>
-      </c>
-      <c r="F88" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="G88" s="27"/>
-      <c r="H88" s="27"/>
-    </row>
-    <row r="89" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C89" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="D89" s="7">
-        <v>2021</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="90" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C90" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="D90" s="7">
-        <v>2021</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="92" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C92" s="65" t="s">
-        <v>239</v>
-      </c>
-      <c r="D92" s="66"/>
-      <c r="E92" s="66"/>
-      <c r="F92" s="66"/>
-      <c r="G92" s="66"/>
-      <c r="H92" s="67"/>
-    </row>
-    <row r="93" spans="3:8" s="28" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C93" s="49" t="s">
-        <v>467</v>
-      </c>
-      <c r="D93" s="48">
-        <v>1992</v>
-      </c>
-      <c r="E93" s="28" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="94" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C94" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="D94" s="27">
-        <v>2004</v>
-      </c>
-      <c r="E94" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="F94" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="G94" s="27"/>
-      <c r="H94" s="27"/>
-    </row>
-    <row r="95" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C95" s="7" t="s">
+      <c r="H92" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="D95" s="7">
-        <v>2005</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H95" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="96" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    </row>
+    <row r="93" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C93" s="68" t="s">
+        <v>390</v>
+      </c>
+      <c r="D93" s="68">
+        <v>2007</v>
+      </c>
+      <c r="E93" s="68" t="s">
+        <v>391</v>
+      </c>
+      <c r="F93" s="68" t="s">
+        <v>392</v>
+      </c>
+      <c r="G93" s="68" t="s">
+        <v>496</v>
+      </c>
+      <c r="H93" s="68" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="C94" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="D94" s="7">
+        <v>2015</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C95" s="69" t="s">
+        <v>499</v>
+      </c>
+      <c r="D95" s="68">
+        <v>2015</v>
+      </c>
+      <c r="E95" s="68" t="s">
+        <v>500</v>
+      </c>
+      <c r="F95" s="68" t="s">
+        <v>502</v>
+      </c>
+      <c r="G95" s="68" t="s">
+        <v>496</v>
+      </c>
+      <c r="H95" s="68" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
       <c r="C96" s="7" t="s">
-        <v>398</v>
+        <v>352</v>
       </c>
       <c r="D96" s="7">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>399</v>
+        <v>353</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="97" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+        <v>355</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="97" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C97" s="7" t="s">
-        <v>362</v>
+        <v>455</v>
       </c>
       <c r="D97" s="7">
-        <v>2015</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="H97" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="98" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="98" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C98" s="7" t="s">
-        <v>357</v>
+        <v>470</v>
       </c>
       <c r="D98" s="7">
         <v>2016</v>
       </c>
-      <c r="E98" s="7" t="s">
-        <v>358</v>
+      <c r="E98" t="s">
+        <v>471</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="H98" s="7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="99" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="99" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C99" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="D99" s="7">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="100" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C100" s="7" t="s">
-        <v>478</v>
+        <v>2017</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="100" spans="3:8" s="28" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C100" s="29" t="s">
+        <v>347</v>
       </c>
       <c r="D100" s="7">
-        <v>2016</v>
-      </c>
-      <c r="E100" t="s">
-        <v>479</v>
+        <v>2017</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="101" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C101" s="7" t="s">
-        <v>475</v>
+        <v>351</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="101" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C101" s="29" t="s">
+        <v>397</v>
       </c>
       <c r="D101" s="7">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="102" spans="3:8" s="28" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="102" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C102" s="29" t="s">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="D102" s="7">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="F102" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="H102" s="7" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
     </row>
     <row r="103" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C103" s="29" t="s">
-        <v>405</v>
+        <v>472</v>
       </c>
       <c r="D103" s="7">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="104" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+        <v>473</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="104" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C104" s="29" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="D104" s="7">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="105" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C105" s="29" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="D105" s="7">
         <v>2019</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="106" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C106" s="29" t="s">
-        <v>401</v>
+        <v>476</v>
+      </c>
+    </row>
+    <row r="106" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="C106" s="7" t="s">
+        <v>301</v>
       </c>
       <c r="D106" s="7">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>402</v>
+        <v>302</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="107" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C107" s="29" t="s">
-        <v>482</v>
-      </c>
-      <c r="D107" s="7">
-        <v>2019</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="108" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
-      <c r="C108" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D108" s="7">
+      <c r="C107" s="68" t="s">
+        <v>399</v>
+      </c>
+      <c r="D107" s="68">
         <v>2020</v>
       </c>
-      <c r="E108" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F108" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="H108" s="7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="109" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C109" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="D109" s="7">
-        <v>2020</v>
-      </c>
-      <c r="E109" s="7" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="110" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C110" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="D110" s="7">
+      <c r="E107" s="68" t="s">
+        <v>400</v>
+      </c>
+      <c r="F107" s="68" t="s">
+        <v>502</v>
+      </c>
+      <c r="G107" s="68" t="s">
+        <v>496</v>
+      </c>
+      <c r="H107" s="68" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="108" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C108" s="68" t="s">
+        <v>506</v>
+      </c>
+      <c r="D108" s="68">
+        <v>2021</v>
+      </c>
+      <c r="E108" s="68" t="s">
+        <v>507</v>
+      </c>
+      <c r="F108" s="68" t="s">
+        <v>502</v>
+      </c>
+      <c r="G108" s="68" t="s">
+        <v>496</v>
+      </c>
+      <c r="H108" s="68" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="109" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C109" s="68" t="s">
+        <v>417</v>
+      </c>
+      <c r="D109" s="68">
         <v>2022</v>
       </c>
-      <c r="E110" s="7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="111" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C111" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="D111" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="113" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C113" s="59" t="s">
+      <c r="E109" s="68" t="s">
+        <v>418</v>
+      </c>
+      <c r="F109" s="68" t="s">
+        <v>502</v>
+      </c>
+      <c r="G109" s="68" t="s">
+        <v>496</v>
+      </c>
+      <c r="H109" s="68" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="111" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C111" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="D111" s="60"/>
+      <c r="E111" s="60"/>
+      <c r="F111" s="60"/>
+      <c r="G111" s="60"/>
+      <c r="H111" s="61"/>
+    </row>
+    <row r="112" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C112" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="D112" s="10">
+        <v>2002</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="F112" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="G112" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="H112" s="10"/>
+    </row>
+    <row r="113" spans="3:8" ht="111" x14ac:dyDescent="0.4">
+      <c r="C113" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="D113" s="33">
+        <v>2008</v>
+      </c>
+      <c r="E113" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="F113" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="G113" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="H113" s="33" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="114" spans="3:8" ht="124.9" x14ac:dyDescent="0.4">
+      <c r="C114" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="D113" s="60"/>
-      <c r="E113" s="60"/>
-      <c r="F113" s="60"/>
-      <c r="G113" s="60"/>
-      <c r="H113" s="61"/>
-    </row>
-    <row r="114" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C114" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="D114" s="10">
-        <v>2002</v>
-      </c>
-      <c r="E114" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="F114" s="10" t="s">
+      <c r="D114" s="33">
+        <v>2009</v>
+      </c>
+      <c r="E114" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="F114" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="G114" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="H114" s="33" t="s">
         <v>341</v>
       </c>
-      <c r="G114" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="H114" s="10"/>
-    </row>
-    <row r="115" spans="3:8" ht="111" x14ac:dyDescent="0.4">
-      <c r="C115" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="D115" s="33">
-        <v>2008</v>
-      </c>
-      <c r="E115" s="33" t="s">
-        <v>243</v>
-      </c>
-      <c r="F115" s="33" t="s">
-        <v>343</v>
-      </c>
-      <c r="G115" s="33" t="s">
-        <v>345</v>
-      </c>
-      <c r="H115" s="33" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="116" spans="3:8" ht="124.9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="115" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="C115" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="D115" s="41">
+        <v>2011</v>
+      </c>
+      <c r="E115" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="F115" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="G115" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="H115" s="41" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="116" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C116" s="33" t="s">
-        <v>244</v>
+        <v>373</v>
       </c>
       <c r="D116" s="33">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="E116" s="33" t="s">
-        <v>245</v>
+        <v>374</v>
       </c>
       <c r="F116" s="33" t="s">
-        <v>347</v>
-      </c>
-      <c r="G116" s="33" t="s">
-        <v>348</v>
-      </c>
-      <c r="H116" s="33" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="117" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
-      <c r="C117" s="41" t="s">
+        <v>375</v>
+      </c>
+      <c r="G116" s="33"/>
+      <c r="H116" s="33"/>
+    </row>
+    <row r="117" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C117" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="D117" s="33">
+        <v>2015</v>
+      </c>
+      <c r="E117" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="F117" s="33" t="s">
+        <v>386</v>
+      </c>
+      <c r="G117" s="33"/>
+      <c r="H117" s="33"/>
+    </row>
+    <row r="118" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C118" s="41" t="s">
         <v>259</v>
       </c>
-      <c r="D117" s="41">
-        <v>2011</v>
-      </c>
-      <c r="E117" s="41" t="s">
+      <c r="D118" s="41">
+        <v>2016</v>
+      </c>
+      <c r="E118" s="41" t="s">
         <v>260</v>
       </c>
-      <c r="F117" s="41" t="s">
+      <c r="F118" s="41" t="s">
         <v>263</v>
       </c>
-      <c r="G117" s="41" t="s">
+      <c r="G118" s="41" t="s">
         <v>261</v>
       </c>
-      <c r="H117" s="41" t="s">
+      <c r="H118" s="41" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="118" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C118" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="D118" s="33">
-        <v>2015</v>
-      </c>
-      <c r="E118" s="33" t="s">
-        <v>379</v>
-      </c>
-      <c r="F118" s="33" t="s">
-        <v>380</v>
-      </c>
-      <c r="G118" s="33"/>
-      <c r="H118" s="33"/>
-    </row>
     <row r="119" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C119" s="33" t="s">
-        <v>389</v>
-      </c>
-      <c r="D119" s="33">
-        <v>2015</v>
-      </c>
-      <c r="E119" s="33" t="s">
-        <v>390</v>
-      </c>
-      <c r="F119" s="33" t="s">
-        <v>391</v>
-      </c>
-      <c r="G119" s="33"/>
-      <c r="H119" s="33"/>
-    </row>
-    <row r="120" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C120" s="41" t="s">
-        <v>264</v>
-      </c>
-      <c r="D120" s="41">
+      <c r="C119" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="D119" s="10">
         <v>2016</v>
       </c>
-      <c r="E120" s="41" t="s">
-        <v>265</v>
-      </c>
-      <c r="F120" s="41" t="s">
-        <v>268</v>
-      </c>
-      <c r="G120" s="41" t="s">
-        <v>266</v>
-      </c>
-      <c r="H120" s="41" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="121" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="E119" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="F119" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="G119" s="10"/>
+      <c r="H119" s="10"/>
+    </row>
+    <row r="120" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C120" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="D120" s="10">
+        <v>2017</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="F120" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="G120" s="10"/>
+      <c r="H120" s="10"/>
+    </row>
+    <row r="121" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C121" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D121" s="10">
+        <v>2017</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="F121" s="10" t="s">
         <v>369</v>
-      </c>
-      <c r="D121" s="10">
-        <v>2016</v>
-      </c>
-      <c r="E121" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="F121" s="10" t="s">
-        <v>375</v>
       </c>
       <c r="G121" s="10"/>
       <c r="H121" s="10"/>
     </row>
-    <row r="122" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C122" s="10" t="s">
+    <row r="122" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C122" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="D122" s="41">
+        <v>2017</v>
+      </c>
+      <c r="E122" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="F122" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="G122" s="41"/>
+      <c r="H122" s="41"/>
+    </row>
+    <row r="123" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C123" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="D123" s="8">
+        <v>2017</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+    </row>
+    <row r="124" spans="3:8" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="C124" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D124" s="8">
+        <v>2018</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="H124" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="125" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C125" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="D125" s="10">
+        <v>2018</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="10"/>
+    </row>
+    <row r="126" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C126" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="D126" s="33">
+        <v>2018</v>
+      </c>
+      <c r="E126" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="F126" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="G126" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="H126" s="33" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="127" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C127" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D127" s="8">
+        <v>2019</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="H127" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="128" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C128" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="D122" s="10">
-        <v>2017</v>
-      </c>
-      <c r="E122" s="10" t="s">
+      <c r="D128" s="10">
+        <v>2019</v>
+      </c>
+      <c r="E128" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="F122" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="G122" s="10"/>
-      <c r="H122" s="10"/>
-    </row>
-    <row r="123" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C123" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="D123" s="10">
-        <v>2017</v>
-      </c>
-      <c r="E123" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="F123" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="G123" s="10"/>
-      <c r="H123" s="10"/>
-    </row>
-    <row r="124" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C124" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="D124" s="41">
-        <v>2017</v>
-      </c>
-      <c r="E124" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="F124" s="41" t="s">
-        <v>371</v>
-      </c>
-      <c r="G124" s="41"/>
-      <c r="H124" s="41"/>
-    </row>
-    <row r="125" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C125" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="D125" s="8">
-        <v>2017</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="F125" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="G125" s="8"/>
-      <c r="H125" s="8"/>
-    </row>
-    <row r="126" spans="3:8" ht="83.25" x14ac:dyDescent="0.4">
-      <c r="C126" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="D126" s="8">
-        <v>2018</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="F126" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="G126" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="H126" s="8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="127" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C127" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="D127" s="10">
-        <v>2018</v>
-      </c>
-      <c r="E127" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="F127" s="10"/>
-      <c r="G127" s="10"/>
-      <c r="H127" s="10"/>
-    </row>
-    <row r="128" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C128" s="33" t="s">
-        <v>321</v>
-      </c>
-      <c r="D128" s="33">
-        <v>2018</v>
-      </c>
-      <c r="E128" s="33" t="s">
-        <v>320</v>
-      </c>
-      <c r="F128" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="G128" s="33" t="s">
-        <v>349</v>
-      </c>
-      <c r="H128" s="33" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="129" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C129" s="8" t="s">
-        <v>274</v>
+      <c r="F128" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="G128" s="10"/>
+      <c r="H128" s="10"/>
+    </row>
+    <row r="129" spans="3:8" s="14" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="C129" s="16" t="s">
+        <v>278</v>
       </c>
       <c r="D129" s="8">
         <v>2019</v>
       </c>
-      <c r="E129" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="F129" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="G129" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="H129" s="8" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="130" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C130" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="D130" s="10">
+      <c r="E129" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="F129" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="G129" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="H129" s="16" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="130" spans="3:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C130" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="D130" s="8">
         <v>2019</v>
       </c>
-      <c r="E130" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="F130" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="G130" s="10"/>
-      <c r="H130" s="10"/>
-    </row>
-    <row r="131" spans="3:8" s="14" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="E130" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="F130" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="G130" s="16"/>
+      <c r="H130" s="16"/>
+    </row>
+    <row r="131" spans="3:8" s="14" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
       <c r="C131" s="16" t="s">
         <v>283</v>
       </c>
       <c r="D131" s="8">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E131" s="16" t="s">
         <v>284</v>
@@ -5973,279 +6127,271 @@
       </c>
     </row>
     <row r="132" spans="3:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C132" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="D132" s="8">
-        <v>2019</v>
-      </c>
-      <c r="E132" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="F132" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="G132" s="16"/>
-      <c r="H132" s="16"/>
-    </row>
-    <row r="133" spans="3:8" s="14" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C132" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D132" s="33">
+        <v>2020</v>
+      </c>
+      <c r="E132" s="35" t="s">
+        <v>388</v>
+      </c>
+      <c r="F132" s="36" t="s">
+        <v>389</v>
+      </c>
+      <c r="G132" s="34"/>
+      <c r="H132" s="34"/>
+    </row>
+    <row r="133" spans="3:8" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C133" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="D133" s="8">
+        <v>289</v>
+      </c>
+      <c r="D133" s="38">
         <v>2020</v>
       </c>
-      <c r="E133" s="16" t="s">
-        <v>289</v>
+      <c r="E133" s="39" t="s">
+        <v>290</v>
       </c>
       <c r="F133" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="G133" s="16" t="s">
         <v>292</v>
-      </c>
-      <c r="G133" s="16" t="s">
-        <v>290</v>
       </c>
       <c r="H133" s="16" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="134" spans="3:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="134" spans="3:8" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C134" s="34" t="s">
-        <v>392</v>
-      </c>
-      <c r="D134" s="33">
-        <v>2020</v>
-      </c>
-      <c r="E134" s="35" t="s">
-        <v>393</v>
-      </c>
-      <c r="F134" s="36" t="s">
-        <v>394</v>
-      </c>
-      <c r="G134" s="34"/>
-      <c r="H134" s="34"/>
-    </row>
-    <row r="135" spans="3:8" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C135" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="D135" s="38">
-        <v>2020</v>
-      </c>
-      <c r="E135" s="39" t="s">
-        <v>295</v>
-      </c>
-      <c r="F135" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="G135" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="H135" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="136" spans="3:8" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C136" s="34" t="s">
-        <v>316</v>
-      </c>
-      <c r="D136" s="40">
+        <v>311</v>
+      </c>
+      <c r="D134" s="40">
         <v>2021</v>
       </c>
-      <c r="E136" s="33" t="s">
+      <c r="E134" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="F134" s="34" t="s">
         <v>317</v>
       </c>
-      <c r="F136" s="34" t="s">
-        <v>322</v>
-      </c>
-      <c r="G136" s="34" t="s">
-        <v>323</v>
-      </c>
-      <c r="H136" s="34" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="137" spans="3:8" s="46" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C137" s="25" t="s">
-        <v>464</v>
-      </c>
-      <c r="D137" s="43">
+      <c r="G134" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="H134" s="34" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="135" spans="3:8" s="46" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C135" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="D135" s="43">
         <v>2022</v>
       </c>
-      <c r="E137" s="47"/>
-      <c r="F137" s="25"/>
-      <c r="G137" s="25"/>
-      <c r="H137" s="25"/>
-    </row>
-    <row r="138" spans="3:8" s="14" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C138" s="44" t="s">
-        <v>333</v>
-      </c>
-      <c r="D138" s="45">
+      <c r="E135" s="47"/>
+      <c r="F135" s="25"/>
+      <c r="G135" s="25"/>
+      <c r="H135" s="25"/>
+    </row>
+    <row r="136" spans="3:8" s="14" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C136" s="44" t="s">
+        <v>328</v>
+      </c>
+      <c r="D136" s="45">
         <v>2023</v>
       </c>
-      <c r="E138" s="42" t="s">
-        <v>334</v>
-      </c>
-      <c r="F138" s="44" t="s">
-        <v>335</v>
-      </c>
-      <c r="G138" s="44" t="s">
-        <v>336</v>
-      </c>
-      <c r="H138" s="44" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="139" spans="3:8" ht="111" x14ac:dyDescent="0.4">
-      <c r="C139" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="D139" s="10">
+      <c r="E136" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="F136" s="44" t="s">
+        <v>330</v>
+      </c>
+      <c r="G136" s="44" t="s">
+        <v>331</v>
+      </c>
+      <c r="H136" s="44" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="137" spans="3:8" ht="111" x14ac:dyDescent="0.4">
+      <c r="C137" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="D137" s="10">
         <v>2023</v>
       </c>
-      <c r="E139" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="F139" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="G139" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="H139" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="140" spans="3:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C140" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="D140" s="37"/>
-      <c r="E140" s="16"/>
-      <c r="F140" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="G140" s="16"/>
-      <c r="H140" s="16"/>
-    </row>
-    <row r="142" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C142" s="65" t="s">
-        <v>241</v>
-      </c>
-      <c r="D142" s="66"/>
-      <c r="E142" s="66"/>
-      <c r="F142" s="66"/>
-      <c r="G142" s="66"/>
-      <c r="H142" s="67"/>
-    </row>
-    <row r="143" spans="3:8" s="25" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C143" s="25" t="s">
+      <c r="E137" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="F137" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="G137" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="H137" s="10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="138" spans="3:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C138" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="D138" s="37"/>
+      <c r="E138" s="16"/>
+      <c r="F138" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="G138" s="16"/>
+      <c r="H138" s="16"/>
+    </row>
+    <row r="140" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C140" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="D140" s="66"/>
+      <c r="E140" s="66"/>
+      <c r="F140" s="66"/>
+      <c r="G140" s="66"/>
+      <c r="H140" s="67"/>
+    </row>
+    <row r="141" spans="3:8" s="25" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C141" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="D141" s="25">
+        <v>2016</v>
+      </c>
+      <c r="E141" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="F141" s="25" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="142" spans="3:8" s="30" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C142" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="D142" s="31">
+        <v>2017</v>
+      </c>
+      <c r="E142" t="s">
+        <v>450</v>
+      </c>
+      <c r="F142" s="31" t="s">
+        <v>451</v>
+      </c>
+      <c r="G142" s="31"/>
+      <c r="H142" s="31"/>
+    </row>
+    <row r="143" spans="3:8" s="30" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C143" s="31" t="s">
+        <v>432</v>
+      </c>
+      <c r="D143" s="31">
+        <v>2018</v>
+      </c>
+      <c r="E143" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="F143" s="31" t="s">
+        <v>434</v>
+      </c>
+      <c r="G143" s="31"/>
+      <c r="H143" s="31"/>
+    </row>
+    <row r="144" spans="3:8" s="30" customFormat="1" ht="111" x14ac:dyDescent="0.4">
+      <c r="C144" s="31" t="s">
+        <v>438</v>
+      </c>
+      <c r="D144" s="31">
+        <v>2018</v>
+      </c>
+      <c r="E144" s="32" t="s">
+        <v>439</v>
+      </c>
+      <c r="F144" s="31" t="s">
+        <v>441</v>
+      </c>
+      <c r="G144" s="31" t="s">
+        <v>440</v>
+      </c>
+      <c r="H144" s="31" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="145" spans="3:8" ht="97.15" x14ac:dyDescent="0.4">
+      <c r="C145" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="D145" s="27">
+        <v>2019</v>
+      </c>
+      <c r="E145" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F145" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="G145" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="H145" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="146" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C146" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="D146" s="7">
+        <v>2019</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F146" s="7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="147" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C147" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="D147" s="7">
+        <v>2019</v>
+      </c>
+      <c r="E147" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="F147" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="D143" s="25">
-        <v>2016</v>
-      </c>
-      <c r="E143" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="F143" s="25" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="144" spans="3:8" s="30" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C144" s="31" t="s">
-        <v>457</v>
-      </c>
-      <c r="D144" s="31">
-        <v>2017</v>
-      </c>
-      <c r="E144" t="s">
-        <v>458</v>
-      </c>
-      <c r="F144" s="31" t="s">
-        <v>459</v>
-      </c>
-      <c r="G144" s="31"/>
-      <c r="H144" s="31"/>
-    </row>
-    <row r="145" spans="3:8" s="30" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C145" s="31" t="s">
-        <v>440</v>
-      </c>
-      <c r="D145" s="31">
-        <v>2018</v>
-      </c>
-      <c r="E145" s="28" t="s">
-        <v>441</v>
-      </c>
-      <c r="F145" s="31" t="s">
-        <v>442</v>
-      </c>
-      <c r="G145" s="31"/>
-      <c r="H145" s="31"/>
-    </row>
-    <row r="146" spans="3:8" s="30" customFormat="1" ht="111" x14ac:dyDescent="0.4">
-      <c r="C146" s="31" t="s">
-        <v>446</v>
-      </c>
-      <c r="D146" s="31">
-        <v>2018</v>
-      </c>
-      <c r="E146" s="32" t="s">
-        <v>447</v>
-      </c>
-      <c r="F146" s="31" t="s">
-        <v>449</v>
-      </c>
-      <c r="G146" s="31" t="s">
-        <v>448</v>
-      </c>
-      <c r="H146" s="31" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="147" spans="3:8" ht="97.15" x14ac:dyDescent="0.4">
-      <c r="C147" s="27" t="s">
-        <v>279</v>
-      </c>
-      <c r="D147" s="27">
-        <v>2019</v>
-      </c>
-      <c r="E147" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="F147" s="27" t="s">
-        <v>282</v>
-      </c>
-      <c r="G147" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="H147" s="27" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="148" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C148" s="7" t="s">
-        <v>431</v>
+    </row>
+    <row r="148" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C148" s="29" t="s">
+        <v>426</v>
       </c>
       <c r="D148" s="7">
         <v>2019</v>
       </c>
-      <c r="E148" s="7" t="s">
-        <v>433</v>
+      <c r="E148" t="s">
+        <v>427</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="149" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C149" s="7" t="s">
+      <c r="C149" s="29" t="s">
         <v>443</v>
       </c>
       <c r="D149" s="7">
         <v>2019</v>
       </c>
-      <c r="E149" s="28" t="s">
+      <c r="E149" s="7" t="s">
         <v>444</v>
       </c>
       <c r="F149" s="7" t="s">
@@ -6253,122 +6399,135 @@
       </c>
     </row>
     <row r="150" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C150" s="29" t="s">
-        <v>434</v>
+      <c r="C150" s="7" t="s">
+        <v>446</v>
       </c>
       <c r="D150" s="7">
         <v>2019</v>
       </c>
-      <c r="E150" t="s">
-        <v>435</v>
+      <c r="E150" s="7" t="s">
+        <v>447</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="151" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C151" s="29" t="s">
-        <v>451</v>
-      </c>
-      <c r="D151" s="7">
-        <v>2019</v>
-      </c>
-      <c r="E151" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="F151" s="7" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="152" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C152" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="D152" s="7">
-        <v>2019</v>
-      </c>
-      <c r="E152" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="F152" s="7" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="156" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C156" s="59" t="s">
-        <v>293</v>
-      </c>
-      <c r="D156" s="60"/>
-      <c r="E156" s="60"/>
-      <c r="F156" s="60"/>
-      <c r="G156" s="60"/>
-      <c r="H156" s="61"/>
-    </row>
-    <row r="157" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="151" spans="3:8" s="71" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C151" s="70" t="s">
+        <v>401</v>
+      </c>
+      <c r="D151" s="70">
+        <v>2023</v>
+      </c>
+      <c r="E151" s="70" t="s">
+        <v>402</v>
+      </c>
+      <c r="F151" s="70" t="s">
+        <v>502</v>
+      </c>
+      <c r="G151" s="70"/>
+      <c r="H151" s="70"/>
+    </row>
+    <row r="155" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C155" s="59" t="s">
+        <v>288</v>
+      </c>
+      <c r="D155" s="60"/>
+      <c r="E155" s="60"/>
+      <c r="F155" s="60"/>
+      <c r="G155" s="60"/>
+      <c r="H155" s="61"/>
+    </row>
+    <row r="156" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C156" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D156" s="7">
+        <v>2020</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F156" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="157" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C157" s="7" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="D157" s="7">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E157" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F157" s="7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="158" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C158" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D158" s="7">
+        <v>2022</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F158" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="F157" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="158" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C158" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="D158" s="7">
-        <v>2021</v>
-      </c>
-      <c r="E158" s="7" t="s">
+      <c r="G158" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="F158" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="159" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="159" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C159" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D159" s="7">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G159" s="7" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="160" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C160" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="D160" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E160" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="F160" s="7" t="s">
-        <v>340</v>
-      </c>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="162" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C162" s="59" t="s">
+        <v>512</v>
+      </c>
+      <c r="D162" s="60"/>
+      <c r="E162" s="60"/>
+      <c r="F162" s="60"/>
+      <c r="G162" s="60"/>
+      <c r="H162" s="61"/>
+    </row>
+    <row r="163" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C163" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="D163" s="27">
+        <v>2017</v>
+      </c>
+      <c r="E163" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="F163" s="27"/>
+      <c r="G163" s="27"/>
+      <c r="H163" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C156:H156"/>
-    <mergeCell ref="C92:H92"/>
-    <mergeCell ref="C113:H113"/>
-    <mergeCell ref="C142:H142"/>
+  <mergeCells count="11">
+    <mergeCell ref="C162:H162"/>
+    <mergeCell ref="C155:H155"/>
+    <mergeCell ref="C90:H90"/>
+    <mergeCell ref="C111:H111"/>
+    <mergeCell ref="C140:H140"/>
     <mergeCell ref="C77:H77"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C16:H16"/>

--- a/ML Apply in OS/summary (new version).xlsx
+++ b/ML Apply in OS/summary (new version).xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HKU\HKU\23Fall\AI-OS\ML Apply in OS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research-23\AIOS\ML Apply in OS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AB271C-26C8-4890-B0AB-42159DB2D4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F7C972-8DDB-4023-AAFC-573278A6D0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="542">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1603,22 +1604,6 @@
   </si>
   <si>
     <t xml:space="preserve">Parallel and Distrib. Comput. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Improvising process scheduling using machine learning. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3rd IEEE International Conference on Recent Trends in Electronics, Information &amp; Communication Technology (RTEICT)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> A ML-Based Runtime System for Executing Dataflow Graphs on Heterogeneous Processors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Proceedings of the ACM Symposium on Cloud Computing (Carlsbad, CA, USA) (SoCC ’18)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1866,14 +1851,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Asymmetric mean-field neural networks for multiprocessor scheduling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neural Networks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Heterogeneous Earliest-Finish-Time (HEFT) algorithm and the Critical-Path-on-a-Processor (CPOP) algorithm; For HEFT, select task with highest upward rank; For CPOP, select task with highest upward rank + downward rank.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2015,14 +1992,6 @@
   </si>
   <si>
     <t xml:space="preserve">Decision </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Multi-processor; asymmetric mean-field thermodynamic neural network; offline scheduling; </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minimizing processor overload</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2108,6 +2077,124 @@
   </si>
   <si>
     <t>future i/o request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prediction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ML Techniques</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inputs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outputs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(work name)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predict CPU burst time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decision tree, KNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 best attributes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support Vector Machine (SVM) and K-Nearest Neighbors (K-NN), Artificial Neural Networks (ANN) and Decision Trees (DT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18 attributes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU burst times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predict IPC, Cache misses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCA, SVR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Thread characterization features from PCA. </t>
+  </si>
+  <si>
+    <t>values of performance indicators, counters for the next time
+unit of a given thread execution</t>
+  </si>
+  <si>
+    <t>task allocation on GPU/CPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the size of the input data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whether a given task should be executed on the CPU or the GPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task allocation on different CPU cores</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 Values in P4 (e.g. LD1, L1 Caches)</t>
+  </si>
+  <si>
+    <t>the estimated IPC that the thread is
+will achieve on a particular core during the next scheduling quantum.</t>
+  </si>
+  <si>
+    <t>Random Forest Classifier and Gradient Boosting based Regressor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23 features on p23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suitability/speed up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Process Scheduling</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2174,7 +2261,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2244,6 +2331,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2401,7 +2494,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2524,12 +2617,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2546,14 +2633,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2562,15 +2649,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2582,18 +2660,42 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2882,24 +2984,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG163"/>
+  <dimension ref="A1:AG160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="48.46484375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="48.5" style="7" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="7"/>
-    <col min="5" max="5" width="42.265625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="42.25" style="7" customWidth="1"/>
     <col min="6" max="6" width="58.6640625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="20.06640625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="38.265625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="20.08203125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="38.25" style="7" customWidth="1"/>
     <col min="9" max="9" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:31" s="1" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2919,17 +3021,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C2" s="56" t="s">
+    <row r="2" spans="1:31" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-    </row>
-    <row r="3" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="65"/>
+    </row>
+    <row r="3" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3" s="10" t="s">
@@ -2974,7 +3076,7 @@
       <c r="AD3"/>
       <c r="AE3"/>
     </row>
-    <row r="4" spans="1:31" s="11" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:31" s="11" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4" s="10" t="s">
@@ -3019,7 +3121,7 @@
       <c r="AD4"/>
       <c r="AE4"/>
     </row>
-    <row r="5" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5" s="6" t="s">
@@ -3064,7 +3166,7 @@
       <c r="AD5"/>
       <c r="AE5"/>
     </row>
-    <row r="6" spans="1:31" s="9" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:31" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6" s="8" t="s">
@@ -3109,7 +3211,7 @@
       <c r="AD6"/>
       <c r="AE6"/>
     </row>
-    <row r="7" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7" s="6" t="s">
@@ -3154,7 +3256,7 @@
       <c r="AD7"/>
       <c r="AE7"/>
     </row>
-    <row r="8" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8" s="6" t="s">
@@ -3199,7 +3301,7 @@
       <c r="AD8"/>
       <c r="AE8"/>
     </row>
-    <row r="9" spans="1:31" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9" s="8" t="s">
@@ -3244,7 +3346,7 @@
       <c r="AD9"/>
       <c r="AE9"/>
     </row>
-    <row r="10" spans="1:31" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:31" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10" s="8" t="s">
@@ -3289,7 +3391,7 @@
       <c r="AD10"/>
       <c r="AE10"/>
     </row>
-    <row r="11" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11" s="6" t="s">
@@ -3334,7 +3436,7 @@
       <c r="AD11"/>
       <c r="AE11"/>
     </row>
-    <row r="12" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12" s="6" t="s">
@@ -3379,7 +3481,7 @@
       <c r="AD12"/>
       <c r="AE12"/>
     </row>
-    <row r="13" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13" s="6" t="s">
@@ -3424,7 +3526,7 @@
       <c r="AD13"/>
       <c r="AE13"/>
     </row>
-    <row r="14" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14" s="6" t="s">
@@ -3469,7 +3571,7 @@
       <c r="AD14"/>
       <c r="AE14"/>
     </row>
-    <row r="15" spans="1:31" s="2" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15" s="6" t="s">
@@ -3514,17 +3616,17 @@
       <c r="AD15"/>
       <c r="AE15"/>
     </row>
-    <row r="16" spans="1:31" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C16" s="59" t="s">
+    <row r="16" spans="1:31" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C16" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="61"/>
-    </row>
-    <row r="17" spans="1:33" s="11" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="59"/>
+    </row>
+    <row r="17" spans="1:33" s="11" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17" s="10" t="s">
@@ -3571,7 +3673,7 @@
       <c r="AF17"/>
       <c r="AG17"/>
     </row>
-    <row r="18" spans="1:33" s="9" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:33" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18" s="8" t="s">
@@ -3618,7 +3720,7 @@
       <c r="AF18"/>
       <c r="AG18"/>
     </row>
-    <row r="19" spans="1:33" s="9" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:33" s="9" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19" s="8" t="s">
@@ -3665,7 +3767,7 @@
       <c r="AF19"/>
       <c r="AG19"/>
     </row>
-    <row r="20" spans="1:33" s="9" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:33" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20" s="8" t="s">
@@ -3712,9 +3814,9 @@
       <c r="AF20"/>
       <c r="AG20"/>
     </row>
-    <row r="21" spans="1:33" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:33" ht="56" x14ac:dyDescent="0.3">
       <c r="C21" s="6" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D21" s="6">
         <v>2002</v>
@@ -3723,16 +3825,16 @@
         <v>10</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22" s="8" t="s">
@@ -3779,7 +3881,7 @@
       <c r="AF22"/>
       <c r="AG22"/>
     </row>
-    <row r="23" spans="1:33" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:33" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23" s="6" t="s">
@@ -3795,10 +3897,10 @@
         <v>60</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
@@ -3826,9 +3928,9 @@
       <c r="AF23"/>
       <c r="AG23"/>
     </row>
-    <row r="24" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C24" s="6" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="D24" s="6">
         <v>2013</v>
@@ -3837,16 +3939,16 @@
         <v>10</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" s="3" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25" s="8" t="s">
@@ -3893,7 +3995,7 @@
       <c r="AF25"/>
       <c r="AG25"/>
     </row>
-    <row r="26" spans="1:33" s="11" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:33" s="11" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26" s="10" t="s">
@@ -3940,25 +4042,25 @@
       <c r="AF26"/>
       <c r="AG26"/>
     </row>
-    <row r="27" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27"/>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="50">
+      <c r="D27" s="48">
         <v>2017</v>
       </c>
-      <c r="E27" s="50" t="s">
+      <c r="E27" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="50" t="s">
+      <c r="F27" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="G27" s="50" t="s">
+      <c r="G27" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="H27" s="50" t="s">
+      <c r="H27" s="48" t="s">
         <v>74</v>
       </c>
       <c r="I27"/>
@@ -3987,24 +4089,24 @@
       <c r="AF27"/>
       <c r="AG27"/>
     </row>
-    <row r="28" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28"/>
       <c r="B28"/>
-      <c r="C28" s="52" t="s">
-        <v>477</v>
-      </c>
-      <c r="D28" s="52">
+      <c r="C28" s="50" t="s">
+        <v>471</v>
+      </c>
+      <c r="D28" s="50">
         <v>2019</v>
       </c>
-      <c r="E28" s="52" t="s">
-        <v>480</v>
-      </c>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52" t="s">
-        <v>465</v>
-      </c>
-      <c r="H28" s="52" t="s">
-        <v>462</v>
+      <c r="E28" s="50" t="s">
+        <v>474</v>
+      </c>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50" t="s">
+        <v>459</v>
+      </c>
+      <c r="H28" s="50" t="s">
+        <v>456</v>
       </c>
       <c r="I28"/>
       <c r="J28"/>
@@ -4032,11 +4134,11 @@
       <c r="AF28"/>
       <c r="AG28"/>
     </row>
-    <row r="29" spans="1:33" s="51" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:33" s="49" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="28"/>
       <c r="B29" s="28"/>
       <c r="C29" s="6" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D29" s="6">
         <v>2020</v>
@@ -4046,10 +4148,10 @@
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="I29" s="28"/>
       <c r="J29" s="28"/>
@@ -4077,24 +4179,24 @@
       <c r="AF29" s="28"/>
       <c r="AG29" s="28"/>
     </row>
-    <row r="30" spans="1:33" s="11" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:33" s="11" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30" s="6" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D30" s="6">
         <v>2022</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
@@ -4122,17 +4224,17 @@
       <c r="AF30"/>
       <c r="AG30"/>
     </row>
-    <row r="31" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C31" s="62" t="s">
+    <row r="31" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C31" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="64"/>
-    </row>
-    <row r="32" spans="1:33" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="68"/>
+    </row>
+    <row r="32" spans="1:33" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32" s="6" t="s">
@@ -4179,7 +4281,7 @@
       <c r="AF32"/>
       <c r="AG32"/>
     </row>
-    <row r="33" spans="1:33" s="13" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33" s="12" t="s">
@@ -4226,7 +4328,7 @@
       <c r="AF33"/>
       <c r="AG33"/>
     </row>
-    <row r="34" spans="1:33" s="2" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:33" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34" s="6" t="s">
@@ -4273,7 +4375,7 @@
       <c r="AF34"/>
       <c r="AG34"/>
     </row>
-    <row r="35" spans="1:33" s="11" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:33" s="11" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35" s="10" t="s">
@@ -4320,7 +4422,7 @@
       <c r="AF35"/>
       <c r="AG35"/>
     </row>
-    <row r="36" spans="1:33" s="13" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:33" s="13" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36" s="12" t="s">
@@ -4367,7 +4469,7 @@
       <c r="AF36"/>
       <c r="AG36"/>
     </row>
-    <row r="37" spans="1:33" s="13" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37" s="12" t="s">
@@ -4414,7 +4516,7 @@
       <c r="AF37"/>
       <c r="AG37"/>
     </row>
-    <row r="38" spans="1:33" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:33" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38" s="12" t="s">
@@ -4461,7 +4563,7 @@
       <c r="AF38"/>
       <c r="AG38"/>
     </row>
-    <row r="39" spans="1:33" s="11" customFormat="1" ht="56.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:33" s="11" customFormat="1" ht="56.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39" s="10" t="s">
@@ -4508,7 +4610,7 @@
       <c r="AF39"/>
       <c r="AG39"/>
     </row>
-    <row r="40" spans="1:33" s="13" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40" s="12" t="s">
@@ -4555,7 +4657,7 @@
       <c r="AF40"/>
       <c r="AG40"/>
     </row>
-    <row r="41" spans="1:33" s="13" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41" s="12" t="s">
@@ -4602,7 +4704,7 @@
       <c r="AF41"/>
       <c r="AG41"/>
     </row>
-    <row r="42" spans="1:33" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:33" ht="42" x14ac:dyDescent="0.3">
       <c r="C42" s="12" t="s">
         <v>95</v>
       </c>
@@ -4622,7 +4724,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:33" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:33" ht="42" x14ac:dyDescent="0.3">
       <c r="C43" s="12" t="s">
         <v>96</v>
       </c>
@@ -4642,17 +4744,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C44" s="59" t="s">
+    <row r="44" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C44" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="61"/>
-    </row>
-    <row r="45" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="59"/>
+    </row>
+    <row r="45" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C45" s="8" t="s">
         <v>198</v>
       </c>
@@ -4672,7 +4774,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C46" s="8" t="s">
         <v>195</v>
       </c>
@@ -4692,7 +4794,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C47" s="18" t="s">
         <v>208</v>
       </c>
@@ -4712,7 +4814,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="48" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C48" s="18" t="s">
         <v>210</v>
       </c>
@@ -4732,7 +4834,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="49" spans="3:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:8" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="C49" s="19" t="s">
         <v>160</v>
       </c>
@@ -4752,7 +4854,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="50" spans="3:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:8" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="C50" s="16" t="s">
         <v>186</v>
       </c>
@@ -4772,7 +4874,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C51" s="8" t="s">
         <v>150</v>
       </c>
@@ -4792,7 +4894,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C52" s="8" t="s">
         <v>144</v>
       </c>
@@ -4812,7 +4914,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C53" s="8" t="s">
         <v>172</v>
       </c>
@@ -4832,7 +4934,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="54" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C54" s="8" t="s">
         <v>143</v>
       </c>
@@ -4852,7 +4954,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C55" s="8" t="s">
         <v>176</v>
       </c>
@@ -4872,7 +4974,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="56" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C56" s="8" t="s">
         <v>188</v>
       </c>
@@ -4892,7 +4994,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="57" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C57" s="8" t="s">
         <v>140</v>
       </c>
@@ -4912,7 +5014,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C58" s="8" t="s">
         <v>191</v>
       </c>
@@ -4932,7 +5034,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="59" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C59" s="8" t="s">
         <v>166</v>
       </c>
@@ -4952,7 +5054,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:8" ht="56" x14ac:dyDescent="0.3">
       <c r="C60" s="8" t="s">
         <v>179</v>
       </c>
@@ -4972,7 +5074,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="61" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C61" s="18" t="s">
         <v>205</v>
       </c>
@@ -4992,7 +5094,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="62" spans="3:8" ht="56" x14ac:dyDescent="0.3">
       <c r="C62" s="8" t="s">
         <v>154</v>
       </c>
@@ -5012,7 +5114,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="63" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C63" s="8" t="s">
         <v>183</v>
       </c>
@@ -5032,7 +5134,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="64" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C64" s="8" t="s">
         <v>157</v>
       </c>
@@ -5052,64 +5154,64 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="65" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C65" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="E65" s="53" t="s">
-        <v>483</v>
+        <v>476</v>
+      </c>
+      <c r="E65" s="51" t="s">
+        <v>477</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="66" spans="3:8" s="54" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" s="52" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="C66" s="8" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D66" s="8">
         <v>2011</v>
       </c>
-      <c r="E66" s="55" t="s">
-        <v>487</v>
+      <c r="E66" s="53" t="s">
+        <v>481</v>
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="67" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C67" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D67" s="7">
         <v>2015</v>
       </c>
-      <c r="E67" s="53" t="s">
-        <v>488</v>
+      <c r="E67" s="51" t="s">
+        <v>482</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="68" spans="3:8" s="54" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" s="52" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D68" s="7">
         <v>2016</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="69" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C69" s="18" t="s">
         <v>162</v>
       </c>
@@ -5129,31 +5231,31 @@
         <v>201</v>
       </c>
     </row>
-    <row r="70" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="70" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C70" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D70" s="7">
         <v>2023</v>
       </c>
-      <c r="E70" s="53" t="s">
-        <v>491</v>
+      <c r="E70" s="51" t="s">
+        <v>485</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="71" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C71" s="59" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C71" s="57" t="s">
         <v>216</v>
       </c>
-      <c r="D71" s="60"/>
-      <c r="E71" s="60"/>
-      <c r="F71" s="60"/>
-      <c r="G71" s="60"/>
-      <c r="H71" s="61"/>
-    </row>
-    <row r="72" spans="3:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="D71" s="58"/>
+      <c r="E71" s="58"/>
+      <c r="F71" s="58"/>
+      <c r="G71" s="58"/>
+      <c r="H71" s="59"/>
+    </row>
+    <row r="72" spans="3:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C72" s="21" t="s">
         <v>0</v>
       </c>
@@ -5173,7 +5275,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="73" spans="3:8" ht="111" x14ac:dyDescent="0.4">
+    <row r="73" spans="3:8" ht="98" x14ac:dyDescent="0.3">
       <c r="C73" s="7" t="s">
         <v>223</v>
       </c>
@@ -5187,7 +5289,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="74" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="74" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C74" s="7" t="s">
         <v>217</v>
       </c>
@@ -5201,7 +5303,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="75" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="75" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C75" s="7" t="s">
         <v>219</v>
       </c>
@@ -5215,7 +5317,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="76" spans="3:8" ht="70.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="3:8" ht="70.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="7" t="s">
         <v>221</v>
       </c>
@@ -5229,17 +5331,17 @@
         <v>225</v>
       </c>
     </row>
-    <row r="77" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C77" s="59" t="s">
+    <row r="77" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C77" s="57" t="s">
         <v>230</v>
       </c>
-      <c r="D77" s="60"/>
-      <c r="E77" s="60"/>
-      <c r="F77" s="60"/>
-      <c r="G77" s="60"/>
-      <c r="H77" s="61"/>
-    </row>
-    <row r="78" spans="3:8" s="23" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="D77" s="58"/>
+      <c r="E77" s="58"/>
+      <c r="F77" s="58"/>
+      <c r="G77" s="58"/>
+      <c r="H77" s="59"/>
+    </row>
+    <row r="78" spans="3:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C78" s="22" t="s">
         <v>0</v>
       </c>
@@ -5259,25 +5361,25 @@
         <v>234</v>
       </c>
     </row>
-    <row r="79" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="79" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C79" s="26" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D79" s="26">
         <v>2008</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F79" s="26" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G79" s="26" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="H79" s="26"/>
     </row>
-    <row r="80" spans="3:8" s="28" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
+    <row r="80" spans="3:8" s="28" customFormat="1" ht="84" x14ac:dyDescent="0.3">
       <c r="C80" s="41" t="s">
         <v>248</v>
       </c>
@@ -5297,89 +5399,89 @@
         <v>250</v>
       </c>
     </row>
-    <row r="81" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C81" s="72" t="s">
-        <v>415</v>
-      </c>
-      <c r="D81" s="72">
+    <row r="81" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C81" s="56" t="s">
+        <v>411</v>
+      </c>
+      <c r="D81" s="56">
         <v>2016</v>
       </c>
-      <c r="E81" s="72" t="s">
-        <v>416</v>
-      </c>
-      <c r="F81" s="72" t="s">
-        <v>514</v>
-      </c>
-      <c r="G81" s="72" t="s">
+      <c r="E81" s="56" t="s">
+        <v>412</v>
+      </c>
+      <c r="F81" s="56" t="s">
+        <v>506</v>
+      </c>
+      <c r="G81" s="56" t="s">
+        <v>502</v>
+      </c>
+      <c r="H81" s="56" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" ht="98" x14ac:dyDescent="0.3">
+      <c r="C82" s="56" t="s">
+        <v>408</v>
+      </c>
+      <c r="D82" s="56">
+        <v>2019</v>
+      </c>
+      <c r="E82" s="56" t="s">
+        <v>409</v>
+      </c>
+      <c r="F82" s="56" t="s">
+        <v>507</v>
+      </c>
+      <c r="G82" s="56" t="s">
+        <v>508</v>
+      </c>
+      <c r="H82" s="56" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C83" s="56" t="s">
+        <v>401</v>
+      </c>
+      <c r="D83" s="56">
+        <v>2019</v>
+      </c>
+      <c r="E83" s="56" t="s">
+        <v>402</v>
+      </c>
+      <c r="F83" s="56" t="s">
+        <v>509</v>
+      </c>
+      <c r="G83" s="56" t="s">
         <v>510</v>
       </c>
-      <c r="H81" s="72" t="s">
+      <c r="H83" s="56" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="82" spans="3:8" ht="97.15" x14ac:dyDescent="0.4">
-      <c r="C82" s="72" t="s">
-        <v>412</v>
-      </c>
-      <c r="D82" s="72">
-        <v>2019</v>
-      </c>
-      <c r="E82" s="72" t="s">
-        <v>413</v>
-      </c>
-      <c r="F82" s="72" t="s">
-        <v>515</v>
-      </c>
-      <c r="G82" s="72" t="s">
-        <v>516</v>
-      </c>
-      <c r="H82" s="72" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="83" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C83" s="72" t="s">
-        <v>405</v>
-      </c>
-      <c r="D83" s="72">
-        <v>2019</v>
-      </c>
-      <c r="E83" s="72" t="s">
-        <v>406</v>
-      </c>
-      <c r="F83" s="72" t="s">
-        <v>517</v>
-      </c>
-      <c r="G83" s="72" t="s">
-        <v>518</v>
-      </c>
-      <c r="H83" s="72" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="84" spans="3:8" ht="111" x14ac:dyDescent="0.4">
-      <c r="C84" s="72" t="s">
+    <row r="84" spans="3:8" ht="84" x14ac:dyDescent="0.3">
+      <c r="C84" s="56" t="s">
         <v>296</v>
       </c>
-      <c r="D84" s="72">
+      <c r="D84" s="56">
         <v>2020</v>
       </c>
-      <c r="E84" s="72" t="s">
+      <c r="E84" s="56" t="s">
         <v>297</v>
       </c>
-      <c r="F84" s="72" t="s">
+      <c r="F84" s="56" t="s">
         <v>300</v>
       </c>
-      <c r="G84" s="72" t="s">
+      <c r="G84" s="56" t="s">
         <v>299</v>
       </c>
-      <c r="H84" s="72" t="s">
+      <c r="H84" s="56" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="85" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="85" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C85" s="27" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D85" s="27">
         <v>2020</v>
@@ -5388,1152 +5490,1127 @@
         <v>241</v>
       </c>
       <c r="F85" s="27" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G85" s="27" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="H85" s="27"/>
     </row>
-    <row r="86" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="86" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C86" s="27" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D86" s="27">
         <v>2020</v>
       </c>
       <c r="E86" s="27" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F86" s="27" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
     </row>
-    <row r="87" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="87" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C87" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D87" s="7">
         <v>2021</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="88" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C88" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D88" s="7">
         <v>2021</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="90" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C90" s="65" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C90" s="60" t="s">
         <v>235</v>
       </c>
-      <c r="D90" s="66"/>
-      <c r="E90" s="66"/>
-      <c r="F90" s="66"/>
-      <c r="G90" s="66"/>
-      <c r="H90" s="67"/>
-    </row>
-    <row r="91" spans="3:8" s="28" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C91" s="49" t="s">
-        <v>459</v>
-      </c>
-      <c r="D91" s="48">
-        <v>1992</v>
-      </c>
-      <c r="E91" s="28" t="s">
-        <v>460</v>
-      </c>
-      <c r="F91" s="29" t="s">
+      <c r="D90" s="61"/>
+      <c r="E90" s="61"/>
+      <c r="F90" s="61"/>
+      <c r="G90" s="61"/>
+      <c r="H90" s="62"/>
+    </row>
+    <row r="91" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C91" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="D91" s="41">
+        <v>2005</v>
+      </c>
+      <c r="E91" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="F91" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="G91" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="H91" s="41" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C92" s="54" t="s">
+        <v>390</v>
+      </c>
+      <c r="D92" s="54">
+        <v>2007</v>
+      </c>
+      <c r="E92" s="54" t="s">
+        <v>391</v>
+      </c>
+      <c r="F92" s="54" t="s">
+        <v>392</v>
+      </c>
+      <c r="G92" s="54" t="s">
+        <v>490</v>
+      </c>
+      <c r="H92" s="54" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8" ht="70" x14ac:dyDescent="0.3">
+      <c r="C93" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="D93" s="41">
+        <v>2015</v>
+      </c>
+      <c r="E93" s="41" t="s">
+        <v>358</v>
+      </c>
+      <c r="F93" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="G93" s="41" t="s">
+        <v>361</v>
+      </c>
+      <c r="H93" s="41" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C94" s="55" t="s">
+        <v>491</v>
+      </c>
+      <c r="D94" s="54">
+        <v>2015</v>
+      </c>
+      <c r="E94" s="54" t="s">
+        <v>492</v>
+      </c>
+      <c r="F94" s="54" t="s">
+        <v>494</v>
+      </c>
+      <c r="G94" s="54" t="s">
+        <v>490</v>
+      </c>
+      <c r="H94" s="54" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="C95" s="41" t="s">
+        <v>352</v>
+      </c>
+      <c r="D95" s="41">
+        <v>2016</v>
+      </c>
+      <c r="E95" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="F95" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="G95" s="41" t="s">
+        <v>354</v>
+      </c>
+      <c r="H95" s="41" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C96" s="41" t="s">
+        <v>451</v>
+      </c>
+      <c r="D96" s="41">
+        <v>2016</v>
+      </c>
+      <c r="E96" s="41"/>
+      <c r="F96" s="41" t="s">
+        <v>530</v>
+      </c>
+      <c r="G96" s="41" t="s">
+        <v>531</v>
+      </c>
+      <c r="H96" s="70" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="97" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C97" s="71" t="s">
+        <v>464</v>
+      </c>
+      <c r="D97" s="71">
+        <v>2016</v>
+      </c>
+      <c r="E97" s="72" t="s">
+        <v>465</v>
+      </c>
+      <c r="F97" s="71" t="s">
+        <v>463</v>
+      </c>
+      <c r="G97" s="71"/>
+      <c r="H97" s="71"/>
+    </row>
+    <row r="98" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C98" s="71" t="s">
+        <v>461</v>
+      </c>
+      <c r="D98" s="71">
+        <v>2017</v>
+      </c>
+      <c r="E98" s="71" t="s">
+        <v>462</v>
+      </c>
+      <c r="F98" s="71" t="s">
+        <v>463</v>
+      </c>
+      <c r="G98" s="71"/>
+      <c r="H98" s="71"/>
+    </row>
+    <row r="99" spans="3:8" s="28" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+      <c r="C99" s="74" t="s">
+        <v>347</v>
+      </c>
+      <c r="D99" s="41">
+        <v>2017</v>
+      </c>
+      <c r="E99" s="41" t="s">
+        <v>348</v>
+      </c>
+      <c r="F99" s="41" t="s">
+        <v>351</v>
+      </c>
+      <c r="G99" s="41" t="s">
+        <v>349</v>
+      </c>
+      <c r="H99" s="41" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="100" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C100" s="73" t="s">
+        <v>466</v>
+      </c>
+      <c r="D100" s="71">
+        <v>2019</v>
+      </c>
+      <c r="E100" s="71" t="s">
+        <v>467</v>
+      </c>
+      <c r="F100" s="71" t="s">
+        <v>463</v>
+      </c>
+      <c r="G100" s="71"/>
+      <c r="H100" s="71"/>
+    </row>
+    <row r="101" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C101" s="74" t="s">
+        <v>393</v>
+      </c>
+      <c r="D101" s="41">
+        <v>2019</v>
+      </c>
+      <c r="E101" s="41" t="s">
+        <v>394</v>
+      </c>
+      <c r="F101" s="41"/>
+      <c r="G101" s="41"/>
+      <c r="H101" s="41"/>
+    </row>
+    <row r="102" spans="3:8" ht="70" x14ac:dyDescent="0.3">
+      <c r="C102" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="D102" s="41">
+        <v>2020</v>
+      </c>
+      <c r="E102" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="F102" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="G102" s="41" t="s">
+        <v>304</v>
+      </c>
+      <c r="H102" s="41" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="103" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C103" s="54" t="s">
+        <v>395</v>
+      </c>
+      <c r="D103" s="54">
+        <v>2020</v>
+      </c>
+      <c r="E103" s="54" t="s">
+        <v>396</v>
+      </c>
+      <c r="F103" s="54" t="s">
+        <v>494</v>
+      </c>
+      <c r="G103" s="54" t="s">
+        <v>490</v>
+      </c>
+      <c r="H103" s="54" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="104" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C104" s="54" t="s">
+        <v>498</v>
+      </c>
+      <c r="D104" s="54">
+        <v>2021</v>
+      </c>
+      <c r="E104" s="54" t="s">
+        <v>499</v>
+      </c>
+      <c r="F104" s="54" t="s">
+        <v>494</v>
+      </c>
+      <c r="G104" s="54" t="s">
+        <v>490</v>
+      </c>
+      <c r="H104" s="54" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="105" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C105" s="54" t="s">
+        <v>413</v>
+      </c>
+      <c r="D105" s="54">
+        <v>2022</v>
+      </c>
+      <c r="E105" s="54" t="s">
+        <v>414</v>
+      </c>
+      <c r="F105" s="54" t="s">
+        <v>494</v>
+      </c>
+      <c r="G105" s="54" t="s">
+        <v>490</v>
+      </c>
+      <c r="H105" s="54" t="s">
         <v>497</v>
       </c>
-      <c r="G91" s="28" t="s">
-        <v>496</v>
-      </c>
-      <c r="H91" s="29" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="92" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C92" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="D92" s="7">
-        <v>2005</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H92" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="93" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C93" s="68" t="s">
-        <v>390</v>
-      </c>
-      <c r="D93" s="68">
-        <v>2007</v>
-      </c>
-      <c r="E93" s="68" t="s">
-        <v>391</v>
-      </c>
-      <c r="F93" s="68" t="s">
-        <v>392</v>
-      </c>
-      <c r="G93" s="68" t="s">
-        <v>496</v>
-      </c>
-      <c r="H93" s="68" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="94" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
-      <c r="C94" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="D94" s="7">
+    </row>
+    <row r="107" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C107" s="57" t="s">
+        <v>236</v>
+      </c>
+      <c r="D107" s="58"/>
+      <c r="E107" s="58"/>
+      <c r="F107" s="58"/>
+      <c r="G107" s="58"/>
+      <c r="H107" s="59"/>
+    </row>
+    <row r="108" spans="3:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="C108" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="D108" s="10">
+        <v>2002</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="F108" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="G108" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="H108" s="10"/>
+    </row>
+    <row r="109" spans="3:8" ht="98" x14ac:dyDescent="0.3">
+      <c r="C109" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="D109" s="33">
+        <v>2008</v>
+      </c>
+      <c r="E109" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="F109" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="G109" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="H109" s="33" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="110" spans="3:8" ht="112" x14ac:dyDescent="0.3">
+      <c r="C110" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="D110" s="33">
+        <v>2009</v>
+      </c>
+      <c r="E110" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="F110" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="G110" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="H110" s="33" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="111" spans="3:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="C111" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="D111" s="41">
+        <v>2011</v>
+      </c>
+      <c r="E111" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="F111" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="G111" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="H111" s="41" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="112" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C112" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="D112" s="33">
         <v>2015</v>
       </c>
-      <c r="E94" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="H94" s="7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="95" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C95" s="69" t="s">
-        <v>499</v>
-      </c>
-      <c r="D95" s="68">
+      <c r="E112" s="33" t="s">
+        <v>374</v>
+      </c>
+      <c r="F112" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="G112" s="33"/>
+      <c r="H112" s="33"/>
+    </row>
+    <row r="113" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C113" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="D113" s="33">
         <v>2015</v>
       </c>
-      <c r="E95" s="68" t="s">
-        <v>500</v>
-      </c>
-      <c r="F95" s="68" t="s">
-        <v>502</v>
-      </c>
-      <c r="G95" s="68" t="s">
-        <v>496</v>
-      </c>
-      <c r="H95" s="68" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="96" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C96" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="D96" s="7">
+      <c r="E113" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="F113" s="33" t="s">
+        <v>386</v>
+      </c>
+      <c r="G113" s="33"/>
+      <c r="H113" s="33"/>
+    </row>
+    <row r="114" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C114" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="D114" s="41">
         <v>2016</v>
       </c>
-      <c r="E96" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="H96" s="7" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="97" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C97" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="D97" s="7">
+      <c r="E114" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="F114" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="G114" s="41" t="s">
+        <v>261</v>
+      </c>
+      <c r="H114" s="41" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="115" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C115" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="D115" s="10">
         <v>2016</v>
       </c>
-    </row>
-    <row r="98" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C98" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="D98" s="7">
-        <v>2016</v>
-      </c>
-      <c r="E98" t="s">
-        <v>471</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="99" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C99" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="D99" s="7">
+      <c r="E115" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="F115" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="G115" s="10"/>
+      <c r="H115" s="10"/>
+    </row>
+    <row r="116" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C116" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="D116" s="10">
         <v>2017</v>
       </c>
-      <c r="E99" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="100" spans="3:8" s="28" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C100" s="29" t="s">
-        <v>347</v>
-      </c>
-      <c r="D100" s="7">
+      <c r="E116" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="F116" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="G116" s="10"/>
+      <c r="H116" s="10"/>
+    </row>
+    <row r="117" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C117" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D117" s="10">
         <v>2017</v>
       </c>
-      <c r="E100" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="H100" s="7" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="101" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C101" s="29" t="s">
-        <v>397</v>
-      </c>
-      <c r="D101" s="7">
+      <c r="E117" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="F117" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="G117" s="10"/>
+      <c r="H117" s="10"/>
+    </row>
+    <row r="118" spans="3:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="C118" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="D118" s="41">
+        <v>2017</v>
+      </c>
+      <c r="E118" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="F118" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="G118" s="41"/>
+      <c r="H118" s="41"/>
+    </row>
+    <row r="119" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C119" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="D119" s="8">
+        <v>2017</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
+    </row>
+    <row r="120" spans="3:8" ht="70" x14ac:dyDescent="0.3">
+      <c r="C120" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D120" s="8">
         <v>2018</v>
       </c>
-      <c r="E101" s="7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="102" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C102" s="29" t="s">
-        <v>395</v>
-      </c>
-      <c r="D102" s="7">
+      <c r="E120" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="H120" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="121" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C121" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="D121" s="10">
         <v>2018</v>
       </c>
-      <c r="E102" s="7" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="103" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C103" s="29" t="s">
-        <v>472</v>
-      </c>
-      <c r="D103" s="7">
-        <v>2019</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="104" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C104" s="29" t="s">
-        <v>393</v>
-      </c>
-      <c r="D104" s="7">
-        <v>2019</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="105" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C105" s="29" t="s">
-        <v>474</v>
-      </c>
-      <c r="D105" s="7">
-        <v>2019</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="106" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
-      <c r="C106" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="D106" s="7">
-        <v>2020</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="H106" s="7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="107" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C107" s="68" t="s">
-        <v>399</v>
-      </c>
-      <c r="D107" s="68">
-        <v>2020</v>
-      </c>
-      <c r="E107" s="68" t="s">
-        <v>400</v>
-      </c>
-      <c r="F107" s="68" t="s">
-        <v>502</v>
-      </c>
-      <c r="G107" s="68" t="s">
-        <v>496</v>
-      </c>
-      <c r="H107" s="68" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="108" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C108" s="68" t="s">
-        <v>506</v>
-      </c>
-      <c r="D108" s="68">
-        <v>2021</v>
-      </c>
-      <c r="E108" s="68" t="s">
-        <v>507</v>
-      </c>
-      <c r="F108" s="68" t="s">
-        <v>502</v>
-      </c>
-      <c r="G108" s="68" t="s">
-        <v>496</v>
-      </c>
-      <c r="H108" s="68" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="109" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C109" s="68" t="s">
-        <v>417</v>
-      </c>
-      <c r="D109" s="68">
-        <v>2022</v>
-      </c>
-      <c r="E109" s="68" t="s">
-        <v>418</v>
-      </c>
-      <c r="F109" s="68" t="s">
-        <v>502</v>
-      </c>
-      <c r="G109" s="68" t="s">
-        <v>496</v>
-      </c>
-      <c r="H109" s="68" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="111" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C111" s="59" t="s">
-        <v>236</v>
-      </c>
-      <c r="D111" s="60"/>
-      <c r="E111" s="60"/>
-      <c r="F111" s="60"/>
-      <c r="G111" s="60"/>
-      <c r="H111" s="61"/>
-    </row>
-    <row r="112" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C112" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="D112" s="10">
-        <v>2002</v>
-      </c>
-      <c r="E112" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="F112" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="G112" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="H112" s="10"/>
-    </row>
-    <row r="113" spans="3:8" ht="111" x14ac:dyDescent="0.4">
-      <c r="C113" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="D113" s="33">
-        <v>2008</v>
-      </c>
-      <c r="E113" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="F113" s="33" t="s">
-        <v>338</v>
-      </c>
-      <c r="G113" s="33" t="s">
-        <v>340</v>
-      </c>
-      <c r="H113" s="33" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="114" spans="3:8" ht="124.9" x14ac:dyDescent="0.4">
-      <c r="C114" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="D114" s="33">
-        <v>2009</v>
-      </c>
-      <c r="E114" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="F114" s="33" t="s">
-        <v>342</v>
-      </c>
-      <c r="G114" s="33" t="s">
-        <v>343</v>
-      </c>
-      <c r="H114" s="33" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="115" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
-      <c r="C115" s="41" t="s">
-        <v>254</v>
-      </c>
-      <c r="D115" s="41">
-        <v>2011</v>
-      </c>
-      <c r="E115" s="41" t="s">
-        <v>255</v>
-      </c>
-      <c r="F115" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="G115" s="41" t="s">
-        <v>256</v>
-      </c>
-      <c r="H115" s="41" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="116" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C116" s="33" t="s">
-        <v>373</v>
-      </c>
-      <c r="D116" s="33">
-        <v>2015</v>
-      </c>
-      <c r="E116" s="33" t="s">
-        <v>374</v>
-      </c>
-      <c r="F116" s="33" t="s">
-        <v>375</v>
-      </c>
-      <c r="G116" s="33"/>
-      <c r="H116" s="33"/>
-    </row>
-    <row r="117" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C117" s="33" t="s">
-        <v>384</v>
-      </c>
-      <c r="D117" s="33">
-        <v>2015</v>
-      </c>
-      <c r="E117" s="33" t="s">
-        <v>385</v>
-      </c>
-      <c r="F117" s="33" t="s">
-        <v>386</v>
-      </c>
-      <c r="G117" s="33"/>
-      <c r="H117" s="33"/>
-    </row>
-    <row r="118" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C118" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="D118" s="41">
-        <v>2016</v>
-      </c>
-      <c r="E118" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="F118" s="41" t="s">
-        <v>263</v>
-      </c>
-      <c r="G118" s="41" t="s">
-        <v>261</v>
-      </c>
-      <c r="H118" s="41" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="119" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C119" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="D119" s="10">
-        <v>2016</v>
-      </c>
-      <c r="E119" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F119" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="G119" s="10"/>
-      <c r="H119" s="10"/>
-    </row>
-    <row r="120" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C120" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="D120" s="10">
-        <v>2017</v>
-      </c>
-      <c r="E120" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="F120" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="G120" s="10"/>
-      <c r="H120" s="10"/>
-    </row>
-    <row r="121" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C121" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="D121" s="10">
-        <v>2017</v>
-      </c>
       <c r="E121" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="F121" s="10" t="s">
-        <v>369</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="F121" s="10"/>
       <c r="G121" s="10"/>
       <c r="H121" s="10"/>
     </row>
-    <row r="122" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C122" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="D122" s="41">
+    <row r="122" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C122" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="D122" s="33">
+        <v>2018</v>
+      </c>
+      <c r="E122" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="F122" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="G122" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="H122" s="33" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="123" spans="3:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="C123" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D123" s="8">
+        <v>2019</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="H123" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="124" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C124" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="D124" s="10">
+        <v>2019</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="F124" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="G124" s="10"/>
+      <c r="H124" s="10"/>
+    </row>
+    <row r="125" spans="3:8" s="14" customFormat="1" ht="84" x14ac:dyDescent="0.3">
+      <c r="C125" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="D125" s="8">
+        <v>2019</v>
+      </c>
+      <c r="E125" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="F125" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="G125" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="H125" s="16" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="126" spans="3:8" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="C126" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="D126" s="8">
+        <v>2019</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="F126" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="G126" s="16"/>
+      <c r="H126" s="16"/>
+    </row>
+    <row r="127" spans="3:8" s="14" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+      <c r="C127" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="D127" s="8">
+        <v>2020</v>
+      </c>
+      <c r="E127" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="F127" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="G127" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="H127" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="128" spans="3:8" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="C128" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D128" s="33">
+        <v>2020</v>
+      </c>
+      <c r="E128" s="35" t="s">
+        <v>388</v>
+      </c>
+      <c r="F128" s="36" t="s">
+        <v>389</v>
+      </c>
+      <c r="G128" s="34"/>
+      <c r="H128" s="34"/>
+    </row>
+    <row r="129" spans="3:8" s="14" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="C129" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="D129" s="38">
+        <v>2020</v>
+      </c>
+      <c r="E129" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="F129" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="G129" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="H129" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="130" spans="3:8" s="14" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="C130" s="34" t="s">
+        <v>311</v>
+      </c>
+      <c r="D130" s="40">
+        <v>2021</v>
+      </c>
+      <c r="E130" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="F130" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="G130" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="H130" s="34" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="131" spans="3:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C131" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="D131" s="43">
+        <v>2022</v>
+      </c>
+      <c r="E131" s="47"/>
+      <c r="F131" s="25"/>
+      <c r="G131" s="25"/>
+      <c r="H131" s="25"/>
+    </row>
+    <row r="132" spans="3:8" s="14" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+      <c r="C132" s="44" t="s">
+        <v>328</v>
+      </c>
+      <c r="D132" s="45">
+        <v>2023</v>
+      </c>
+      <c r="E132" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="F132" s="44" t="s">
+        <v>330</v>
+      </c>
+      <c r="G132" s="44" t="s">
+        <v>331</v>
+      </c>
+      <c r="H132" s="44" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="133" spans="3:8" ht="98" x14ac:dyDescent="0.3">
+      <c r="C133" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="D133" s="10">
+        <v>2023</v>
+      </c>
+      <c r="E133" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="F133" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="G133" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="H133" s="10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="134" spans="3:8" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="C134" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="D134" s="37"/>
+      <c r="E134" s="16"/>
+      <c r="F134" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="G134" s="16"/>
+      <c r="H134" s="16"/>
+    </row>
+    <row r="136" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C136" s="60" t="s">
+        <v>237</v>
+      </c>
+      <c r="D136" s="61"/>
+      <c r="E136" s="61"/>
+      <c r="F136" s="61"/>
+      <c r="G136" s="61"/>
+      <c r="H136" s="62"/>
+    </row>
+    <row r="137" spans="3:8" s="25" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+      <c r="C137" s="25" t="s">
+        <v>425</v>
+      </c>
+      <c r="D137" s="25">
+        <v>2016</v>
+      </c>
+      <c r="E137" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="F137" s="25" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="138" spans="3:8" s="30" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="C138" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="D138" s="31">
         <v>2017</v>
       </c>
-      <c r="E122" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="F122" s="41" t="s">
-        <v>366</v>
-      </c>
-      <c r="G122" s="41"/>
-      <c r="H122" s="41"/>
-    </row>
-    <row r="123" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C123" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="D123" s="8">
-        <v>2017</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="F123" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="G123" s="8"/>
-      <c r="H123" s="8"/>
-    </row>
-    <row r="124" spans="3:8" ht="83.25" x14ac:dyDescent="0.4">
-      <c r="C124" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="D124" s="8">
+      <c r="E138" t="s">
+        <v>446</v>
+      </c>
+      <c r="F138" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="G138" s="31"/>
+      <c r="H138" s="31"/>
+    </row>
+    <row r="139" spans="3:8" s="30" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="C139" s="31" t="s">
+        <v>428</v>
+      </c>
+      <c r="D139" s="31">
         <v>2018</v>
       </c>
-      <c r="E124" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="F124" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="G124" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="H124" s="8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="125" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C125" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="D125" s="10">
+      <c r="E139" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="F139" s="31" t="s">
+        <v>430</v>
+      </c>
+      <c r="G139" s="31"/>
+      <c r="H139" s="31"/>
+    </row>
+    <row r="140" spans="3:8" s="30" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+      <c r="C140" s="31" t="s">
+        <v>434</v>
+      </c>
+      <c r="D140" s="31">
         <v>2018</v>
       </c>
-      <c r="E125" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
-      <c r="H125" s="10"/>
-    </row>
-    <row r="126" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C126" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="D126" s="33">
-        <v>2018</v>
-      </c>
-      <c r="E126" s="33" t="s">
-        <v>315</v>
-      </c>
-      <c r="F126" s="33" t="s">
-        <v>346</v>
-      </c>
-      <c r="G126" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="H126" s="33" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="127" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C127" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="D127" s="8">
+      <c r="E140" s="32" t="s">
+        <v>435</v>
+      </c>
+      <c r="F140" s="31" t="s">
+        <v>437</v>
+      </c>
+      <c r="G140" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="H140" s="31" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="141" spans="3:8" ht="98" x14ac:dyDescent="0.3">
+      <c r="C141" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="D141" s="27">
         <v>2019</v>
       </c>
-      <c r="E127" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="F127" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="G127" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="H127" s="8" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="128" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C128" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="D128" s="10">
+      <c r="E141" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F141" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="G141" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="H141" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="142" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C142" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="D142" s="7">
         <v>2019</v>
       </c>
-      <c r="E128" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="F128" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="G128" s="10"/>
-      <c r="H128" s="10"/>
-    </row>
-    <row r="129" spans="3:8" s="14" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
-      <c r="C129" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="D129" s="8">
+      <c r="E142" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F142" s="7" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="143" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C143" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="D143" s="7">
         <v>2019</v>
       </c>
-      <c r="E129" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="F129" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="G129" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="H129" s="16" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="130" spans="3:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C130" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="D130" s="8">
+      <c r="E143" s="28" t="s">
+        <v>432</v>
+      </c>
+      <c r="F143" s="7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="144" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C144" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="D144" s="7">
         <v>2019</v>
       </c>
-      <c r="E130" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="F130" s="16" t="s">
-        <v>378</v>
-      </c>
-      <c r="G130" s="16"/>
-      <c r="H130" s="16"/>
-    </row>
-    <row r="131" spans="3:8" s="14" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C131" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="D131" s="8">
-        <v>2020</v>
-      </c>
-      <c r="E131" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="F131" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="G131" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="H131" s="16" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="132" spans="3:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C132" s="34" t="s">
-        <v>387</v>
-      </c>
-      <c r="D132" s="33">
-        <v>2020</v>
-      </c>
-      <c r="E132" s="35" t="s">
-        <v>388</v>
-      </c>
-      <c r="F132" s="36" t="s">
-        <v>389</v>
-      </c>
-      <c r="G132" s="34"/>
-      <c r="H132" s="34"/>
-    </row>
-    <row r="133" spans="3:8" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C133" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="D133" s="38">
-        <v>2020</v>
-      </c>
-      <c r="E133" s="39" t="s">
-        <v>290</v>
-      </c>
-      <c r="F133" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="G133" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="H133" s="16" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="134" spans="3:8" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C134" s="34" t="s">
-        <v>311</v>
-      </c>
-      <c r="D134" s="40">
-        <v>2021</v>
-      </c>
-      <c r="E134" s="33" t="s">
-        <v>312</v>
-      </c>
-      <c r="F134" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="G134" s="34" t="s">
-        <v>318</v>
-      </c>
-      <c r="H134" s="34" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="135" spans="3:8" s="46" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C135" s="25" t="s">
-        <v>456</v>
-      </c>
-      <c r="D135" s="43">
-        <v>2022</v>
-      </c>
-      <c r="E135" s="47"/>
-      <c r="F135" s="25"/>
-      <c r="G135" s="25"/>
-      <c r="H135" s="25"/>
-    </row>
-    <row r="136" spans="3:8" s="14" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C136" s="44" t="s">
-        <v>328</v>
-      </c>
-      <c r="D136" s="45">
-        <v>2023</v>
-      </c>
-      <c r="E136" s="42" t="s">
-        <v>329</v>
-      </c>
-      <c r="F136" s="44" t="s">
-        <v>330</v>
-      </c>
-      <c r="G136" s="44" t="s">
-        <v>331</v>
-      </c>
-      <c r="H136" s="44" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="137" spans="3:8" ht="111" x14ac:dyDescent="0.4">
-      <c r="C137" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="D137" s="10">
-        <v>2023</v>
-      </c>
-      <c r="E137" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="F137" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="G137" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="H137" s="10" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="138" spans="3:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C138" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="D138" s="37"/>
-      <c r="E138" s="16"/>
-      <c r="F138" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="G138" s="16"/>
-      <c r="H138" s="16"/>
-    </row>
-    <row r="140" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C140" s="65" t="s">
-        <v>237</v>
-      </c>
-      <c r="D140" s="66"/>
-      <c r="E140" s="66"/>
-      <c r="F140" s="66"/>
-      <c r="G140" s="66"/>
-      <c r="H140" s="67"/>
-    </row>
-    <row r="141" spans="3:8" s="25" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C141" s="25" t="s">
-        <v>429</v>
-      </c>
-      <c r="D141" s="25">
-        <v>2016</v>
-      </c>
-      <c r="E141" s="25" t="s">
-        <v>430</v>
-      </c>
-      <c r="F141" s="25" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="142" spans="3:8" s="30" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C142" s="31" t="s">
-        <v>449</v>
-      </c>
-      <c r="D142" s="31">
-        <v>2017</v>
-      </c>
-      <c r="E142" t="s">
-        <v>450</v>
-      </c>
-      <c r="F142" s="31" t="s">
-        <v>451</v>
-      </c>
-      <c r="G142" s="31"/>
-      <c r="H142" s="31"/>
-    </row>
-    <row r="143" spans="3:8" s="30" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C143" s="31" t="s">
-        <v>432</v>
-      </c>
-      <c r="D143" s="31">
-        <v>2018</v>
-      </c>
-      <c r="E143" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="F143" s="31" t="s">
-        <v>434</v>
-      </c>
-      <c r="G143" s="31"/>
-      <c r="H143" s="31"/>
-    </row>
-    <row r="144" spans="3:8" s="30" customFormat="1" ht="111" x14ac:dyDescent="0.4">
-      <c r="C144" s="31" t="s">
-        <v>438</v>
-      </c>
-      <c r="D144" s="31">
-        <v>2018</v>
-      </c>
-      <c r="E144" s="32" t="s">
+      <c r="E144" t="s">
+        <v>423</v>
+      </c>
+      <c r="F144" s="7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="145" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C145" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="F144" s="31" t="s">
+      <c r="D145" s="7">
+        <v>2019</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F145" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="G144" s="31" t="s">
-        <v>440</v>
-      </c>
-      <c r="H144" s="31" t="s">
+    </row>
+    <row r="146" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C146" s="7" t="s">
         <v>442</v>
-      </c>
-    </row>
-    <row r="145" spans="3:8" ht="97.15" x14ac:dyDescent="0.4">
-      <c r="C145" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="D145" s="27">
-        <v>2019</v>
-      </c>
-      <c r="E145" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="F145" s="27" t="s">
-        <v>277</v>
-      </c>
-      <c r="G145" s="27" t="s">
-        <v>275</v>
-      </c>
-      <c r="H145" s="27" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="146" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C146" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="D146" s="7">
         <v>2019</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="147" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C147" s="7" t="s">
-        <v>435</v>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="147" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C147" s="29" t="s">
+        <v>468</v>
       </c>
       <c r="D147" s="7">
         <v>2019</v>
       </c>
-      <c r="E147" s="28" t="s">
-        <v>436</v>
+      <c r="E147" s="7" t="s">
+        <v>469</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="148" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C148" s="29" t="s">
-        <v>426</v>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="148" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C148" s="7" t="s">
+        <v>397</v>
       </c>
       <c r="D148" s="7">
-        <v>2019</v>
-      </c>
-      <c r="E148" t="s">
-        <v>427</v>
+        <v>2023</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>398</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="149" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C149" s="29" t="s">
-        <v>443</v>
-      </c>
-      <c r="D149" s="7">
-        <v>2019</v>
-      </c>
-      <c r="E149" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="F149" s="7" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="150" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C150" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="D150" s="7">
-        <v>2019</v>
-      </c>
-      <c r="E150" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="F150" s="7" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="151" spans="3:8" s="71" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C151" s="70" t="s">
-        <v>401</v>
-      </c>
-      <c r="D151" s="70">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="152" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C152" s="57" t="s">
+        <v>288</v>
+      </c>
+      <c r="D152" s="58"/>
+      <c r="E152" s="58"/>
+      <c r="F152" s="58"/>
+      <c r="G152" s="58"/>
+      <c r="H152" s="59"/>
+    </row>
+    <row r="153" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C153" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D153" s="7">
+        <v>2020</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F153" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="154" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C154" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D154" s="7">
+        <v>2021</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F154" s="7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="155" spans="3:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="C155" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D155" s="7">
+        <v>2022</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F155" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G155" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="156" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C156" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D156" s="7">
         <v>2023</v>
       </c>
-      <c r="E151" s="70" t="s">
-        <v>402</v>
-      </c>
-      <c r="F151" s="70" t="s">
-        <v>502</v>
-      </c>
-      <c r="G151" s="70"/>
-      <c r="H151" s="70"/>
-    </row>
-    <row r="155" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C155" s="59" t="s">
-        <v>288</v>
-      </c>
-      <c r="D155" s="60"/>
-      <c r="E155" s="60"/>
-      <c r="F155" s="60"/>
-      <c r="G155" s="60"/>
-      <c r="H155" s="61"/>
-    </row>
-    <row r="156" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C156" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="D156" s="7">
-        <v>2020</v>
-      </c>
       <c r="E156" s="7" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="157" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C157" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="D157" s="7">
-        <v>2021</v>
-      </c>
-      <c r="E157" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F157" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="158" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C158" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="D158" s="7">
-        <v>2022</v>
-      </c>
-      <c r="E158" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="F158" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G158" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="159" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C159" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="D159" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E159" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="F159" s="7" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="162" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C162" s="59" t="s">
-        <v>512</v>
-      </c>
-      <c r="D162" s="60"/>
-      <c r="E162" s="60"/>
-      <c r="F162" s="60"/>
-      <c r="G162" s="60"/>
-      <c r="H162" s="61"/>
-    </row>
-    <row r="163" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C163" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="D163" s="27">
+    <row r="159" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C159" s="57" t="s">
+        <v>504</v>
+      </c>
+      <c r="D159" s="58"/>
+      <c r="E159" s="58"/>
+      <c r="F159" s="58"/>
+      <c r="G159" s="58"/>
+      <c r="H159" s="59"/>
+    </row>
+    <row r="160" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C160" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="D160" s="27">
         <v>2017</v>
       </c>
-      <c r="E163" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="F163" s="27"/>
-      <c r="G163" s="27"/>
-      <c r="H163" s="27"/>
+      <c r="E160" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="F160" s="27"/>
+      <c r="G160" s="27"/>
+      <c r="H160" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C162:H162"/>
-    <mergeCell ref="C155:H155"/>
-    <mergeCell ref="C90:H90"/>
-    <mergeCell ref="C111:H111"/>
-    <mergeCell ref="C140:H140"/>
     <mergeCell ref="C77:H77"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="C44:H44"/>
     <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C159:H159"/>
+    <mergeCell ref="C152:H152"/>
+    <mergeCell ref="C90:H90"/>
+    <mergeCell ref="C107:H107"/>
+    <mergeCell ref="C136:H136"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6544,21 +6621,206 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="74117954-47dd-4623-be10-f2d34b3fe6e8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F283F35-418D-4BB1-82BA-2ABDAAC924FE}">
+  <dimension ref="B6:G14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.9140625" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19.25" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" customWidth="1"/>
+    <col min="7" max="7" width="28.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="69" t="s">
+        <v>512</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>513</v>
+      </c>
+      <c r="C7" t="s">
+        <v>514</v>
+      </c>
+      <c r="D7" t="s">
+        <v>515</v>
+      </c>
+      <c r="E7" t="s">
+        <v>516</v>
+      </c>
+      <c r="F7" t="s">
+        <v>517</v>
+      </c>
+      <c r="G7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="104.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="75" t="s">
+        <v>541</v>
+      </c>
+      <c r="C8" t="s">
+        <v>519</v>
+      </c>
+      <c r="D8" t="s">
+        <v>520</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="91" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="75"/>
+      <c r="C9" t="s">
+        <v>519</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>522</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="75"/>
+      <c r="C10" s="52" t="s">
+        <v>525</v>
+      </c>
+      <c r="D10" t="s">
+        <v>526</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>527</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>528</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="96.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="75"/>
+      <c r="C11" s="52" t="s">
+        <v>529</v>
+      </c>
+      <c r="D11" t="s">
+        <v>530</v>
+      </c>
+      <c r="E11" t="s">
+        <v>531</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>532</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="109" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="75"/>
+      <c r="C12" s="52" t="s">
+        <v>533</v>
+      </c>
+      <c r="D12" t="s">
+        <v>534</v>
+      </c>
+      <c r="E12" t="s">
+        <v>535</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>536</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="89" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="75"/>
+      <c r="C13" s="52" t="s">
+        <v>529</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>537</v>
+      </c>
+      <c r="E13" t="s">
+        <v>538</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>539</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="B14" s="75"/>
+      <c r="C14" s="52" t="s">
+        <v>533</v>
+      </c>
+      <c r="D14" t="s">
+        <v>540</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B8:B14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="74117954-47dd-4623-be10-f2d34b3fe6e8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6706,6 +6968,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16812470-A4E1-4DBD-AEE1-4642C4933AF0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C05F824-F09D-405F-9153-DBE4FFD9352F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -6717,14 +6987,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16812470-A4E1-4DBD-AEE1-4642C4933AF0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/ML Apply in OS/summary (new version).xlsx
+++ b/ML Apply in OS/summary (new version).xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research-23\AIOS\ML Apply in OS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HKU\HKU\23Fall\AI-OS\ML Apply in OS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F7C972-8DDB-4023-AAFC-573278A6D0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50DAF5D-E90D-4709-8B39-9669A7B41C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="628">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1274,14 +1275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ACME: Adaptive Caching Using Multiple Experts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WDAS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HotStorage 18</t>
   </si>
   <si>
@@ -1338,10 +1331,6 @@
   </si>
   <si>
     <t>21st USENIX Conference on File and Storage Technologies (FAST 23)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Put model in user-space, exchange infos to kernel space. Use MLP/DQN.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1366,14 +1355,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>use of machine learning algorithms to rate and select the current best policies or mixtures of policies via weight updates based on their recent success; a pool of virtual caches to store information for different caching policies.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only proof of concept, not really use.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Tune the file migration policies in order to minimize the average request response time; each storage tier (agent) learns its own
 long-term cost function C(s), which predicts the future average request response time divided by the file size </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1395,10 +1376,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>the dynamically observed state information (e.g. The number of free CPUs on the current machine, the average unit utility expected from the currently running job)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>requested page q</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1560,29 +1537,6 @@
   </si>
   <si>
     <t>Cache prefetch; LSTM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Reinforcement learning for thermal-aware many-core task allocation. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Proceedings of the 25th edition on Great Lakes Symposium on VLSI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reinforcement Learning; Task allocation in many-core systems</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core Placement Optimization for Multi-chip Many-core Neural Network Systems with Reinforcement Learning.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACM Transactions on Design Automation of Electronic Systems (TODAES) 26</t>
-  </si>
-  <si>
-    <t>Task allocation in many-core systems; Reinforcement Learning</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1822,15 +1776,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A reinforcement learning framework for online data
-migration in hierarchical storage systems</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Journal of Supercomputing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Performance-Effective and Low Complexity Task Scheduling for Heterogeneous Computing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1899,18 +1844,6 @@
   </si>
   <si>
     <t>Proc. IEEE Int. Parallel Distrib. Process. Symp. (IPDPS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resource allocation for multiple workflows in cloud-fog computing systems</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Proc. 12th IEEE/ACM Int. Conf. Utility Cloud Comput. Companion, New York</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cloud Clustering</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2108,10 +2041,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>predict CPU burst time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Decision tree, KNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2129,10 +2058,6 @@
   </si>
   <si>
     <t>CPU burst times</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>predict IPC, Cache misses</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2147,10 +2072,6 @@
 unit of a given thread execution</t>
   </si>
   <si>
-    <t>task allocation on GPU/CPU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SVM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2160,10 +2081,6 @@
   </si>
   <si>
     <t>whether a given task should be executed on the CPU or the GPU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>task allocation on different CPU cores</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2195,6 +2112,401 @@
   </si>
   <si>
     <t>Process Scheduling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logistic regression, decision tree, random fores, DNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trace: I/O count, IOPS, read vs write percentage, read and write throughput, and bucketed read and write sizes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> a fine-grained latency range (fast or slow)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a fine-grained latency range (fast or slow)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XGB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active learning-based automatic tuning and prediction of parallel i/o performance</t>
+  </si>
+  <si>
+    <t>Active learning-based automatic tuning and prediction of parallel i/o performance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019 IEEE/ACM Fourth International Parallel Data Systems Workshop (PDSW)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input configurations (problem sizes, number
+of nodes etc.) and input parameters (MPI-IO parameters and
+file system parameters)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I/O bandwidth</t>
+  </si>
+  <si>
+    <t>I/O bandwidth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extreme gradient boosting (XGB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decision tree, logistic regression, naive Bayes, neural network, and support vector machine algorithms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 Request Features; 6 workload features.</t>
+  </si>
+  <si>
+    <t>Algorithm2: selection of disk scheduler; Algorithm3: estimated response time</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Self-Learning Disk Scheduling</t>
+  </si>
+  <si>
+    <t>Automatic I/O scheduling algorithm selection for parallel file systems</t>
+  </si>
+  <si>
+    <t>Investigating machine learning algorithms for modeling ssd i/o performance for container-based virtualization</t>
+  </si>
+  <si>
+    <t>Work-In-Progress: A Deep Learning Strategy for
+I/O Scheduling in Storage Systems</t>
+  </si>
+  <si>
+    <t>LinnOS: Predictability on Unpredictable Flash Storage with a Light Neural Network</t>
+  </si>
+  <si>
+    <t>IONET: Towards an Open Machine Learning Training Groundfor I/O Performance Prediction</t>
+  </si>
+  <si>
+    <t>I/O request patterns, file sizes, and device performance metrics</t>
+  </si>
+  <si>
+    <t>select the most suitable algorithm among aIOLi, MLF, SJF, TO, and TO-agg</t>
+  </si>
+  <si>
+    <t>SSD throughput</t>
+  </si>
+  <si>
+    <t>sequences of I/O requests</t>
+  </si>
+  <si>
+    <t>future i/o request</t>
+  </si>
+  <si>
+    <t>Fast speed or slow speed</t>
+  </si>
+  <si>
+    <t>9 variables</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">input configurations and input parameters </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decision tree; random forest; Multivariate Adaptive Regression Splines (MARS); Adaptive Boosting (AdaBoost); Gradient Boosting Decision Tree (GBDT)</t>
+  </si>
+  <si>
+    <t>DNN,logistic regression, decision tree, random forest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select scheduler; estimate I/O response time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select I/O scheduling algorithm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I/O performance estimation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I/O access pattern prediction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I/O Scheduling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximizing I/O Throughput and Minimizing Performance Variation via Reinforcement Learning Based I/O Merging for SSDs</t>
+  </si>
+  <si>
+    <t>Maximizing I/O Throughput and Minimizing Performance Variation via Reinforcement Learning Based I/O Merging for SSDs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> the performance improvement observed when a particular time window duration is used</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the performance improvement observed when a particular time window duration is used</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">throughput and standard deviation (STD) of I/O latency, </t>
+  </si>
+  <si>
+    <t>Toward Computer Vision-based Machine Intelligent Hybrid Memory Management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">the International Symposium on Memory Systems. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A reinfrocement learning framework for utility-based scheduling in resource-constrained systems</t>
+  </si>
+  <si>
+    <t>Technique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learning Goal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>work</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximizing normalized aggregate IPC</t>
+  </si>
+  <si>
+    <t>maximize expected temperature reduction</t>
+  </si>
+  <si>
+    <t>minimizing the runtime of a user's Directed Acyclic Graph (DAG)</t>
+  </si>
+  <si>
+    <t>Minimize communication delays and execution time</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> minimize energy consumption while maintaining high quality of service</t>
+  </si>
+  <si>
+    <t>DQN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor-Critic Method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work-In-Progress: Reinforcement Learning-based DAG Scheduling Algorithm
+in Clustered Many-Core Platform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I/O Merging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimal I/O Scheduler Parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bandit model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>General Resource Allocation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combined; Put model in user-space, exchange infos to kernel space. Use MLP/DQN.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predict the most energy-efficient resource settings</t>
+  </si>
+  <si>
+    <t>predict the most energy-efficient resource settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extra Tree, Gradient Boosting (GB), KNN, MLP, SVM</t>
+  </si>
+  <si>
+    <t>Extra Tree, Gradient Boosting (GB), KNN, MLP, SVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 system-level counters</t>
+  </si>
+  <si>
+    <t>9 system-level counters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack trace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lifetime classes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Predicting Dynamic Properties of Heap Allocations
+using Neural Networks Trained on Static Code</t>
+  </si>
+  <si>
+    <t>Predicting Dynamic Properties of Heap Allocations
+using Neural Networks Trained on Static Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISMM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSTM, Transformer-based models</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static code features like syntactic elements from abstract syntax trees and subtokenized function names</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predictions about dynamic properties of heap allocations, particularly object lifetimes and access patterns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSTM,Transformer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static code features</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learning-based Memory Allocation for C++ Server Workloads</t>
+  </si>
+  <si>
+    <t>Energy-eficient Application Resource Scheduling using
+Machine Learning Classifiers</t>
+  </si>
+  <si>
+    <t>decision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temporal Difference (TD) learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>utilities got from job completions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On the use of hybrid reinforcement learning for autonomicresource allocation</t>
+  </si>
+  <si>
+    <t>On the use of hybrid reinforcement learning for autonomicresource allocation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cluster Computing</t>
+  </si>
+  <si>
+    <t>Reinforcement learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expected utility related to Service Level Agreement (SLA) revenue</t>
+  </si>
+  <si>
+    <t>expected utility related to Service Level Agreement (SLA) revenue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single Processor Scheduling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uniform Multi-processor Scheduling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heterogeneous Multi-processor Scheduling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I/O Scheduling for Magnetic Storage Devices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I/O Scheduling for Solid-State Storage Devices </t>
+  </si>
+  <si>
+    <t>I/O Scheduling for storage devices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Space allocation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>General Resource allocation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scheduling in data center</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Many-core Scheduling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scheduling for cloud computing system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I/O Scheduling for Storage Devices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 system-related parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optimal allocation areas and identify resource cliffs</t>
+  </si>
+  <si>
+    <t>Adaptive Request Scheduling for the I/O Forwarding Layer using Reinforcement Learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meeting the SLO metric and maximizing resource utilization</t>
+  </si>
+  <si>
+    <t>Actor-Critic Method, RNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minize latency and maximize resource usage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2202,7 +2514,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2260,8 +2572,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2318,12 +2639,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2340,8 +2655,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -2489,12 +2828,182 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2559,9 +3068,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2581,42 +3087,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2633,70 +3104,207 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2986,22 +3594,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F132" sqref="F132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="48.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="48.46484375" style="7" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="7"/>
-    <col min="5" max="5" width="42.25" style="7" customWidth="1"/>
+    <col min="5" max="5" width="42.265625" style="7" customWidth="1"/>
     <col min="6" max="6" width="58.6640625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="20.08203125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="38.25" style="7" customWidth="1"/>
+    <col min="7" max="7" width="20.06640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="38.265625" style="7" customWidth="1"/>
     <col min="9" max="9" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3021,17 +3629,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C2" s="63" t="s">
+    <row r="2" spans="1:31" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="65"/>
-    </row>
-    <row r="3" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+    </row>
+    <row r="3" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3" s="10" t="s">
@@ -3076,7 +3684,7 @@
       <c r="AD3"/>
       <c r="AE3"/>
     </row>
-    <row r="4" spans="1:31" s="11" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" s="11" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4" s="10" t="s">
@@ -3121,7 +3729,7 @@
       <c r="AD4"/>
       <c r="AE4"/>
     </row>
-    <row r="5" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5" s="6" t="s">
@@ -3166,7 +3774,7 @@
       <c r="AD5"/>
       <c r="AE5"/>
     </row>
-    <row r="6" spans="1:31" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" s="9" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6" s="8" t="s">
@@ -3211,7 +3819,7 @@
       <c r="AD6"/>
       <c r="AE6"/>
     </row>
-    <row r="7" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7" s="6" t="s">
@@ -3256,7 +3864,7 @@
       <c r="AD7"/>
       <c r="AE7"/>
     </row>
-    <row r="8" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8" s="6" t="s">
@@ -3301,7 +3909,7 @@
       <c r="AD8"/>
       <c r="AE8"/>
     </row>
-    <row r="9" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9" s="8" t="s">
@@ -3346,7 +3954,7 @@
       <c r="AD9"/>
       <c r="AE9"/>
     </row>
-    <row r="10" spans="1:31" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10" s="8" t="s">
@@ -3391,7 +3999,7 @@
       <c r="AD10"/>
       <c r="AE10"/>
     </row>
-    <row r="11" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11" s="6" t="s">
@@ -3436,7 +4044,7 @@
       <c r="AD11"/>
       <c r="AE11"/>
     </row>
-    <row r="12" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12" s="6" t="s">
@@ -3481,7 +4089,7 @@
       <c r="AD12"/>
       <c r="AE12"/>
     </row>
-    <row r="13" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13" s="6" t="s">
@@ -3526,7 +4134,7 @@
       <c r="AD13"/>
       <c r="AE13"/>
     </row>
-    <row r="14" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14" s="6" t="s">
@@ -3571,7 +4179,7 @@
       <c r="AD14"/>
       <c r="AE14"/>
     </row>
-    <row r="15" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" s="2" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15" s="6" t="s">
@@ -3616,17 +4224,17 @@
       <c r="AD15"/>
       <c r="AE15"/>
     </row>
-    <row r="16" spans="1:31" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C16" s="57" t="s">
+    <row r="16" spans="1:31" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C16" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="59"/>
-    </row>
-    <row r="17" spans="1:33" s="11" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="50"/>
+    </row>
+    <row r="17" spans="1:33" s="11" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17" s="10" t="s">
@@ -3673,7 +4281,7 @@
       <c r="AF17"/>
       <c r="AG17"/>
     </row>
-    <row r="18" spans="1:33" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" s="9" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18" s="8" t="s">
@@ -3720,7 +4328,7 @@
       <c r="AF18"/>
       <c r="AG18"/>
     </row>
-    <row r="19" spans="1:33" s="9" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" s="9" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19" s="8" t="s">
@@ -3767,7 +4375,7 @@
       <c r="AF19"/>
       <c r="AG19"/>
     </row>
-    <row r="20" spans="1:33" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" s="9" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20" s="8" t="s">
@@ -3814,9 +4422,9 @@
       <c r="AF20"/>
       <c r="AG20"/>
     </row>
-    <row r="21" spans="1:33" ht="56" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" ht="55.5" x14ac:dyDescent="0.4">
       <c r="C21" s="6" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="D21" s="6">
         <v>2002</v>
@@ -3825,16 +4433,16 @@
         <v>10</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22" s="8" t="s">
@@ -3881,7 +4489,7 @@
       <c r="AF22"/>
       <c r="AG22"/>
     </row>
-    <row r="23" spans="1:33" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23" s="6" t="s">
@@ -3897,10 +4505,10 @@
         <v>60</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
@@ -3928,9 +4536,9 @@
       <c r="AF23"/>
       <c r="AG23"/>
     </row>
-    <row r="24" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C24" s="6" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="D24" s="6">
         <v>2013</v>
@@ -3939,16 +4547,16 @@
         <v>10</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" s="3" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25" s="8" t="s">
@@ -3995,7 +4603,7 @@
       <c r="AF25"/>
       <c r="AG25"/>
     </row>
-    <row r="26" spans="1:33" s="11" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" s="11" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26" s="10" t="s">
@@ -4042,25 +4650,25 @@
       <c r="AF26"/>
       <c r="AG26"/>
     </row>
-    <row r="27" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27"/>
       <c r="B27"/>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="48">
+      <c r="D27" s="34">
         <v>2017</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="E27" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="48" t="s">
+      <c r="F27" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="G27" s="48" t="s">
+      <c r="G27" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="H27" s="48" t="s">
+      <c r="H27" s="34" t="s">
         <v>74</v>
       </c>
       <c r="I27"/>
@@ -4089,24 +4697,24 @@
       <c r="AF27"/>
       <c r="AG27"/>
     </row>
-    <row r="28" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28"/>
       <c r="B28"/>
-      <c r="C28" s="50" t="s">
-        <v>471</v>
-      </c>
-      <c r="D28" s="50">
+      <c r="C28" s="36" t="s">
+        <v>454</v>
+      </c>
+      <c r="D28" s="36">
         <v>2019</v>
       </c>
-      <c r="E28" s="50" t="s">
-        <v>474</v>
-      </c>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50" t="s">
-        <v>459</v>
-      </c>
-      <c r="H28" s="50" t="s">
-        <v>456</v>
+      <c r="E28" s="36" t="s">
+        <v>457</v>
+      </c>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36" t="s">
+        <v>445</v>
+      </c>
+      <c r="H28" s="36" t="s">
+        <v>442</v>
       </c>
       <c r="I28"/>
       <c r="J28"/>
@@ -4134,11 +4742,11 @@
       <c r="AF28"/>
       <c r="AG28"/>
     </row>
-    <row r="29" spans="1:33" s="49" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
+    <row r="29" spans="1:33" s="35" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
       <c r="C29" s="6" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="D29" s="6">
         <v>2020</v>
@@ -4148,55 +4756,55 @@
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="28"/>
-      <c r="AA29" s="28"/>
-      <c r="AB29" s="28"/>
-      <c r="AC29" s="28"/>
-      <c r="AD29" s="28"/>
-      <c r="AE29" s="28"/>
-      <c r="AF29" s="28"/>
-      <c r="AG29" s="28"/>
-    </row>
-    <row r="30" spans="1:33" s="11" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="27"/>
+      <c r="AD29" s="27"/>
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="27"/>
+      <c r="AG29" s="27"/>
+    </row>
+    <row r="30" spans="1:33" s="11" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30" s="6" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="D30" s="6">
         <v>2022</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
@@ -4224,17 +4832,17 @@
       <c r="AF30"/>
       <c r="AG30"/>
     </row>
-    <row r="31" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C31" s="66" t="s">
+    <row r="31" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C31" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="68"/>
-    </row>
-    <row r="32" spans="1:33" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="56"/>
+    </row>
+    <row r="32" spans="1:33" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32" s="6" t="s">
@@ -4281,7 +4889,7 @@
       <c r="AF32"/>
       <c r="AG32"/>
     </row>
-    <row r="33" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" s="13" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33" s="12" t="s">
@@ -4328,7 +4936,7 @@
       <c r="AF33"/>
       <c r="AG33"/>
     </row>
-    <row r="34" spans="1:33" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" s="2" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34" s="6" t="s">
@@ -4375,7 +4983,7 @@
       <c r="AF34"/>
       <c r="AG34"/>
     </row>
-    <row r="35" spans="1:33" s="11" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" s="11" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35" s="10" t="s">
@@ -4422,7 +5030,7 @@
       <c r="AF35"/>
       <c r="AG35"/>
     </row>
-    <row r="36" spans="1:33" s="13" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" s="13" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36" s="12" t="s">
@@ -4469,7 +5077,7 @@
       <c r="AF36"/>
       <c r="AG36"/>
     </row>
-    <row r="37" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33" s="13" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37" s="12" t="s">
@@ -4516,7 +5124,7 @@
       <c r="AF37"/>
       <c r="AG37"/>
     </row>
-    <row r="38" spans="1:33" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38" s="12" t="s">
@@ -4563,7 +5171,7 @@
       <c r="AF38"/>
       <c r="AG38"/>
     </row>
-    <row r="39" spans="1:33" s="11" customFormat="1" ht="56.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33" s="11" customFormat="1" ht="56.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39" s="10" t="s">
@@ -4610,7 +5218,7 @@
       <c r="AF39"/>
       <c r="AG39"/>
     </row>
-    <row r="40" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:33" s="13" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40" s="12" t="s">
@@ -4657,7 +5265,7 @@
       <c r="AF40"/>
       <c r="AG40"/>
     </row>
-    <row r="41" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:33" s="13" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41" s="12" t="s">
@@ -4704,7 +5312,7 @@
       <c r="AF41"/>
       <c r="AG41"/>
     </row>
-    <row r="42" spans="1:33" ht="42" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:33" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C42" s="12" t="s">
         <v>95</v>
       </c>
@@ -4724,7 +5332,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:33" ht="42" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:33" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C43" s="12" t="s">
         <v>96</v>
       </c>
@@ -4744,17 +5352,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C44" s="57" t="s">
+    <row r="44" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C44" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="59"/>
-    </row>
-    <row r="45" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="50"/>
+    </row>
+    <row r="45" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C45" s="8" t="s">
         <v>198</v>
       </c>
@@ -4774,7 +5382,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C46" s="8" t="s">
         <v>195</v>
       </c>
@@ -4794,7 +5402,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C47" s="18" t="s">
         <v>208</v>
       </c>
@@ -4814,7 +5422,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="48" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C48" s="18" t="s">
         <v>210</v>
       </c>
@@ -4834,7 +5442,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="49" spans="3:8" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C49" s="19" t="s">
         <v>160</v>
       </c>
@@ -4854,7 +5462,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="50" spans="3:8" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C50" s="16" t="s">
         <v>186</v>
       </c>
@@ -4874,7 +5482,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C51" s="8" t="s">
         <v>150</v>
       </c>
@@ -4894,7 +5502,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C52" s="8" t="s">
         <v>144</v>
       </c>
@@ -4914,7 +5522,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C53" s="8" t="s">
         <v>172</v>
       </c>
@@ -4934,7 +5542,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="54" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C54" s="8" t="s">
         <v>143</v>
       </c>
@@ -4954,7 +5562,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C55" s="8" t="s">
         <v>176</v>
       </c>
@@ -4974,7 +5582,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C56" s="8" t="s">
         <v>188</v>
       </c>
@@ -4994,7 +5602,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C57" s="8" t="s">
         <v>140</v>
       </c>
@@ -5014,7 +5622,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C58" s="8" t="s">
         <v>191</v>
       </c>
@@ -5034,7 +5642,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="59" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C59" s="8" t="s">
         <v>166</v>
       </c>
@@ -5054,7 +5662,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="3:8" ht="56" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
       <c r="C60" s="8" t="s">
         <v>179</v>
       </c>
@@ -5074,7 +5682,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="61" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C61" s="18" t="s">
         <v>205</v>
       </c>
@@ -5094,7 +5702,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="3:8" ht="56" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
       <c r="C62" s="8" t="s">
         <v>154</v>
       </c>
@@ -5114,7 +5722,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C63" s="8" t="s">
         <v>183</v>
       </c>
@@ -5134,7 +5742,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C64" s="8" t="s">
         <v>157</v>
       </c>
@@ -5154,64 +5762,64 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C65" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="E65" s="51" t="s">
-        <v>477</v>
+        <v>459</v>
+      </c>
+      <c r="E65" s="37" t="s">
+        <v>460</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="66" spans="3:8" s="52" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" s="38" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C66" s="8" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="D66" s="8">
         <v>2011</v>
       </c>
-      <c r="E66" s="53" t="s">
-        <v>481</v>
+      <c r="E66" s="39" t="s">
+        <v>464</v>
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="67" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C67" s="7" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="D67" s="7">
         <v>2015</v>
       </c>
-      <c r="E67" s="51" t="s">
-        <v>482</v>
+      <c r="E67" s="37" t="s">
+        <v>465</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="68" spans="3:8" s="52" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" s="38" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C68" s="7" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="D68" s="7">
         <v>2016</v>
       </c>
-      <c r="E68" s="29" t="s">
-        <v>483</v>
+      <c r="E68" s="28" t="s">
+        <v>466</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="69" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C69" s="18" t="s">
         <v>162</v>
       </c>
@@ -5231,31 +5839,31 @@
         <v>201</v>
       </c>
     </row>
-    <row r="70" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C70" s="7" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="D70" s="7">
         <v>2023</v>
       </c>
-      <c r="E70" s="51" t="s">
-        <v>485</v>
+      <c r="E70" s="37" t="s">
+        <v>468</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="71" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C71" s="57" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C71" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="D71" s="58"/>
-      <c r="E71" s="58"/>
-      <c r="F71" s="58"/>
-      <c r="G71" s="58"/>
-      <c r="H71" s="59"/>
-    </row>
-    <row r="72" spans="3:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D71" s="49"/>
+      <c r="E71" s="49"/>
+      <c r="F71" s="49"/>
+      <c r="G71" s="49"/>
+      <c r="H71" s="50"/>
+    </row>
+    <row r="72" spans="3:8" ht="15" x14ac:dyDescent="0.4">
       <c r="C72" s="21" t="s">
         <v>0</v>
       </c>
@@ -5275,7 +5883,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="73" spans="3:8" ht="98" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:8" ht="97.15" x14ac:dyDescent="0.4">
       <c r="C73" s="7" t="s">
         <v>223</v>
       </c>
@@ -5289,7 +5897,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="74" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C74" s="7" t="s">
         <v>217</v>
       </c>
@@ -5303,7 +5911,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="75" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C75" s="7" t="s">
         <v>219</v>
       </c>
@@ -5317,7 +5925,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="76" spans="3:8" ht="70.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:8" ht="70.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C76" s="7" t="s">
         <v>221</v>
       </c>
@@ -5331,17 +5939,17 @@
         <v>225</v>
       </c>
     </row>
-    <row r="77" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C77" s="57" t="s">
+    <row r="77" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C77" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="D77" s="58"/>
-      <c r="E77" s="58"/>
-      <c r="F77" s="58"/>
-      <c r="G77" s="58"/>
-      <c r="H77" s="59"/>
-    </row>
-    <row r="78" spans="3:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D77" s="49"/>
+      <c r="E77" s="49"/>
+      <c r="F77" s="49"/>
+      <c r="G77" s="49"/>
+      <c r="H77" s="50"/>
+    </row>
+    <row r="78" spans="3:8" s="23" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C78" s="22" t="s">
         <v>0</v>
       </c>
@@ -5361,1256 +5969,1297 @@
         <v>234</v>
       </c>
     </row>
-    <row r="79" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C79" s="26" t="s">
+    <row r="79" spans="3:8" s="27" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="C79" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="D79" s="32">
+        <v>2009</v>
+      </c>
+      <c r="E79" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="F79" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="G79" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="H79" s="32" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="80" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C80" s="42" t="s">
+        <v>399</v>
+      </c>
+      <c r="D80" s="42">
+        <v>2016</v>
+      </c>
+      <c r="E80" s="42" t="s">
+        <v>400</v>
+      </c>
+      <c r="F80" s="42" t="s">
+        <v>489</v>
+      </c>
+      <c r="G80" s="42" t="s">
+        <v>485</v>
+      </c>
+      <c r="H80" s="42" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" ht="97.15" x14ac:dyDescent="0.4">
+      <c r="C81" s="42" t="s">
+        <v>396</v>
+      </c>
+      <c r="D81" s="42">
+        <v>2019</v>
+      </c>
+      <c r="E81" s="42" t="s">
+        <v>397</v>
+      </c>
+      <c r="F81" s="42" t="s">
+        <v>490</v>
+      </c>
+      <c r="G81" s="42" t="s">
+        <v>491</v>
+      </c>
+      <c r="H81" s="42" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C82" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="D82" s="42">
+        <v>2019</v>
+      </c>
+      <c r="E82" s="42" t="s">
+        <v>390</v>
+      </c>
+      <c r="F82" s="42" t="s">
+        <v>492</v>
+      </c>
+      <c r="G82" s="42" t="s">
+        <v>493</v>
+      </c>
+      <c r="H82" s="42" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" ht="138" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C83" s="42" t="s">
+        <v>527</v>
+      </c>
+      <c r="D83" s="42">
+        <v>2019</v>
+      </c>
+      <c r="E83" s="42" t="s">
+        <v>528</v>
+      </c>
+      <c r="F83" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="G83" s="42" t="s">
+        <v>529</v>
+      </c>
+      <c r="H83" s="42" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" ht="111" x14ac:dyDescent="0.4">
+      <c r="C84" s="42" t="s">
+        <v>296</v>
+      </c>
+      <c r="D84" s="42">
+        <v>2020</v>
+      </c>
+      <c r="E84" s="42" t="s">
+        <v>297</v>
+      </c>
+      <c r="F84" s="42" t="s">
+        <v>300</v>
+      </c>
+      <c r="G84" s="42" t="s">
+        <v>299</v>
+      </c>
+      <c r="H84" s="42" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" s="71" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C85" s="72" t="s">
+        <v>560</v>
+      </c>
+      <c r="D85" s="72">
+        <v>2020</v>
+      </c>
+      <c r="E85" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="F85" s="72" t="s">
+        <v>477</v>
+      </c>
+      <c r="G85" s="72" t="s">
+        <v>484</v>
+      </c>
+      <c r="H85" s="72" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C86" s="72" t="s">
+        <v>391</v>
+      </c>
+      <c r="D86" s="72">
+        <v>2020</v>
+      </c>
+      <c r="E86" s="72" t="s">
+        <v>241</v>
+      </c>
+      <c r="F86" s="72" t="s">
+        <v>477</v>
+      </c>
+      <c r="G86" s="72" t="s">
+        <v>484</v>
+      </c>
+      <c r="H86" s="72" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="C87" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="D87" s="32">
+        <v>2021</v>
+      </c>
+      <c r="E87" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="F87" s="32" t="s">
+        <v>521</v>
+      </c>
+      <c r="G87" s="32" t="s">
+        <v>522</v>
+      </c>
+      <c r="H87" s="32" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C89" s="57" t="s">
+        <v>235</v>
+      </c>
+      <c r="D89" s="58"/>
+      <c r="E89" s="58"/>
+      <c r="F89" s="58"/>
+      <c r="G89" s="58"/>
+      <c r="H89" s="59"/>
+    </row>
+    <row r="90" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C90" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="D90" s="32">
+        <v>2005</v>
+      </c>
+      <c r="E90" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="F90" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="G90" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="H90" s="32" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C91" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="D91" s="40">
+        <v>2007</v>
+      </c>
+      <c r="E91" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="F91" s="40" t="s">
+        <v>380</v>
+      </c>
+      <c r="G91" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="H91" s="40" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8" s="71" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C92" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="D92" s="40">
+        <v>2009</v>
+      </c>
+      <c r="E92" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="F92" s="40" t="s">
+        <v>337</v>
+      </c>
+      <c r="G92" s="40" t="s">
+        <v>601</v>
+      </c>
+      <c r="H92" s="40" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="C93" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="D93" s="32">
+        <v>2015</v>
+      </c>
+      <c r="E93" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="F93" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="G93" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="H93" s="32" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C94" s="41" t="s">
+        <v>474</v>
+      </c>
+      <c r="D94" s="40">
+        <v>2015</v>
+      </c>
+      <c r="E94" s="40" t="s">
+        <v>475</v>
+      </c>
+      <c r="F94" s="40" t="s">
+        <v>477</v>
+      </c>
+      <c r="G94" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="H94" s="40" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C95" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="D95" s="32">
+        <v>2016</v>
+      </c>
+      <c r="E95" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="F95" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="G95" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="H95" s="32" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C96" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="D96" s="32">
+        <v>2016</v>
+      </c>
+      <c r="E96" s="32"/>
+      <c r="F96" s="32" t="s">
+        <v>510</v>
+      </c>
+      <c r="G96" s="32" t="s">
+        <v>511</v>
+      </c>
+      <c r="H96" s="43" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="97" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C97" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="D97" s="44">
+        <v>2016</v>
+      </c>
+      <c r="E97" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="F97" s="44" t="s">
+        <v>449</v>
+      </c>
+      <c r="G97" s="44"/>
+      <c r="H97" s="44"/>
+    </row>
+    <row r="98" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C98" s="44" t="s">
+        <v>447</v>
+      </c>
+      <c r="D98" s="44">
+        <v>2017</v>
+      </c>
+      <c r="E98" s="44" t="s">
         <v>448</v>
       </c>
-      <c r="D79" s="26">
+      <c r="F98" s="44" t="s">
+        <v>449</v>
+      </c>
+      <c r="G98" s="44"/>
+      <c r="H98" s="44"/>
+    </row>
+    <row r="99" spans="3:8" s="27" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C99" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="D99" s="32">
+        <v>2017</v>
+      </c>
+      <c r="E99" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="F99" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="G99" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="H99" s="32" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="100" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C100" s="46" t="s">
+        <v>452</v>
+      </c>
+      <c r="D100" s="44">
+        <v>2019</v>
+      </c>
+      <c r="E100" s="44" t="s">
+        <v>453</v>
+      </c>
+      <c r="F100" s="44" t="s">
+        <v>449</v>
+      </c>
+      <c r="G100" s="44"/>
+      <c r="H100" s="44"/>
+    </row>
+    <row r="101" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C101" s="47" t="s">
+        <v>381</v>
+      </c>
+      <c r="D101" s="32">
+        <v>2019</v>
+      </c>
+      <c r="E101" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="F101" s="32"/>
+      <c r="G101" s="32"/>
+      <c r="H101" s="32"/>
+    </row>
+    <row r="102" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="C102" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="D102" s="32">
+        <v>2020</v>
+      </c>
+      <c r="E102" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="F102" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="G102" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="H102" s="32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="103" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C103" s="40" t="s">
+        <v>383</v>
+      </c>
+      <c r="D103" s="40">
+        <v>2020</v>
+      </c>
+      <c r="E103" s="40" t="s">
+        <v>384</v>
+      </c>
+      <c r="F103" s="40" t="s">
+        <v>477</v>
+      </c>
+      <c r="G103" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="H103" s="40" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="104" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C104" s="40" t="s">
+        <v>481</v>
+      </c>
+      <c r="D104" s="40">
+        <v>2021</v>
+      </c>
+      <c r="E104" s="40" t="s">
+        <v>482</v>
+      </c>
+      <c r="F104" s="40" t="s">
+        <v>477</v>
+      </c>
+      <c r="G104" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="H104" s="40" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="105" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C105" s="40" t="s">
+        <v>401</v>
+      </c>
+      <c r="D105" s="40">
+        <v>2022</v>
+      </c>
+      <c r="E105" s="40" t="s">
+        <v>402</v>
+      </c>
+      <c r="F105" s="40" t="s">
+        <v>477</v>
+      </c>
+      <c r="G105" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="H105" s="40" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="107" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C107" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="D107" s="49"/>
+      <c r="E107" s="49"/>
+      <c r="F107" s="49"/>
+      <c r="G107" s="49"/>
+      <c r="H107" s="50"/>
+    </row>
+    <row r="108" spans="3:8" ht="111" x14ac:dyDescent="0.4">
+      <c r="C108" s="73" t="s">
+        <v>238</v>
+      </c>
+      <c r="D108" s="73">
         <v>2008</v>
       </c>
-      <c r="E79" s="26" t="s">
-        <v>449</v>
-      </c>
-      <c r="F79" s="26" t="s">
-        <v>494</v>
-      </c>
-      <c r="G79" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="H79" s="26"/>
-    </row>
-    <row r="80" spans="3:8" s="28" customFormat="1" ht="84" x14ac:dyDescent="0.3">
-      <c r="C80" s="41" t="s">
-        <v>248</v>
-      </c>
-      <c r="D80" s="41">
-        <v>2009</v>
-      </c>
-      <c r="E80" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="F80" s="41" t="s">
-        <v>253</v>
-      </c>
-      <c r="G80" s="41" t="s">
-        <v>249</v>
-      </c>
-      <c r="H80" s="41" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="81" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C81" s="56" t="s">
+      <c r="E108" s="73" t="s">
+        <v>239</v>
+      </c>
+      <c r="F108" s="73" t="s">
+        <v>333</v>
+      </c>
+      <c r="G108" s="73" t="s">
+        <v>335</v>
+      </c>
+      <c r="H108" s="73" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="109" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="C109" s="73" t="s">
+        <v>254</v>
+      </c>
+      <c r="D109" s="73">
+        <v>2011</v>
+      </c>
+      <c r="E109" s="73" t="s">
+        <v>255</v>
+      </c>
+      <c r="F109" s="73" t="s">
+        <v>258</v>
+      </c>
+      <c r="G109" s="73" t="s">
+        <v>256</v>
+      </c>
+      <c r="H109" s="73" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="110" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C110" s="73" t="s">
+        <v>367</v>
+      </c>
+      <c r="D110" s="73">
+        <v>2015</v>
+      </c>
+      <c r="E110" s="73" t="s">
+        <v>368</v>
+      </c>
+      <c r="F110" s="73" t="s">
+        <v>369</v>
+      </c>
+      <c r="G110" s="73"/>
+      <c r="H110" s="73"/>
+    </row>
+    <row r="111" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C111" s="73" t="s">
+        <v>259</v>
+      </c>
+      <c r="D111" s="73">
+        <v>2016</v>
+      </c>
+      <c r="E111" s="73" t="s">
+        <v>260</v>
+      </c>
+      <c r="F111" s="73" t="s">
+        <v>263</v>
+      </c>
+      <c r="G111" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="H111" s="73" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="112" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C112" s="101" t="s">
+        <v>358</v>
+      </c>
+      <c r="D112" s="101">
+        <v>2016</v>
+      </c>
+      <c r="E112" s="101" t="s">
+        <v>359</v>
+      </c>
+      <c r="F112" s="101" t="s">
+        <v>364</v>
+      </c>
+      <c r="G112" s="101"/>
+      <c r="H112" s="101"/>
+    </row>
+    <row r="113" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C113" s="101" t="s">
+        <v>356</v>
+      </c>
+      <c r="D113" s="101">
+        <v>2017</v>
+      </c>
+      <c r="E113" s="101" t="s">
+        <v>357</v>
+      </c>
+      <c r="F113" s="101" t="s">
+        <v>364</v>
+      </c>
+      <c r="G113" s="101"/>
+      <c r="H113" s="101"/>
+    </row>
+    <row r="114" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C114" s="101" t="s">
+        <v>365</v>
+      </c>
+      <c r="D114" s="101">
+        <v>2017</v>
+      </c>
+      <c r="E114" s="101" t="s">
+        <v>366</v>
+      </c>
+      <c r="F114" s="101" t="s">
+        <v>363</v>
+      </c>
+      <c r="G114" s="101"/>
+      <c r="H114" s="101"/>
+    </row>
+    <row r="115" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C115" s="73" t="s">
+        <v>154</v>
+      </c>
+      <c r="D115" s="73">
+        <v>2017</v>
+      </c>
+      <c r="E115" s="73" t="s">
+        <v>155</v>
+      </c>
+      <c r="F115" s="73" t="s">
+        <v>360</v>
+      </c>
+      <c r="G115" s="73"/>
+      <c r="H115" s="73"/>
+    </row>
+    <row r="116" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C116" s="101" t="s">
+        <v>375</v>
+      </c>
+      <c r="D116" s="101">
+        <v>2017</v>
+      </c>
+      <c r="E116" s="101" t="s">
+        <v>376</v>
+      </c>
+      <c r="F116" s="101" t="s">
+        <v>377</v>
+      </c>
+      <c r="G116" s="101"/>
+      <c r="H116" s="101"/>
+    </row>
+    <row r="117" spans="3:8" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="C117" s="101" t="s">
+        <v>264</v>
+      </c>
+      <c r="D117" s="101">
+        <v>2018</v>
+      </c>
+      <c r="E117" s="101" t="s">
+        <v>265</v>
+      </c>
+      <c r="F117" s="101" t="s">
+        <v>266</v>
+      </c>
+      <c r="G117" s="101" t="s">
+        <v>268</v>
+      </c>
+      <c r="H117" s="101" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="118" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C118" s="73" t="s">
+        <v>314</v>
+      </c>
+      <c r="D118" s="73">
+        <v>2018</v>
+      </c>
+      <c r="E118" s="73" t="s">
+        <v>313</v>
+      </c>
+      <c r="F118" s="73" t="s">
+        <v>340</v>
+      </c>
+      <c r="G118" s="73" t="s">
+        <v>338</v>
+      </c>
+      <c r="H118" s="73" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="119" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C119" s="101" t="s">
+        <v>269</v>
+      </c>
+      <c r="D119" s="101">
+        <v>2019</v>
+      </c>
+      <c r="E119" s="101" t="s">
+        <v>270</v>
+      </c>
+      <c r="F119" s="101" t="s">
+        <v>273</v>
+      </c>
+      <c r="G119" s="101" t="s">
+        <v>272</v>
+      </c>
+      <c r="H119" s="101" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="120" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C120" s="101" t="s">
+        <v>361</v>
+      </c>
+      <c r="D120" s="101">
+        <v>2019</v>
+      </c>
+      <c r="E120" s="101" t="s">
+        <v>362</v>
+      </c>
+      <c r="F120" s="101" t="s">
+        <v>363</v>
+      </c>
+      <c r="G120" s="101"/>
+      <c r="H120" s="101"/>
+    </row>
+    <row r="121" spans="3:8" s="14" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="C121" s="77" t="s">
+        <v>278</v>
+      </c>
+      <c r="D121" s="101">
+        <v>2019</v>
+      </c>
+      <c r="E121" s="77" t="s">
+        <v>279</v>
+      </c>
+      <c r="F121" s="77" t="s">
+        <v>282</v>
+      </c>
+      <c r="G121" s="77" t="s">
+        <v>280</v>
+      </c>
+      <c r="H121" s="77" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="122" spans="3:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C122" s="109" t="s">
+        <v>370</v>
+      </c>
+      <c r="D122" s="79">
+        <v>2019</v>
+      </c>
+      <c r="E122" s="109" t="s">
+        <v>371</v>
+      </c>
+      <c r="F122" s="109" t="s">
+        <v>372</v>
+      </c>
+      <c r="G122" s="109"/>
+      <c r="H122" s="109"/>
+    </row>
+    <row r="123" spans="3:8" s="14" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C123" s="109" t="s">
+        <v>283</v>
+      </c>
+      <c r="D123" s="79">
+        <v>2020</v>
+      </c>
+      <c r="E123" s="109" t="s">
+        <v>284</v>
+      </c>
+      <c r="F123" s="109" t="s">
+        <v>287</v>
+      </c>
+      <c r="G123" s="109" t="s">
+        <v>285</v>
+      </c>
+      <c r="H123" s="109" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="124" spans="3:8" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C124" s="105" t="s">
+        <v>289</v>
+      </c>
+      <c r="D124" s="106">
+        <v>2020</v>
+      </c>
+      <c r="E124" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="F124" s="105" t="s">
+        <v>293</v>
+      </c>
+      <c r="G124" s="105" t="s">
+        <v>292</v>
+      </c>
+      <c r="H124" s="105" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="125" spans="3:8" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C125" s="74" t="s">
+        <v>311</v>
+      </c>
+      <c r="D125" s="75">
+        <v>2021</v>
+      </c>
+      <c r="E125" s="73" t="s">
+        <v>312</v>
+      </c>
+      <c r="F125" s="74" t="s">
+        <v>315</v>
+      </c>
+      <c r="G125" s="74" t="s">
+        <v>316</v>
+      </c>
+      <c r="H125" s="74" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="126" spans="3:8" s="33" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C126" s="109" t="s">
+        <v>438</v>
+      </c>
+      <c r="D126" s="110">
+        <v>2022</v>
+      </c>
+      <c r="E126" s="111"/>
+      <c r="F126" s="109"/>
+      <c r="G126" s="109"/>
+      <c r="H126" s="109"/>
+    </row>
+    <row r="127" spans="3:8" ht="111" x14ac:dyDescent="0.4">
+      <c r="C127" s="79" t="s">
+        <v>307</v>
+      </c>
+      <c r="D127" s="79">
+        <v>2023</v>
+      </c>
+      <c r="E127" s="79" t="s">
+        <v>306</v>
+      </c>
+      <c r="F127" s="79" t="s">
+        <v>310</v>
+      </c>
+      <c r="G127" s="79" t="s">
+        <v>308</v>
+      </c>
+      <c r="H127" s="79" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="128" spans="3:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C128" s="109" t="s">
+        <v>373</v>
+      </c>
+      <c r="D128" s="112"/>
+      <c r="E128" s="109"/>
+      <c r="F128" s="109" t="s">
+        <v>374</v>
+      </c>
+      <c r="G128" s="109"/>
+      <c r="H128" s="109"/>
+    </row>
+    <row r="129" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="C129" s="108" t="s">
+        <v>592</v>
+      </c>
+      <c r="D129" s="108">
+        <v>2023</v>
+      </c>
+      <c r="E129" s="108" t="s">
+        <v>593</v>
+      </c>
+      <c r="F129" s="108" t="s">
+        <v>594</v>
+      </c>
+      <c r="G129" s="108" t="s">
+        <v>595</v>
+      </c>
+      <c r="H129" s="108" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="130" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C130" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="D130" s="58"/>
+      <c r="E130" s="58"/>
+      <c r="F130" s="58"/>
+      <c r="G130" s="58"/>
+      <c r="H130" s="59"/>
+    </row>
+    <row r="131" spans="3:8" s="25" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C131" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="D131" s="25">
+        <v>2016</v>
+      </c>
+      <c r="E131" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="F131" s="25" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="132" spans="3:8" s="29" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C132" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="D132" s="30">
+        <v>2017</v>
+      </c>
+      <c r="E132" t="s">
+        <v>434</v>
+      </c>
+      <c r="F132" s="30" t="s">
+        <v>435</v>
+      </c>
+      <c r="G132" s="30"/>
+      <c r="H132" s="30"/>
+    </row>
+    <row r="133" spans="3:8" s="29" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C133" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="D133" s="30">
+        <v>2018</v>
+      </c>
+      <c r="E133" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="F133" s="30" t="s">
+        <v>418</v>
+      </c>
+      <c r="G133" s="30"/>
+      <c r="H133" s="30"/>
+    </row>
+    <row r="134" spans="3:8" s="29" customFormat="1" ht="111" x14ac:dyDescent="0.4">
+      <c r="C134" s="30" t="s">
+        <v>422</v>
+      </c>
+      <c r="D134" s="30">
+        <v>2018</v>
+      </c>
+      <c r="E134" s="31" t="s">
+        <v>423</v>
+      </c>
+      <c r="F134" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="G134" s="30" t="s">
+        <v>424</v>
+      </c>
+      <c r="H134" s="30" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="135" spans="3:8" ht="97.15" x14ac:dyDescent="0.4">
+      <c r="C135" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="D135" s="26">
+        <v>2019</v>
+      </c>
+      <c r="E135" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F135" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="G135" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="H135" s="26" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="136" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C136" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="D136" s="7">
+        <v>2019</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F136" s="7" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="137" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C137" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="D137" s="7">
+        <v>2019</v>
+      </c>
+      <c r="E137" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="138" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C138" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="D138" s="7">
+        <v>2019</v>
+      </c>
+      <c r="E138" t="s">
         <v>411</v>
       </c>
-      <c r="D81" s="56">
-        <v>2016</v>
-      </c>
-      <c r="E81" s="56" t="s">
+      <c r="F138" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="F81" s="56" t="s">
-        <v>506</v>
-      </c>
-      <c r="G81" s="56" t="s">
-        <v>502</v>
-      </c>
-      <c r="H81" s="56" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="82" spans="3:8" ht="98" x14ac:dyDescent="0.3">
-      <c r="C82" s="56" t="s">
-        <v>408</v>
-      </c>
-      <c r="D82" s="56">
+    </row>
+    <row r="139" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C139" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="D139" s="7">
         <v>2019</v>
       </c>
-      <c r="E82" s="56" t="s">
-        <v>409</v>
-      </c>
-      <c r="F82" s="56" t="s">
-        <v>507</v>
-      </c>
-      <c r="G82" s="56" t="s">
-        <v>508</v>
-      </c>
-      <c r="H82" s="56" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="83" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C83" s="56" t="s">
-        <v>401</v>
-      </c>
-      <c r="D83" s="56">
+      <c r="E139" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F139" s="7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="140" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C140" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="D140" s="7">
         <v>2019</v>
       </c>
-      <c r="E83" s="56" t="s">
-        <v>402</v>
-      </c>
-      <c r="F83" s="56" t="s">
-        <v>509</v>
-      </c>
-      <c r="G83" s="56" t="s">
-        <v>510</v>
-      </c>
-      <c r="H83" s="56" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="84" spans="3:8" ht="84" x14ac:dyDescent="0.3">
-      <c r="C84" s="56" t="s">
-        <v>296</v>
-      </c>
-      <c r="D84" s="56">
+      <c r="E140" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F140" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="141" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C141" s="48" t="s">
+        <v>581</v>
+      </c>
+      <c r="D141" s="49"/>
+      <c r="E141" s="49"/>
+      <c r="F141" s="49"/>
+      <c r="G141" s="49"/>
+      <c r="H141" s="50"/>
+    </row>
+    <row r="142" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C142" s="96" t="s">
+        <v>605</v>
+      </c>
+      <c r="D142" s="96">
+        <v>2007</v>
+      </c>
+      <c r="E142" s="96" t="s">
+        <v>606</v>
+      </c>
+      <c r="F142" s="96" t="s">
+        <v>607</v>
+      </c>
+      <c r="G142" s="96" t="s">
+        <v>601</v>
+      </c>
+      <c r="H142" s="96" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="143" spans="3:8" s="71" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C143" s="80" t="s">
+        <v>392</v>
+      </c>
+      <c r="D143" s="80">
+        <v>2018</v>
+      </c>
+      <c r="E143" s="80" t="s">
+        <v>393</v>
+      </c>
+      <c r="F143" s="80" t="s">
+        <v>586</v>
+      </c>
+      <c r="G143" s="80" t="s">
+        <v>588</v>
+      </c>
+      <c r="H143" s="80" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="144" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C144" s="101" t="s">
+        <v>385</v>
+      </c>
+      <c r="D144" s="101">
+        <v>2023</v>
+      </c>
+      <c r="E144" s="101" t="s">
+        <v>386</v>
+      </c>
+      <c r="F144" s="101" t="s">
+        <v>477</v>
+      </c>
+      <c r="G144" s="101" t="s">
+        <v>601</v>
+      </c>
+      <c r="H144" s="101"/>
+    </row>
+    <row r="145" spans="3:8" s="78" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C145" s="93" t="s">
+        <v>326</v>
+      </c>
+      <c r="D145" s="94">
+        <v>2023</v>
+      </c>
+      <c r="E145" s="95" t="s">
+        <v>327</v>
+      </c>
+      <c r="F145" s="93" t="s">
+        <v>582</v>
+      </c>
+      <c r="G145" s="93" t="s">
+        <v>328</v>
+      </c>
+      <c r="H145" s="93" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="149" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C149" s="48" t="s">
+        <v>288</v>
+      </c>
+      <c r="D149" s="49"/>
+      <c r="E149" s="49"/>
+      <c r="F149" s="49"/>
+      <c r="G149" s="49"/>
+      <c r="H149" s="50"/>
+    </row>
+    <row r="150" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C150" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D150" s="7">
         <v>2020</v>
       </c>
-      <c r="E84" s="56" t="s">
-        <v>297</v>
-      </c>
-      <c r="F84" s="56" t="s">
-        <v>300</v>
-      </c>
-      <c r="G84" s="56" t="s">
-        <v>299</v>
-      </c>
-      <c r="H84" s="56" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="85" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C85" s="27" t="s">
+      <c r="E150" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F150" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="151" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C151" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D151" s="7">
+        <v>2021</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F151" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="152" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C152" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D152" s="7">
+        <v>2022</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F152" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G152" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="153" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C153" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D153" s="7">
+        <v>2023</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F153" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="156" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C156" s="48" t="s">
+        <v>487</v>
+      </c>
+      <c r="D156" s="49"/>
+      <c r="E156" s="49"/>
+      <c r="F156" s="49"/>
+      <c r="G156" s="49"/>
+      <c r="H156" s="50"/>
+    </row>
+    <row r="157" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C157" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="D157" s="26">
+        <v>2017</v>
+      </c>
+      <c r="E157" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="F157" s="26"/>
+      <c r="G157" s="26"/>
+      <c r="H157" s="26"/>
+    </row>
+    <row r="158" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C158" s="26" t="s">
         <v>403</v>
       </c>
-      <c r="D85" s="27">
+      <c r="D158" s="26">
         <v>2020</v>
       </c>
-      <c r="E85" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="F85" s="27" t="s">
-        <v>494</v>
-      </c>
-      <c r="G85" s="27" t="s">
-        <v>501</v>
-      </c>
-      <c r="H85" s="27"/>
-    </row>
-    <row r="86" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C86" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="D86" s="27">
-        <v>2020</v>
-      </c>
-      <c r="E86" s="27" t="s">
-        <v>416</v>
-      </c>
-      <c r="F86" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="G86" s="27"/>
-      <c r="H86" s="27"/>
-    </row>
-    <row r="87" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C87" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="D87" s="7">
+      <c r="E158" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="F158" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="G158" s="26"/>
+      <c r="H158" s="26"/>
+    </row>
+    <row r="159" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C159" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="D159" s="7">
         <v>2021</v>
       </c>
-      <c r="E87" s="7" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="88" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C88" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="D88" s="7">
+      <c r="E159" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="160" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C160" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="D160" s="7">
         <v>2021</v>
       </c>
-      <c r="E88" s="7" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="90" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C90" s="60" t="s">
-        <v>235</v>
-      </c>
-      <c r="D90" s="61"/>
-      <c r="E90" s="61"/>
-      <c r="F90" s="61"/>
-      <c r="G90" s="61"/>
-      <c r="H90" s="62"/>
-    </row>
-    <row r="91" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C91" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="D91" s="41">
-        <v>2005</v>
-      </c>
-      <c r="E91" s="41" t="s">
-        <v>243</v>
-      </c>
-      <c r="F91" s="41" t="s">
-        <v>252</v>
-      </c>
-      <c r="G91" s="41" t="s">
-        <v>245</v>
-      </c>
-      <c r="H91" s="41" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="92" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C92" s="54" t="s">
-        <v>390</v>
-      </c>
-      <c r="D92" s="54">
-        <v>2007</v>
-      </c>
-      <c r="E92" s="54" t="s">
-        <v>391</v>
-      </c>
-      <c r="F92" s="54" t="s">
-        <v>392</v>
-      </c>
-      <c r="G92" s="54" t="s">
-        <v>490</v>
-      </c>
-      <c r="H92" s="54" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="93" spans="3:8" ht="70" x14ac:dyDescent="0.3">
-      <c r="C93" s="41" t="s">
-        <v>357</v>
-      </c>
-      <c r="D93" s="41">
-        <v>2015</v>
-      </c>
-      <c r="E93" s="41" t="s">
-        <v>358</v>
-      </c>
-      <c r="F93" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="G93" s="41" t="s">
-        <v>361</v>
-      </c>
-      <c r="H93" s="41" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="94" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C94" s="55" t="s">
-        <v>491</v>
-      </c>
-      <c r="D94" s="54">
-        <v>2015</v>
-      </c>
-      <c r="E94" s="54" t="s">
-        <v>492</v>
-      </c>
-      <c r="F94" s="54" t="s">
-        <v>494</v>
-      </c>
-      <c r="G94" s="54" t="s">
-        <v>490</v>
-      </c>
-      <c r="H94" s="54" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="95" spans="3:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="C95" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="D95" s="41">
-        <v>2016</v>
-      </c>
-      <c r="E95" s="41" t="s">
-        <v>353</v>
-      </c>
-      <c r="F95" s="41" t="s">
-        <v>355</v>
-      </c>
-      <c r="G95" s="41" t="s">
-        <v>354</v>
-      </c>
-      <c r="H95" s="41" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="96" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C96" s="41" t="s">
-        <v>451</v>
-      </c>
-      <c r="D96" s="41">
-        <v>2016</v>
-      </c>
-      <c r="E96" s="41"/>
-      <c r="F96" s="41" t="s">
-        <v>530</v>
-      </c>
-      <c r="G96" s="41" t="s">
-        <v>531</v>
-      </c>
-      <c r="H96" s="70" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="97" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C97" s="71" t="s">
-        <v>464</v>
-      </c>
-      <c r="D97" s="71">
-        <v>2016</v>
-      </c>
-      <c r="E97" s="72" t="s">
-        <v>465</v>
-      </c>
-      <c r="F97" s="71" t="s">
-        <v>463</v>
-      </c>
-      <c r="G97" s="71"/>
-      <c r="H97" s="71"/>
-    </row>
-    <row r="98" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C98" s="71" t="s">
-        <v>461</v>
-      </c>
-      <c r="D98" s="71">
-        <v>2017</v>
-      </c>
-      <c r="E98" s="71" t="s">
-        <v>462</v>
-      </c>
-      <c r="F98" s="71" t="s">
-        <v>463</v>
-      </c>
-      <c r="G98" s="71"/>
-      <c r="H98" s="71"/>
-    </row>
-    <row r="99" spans="3:8" s="28" customFormat="1" ht="56" x14ac:dyDescent="0.3">
-      <c r="C99" s="74" t="s">
-        <v>347</v>
-      </c>
-      <c r="D99" s="41">
-        <v>2017</v>
-      </c>
-      <c r="E99" s="41" t="s">
-        <v>348</v>
-      </c>
-      <c r="F99" s="41" t="s">
-        <v>351</v>
-      </c>
-      <c r="G99" s="41" t="s">
-        <v>349</v>
-      </c>
-      <c r="H99" s="41" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="100" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C100" s="73" t="s">
-        <v>466</v>
-      </c>
-      <c r="D100" s="71">
-        <v>2019</v>
-      </c>
-      <c r="E100" s="71" t="s">
-        <v>467</v>
-      </c>
-      <c r="F100" s="71" t="s">
-        <v>463</v>
-      </c>
-      <c r="G100" s="71"/>
-      <c r="H100" s="71"/>
-    </row>
-    <row r="101" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C101" s="74" t="s">
-        <v>393</v>
-      </c>
-      <c r="D101" s="41">
-        <v>2019</v>
-      </c>
-      <c r="E101" s="41" t="s">
-        <v>394</v>
-      </c>
-      <c r="F101" s="41"/>
-      <c r="G101" s="41"/>
-      <c r="H101" s="41"/>
-    </row>
-    <row r="102" spans="3:8" ht="70" x14ac:dyDescent="0.3">
-      <c r="C102" s="41" t="s">
-        <v>301</v>
-      </c>
-      <c r="D102" s="41">
-        <v>2020</v>
-      </c>
-      <c r="E102" s="41" t="s">
-        <v>302</v>
-      </c>
-      <c r="F102" s="41" t="s">
-        <v>303</v>
-      </c>
-      <c r="G102" s="41" t="s">
-        <v>304</v>
-      </c>
-      <c r="H102" s="41" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="103" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C103" s="54" t="s">
-        <v>395</v>
-      </c>
-      <c r="D103" s="54">
-        <v>2020</v>
-      </c>
-      <c r="E103" s="54" t="s">
-        <v>396</v>
-      </c>
-      <c r="F103" s="54" t="s">
-        <v>494</v>
-      </c>
-      <c r="G103" s="54" t="s">
-        <v>490</v>
-      </c>
-      <c r="H103" s="54" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="104" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C104" s="54" t="s">
-        <v>498</v>
-      </c>
-      <c r="D104" s="54">
-        <v>2021</v>
-      </c>
-      <c r="E104" s="54" t="s">
-        <v>499</v>
-      </c>
-      <c r="F104" s="54" t="s">
-        <v>494</v>
-      </c>
-      <c r="G104" s="54" t="s">
-        <v>490</v>
-      </c>
-      <c r="H104" s="54" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="105" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C105" s="54" t="s">
-        <v>413</v>
-      </c>
-      <c r="D105" s="54">
-        <v>2022</v>
-      </c>
-      <c r="E105" s="54" t="s">
-        <v>414</v>
-      </c>
-      <c r="F105" s="54" t="s">
-        <v>494</v>
-      </c>
-      <c r="G105" s="54" t="s">
-        <v>490</v>
-      </c>
-      <c r="H105" s="54" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="107" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C107" s="57" t="s">
-        <v>236</v>
-      </c>
-      <c r="D107" s="58"/>
-      <c r="E107" s="58"/>
-      <c r="F107" s="58"/>
-      <c r="G107" s="58"/>
-      <c r="H107" s="59"/>
-    </row>
-    <row r="108" spans="3:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="C108" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="D108" s="10">
-        <v>2002</v>
-      </c>
-      <c r="E108" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="F108" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="G108" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="H108" s="10"/>
-    </row>
-    <row r="109" spans="3:8" ht="98" x14ac:dyDescent="0.3">
-      <c r="C109" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="D109" s="33">
-        <v>2008</v>
-      </c>
-      <c r="E109" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="F109" s="33" t="s">
-        <v>338</v>
-      </c>
-      <c r="G109" s="33" t="s">
-        <v>340</v>
-      </c>
-      <c r="H109" s="33" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="110" spans="3:8" ht="112" x14ac:dyDescent="0.3">
-      <c r="C110" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="D110" s="33">
-        <v>2009</v>
-      </c>
-      <c r="E110" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="F110" s="33" t="s">
-        <v>342</v>
-      </c>
-      <c r="G110" s="33" t="s">
-        <v>343</v>
-      </c>
-      <c r="H110" s="33" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="111" spans="3:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="C111" s="41" t="s">
-        <v>254</v>
-      </c>
-      <c r="D111" s="41">
-        <v>2011</v>
-      </c>
-      <c r="E111" s="41" t="s">
-        <v>255</v>
-      </c>
-      <c r="F111" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="G111" s="41" t="s">
-        <v>256</v>
-      </c>
-      <c r="H111" s="41" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="112" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C112" s="33" t="s">
-        <v>373</v>
-      </c>
-      <c r="D112" s="33">
-        <v>2015</v>
-      </c>
-      <c r="E112" s="33" t="s">
-        <v>374</v>
-      </c>
-      <c r="F112" s="33" t="s">
-        <v>375</v>
-      </c>
-      <c r="G112" s="33"/>
-      <c r="H112" s="33"/>
-    </row>
-    <row r="113" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C113" s="33" t="s">
-        <v>384</v>
-      </c>
-      <c r="D113" s="33">
-        <v>2015</v>
-      </c>
-      <c r="E113" s="33" t="s">
-        <v>385</v>
-      </c>
-      <c r="F113" s="33" t="s">
-        <v>386</v>
-      </c>
-      <c r="G113" s="33"/>
-      <c r="H113" s="33"/>
-    </row>
-    <row r="114" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C114" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="D114" s="41">
-        <v>2016</v>
-      </c>
-      <c r="E114" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="F114" s="41" t="s">
-        <v>263</v>
-      </c>
-      <c r="G114" s="41" t="s">
-        <v>261</v>
-      </c>
-      <c r="H114" s="41" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="115" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C115" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="D115" s="10">
-        <v>2016</v>
-      </c>
-      <c r="E115" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F115" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="G115" s="10"/>
-      <c r="H115" s="10"/>
-    </row>
-    <row r="116" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C116" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="D116" s="10">
-        <v>2017</v>
-      </c>
-      <c r="E116" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="F116" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="G116" s="10"/>
-      <c r="H116" s="10"/>
-    </row>
-    <row r="117" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C117" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="D117" s="10">
-        <v>2017</v>
-      </c>
-      <c r="E117" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="F117" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="G117" s="10"/>
-      <c r="H117" s="10"/>
-    </row>
-    <row r="118" spans="3:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="C118" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="D118" s="41">
-        <v>2017</v>
-      </c>
-      <c r="E118" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="F118" s="41" t="s">
-        <v>366</v>
-      </c>
-      <c r="G118" s="41"/>
-      <c r="H118" s="41"/>
-    </row>
-    <row r="119" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C119" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="D119" s="8">
-        <v>2017</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="F119" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="G119" s="8"/>
-      <c r="H119" s="8"/>
-    </row>
-    <row r="120" spans="3:8" ht="70" x14ac:dyDescent="0.3">
-      <c r="C120" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="D120" s="8">
-        <v>2018</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="F120" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="G120" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="H120" s="8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="121" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C121" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="D121" s="10">
-        <v>2018</v>
-      </c>
-      <c r="E121" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
-      <c r="H121" s="10"/>
-    </row>
-    <row r="122" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C122" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="D122" s="33">
-        <v>2018</v>
-      </c>
-      <c r="E122" s="33" t="s">
-        <v>315</v>
-      </c>
-      <c r="F122" s="33" t="s">
-        <v>346</v>
-      </c>
-      <c r="G122" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="H122" s="33" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="123" spans="3:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="C123" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="D123" s="8">
-        <v>2019</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="F123" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="G123" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="H123" s="8" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="124" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C124" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="D124" s="10">
-        <v>2019</v>
-      </c>
-      <c r="E124" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="F124" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="G124" s="10"/>
-      <c r="H124" s="10"/>
-    </row>
-    <row r="125" spans="3:8" s="14" customFormat="1" ht="84" x14ac:dyDescent="0.3">
-      <c r="C125" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="D125" s="8">
-        <v>2019</v>
-      </c>
-      <c r="E125" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="F125" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="G125" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="H125" s="16" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="126" spans="3:8" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C126" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="D126" s="8">
-        <v>2019</v>
-      </c>
-      <c r="E126" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="F126" s="16" t="s">
-        <v>378</v>
-      </c>
-      <c r="G126" s="16"/>
-      <c r="H126" s="16"/>
-    </row>
-    <row r="127" spans="3:8" s="14" customFormat="1" ht="56" x14ac:dyDescent="0.3">
-      <c r="C127" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="D127" s="8">
-        <v>2020</v>
-      </c>
-      <c r="E127" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="F127" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="G127" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="H127" s="16" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="128" spans="3:8" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C128" s="34" t="s">
-        <v>387</v>
-      </c>
-      <c r="D128" s="33">
-        <v>2020</v>
-      </c>
-      <c r="E128" s="35" t="s">
-        <v>388</v>
-      </c>
-      <c r="F128" s="36" t="s">
-        <v>389</v>
-      </c>
-      <c r="G128" s="34"/>
-      <c r="H128" s="34"/>
-    </row>
-    <row r="129" spans="3:8" s="14" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="C129" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="D129" s="38">
-        <v>2020</v>
-      </c>
-      <c r="E129" s="39" t="s">
-        <v>290</v>
-      </c>
-      <c r="F129" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="G129" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="H129" s="16" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="130" spans="3:8" s="14" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="C130" s="34" t="s">
-        <v>311</v>
-      </c>
-      <c r="D130" s="40">
-        <v>2021</v>
-      </c>
-      <c r="E130" s="33" t="s">
-        <v>312</v>
-      </c>
-      <c r="F130" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="G130" s="34" t="s">
-        <v>318</v>
-      </c>
-      <c r="H130" s="34" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="131" spans="3:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C131" s="25" t="s">
-        <v>452</v>
-      </c>
-      <c r="D131" s="43">
-        <v>2022</v>
-      </c>
-      <c r="E131" s="47"/>
-      <c r="F131" s="25"/>
-      <c r="G131" s="25"/>
-      <c r="H131" s="25"/>
-    </row>
-    <row r="132" spans="3:8" s="14" customFormat="1" ht="56" x14ac:dyDescent="0.3">
-      <c r="C132" s="44" t="s">
-        <v>328</v>
-      </c>
-      <c r="D132" s="45">
-        <v>2023</v>
-      </c>
-      <c r="E132" s="42" t="s">
-        <v>329</v>
-      </c>
-      <c r="F132" s="44" t="s">
-        <v>330</v>
-      </c>
-      <c r="G132" s="44" t="s">
-        <v>331</v>
-      </c>
-      <c r="H132" s="44" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="133" spans="3:8" ht="98" x14ac:dyDescent="0.3">
-      <c r="C133" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="D133" s="10">
-        <v>2023</v>
-      </c>
-      <c r="E133" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="F133" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="G133" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="H133" s="10" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="134" spans="3:8" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C134" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="D134" s="37"/>
-      <c r="E134" s="16"/>
-      <c r="F134" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="G134" s="16"/>
-      <c r="H134" s="16"/>
-    </row>
-    <row r="136" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C136" s="60" t="s">
-        <v>237</v>
-      </c>
-      <c r="D136" s="61"/>
-      <c r="E136" s="61"/>
-      <c r="F136" s="61"/>
-      <c r="G136" s="61"/>
-      <c r="H136" s="62"/>
-    </row>
-    <row r="137" spans="3:8" s="25" customFormat="1" ht="56" x14ac:dyDescent="0.3">
-      <c r="C137" s="25" t="s">
-        <v>425</v>
-      </c>
-      <c r="D137" s="25">
-        <v>2016</v>
-      </c>
-      <c r="E137" s="25" t="s">
-        <v>426</v>
-      </c>
-      <c r="F137" s="25" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="138" spans="3:8" s="30" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="C138" s="31" t="s">
-        <v>445</v>
-      </c>
-      <c r="D138" s="31">
-        <v>2017</v>
-      </c>
-      <c r="E138" t="s">
-        <v>446</v>
-      </c>
-      <c r="F138" s="31" t="s">
-        <v>447</v>
-      </c>
-      <c r="G138" s="31"/>
-      <c r="H138" s="31"/>
-    </row>
-    <row r="139" spans="3:8" s="30" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C139" s="31" t="s">
-        <v>428</v>
-      </c>
-      <c r="D139" s="31">
-        <v>2018</v>
-      </c>
-      <c r="E139" s="28" t="s">
-        <v>429</v>
-      </c>
-      <c r="F139" s="31" t="s">
-        <v>430</v>
-      </c>
-      <c r="G139" s="31"/>
-      <c r="H139" s="31"/>
-    </row>
-    <row r="140" spans="3:8" s="30" customFormat="1" ht="112" x14ac:dyDescent="0.3">
-      <c r="C140" s="31" t="s">
-        <v>434</v>
-      </c>
-      <c r="D140" s="31">
-        <v>2018</v>
-      </c>
-      <c r="E140" s="32" t="s">
-        <v>435</v>
-      </c>
-      <c r="F140" s="31" t="s">
-        <v>437</v>
-      </c>
-      <c r="G140" s="31" t="s">
-        <v>436</v>
-      </c>
-      <c r="H140" s="31" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="141" spans="3:8" ht="98" x14ac:dyDescent="0.3">
-      <c r="C141" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="D141" s="27">
-        <v>2019</v>
-      </c>
-      <c r="E141" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="F141" s="27" t="s">
-        <v>277</v>
-      </c>
-      <c r="G141" s="27" t="s">
-        <v>275</v>
-      </c>
-      <c r="H141" s="27" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="142" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C142" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="D142" s="7">
-        <v>2019</v>
-      </c>
-      <c r="E142" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="F142" s="7" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="143" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C143" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="D143" s="7">
-        <v>2019</v>
-      </c>
-      <c r="E143" s="28" t="s">
-        <v>432</v>
-      </c>
-      <c r="F143" s="7" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="144" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C144" s="29" t="s">
-        <v>422</v>
-      </c>
-      <c r="D144" s="7">
-        <v>2019</v>
-      </c>
-      <c r="E144" t="s">
-        <v>423</v>
-      </c>
-      <c r="F144" s="7" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="145" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C145" s="29" t="s">
-        <v>439</v>
-      </c>
-      <c r="D145" s="7">
-        <v>2019</v>
-      </c>
-      <c r="E145" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="F145" s="7" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="146" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C146" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="D146" s="7">
-        <v>2019</v>
-      </c>
-      <c r="E146" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="F146" s="7" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="147" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C147" s="29" t="s">
-        <v>468</v>
-      </c>
-      <c r="D147" s="7">
-        <v>2019</v>
-      </c>
-      <c r="E147" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="F147" s="7" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="148" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C148" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="D148" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E148" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="F148" s="7" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="152" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C152" s="57" t="s">
-        <v>288</v>
-      </c>
-      <c r="D152" s="58"/>
-      <c r="E152" s="58"/>
-      <c r="F152" s="58"/>
-      <c r="G152" s="58"/>
-      <c r="H152" s="59"/>
-    </row>
-    <row r="153" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C153" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="D153" s="7">
-        <v>2020</v>
-      </c>
-      <c r="E153" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="F153" s="7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="154" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C154" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="D154" s="7">
-        <v>2021</v>
-      </c>
-      <c r="E154" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F154" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="155" spans="3:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="C155" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="D155" s="7">
-        <v>2022</v>
-      </c>
-      <c r="E155" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="F155" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G155" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="156" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C156" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="D156" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E156" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="F156" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="159" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C159" s="57" t="s">
-        <v>504</v>
-      </c>
-      <c r="D159" s="58"/>
-      <c r="E159" s="58"/>
-      <c r="F159" s="58"/>
-      <c r="G159" s="58"/>
-      <c r="H159" s="59"/>
-    </row>
-    <row r="160" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C160" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="D160" s="27">
-        <v>2017</v>
-      </c>
-      <c r="E160" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="F160" s="27"/>
-      <c r="G160" s="27"/>
-      <c r="H160" s="27"/>
+      <c r="E160" s="7" t="s">
+        <v>565</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="C156:H156"/>
+    <mergeCell ref="C149:H149"/>
+    <mergeCell ref="C89:H89"/>
+    <mergeCell ref="C107:H107"/>
+    <mergeCell ref="C130:H130"/>
+    <mergeCell ref="C141:H141"/>
     <mergeCell ref="C77:H77"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="C44:H44"/>
     <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C159:H159"/>
-    <mergeCell ref="C152:H152"/>
-    <mergeCell ref="C90:H90"/>
-    <mergeCell ref="C107:H107"/>
-    <mergeCell ref="C136:H136"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6623,207 +7272,652 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F283F35-418D-4BB1-82BA-2ABDAAC924FE}">
-  <dimension ref="B6:G14"/>
+  <dimension ref="B5:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A18" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.9140625" customWidth="1"/>
+    <col min="2" max="2" width="11.9296875" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" customWidth="1"/>
-    <col min="5" max="5" width="19.25" customWidth="1"/>
+    <col min="4" max="4" width="24.796875" customWidth="1"/>
+    <col min="5" max="5" width="19.265625" customWidth="1"/>
     <col min="6" max="6" width="35.33203125" customWidth="1"/>
-    <col min="7" max="7" width="28.75" customWidth="1"/>
+    <col min="7" max="7" width="28.73046875" customWidth="1"/>
+    <col min="8" max="8" width="29.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="69" t="s">
+    <row r="5" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="2:8" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="63" t="s">
+        <v>495</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="65"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B7" s="85" t="s">
+        <v>496</v>
+      </c>
+      <c r="C7" s="84" t="s">
+        <v>497</v>
+      </c>
+      <c r="D7" s="84" t="s">
+        <v>498</v>
+      </c>
+      <c r="E7" s="84" t="s">
+        <v>499</v>
+      </c>
+      <c r="F7" s="86" t="s">
+        <v>500</v>
+      </c>
+      <c r="G7" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="104.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="66" t="s">
+        <v>520</v>
+      </c>
+      <c r="C8" s="81" t="s">
+        <v>610</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>502</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="F8" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="G8" s="60" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="91.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="66"/>
+      <c r="C9" s="81" t="s">
+        <v>611</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="F9" s="67" t="s">
+        <v>506</v>
+      </c>
+      <c r="G9" s="60" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="66"/>
+      <c r="C10" s="81" t="s">
+        <v>612</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>507</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="F10" s="68" t="s">
+        <v>509</v>
+      </c>
+      <c r="G10" s="60" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="96.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="66"/>
+      <c r="C11" s="81" t="s">
+        <v>612</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>510</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>511</v>
+      </c>
+      <c r="F11" s="68" t="s">
         <v>512</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="G11" s="60" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="109.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="66"/>
+      <c r="C12" s="81" t="s">
+        <v>612</v>
+      </c>
+      <c r="D12" s="27" t="s">
         <v>513</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E12" s="27" t="s">
         <v>514</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F12" s="68" t="s">
         <v>515</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G12" s="61" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="89" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="66"/>
+      <c r="C13" s="81" t="s">
+        <v>612</v>
+      </c>
+      <c r="D13" s="28" t="s">
         <v>516</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E13" s="27" t="s">
         <v>517</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F13" s="68" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" ht="104.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="75" t="s">
-        <v>541</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="G13" s="61" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B14" s="66"/>
+      <c r="C14" s="81" t="s">
+        <v>612</v>
+      </c>
+      <c r="D14" s="27" t="s">
         <v>519</v>
-      </c>
-      <c r="D8" t="s">
-        <v>520</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="91" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="75"/>
-      <c r="C9" t="s">
-        <v>519</v>
-      </c>
-      <c r="D9" s="52" t="s">
-        <v>522</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="75"/>
-      <c r="C10" s="52" t="s">
-        <v>525</v>
-      </c>
-      <c r="D10" t="s">
-        <v>526</v>
-      </c>
-      <c r="E10" s="52" t="s">
-        <v>527</v>
-      </c>
-      <c r="F10" s="52" t="s">
-        <v>528</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="96.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="75"/>
-      <c r="C11" s="52" t="s">
-        <v>529</v>
-      </c>
-      <c r="D11" t="s">
-        <v>530</v>
-      </c>
-      <c r="E11" t="s">
-        <v>531</v>
-      </c>
-      <c r="F11" s="52" t="s">
-        <v>532</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="109" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="75"/>
-      <c r="C12" s="52" t="s">
-        <v>533</v>
-      </c>
-      <c r="D12" t="s">
-        <v>534</v>
-      </c>
-      <c r="E12" t="s">
-        <v>535</v>
-      </c>
-      <c r="F12" s="52" t="s">
-        <v>536</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="89" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="75"/>
-      <c r="C13" s="52" t="s">
-        <v>529</v>
-      </c>
-      <c r="D13" s="52" t="s">
-        <v>537</v>
-      </c>
-      <c r="E13" t="s">
-        <v>538</v>
-      </c>
-      <c r="F13" s="52" t="s">
-        <v>539</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="B14" s="75"/>
-      <c r="C14" s="52" t="s">
-        <v>533</v>
-      </c>
-      <c r="D14" t="s">
-        <v>540</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="67" t="s">
         <v>305</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="60" t="s">
         <v>301</v>
       </c>
     </row>
+    <row r="15" spans="2:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="B15" s="66" t="s">
+        <v>558</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>534</v>
+      </c>
+      <c r="F15" s="68" t="s">
+        <v>535</v>
+      </c>
+      <c r="G15" t="s">
+        <v>536</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B16" s="66"/>
+      <c r="C16" s="28" t="s">
+        <v>615</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>489</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>542</v>
+      </c>
+      <c r="F16" s="68" t="s">
+        <v>543</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>537</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="97.15" x14ac:dyDescent="0.4">
+      <c r="B17" s="66"/>
+      <c r="C17" s="28" t="s">
+        <v>614</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>552</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>548</v>
+      </c>
+      <c r="F17" s="68" t="s">
+        <v>544</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>538</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="B18" s="66"/>
+      <c r="C18" s="28" t="s">
+        <v>615</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>492</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>545</v>
+      </c>
+      <c r="F18" s="68" t="s">
+        <v>546</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>539</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B19" s="66"/>
+      <c r="C19" s="28" t="s">
+        <v>615</v>
+      </c>
+      <c r="D19" s="62" t="s">
+        <v>525</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>549</v>
+      </c>
+      <c r="F19" s="68" t="s">
+        <v>530</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>526</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="69.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="66"/>
+      <c r="C20" s="28" t="s">
+        <v>614</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>550</v>
+      </c>
+      <c r="F20" s="68" t="s">
+        <v>547</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>540</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="B21" s="66"/>
+      <c r="C21" s="28" t="s">
+        <v>615</v>
+      </c>
+      <c r="D21" s="62" t="s">
+        <v>553</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>551</v>
+      </c>
+      <c r="F21" s="68" t="s">
+        <v>523</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>541</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B22" s="91" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="D22" s="83" t="s">
+        <v>492</v>
+      </c>
+      <c r="E22" s="62" t="s">
+        <v>589</v>
+      </c>
+      <c r="F22" s="88" t="s">
+        <v>590</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="B23" s="92"/>
+      <c r="C23" s="62" t="s">
+        <v>616</v>
+      </c>
+      <c r="D23" s="62" t="s">
+        <v>597</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>598</v>
+      </c>
+      <c r="F23" s="68" t="s">
+        <v>596</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="B24" s="92"/>
+      <c r="C24" s="97" t="s">
+        <v>617</v>
+      </c>
+      <c r="D24" s="97" t="s">
+        <v>519</v>
+      </c>
+      <c r="E24" s="98" t="s">
+        <v>622</v>
+      </c>
+      <c r="F24" s="99" t="s">
+        <v>623</v>
+      </c>
+      <c r="G24" s="76" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="42" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="100"/>
+      <c r="C25" s="70" t="s">
+        <v>617</v>
+      </c>
+      <c r="D25" s="89" t="s">
+        <v>585</v>
+      </c>
+      <c r="E25" s="89" t="s">
+        <v>587</v>
+      </c>
+      <c r="F25" s="90" t="s">
+        <v>583</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>600</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B8:B14"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="B22:B25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA2D5F7-875F-47F0-9F8A-B0600D2F9679}">
+  <dimension ref="B4:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="14.9296875" customWidth="1"/>
+    <col min="3" max="3" width="21.3984375" customWidth="1"/>
+    <col min="4" max="4" width="20.9296875" customWidth="1"/>
+    <col min="5" max="5" width="25.59765625" customWidth="1"/>
+    <col min="6" max="6" width="41.265625" customWidth="1"/>
+    <col min="7" max="7" width="15.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="2:7" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="63" t="s">
+        <v>484</v>
+      </c>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="85" t="s">
+        <v>496</v>
+      </c>
+      <c r="C6" s="84" t="s">
+        <v>497</v>
+      </c>
+      <c r="D6" s="84" t="s">
+        <v>567</v>
+      </c>
+      <c r="E6" s="86" t="s">
+        <v>568</v>
+      </c>
+      <c r="F6" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B7" s="66" t="s">
+        <v>520</v>
+      </c>
+      <c r="C7" s="81" t="s">
+        <v>612</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="E7" s="82" t="s">
+        <v>570</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B8" s="66"/>
+      <c r="C8" s="28" t="s">
+        <v>618</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>602</v>
+      </c>
+      <c r="E8" s="82" t="s">
+        <v>603</v>
+      </c>
+      <c r="F8" s="61" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B9" s="66"/>
+      <c r="C9" s="28" t="s">
+        <v>619</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="E9" s="68" t="s">
+        <v>571</v>
+      </c>
+      <c r="F9" s="61" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B10" s="66"/>
+      <c r="C10" s="81" t="s">
+        <v>612</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="E10" s="68" t="s">
+        <v>572</v>
+      </c>
+      <c r="F10" s="87" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B11" s="66"/>
+      <c r="C11" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="E11" s="68" t="s">
+        <v>573</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="B12" s="66"/>
+      <c r="C12" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>575</v>
+      </c>
+      <c r="E12" s="68" t="s">
+        <v>574</v>
+      </c>
+      <c r="F12" s="61" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B13" s="66" t="s">
+        <v>558</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>614</v>
+      </c>
+      <c r="D13" s="83" t="s">
+        <v>580</v>
+      </c>
+      <c r="E13" s="68" t="s">
+        <v>563</v>
+      </c>
+      <c r="F13" s="61" t="s">
+        <v>559</v>
+      </c>
+      <c r="G13" s="62" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="55.9" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="66"/>
+      <c r="C14" s="28" t="s">
+        <v>621</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="E14" s="68" t="s">
+        <v>561</v>
+      </c>
+      <c r="F14" s="61" t="s">
+        <v>624</v>
+      </c>
+      <c r="G14" s="70" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B15" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>581</v>
+      </c>
+      <c r="D15" s="83" t="s">
+        <v>425</v>
+      </c>
+      <c r="E15" s="68" t="s">
+        <v>608</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B16" s="66"/>
+      <c r="C16" s="62" t="s">
+        <v>581</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>626</v>
+      </c>
+      <c r="E16" s="68" t="s">
+        <v>625</v>
+      </c>
+      <c r="F16" s="60" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="42" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="69"/>
+      <c r="C17" s="70" t="s">
+        <v>581</v>
+      </c>
+      <c r="D17" s="103" t="s">
+        <v>575</v>
+      </c>
+      <c r="E17" s="104" t="s">
+        <v>627</v>
+      </c>
+      <c r="F17" s="102" t="s">
+        <v>326</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="B15:B17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="74117954-47dd-4623-be10-f2d34b3fe6e8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100650C27B66691BA4BB901C940018B449F" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="856977a71e7c379887d8f02f6ee17dc3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="74117954-47dd-4623-be10-f2d34b3fe6e8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f93a31a691d6cd74e693f1feb46bcb1" ns3:_="">
     <xsd:import namespace="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
@@ -6967,10 +8061,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="74117954-47dd-4623-be10-f2d34b3fe6e8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16812470-A4E1-4DBD-AEE1-4642C4933AF0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{411558D9-DEA1-49BF-987E-1A683BCBCD59}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6992,19 +8113,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{411558D9-DEA1-49BF-987E-1A683BCBCD59}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16812470-A4E1-4DBD-AEE1-4642C4933AF0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ML Apply in OS/summary (new version).xlsx
+++ b/ML Apply in OS/summary (new version).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HKU\HKU\23Fall\AI-OS\ML Apply in OS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research-23\AIOS\ML Apply in OS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50DAF5D-E90D-4709-8B39-9669A7B41C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2618214D-BD7E-4881-999A-766CFADC4932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="630">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2507,6 +2507,14 @@
   </si>
   <si>
     <t>minize latency and maximize resource usage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cache Management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whether a given cache block will be reused (positive) or not (negative)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2680,7 +2688,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -2998,12 +3006,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3126,95 +3156,30 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3227,84 +3192,134 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3594,22 +3609,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F132" sqref="F132"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="48.46484375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="48.5" style="7" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="7"/>
-    <col min="5" max="5" width="42.265625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="42.25" style="7" customWidth="1"/>
     <col min="6" max="6" width="58.6640625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="20.06640625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="38.265625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="20.08203125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="38.25" style="7" customWidth="1"/>
     <col min="9" max="9" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:31" s="1" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3629,17 +3644,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C2" s="51" t="s">
+    <row r="2" spans="1:31" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C2" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-    </row>
-    <row r="3" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="92"/>
+    </row>
+    <row r="3" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3" s="10" t="s">
@@ -3684,7 +3699,7 @@
       <c r="AD3"/>
       <c r="AE3"/>
     </row>
-    <row r="4" spans="1:31" s="11" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:31" s="11" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4" s="10" t="s">
@@ -3729,7 +3744,7 @@
       <c r="AD4"/>
       <c r="AE4"/>
     </row>
-    <row r="5" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5" s="6" t="s">
@@ -3774,7 +3789,7 @@
       <c r="AD5"/>
       <c r="AE5"/>
     </row>
-    <row r="6" spans="1:31" s="9" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:31" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6" s="8" t="s">
@@ -3819,7 +3834,7 @@
       <c r="AD6"/>
       <c r="AE6"/>
     </row>
-    <row r="7" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7" s="6" t="s">
@@ -3864,7 +3879,7 @@
       <c r="AD7"/>
       <c r="AE7"/>
     </row>
-    <row r="8" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8" s="6" t="s">
@@ -3909,7 +3924,7 @@
       <c r="AD8"/>
       <c r="AE8"/>
     </row>
-    <row r="9" spans="1:31" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9" s="8" t="s">
@@ -3954,7 +3969,7 @@
       <c r="AD9"/>
       <c r="AE9"/>
     </row>
-    <row r="10" spans="1:31" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:31" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10" s="8" t="s">
@@ -3999,7 +4014,7 @@
       <c r="AD10"/>
       <c r="AE10"/>
     </row>
-    <row r="11" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11" s="6" t="s">
@@ -4044,7 +4059,7 @@
       <c r="AD11"/>
       <c r="AE11"/>
     </row>
-    <row r="12" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12" s="6" t="s">
@@ -4089,7 +4104,7 @@
       <c r="AD12"/>
       <c r="AE12"/>
     </row>
-    <row r="13" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13" s="6" t="s">
@@ -4134,7 +4149,7 @@
       <c r="AD13"/>
       <c r="AE13"/>
     </row>
-    <row r="14" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14" s="6" t="s">
@@ -4179,7 +4194,7 @@
       <c r="AD14"/>
       <c r="AE14"/>
     </row>
-    <row r="15" spans="1:31" s="2" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15" s="6" t="s">
@@ -4224,17 +4239,17 @@
       <c r="AD15"/>
       <c r="AE15"/>
     </row>
-    <row r="16" spans="1:31" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C16" s="48" t="s">
+    <row r="16" spans="1:31" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C16" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="50"/>
-    </row>
-    <row r="17" spans="1:33" s="11" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="86"/>
+    </row>
+    <row r="17" spans="1:33" s="11" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17" s="10" t="s">
@@ -4281,7 +4296,7 @@
       <c r="AF17"/>
       <c r="AG17"/>
     </row>
-    <row r="18" spans="1:33" s="9" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:33" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18" s="8" t="s">
@@ -4328,7 +4343,7 @@
       <c r="AF18"/>
       <c r="AG18"/>
     </row>
-    <row r="19" spans="1:33" s="9" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:33" s="9" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19" s="8" t="s">
@@ -4375,7 +4390,7 @@
       <c r="AF19"/>
       <c r="AG19"/>
     </row>
-    <row r="20" spans="1:33" s="9" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:33" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20" s="8" t="s">
@@ -4422,7 +4437,7 @@
       <c r="AF20"/>
       <c r="AG20"/>
     </row>
-    <row r="21" spans="1:33" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:33" ht="56" x14ac:dyDescent="0.3">
       <c r="C21" s="6" t="s">
         <v>436</v>
       </c>
@@ -4442,7 +4457,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="22" spans="1:33" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:33" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22" s="8" t="s">
@@ -4489,7 +4504,7 @@
       <c r="AF22"/>
       <c r="AG22"/>
     </row>
-    <row r="23" spans="1:33" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:33" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23" s="6" t="s">
@@ -4536,7 +4551,7 @@
       <c r="AF23"/>
       <c r="AG23"/>
     </row>
-    <row r="24" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C24" s="6" t="s">
         <v>443</v>
       </c>
@@ -4556,7 +4571,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="25" spans="1:33" s="3" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:33" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25" s="8" t="s">
@@ -4603,7 +4618,7 @@
       <c r="AF25"/>
       <c r="AG25"/>
     </row>
-    <row r="26" spans="1:33" s="11" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:33" s="11" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26" s="10" t="s">
@@ -4650,7 +4665,7 @@
       <c r="AF26"/>
       <c r="AG26"/>
     </row>
-    <row r="27" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27" s="34" t="s">
@@ -4697,7 +4712,7 @@
       <c r="AF27"/>
       <c r="AG27"/>
     </row>
-    <row r="28" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28" s="36" t="s">
@@ -4742,7 +4757,7 @@
       <c r="AF28"/>
       <c r="AG28"/>
     </row>
-    <row r="29" spans="1:33" s="35" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:33" s="35" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="27"/>
       <c r="B29" s="27"/>
       <c r="C29" s="6" t="s">
@@ -4787,7 +4802,7 @@
       <c r="AF29" s="27"/>
       <c r="AG29" s="27"/>
     </row>
-    <row r="30" spans="1:33" s="11" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:33" s="11" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30" s="6" t="s">
@@ -4832,17 +4847,17 @@
       <c r="AF30"/>
       <c r="AG30"/>
     </row>
-    <row r="31" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C31" s="54" t="s">
+    <row r="31" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C31" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="56"/>
-    </row>
-    <row r="32" spans="1:33" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="95"/>
+    </row>
+    <row r="32" spans="1:33" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32" s="6" t="s">
@@ -4889,7 +4904,7 @@
       <c r="AF32"/>
       <c r="AG32"/>
     </row>
-    <row r="33" spans="1:33" s="13" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33" s="12" t="s">
@@ -4936,7 +4951,7 @@
       <c r="AF33"/>
       <c r="AG33"/>
     </row>
-    <row r="34" spans="1:33" s="2" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:33" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34" s="6" t="s">
@@ -4983,7 +4998,7 @@
       <c r="AF34"/>
       <c r="AG34"/>
     </row>
-    <row r="35" spans="1:33" s="11" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:33" s="11" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35" s="10" t="s">
@@ -5030,7 +5045,7 @@
       <c r="AF35"/>
       <c r="AG35"/>
     </row>
-    <row r="36" spans="1:33" s="13" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:33" s="13" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36" s="12" t="s">
@@ -5077,7 +5092,7 @@
       <c r="AF36"/>
       <c r="AG36"/>
     </row>
-    <row r="37" spans="1:33" s="13" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37" s="12" t="s">
@@ -5124,7 +5139,7 @@
       <c r="AF37"/>
       <c r="AG37"/>
     </row>
-    <row r="38" spans="1:33" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:33" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38" s="12" t="s">
@@ -5171,7 +5186,7 @@
       <c r="AF38"/>
       <c r="AG38"/>
     </row>
-    <row r="39" spans="1:33" s="11" customFormat="1" ht="56.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:33" s="11" customFormat="1" ht="56.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39" s="10" t="s">
@@ -5218,7 +5233,7 @@
       <c r="AF39"/>
       <c r="AG39"/>
     </row>
-    <row r="40" spans="1:33" s="13" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40" s="12" t="s">
@@ -5265,7 +5280,7 @@
       <c r="AF40"/>
       <c r="AG40"/>
     </row>
-    <row r="41" spans="1:33" s="13" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41" s="12" t="s">
@@ -5312,7 +5327,7 @@
       <c r="AF41"/>
       <c r="AG41"/>
     </row>
-    <row r="42" spans="1:33" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:33" ht="42" x14ac:dyDescent="0.3">
       <c r="C42" s="12" t="s">
         <v>95</v>
       </c>
@@ -5332,7 +5347,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:33" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:33" ht="42" x14ac:dyDescent="0.3">
       <c r="C43" s="12" t="s">
         <v>96</v>
       </c>
@@ -5352,17 +5367,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C44" s="48" t="s">
+    <row r="44" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C44" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="50"/>
-    </row>
-    <row r="45" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D44" s="85"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="86"/>
+    </row>
+    <row r="45" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C45" s="8" t="s">
         <v>198</v>
       </c>
@@ -5382,7 +5397,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C46" s="8" t="s">
         <v>195</v>
       </c>
@@ -5402,7 +5417,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C47" s="18" t="s">
         <v>208</v>
       </c>
@@ -5422,7 +5437,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="48" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C48" s="18" t="s">
         <v>210</v>
       </c>
@@ -5442,7 +5457,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="49" spans="3:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:8" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="C49" s="19" t="s">
         <v>160</v>
       </c>
@@ -5462,7 +5477,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="50" spans="3:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:8" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="C50" s="16" t="s">
         <v>186</v>
       </c>
@@ -5482,7 +5497,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C51" s="8" t="s">
         <v>150</v>
       </c>
@@ -5502,7 +5517,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C52" s="8" t="s">
         <v>144</v>
       </c>
@@ -5522,7 +5537,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C53" s="8" t="s">
         <v>172</v>
       </c>
@@ -5542,7 +5557,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="54" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C54" s="8" t="s">
         <v>143</v>
       </c>
@@ -5562,7 +5577,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C55" s="8" t="s">
         <v>176</v>
       </c>
@@ -5582,7 +5597,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="56" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C56" s="8" t="s">
         <v>188</v>
       </c>
@@ -5602,7 +5617,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="57" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C57" s="8" t="s">
         <v>140</v>
       </c>
@@ -5622,7 +5637,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C58" s="8" t="s">
         <v>191</v>
       </c>
@@ -5642,7 +5657,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="59" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C59" s="8" t="s">
         <v>166</v>
       </c>
@@ -5662,7 +5677,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:8" ht="56" x14ac:dyDescent="0.3">
       <c r="C60" s="8" t="s">
         <v>179</v>
       </c>
@@ -5682,7 +5697,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="61" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C61" s="18" t="s">
         <v>205</v>
       </c>
@@ -5702,7 +5717,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="62" spans="3:8" ht="56" x14ac:dyDescent="0.3">
       <c r="C62" s="8" t="s">
         <v>154</v>
       </c>
@@ -5722,7 +5737,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="63" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C63" s="8" t="s">
         <v>183</v>
       </c>
@@ -5742,7 +5757,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="64" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C64" s="8" t="s">
         <v>157</v>
       </c>
@@ -5762,7 +5777,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="65" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C65" s="7" t="s">
         <v>459</v>
       </c>
@@ -5773,7 +5788,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="66" spans="3:8" s="38" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="66" spans="3:8" s="38" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="C66" s="8" t="s">
         <v>463</v>
       </c>
@@ -5789,7 +5804,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="67" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="67" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C67" s="7" t="s">
         <v>462</v>
       </c>
@@ -5803,7 +5818,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="68" spans="3:8" s="38" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="3:8" s="38" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="7" t="s">
         <v>461</v>
       </c>
@@ -5819,7 +5834,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="69" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="69" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C69" s="18" t="s">
         <v>162</v>
       </c>
@@ -5839,7 +5854,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="70" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="70" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C70" s="7" t="s">
         <v>467</v>
       </c>
@@ -5853,17 +5868,17 @@
         <v>472</v>
       </c>
     </row>
-    <row r="71" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C71" s="48" t="s">
+    <row r="71" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C71" s="84" t="s">
         <v>216</v>
       </c>
-      <c r="D71" s="49"/>
-      <c r="E71" s="49"/>
-      <c r="F71" s="49"/>
-      <c r="G71" s="49"/>
-      <c r="H71" s="50"/>
-    </row>
-    <row r="72" spans="3:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="D71" s="85"/>
+      <c r="E71" s="85"/>
+      <c r="F71" s="85"/>
+      <c r="G71" s="85"/>
+      <c r="H71" s="86"/>
+    </row>
+    <row r="72" spans="3:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C72" s="21" t="s">
         <v>0</v>
       </c>
@@ -5883,7 +5898,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="73" spans="3:8" ht="97.15" x14ac:dyDescent="0.4">
+    <row r="73" spans="3:8" ht="98" x14ac:dyDescent="0.3">
       <c r="C73" s="7" t="s">
         <v>223</v>
       </c>
@@ -5897,7 +5912,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="74" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="74" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C74" s="7" t="s">
         <v>217</v>
       </c>
@@ -5911,7 +5926,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="75" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="75" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C75" s="7" t="s">
         <v>219</v>
       </c>
@@ -5925,7 +5940,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="76" spans="3:8" ht="70.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="3:8" ht="70.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="7" t="s">
         <v>221</v>
       </c>
@@ -5939,17 +5954,17 @@
         <v>225</v>
       </c>
     </row>
-    <row r="77" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C77" s="48" t="s">
+    <row r="77" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C77" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="D77" s="49"/>
-      <c r="E77" s="49"/>
-      <c r="F77" s="49"/>
-      <c r="G77" s="49"/>
-      <c r="H77" s="50"/>
-    </row>
-    <row r="78" spans="3:8" s="23" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="D77" s="85"/>
+      <c r="E77" s="85"/>
+      <c r="F77" s="85"/>
+      <c r="G77" s="85"/>
+      <c r="H77" s="86"/>
+    </row>
+    <row r="78" spans="3:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C78" s="22" t="s">
         <v>0</v>
       </c>
@@ -5969,7 +5984,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="79" spans="3:8" s="27" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
+    <row r="79" spans="3:8" s="27" customFormat="1" ht="84" x14ac:dyDescent="0.3">
       <c r="C79" s="32" t="s">
         <v>248</v>
       </c>
@@ -5989,7 +6004,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="80" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="80" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C80" s="42" t="s">
         <v>399</v>
       </c>
@@ -6009,7 +6024,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="81" spans="3:8" ht="97.15" x14ac:dyDescent="0.4">
+    <row r="81" spans="3:8" ht="98" x14ac:dyDescent="0.3">
       <c r="C81" s="42" t="s">
         <v>396</v>
       </c>
@@ -6029,7 +6044,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="82" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="82" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C82" s="42" t="s">
         <v>389</v>
       </c>
@@ -6049,7 +6064,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="83" spans="3:8" ht="138" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="3:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="42" t="s">
         <v>527</v>
       </c>
@@ -6069,7 +6084,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="84" spans="3:8" ht="111" x14ac:dyDescent="0.4">
+    <row r="84" spans="3:8" ht="84" x14ac:dyDescent="0.3">
       <c r="C84" s="42" t="s">
         <v>296</v>
       </c>
@@ -6089,47 +6104,47 @@
         <v>298</v>
       </c>
     </row>
-    <row r="85" spans="3:8" s="71" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C85" s="72" t="s">
+    <row r="85" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C85" s="53" t="s">
         <v>560</v>
       </c>
-      <c r="D85" s="72">
+      <c r="D85" s="53">
         <v>2020</v>
       </c>
-      <c r="E85" s="72" t="s">
+      <c r="E85" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="F85" s="72" t="s">
+      <c r="F85" s="53" t="s">
         <v>477</v>
       </c>
-      <c r="G85" s="72" t="s">
+      <c r="G85" s="53" t="s">
         <v>484</v>
       </c>
-      <c r="H85" s="72" t="s">
+      <c r="H85" s="53" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="86" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C86" s="72" t="s">
+    <row r="86" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C86" s="53" t="s">
         <v>391</v>
       </c>
-      <c r="D86" s="72">
+      <c r="D86" s="53">
         <v>2020</v>
       </c>
-      <c r="E86" s="72" t="s">
+      <c r="E86" s="53" t="s">
         <v>241</v>
       </c>
-      <c r="F86" s="72" t="s">
+      <c r="F86" s="53" t="s">
         <v>477</v>
       </c>
-      <c r="G86" s="72" t="s">
+      <c r="G86" s="53" t="s">
         <v>484</v>
       </c>
-      <c r="H86" s="72" t="s">
+      <c r="H86" s="53" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="87" spans="3:8" ht="83.25" x14ac:dyDescent="0.4">
+    <row r="87" spans="3:8" ht="84" x14ac:dyDescent="0.3">
       <c r="C87" s="32" t="s">
         <v>387</v>
       </c>
@@ -6149,17 +6164,17 @@
         <v>524</v>
       </c>
     </row>
-    <row r="89" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C89" s="57" t="s">
+    <row r="89" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C89" s="87" t="s">
         <v>235</v>
       </c>
-      <c r="D89" s="58"/>
-      <c r="E89" s="58"/>
-      <c r="F89" s="58"/>
-      <c r="G89" s="58"/>
-      <c r="H89" s="59"/>
-    </row>
-    <row r="90" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="D89" s="88"/>
+      <c r="E89" s="88"/>
+      <c r="F89" s="88"/>
+      <c r="G89" s="88"/>
+      <c r="H89" s="89"/>
+    </row>
+    <row r="90" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C90" s="32" t="s">
         <v>242</v>
       </c>
@@ -6179,7 +6194,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="91" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="91" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C91" s="40" t="s">
         <v>378</v>
       </c>
@@ -6199,7 +6214,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="92" spans="3:8" s="71" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="92" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C92" s="40" t="s">
         <v>240</v>
       </c>
@@ -6219,7 +6234,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="93" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+    <row r="93" spans="3:8" ht="70" x14ac:dyDescent="0.3">
       <c r="C93" s="32" t="s">
         <v>351</v>
       </c>
@@ -6239,7 +6254,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="94" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="94" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C94" s="41" t="s">
         <v>474</v>
       </c>
@@ -6259,7 +6274,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="95" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="95" spans="3:8" ht="56" x14ac:dyDescent="0.3">
       <c r="C95" s="32" t="s">
         <v>346</v>
       </c>
@@ -6279,7 +6294,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="96" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="96" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C96" s="32" t="s">
         <v>437</v>
       </c>
@@ -6297,7 +6312,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="97" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="97" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C97" s="44" t="s">
         <v>450</v>
       </c>
@@ -6313,7 +6328,7 @@
       <c r="G97" s="44"/>
       <c r="H97" s="44"/>
     </row>
-    <row r="98" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="98" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C98" s="44" t="s">
         <v>447</v>
       </c>
@@ -6329,7 +6344,7 @@
       <c r="G98" s="44"/>
       <c r="H98" s="44"/>
     </row>
-    <row r="99" spans="3:8" s="27" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="99" spans="3:8" s="27" customFormat="1" ht="56" x14ac:dyDescent="0.3">
       <c r="C99" s="47" t="s">
         <v>341</v>
       </c>
@@ -6349,7 +6364,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="100" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="100" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C100" s="46" t="s">
         <v>452</v>
       </c>
@@ -6365,7 +6380,7 @@
       <c r="G100" s="44"/>
       <c r="H100" s="44"/>
     </row>
-    <row r="101" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="101" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C101" s="47" t="s">
         <v>381</v>
       </c>
@@ -6379,7 +6394,7 @@
       <c r="G101" s="32"/>
       <c r="H101" s="32"/>
     </row>
-    <row r="102" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+    <row r="102" spans="3:8" ht="70" x14ac:dyDescent="0.3">
       <c r="C102" s="32" t="s">
         <v>301</v>
       </c>
@@ -6399,7 +6414,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="103" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="103" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C103" s="40" t="s">
         <v>383</v>
       </c>
@@ -6419,7 +6434,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="104" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="104" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C104" s="40" t="s">
         <v>481</v>
       </c>
@@ -6439,7 +6454,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="105" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="105" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C105" s="40" t="s">
         <v>401</v>
       </c>
@@ -6459,419 +6474,417 @@
         <v>480</v>
       </c>
     </row>
-    <row r="107" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C107" s="48" t="s">
+    <row r="107" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C107" s="84" t="s">
         <v>236</v>
       </c>
-      <c r="D107" s="49"/>
-      <c r="E107" s="49"/>
-      <c r="F107" s="49"/>
-      <c r="G107" s="49"/>
-      <c r="H107" s="50"/>
-    </row>
-    <row r="108" spans="3:8" ht="111" x14ac:dyDescent="0.4">
-      <c r="C108" s="73" t="s">
+      <c r="D107" s="85"/>
+      <c r="E107" s="85"/>
+      <c r="F107" s="85"/>
+      <c r="G107" s="85"/>
+      <c r="H107" s="86"/>
+    </row>
+    <row r="108" spans="3:8" ht="98" x14ac:dyDescent="0.3">
+      <c r="C108" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="D108" s="73">
+      <c r="D108" s="7">
         <v>2008</v>
       </c>
-      <c r="E108" s="73" t="s">
+      <c r="E108" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F108" s="73" t="s">
+      <c r="F108" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="G108" s="73" t="s">
+      <c r="G108" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="H108" s="73" t="s">
+      <c r="H108" s="7" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="109" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
-      <c r="C109" s="73" t="s">
+    <row r="109" spans="3:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="C109" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="D109" s="73">
+      <c r="D109" s="7">
         <v>2011</v>
       </c>
-      <c r="E109" s="73" t="s">
+      <c r="E109" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F109" s="73" t="s">
+      <c r="F109" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="G109" s="73" t="s">
+      <c r="G109" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="H109" s="73" t="s">
+      <c r="H109" s="7" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="110" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C110" s="73" t="s">
+    <row r="110" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C110" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="D110" s="73">
+      <c r="D110" s="7">
         <v>2015</v>
       </c>
-      <c r="E110" s="73" t="s">
+      <c r="E110" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="F110" s="73" t="s">
+      <c r="F110" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="G110" s="73"/>
-      <c r="H110" s="73"/>
-    </row>
-    <row r="111" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C111" s="73" t="s">
+    </row>
+    <row r="111" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C111" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="D111" s="73">
+      <c r="D111" s="7">
         <v>2016</v>
       </c>
-      <c r="E111" s="73" t="s">
+      <c r="E111" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F111" s="73" t="s">
+      <c r="F111" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="G111" s="73" t="s">
+      <c r="G111" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="H111" s="73" t="s">
+      <c r="H111" s="7" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="112" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C112" s="101" t="s">
+    <row r="112" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C112" s="72" t="s">
         <v>358</v>
       </c>
-      <c r="D112" s="101">
+      <c r="D112" s="72">
         <v>2016</v>
       </c>
-      <c r="E112" s="101" t="s">
+      <c r="E112" s="72" t="s">
         <v>359</v>
       </c>
-      <c r="F112" s="101" t="s">
+      <c r="F112" s="72" t="s">
         <v>364</v>
       </c>
-      <c r="G112" s="101"/>
-      <c r="H112" s="101"/>
-    </row>
-    <row r="113" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C113" s="101" t="s">
+      <c r="G112" s="72"/>
+      <c r="H112" s="72" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="113" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C113" s="72" t="s">
         <v>356</v>
       </c>
-      <c r="D113" s="101">
+      <c r="D113" s="72">
         <v>2017</v>
       </c>
-      <c r="E113" s="101" t="s">
+      <c r="E113" s="72" t="s">
         <v>357</v>
       </c>
-      <c r="F113" s="101" t="s">
+      <c r="F113" s="72" t="s">
         <v>364</v>
       </c>
-      <c r="G113" s="101"/>
-      <c r="H113" s="101"/>
-    </row>
-    <row r="114" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C114" s="101" t="s">
+      <c r="G113" s="72"/>
+      <c r="H113" s="72"/>
+    </row>
+    <row r="114" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C114" s="72" t="s">
         <v>365</v>
       </c>
-      <c r="D114" s="101">
+      <c r="D114" s="72">
         <v>2017</v>
       </c>
-      <c r="E114" s="101" t="s">
+      <c r="E114" s="72" t="s">
         <v>366</v>
       </c>
-      <c r="F114" s="101" t="s">
+      <c r="F114" s="72" t="s">
         <v>363</v>
       </c>
-      <c r="G114" s="101"/>
-      <c r="H114" s="101"/>
-    </row>
-    <row r="115" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C115" s="73" t="s">
+      <c r="G114" s="72"/>
+      <c r="H114" s="72"/>
+    </row>
+    <row r="115" spans="3:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="C115" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D115" s="73">
+      <c r="D115" s="7">
         <v>2017</v>
       </c>
-      <c r="E115" s="73" t="s">
+      <c r="E115" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F115" s="73" t="s">
+      <c r="F115" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="G115" s="73"/>
-      <c r="H115" s="73"/>
-    </row>
-    <row r="116" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C116" s="101" t="s">
+    </row>
+    <row r="116" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C116" s="72" t="s">
         <v>375</v>
       </c>
-      <c r="D116" s="101">
+      <c r="D116" s="72">
         <v>2017</v>
       </c>
-      <c r="E116" s="101" t="s">
+      <c r="E116" s="72" t="s">
         <v>376</v>
       </c>
-      <c r="F116" s="101" t="s">
+      <c r="F116" s="72" t="s">
         <v>377</v>
       </c>
-      <c r="G116" s="101"/>
-      <c r="H116" s="101"/>
-    </row>
-    <row r="117" spans="3:8" ht="83.25" x14ac:dyDescent="0.4">
-      <c r="C117" s="101" t="s">
+      <c r="G116" s="72"/>
+      <c r="H116" s="72"/>
+    </row>
+    <row r="117" spans="3:8" ht="70" x14ac:dyDescent="0.3">
+      <c r="C117" s="72" t="s">
         <v>264</v>
       </c>
-      <c r="D117" s="101">
+      <c r="D117" s="72">
         <v>2018</v>
       </c>
-      <c r="E117" s="101" t="s">
+      <c r="E117" s="72" t="s">
         <v>265</v>
       </c>
-      <c r="F117" s="101" t="s">
+      <c r="F117" s="72" t="s">
         <v>266</v>
       </c>
-      <c r="G117" s="101" t="s">
+      <c r="G117" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="H117" s="101" t="s">
+      <c r="H117" s="72" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="118" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C118" s="73" t="s">
+    <row r="118" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C118" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="D118" s="73">
+      <c r="D118" s="7">
         <v>2018</v>
       </c>
-      <c r="E118" s="73" t="s">
+      <c r="E118" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="F118" s="73" t="s">
+      <c r="F118" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="G118" s="73" t="s">
+      <c r="G118" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="H118" s="73" t="s">
+      <c r="H118" s="7" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="119" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C119" s="101" t="s">
+    <row r="119" spans="3:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="C119" s="72" t="s">
         <v>269</v>
       </c>
-      <c r="D119" s="101">
+      <c r="D119" s="72">
         <v>2019</v>
       </c>
-      <c r="E119" s="101" t="s">
+      <c r="E119" s="72" t="s">
         <v>270</v>
       </c>
-      <c r="F119" s="101" t="s">
+      <c r="F119" s="72" t="s">
         <v>273</v>
       </c>
-      <c r="G119" s="101" t="s">
+      <c r="G119" s="72" t="s">
         <v>272</v>
       </c>
-      <c r="H119" s="101" t="s">
+      <c r="H119" s="72" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="120" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C120" s="101" t="s">
+    <row r="120" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C120" s="72" t="s">
         <v>361</v>
       </c>
-      <c r="D120" s="101">
+      <c r="D120" s="72">
         <v>2019</v>
       </c>
-      <c r="E120" s="101" t="s">
+      <c r="E120" s="72" t="s">
         <v>362</v>
       </c>
-      <c r="F120" s="101" t="s">
+      <c r="F120" s="72" t="s">
         <v>363</v>
       </c>
-      <c r="G120" s="101"/>
-      <c r="H120" s="101"/>
-    </row>
-    <row r="121" spans="3:8" s="14" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
-      <c r="C121" s="77" t="s">
+      <c r="G120" s="72"/>
+      <c r="H120" s="72"/>
+    </row>
+    <row r="121" spans="3:8" s="14" customFormat="1" ht="84" x14ac:dyDescent="0.3">
+      <c r="C121" s="55" t="s">
         <v>278</v>
       </c>
-      <c r="D121" s="101">
+      <c r="D121" s="72">
         <v>2019</v>
       </c>
-      <c r="E121" s="77" t="s">
+      <c r="E121" s="55" t="s">
         <v>279</v>
       </c>
-      <c r="F121" s="77" t="s">
+      <c r="F121" s="55" t="s">
         <v>282</v>
       </c>
-      <c r="G121" s="77" t="s">
+      <c r="G121" s="55" t="s">
         <v>280</v>
       </c>
-      <c r="H121" s="77" t="s">
+      <c r="H121" s="55" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="122" spans="3:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C122" s="109" t="s">
+    <row r="122" spans="3:8" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="C122" s="80" t="s">
         <v>370</v>
       </c>
-      <c r="D122" s="79">
+      <c r="D122" s="56">
         <v>2019</v>
       </c>
-      <c r="E122" s="109" t="s">
+      <c r="E122" s="80" t="s">
         <v>371</v>
       </c>
-      <c r="F122" s="109" t="s">
+      <c r="F122" s="80" t="s">
         <v>372</v>
       </c>
-      <c r="G122" s="109"/>
-      <c r="H122" s="109"/>
-    </row>
-    <row r="123" spans="3:8" s="14" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C123" s="109" t="s">
+      <c r="G122" s="80"/>
+      <c r="H122" s="80"/>
+    </row>
+    <row r="123" spans="3:8" s="14" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+      <c r="C123" s="80" t="s">
         <v>283</v>
       </c>
-      <c r="D123" s="79">
+      <c r="D123" s="56">
         <v>2020</v>
       </c>
-      <c r="E123" s="109" t="s">
+      <c r="E123" s="80" t="s">
         <v>284</v>
       </c>
-      <c r="F123" s="109" t="s">
+      <c r="F123" s="80" t="s">
         <v>287</v>
       </c>
-      <c r="G123" s="109" t="s">
+      <c r="G123" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="H123" s="109" t="s">
+      <c r="H123" s="80" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="124" spans="3:8" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C124" s="105" t="s">
+    <row r="124" spans="3:8" s="14" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="C124" s="76" t="s">
         <v>289</v>
       </c>
-      <c r="D124" s="106">
+      <c r="D124" s="77">
         <v>2020</v>
       </c>
-      <c r="E124" s="107" t="s">
+      <c r="E124" s="78" t="s">
         <v>290</v>
       </c>
-      <c r="F124" s="105" t="s">
+      <c r="F124" s="76" t="s">
         <v>293</v>
       </c>
-      <c r="G124" s="105" t="s">
+      <c r="G124" s="76" t="s">
         <v>292</v>
       </c>
-      <c r="H124" s="105" t="s">
+      <c r="H124" s="76" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="125" spans="3:8" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C125" s="74" t="s">
+    <row r="125" spans="3:8" s="14" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="C125" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="D125" s="75">
+      <c r="D125" s="54">
         <v>2021</v>
       </c>
-      <c r="E125" s="73" t="s">
+      <c r="E125" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="F125" s="74" t="s">
+      <c r="F125" s="25" t="s">
         <v>315</v>
       </c>
-      <c r="G125" s="74" t="s">
+      <c r="G125" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="H125" s="74" t="s">
+      <c r="H125" s="25" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="126" spans="3:8" s="33" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C126" s="109" t="s">
+    <row r="126" spans="3:8" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C126" s="80" t="s">
         <v>438</v>
       </c>
-      <c r="D126" s="110">
+      <c r="D126" s="81">
         <v>2022</v>
       </c>
-      <c r="E126" s="111"/>
-      <c r="F126" s="109"/>
-      <c r="G126" s="109"/>
-      <c r="H126" s="109"/>
-    </row>
-    <row r="127" spans="3:8" ht="111" x14ac:dyDescent="0.4">
-      <c r="C127" s="79" t="s">
+      <c r="E126" s="82"/>
+      <c r="F126" s="80"/>
+      <c r="G126" s="80"/>
+      <c r="H126" s="80"/>
+    </row>
+    <row r="127" spans="3:8" ht="98" x14ac:dyDescent="0.3">
+      <c r="C127" s="56" t="s">
         <v>307</v>
       </c>
-      <c r="D127" s="79">
+      <c r="D127" s="56">
         <v>2023</v>
       </c>
-      <c r="E127" s="79" t="s">
+      <c r="E127" s="56" t="s">
         <v>306</v>
       </c>
-      <c r="F127" s="79" t="s">
+      <c r="F127" s="56" t="s">
         <v>310</v>
       </c>
-      <c r="G127" s="79" t="s">
+      <c r="G127" s="56" t="s">
         <v>308</v>
       </c>
-      <c r="H127" s="79" t="s">
+      <c r="H127" s="56" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="128" spans="3:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C128" s="109" t="s">
+    <row r="128" spans="3:8" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="C128" s="80" t="s">
         <v>373</v>
       </c>
-      <c r="D128" s="112"/>
-      <c r="E128" s="109"/>
-      <c r="F128" s="109" t="s">
+      <c r="D128" s="83"/>
+      <c r="E128" s="80"/>
+      <c r="F128" s="80" t="s">
         <v>374</v>
       </c>
-      <c r="G128" s="109"/>
-      <c r="H128" s="109"/>
-    </row>
-    <row r="129" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
-      <c r="C129" s="108" t="s">
+      <c r="G128" s="80"/>
+      <c r="H128" s="80"/>
+    </row>
+    <row r="129" spans="3:8" ht="70" x14ac:dyDescent="0.3">
+      <c r="C129" s="79" t="s">
         <v>592</v>
       </c>
-      <c r="D129" s="108">
+      <c r="D129" s="79">
         <v>2023</v>
       </c>
-      <c r="E129" s="108" t="s">
+      <c r="E129" s="79" t="s">
         <v>593</v>
       </c>
-      <c r="F129" s="108" t="s">
+      <c r="F129" s="79" t="s">
         <v>594</v>
       </c>
-      <c r="G129" s="108" t="s">
+      <c r="G129" s="79" t="s">
         <v>595</v>
       </c>
-      <c r="H129" s="108" t="s">
+      <c r="H129" s="79" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="130" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C130" s="57" t="s">
+    <row r="130" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C130" s="87" t="s">
         <v>237</v>
       </c>
-      <c r="D130" s="58"/>
-      <c r="E130" s="58"/>
-      <c r="F130" s="58"/>
-      <c r="G130" s="58"/>
-      <c r="H130" s="59"/>
-    </row>
-    <row r="131" spans="3:8" s="25" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="D130" s="88"/>
+      <c r="E130" s="88"/>
+      <c r="F130" s="88"/>
+      <c r="G130" s="88"/>
+      <c r="H130" s="89"/>
+    </row>
+    <row r="131" spans="3:8" s="25" customFormat="1" ht="56" x14ac:dyDescent="0.3">
       <c r="C131" s="25" t="s">
         <v>413</v>
       </c>
@@ -6885,7 +6898,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="132" spans="3:8" s="29" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="132" spans="3:8" s="29" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="C132" s="30" t="s">
         <v>433</v>
       </c>
@@ -6901,7 +6914,7 @@
       <c r="G132" s="30"/>
       <c r="H132" s="30"/>
     </row>
-    <row r="133" spans="3:8" s="29" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="133" spans="3:8" s="29" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="C133" s="30" t="s">
         <v>416</v>
       </c>
@@ -6917,7 +6930,7 @@
       <c r="G133" s="30"/>
       <c r="H133" s="30"/>
     </row>
-    <row r="134" spans="3:8" s="29" customFormat="1" ht="111" x14ac:dyDescent="0.4">
+    <row r="134" spans="3:8" s="29" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="C134" s="30" t="s">
         <v>422</v>
       </c>
@@ -6937,7 +6950,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="135" spans="3:8" ht="97.15" x14ac:dyDescent="0.4">
+    <row r="135" spans="3:8" ht="98" x14ac:dyDescent="0.3">
       <c r="C135" s="26" t="s">
         <v>274</v>
       </c>
@@ -6957,7 +6970,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="136" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="136" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C136" s="7" t="s">
         <v>407</v>
       </c>
@@ -6971,7 +6984,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="137" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="137" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C137" s="7" t="s">
         <v>419</v>
       </c>
@@ -6985,7 +6998,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="138" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="138" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C138" s="28" t="s">
         <v>410</v>
       </c>
@@ -6999,7 +7012,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="139" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="139" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C139" s="28" t="s">
         <v>427</v>
       </c>
@@ -7013,7 +7026,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="140" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="140" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C140" s="7" t="s">
         <v>430</v>
       </c>
@@ -7027,105 +7040,105 @@
         <v>432</v>
       </c>
     </row>
-    <row r="141" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C141" s="48" t="s">
+    <row r="141" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C141" s="84" t="s">
         <v>581</v>
       </c>
-      <c r="D141" s="49"/>
-      <c r="E141" s="49"/>
-      <c r="F141" s="49"/>
-      <c r="G141" s="49"/>
-      <c r="H141" s="50"/>
-    </row>
-    <row r="142" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C142" s="96" t="s">
+      <c r="D141" s="85"/>
+      <c r="E141" s="85"/>
+      <c r="F141" s="85"/>
+      <c r="G141" s="85"/>
+      <c r="H141" s="86"/>
+    </row>
+    <row r="142" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C142" s="69" t="s">
         <v>605</v>
       </c>
-      <c r="D142" s="96">
+      <c r="D142" s="69">
         <v>2007</v>
       </c>
-      <c r="E142" s="96" t="s">
+      <c r="E142" s="69" t="s">
         <v>606</v>
       </c>
-      <c r="F142" s="96" t="s">
+      <c r="F142" s="69" t="s">
         <v>607</v>
       </c>
-      <c r="G142" s="96" t="s">
+      <c r="G142" s="69" t="s">
         <v>601</v>
       </c>
-      <c r="H142" s="96" t="s">
+      <c r="H142" s="69" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="143" spans="3:8" s="71" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C143" s="80" t="s">
+    <row r="143" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C143" s="57" t="s">
         <v>392</v>
       </c>
-      <c r="D143" s="80">
+      <c r="D143" s="57">
         <v>2018</v>
       </c>
-      <c r="E143" s="80" t="s">
+      <c r="E143" s="57" t="s">
         <v>393</v>
       </c>
-      <c r="F143" s="80" t="s">
+      <c r="F143" s="57" t="s">
         <v>586</v>
       </c>
-      <c r="G143" s="80" t="s">
+      <c r="G143" s="57" t="s">
         <v>588</v>
       </c>
-      <c r="H143" s="80" t="s">
+      <c r="H143" s="57" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="144" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C144" s="101" t="s">
+    <row r="144" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C144" s="72" t="s">
         <v>385</v>
       </c>
-      <c r="D144" s="101">
+      <c r="D144" s="72">
         <v>2023</v>
       </c>
-      <c r="E144" s="101" t="s">
+      <c r="E144" s="72" t="s">
         <v>386</v>
       </c>
-      <c r="F144" s="101" t="s">
+      <c r="F144" s="72" t="s">
         <v>477</v>
       </c>
-      <c r="G144" s="101" t="s">
+      <c r="G144" s="72" t="s">
         <v>601</v>
       </c>
-      <c r="H144" s="101"/>
-    </row>
-    <row r="145" spans="3:8" s="78" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C145" s="93" t="s">
+      <c r="H144" s="72"/>
+    </row>
+    <row r="145" spans="3:8" s="14" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+      <c r="C145" s="66" t="s">
         <v>326</v>
       </c>
-      <c r="D145" s="94">
+      <c r="D145" s="67">
         <v>2023</v>
       </c>
-      <c r="E145" s="95" t="s">
+      <c r="E145" s="68" t="s">
         <v>327</v>
       </c>
-      <c r="F145" s="93" t="s">
+      <c r="F145" s="66" t="s">
         <v>582</v>
       </c>
-      <c r="G145" s="93" t="s">
+      <c r="G145" s="66" t="s">
         <v>328</v>
       </c>
-      <c r="H145" s="93" t="s">
+      <c r="H145" s="66" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="149" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C149" s="48" t="s">
+    <row r="149" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C149" s="84" t="s">
         <v>288</v>
       </c>
-      <c r="D149" s="49"/>
-      <c r="E149" s="49"/>
-      <c r="F149" s="49"/>
-      <c r="G149" s="49"/>
-      <c r="H149" s="50"/>
-    </row>
-    <row r="150" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="D149" s="85"/>
+      <c r="E149" s="85"/>
+      <c r="F149" s="85"/>
+      <c r="G149" s="85"/>
+      <c r="H149" s="86"/>
+    </row>
+    <row r="150" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C150" s="7" t="s">
         <v>294</v>
       </c>
@@ -7139,7 +7152,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="151" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="151" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C151" s="7" t="s">
         <v>318</v>
       </c>
@@ -7153,7 +7166,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="152" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="152" spans="3:8" ht="56" x14ac:dyDescent="0.3">
       <c r="C152" s="7" t="s">
         <v>322</v>
       </c>
@@ -7170,7 +7183,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="153" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="153" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C153" s="7" t="s">
         <v>330</v>
       </c>
@@ -7184,17 +7197,17 @@
         <v>332</v>
       </c>
     </row>
-    <row r="156" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C156" s="48" t="s">
+    <row r="156" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C156" s="84" t="s">
         <v>487</v>
       </c>
-      <c r="D156" s="49"/>
-      <c r="E156" s="49"/>
-      <c r="F156" s="49"/>
-      <c r="G156" s="49"/>
-      <c r="H156" s="50"/>
-    </row>
-    <row r="157" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D156" s="85"/>
+      <c r="E156" s="85"/>
+      <c r="F156" s="85"/>
+      <c r="G156" s="85"/>
+      <c r="H156" s="86"/>
+    </row>
+    <row r="157" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C157" s="26" t="s">
         <v>394</v>
       </c>
@@ -7208,7 +7221,7 @@
       <c r="G157" s="26"/>
       <c r="H157" s="26"/>
     </row>
-    <row r="158" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="158" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C158" s="26" t="s">
         <v>403</v>
       </c>
@@ -7224,7 +7237,7 @@
       <c r="G158" s="26"/>
       <c r="H158" s="26"/>
     </row>
-    <row r="159" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="159" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C159" s="7" t="s">
         <v>405</v>
       </c>
@@ -7235,7 +7248,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="160" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="160" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C160" s="7" t="s">
         <v>564</v>
       </c>
@@ -7248,18 +7261,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C71:H71"/>
     <mergeCell ref="C156:H156"/>
     <mergeCell ref="C149:H149"/>
     <mergeCell ref="C89:H89"/>
     <mergeCell ref="C107:H107"/>
     <mergeCell ref="C130:H130"/>
     <mergeCell ref="C141:H141"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C71:H71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7272,58 +7285,58 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F283F35-418D-4BB1-82BA-2ABDAAC924FE}">
-  <dimension ref="B5:H25"/>
+  <dimension ref="B5:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A17" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.9296875" customWidth="1"/>
+    <col min="2" max="2" width="11.9140625" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.796875" customWidth="1"/>
-    <col min="5" max="5" width="19.265625" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19.25" customWidth="1"/>
     <col min="6" max="6" width="35.33203125" customWidth="1"/>
-    <col min="7" max="7" width="28.73046875" customWidth="1"/>
-    <col min="8" max="8" width="29.9296875" customWidth="1"/>
+    <col min="7" max="7" width="28.75" customWidth="1"/>
+    <col min="8" max="8" width="29.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="2:8" ht="20.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="63" t="s">
+    <row r="5" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:8" ht="20" x14ac:dyDescent="0.4">
+      <c r="B6" s="96" t="s">
         <v>495</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="65"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="85" t="s">
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="98"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="61" t="s">
         <v>496</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="60" t="s">
         <v>497</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="60" t="s">
         <v>498</v>
       </c>
-      <c r="E7" s="84" t="s">
+      <c r="E7" s="60" t="s">
         <v>499</v>
       </c>
-      <c r="F7" s="86" t="s">
+      <c r="F7" s="62" t="s">
         <v>500</v>
       </c>
       <c r="G7" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="104.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="66" t="s">
+    <row r="8" spans="2:8" ht="104.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="99" t="s">
         <v>520</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="58" t="s">
         <v>610</v>
       </c>
       <c r="D8" s="27" t="s">
@@ -7332,16 +7345,16 @@
       <c r="E8" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="F8" s="67" t="s">
+      <c r="F8" s="50" t="s">
         <v>246</v>
       </c>
-      <c r="G8" s="60" t="s">
+      <c r="G8" s="48" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="91.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="66"/>
-      <c r="C9" s="81" t="s">
+    <row r="9" spans="2:8" ht="91" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="99"/>
+      <c r="C9" s="58" t="s">
         <v>611</v>
       </c>
       <c r="D9" s="28" t="s">
@@ -7350,16 +7363,16 @@
       <c r="E9" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="F9" s="67" t="s">
+      <c r="F9" s="50" t="s">
         <v>506</v>
       </c>
-      <c r="G9" s="60" t="s">
+      <c r="G9" s="48" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="66"/>
-      <c r="C10" s="81" t="s">
+    <row r="10" spans="2:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="99"/>
+      <c r="C10" s="58" t="s">
         <v>612</v>
       </c>
       <c r="D10" s="27" t="s">
@@ -7368,16 +7381,16 @@
       <c r="E10" s="28" t="s">
         <v>508</v>
       </c>
-      <c r="F10" s="68" t="s">
+      <c r="F10" s="51" t="s">
         <v>509</v>
       </c>
-      <c r="G10" s="60" t="s">
+      <c r="G10" s="48" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="96.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="66"/>
-      <c r="C11" s="81" t="s">
+    <row r="11" spans="2:8" ht="96.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="99"/>
+      <c r="C11" s="58" t="s">
         <v>612</v>
       </c>
       <c r="D11" s="27" t="s">
@@ -7386,16 +7399,16 @@
       <c r="E11" s="27" t="s">
         <v>511</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="51" t="s">
         <v>512</v>
       </c>
-      <c r="G11" s="60" t="s">
+      <c r="G11" s="48" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="109.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="66"/>
-      <c r="C12" s="81" t="s">
+    <row r="12" spans="2:8" ht="109" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="99"/>
+      <c r="C12" s="58" t="s">
         <v>612</v>
       </c>
       <c r="D12" s="27" t="s">
@@ -7404,16 +7417,16 @@
       <c r="E12" s="27" t="s">
         <v>514</v>
       </c>
-      <c r="F12" s="68" t="s">
+      <c r="F12" s="51" t="s">
         <v>515</v>
       </c>
-      <c r="G12" s="61" t="s">
+      <c r="G12" s="49" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="89" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="66"/>
-      <c r="C13" s="81" t="s">
+    <row r="13" spans="2:8" ht="89" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="99"/>
+      <c r="C13" s="58" t="s">
         <v>612</v>
       </c>
       <c r="D13" s="28" t="s">
@@ -7422,16 +7435,16 @@
       <c r="E13" s="27" t="s">
         <v>517</v>
       </c>
-      <c r="F13" s="68" t="s">
+      <c r="F13" s="51" t="s">
         <v>518</v>
       </c>
-      <c r="G13" s="61" t="s">
+      <c r="G13" s="49" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B14" s="66"/>
-      <c r="C14" s="81" t="s">
+    <row r="14" spans="2:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="B14" s="99"/>
+      <c r="C14" s="58" t="s">
         <v>612</v>
       </c>
       <c r="D14" s="27" t="s">
@@ -7440,15 +7453,15 @@
       <c r="E14" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F14" s="67" t="s">
+      <c r="F14" s="50" t="s">
         <v>305</v>
       </c>
-      <c r="G14" s="60" t="s">
+      <c r="G14" s="48" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="B15" s="66" t="s">
+    <row r="15" spans="2:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="B15" s="99" t="s">
         <v>558</v>
       </c>
       <c r="C15" s="28" t="s">
@@ -7460,7 +7473,7 @@
       <c r="E15" s="28" t="s">
         <v>534</v>
       </c>
-      <c r="F15" s="68" t="s">
+      <c r="F15" s="51" t="s">
         <v>535</v>
       </c>
       <c r="G15" t="s">
@@ -7470,8 +7483,8 @@
         <v>554</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B16" s="66"/>
+    <row r="16" spans="2:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="B16" s="99"/>
       <c r="C16" s="28" t="s">
         <v>615</v>
       </c>
@@ -7481,7 +7494,7 @@
       <c r="E16" s="28" t="s">
         <v>542</v>
       </c>
-      <c r="F16" s="68" t="s">
+      <c r="F16" s="51" t="s">
         <v>543</v>
       </c>
       <c r="G16" s="38" t="s">
@@ -7491,8 +7504,8 @@
         <v>555</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="97.15" x14ac:dyDescent="0.4">
-      <c r="B17" s="66"/>
+    <row r="17" spans="2:8" ht="84" x14ac:dyDescent="0.3">
+      <c r="B17" s="99"/>
       <c r="C17" s="28" t="s">
         <v>614</v>
       </c>
@@ -7502,7 +7515,7 @@
       <c r="E17" s="28" t="s">
         <v>548</v>
       </c>
-      <c r="F17" s="68" t="s">
+      <c r="F17" s="51" t="s">
         <v>544</v>
       </c>
       <c r="G17" s="38" t="s">
@@ -7512,8 +7525,8 @@
         <v>556</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="B18" s="66"/>
+    <row r="18" spans="2:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="B18" s="99"/>
       <c r="C18" s="28" t="s">
         <v>615</v>
       </c>
@@ -7523,7 +7536,7 @@
       <c r="E18" s="28" t="s">
         <v>545</v>
       </c>
-      <c r="F18" s="68" t="s">
+      <c r="F18" s="51" t="s">
         <v>546</v>
       </c>
       <c r="G18" s="38" t="s">
@@ -7533,18 +7546,18 @@
         <v>557</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B19" s="66"/>
+    <row r="19" spans="2:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="B19" s="99"/>
       <c r="C19" s="28" t="s">
         <v>615</v>
       </c>
-      <c r="D19" s="62" t="s">
+      <c r="D19" s="28" t="s">
         <v>525</v>
       </c>
       <c r="E19" s="28" t="s">
         <v>549</v>
       </c>
-      <c r="F19" s="68" t="s">
+      <c r="F19" s="51" t="s">
         <v>530</v>
       </c>
       <c r="G19" s="38" t="s">
@@ -7554,8 +7567,8 @@
         <v>556</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="69.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="66"/>
+    <row r="20" spans="2:8" ht="69.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="99"/>
       <c r="C20" s="28" t="s">
         <v>614</v>
       </c>
@@ -7565,7 +7578,7 @@
       <c r="E20" s="28" t="s">
         <v>550</v>
       </c>
-      <c r="F20" s="68" t="s">
+      <c r="F20" s="51" t="s">
         <v>547</v>
       </c>
       <c r="G20" s="38" t="s">
@@ -7575,18 +7588,18 @@
         <v>556</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="B21" s="66"/>
+    <row r="21" spans="2:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="B21" s="99"/>
       <c r="C21" s="28" t="s">
         <v>615</v>
       </c>
-      <c r="D21" s="62" t="s">
+      <c r="D21" s="28" t="s">
         <v>553</v>
       </c>
       <c r="E21" s="28" t="s">
         <v>551</v>
       </c>
-      <c r="F21" s="68" t="s">
+      <c r="F21" s="51" t="s">
         <v>523</v>
       </c>
       <c r="G21" s="38" t="s">
@@ -7596,78 +7609,86 @@
         <v>556</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B22" s="91" t="s">
+    <row r="22" spans="2:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="B22" s="100" t="s">
         <v>136</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="D22" s="83" t="s">
+      <c r="D22" s="27" t="s">
         <v>492</v>
       </c>
-      <c r="E22" s="62" t="s">
+      <c r="E22" s="28" t="s">
         <v>589</v>
       </c>
-      <c r="F22" s="88" t="s">
+      <c r="F22" s="51" t="s">
         <v>590</v>
       </c>
       <c r="G22" s="38" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="B23" s="92"/>
-      <c r="C23" s="62" t="s">
+    <row r="23" spans="2:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="B23" s="101"/>
+      <c r="C23" s="28" t="s">
         <v>616</v>
       </c>
-      <c r="D23" s="62" t="s">
+      <c r="D23" s="28" t="s">
         <v>597</v>
       </c>
       <c r="E23" s="28" t="s">
         <v>598</v>
       </c>
-      <c r="F23" s="68" t="s">
+      <c r="F23" s="51" t="s">
         <v>596</v>
       </c>
       <c r="G23" s="38" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="B24" s="92"/>
-      <c r="C24" s="97" t="s">
+    <row r="24" spans="2:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="B24" s="101"/>
+      <c r="C24" s="70" t="s">
         <v>617</v>
       </c>
-      <c r="D24" s="97" t="s">
+      <c r="D24" s="70" t="s">
         <v>519</v>
       </c>
-      <c r="E24" s="98" t="s">
+      <c r="E24" s="70" t="s">
         <v>622</v>
       </c>
-      <c r="F24" s="99" t="s">
+      <c r="F24" s="71" t="s">
         <v>623</v>
       </c>
-      <c r="G24" s="76" t="s">
+      <c r="G24" s="30" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="42" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="100"/>
-      <c r="C25" s="70" t="s">
+    <row r="25" spans="2:8" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="102"/>
+      <c r="C25" s="52" t="s">
         <v>617</v>
       </c>
-      <c r="D25" s="89" t="s">
+      <c r="D25" s="64" t="s">
         <v>585</v>
       </c>
-      <c r="E25" s="89" t="s">
+      <c r="E25" s="64" t="s">
         <v>587</v>
       </c>
-      <c r="F25" s="90" t="s">
+      <c r="F25" s="65" t="s">
         <v>583</v>
       </c>
       <c r="G25" s="38" t="s">
         <v>600</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C26" s="104" t="s">
+        <v>628</v>
+      </c>
+      <c r="F26" s="105" t="s">
+        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -7691,216 +7712,216 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.9296875" customWidth="1"/>
-    <col min="3" max="3" width="21.3984375" customWidth="1"/>
-    <col min="4" max="4" width="20.9296875" customWidth="1"/>
-    <col min="5" max="5" width="25.59765625" customWidth="1"/>
-    <col min="6" max="6" width="41.265625" customWidth="1"/>
-    <col min="7" max="7" width="15.59765625" customWidth="1"/>
+    <col min="2" max="2" width="14.9140625" customWidth="1"/>
+    <col min="3" max="3" width="21.4140625" customWidth="1"/>
+    <col min="4" max="4" width="20.9140625" customWidth="1"/>
+    <col min="5" max="5" width="25.58203125" customWidth="1"/>
+    <col min="6" max="6" width="41.25" customWidth="1"/>
+    <col min="7" max="7" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="2:7" ht="20.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="63" t="s">
+    <row r="4" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:7" ht="20" x14ac:dyDescent="0.4">
+      <c r="B5" s="96" t="s">
         <v>484</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="65"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="85" t="s">
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="98"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="61" t="s">
         <v>496</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="60" t="s">
         <v>497</v>
       </c>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="60" t="s">
         <v>567</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="62" t="s">
         <v>568</v>
       </c>
       <c r="F6" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="66" t="s">
+    <row r="7" spans="2:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="B7" s="99" t="s">
         <v>520</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="58" t="s">
         <v>612</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>425</v>
       </c>
-      <c r="E7" s="82" t="s">
+      <c r="E7" s="59" t="s">
         <v>570</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="49" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B8" s="66"/>
+    <row r="8" spans="2:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="B8" s="99"/>
       <c r="C8" s="28" t="s">
         <v>618</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>602</v>
       </c>
-      <c r="E8" s="82" t="s">
+      <c r="E8" s="59" t="s">
         <v>603</v>
       </c>
-      <c r="F8" s="61" t="s">
+      <c r="F8" s="49" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B9" s="66"/>
+    <row r="9" spans="2:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="B9" s="99"/>
       <c r="C9" s="28" t="s">
         <v>619</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>425</v>
       </c>
-      <c r="E9" s="68" t="s">
+      <c r="E9" s="51" t="s">
         <v>571</v>
       </c>
-      <c r="F9" s="61" t="s">
+      <c r="F9" s="49" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B10" s="66"/>
-      <c r="C10" s="81" t="s">
+    <row r="10" spans="2:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="B10" s="99"/>
+      <c r="C10" s="58" t="s">
         <v>612</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>576</v>
       </c>
-      <c r="E10" s="68" t="s">
+      <c r="E10" s="51" t="s">
         <v>572</v>
       </c>
-      <c r="F10" s="87" t="s">
+      <c r="F10" s="63" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B11" s="66"/>
+    <row r="11" spans="2:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="B11" s="99"/>
       <c r="C11" s="28" t="s">
         <v>620</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>425</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="51" t="s">
         <v>573</v>
       </c>
-      <c r="F11" s="61" t="s">
+      <c r="F11" s="49" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="B12" s="66"/>
+    <row r="12" spans="2:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="B12" s="99"/>
       <c r="C12" s="28" t="s">
         <v>620</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="E12" s="68" t="s">
+      <c r="E12" s="51" t="s">
         <v>574</v>
       </c>
-      <c r="F12" s="61" t="s">
+      <c r="F12" s="49" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B13" s="66" t="s">
+    <row r="13" spans="2:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="B13" s="99" t="s">
         <v>558</v>
       </c>
       <c r="C13" s="28" t="s">
         <v>614</v>
       </c>
-      <c r="D13" s="83" t="s">
+      <c r="D13" s="27" t="s">
         <v>580</v>
       </c>
-      <c r="E13" s="68" t="s">
+      <c r="E13" s="51" t="s">
         <v>563</v>
       </c>
-      <c r="F13" s="61" t="s">
+      <c r="F13" s="49" t="s">
         <v>559</v>
       </c>
-      <c r="G13" s="62" t="s">
+      <c r="G13" s="28" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="55.9" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="66"/>
+    <row r="14" spans="2:7" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="99"/>
       <c r="C14" s="28" t="s">
         <v>621</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>425</v>
       </c>
-      <c r="E14" s="68" t="s">
+      <c r="E14" s="51" t="s">
         <v>561</v>
       </c>
-      <c r="F14" s="61" t="s">
+      <c r="F14" s="49" t="s">
         <v>624</v>
       </c>
-      <c r="G14" s="70" t="s">
+      <c r="G14" s="52" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B15" s="66" t="s">
+    <row r="15" spans="2:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="B15" s="99" t="s">
         <v>136</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="28" t="s">
         <v>581</v>
       </c>
-      <c r="D15" s="83" t="s">
+      <c r="D15" s="27" t="s">
         <v>425</v>
       </c>
-      <c r="E15" s="68" t="s">
+      <c r="E15" s="51" t="s">
         <v>608</v>
       </c>
       <c r="F15" s="38" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B16" s="66"/>
-      <c r="C16" s="62" t="s">
+    <row r="16" spans="2:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="B16" s="99"/>
+      <c r="C16" s="28" t="s">
         <v>581</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>626</v>
       </c>
-      <c r="E16" s="68" t="s">
+      <c r="E16" s="51" t="s">
         <v>625</v>
       </c>
-      <c r="F16" s="60" t="s">
+      <c r="F16" s="48" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="42" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="69"/>
-      <c r="C17" s="70" t="s">
+    <row r="17" spans="2:6" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="103"/>
+      <c r="C17" s="52" t="s">
         <v>581</v>
       </c>
-      <c r="D17" s="103" t="s">
+      <c r="D17" s="74" t="s">
         <v>575</v>
       </c>
-      <c r="E17" s="104" t="s">
+      <c r="E17" s="75" t="s">
         <v>627</v>
       </c>
-      <c r="F17" s="102" t="s">
+      <c r="F17" s="73" t="s">
         <v>326</v>
       </c>
     </row>
@@ -7918,6 +7939,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="74117954-47dd-4623-be10-f2d34b3fe6e8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100650C27B66691BA4BB901C940018B449F" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="856977a71e7c379887d8f02f6ee17dc3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="74117954-47dd-4623-be10-f2d34b3fe6e8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f93a31a691d6cd74e693f1feb46bcb1" ns3:_="">
     <xsd:import namespace="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
@@ -8061,37 +8099,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="74117954-47dd-4623-be10-f2d34b3fe6e8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{411558D9-DEA1-49BF-987E-1A683BCBCD59}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16812470-A4E1-4DBD-AEE1-4642C4933AF0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8113,9 +8124,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16812470-A4E1-4DBD-AEE1-4642C4933AF0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{411558D9-DEA1-49BF-987E-1A683BCBCD59}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ML Apply in OS/summary (new version).xlsx
+++ b/ML Apply in OS/summary (new version).xlsx
@@ -5,17 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research-23\AIOS\ML Apply in OS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HKU\HKU\23Fall\AI-OS\ML Apply in OS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2618214D-BD7E-4881-999A-766CFADC4932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AAD84D-FAAC-4C69-A8ED-4AB5ABAE892F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="682">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1113,10 +1115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Use deep learning to help design a cache replacement policy; Model:  LSTM with an attention mechanism; Analyze the result and propose an SVM based predictor; Use  33 memory sensitive applications;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Experience-Driven Congestion Control: When Multi-Path TCP Meets Deep Reinforcement Learning</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1151,26 +1149,6 @@
   </si>
   <si>
     <t>Propose a page scheduler execute across hybrid memory components. Put hot pages in fast access and cold pages in slow access; Use tensor-flow to realize; in user-level. Trains an individual RNN for each of the important pages.  Data collection: traces of the data accesses that missed the last level of processor hardware caches and resulted in main memory accesses.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeepPrefetcher: A Deep Learning Framework for Data Prefetching in Flash Storage Devices</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IEEE Transactions on computer-aided design of integrated circuits and systems</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LD Features: the difference between successive access requests</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logical block address (LBA) value next time stamp.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LSTM+Fully-connected layer; Dataset: MSR Cambridge Block I/O trace. Learn block access pattern for fast storage device.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2515,6 +2493,222 @@
   </si>
   <si>
     <t>whether a given cache block will be reused (positive) or not (negative)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC, Block Address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perceptron learning for reuse prediction</t>
+  </si>
+  <si>
+    <t>PC, Block Address, data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multiperspective Reuse Prediction</t>
+  </si>
+  <si>
+    <t>Confidence Value (likelihood of the block that will be reused in the future)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confidence Value </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 features (PC, Block Address, burst…)</t>
+  </si>
+  <si>
+    <t>7 features (PC, Block Address, burst…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Applying Deep Learning to the Cache Replacement Problem</t>
+  </si>
+  <si>
+    <t>cache-friendly or cache-averse.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a sequence of loads identified by their PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use deep learning to help design a cache replacement policy; Model:  LSTM with an attention mechanism; Analyze the result and propose an SVM based predictor; Use  33 memory sensitive applications; Have many SVMs, use hash to map different PC to different SVMs.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实不太明白为什么一定要再加一个hash，直接把current PC当作一个输入不可以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Cache Prefetching with Perceptron Learning</t>
+  </si>
+  <si>
+    <t>Prefetch Mechanism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k-sparse binary history features</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suggested prefetch memory block, recent memory access history</t>
+  </si>
+  <si>
+    <t>suggested prefetch memory block, recent memory access history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whether to prefetch or not</t>
+  </si>
+  <si>
+    <t>whether to prefetch or not</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long short term memory based hardware prefetcher: A case study.</t>
+  </si>
+  <si>
+    <t>delta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>history memory access, delta</t>
+  </si>
+  <si>
+    <t>history memory access</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> a sequence of PCs
+and memory address deltas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a sequence of PCs
+and memory address deltas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memory address
+delta</t>
+  </si>
+  <si>
+    <t>memory address
+delta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSTM,k-keams</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learning Memory Access Patterns</t>
+  </si>
+  <si>
+    <t>Understanding Memory Access Patterns for Prefetching</t>
+  </si>
+  <si>
+    <t>NeuIPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pythia: A Customizable Hardware Prefetching Framework
+Using Online Reinforcement Learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MICRO-54: 54th Annual IEEE/ACM International Symposium on Microarchitecture</t>
+  </si>
+  <si>
+    <t>reinforcement; prefetch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a page sequence and an offset sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>next access page and offset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Neural Hierarchical Sequence Model for Irregular Data Prefetching</t>
+  </si>
+  <si>
+    <t>page and offset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page and pffset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perceptron-based prefetch filtering.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2 cache access stream and metadata from prefetcher</t>
+  </si>
+  <si>
+    <t>L2 cache access stream and metadata from prefetcher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransforMAP: Transformer for Memory Access Prediction</t>
+  </si>
+  <si>
+    <t>Transformer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>history sequence of historical block addresses</t>
+  </si>
+  <si>
+    <t>history sequence of historical block addresses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desired block index for current page</t>
+  </si>
+  <si>
+    <t>desired block index for current page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arxiv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANN, Decision Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 features</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workload type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Improving Storage Systems Using Machine Learning</t>
+  </si>
+  <si>
+    <t>Page Replacement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vanilla RNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kleio: A Hybrid Memory Page Scheduler with Machine
+ Intelligence</t>
+  </si>
+  <si>
+    <t>Memory Management</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2590,7 +2784,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2677,18 +2871,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -3017,23 +3205,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3176,12 +3353,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3232,28 +3403,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3263,6 +3424,24 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3272,24 +3451,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3314,10 +3475,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3609,22 +3818,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+    <sheetView topLeftCell="A108" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="48.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="48.46484375" style="7" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="7"/>
-    <col min="5" max="5" width="42.25" style="7" customWidth="1"/>
+    <col min="5" max="5" width="42.265625" style="7" customWidth="1"/>
     <col min="6" max="6" width="58.6640625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="20.08203125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="38.25" style="7" customWidth="1"/>
+    <col min="7" max="7" width="20.06640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="38.265625" style="7" customWidth="1"/>
     <col min="9" max="9" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3644,17 +3853,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C2" s="90" t="s">
+    <row r="2" spans="1:31" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C2" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="92"/>
-    </row>
-    <row r="3" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="83"/>
+    </row>
+    <row r="3" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3" s="10" t="s">
@@ -3699,7 +3908,7 @@
       <c r="AD3"/>
       <c r="AE3"/>
     </row>
-    <row r="4" spans="1:31" s="11" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" s="11" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4" s="10" t="s">
@@ -3744,7 +3953,7 @@
       <c r="AD4"/>
       <c r="AE4"/>
     </row>
-    <row r="5" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5" s="6" t="s">
@@ -3789,7 +3998,7 @@
       <c r="AD5"/>
       <c r="AE5"/>
     </row>
-    <row r="6" spans="1:31" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" s="9" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6" s="8" t="s">
@@ -3834,7 +4043,7 @@
       <c r="AD6"/>
       <c r="AE6"/>
     </row>
-    <row r="7" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7" s="6" t="s">
@@ -3879,7 +4088,7 @@
       <c r="AD7"/>
       <c r="AE7"/>
     </row>
-    <row r="8" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8" s="6" t="s">
@@ -3924,7 +4133,7 @@
       <c r="AD8"/>
       <c r="AE8"/>
     </row>
-    <row r="9" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9" s="8" t="s">
@@ -3969,7 +4178,7 @@
       <c r="AD9"/>
       <c r="AE9"/>
     </row>
-    <row r="10" spans="1:31" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10" s="8" t="s">
@@ -4014,7 +4223,7 @@
       <c r="AD10"/>
       <c r="AE10"/>
     </row>
-    <row r="11" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11" s="6" t="s">
@@ -4059,7 +4268,7 @@
       <c r="AD11"/>
       <c r="AE11"/>
     </row>
-    <row r="12" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12" s="6" t="s">
@@ -4104,7 +4313,7 @@
       <c r="AD12"/>
       <c r="AE12"/>
     </row>
-    <row r="13" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13" s="6" t="s">
@@ -4149,7 +4358,7 @@
       <c r="AD13"/>
       <c r="AE13"/>
     </row>
-    <row r="14" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14" s="6" t="s">
@@ -4194,7 +4403,7 @@
       <c r="AD14"/>
       <c r="AE14"/>
     </row>
-    <row r="15" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" s="2" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15" s="6" t="s">
@@ -4239,17 +4448,17 @@
       <c r="AD15"/>
       <c r="AE15"/>
     </row>
-    <row r="16" spans="1:31" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C16" s="84" t="s">
+    <row r="16" spans="1:31" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C16" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="86"/>
-    </row>
-    <row r="17" spans="1:33" s="11" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="80"/>
+    </row>
+    <row r="17" spans="1:33" s="11" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17" s="10" t="s">
@@ -4296,7 +4505,7 @@
       <c r="AF17"/>
       <c r="AG17"/>
     </row>
-    <row r="18" spans="1:33" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" s="9" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18" s="8" t="s">
@@ -4343,7 +4552,7 @@
       <c r="AF18"/>
       <c r="AG18"/>
     </row>
-    <row r="19" spans="1:33" s="9" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" s="9" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19" s="8" t="s">
@@ -4390,7 +4599,7 @@
       <c r="AF19"/>
       <c r="AG19"/>
     </row>
-    <row r="20" spans="1:33" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" s="9" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20" s="8" t="s">
@@ -4437,9 +4646,9 @@
       <c r="AF20"/>
       <c r="AG20"/>
     </row>
-    <row r="21" spans="1:33" ht="56" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" ht="55.5" x14ac:dyDescent="0.4">
       <c r="C21" s="6" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D21" s="6">
         <v>2002</v>
@@ -4448,16 +4657,16 @@
         <v>10</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22" s="8" t="s">
@@ -4504,7 +4713,7 @@
       <c r="AF22"/>
       <c r="AG22"/>
     </row>
-    <row r="23" spans="1:33" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23" s="6" t="s">
@@ -4520,10 +4729,10 @@
         <v>60</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
@@ -4551,9 +4760,9 @@
       <c r="AF23"/>
       <c r="AG23"/>
     </row>
-    <row r="24" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C24" s="6" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D24" s="6">
         <v>2013</v>
@@ -4562,16 +4771,16 @@
         <v>10</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" s="3" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25" s="8" t="s">
@@ -4618,7 +4827,7 @@
       <c r="AF25"/>
       <c r="AG25"/>
     </row>
-    <row r="26" spans="1:33" s="11" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" s="11" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26" s="10" t="s">
@@ -4665,7 +4874,7 @@
       <c r="AF26"/>
       <c r="AG26"/>
     </row>
-    <row r="27" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27" s="34" t="s">
@@ -4712,24 +4921,24 @@
       <c r="AF27"/>
       <c r="AG27"/>
     </row>
-    <row r="28" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28" s="36" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D28" s="36">
         <v>2019</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F28" s="36"/>
       <c r="G28" s="36" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="I28"/>
       <c r="J28"/>
@@ -4757,11 +4966,11 @@
       <c r="AF28"/>
       <c r="AG28"/>
     </row>
-    <row r="29" spans="1:33" s="35" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" s="35" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="27"/>
       <c r="B29" s="27"/>
       <c r="C29" s="6" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D29" s="6">
         <v>2020</v>
@@ -4771,10 +4980,10 @@
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="I29" s="27"/>
       <c r="J29" s="27"/>
@@ -4802,24 +5011,24 @@
       <c r="AF29" s="27"/>
       <c r="AG29" s="27"/>
     </row>
-    <row r="30" spans="1:33" s="11" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" s="11" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30" s="6" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D30" s="6">
         <v>2022</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
@@ -4847,17 +5056,17 @@
       <c r="AF30"/>
       <c r="AG30"/>
     </row>
-    <row r="31" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C31" s="93" t="s">
+    <row r="31" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C31" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="94"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="95"/>
-    </row>
-    <row r="32" spans="1:33" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="86"/>
+    </row>
+    <row r="32" spans="1:33" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32" s="6" t="s">
@@ -4904,7 +5113,7 @@
       <c r="AF32"/>
       <c r="AG32"/>
     </row>
-    <row r="33" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" s="13" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33" s="12" t="s">
@@ -4951,7 +5160,7 @@
       <c r="AF33"/>
       <c r="AG33"/>
     </row>
-    <row r="34" spans="1:33" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" s="2" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34" s="6" t="s">
@@ -4998,7 +5207,7 @@
       <c r="AF34"/>
       <c r="AG34"/>
     </row>
-    <row r="35" spans="1:33" s="11" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" s="11" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35" s="10" t="s">
@@ -5045,7 +5254,7 @@
       <c r="AF35"/>
       <c r="AG35"/>
     </row>
-    <row r="36" spans="1:33" s="13" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" s="13" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36" s="12" t="s">
@@ -5092,7 +5301,7 @@
       <c r="AF36"/>
       <c r="AG36"/>
     </row>
-    <row r="37" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33" s="13" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37" s="12" t="s">
@@ -5139,7 +5348,7 @@
       <c r="AF37"/>
       <c r="AG37"/>
     </row>
-    <row r="38" spans="1:33" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38" s="12" t="s">
@@ -5186,7 +5395,7 @@
       <c r="AF38"/>
       <c r="AG38"/>
     </row>
-    <row r="39" spans="1:33" s="11" customFormat="1" ht="56.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33" s="11" customFormat="1" ht="56.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39" s="10" t="s">
@@ -5233,7 +5442,7 @@
       <c r="AF39"/>
       <c r="AG39"/>
     </row>
-    <row r="40" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:33" s="13" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40" s="12" t="s">
@@ -5280,7 +5489,7 @@
       <c r="AF40"/>
       <c r="AG40"/>
     </row>
-    <row r="41" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:33" s="13" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41" s="12" t="s">
@@ -5327,7 +5536,7 @@
       <c r="AF41"/>
       <c r="AG41"/>
     </row>
-    <row r="42" spans="1:33" ht="42" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:33" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C42" s="12" t="s">
         <v>95</v>
       </c>
@@ -5347,7 +5556,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:33" ht="42" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:33" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C43" s="12" t="s">
         <v>96</v>
       </c>
@@ -5367,17 +5576,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C44" s="84" t="s">
+    <row r="44" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C44" s="78" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="85"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="86"/>
-    </row>
-    <row r="45" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+      <c r="D44" s="79"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="79"/>
+      <c r="H44" s="80"/>
+    </row>
+    <row r="45" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C45" s="8" t="s">
         <v>198</v>
       </c>
@@ -5397,7 +5606,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C46" s="8" t="s">
         <v>195</v>
       </c>
@@ -5417,7 +5626,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C47" s="18" t="s">
         <v>208</v>
       </c>
@@ -5437,7 +5646,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="48" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C48" s="18" t="s">
         <v>210</v>
       </c>
@@ -5457,7 +5666,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="49" spans="3:8" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C49" s="19" t="s">
         <v>160</v>
       </c>
@@ -5477,7 +5686,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="50" spans="3:8" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C50" s="16" t="s">
         <v>186</v>
       </c>
@@ -5497,7 +5706,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C51" s="8" t="s">
         <v>150</v>
       </c>
@@ -5517,7 +5726,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C52" s="8" t="s">
         <v>144</v>
       </c>
@@ -5537,7 +5746,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C53" s="8" t="s">
         <v>172</v>
       </c>
@@ -5557,7 +5766,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="54" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C54" s="8" t="s">
         <v>143</v>
       </c>
@@ -5577,7 +5786,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C55" s="8" t="s">
         <v>176</v>
       </c>
@@ -5597,7 +5806,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C56" s="8" t="s">
         <v>188</v>
       </c>
@@ -5617,7 +5826,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C57" s="8" t="s">
         <v>140</v>
       </c>
@@ -5637,7 +5846,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C58" s="8" t="s">
         <v>191</v>
       </c>
@@ -5657,7 +5866,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="59" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C59" s="8" t="s">
         <v>166</v>
       </c>
@@ -5677,7 +5886,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="3:8" ht="56" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
       <c r="C60" s="8" t="s">
         <v>179</v>
       </c>
@@ -5697,7 +5906,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="61" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C61" s="18" t="s">
         <v>205</v>
       </c>
@@ -5717,7 +5926,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="3:8" ht="56" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
       <c r="C62" s="8" t="s">
         <v>154</v>
       </c>
@@ -5737,7 +5946,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C63" s="8" t="s">
         <v>183</v>
       </c>
@@ -5757,7 +5966,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C64" s="8" t="s">
         <v>157</v>
       </c>
@@ -5777,64 +5986,64 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C65" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E65" s="37" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="66" spans="3:8" s="38" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" s="38" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C66" s="8" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="D66" s="8">
         <v>2011</v>
       </c>
       <c r="E66" s="39" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="67" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C67" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="D67" s="7">
         <v>2015</v>
       </c>
       <c r="E67" s="37" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="68" spans="3:8" s="38" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" s="38" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C68" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D68" s="7">
         <v>2016</v>
       </c>
       <c r="E68" s="28" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="69" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C69" s="18" t="s">
         <v>162</v>
       </c>
@@ -5854,31 +6063,31 @@
         <v>201</v>
       </c>
     </row>
-    <row r="70" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C70" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D70" s="7">
         <v>2023</v>
       </c>
       <c r="E70" s="37" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="71" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C71" s="84" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C71" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="D71" s="85"/>
-      <c r="E71" s="85"/>
-      <c r="F71" s="85"/>
-      <c r="G71" s="85"/>
-      <c r="H71" s="86"/>
-    </row>
-    <row r="72" spans="3:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D71" s="79"/>
+      <c r="E71" s="79"/>
+      <c r="F71" s="79"/>
+      <c r="G71" s="79"/>
+      <c r="H71" s="80"/>
+    </row>
+    <row r="72" spans="3:8" ht="15" x14ac:dyDescent="0.4">
       <c r="C72" s="21" t="s">
         <v>0</v>
       </c>
@@ -5898,7 +6107,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="73" spans="3:8" ht="98" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:8" ht="97.15" x14ac:dyDescent="0.4">
       <c r="C73" s="7" t="s">
         <v>223</v>
       </c>
@@ -5912,7 +6121,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="74" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C74" s="7" t="s">
         <v>217</v>
       </c>
@@ -5926,7 +6135,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="75" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C75" s="7" t="s">
         <v>219</v>
       </c>
@@ -5940,7 +6149,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="76" spans="3:8" ht="70.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:8" ht="70.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C76" s="7" t="s">
         <v>221</v>
       </c>
@@ -5954,17 +6163,17 @@
         <v>225</v>
       </c>
     </row>
-    <row r="77" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C77" s="84" t="s">
+    <row r="77" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C77" s="78" t="s">
         <v>230</v>
       </c>
-      <c r="D77" s="85"/>
-      <c r="E77" s="85"/>
-      <c r="F77" s="85"/>
-      <c r="G77" s="85"/>
-      <c r="H77" s="86"/>
-    </row>
-    <row r="78" spans="3:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D77" s="79"/>
+      <c r="E77" s="79"/>
+      <c r="F77" s="79"/>
+      <c r="G77" s="79"/>
+      <c r="H77" s="80"/>
+    </row>
+    <row r="78" spans="3:8" s="23" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C78" s="22" t="s">
         <v>0</v>
       </c>
@@ -5984,7 +6193,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="79" spans="3:8" s="27" customFormat="1" ht="84" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:8" s="27" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
       <c r="C79" s="32" t="s">
         <v>248</v>
       </c>
@@ -6004,109 +6213,109 @@
         <v>250</v>
       </c>
     </row>
-    <row r="80" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C80" s="42" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D80" s="42">
         <v>2016</v>
       </c>
       <c r="E80" s="42" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="F80" s="42" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="G80" s="42" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="H80" s="42" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="81" spans="3:8" ht="98" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" ht="97.15" x14ac:dyDescent="0.4">
       <c r="C81" s="42" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D81" s="42">
         <v>2019</v>
       </c>
       <c r="E81" s="42" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F81" s="42" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="G81" s="42" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H81" s="42" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="82" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C82" s="42" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D82" s="42">
         <v>2019</v>
       </c>
       <c r="E82" s="42" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F82" s="42" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G82" s="42" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="H82" s="42" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="83" spans="3:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" ht="138" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C83" s="42" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D83" s="42">
         <v>2019</v>
       </c>
       <c r="E83" s="42" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="F83" s="42" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="G83" s="42" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="H83" s="42" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="84" spans="3:8" ht="84" x14ac:dyDescent="0.3">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" ht="111" x14ac:dyDescent="0.4">
       <c r="C84" s="42" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D84" s="42">
         <v>2020</v>
       </c>
       <c r="E84" s="42" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F84" s="42" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G84" s="42" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H84" s="42" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="85" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C85" s="53" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D85" s="53">
         <v>2020</v>
@@ -6115,18 +6324,18 @@
         <v>32</v>
       </c>
       <c r="F85" s="53" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="G85" s="53" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="H85" s="53" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="86" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C86" s="53" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D86" s="53">
         <v>2020</v>
@@ -6135,36 +6344,36 @@
         <v>241</v>
       </c>
       <c r="F86" s="53" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="G86" s="53" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="H86" s="53" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="87" spans="3:8" ht="84" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" ht="83.25" x14ac:dyDescent="0.4">
       <c r="C87" s="32" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D87" s="32">
         <v>2021</v>
       </c>
       <c r="E87" s="32" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="F87" s="32" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="G87" s="32" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="H87" s="32" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="89" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="C89" s="87" t="s">
         <v>235</v>
       </c>
@@ -6174,7 +6383,7 @@
       <c r="G89" s="88"/>
       <c r="H89" s="89"/>
     </row>
-    <row r="90" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C90" s="32" t="s">
         <v>242</v>
       </c>
@@ -6194,27 +6403,27 @@
         <v>246</v>
       </c>
     </row>
-    <row r="91" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C91" s="40" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D91" s="40">
         <v>2007</v>
       </c>
       <c r="E91" s="40" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F91" s="40" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G91" s="40" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="H91" s="40" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="92" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C92" s="40" t="s">
         <v>240</v>
       </c>
@@ -6225,266 +6434,266 @@
         <v>241</v>
       </c>
       <c r="F92" s="40" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="G92" s="40" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="H92" s="40" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="93" spans="3:8" ht="70" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="C93" s="32" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D93" s="32">
         <v>2015</v>
       </c>
       <c r="E93" s="32" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="F93" s="32" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G93" s="32" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="H93" s="32" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="94" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C94" s="41" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D94" s="40">
         <v>2015</v>
       </c>
       <c r="E94" s="40" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F94" s="40" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="G94" s="40" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="H94" s="40" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="95" spans="3:8" ht="56" x14ac:dyDescent="0.3">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
       <c r="C95" s="32" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D95" s="32">
         <v>2016</v>
       </c>
       <c r="E95" s="32" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F95" s="32" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="G95" s="32" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="H95" s="32" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="96" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C96" s="32" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D96" s="32">
         <v>2016</v>
       </c>
       <c r="E96" s="32"/>
       <c r="F96" s="32" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="G96" s="32" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="H96" s="43" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="97" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="97" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C97" s="44" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D97" s="44">
         <v>2016</v>
       </c>
       <c r="E97" s="45" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F97" s="44" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="G97" s="44"/>
       <c r="H97" s="44"/>
     </row>
-    <row r="98" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C98" s="44" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D98" s="44">
         <v>2017</v>
       </c>
       <c r="E98" s="44" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="F98" s="44" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="G98" s="44"/>
       <c r="H98" s="44"/>
     </row>
-    <row r="99" spans="3:8" s="27" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:8" s="27" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
       <c r="C99" s="47" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D99" s="32">
         <v>2017</v>
       </c>
       <c r="E99" s="32" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="F99" s="32" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="G99" s="32" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="H99" s="32" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="100" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="100" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C100" s="46" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D100" s="44">
         <v>2019</v>
       </c>
       <c r="E100" s="44" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F100" s="44" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="G100" s="44"/>
       <c r="H100" s="44"/>
     </row>
-    <row r="101" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C101" s="47" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D101" s="32">
         <v>2019</v>
       </c>
       <c r="E101" s="32" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F101" s="32"/>
       <c r="G101" s="32"/>
       <c r="H101" s="32"/>
     </row>
-    <row r="102" spans="3:8" ht="70" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="C102" s="32" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D102" s="32">
         <v>2020</v>
       </c>
       <c r="E102" s="32" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F102" s="32" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="G102" s="32" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="H102" s="32" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="103" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="103" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C103" s="40" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D103" s="40">
         <v>2020</v>
       </c>
       <c r="E103" s="40" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F103" s="40" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="G103" s="40" t="s">
+        <v>467</v>
+      </c>
+      <c r="H103" s="40" t="s">
         <v>473</v>
       </c>
-      <c r="H103" s="40" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="104" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C104" s="40" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="D104" s="40">
         <v>2021</v>
       </c>
       <c r="E104" s="40" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="F104" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="G104" s="40" t="s">
+        <v>467</v>
+      </c>
+      <c r="H104" s="40" t="s">
         <v>477</v>
       </c>
-      <c r="G104" s="40" t="s">
-        <v>473</v>
-      </c>
-      <c r="H104" s="40" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="105" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C105" s="40" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D105" s="40">
         <v>2022</v>
       </c>
       <c r="E105" s="40" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="F105" s="40" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="G105" s="40" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="H105" s="40" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="107" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C107" s="84" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="107" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C107" s="78" t="s">
         <v>236</v>
       </c>
-      <c r="D107" s="85"/>
-      <c r="E107" s="85"/>
-      <c r="F107" s="85"/>
-      <c r="G107" s="85"/>
-      <c r="H107" s="86"/>
-    </row>
-    <row r="108" spans="3:8" ht="98" x14ac:dyDescent="0.3">
+      <c r="D107" s="79"/>
+      <c r="E107" s="79"/>
+      <c r="F107" s="79"/>
+      <c r="G107" s="79"/>
+      <c r="H107" s="80"/>
+    </row>
+    <row r="108" spans="3:8" ht="111" x14ac:dyDescent="0.4">
       <c r="C108" s="7" t="s">
         <v>238</v>
       </c>
@@ -6495,16 +6704,16 @@
         <v>239</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="109" spans="3:8" ht="56" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="109" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="C109" s="7" t="s">
         <v>254</v>
       </c>
@@ -6524,21 +6733,21 @@
         <v>257</v>
       </c>
     </row>
-    <row r="110" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C110" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D110" s="7">
         <v>2015</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="111" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="111" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C111" s="7" t="s">
         <v>259</v>
       </c>
@@ -6558,57 +6767,67 @@
         <v>262</v>
       </c>
     </row>
-    <row r="112" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C112" s="72" t="s">
+    <row r="112" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C112" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="D112" s="12">
+        <v>2016</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="F112" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="D112" s="72">
-        <v>2016</v>
-      </c>
-      <c r="E112" s="72" t="s">
+      <c r="G112" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="H112" s="12" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="113" spans="3:9" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C113" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="D113" s="12">
+        <v>2017</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="G113" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="H113" s="12" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="114" spans="3:9" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C114" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="F112" s="72" t="s">
-        <v>364</v>
-      </c>
-      <c r="G112" s="72"/>
-      <c r="H112" s="72" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="113" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C113" s="72" t="s">
-        <v>356</v>
-      </c>
-      <c r="D113" s="72">
+      <c r="D114" s="12">
         <v>2017</v>
       </c>
-      <c r="E113" s="72" t="s">
+      <c r="E114" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="F114" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="F113" s="72" t="s">
-        <v>364</v>
-      </c>
-      <c r="G113" s="72"/>
-      <c r="H113" s="72"/>
-    </row>
-    <row r="114" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C114" s="72" t="s">
-        <v>365</v>
-      </c>
-      <c r="D114" s="72">
-        <v>2017</v>
-      </c>
-      <c r="E114" s="72" t="s">
-        <v>366</v>
-      </c>
-      <c r="F114" s="72" t="s">
-        <v>363</v>
-      </c>
-      <c r="G114" s="72"/>
-      <c r="H114" s="72"/>
-    </row>
-    <row r="115" spans="3:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="G114" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="H114" s="12" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="115" spans="3:9" ht="55.5" x14ac:dyDescent="0.4">
       <c r="C115" s="7" t="s">
         <v>154</v>
       </c>
@@ -6619,660 +6838,685 @@
         <v>155</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="116" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C116" s="72" t="s">
-        <v>375</v>
-      </c>
-      <c r="D116" s="72">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="116" spans="3:9" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C116" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="D116" s="12">
         <v>2017</v>
       </c>
-      <c r="E116" s="72" t="s">
-        <v>376</v>
-      </c>
-      <c r="F116" s="72" t="s">
-        <v>377</v>
-      </c>
-      <c r="G116" s="72"/>
-      <c r="H116" s="72"/>
-    </row>
-    <row r="117" spans="3:8" ht="70" x14ac:dyDescent="0.3">
-      <c r="C117" s="72" t="s">
+      <c r="E116" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="G116" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="H116" s="12" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="117" spans="3:9" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="C117" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="D117" s="72">
+      <c r="D117" s="12">
         <v>2018</v>
       </c>
-      <c r="E117" s="72" t="s">
+      <c r="E117" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="F117" s="72" t="s">
+      <c r="F117" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="G117" s="72" t="s">
+      <c r="G117" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="H117" s="72" t="s">
+      <c r="H117" s="12" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="118" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:9" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C118" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D118" s="7">
         <v>2018</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="119" spans="3:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="C119" s="72" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="119" spans="3:9" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C119" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="D119" s="72">
+      <c r="D119" s="12">
         <v>2019</v>
       </c>
-      <c r="E119" s="72" t="s">
+      <c r="E119" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="F119" s="72" t="s">
-        <v>273</v>
-      </c>
-      <c r="G119" s="72" t="s">
+      <c r="F119" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="G119" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="H119" s="72" t="s">
+      <c r="H119" s="12" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="120" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C120" s="72" t="s">
-        <v>361</v>
-      </c>
-      <c r="D120" s="72">
+      <c r="I119" s="99" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="120" spans="3:9" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C120" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="D120" s="12">
         <v>2019</v>
       </c>
-      <c r="E120" s="72" t="s">
-        <v>362</v>
-      </c>
-      <c r="F120" s="72" t="s">
-        <v>363</v>
-      </c>
-      <c r="G120" s="72"/>
-      <c r="H120" s="72"/>
-    </row>
-    <row r="121" spans="3:8" s="14" customFormat="1" ht="84" x14ac:dyDescent="0.3">
-      <c r="C121" s="55" t="s">
+      <c r="E120" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="G120" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="H120" s="12"/>
+    </row>
+    <row r="121" spans="3:9" s="14" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="C121" s="103" t="s">
+        <v>277</v>
+      </c>
+      <c r="D121" s="12">
+        <v>2019</v>
+      </c>
+      <c r="E121" s="103" t="s">
         <v>278</v>
       </c>
-      <c r="D121" s="72">
+      <c r="F121" s="103" t="s">
+        <v>281</v>
+      </c>
+      <c r="G121" s="103" t="s">
+        <v>279</v>
+      </c>
+      <c r="H121" s="103" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="122" spans="3:9" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C122" s="103" t="s">
+        <v>364</v>
+      </c>
+      <c r="D122" s="12">
         <v>2019</v>
       </c>
-      <c r="E121" s="55" t="s">
-        <v>279</v>
-      </c>
-      <c r="F121" s="55" t="s">
-        <v>282</v>
-      </c>
-      <c r="G121" s="55" t="s">
-        <v>280</v>
-      </c>
-      <c r="H121" s="55" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="122" spans="3:8" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C122" s="80" t="s">
-        <v>370</v>
-      </c>
-      <c r="D122" s="56">
+      <c r="E122" s="103" t="s">
+        <v>365</v>
+      </c>
+      <c r="F122" s="103" t="s">
+        <v>366</v>
+      </c>
+      <c r="G122" s="103" t="s">
+        <v>648</v>
+      </c>
+      <c r="H122" s="103" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="123" spans="3:9" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C123" s="74" t="s">
+        <v>283</v>
+      </c>
+      <c r="D123" s="75">
+        <v>2020</v>
+      </c>
+      <c r="E123" s="76" t="s">
+        <v>284</v>
+      </c>
+      <c r="F123" s="74" t="s">
+        <v>287</v>
+      </c>
+      <c r="G123" s="74" t="s">
+        <v>286</v>
+      </c>
+      <c r="H123" s="74" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="124" spans="3:9" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C124" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="D124" s="54">
+        <v>2021</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F124" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="G124" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="H124" s="25" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="125" spans="3:9" s="33" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C125" s="103" t="s">
+        <v>432</v>
+      </c>
+      <c r="D125" s="105">
+        <v>2022</v>
+      </c>
+      <c r="E125" s="106" t="s">
+        <v>673</v>
+      </c>
+      <c r="F125" s="103" t="s">
+        <v>668</v>
+      </c>
+      <c r="G125" s="103" t="s">
+        <v>669</v>
+      </c>
+      <c r="H125" s="103" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="126" spans="3:9" s="100" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C126" s="101" t="s">
+        <v>656</v>
+      </c>
+      <c r="D126" s="102">
+        <v>2021</v>
+      </c>
+      <c r="E126" s="101" t="s">
+        <v>657</v>
+      </c>
+      <c r="F126" s="101" t="s">
+        <v>658</v>
+      </c>
+      <c r="G126" s="101"/>
+      <c r="H126" s="101"/>
+    </row>
+    <row r="127" spans="3:9" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C127" s="103" t="s">
+        <v>367</v>
+      </c>
+      <c r="D127" s="104">
         <v>2019</v>
       </c>
-      <c r="E122" s="80" t="s">
-        <v>371</v>
-      </c>
-      <c r="F122" s="80" t="s">
-        <v>372</v>
-      </c>
-      <c r="G122" s="80"/>
-      <c r="H122" s="80"/>
-    </row>
-    <row r="123" spans="3:8" s="14" customFormat="1" ht="56" x14ac:dyDescent="0.3">
-      <c r="C123" s="80" t="s">
-        <v>283</v>
-      </c>
-      <c r="D123" s="56">
-        <v>2020</v>
-      </c>
-      <c r="E123" s="80" t="s">
-        <v>284</v>
-      </c>
-      <c r="F123" s="80" t="s">
-        <v>287</v>
-      </c>
-      <c r="G123" s="80" t="s">
-        <v>285</v>
-      </c>
-      <c r="H123" s="80" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="124" spans="3:8" s="14" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="C124" s="76" t="s">
-        <v>289</v>
-      </c>
-      <c r="D124" s="77">
-        <v>2020</v>
-      </c>
-      <c r="E124" s="78" t="s">
-        <v>290</v>
-      </c>
-      <c r="F124" s="76" t="s">
-        <v>293</v>
-      </c>
-      <c r="G124" s="76" t="s">
-        <v>292</v>
-      </c>
-      <c r="H124" s="76" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="125" spans="3:8" s="14" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="C125" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="D125" s="54">
-        <v>2021</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F125" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="G125" s="25" t="s">
-        <v>316</v>
-      </c>
-      <c r="H125" s="25" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="126" spans="3:8" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C126" s="80" t="s">
-        <v>438</v>
-      </c>
-      <c r="D126" s="81">
-        <v>2022</v>
-      </c>
-      <c r="E126" s="82"/>
-      <c r="F126" s="80"/>
-      <c r="G126" s="80"/>
-      <c r="H126" s="80"/>
-    </row>
-    <row r="127" spans="3:8" ht="98" x14ac:dyDescent="0.3">
-      <c r="C127" s="56" t="s">
-        <v>307</v>
-      </c>
-      <c r="D127" s="56">
+      <c r="E127" s="103" t="s">
+        <v>655</v>
+      </c>
+      <c r="F127" s="103" t="s">
+        <v>368</v>
+      </c>
+      <c r="G127" s="103" t="s">
+        <v>662</v>
+      </c>
+      <c r="H127" s="103" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="128" spans="3:9" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="C128" s="77" t="s">
+        <v>586</v>
+      </c>
+      <c r="D128" s="77">
         <v>2023</v>
       </c>
-      <c r="E127" s="56" t="s">
-        <v>306</v>
-      </c>
-      <c r="F127" s="56" t="s">
-        <v>310</v>
-      </c>
-      <c r="G127" s="56" t="s">
-        <v>308</v>
-      </c>
-      <c r="H127" s="56" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="128" spans="3:8" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C128" s="80" t="s">
-        <v>373</v>
-      </c>
-      <c r="D128" s="83"/>
-      <c r="E128" s="80"/>
-      <c r="F128" s="80" t="s">
-        <v>374</v>
-      </c>
-      <c r="G128" s="80"/>
-      <c r="H128" s="80"/>
-    </row>
-    <row r="129" spans="3:8" ht="70" x14ac:dyDescent="0.3">
-      <c r="C129" s="79" t="s">
-        <v>592</v>
-      </c>
-      <c r="D129" s="79">
-        <v>2023</v>
-      </c>
-      <c r="E129" s="79" t="s">
-        <v>593</v>
-      </c>
-      <c r="F129" s="79" t="s">
-        <v>594</v>
-      </c>
-      <c r="G129" s="79" t="s">
-        <v>595</v>
-      </c>
-      <c r="H129" s="79" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="130" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C130" s="87" t="s">
+      <c r="E128" s="77" t="s">
+        <v>587</v>
+      </c>
+      <c r="F128" s="77" t="s">
+        <v>588</v>
+      </c>
+      <c r="G128" s="77" t="s">
+        <v>589</v>
+      </c>
+      <c r="H128" s="77" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="129" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C129" s="87" t="s">
         <v>237</v>
       </c>
-      <c r="D130" s="88"/>
-      <c r="E130" s="88"/>
-      <c r="F130" s="88"/>
-      <c r="G130" s="88"/>
-      <c r="H130" s="89"/>
-    </row>
-    <row r="131" spans="3:8" s="25" customFormat="1" ht="56" x14ac:dyDescent="0.3">
-      <c r="C131" s="25" t="s">
-        <v>413</v>
-      </c>
-      <c r="D131" s="25">
+      <c r="D129" s="88"/>
+      <c r="E129" s="88"/>
+      <c r="F129" s="88"/>
+      <c r="G129" s="88"/>
+      <c r="H129" s="89"/>
+    </row>
+    <row r="130" spans="3:8" s="25" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C130" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="D130" s="25">
         <v>2016</v>
       </c>
-      <c r="E131" s="25" t="s">
-        <v>414</v>
-      </c>
-      <c r="F131" s="25" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="132" spans="3:8" s="29" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="E130" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="F130" s="25" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="131" spans="3:8" s="29" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C131" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="D131" s="30">
+        <v>2017</v>
+      </c>
+      <c r="E131" t="s">
+        <v>428</v>
+      </c>
+      <c r="F131" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="G131" s="30"/>
+      <c r="H131" s="30"/>
+    </row>
+    <row r="132" spans="3:8" s="29" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C132" s="30" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="D132" s="30">
-        <v>2017</v>
-      </c>
-      <c r="E132" t="s">
-        <v>434</v>
+        <v>2018</v>
+      </c>
+      <c r="E132" s="27" t="s">
+        <v>411</v>
       </c>
       <c r="F132" s="30" t="s">
-        <v>435</v>
+        <v>412</v>
       </c>
       <c r="G132" s="30"/>
       <c r="H132" s="30"/>
     </row>
-    <row r="133" spans="3:8" s="29" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:8" s="29" customFormat="1" ht="111" x14ac:dyDescent="0.4">
       <c r="C133" s="30" t="s">
         <v>416</v>
       </c>
       <c r="D133" s="30">
         <v>2018</v>
       </c>
-      <c r="E133" s="27" t="s">
+      <c r="E133" s="31" t="s">
         <v>417</v>
       </c>
       <c r="F133" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="G133" s="30" t="s">
         <v>418</v>
       </c>
-      <c r="G133" s="30"/>
-      <c r="H133" s="30"/>
-    </row>
-    <row r="134" spans="3:8" s="29" customFormat="1" ht="112" x14ac:dyDescent="0.3">
-      <c r="C134" s="30" t="s">
-        <v>422</v>
-      </c>
-      <c r="D134" s="30">
-        <v>2018</v>
-      </c>
-      <c r="E134" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="F134" s="30" t="s">
-        <v>425</v>
-      </c>
-      <c r="G134" s="30" t="s">
-        <v>424</v>
-      </c>
-      <c r="H134" s="30" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="135" spans="3:8" ht="98" x14ac:dyDescent="0.3">
-      <c r="C135" s="26" t="s">
+      <c r="H133" s="30" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="134" spans="3:8" ht="97.15" x14ac:dyDescent="0.4">
+      <c r="C134" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="D134" s="26">
+        <v>2019</v>
+      </c>
+      <c r="E134" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F134" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="G134" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="D135" s="26">
+      <c r="H134" s="26" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="135" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C135" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="D135" s="7">
         <v>2019</v>
       </c>
-      <c r="E135" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="F135" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="G135" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="H135" s="26" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="136" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="E135" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="136" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C136" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="D136" s="7">
         <v>2019</v>
       </c>
-      <c r="E136" s="7" t="s">
-        <v>409</v>
+      <c r="E136" s="27" t="s">
+        <v>414</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="137" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C137" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="137" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C137" s="28" t="s">
+        <v>404</v>
       </c>
       <c r="D137" s="7">
         <v>2019</v>
       </c>
-      <c r="E137" s="27" t="s">
-        <v>420</v>
+      <c r="E137" t="s">
+        <v>405</v>
       </c>
       <c r="F137" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="138" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C138" s="28" t="s">
         <v>421</v>
-      </c>
-    </row>
-    <row r="138" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C138" s="28" t="s">
-        <v>410</v>
       </c>
       <c r="D138" s="7">
         <v>2019</v>
       </c>
-      <c r="E138" t="s">
-        <v>411</v>
+      <c r="E138" s="7" t="s">
+        <v>422</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="139" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C139" s="28" t="s">
-        <v>427</v>
+        <v>423</v>
+      </c>
+    </row>
+    <row r="139" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C139" s="7" t="s">
+        <v>424</v>
       </c>
       <c r="D139" s="7">
         <v>2019</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="140" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C140" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="D140" s="7">
-        <v>2019</v>
-      </c>
-      <c r="E140" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="F140" s="7" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="141" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C141" s="84" t="s">
-        <v>581</v>
-      </c>
-      <c r="D141" s="85"/>
-      <c r="E141" s="85"/>
-      <c r="F141" s="85"/>
-      <c r="G141" s="85"/>
-      <c r="H141" s="86"/>
-    </row>
-    <row r="142" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C142" s="69" t="s">
-        <v>605</v>
-      </c>
-      <c r="D142" s="69">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="140" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C140" s="78" t="s">
+        <v>575</v>
+      </c>
+      <c r="D140" s="79"/>
+      <c r="E140" s="79"/>
+      <c r="F140" s="79"/>
+      <c r="G140" s="79"/>
+      <c r="H140" s="80"/>
+    </row>
+    <row r="141" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C141" s="67" t="s">
+        <v>599</v>
+      </c>
+      <c r="D141" s="67">
         <v>2007</v>
       </c>
-      <c r="E142" s="69" t="s">
-        <v>606</v>
-      </c>
-      <c r="F142" s="69" t="s">
-        <v>607</v>
-      </c>
-      <c r="G142" s="69" t="s">
+      <c r="E141" s="67" t="s">
+        <v>600</v>
+      </c>
+      <c r="F141" s="67" t="s">
         <v>601</v>
       </c>
-      <c r="H142" s="69" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="143" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C143" s="57" t="s">
-        <v>392</v>
-      </c>
-      <c r="D143" s="57">
+      <c r="G141" s="67" t="s">
+        <v>595</v>
+      </c>
+      <c r="H141" s="67" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="142" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C142" s="55" t="s">
+        <v>386</v>
+      </c>
+      <c r="D142" s="55">
         <v>2018</v>
       </c>
-      <c r="E143" s="57" t="s">
-        <v>393</v>
-      </c>
-      <c r="F143" s="57" t="s">
-        <v>586</v>
-      </c>
-      <c r="G143" s="57" t="s">
-        <v>588</v>
-      </c>
-      <c r="H143" s="57" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="144" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C144" s="72" t="s">
-        <v>385</v>
-      </c>
-      <c r="D144" s="72">
+      <c r="E142" s="55" t="s">
+        <v>387</v>
+      </c>
+      <c r="F142" s="55" t="s">
+        <v>580</v>
+      </c>
+      <c r="G142" s="55" t="s">
+        <v>582</v>
+      </c>
+      <c r="H142" s="55" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="143" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C143" s="70" t="s">
+        <v>379</v>
+      </c>
+      <c r="D143" s="70">
         <v>2023</v>
       </c>
-      <c r="E144" s="72" t="s">
-        <v>386</v>
-      </c>
-      <c r="F144" s="72" t="s">
-        <v>477</v>
-      </c>
-      <c r="G144" s="72" t="s">
-        <v>601</v>
-      </c>
-      <c r="H144" s="72"/>
-    </row>
-    <row r="145" spans="3:8" s="14" customFormat="1" ht="56" x14ac:dyDescent="0.3">
-      <c r="C145" s="66" t="s">
+      <c r="E143" s="70" t="s">
+        <v>380</v>
+      </c>
+      <c r="F143" s="70" t="s">
+        <v>471</v>
+      </c>
+      <c r="G143" s="70" t="s">
+        <v>595</v>
+      </c>
+      <c r="H143" s="70"/>
+    </row>
+    <row r="144" spans="3:8" s="14" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C144" s="64" t="s">
+        <v>320</v>
+      </c>
+      <c r="D144" s="65">
+        <v>2023</v>
+      </c>
+      <c r="E144" s="66" t="s">
+        <v>321</v>
+      </c>
+      <c r="F144" s="64" t="s">
+        <v>576</v>
+      </c>
+      <c r="G144" s="64" t="s">
+        <v>322</v>
+      </c>
+      <c r="H144" s="64" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="148" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C148" s="78" t="s">
+        <v>282</v>
+      </c>
+      <c r="D148" s="79"/>
+      <c r="E148" s="79"/>
+      <c r="F148" s="79"/>
+      <c r="G148" s="79"/>
+      <c r="H148" s="80"/>
+    </row>
+    <row r="149" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C149" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D149" s="7">
+        <v>2020</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F149" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="150" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C150" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D150" s="7">
+        <v>2021</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F150" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="151" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C151" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D151" s="7">
+        <v>2022</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F151" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G151" s="7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="152" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C152" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D152" s="7">
+        <v>2023</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F152" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="D145" s="67">
+    </row>
+    <row r="153" spans="3:8" s="100" customFormat="1" ht="111" x14ac:dyDescent="0.4">
+      <c r="C153" s="101" t="s">
+        <v>301</v>
+      </c>
+      <c r="D153" s="101">
         <v>2023</v>
       </c>
-      <c r="E145" s="68" t="s">
-        <v>327</v>
-      </c>
-      <c r="F145" s="66" t="s">
-        <v>582</v>
-      </c>
-      <c r="G145" s="66" t="s">
-        <v>328</v>
-      </c>
-      <c r="H145" s="66" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="149" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C149" s="84" t="s">
-        <v>288</v>
-      </c>
-      <c r="D149" s="85"/>
-      <c r="E149" s="85"/>
-      <c r="F149" s="85"/>
-      <c r="G149" s="85"/>
-      <c r="H149" s="86"/>
-    </row>
-    <row r="150" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C150" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="D150" s="7">
-        <v>2020</v>
-      </c>
-      <c r="E150" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="F150" s="7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="151" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C151" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D151" s="7">
-        <v>2021</v>
-      </c>
-      <c r="E151" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="F151" s="7" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="152" spans="3:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="C152" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="D152" s="7">
-        <v>2022</v>
-      </c>
-      <c r="E152" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="F152" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G152" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="153" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C153" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="D153" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E153" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="F153" s="7" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="156" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C156" s="84" t="s">
-        <v>487</v>
-      </c>
-      <c r="D156" s="85"/>
-      <c r="E156" s="85"/>
-      <c r="F156" s="85"/>
-      <c r="G156" s="85"/>
-      <c r="H156" s="86"/>
-    </row>
-    <row r="157" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="E153" s="101" t="s">
+        <v>300</v>
+      </c>
+      <c r="F153" s="101" t="s">
+        <v>304</v>
+      </c>
+      <c r="G153" s="101" t="s">
+        <v>302</v>
+      </c>
+      <c r="H153" s="101" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="156" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C156" s="78" t="s">
+        <v>481</v>
+      </c>
+      <c r="D156" s="79"/>
+      <c r="E156" s="79"/>
+      <c r="F156" s="79"/>
+      <c r="G156" s="79"/>
+      <c r="H156" s="80"/>
+    </row>
+    <row r="157" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C157" s="26" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D157" s="26">
         <v>2017</v>
       </c>
       <c r="E157" s="26" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F157" s="26"/>
       <c r="G157" s="26"/>
       <c r="H157" s="26"/>
     </row>
-    <row r="158" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C158" s="26" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D158" s="26">
         <v>2020</v>
       </c>
       <c r="E158" s="26" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="F158" s="26" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G158" s="26"/>
       <c r="H158" s="26"/>
     </row>
-    <row r="159" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C159" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D159" s="7">
         <v>2021</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="160" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="160" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C160" s="7" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="D160" s="7">
         <v>2021</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C156:H156"/>
+    <mergeCell ref="C148:H148"/>
+    <mergeCell ref="C89:H89"/>
+    <mergeCell ref="C107:H107"/>
+    <mergeCell ref="C129:H129"/>
+    <mergeCell ref="C140:H140"/>
     <mergeCell ref="C77:H77"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="C44:H44"/>
     <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C156:H156"/>
-    <mergeCell ref="C149:H149"/>
-    <mergeCell ref="C89:H89"/>
-    <mergeCell ref="C107:H107"/>
-    <mergeCell ref="C130:H130"/>
-    <mergeCell ref="C141:H141"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7285,65 +7529,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F283F35-418D-4BB1-82BA-2ABDAAC924FE}">
-  <dimension ref="B5:H26"/>
+  <dimension ref="B5:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.9140625" customWidth="1"/>
+    <col min="2" max="2" width="11.9296875" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" customWidth="1"/>
-    <col min="5" max="5" width="19.25" customWidth="1"/>
+    <col min="4" max="4" width="24.796875" customWidth="1"/>
+    <col min="5" max="5" width="19.265625" style="38" customWidth="1"/>
     <col min="6" max="6" width="35.33203125" customWidth="1"/>
-    <col min="7" max="7" width="28.75" customWidth="1"/>
-    <col min="8" max="8" width="29.9140625" customWidth="1"/>
+    <col min="7" max="7" width="28.73046875" style="38" customWidth="1"/>
+    <col min="8" max="8" width="29.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:8" ht="20" x14ac:dyDescent="0.4">
-      <c r="B6" s="96" t="s">
+    <row r="5" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="2:8" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="90" t="s">
+        <v>489</v>
+      </c>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="92"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B7" s="59" t="s">
+        <v>490</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>491</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>492</v>
+      </c>
+      <c r="E7" s="98" t="s">
+        <v>493</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>494</v>
+      </c>
+      <c r="G7" s="38" t="s">
         <v>495</v>
       </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="98"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="61" t="s">
+    </row>
+    <row r="8" spans="2:8" ht="104.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="93" t="s">
+        <v>514</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>604</v>
+      </c>
+      <c r="D8" s="27" t="s">
         <v>496</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="E8" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="D7" s="60" t="s">
-        <v>498</v>
-      </c>
-      <c r="E7" s="60" t="s">
-        <v>499</v>
-      </c>
-      <c r="F7" s="62" t="s">
-        <v>500</v>
-      </c>
-      <c r="G7" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="104.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="99" t="s">
-        <v>520</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>610</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>502</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>503</v>
       </c>
       <c r="F8" s="50" t="s">
         <v>246</v>
@@ -7352,343 +7596,335 @@
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="91" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="99"/>
-      <c r="C9" s="58" t="s">
-        <v>611</v>
+    <row r="9" spans="2:8" ht="91.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="93"/>
+      <c r="C9" s="56" t="s">
+        <v>605</v>
       </c>
       <c r="D9" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>500</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="93"/>
+      <c r="C10" s="56" t="s">
+        <v>606</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>501</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>502</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>503</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="96.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="93"/>
+      <c r="C11" s="56" t="s">
+        <v>606</v>
+      </c>
+      <c r="D11" s="27" t="s">
         <v>504</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E11" s="28" t="s">
         <v>505</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F11" s="51" t="s">
         <v>506</v>
       </c>
-      <c r="G9" s="48" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="99"/>
-      <c r="C10" s="58" t="s">
-        <v>612</v>
-      </c>
-      <c r="D10" s="27" t="s">
+      <c r="G11" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="109.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="93"/>
+      <c r="C12" s="56" t="s">
+        <v>606</v>
+      </c>
+      <c r="D12" s="27" t="s">
         <v>507</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E12" s="28" t="s">
         <v>508</v>
       </c>
-      <c r="F10" s="51" t="s">
+      <c r="F12" s="51" t="s">
         <v>509</v>
       </c>
-      <c r="G10" s="48" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="96.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="99"/>
-      <c r="C11" s="58" t="s">
-        <v>612</v>
-      </c>
-      <c r="D11" s="27" t="s">
+      <c r="G12" s="49" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="89" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="93"/>
+      <c r="C13" s="56" t="s">
+        <v>606</v>
+      </c>
+      <c r="D13" s="28" t="s">
         <v>510</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E13" s="28" t="s">
         <v>511</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="F13" s="51" t="s">
         <v>512</v>
       </c>
-      <c r="G11" s="48" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="109" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="99"/>
-      <c r="C12" s="58" t="s">
-        <v>612</v>
-      </c>
-      <c r="D12" s="27" t="s">
+      <c r="G13" s="49" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B14" s="93"/>
+      <c r="C14" s="56" t="s">
+        <v>606</v>
+      </c>
+      <c r="D14" s="27" t="s">
         <v>513</v>
       </c>
-      <c r="E12" s="27" t="s">
-        <v>514</v>
-      </c>
-      <c r="F12" s="51" t="s">
-        <v>515</v>
-      </c>
-      <c r="G12" s="49" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="89" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="99"/>
-      <c r="C13" s="58" t="s">
-        <v>612</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>516</v>
-      </c>
-      <c r="E13" s="27" t="s">
+      <c r="E14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="B15" s="93" t="s">
+        <v>552</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>607</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>527</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>528</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>529</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>530</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B16" s="93"/>
+      <c r="C16" s="28" t="s">
+        <v>609</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>536</v>
+      </c>
+      <c r="F16" s="51" t="s">
+        <v>537</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>531</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="97.15" x14ac:dyDescent="0.4">
+      <c r="B17" s="93"/>
+      <c r="C17" s="28" t="s">
+        <v>608</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>546</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>542</v>
+      </c>
+      <c r="F17" s="51" t="s">
+        <v>538</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>532</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="B18" s="93"/>
+      <c r="C18" s="28" t="s">
+        <v>609</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>486</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>539</v>
+      </c>
+      <c r="F18" s="51" t="s">
+        <v>540</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>533</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B19" s="93"/>
+      <c r="C19" s="28" t="s">
+        <v>609</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>519</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>543</v>
+      </c>
+      <c r="F19" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>520</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="69.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="93"/>
+      <c r="C20" s="28" t="s">
+        <v>608</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>513</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>544</v>
+      </c>
+      <c r="F20" s="51" t="s">
+        <v>541</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>534</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="B21" s="93"/>
+      <c r="C21" s="28" t="s">
+        <v>609</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>545</v>
+      </c>
+      <c r="F21" s="51" t="s">
         <v>517</v>
       </c>
-      <c r="F13" s="51" t="s">
-        <v>518</v>
-      </c>
-      <c r="G13" s="49" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="B14" s="99"/>
-      <c r="C14" s="58" t="s">
-        <v>612</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>519</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="F14" s="50" t="s">
-        <v>305</v>
-      </c>
-      <c r="G14" s="48" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="B15" s="99" t="s">
-        <v>558</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>613</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>533</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>534</v>
-      </c>
-      <c r="F15" s="51" t="s">
+      <c r="G21" s="38" t="s">
         <v>535</v>
       </c>
-      <c r="G15" t="s">
-        <v>536</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="B16" s="99"/>
-      <c r="C16" s="28" t="s">
-        <v>615</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>489</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>542</v>
-      </c>
-      <c r="F16" s="51" t="s">
-        <v>543</v>
-      </c>
-      <c r="G16" s="38" t="s">
-        <v>537</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="84" x14ac:dyDescent="0.3">
-      <c r="B17" s="99"/>
-      <c r="C17" s="28" t="s">
-        <v>614</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>552</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>548</v>
-      </c>
-      <c r="F17" s="51" t="s">
-        <v>544</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>538</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="B18" s="99"/>
-      <c r="C18" s="28" t="s">
-        <v>615</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>492</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>545</v>
-      </c>
-      <c r="F18" s="51" t="s">
-        <v>546</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>539</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="B19" s="99"/>
-      <c r="C19" s="28" t="s">
-        <v>615</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>525</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>549</v>
-      </c>
-      <c r="F19" s="51" t="s">
-        <v>530</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>526</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="69.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="99"/>
-      <c r="C20" s="28" t="s">
-        <v>614</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>519</v>
-      </c>
-      <c r="E20" s="28" t="s">
+      <c r="H21" s="28" t="s">
         <v>550</v>
       </c>
-      <c r="F20" s="51" t="s">
-        <v>547</v>
-      </c>
-      <c r="G20" s="38" t="s">
-        <v>540</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="B21" s="99"/>
-      <c r="C21" s="28" t="s">
-        <v>615</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>553</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>551</v>
-      </c>
-      <c r="F21" s="51" t="s">
-        <v>523</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>541</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="B22" s="100" t="s">
+    </row>
+    <row r="22" spans="2:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B22" s="94" t="s">
         <v>136</v>
       </c>
       <c r="C22" s="28" t="s">
         <v>204</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="F22" s="51" t="s">
+        <v>584</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="B23" s="95"/>
+      <c r="C23" s="28" t="s">
+        <v>610</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>591</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="F23" s="51" t="s">
         <v>590</v>
       </c>
-      <c r="G22" s="38" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="B23" s="101"/>
-      <c r="C23" s="28" t="s">
+      <c r="G23" s="38" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="B24" s="95"/>
+      <c r="C24" s="68" t="s">
+        <v>611</v>
+      </c>
+      <c r="D24" s="68" t="s">
+        <v>513</v>
+      </c>
+      <c r="E24" s="68" t="s">
         <v>616</v>
       </c>
-      <c r="D23" s="28" t="s">
-        <v>597</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>598</v>
-      </c>
-      <c r="F23" s="51" t="s">
-        <v>596</v>
-      </c>
-      <c r="G23" s="38" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="B24" s="101"/>
-      <c r="C24" s="70" t="s">
+      <c r="F24" s="69" t="s">
         <v>617</v>
       </c>
-      <c r="D24" s="70" t="s">
-        <v>519</v>
-      </c>
-      <c r="E24" s="70" t="s">
-        <v>622</v>
-      </c>
-      <c r="F24" s="71" t="s">
-        <v>623</v>
-      </c>
       <c r="G24" s="30" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="102"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="42" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="96"/>
       <c r="C25" s="52" t="s">
-        <v>617</v>
-      </c>
-      <c r="D25" s="64" t="s">
-        <v>585</v>
-      </c>
-      <c r="E25" s="64" t="s">
-        <v>587</v>
-      </c>
-      <c r="F25" s="65" t="s">
-        <v>583</v>
+        <v>611</v>
+      </c>
+      <c r="D25" s="62" t="s">
+        <v>579</v>
+      </c>
+      <c r="E25" s="62" t="s">
+        <v>581</v>
+      </c>
+      <c r="F25" s="63" t="s">
+        <v>577</v>
       </c>
       <c r="G25" s="38" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C26" s="104" t="s">
-        <v>628</v>
-      </c>
-      <c r="F26" s="105" t="s">
-        <v>629</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -7709,220 +7945,220 @@
   <dimension ref="B4:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B5" sqref="B5:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="14.9140625" customWidth="1"/>
-    <col min="3" max="3" width="21.4140625" customWidth="1"/>
-    <col min="4" max="4" width="20.9140625" customWidth="1"/>
-    <col min="5" max="5" width="25.58203125" customWidth="1"/>
-    <col min="6" max="6" width="41.25" customWidth="1"/>
-    <col min="7" max="7" width="15.58203125" customWidth="1"/>
+    <col min="2" max="2" width="14.9296875" customWidth="1"/>
+    <col min="3" max="3" width="21.3984375" customWidth="1"/>
+    <col min="4" max="4" width="20.9296875" customWidth="1"/>
+    <col min="5" max="5" width="25.59765625" customWidth="1"/>
+    <col min="6" max="6" width="41.265625" customWidth="1"/>
+    <col min="7" max="7" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:7" ht="20" x14ac:dyDescent="0.4">
-      <c r="B5" s="96" t="s">
-        <v>484</v>
-      </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="98"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="61" t="s">
-        <v>496</v>
-      </c>
-      <c r="C6" s="60" t="s">
-        <v>497</v>
-      </c>
-      <c r="D6" s="60" t="s">
+    <row r="4" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="2:7" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="90" t="s">
+        <v>478</v>
+      </c>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="92"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="59" t="s">
+        <v>490</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>491</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>561</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>562</v>
+      </c>
+      <c r="F6" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B7" s="93" t="s">
+        <v>514</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>606</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>564</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B8" s="93"/>
+      <c r="C8" s="28" t="s">
+        <v>612</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>596</v>
+      </c>
+      <c r="E8" s="57" t="s">
+        <v>597</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B9" s="93"/>
+      <c r="C9" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>565</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B10" s="93"/>
+      <c r="C10" s="56" t="s">
+        <v>606</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>570</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>566</v>
+      </c>
+      <c r="F10" s="61" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B11" s="93"/>
+      <c r="C11" s="28" t="s">
+        <v>614</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="E11" s="51" t="s">
         <v>567</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="F11" s="49" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="B12" s="93"/>
+      <c r="C12" s="28" t="s">
+        <v>614</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>569</v>
+      </c>
+      <c r="E12" s="51" t="s">
         <v>568</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F12" s="49" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B13" s="93" t="s">
+        <v>552</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>608</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>574</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>557</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>553</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="55.9" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="93"/>
+      <c r="C14" s="28" t="s">
+        <v>615</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>555</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>618</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B15" s="93" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>602</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B16" s="93"/>
+      <c r="C16" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="E16" s="51" t="s">
+        <v>619</v>
+      </c>
+      <c r="F16" s="48" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="42" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="97"/>
+      <c r="C17" s="52" t="s">
+        <v>575</v>
+      </c>
+      <c r="D17" s="72" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="B7" s="99" t="s">
-        <v>520</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>612</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="E7" s="59" t="s">
-        <v>570</v>
-      </c>
-      <c r="F7" s="49" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="B8" s="99"/>
-      <c r="C8" s="28" t="s">
-        <v>618</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>602</v>
-      </c>
-      <c r="E8" s="59" t="s">
-        <v>603</v>
-      </c>
-      <c r="F8" s="49" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="B9" s="99"/>
-      <c r="C9" s="28" t="s">
-        <v>619</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="E9" s="51" t="s">
-        <v>571</v>
-      </c>
-      <c r="F9" s="49" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B10" s="99"/>
-      <c r="C10" s="58" t="s">
-        <v>612</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="E10" s="51" t="s">
-        <v>572</v>
-      </c>
-      <c r="F10" s="63" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B11" s="99"/>
-      <c r="C11" s="28" t="s">
-        <v>620</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="E11" s="51" t="s">
-        <v>573</v>
-      </c>
-      <c r="F11" s="49" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B12" s="99"/>
-      <c r="C12" s="28" t="s">
-        <v>620</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>575</v>
-      </c>
-      <c r="E12" s="51" t="s">
-        <v>574</v>
-      </c>
-      <c r="F12" s="49" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B13" s="99" t="s">
-        <v>558</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>614</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>580</v>
-      </c>
-      <c r="E13" s="51" t="s">
-        <v>563</v>
-      </c>
-      <c r="F13" s="49" t="s">
-        <v>559</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="99"/>
-      <c r="C14" s="28" t="s">
+      <c r="E17" s="73" t="s">
         <v>621</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="E14" s="51" t="s">
-        <v>561</v>
-      </c>
-      <c r="F14" s="49" t="s">
-        <v>624</v>
-      </c>
-      <c r="G14" s="52" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B15" s="99" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>581</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="E15" s="51" t="s">
-        <v>608</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B16" s="99"/>
-      <c r="C16" s="28" t="s">
-        <v>581</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>626</v>
-      </c>
-      <c r="E16" s="51" t="s">
-        <v>625</v>
-      </c>
-      <c r="F16" s="48" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="103"/>
-      <c r="C17" s="52" t="s">
-        <v>581</v>
-      </c>
-      <c r="D17" s="74" t="s">
-        <v>575</v>
-      </c>
-      <c r="E17" s="75" t="s">
-        <v>627</v>
-      </c>
-      <c r="F17" s="73" t="s">
-        <v>326</v>
+      <c r="F17" s="71" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -7938,24 +8174,409 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5ECC81-6914-43CE-AB0A-E1BBB7ABC546}">
+  <dimension ref="B7:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="14.19921875" customWidth="1"/>
+    <col min="5" max="5" width="16.1328125" customWidth="1"/>
+    <col min="6" max="6" width="15.73046875" customWidth="1"/>
+    <col min="7" max="7" width="20.59765625" customWidth="1"/>
+    <col min="8" max="8" width="22.46484375" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8" s="111" t="s">
+        <v>489</v>
+      </c>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="113"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B9" s="114"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="59" t="s">
+        <v>490</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>491</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>492</v>
+      </c>
+      <c r="G9" s="98" t="s">
+        <v>493</v>
+      </c>
+      <c r="H9" s="60" t="s">
+        <v>494</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B10" s="115"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="93" t="s">
+        <v>681</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="F10" s="107" t="s">
+        <v>507</v>
+      </c>
+      <c r="G10" s="107" t="s">
+        <v>626</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>623</v>
+      </c>
+      <c r="I10" s="49" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D11" s="93"/>
+      <c r="E11" s="107" t="s">
+        <v>622</v>
+      </c>
+      <c r="F11" s="107" t="s">
+        <v>507</v>
+      </c>
+      <c r="G11" s="107" t="s">
+        <v>631</v>
+      </c>
+      <c r="H11" s="108" t="s">
+        <v>629</v>
+      </c>
+      <c r="I11" s="49" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D12" s="93"/>
+      <c r="E12" s="107" t="s">
+        <v>622</v>
+      </c>
+      <c r="F12" s="107" t="s">
+        <v>486</v>
+      </c>
+      <c r="G12" s="56" t="s">
+        <v>634</v>
+      </c>
+      <c r="H12" s="57" t="s">
+        <v>633</v>
+      </c>
+      <c r="I12" s="49" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D13" s="93"/>
+      <c r="E13" s="107" t="s">
+        <v>622</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>639</v>
+      </c>
+      <c r="H13" s="57" t="s">
+        <v>633</v>
+      </c>
+      <c r="I13" s="49" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="D14" s="93"/>
+      <c r="E14" s="107" t="s">
+        <v>638</v>
+      </c>
+      <c r="F14" s="107" t="s">
+        <v>507</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>641</v>
+      </c>
+      <c r="H14" s="109" t="s">
+        <v>643</v>
+      </c>
+      <c r="I14" s="49" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="D15" s="93"/>
+      <c r="E15" s="107" t="s">
+        <v>638</v>
+      </c>
+      <c r="F15" s="107" t="s">
+        <v>507</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>666</v>
+      </c>
+      <c r="H15" s="109" t="s">
+        <v>643</v>
+      </c>
+      <c r="I15" s="49" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D16" s="93"/>
+      <c r="E16" s="107" t="s">
+        <v>638</v>
+      </c>
+      <c r="F16" s="107" t="s">
+        <v>486</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>647</v>
+      </c>
+      <c r="H16" s="51" t="s">
+        <v>651</v>
+      </c>
+      <c r="I16" s="49" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D17" s="93"/>
+      <c r="E17" s="107" t="s">
+        <v>638</v>
+      </c>
+      <c r="F17" s="107" t="s">
+        <v>652</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>647</v>
+      </c>
+      <c r="H17" s="51" t="s">
+        <v>651</v>
+      </c>
+      <c r="I17" s="49" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="D18" s="93"/>
+      <c r="E18" s="107" t="s">
+        <v>638</v>
+      </c>
+      <c r="F18" s="107" t="s">
+        <v>486</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>649</v>
+      </c>
+      <c r="H18" s="51" t="s">
+        <v>651</v>
+      </c>
+      <c r="I18" s="49" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="D19" s="93"/>
+      <c r="E19" s="107" t="s">
+        <v>638</v>
+      </c>
+      <c r="F19" s="107" t="s">
+        <v>486</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>659</v>
+      </c>
+      <c r="H19" s="51" t="s">
+        <v>660</v>
+      </c>
+      <c r="I19" s="49" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="D20" s="93"/>
+      <c r="E20" s="107" t="s">
+        <v>638</v>
+      </c>
+      <c r="F20" s="107" t="s">
+        <v>668</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>670</v>
+      </c>
+      <c r="H20" s="51" t="s">
+        <v>672</v>
+      </c>
+      <c r="I20" s="49" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D21" s="93"/>
+      <c r="E21" s="107" t="s">
+        <v>638</v>
+      </c>
+      <c r="F21" s="107" t="s">
+        <v>674</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>675</v>
+      </c>
+      <c r="H21" s="51" t="s">
+        <v>676</v>
+      </c>
+      <c r="I21" s="49" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" ht="55.9" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D22" s="97"/>
+      <c r="E22" s="110" t="s">
+        <v>678</v>
+      </c>
+      <c r="F22" s="110" t="s">
+        <v>679</v>
+      </c>
+      <c r="G22" s="52" t="s">
+        <v>279</v>
+      </c>
+      <c r="H22" s="73" t="s">
+        <v>280</v>
+      </c>
+      <c r="I22" s="49" t="s">
+        <v>680</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D10:D22"/>
+    <mergeCell ref="D8:H8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="74117954-47dd-4623-be10-f2d34b3fe6e8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3F6B80-8172-4F79-9600-6FDEB5D9C203}">
+  <dimension ref="C5:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="20.265625" customWidth="1"/>
+    <col min="5" max="5" width="22.59765625" customWidth="1"/>
+    <col min="6" max="6" width="25.265625" customWidth="1"/>
+    <col min="7" max="7" width="43.9296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="3:7" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="111" t="s">
+        <v>478</v>
+      </c>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="38"/>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C7" s="116" t="s">
+        <v>490</v>
+      </c>
+      <c r="D7" s="98" t="s">
+        <v>491</v>
+      </c>
+      <c r="E7" s="98" t="s">
+        <v>561</v>
+      </c>
+      <c r="F7" s="117" t="s">
+        <v>562</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C8" s="93" t="s">
+        <v>681</v>
+      </c>
+      <c r="D8" s="56"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="49"/>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C9" s="93"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="49"/>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C10" s="93"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="49"/>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C11" s="93"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="61"/>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C12" s="93"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="49"/>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C13" s="93"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="49"/>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:C13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100650C27B66691BA4BB901C940018B449F" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="856977a71e7c379887d8f02f6ee17dc3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="74117954-47dd-4623-be10-f2d34b3fe6e8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f93a31a691d6cd74e693f1feb46bcb1" ns3:_="">
     <xsd:import namespace="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
@@ -8099,10 +8720,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="74117954-47dd-4623-be10-f2d34b3fe6e8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16812470-A4E1-4DBD-AEE1-4642C4933AF0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{411558D9-DEA1-49BF-987E-1A683BCBCD59}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8124,19 +8772,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{411558D9-DEA1-49BF-987E-1A683BCBCD59}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16812470-A4E1-4DBD-AEE1-4642C4933AF0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ML Apply in OS/summary (new version).xlsx
+++ b/ML Apply in OS/summary (new version).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HKU\HKU\23Fall\AI-OS\ML Apply in OS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research-23\AIOS\ML Apply in OS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AAD84D-FAAC-4C69-A8ED-4AB5ABAE892F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFC2C34-F279-44CF-86E9-CBCFC59709B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="688">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -975,14 +975,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A reinforcement learning framework for online data migration on in hierarchical storage systems</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The journal of Supercomputing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A reinfrocement learning framework for utility-based scheduling in resource-constrained systems</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1036,26 +1028,6 @@
   </si>
   <si>
     <t>Test 4 learning algorithm: change-sensing round-robin; Feedbak learning (select best I/O scheduler, as classification task); Per-request I/O Scheduler (estimate response time, shortedt reponse time first); Combine both. Five basic machine learning models:  decision tree, logistic regression, naive Bayes, neural network, and support vector machine algorithms. Run different workloads to set up the dataset.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Evaluation and Optimization of Kernel File Readaheads Based on Markov Decision Models</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Computer Journal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Different states including read request, cache statesm readahead and page access.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost function including metrics like miss-hit cahce.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>An absorbing MDP model for kernel prefetching; Model the whole process of file read handling as a markov decision process, use it to evaluate the performance. Performance data is collected by patching the kernel to trace every page's state.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1330,19 +1302,6 @@
   </si>
   <si>
     <t>Has an API remoting system that exposes arbitrary APIs to kernel subsystems. Use shared memory to allow zero memory copy. Have a command channel to transmit parameters.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Tune the file migration policies in order to minimize the average request response time; each storage tier (agent) learns its own
-long-term cost function C(s), which predicts the future average request response time divided by the file size </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The predicted future average request response time divided by the expected value of the file size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The current state of the storage layers, which includes information such as the bandwidth of each storage layer and the size and location of the files</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2709,6 +2668,71 @@
   </si>
   <si>
     <t>Memory Management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contextual bandits model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Semantic locality and context-based prefetching using reinforcement learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>how well the prefetching predictions align with the effective prefetch window</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Markov Chain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>previous page access</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the next page access with highest probability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pythia: A Customizable Hardware Prefetching Framework Using Online Reinforcement Learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regret minimization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Markov Decision Process</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maximize the cache's hit rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SARSA (State-Action-Reward-State-Action)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effective prefetching and efficient resource utilization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multi-Armed Bandit (MAB) problem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Machine Learning Approach to TCP Throughput
+Prediction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A machine learning framework for TCP round-trip time estimation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EURASIP Journal on Wireless Communications and Networking 2014</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2876,7 +2900,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -3205,12 +3229,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3415,6 +3452,31 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3424,6 +3486,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3442,15 +3513,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3475,43 +3537,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3521,14 +3546,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3818,22 +3847,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG160"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="48.46484375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="48.5" style="7" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="7"/>
-    <col min="5" max="5" width="42.265625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="42.25" style="7" customWidth="1"/>
     <col min="6" max="6" width="58.6640625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="20.06640625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="38.265625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="20.08203125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="38.25" style="7" customWidth="1"/>
     <col min="9" max="9" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:31" s="1" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3853,17 +3882,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C2" s="81" t="s">
+    <row r="2" spans="1:31" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C2" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="83"/>
-    </row>
-    <row r="3" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="95"/>
+    </row>
+    <row r="3" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3" s="10" t="s">
@@ -3908,7 +3937,7 @@
       <c r="AD3"/>
       <c r="AE3"/>
     </row>
-    <row r="4" spans="1:31" s="11" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:31" s="11" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4" s="10" t="s">
@@ -3953,7 +3982,7 @@
       <c r="AD4"/>
       <c r="AE4"/>
     </row>
-    <row r="5" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5" s="6" t="s">
@@ -3998,7 +4027,7 @@
       <c r="AD5"/>
       <c r="AE5"/>
     </row>
-    <row r="6" spans="1:31" s="9" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:31" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6" s="8" t="s">
@@ -4043,7 +4072,7 @@
       <c r="AD6"/>
       <c r="AE6"/>
     </row>
-    <row r="7" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7" s="6" t="s">
@@ -4088,7 +4117,7 @@
       <c r="AD7"/>
       <c r="AE7"/>
     </row>
-    <row r="8" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8" s="6" t="s">
@@ -4133,7 +4162,7 @@
       <c r="AD8"/>
       <c r="AE8"/>
     </row>
-    <row r="9" spans="1:31" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9" s="8" t="s">
@@ -4178,7 +4207,7 @@
       <c r="AD9"/>
       <c r="AE9"/>
     </row>
-    <row r="10" spans="1:31" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:31" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10" s="8" t="s">
@@ -4223,7 +4252,7 @@
       <c r="AD10"/>
       <c r="AE10"/>
     </row>
-    <row r="11" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11" s="6" t="s">
@@ -4268,7 +4297,7 @@
       <c r="AD11"/>
       <c r="AE11"/>
     </row>
-    <row r="12" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12" s="6" t="s">
@@ -4313,7 +4342,7 @@
       <c r="AD12"/>
       <c r="AE12"/>
     </row>
-    <row r="13" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13" s="6" t="s">
@@ -4358,7 +4387,7 @@
       <c r="AD13"/>
       <c r="AE13"/>
     </row>
-    <row r="14" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14" s="6" t="s">
@@ -4403,7 +4432,7 @@
       <c r="AD14"/>
       <c r="AE14"/>
     </row>
-    <row r="15" spans="1:31" s="2" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15" s="6" t="s">
@@ -4448,17 +4477,17 @@
       <c r="AD15"/>
       <c r="AE15"/>
     </row>
-    <row r="16" spans="1:31" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C16" s="78" t="s">
+    <row r="16" spans="1:31" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C16" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="80"/>
-    </row>
-    <row r="17" spans="1:33" s="11" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="89"/>
+    </row>
+    <row r="17" spans="1:33" s="11" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17" s="10" t="s">
@@ -4505,7 +4534,7 @@
       <c r="AF17"/>
       <c r="AG17"/>
     </row>
-    <row r="18" spans="1:33" s="9" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:33" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18" s="8" t="s">
@@ -4552,7 +4581,7 @@
       <c r="AF18"/>
       <c r="AG18"/>
     </row>
-    <row r="19" spans="1:33" s="9" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:33" s="9" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19" s="8" t="s">
@@ -4599,7 +4628,7 @@
       <c r="AF19"/>
       <c r="AG19"/>
     </row>
-    <row r="20" spans="1:33" s="9" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:33" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20" s="8" t="s">
@@ -4646,9 +4675,9 @@
       <c r="AF20"/>
       <c r="AG20"/>
     </row>
-    <row r="21" spans="1:33" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:33" ht="56" x14ac:dyDescent="0.3">
       <c r="C21" s="6" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="D21" s="6">
         <v>2002</v>
@@ -4657,16 +4686,16 @@
         <v>10</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22" s="8" t="s">
@@ -4713,7 +4742,7 @@
       <c r="AF22"/>
       <c r="AG22"/>
     </row>
-    <row r="23" spans="1:33" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:33" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23" s="6" t="s">
@@ -4729,10 +4758,10 @@
         <v>60</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
@@ -4760,9 +4789,9 @@
       <c r="AF23"/>
       <c r="AG23"/>
     </row>
-    <row r="24" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C24" s="6" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="D24" s="6">
         <v>2013</v>
@@ -4771,16 +4800,16 @@
         <v>10</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" s="3" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25" s="8" t="s">
@@ -4827,7 +4856,7 @@
       <c r="AF25"/>
       <c r="AG25"/>
     </row>
-    <row r="26" spans="1:33" s="11" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:33" s="11" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26" s="10" t="s">
@@ -4874,7 +4903,7 @@
       <c r="AF26"/>
       <c r="AG26"/>
     </row>
-    <row r="27" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27" s="34" t="s">
@@ -4921,24 +4950,24 @@
       <c r="AF27"/>
       <c r="AG27"/>
     </row>
-    <row r="28" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28" s="36" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="D28" s="36">
         <v>2019</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="F28" s="36"/>
       <c r="G28" s="36" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="I28"/>
       <c r="J28"/>
@@ -4966,11 +4995,11 @@
       <c r="AF28"/>
       <c r="AG28"/>
     </row>
-    <row r="29" spans="1:33" s="35" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:33" s="35" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="27"/>
       <c r="B29" s="27"/>
       <c r="C29" s="6" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="D29" s="6">
         <v>2020</v>
@@ -4980,10 +5009,10 @@
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="I29" s="27"/>
       <c r="J29" s="27"/>
@@ -5011,24 +5040,24 @@
       <c r="AF29" s="27"/>
       <c r="AG29" s="27"/>
     </row>
-    <row r="30" spans="1:33" s="11" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:33" s="11" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30" s="6" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="D30" s="6">
         <v>2022</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
@@ -5056,17 +5085,17 @@
       <c r="AF30"/>
       <c r="AG30"/>
     </row>
-    <row r="31" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C31" s="84" t="s">
+    <row r="31" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C31" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="86"/>
-    </row>
-    <row r="32" spans="1:33" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="98"/>
+    </row>
+    <row r="32" spans="1:33" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32" s="6" t="s">
@@ -5113,7 +5142,7 @@
       <c r="AF32"/>
       <c r="AG32"/>
     </row>
-    <row r="33" spans="1:33" s="13" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33" s="12" t="s">
@@ -5160,7 +5189,7 @@
       <c r="AF33"/>
       <c r="AG33"/>
     </row>
-    <row r="34" spans="1:33" s="2" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:33" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34" s="6" t="s">
@@ -5207,7 +5236,7 @@
       <c r="AF34"/>
       <c r="AG34"/>
     </row>
-    <row r="35" spans="1:33" s="11" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:33" s="11" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35" s="10" t="s">
@@ -5254,7 +5283,7 @@
       <c r="AF35"/>
       <c r="AG35"/>
     </row>
-    <row r="36" spans="1:33" s="13" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:33" s="13" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36" s="12" t="s">
@@ -5301,7 +5330,7 @@
       <c r="AF36"/>
       <c r="AG36"/>
     </row>
-    <row r="37" spans="1:33" s="13" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37" s="12" t="s">
@@ -5348,7 +5377,7 @@
       <c r="AF37"/>
       <c r="AG37"/>
     </row>
-    <row r="38" spans="1:33" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:33" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38" s="12" t="s">
@@ -5395,7 +5424,7 @@
       <c r="AF38"/>
       <c r="AG38"/>
     </row>
-    <row r="39" spans="1:33" s="11" customFormat="1" ht="56.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:33" s="11" customFormat="1" ht="56.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39" s="10" t="s">
@@ -5442,7 +5471,7 @@
       <c r="AF39"/>
       <c r="AG39"/>
     </row>
-    <row r="40" spans="1:33" s="13" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40" s="12" t="s">
@@ -5489,7 +5518,7 @@
       <c r="AF40"/>
       <c r="AG40"/>
     </row>
-    <row r="41" spans="1:33" s="13" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41" s="12" t="s">
@@ -5536,7 +5565,7 @@
       <c r="AF41"/>
       <c r="AG41"/>
     </row>
-    <row r="42" spans="1:33" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:33" ht="42" x14ac:dyDescent="0.3">
       <c r="C42" s="12" t="s">
         <v>95</v>
       </c>
@@ -5556,7 +5585,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:33" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:33" ht="42" x14ac:dyDescent="0.3">
       <c r="C43" s="12" t="s">
         <v>96</v>
       </c>
@@ -5576,17 +5605,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C44" s="78" t="s">
+    <row r="44" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C44" s="87" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="79"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="79"/>
-      <c r="H44" s="80"/>
-    </row>
-    <row r="45" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D44" s="88"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="88"/>
+      <c r="G44" s="88"/>
+      <c r="H44" s="89"/>
+    </row>
+    <row r="45" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C45" s="8" t="s">
         <v>198</v>
       </c>
@@ -5606,7 +5635,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C46" s="8" t="s">
         <v>195</v>
       </c>
@@ -5626,7 +5655,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C47" s="18" t="s">
         <v>208</v>
       </c>
@@ -5646,7 +5675,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="48" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C48" s="18" t="s">
         <v>210</v>
       </c>
@@ -5666,7 +5695,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="49" spans="3:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:8" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="C49" s="19" t="s">
         <v>160</v>
       </c>
@@ -5686,7 +5715,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="50" spans="3:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:8" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="C50" s="16" t="s">
         <v>186</v>
       </c>
@@ -5706,7 +5735,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C51" s="8" t="s">
         <v>150</v>
       </c>
@@ -5726,7 +5755,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C52" s="8" t="s">
         <v>144</v>
       </c>
@@ -5746,7 +5775,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C53" s="8" t="s">
         <v>172</v>
       </c>
@@ -5766,7 +5795,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="54" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C54" s="8" t="s">
         <v>143</v>
       </c>
@@ -5786,7 +5815,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C55" s="8" t="s">
         <v>176</v>
       </c>
@@ -5806,7 +5835,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="56" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C56" s="8" t="s">
         <v>188</v>
       </c>
@@ -5826,7 +5855,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="57" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C57" s="8" t="s">
         <v>140</v>
       </c>
@@ -5846,7 +5875,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C58" s="8" t="s">
         <v>191</v>
       </c>
@@ -5866,7 +5895,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="59" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C59" s="8" t="s">
         <v>166</v>
       </c>
@@ -5886,7 +5915,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:8" ht="56" x14ac:dyDescent="0.3">
       <c r="C60" s="8" t="s">
         <v>179</v>
       </c>
@@ -5906,7 +5935,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="61" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C61" s="18" t="s">
         <v>205</v>
       </c>
@@ -5926,7 +5955,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="62" spans="3:8" ht="56" x14ac:dyDescent="0.3">
       <c r="C62" s="8" t="s">
         <v>154</v>
       </c>
@@ -5946,7 +5975,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="63" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C63" s="8" t="s">
         <v>183</v>
       </c>
@@ -5966,7 +5995,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="64" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C64" s="8" t="s">
         <v>157</v>
       </c>
@@ -5986,64 +6015,64 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="65" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C65" s="7" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="E65" s="37" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="66" spans="3:8" s="38" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" s="38" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="C66" s="8" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="D66" s="8">
         <v>2011</v>
       </c>
       <c r="E66" s="39" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="67" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C67" s="7" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="D67" s="7">
         <v>2015</v>
       </c>
       <c r="E67" s="37" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="68" spans="3:8" s="38" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" s="38" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="7" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="D68" s="7">
         <v>2016</v>
       </c>
       <c r="E68" s="28" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="69" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C69" s="18" t="s">
         <v>162</v>
       </c>
@@ -6063,31 +6092,31 @@
         <v>201</v>
       </c>
     </row>
-    <row r="70" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="70" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C70" s="7" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="D70" s="7">
         <v>2023</v>
       </c>
       <c r="E70" s="37" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="71" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C71" s="78" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C71" s="87" t="s">
         <v>216</v>
       </c>
-      <c r="D71" s="79"/>
-      <c r="E71" s="79"/>
-      <c r="F71" s="79"/>
-      <c r="G71" s="79"/>
-      <c r="H71" s="80"/>
-    </row>
-    <row r="72" spans="3:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="D71" s="88"/>
+      <c r="E71" s="88"/>
+      <c r="F71" s="88"/>
+      <c r="G71" s="88"/>
+      <c r="H71" s="89"/>
+    </row>
+    <row r="72" spans="3:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C72" s="21" t="s">
         <v>0</v>
       </c>
@@ -6101,13 +6130,13 @@
         <v>224</v>
       </c>
       <c r="G72" s="24" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H72" s="21" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="73" spans="3:8" ht="97.15" x14ac:dyDescent="0.4">
+    <row r="73" spans="3:8" ht="98" x14ac:dyDescent="0.3">
       <c r="C73" s="7" t="s">
         <v>223</v>
       </c>
@@ -6121,7 +6150,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="74" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="74" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C74" s="7" t="s">
         <v>217</v>
       </c>
@@ -6135,7 +6164,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="75" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="75" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C75" s="7" t="s">
         <v>219</v>
       </c>
@@ -6149,7 +6178,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="76" spans="3:8" ht="70.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="3:8" ht="70.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="7" t="s">
         <v>221</v>
       </c>
@@ -6163,17 +6192,17 @@
         <v>225</v>
       </c>
     </row>
-    <row r="77" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C77" s="78" t="s">
+    <row r="77" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C77" s="87" t="s">
         <v>230</v>
       </c>
-      <c r="D77" s="79"/>
-      <c r="E77" s="79"/>
-      <c r="F77" s="79"/>
-      <c r="G77" s="79"/>
-      <c r="H77" s="80"/>
-    </row>
-    <row r="78" spans="3:8" s="23" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="D77" s="88"/>
+      <c r="E77" s="88"/>
+      <c r="F77" s="88"/>
+      <c r="G77" s="88"/>
+      <c r="H77" s="89"/>
+    </row>
+    <row r="78" spans="3:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C78" s="22" t="s">
         <v>0</v>
       </c>
@@ -6184,7 +6213,7 @@
         <v>232</v>
       </c>
       <c r="F78" s="22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G78" s="22" t="s">
         <v>233</v>
@@ -6193,129 +6222,129 @@
         <v>234</v>
       </c>
     </row>
-    <row r="79" spans="3:8" s="27" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
+    <row r="79" spans="3:8" s="27" customFormat="1" ht="84" x14ac:dyDescent="0.3">
       <c r="C79" s="32" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D79" s="32">
         <v>2009</v>
       </c>
       <c r="E79" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="F79" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="G79" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="F79" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="G79" s="32" t="s">
-        <v>249</v>
-      </c>
       <c r="H79" s="32" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="80" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="80" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C80" s="42" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="D80" s="42">
         <v>2016</v>
       </c>
       <c r="E80" s="42" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="F80" s="42" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="G80" s="42" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="H80" s="42" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="81" spans="3:8" ht="97.15" x14ac:dyDescent="0.4">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" ht="98" x14ac:dyDescent="0.3">
       <c r="C81" s="42" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="D81" s="42">
         <v>2019</v>
       </c>
       <c r="E81" s="42" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="F81" s="42" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="G81" s="42" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="H81" s="42" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="82" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C82" s="42" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="D82" s="42">
         <v>2019</v>
       </c>
       <c r="E82" s="42" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="F82" s="42" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="G82" s="42" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="H82" s="42" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="83" spans="3:8" ht="138" customHeight="1" x14ac:dyDescent="0.4">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="42" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="D83" s="42">
         <v>2019</v>
       </c>
       <c r="E83" s="42" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="F83" s="42" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="G83" s="42" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="H83" s="42" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="84" spans="3:8" ht="111" x14ac:dyDescent="0.4">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" ht="84" x14ac:dyDescent="0.3">
       <c r="C84" s="42" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D84" s="42">
         <v>2020</v>
       </c>
       <c r="E84" s="42" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F84" s="42" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G84" s="42" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="H84" s="42" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="85" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C85" s="53" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="D85" s="53">
         <v>2020</v>
@@ -6324,490 +6353,493 @@
         <v>32</v>
       </c>
       <c r="F85" s="53" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="G85" s="53" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="H85" s="53" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="86" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C86" s="53" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="D86" s="53">
         <v>2020</v>
       </c>
       <c r="E86" s="53" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F86" s="53" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="G86" s="53" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="H86" s="53" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="87" spans="3:8" ht="83.25" x14ac:dyDescent="0.4">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" ht="84" x14ac:dyDescent="0.3">
       <c r="C87" s="32" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="D87" s="32">
         <v>2021</v>
       </c>
       <c r="E87" s="32" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="F87" s="32" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="G87" s="32" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="H87" s="32" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="89" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C89" s="87" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C89" s="90" t="s">
         <v>235</v>
       </c>
-      <c r="D89" s="88"/>
-      <c r="E89" s="88"/>
-      <c r="F89" s="88"/>
-      <c r="G89" s="88"/>
-      <c r="H89" s="89"/>
-    </row>
-    <row r="90" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="D89" s="91"/>
+      <c r="E89" s="91"/>
+      <c r="F89" s="91"/>
+      <c r="G89" s="91"/>
+      <c r="H89" s="92"/>
+    </row>
+    <row r="90" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C90" s="32" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D90" s="32">
         <v>2005</v>
       </c>
       <c r="E90" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="F90" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="G90" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="F90" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="G90" s="32" t="s">
-        <v>245</v>
-      </c>
       <c r="H90" s="32" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="91" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C91" s="40" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="D91" s="40">
         <v>2007</v>
       </c>
       <c r="E91" s="40" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="F91" s="40" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="G91" s="40" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H91" s="40" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="92" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C92" s="40" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D92" s="40">
         <v>2009</v>
       </c>
       <c r="E92" s="40" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F92" s="40" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="G92" s="40" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="H92" s="40" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="93" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8" ht="70" x14ac:dyDescent="0.3">
       <c r="C93" s="32" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="D93" s="32">
         <v>2015</v>
       </c>
       <c r="E93" s="32" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="F93" s="32" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="G93" s="32" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="H93" s="32" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="94" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C94" s="41" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="D94" s="40">
         <v>2015</v>
       </c>
       <c r="E94" s="40" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="F94" s="40" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="G94" s="40" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H94" s="40" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="95" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8" ht="56" x14ac:dyDescent="0.3">
       <c r="C95" s="32" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="D95" s="32">
         <v>2016</v>
       </c>
       <c r="E95" s="32" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="F95" s="32" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="G95" s="32" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="H95" s="32" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="96" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C96" s="32" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="D96" s="32">
         <v>2016</v>
       </c>
       <c r="E96" s="32"/>
       <c r="F96" s="32" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="G96" s="32" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="H96" s="43" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="97" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="97" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C97" s="44" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D97" s="44">
         <v>2016</v>
       </c>
       <c r="E97" s="45" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="F97" s="44" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="G97" s="44"/>
       <c r="H97" s="44"/>
     </row>
-    <row r="98" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="98" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C98" s="44" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="D98" s="44">
         <v>2017</v>
       </c>
       <c r="E98" s="44" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="F98" s="44" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="G98" s="44"/>
       <c r="H98" s="44"/>
     </row>
-    <row r="99" spans="3:8" s="27" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="99" spans="3:8" s="27" customFormat="1" ht="56" x14ac:dyDescent="0.3">
       <c r="C99" s="47" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="D99" s="32">
         <v>2017</v>
       </c>
       <c r="E99" s="32" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="F99" s="32" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="G99" s="32" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="H99" s="32" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="100" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="100" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C100" s="46" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="D100" s="44">
         <v>2019</v>
       </c>
       <c r="E100" s="44" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="F100" s="44" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="G100" s="44"/>
       <c r="H100" s="44"/>
     </row>
-    <row r="101" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="101" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C101" s="47" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D101" s="32">
         <v>2019</v>
       </c>
       <c r="E101" s="32" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="F101" s="32"/>
       <c r="G101" s="32"/>
       <c r="H101" s="32"/>
     </row>
-    <row r="102" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+    <row r="102" spans="3:8" ht="70" x14ac:dyDescent="0.3">
       <c r="C102" s="32" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D102" s="32">
         <v>2020</v>
       </c>
       <c r="E102" s="32" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F102" s="32" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="G102" s="32" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="H102" s="32" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="103" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="103" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C103" s="40" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="D103" s="40">
         <v>2020</v>
       </c>
       <c r="E103" s="40" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="F103" s="40" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="G103" s="40" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H103" s="40" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="104" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="104" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C104" s="40" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="D104" s="40">
         <v>2021</v>
       </c>
       <c r="E104" s="40" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="F104" s="40" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="G104" s="40" t="s">
+        <v>457</v>
+      </c>
+      <c r="H104" s="40" t="s">
         <v>467</v>
       </c>
-      <c r="H104" s="40" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="105" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    </row>
+    <row r="105" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C105" s="40" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="D105" s="40">
         <v>2022</v>
       </c>
       <c r="E105" s="40" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="F105" s="40" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="G105" s="40" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H105" s="40" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="107" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C107" s="78" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="107" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C107" s="87" t="s">
         <v>236</v>
       </c>
-      <c r="D107" s="79"/>
-      <c r="E107" s="79"/>
-      <c r="F107" s="79"/>
-      <c r="G107" s="79"/>
-      <c r="H107" s="80"/>
-    </row>
-    <row r="108" spans="3:8" ht="111" x14ac:dyDescent="0.4">
+      <c r="D107" s="88"/>
+      <c r="E107" s="88"/>
+      <c r="F107" s="88"/>
+      <c r="G107" s="88"/>
+      <c r="H107" s="89"/>
+    </row>
+    <row r="108" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C108" s="7" t="s">
-        <v>238</v>
+        <v>351</v>
       </c>
       <c r="D108" s="7">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>239</v>
+        <v>352</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>329</v>
+        <v>585</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="109" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
-      <c r="C109" s="7" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="109" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C109" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D109" s="12">
+        <v>2016</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="G109" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="D109" s="7">
-        <v>2011</v>
-      </c>
-      <c r="E109" s="7" t="s">
+      <c r="H109" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="F109" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H109" s="7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="110" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C110" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="D110" s="7">
-        <v>2015</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="F110" s="7" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="111" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C111" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="D111" s="7">
+    </row>
+    <row r="110" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C110" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="D110" s="12">
         <v>2016</v>
       </c>
-      <c r="E111" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F111" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G111" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="H111" s="7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="112" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="E110" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="G110" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="H110" s="12" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="111" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C111" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="D111" s="12">
+        <v>2017</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="G111" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="H111" s="12" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="112" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C112" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D112" s="12">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="G112" s="12" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="H112" s="12" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="113" spans="3:9" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C113" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="D113" s="12">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="113" spans="1:33" ht="56" x14ac:dyDescent="0.3">
+      <c r="C113" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D113" s="7">
         <v>2017</v>
       </c>
-      <c r="E113" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="F113" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="G113" s="12" t="s">
-        <v>630</v>
-      </c>
-      <c r="H113" s="12" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="114" spans="3:9" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="E113" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="114" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C114" s="12" t="s">
         <v>359</v>
       </c>
@@ -6818,365 +6850,419 @@
         <v>360</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="G114" s="12" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="H114" s="12" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="115" spans="3:9" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C115" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D115" s="7">
-        <v>2017</v>
-      </c>
-      <c r="E115" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F115" s="7" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="116" spans="3:9" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C116" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="D116" s="12">
-        <v>2017</v>
-      </c>
-      <c r="E116" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="F116" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="G116" s="12" t="s">
-        <v>646</v>
-      </c>
-      <c r="H116" s="12" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="117" spans="3:9" ht="83.25" x14ac:dyDescent="0.4">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="115" spans="1:33" ht="70" x14ac:dyDescent="0.3">
+      <c r="C115" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="D115" s="12">
+        <v>2018</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="G115" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="H115" s="12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="116" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+      <c r="C116" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D116" s="7">
+        <v>2018</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="117" spans="1:33" ht="56" x14ac:dyDescent="0.3">
       <c r="C117" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="D117" s="12">
+        <v>2019</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="G117" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="H117" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="D117" s="12">
-        <v>2018</v>
-      </c>
-      <c r="E117" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="F117" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="G117" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="H117" s="12" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="118" spans="3:9" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C118" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="D118" s="7">
-        <v>2018</v>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F118" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="H118" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="119" spans="3:9" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C119" s="12" t="s">
-        <v>269</v>
+      <c r="I117" s="79" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="118" spans="1:33" ht="42" x14ac:dyDescent="0.3">
+      <c r="C118" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="D118" s="12">
+        <v>2019</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="G118" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="H118" s="12"/>
+    </row>
+    <row r="119" spans="1:33" s="14" customFormat="1" ht="84" x14ac:dyDescent="0.3">
+      <c r="C119" s="80" t="s">
+        <v>270</v>
       </c>
       <c r="D119" s="12">
         <v>2019</v>
       </c>
-      <c r="E119" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="F119" s="12" t="s">
-        <v>635</v>
-      </c>
-      <c r="G119" s="12" t="s">
+      <c r="E119" s="80" t="s">
+        <v>271</v>
+      </c>
+      <c r="F119" s="80" t="s">
+        <v>274</v>
+      </c>
+      <c r="G119" s="80" t="s">
         <v>272</v>
       </c>
-      <c r="H119" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="I119" s="99" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="120" spans="3:9" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C120" s="12" t="s">
-        <v>355</v>
+      <c r="H119" s="80" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="120" spans="1:33" s="14" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="C120" s="80" t="s">
+        <v>354</v>
       </c>
       <c r="D120" s="12">
         <v>2019</v>
       </c>
-      <c r="E120" s="12" t="s">
+      <c r="E120" s="80" t="s">
+        <v>355</v>
+      </c>
+      <c r="F120" s="80" t="s">
         <v>356</v>
       </c>
-      <c r="F120" s="12" t="s">
+      <c r="G120" s="80" t="s">
+        <v>638</v>
+      </c>
+      <c r="H120" s="80" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="121" spans="1:33" s="14" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="C121" s="74" t="s">
+        <v>276</v>
+      </c>
+      <c r="D121" s="75">
+        <v>2020</v>
+      </c>
+      <c r="E121" s="76" t="s">
+        <v>277</v>
+      </c>
+      <c r="F121" s="74" t="s">
+        <v>280</v>
+      </c>
+      <c r="G121" s="74" t="s">
+        <v>279</v>
+      </c>
+      <c r="H121" s="74" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="122" spans="1:33" s="14" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="C122" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="D122" s="54">
+        <v>2021</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F122" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="G122" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="H122" s="25" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="123" spans="1:33" s="33" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="C123" s="80" t="s">
+        <v>422</v>
+      </c>
+      <c r="D123" s="82">
+        <v>2022</v>
+      </c>
+      <c r="E123" s="83" t="s">
+        <v>663</v>
+      </c>
+      <c r="F123" s="80" t="s">
+        <v>658</v>
+      </c>
+      <c r="G123" s="80" t="s">
+        <v>659</v>
+      </c>
+      <c r="H123" s="80" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="124" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+      <c r="C124" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="D124" s="26">
+        <v>2021</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="H124" s="57" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="125" spans="1:33" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="C125" s="80" t="s">
         <v>357</v>
       </c>
-      <c r="G120" s="12" t="s">
-        <v>665</v>
-      </c>
-      <c r="H120" s="12"/>
-    </row>
-    <row r="121" spans="3:9" s="14" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
-      <c r="C121" s="103" t="s">
-        <v>277</v>
-      </c>
-      <c r="D121" s="12">
+      <c r="D125" s="81">
         <v>2019</v>
       </c>
-      <c r="E121" s="103" t="s">
-        <v>278</v>
-      </c>
-      <c r="F121" s="103" t="s">
-        <v>281</v>
-      </c>
-      <c r="G121" s="103" t="s">
-        <v>279</v>
-      </c>
-      <c r="H121" s="103" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="122" spans="3:9" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C122" s="103" t="s">
-        <v>364</v>
-      </c>
-      <c r="D122" s="12">
-        <v>2019</v>
-      </c>
-      <c r="E122" s="103" t="s">
-        <v>365</v>
-      </c>
-      <c r="F122" s="103" t="s">
-        <v>366</v>
-      </c>
-      <c r="G122" s="103" t="s">
-        <v>648</v>
-      </c>
-      <c r="H122" s="103" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="123" spans="3:9" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C123" s="74" t="s">
-        <v>283</v>
-      </c>
-      <c r="D123" s="75">
-        <v>2020</v>
-      </c>
-      <c r="E123" s="76" t="s">
-        <v>284</v>
-      </c>
-      <c r="F123" s="74" t="s">
-        <v>287</v>
-      </c>
-      <c r="G123" s="74" t="s">
-        <v>286</v>
-      </c>
-      <c r="H123" s="74" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="124" spans="3:9" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C124" s="25" t="s">
-        <v>305</v>
-      </c>
-      <c r="D124" s="54">
-        <v>2021</v>
-      </c>
-      <c r="E124" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F124" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="G124" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="H124" s="25" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="125" spans="3:9" s="33" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C125" s="103" t="s">
-        <v>432</v>
-      </c>
-      <c r="D125" s="105">
-        <v>2022</v>
-      </c>
-      <c r="E125" s="106" t="s">
-        <v>673</v>
-      </c>
-      <c r="F125" s="103" t="s">
-        <v>668</v>
-      </c>
-      <c r="G125" s="103" t="s">
-        <v>669</v>
-      </c>
-      <c r="H125" s="103" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="126" spans="3:9" s="100" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C126" s="101" t="s">
-        <v>656</v>
-      </c>
-      <c r="D126" s="102">
-        <v>2021</v>
-      </c>
-      <c r="E126" s="101" t="s">
-        <v>657</v>
-      </c>
-      <c r="F126" s="101" t="s">
-        <v>658</v>
-      </c>
-      <c r="G126" s="101"/>
-      <c r="H126" s="101"/>
-    </row>
-    <row r="127" spans="3:9" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C127" s="103" t="s">
-        <v>367</v>
-      </c>
-      <c r="D127" s="104">
-        <v>2019</v>
-      </c>
-      <c r="E127" s="103" t="s">
-        <v>655</v>
-      </c>
-      <c r="F127" s="103" t="s">
-        <v>368</v>
-      </c>
-      <c r="G127" s="103" t="s">
-        <v>662</v>
-      </c>
-      <c r="H127" s="103" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="128" spans="3:9" ht="69.400000000000006" x14ac:dyDescent="0.4">
-      <c r="C128" s="77" t="s">
-        <v>586</v>
-      </c>
-      <c r="D128" s="77">
+      <c r="E125" s="80" t="s">
+        <v>645</v>
+      </c>
+      <c r="F125" s="80" t="s">
+        <v>358</v>
+      </c>
+      <c r="G125" s="80" t="s">
+        <v>652</v>
+      </c>
+      <c r="H125" s="80" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="126" spans="1:33" ht="70" x14ac:dyDescent="0.3">
+      <c r="C126" s="77" t="s">
+        <v>576</v>
+      </c>
+      <c r="D126" s="77">
         <v>2023</v>
       </c>
-      <c r="E128" s="77" t="s">
-        <v>587</v>
-      </c>
-      <c r="F128" s="77" t="s">
-        <v>588</v>
-      </c>
-      <c r="G128" s="77" t="s">
-        <v>589</v>
-      </c>
-      <c r="H128" s="77" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="129" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C129" s="87" t="s">
+      <c r="E126" s="77" t="s">
+        <v>577</v>
+      </c>
+      <c r="F126" s="77" t="s">
+        <v>578</v>
+      </c>
+      <c r="G126" s="77" t="s">
+        <v>579</v>
+      </c>
+      <c r="H126" s="77" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="127" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C127" s="90" t="s">
         <v>237</v>
       </c>
-      <c r="D129" s="88"/>
-      <c r="E129" s="88"/>
-      <c r="F129" s="88"/>
-      <c r="G129" s="88"/>
-      <c r="H129" s="89"/>
-    </row>
-    <row r="130" spans="3:8" s="25" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C130" s="25" t="s">
-        <v>407</v>
-      </c>
-      <c r="D130" s="25">
+      <c r="D127" s="91"/>
+      <c r="E127" s="91"/>
+      <c r="F127" s="91"/>
+      <c r="G127" s="91"/>
+      <c r="H127" s="92"/>
+    </row>
+    <row r="128" spans="1:33" s="113" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="112"/>
+      <c r="B128" s="112"/>
+      <c r="C128" s="111" t="s">
+        <v>685</v>
+      </c>
+      <c r="D128" s="114">
+        <v>2010</v>
+      </c>
+      <c r="E128" s="115" t="s">
+        <v>81</v>
+      </c>
+      <c r="F128" s="115"/>
+      <c r="G128" s="115"/>
+      <c r="H128" s="115"/>
+      <c r="I128" s="112"/>
+      <c r="J128" s="112"/>
+      <c r="K128" s="112"/>
+      <c r="L128" s="112"/>
+      <c r="M128" s="112"/>
+      <c r="N128" s="112"/>
+      <c r="O128" s="112"/>
+      <c r="P128" s="112"/>
+      <c r="Q128" s="112"/>
+      <c r="R128" s="112"/>
+      <c r="S128" s="112"/>
+      <c r="T128" s="112"/>
+      <c r="U128" s="112"/>
+      <c r="V128" s="112"/>
+      <c r="W128" s="112"/>
+      <c r="X128" s="112"/>
+      <c r="Y128" s="112"/>
+      <c r="Z128" s="112"/>
+      <c r="AA128" s="112"/>
+      <c r="AB128" s="112"/>
+      <c r="AC128" s="112"/>
+      <c r="AD128" s="112"/>
+      <c r="AE128" s="112"/>
+      <c r="AF128" s="112"/>
+      <c r="AG128" s="112"/>
+    </row>
+    <row r="129" spans="1:33" s="113" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="112"/>
+      <c r="B129" s="112"/>
+      <c r="C129" s="111" t="s">
+        <v>686</v>
+      </c>
+      <c r="D129" s="114">
+        <v>2014</v>
+      </c>
+      <c r="E129" s="111" t="s">
+        <v>687</v>
+      </c>
+      <c r="F129" s="115"/>
+      <c r="G129" s="115"/>
+      <c r="H129" s="115"/>
+      <c r="I129" s="112"/>
+      <c r="J129" s="112"/>
+      <c r="K129" s="112"/>
+      <c r="L129" s="112"/>
+      <c r="M129" s="112"/>
+      <c r="N129" s="112"/>
+      <c r="O129" s="112"/>
+      <c r="P129" s="112"/>
+      <c r="Q129" s="112"/>
+      <c r="R129" s="112"/>
+      <c r="S129" s="112"/>
+      <c r="T129" s="112"/>
+      <c r="U129" s="112"/>
+      <c r="V129" s="112"/>
+      <c r="W129" s="112"/>
+      <c r="X129" s="112"/>
+      <c r="Y129" s="112"/>
+      <c r="Z129" s="112"/>
+      <c r="AA129" s="112"/>
+      <c r="AB129" s="112"/>
+      <c r="AC129" s="112"/>
+      <c r="AD129" s="112"/>
+      <c r="AE129" s="112"/>
+      <c r="AF129" s="112"/>
+      <c r="AG129" s="112"/>
+    </row>
+    <row r="130" spans="1:33" s="25" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+      <c r="C130" s="80" t="s">
+        <v>397</v>
+      </c>
+      <c r="D130" s="80">
         <v>2016</v>
       </c>
-      <c r="E130" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="F130" s="25" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="131" spans="3:8" s="29" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="E130" s="80" t="s">
+        <v>398</v>
+      </c>
+      <c r="F130" s="80" t="s">
+        <v>399</v>
+      </c>
+      <c r="G130" s="80"/>
+      <c r="H130" s="80"/>
+    </row>
+    <row r="131" spans="1:33" s="29" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="C131" s="30" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D131" s="30">
         <v>2017</v>
       </c>
       <c r="E131" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="F131" s="30" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="G131" s="30"/>
       <c r="H131" s="30"/>
     </row>
-    <row r="132" spans="3:8" s="29" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:33" s="29" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="C132" s="30" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="D132" s="30">
         <v>2018</v>
       </c>
       <c r="E132" s="27" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F132" s="30" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="G132" s="30"/>
       <c r="H132" s="30"/>
     </row>
-    <row r="133" spans="3:8" s="29" customFormat="1" ht="111" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:33" s="29" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="C133" s="30" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="D133" s="30">
         <v>2018</v>
       </c>
       <c r="E133" s="31" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="F133" s="30" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="G133" s="30" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="H133" s="30" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="134" spans="3:8" ht="97.15" x14ac:dyDescent="0.4">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="134" spans="1:33" ht="98" x14ac:dyDescent="0.3">
       <c r="C134" s="26" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D134" s="26">
         <v>2019</v>
@@ -7185,338 +7271,342 @@
         <v>101</v>
       </c>
       <c r="F134" s="26" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G134" s="26" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="H134" s="26" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="135" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C135" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="D135" s="7">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="135" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+      <c r="C135" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="D135" s="12">
         <v>2019</v>
       </c>
-      <c r="E135" s="7" t="s">
+      <c r="E135" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="F135" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
+    </row>
+    <row r="136" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+      <c r="C136" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="F135" s="7" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="136" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C136" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="D136" s="7">
         <v>2019</v>
       </c>
       <c r="E136" s="27" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="137" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C137" s="28" t="s">
-        <v>404</v>
-      </c>
-      <c r="D137" s="7">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="137" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+      <c r="C137" s="111" t="s">
+        <v>394</v>
+      </c>
+      <c r="D137" s="12">
         <v>2019</v>
       </c>
-      <c r="E137" t="s">
-        <v>405</v>
-      </c>
-      <c r="F137" s="7" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="138" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="E137" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="F137" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="G137" s="12"/>
+      <c r="H137" s="12"/>
+    </row>
+    <row r="138" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C138" s="28" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="D138" s="7">
         <v>2019</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="139" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="139" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C139" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="D139" s="7">
         <v>2019</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="140" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C140" s="78" t="s">
-        <v>575</v>
-      </c>
-      <c r="D140" s="79"/>
-      <c r="E140" s="79"/>
-      <c r="F140" s="79"/>
-      <c r="G140" s="79"/>
-      <c r="H140" s="80"/>
-    </row>
-    <row r="141" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="140" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C140" s="87" t="s">
+        <v>565</v>
+      </c>
+      <c r="D140" s="88"/>
+      <c r="E140" s="88"/>
+      <c r="F140" s="88"/>
+      <c r="G140" s="88"/>
+      <c r="H140" s="89"/>
+    </row>
+    <row r="141" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C141" s="67" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="D141" s="67">
         <v>2007</v>
       </c>
       <c r="E141" s="67" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="F141" s="67" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="G141" s="67" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="H141" s="67" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="142" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="142" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C142" s="55" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="D142" s="55">
         <v>2018</v>
       </c>
       <c r="E142" s="55" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F142" s="55" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="G142" s="55" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="H142" s="55" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="143" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="143" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C143" s="70" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="D143" s="70">
         <v>2023</v>
       </c>
       <c r="E143" s="70" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="F143" s="70" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="G143" s="70" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="H143" s="70"/>
     </row>
-    <row r="144" spans="3:8" s="14" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:33" s="14" customFormat="1" ht="56" x14ac:dyDescent="0.3">
       <c r="C144" s="64" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D144" s="65">
         <v>2023</v>
       </c>
       <c r="E144" s="66" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F144" s="64" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="G144" s="64" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="H144" s="64" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="148" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C148" s="78" t="s">
-        <v>282</v>
-      </c>
-      <c r="D148" s="79"/>
-      <c r="E148" s="79"/>
-      <c r="F148" s="79"/>
-      <c r="G148" s="79"/>
-      <c r="H148" s="80"/>
-    </row>
-    <row r="149" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="148" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C148" s="87" t="s">
+        <v>275</v>
+      </c>
+      <c r="D148" s="88"/>
+      <c r="E148" s="88"/>
+      <c r="F148" s="88"/>
+      <c r="G148" s="88"/>
+      <c r="H148" s="89"/>
+    </row>
+    <row r="149" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C149" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D149" s="7">
         <v>2020</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="150" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="150" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C150" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D150" s="7">
         <v>2021</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="151" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="151" spans="3:8" ht="56" x14ac:dyDescent="0.3">
       <c r="C151" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D151" s="7">
         <v>2022</v>
       </c>
       <c r="E151" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F151" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G151" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="152" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C152" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="F151" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G151" s="7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="152" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C152" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="D152" s="7">
         <v>2023</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="153" spans="3:8" s="100" customFormat="1" ht="111" x14ac:dyDescent="0.4">
-      <c r="C153" s="101" t="s">
-        <v>301</v>
-      </c>
-      <c r="D153" s="101">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="153" spans="3:8" ht="98" x14ac:dyDescent="0.3">
+      <c r="C153" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D153" s="7">
         <v>2023</v>
       </c>
-      <c r="E153" s="101" t="s">
-        <v>300</v>
-      </c>
-      <c r="F153" s="101" t="s">
-        <v>304</v>
-      </c>
-      <c r="G153" s="101" t="s">
-        <v>302</v>
-      </c>
-      <c r="H153" s="101" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="156" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C156" s="78" t="s">
-        <v>481</v>
-      </c>
-      <c r="D156" s="79"/>
-      <c r="E156" s="79"/>
-      <c r="F156" s="79"/>
-      <c r="G156" s="79"/>
-      <c r="H156" s="80"/>
-    </row>
-    <row r="157" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="E153" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F153" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G153" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H153" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="156" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C156" s="87" t="s">
+        <v>471</v>
+      </c>
+      <c r="D156" s="88"/>
+      <c r="E156" s="88"/>
+      <c r="F156" s="88"/>
+      <c r="G156" s="88"/>
+      <c r="H156" s="89"/>
+    </row>
+    <row r="157" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C157" s="26" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="D157" s="26">
         <v>2017</v>
       </c>
       <c r="E157" s="26" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="F157" s="26"/>
       <c r="G157" s="26"/>
       <c r="H157" s="26"/>
     </row>
-    <row r="158" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="158" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C158" s="26" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="D158" s="26">
         <v>2020</v>
       </c>
       <c r="E158" s="26" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="F158" s="26" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="G158" s="26"/>
       <c r="H158" s="26"/>
     </row>
-    <row r="159" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="159" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C159" s="7" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="D159" s="7">
         <v>2021</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="160" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="160" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C160" s="7" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="D160" s="7">
         <v>2021</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C156:H156"/>
-    <mergeCell ref="C148:H148"/>
-    <mergeCell ref="C89:H89"/>
-    <mergeCell ref="C107:H107"/>
-    <mergeCell ref="C129:H129"/>
-    <mergeCell ref="C140:H140"/>
     <mergeCell ref="C77:H77"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="C44:H44"/>
     <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C156:H156"/>
+    <mergeCell ref="C148:H148"/>
+    <mergeCell ref="C89:H89"/>
+    <mergeCell ref="C107:H107"/>
+    <mergeCell ref="C127:H127"/>
+    <mergeCell ref="C140:H140"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7531,400 +7621,400 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F283F35-418D-4BB1-82BA-2ABDAAC924FE}">
   <dimension ref="B5:H25"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView topLeftCell="A15" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.9296875" customWidth="1"/>
+    <col min="2" max="2" width="11.9140625" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.796875" customWidth="1"/>
-    <col min="5" max="5" width="19.265625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19.25" style="38" customWidth="1"/>
     <col min="6" max="6" width="35.33203125" customWidth="1"/>
-    <col min="7" max="7" width="28.73046875" style="38" customWidth="1"/>
-    <col min="8" max="8" width="29.9296875" customWidth="1"/>
+    <col min="7" max="7" width="28.75" style="38" customWidth="1"/>
+    <col min="8" max="8" width="29.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="2:8" ht="20.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="90" t="s">
+    <row r="5" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:8" ht="20" x14ac:dyDescent="0.4">
+      <c r="B6" s="99" t="s">
+        <v>479</v>
+      </c>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="101"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="59" t="s">
+        <v>480</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>481</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>482</v>
+      </c>
+      <c r="E7" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>484</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="104.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="102" t="s">
+        <v>504</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>594</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>486</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="91" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="102"/>
+      <c r="C9" s="56" t="s">
+        <v>595</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>488</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="92"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="59" t="s">
+      <c r="F9" s="50" t="s">
         <v>490</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="G9" s="48" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="102"/>
+      <c r="C10" s="56" t="s">
+        <v>596</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>491</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="E10" s="28" t="s">
         <v>492</v>
       </c>
-      <c r="E7" s="98" t="s">
+      <c r="F10" s="51" t="s">
         <v>493</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="G10" s="48" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="96.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="102"/>
+      <c r="C11" s="56" t="s">
+        <v>596</v>
+      </c>
+      <c r="D11" s="27" t="s">
         <v>494</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="E11" s="28" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" ht="104.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="93" t="s">
+      <c r="F11" s="51" t="s">
+        <v>496</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="109" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="102"/>
+      <c r="C12" s="56" t="s">
+        <v>596</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>497</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>499</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="89" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="102"/>
+      <c r="C13" s="56" t="s">
+        <v>596</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>500</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>501</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>502</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="B14" s="102"/>
+      <c r="C14" s="56" t="s">
+        <v>596</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>503</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="B15" s="102" t="s">
+        <v>542</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>597</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>517</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>519</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>520</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="B16" s="102"/>
+      <c r="C16" s="28" t="s">
+        <v>599</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>473</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>526</v>
+      </c>
+      <c r="F16" s="51" t="s">
+        <v>527</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>521</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="84" x14ac:dyDescent="0.3">
+      <c r="B17" s="102"/>
+      <c r="C17" s="28" t="s">
+        <v>598</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>536</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>532</v>
+      </c>
+      <c r="F17" s="51" t="s">
+        <v>528</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>522</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="B18" s="102"/>
+      <c r="C18" s="28" t="s">
+        <v>599</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>476</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>529</v>
+      </c>
+      <c r="F18" s="51" t="s">
+        <v>530</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>523</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="B19" s="102"/>
+      <c r="C19" s="28" t="s">
+        <v>599</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="F19" s="51" t="s">
         <v>514</v>
       </c>
-      <c r="C8" s="56" t="s">
-        <v>604</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>496</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="G8" s="48" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="91.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="93"/>
-      <c r="C9" s="56" t="s">
-        <v>605</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>498</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>500</v>
-      </c>
-      <c r="G9" s="48" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="93"/>
-      <c r="C10" s="56" t="s">
-        <v>606</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>501</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>502</v>
-      </c>
-      <c r="F10" s="51" t="s">
+      <c r="G19" s="38" t="s">
+        <v>510</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="69.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="102"/>
+      <c r="C20" s="28" t="s">
+        <v>598</v>
+      </c>
+      <c r="D20" s="27" t="s">
         <v>503</v>
       </c>
-      <c r="G10" s="48" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="96.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="93"/>
-      <c r="C11" s="56" t="s">
-        <v>606</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>504</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="F11" s="51" t="s">
-        <v>506</v>
-      </c>
-      <c r="G11" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="109.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="93"/>
-      <c r="C12" s="56" t="s">
-        <v>606</v>
-      </c>
-      <c r="D12" s="27" t="s">
+      <c r="E20" s="28" t="s">
+        <v>534</v>
+      </c>
+      <c r="F20" s="51" t="s">
+        <v>531</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>524</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="B21" s="102"/>
+      <c r="C21" s="28" t="s">
+        <v>599</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>537</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>535</v>
+      </c>
+      <c r="F21" s="51" t="s">
         <v>507</v>
       </c>
-      <c r="E12" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="F12" s="51" t="s">
-        <v>509</v>
-      </c>
-      <c r="G12" s="49" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="89" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="93"/>
-      <c r="C13" s="56" t="s">
-        <v>606</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="F13" s="51" t="s">
-        <v>512</v>
-      </c>
-      <c r="G13" s="49" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B14" s="93"/>
-      <c r="C14" s="56" t="s">
-        <v>606</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>513</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="F14" s="50" t="s">
-        <v>299</v>
-      </c>
-      <c r="G14" s="48" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="B15" s="93" t="s">
-        <v>552</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>607</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>527</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>528</v>
-      </c>
-      <c r="F15" s="51" t="s">
-        <v>529</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>530</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B16" s="93"/>
-      <c r="C16" s="28" t="s">
-        <v>609</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>483</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>536</v>
-      </c>
-      <c r="F16" s="51" t="s">
-        <v>537</v>
-      </c>
-      <c r="G16" s="38" t="s">
-        <v>531</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="97.15" x14ac:dyDescent="0.4">
-      <c r="B17" s="93"/>
-      <c r="C17" s="28" t="s">
-        <v>608</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>546</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>542</v>
-      </c>
-      <c r="F17" s="51" t="s">
-        <v>538</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>532</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="B18" s="93"/>
-      <c r="C18" s="28" t="s">
-        <v>609</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>486</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>539</v>
-      </c>
-      <c r="F18" s="51" t="s">
+      <c r="G21" s="38" t="s">
+        <v>525</v>
+      </c>
+      <c r="H21" s="28" t="s">
         <v>540</v>
       </c>
-      <c r="G18" s="38" t="s">
-        <v>533</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B19" s="93"/>
-      <c r="C19" s="28" t="s">
-        <v>609</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>519</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>543</v>
-      </c>
-      <c r="F19" s="51" t="s">
-        <v>524</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>520</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="69.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="93"/>
-      <c r="C20" s="28" t="s">
-        <v>608</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>513</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>544</v>
-      </c>
-      <c r="F20" s="51" t="s">
-        <v>541</v>
-      </c>
-      <c r="G20" s="38" t="s">
-        <v>534</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="B21" s="93"/>
-      <c r="C21" s="28" t="s">
-        <v>609</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>547</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>545</v>
-      </c>
-      <c r="F21" s="51" t="s">
-        <v>517</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>535</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B22" s="94" t="s">
+    </row>
+    <row r="22" spans="2:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="B22" s="103" t="s">
         <v>136</v>
       </c>
       <c r="C22" s="28" t="s">
         <v>204</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="E22" s="28" t="s">
+        <v>573</v>
+      </c>
+      <c r="F22" s="51" t="s">
+        <v>574</v>
+      </c>
+      <c r="G22" s="38" t="s">
         <v>583</v>
       </c>
-      <c r="F22" s="51" t="s">
+    </row>
+    <row r="23" spans="2:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="B23" s="104"/>
+      <c r="C23" s="28" t="s">
+        <v>600</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>581</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>582</v>
+      </c>
+      <c r="F23" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="B24" s="104"/>
+      <c r="C24" s="68" t="s">
+        <v>601</v>
+      </c>
+      <c r="D24" s="68" t="s">
+        <v>503</v>
+      </c>
+      <c r="E24" s="68" t="s">
+        <v>606</v>
+      </c>
+      <c r="F24" s="69" t="s">
+        <v>607</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="105"/>
+      <c r="C25" s="52" t="s">
+        <v>601</v>
+      </c>
+      <c r="D25" s="62" t="s">
+        <v>569</v>
+      </c>
+      <c r="E25" s="62" t="s">
+        <v>571</v>
+      </c>
+      <c r="F25" s="63" t="s">
+        <v>567</v>
+      </c>
+      <c r="G25" s="38" t="s">
         <v>584</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="B23" s="95"/>
-      <c r="C23" s="28" t="s">
-        <v>610</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>591</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>592</v>
-      </c>
-      <c r="F23" s="51" t="s">
-        <v>590</v>
-      </c>
-      <c r="G23" s="38" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="B24" s="95"/>
-      <c r="C24" s="68" t="s">
-        <v>611</v>
-      </c>
-      <c r="D24" s="68" t="s">
-        <v>513</v>
-      </c>
-      <c r="E24" s="68" t="s">
-        <v>616</v>
-      </c>
-      <c r="F24" s="69" t="s">
-        <v>617</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="42" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="96"/>
-      <c r="C25" s="52" t="s">
-        <v>611</v>
-      </c>
-      <c r="D25" s="62" t="s">
-        <v>579</v>
-      </c>
-      <c r="E25" s="62" t="s">
-        <v>581</v>
-      </c>
-      <c r="F25" s="63" t="s">
-        <v>577</v>
-      </c>
-      <c r="G25" s="38" t="s">
-        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -7945,220 +8035,220 @@
   <dimension ref="B4:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.9296875" customWidth="1"/>
-    <col min="3" max="3" width="21.3984375" customWidth="1"/>
-    <col min="4" max="4" width="20.9296875" customWidth="1"/>
-    <col min="5" max="5" width="25.59765625" customWidth="1"/>
-    <col min="6" max="6" width="41.265625" customWidth="1"/>
-    <col min="7" max="7" width="15.59765625" customWidth="1"/>
+    <col min="2" max="2" width="14.9140625" customWidth="1"/>
+    <col min="3" max="3" width="21.4140625" customWidth="1"/>
+    <col min="4" max="4" width="20.9140625" customWidth="1"/>
+    <col min="5" max="5" width="25.58203125" customWidth="1"/>
+    <col min="6" max="6" width="41.25" customWidth="1"/>
+    <col min="7" max="7" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="2:7" ht="20.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="90" t="s">
-        <v>478</v>
-      </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="92"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:7" ht="20" x14ac:dyDescent="0.4">
+      <c r="B5" s="99" t="s">
+        <v>468</v>
+      </c>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="101"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="59" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="D6" s="58" t="s">
+        <v>551</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>552</v>
+      </c>
+      <c r="F6" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="B7" s="102" t="s">
+        <v>504</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>596</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>554</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="B8" s="102"/>
+      <c r="C8" s="28" t="s">
+        <v>602</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E8" s="57" t="s">
+        <v>587</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="B9" s="102"/>
+      <c r="C9" s="28" t="s">
+        <v>603</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>555</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="B10" s="102"/>
+      <c r="C10" s="56" t="s">
+        <v>596</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>560</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>556</v>
+      </c>
+      <c r="F10" s="61" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="B11" s="102"/>
+      <c r="C11" s="28" t="s">
+        <v>604</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>557</v>
+      </c>
+      <c r="F11" s="49" t="s">
         <v>561</v>
       </c>
-      <c r="E6" s="60" t="s">
+    </row>
+    <row r="12" spans="2:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="B12" s="102"/>
+      <c r="C12" s="28" t="s">
+        <v>604</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>559</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>558</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="B13" s="102" t="s">
+        <v>542</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>598</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>564</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>547</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>543</v>
+      </c>
+      <c r="G13" s="28" t="s">
         <v>562</v>
       </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="14" spans="2:7" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="102"/>
+      <c r="C14" s="28" t="s">
+        <v>605</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>545</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>608</v>
+      </c>
+      <c r="G14" s="52" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="93" t="s">
-        <v>514</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>606</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>419</v>
-      </c>
-      <c r="E7" s="57" t="s">
-        <v>564</v>
-      </c>
-      <c r="F7" s="49" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B8" s="93"/>
-      <c r="C8" s="28" t="s">
-        <v>612</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>596</v>
-      </c>
-      <c r="E8" s="57" t="s">
-        <v>597</v>
-      </c>
-      <c r="F8" s="49" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B9" s="93"/>
-      <c r="C9" s="28" t="s">
-        <v>613</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>419</v>
-      </c>
-      <c r="E9" s="51" t="s">
+    <row r="15" spans="2:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="B15" s="102" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="28" t="s">
         <v>565</v>
       </c>
-      <c r="F9" s="49" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B10" s="93"/>
-      <c r="C10" s="56" t="s">
-        <v>606</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>570</v>
-      </c>
-      <c r="E10" s="51" t="s">
-        <v>566</v>
-      </c>
-      <c r="F10" s="61" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B11" s="93"/>
-      <c r="C11" s="28" t="s">
-        <v>614</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>419</v>
-      </c>
-      <c r="E11" s="51" t="s">
-        <v>567</v>
-      </c>
-      <c r="F11" s="49" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="B12" s="93"/>
-      <c r="C12" s="28" t="s">
-        <v>614</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>569</v>
-      </c>
-      <c r="E12" s="51" t="s">
-        <v>568</v>
-      </c>
-      <c r="F12" s="49" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B13" s="93" t="s">
-        <v>552</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>608</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>574</v>
-      </c>
-      <c r="E13" s="51" t="s">
-        <v>557</v>
-      </c>
-      <c r="F13" s="49" t="s">
-        <v>553</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="55.9" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="93"/>
-      <c r="C14" s="28" t="s">
-        <v>615</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>419</v>
-      </c>
-      <c r="E14" s="51" t="s">
-        <v>555</v>
-      </c>
-      <c r="F14" s="49" t="s">
-        <v>618</v>
-      </c>
-      <c r="G14" s="52" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B15" s="93" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>575</v>
-      </c>
       <c r="D15" s="27" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="E15" s="51" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B16" s="93"/>
+        <v>588</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="B16" s="102"/>
       <c r="C16" s="28" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="E16" s="51" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="F16" s="48" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="42" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="97"/>
+        <v>369</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="106"/>
       <c r="C17" s="52" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="D17" s="72" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="E17" s="73" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="F17" s="71" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -8176,296 +8266,312 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5ECC81-6914-43CE-AB0A-E1BBB7ABC546}">
-  <dimension ref="B7:I22"/>
+  <dimension ref="B7:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="14.19921875" customWidth="1"/>
-    <col min="5" max="5" width="16.1328125" customWidth="1"/>
-    <col min="6" max="6" width="15.73046875" customWidth="1"/>
-    <col min="7" max="7" width="20.59765625" customWidth="1"/>
-    <col min="8" max="8" width="22.46484375" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="20.58203125" customWidth="1"/>
+    <col min="8" max="8" width="22.5" customWidth="1"/>
     <col min="9" max="9" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="D8" s="111" t="s">
-        <v>489</v>
-      </c>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="113"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
+    <row r="7" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:9" ht="20" x14ac:dyDescent="0.4">
+      <c r="D8" s="107" t="s">
+        <v>479</v>
+      </c>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="109"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
       <c r="D9" s="59" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="E9" s="58" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F9" s="58" t="s">
-        <v>492</v>
-      </c>
-      <c r="G9" s="98" t="s">
-        <v>493</v>
+        <v>482</v>
+      </c>
+      <c r="G9" s="78" t="s">
+        <v>483</v>
       </c>
       <c r="H9" s="60" t="s">
+        <v>484</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="42" x14ac:dyDescent="0.3">
+      <c r="D10" s="103" t="s">
+        <v>671</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>612</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>497</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>616</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>613</v>
+      </c>
+      <c r="I10" s="49" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="D11" s="104"/>
+      <c r="E11" s="28" t="s">
+        <v>612</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>497</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>621</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>619</v>
+      </c>
+      <c r="I11" s="49" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="D12" s="104"/>
+      <c r="E12" s="28" t="s">
+        <v>612</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="G12" s="56" t="s">
+        <v>624</v>
+      </c>
+      <c r="H12" s="57" t="s">
+        <v>623</v>
+      </c>
+      <c r="I12" s="49" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="D13" s="104"/>
+      <c r="E13" s="28" t="s">
+        <v>612</v>
+      </c>
+      <c r="F13" s="27" t="s">
         <v>494</v>
       </c>
-      <c r="I9" s="38" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B10" s="115"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="93" t="s">
-        <v>681</v>
-      </c>
-      <c r="E10" s="28" t="s">
+      <c r="G13" s="28" t="s">
+        <v>629</v>
+      </c>
+      <c r="H13" s="57" t="s">
+        <v>623</v>
+      </c>
+      <c r="I13" s="49" t="s">
         <v>622</v>
       </c>
-      <c r="F10" s="107" t="s">
-        <v>507</v>
-      </c>
-      <c r="G10" s="107" t="s">
-        <v>626</v>
-      </c>
-      <c r="H10" s="51" t="s">
-        <v>623</v>
-      </c>
-      <c r="I10" s="49" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="D11" s="93"/>
-      <c r="E11" s="107" t="s">
-        <v>622</v>
-      </c>
-      <c r="F11" s="107" t="s">
-        <v>507</v>
-      </c>
-      <c r="G11" s="107" t="s">
+    </row>
+    <row r="14" spans="2:9" ht="42" x14ac:dyDescent="0.3">
+      <c r="D14" s="104"/>
+      <c r="E14" s="28" t="s">
+        <v>628</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>497</v>
+      </c>
+      <c r="G14" s="28" t="s">
         <v>631</v>
       </c>
-      <c r="H11" s="108" t="s">
-        <v>629</v>
-      </c>
-      <c r="I11" s="49" t="s">
+      <c r="H14" s="57" t="s">
+        <v>633</v>
+      </c>
+      <c r="I14" s="49" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="D12" s="93"/>
-      <c r="E12" s="107" t="s">
-        <v>622</v>
-      </c>
-      <c r="F12" s="107" t="s">
-        <v>486</v>
-      </c>
-      <c r="G12" s="56" t="s">
+    <row r="15" spans="2:9" ht="42" x14ac:dyDescent="0.3">
+      <c r="D15" s="104"/>
+      <c r="E15" s="28" t="s">
+        <v>628</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>497</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>656</v>
+      </c>
+      <c r="H15" s="57" t="s">
+        <v>633</v>
+      </c>
+      <c r="I15" s="49" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="42" x14ac:dyDescent="0.3">
+      <c r="D16" s="104"/>
+      <c r="E16" s="28" t="s">
+        <v>628</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>675</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="D17" s="104"/>
+      <c r="E17" s="28" t="s">
+        <v>628</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>637</v>
+      </c>
+      <c r="H17" s="51" t="s">
+        <v>641</v>
+      </c>
+      <c r="I17" s="49" t="s">
         <v>634</v>
       </c>
-      <c r="H12" s="57" t="s">
-        <v>633</v>
-      </c>
-      <c r="I12" s="49" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="D13" s="93"/>
-      <c r="E13" s="107" t="s">
-        <v>622</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>504</v>
-      </c>
-      <c r="G13" s="28" t="s">
+    </row>
+    <row r="18" spans="4:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="D18" s="104"/>
+      <c r="E18" s="28" t="s">
+        <v>628</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>642</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>637</v>
+      </c>
+      <c r="H18" s="51" t="s">
+        <v>641</v>
+      </c>
+      <c r="I18" s="49" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" ht="42" x14ac:dyDescent="0.3">
+      <c r="D19" s="104"/>
+      <c r="E19" s="28" t="s">
+        <v>628</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="G19" s="28" t="s">
         <v>639</v>
       </c>
-      <c r="H13" s="57" t="s">
-        <v>633</v>
-      </c>
-      <c r="I13" s="49" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="D14" s="93"/>
-      <c r="E14" s="107" t="s">
-        <v>638</v>
-      </c>
-      <c r="F14" s="107" t="s">
-        <v>507</v>
-      </c>
-      <c r="G14" s="28" t="s">
+      <c r="H19" s="51" t="s">
         <v>641</v>
       </c>
-      <c r="H14" s="109" t="s">
-        <v>643</v>
-      </c>
-      <c r="I14" s="49" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="D15" s="93"/>
-      <c r="E15" s="107" t="s">
-        <v>638</v>
-      </c>
-      <c r="F15" s="107" t="s">
-        <v>507</v>
-      </c>
-      <c r="G15" s="28" t="s">
+      <c r="I19" s="49" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="D20" s="104"/>
+      <c r="E20" s="28" t="s">
+        <v>628</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>649</v>
+      </c>
+      <c r="H20" s="51" t="s">
+        <v>650</v>
+      </c>
+      <c r="I20" s="49" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="D21" s="104"/>
+      <c r="E21" s="28" t="s">
+        <v>628</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>660</v>
+      </c>
+      <c r="H21" s="51" t="s">
+        <v>662</v>
+      </c>
+      <c r="I21" s="49" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="D22" s="104"/>
+      <c r="E22" s="28" t="s">
+        <v>628</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>664</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>665</v>
+      </c>
+      <c r="H22" s="51" t="s">
         <v>666</v>
       </c>
-      <c r="H15" s="109" t="s">
-        <v>643</v>
-      </c>
-      <c r="I15" s="49" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="D16" s="93"/>
-      <c r="E16" s="107" t="s">
-        <v>638</v>
-      </c>
-      <c r="F16" s="107" t="s">
-        <v>486</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>647</v>
-      </c>
-      <c r="H16" s="51" t="s">
-        <v>651</v>
-      </c>
-      <c r="I16" s="49" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="17" spans="4:9" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="D17" s="93"/>
-      <c r="E17" s="107" t="s">
-        <v>638</v>
-      </c>
-      <c r="F17" s="107" t="s">
-        <v>652</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>647</v>
-      </c>
-      <c r="H17" s="51" t="s">
-        <v>651</v>
-      </c>
-      <c r="I17" s="49" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="18" spans="4:9" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="D18" s="93"/>
-      <c r="E18" s="107" t="s">
-        <v>638</v>
-      </c>
-      <c r="F18" s="107" t="s">
-        <v>486</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>649</v>
-      </c>
-      <c r="H18" s="51" t="s">
-        <v>651</v>
-      </c>
-      <c r="I18" s="49" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="19" spans="4:9" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="D19" s="93"/>
-      <c r="E19" s="107" t="s">
-        <v>638</v>
-      </c>
-      <c r="F19" s="107" t="s">
-        <v>486</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>659</v>
-      </c>
-      <c r="H19" s="51" t="s">
-        <v>660</v>
-      </c>
-      <c r="I19" s="49" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="20" spans="4:9" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="D20" s="93"/>
-      <c r="E20" s="107" t="s">
-        <v>638</v>
-      </c>
-      <c r="F20" s="107" t="s">
+      <c r="I22" s="49" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" ht="56.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D23" s="105"/>
+      <c r="E23" s="52" t="s">
         <v>668</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="F23" s="52" t="s">
+        <v>669</v>
+      </c>
+      <c r="G23" s="52" t="s">
+        <v>272</v>
+      </c>
+      <c r="H23" s="73" t="s">
+        <v>273</v>
+      </c>
+      <c r="I23" s="49" t="s">
         <v>670</v>
-      </c>
-      <c r="H20" s="51" t="s">
-        <v>672</v>
-      </c>
-      <c r="I20" s="49" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="21" spans="4:9" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="D21" s="93"/>
-      <c r="E21" s="107" t="s">
-        <v>638</v>
-      </c>
-      <c r="F21" s="107" t="s">
-        <v>674</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>675</v>
-      </c>
-      <c r="H21" s="51" t="s">
-        <v>676</v>
-      </c>
-      <c r="I21" s="49" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="22" spans="4:9" ht="55.9" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D22" s="97"/>
-      <c r="E22" s="110" t="s">
-        <v>678</v>
-      </c>
-      <c r="F22" s="110" t="s">
-        <v>679</v>
-      </c>
-      <c r="G22" s="52" t="s">
-        <v>279</v>
-      </c>
-      <c r="H22" s="73" t="s">
-        <v>280</v>
-      </c>
-      <c r="I22" s="49" t="s">
-        <v>680</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D10:D22"/>
     <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D10:D23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8474,102 +8580,135 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3F6B80-8172-4F79-9600-6FDEB5D9C203}">
-  <dimension ref="C5:G14"/>
+  <dimension ref="C5:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="20.265625" customWidth="1"/>
-    <col min="5" max="5" width="22.59765625" customWidth="1"/>
-    <col min="6" max="6" width="25.265625" customWidth="1"/>
-    <col min="7" max="7" width="43.9296875" customWidth="1"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="22.58203125" customWidth="1"/>
+    <col min="6" max="6" width="25.25" customWidth="1"/>
+    <col min="7" max="7" width="43.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="3:7" ht="20.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="111" t="s">
-        <v>478</v>
-      </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="113"/>
+    <row r="5" spans="3:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="3:7" ht="20" x14ac:dyDescent="0.4">
+      <c r="C6" s="107" t="s">
+        <v>468</v>
+      </c>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="109"/>
       <c r="G6" s="38"/>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C7" s="116" t="s">
-        <v>490</v>
-      </c>
-      <c r="D7" s="98" t="s">
-        <v>491</v>
-      </c>
-      <c r="E7" s="98" t="s">
-        <v>561</v>
-      </c>
-      <c r="F7" s="117" t="s">
-        <v>562</v>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C7" s="85" t="s">
+        <v>480</v>
+      </c>
+      <c r="D7" s="78" t="s">
+        <v>481</v>
+      </c>
+      <c r="E7" s="78" t="s">
+        <v>551</v>
+      </c>
+      <c r="F7" s="86" t="s">
+        <v>552</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C8" s="93" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="C8" s="103" t="s">
+        <v>671</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>628</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>672</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>674</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="C9" s="104"/>
+      <c r="D9" s="28" t="s">
+        <v>628</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>683</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C10" s="104"/>
+      <c r="D10" s="28" t="s">
+        <v>612</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="F10" s="51" t="s">
         <v>681</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="49"/>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C9" s="93"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="49"/>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C10" s="93"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="49"/>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C11" s="93"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="61"/>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C12" s="93"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="49"/>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C13" s="93"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="49"/>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="G10" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="C11" s="104"/>
+      <c r="D11" s="56" t="s">
+        <v>612</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>684</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>679</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="C12" s="110"/>
+      <c r="D12" s="28" t="s">
+        <v>612</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>684</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>679</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="C8:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8577,6 +8716,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="74117954-47dd-4623-be10-f2d34b3fe6e8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100650C27B66691BA4BB901C940018B449F" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="856977a71e7c379887d8f02f6ee17dc3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="74117954-47dd-4623-be10-f2d34b3fe6e8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f93a31a691d6cd74e693f1feb46bcb1" ns3:_="">
     <xsd:import namespace="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
@@ -8720,37 +8876,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="74117954-47dd-4623-be10-f2d34b3fe6e8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{411558D9-DEA1-49BF-987E-1A683BCBCD59}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16812470-A4E1-4DBD-AEE1-4642C4933AF0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8772,9 +8901,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16812470-A4E1-4DBD-AEE1-4642C4933AF0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{411558D9-DEA1-49BF-987E-1A683BCBCD59}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ML Apply in OS/summary (new version).xlsx
+++ b/ML Apply in OS/summary (new version).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research-23\AIOS\ML Apply in OS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFC2C34-F279-44CF-86E9-CBCFC59709B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5C1C2F-926A-45D0-8BC7-075ADB3C43BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="703">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1593,41 +1593,6 @@
   </si>
   <si>
     <t>Proceedings of the International Conference for High Performance Computing, Networking, Storage and Analysis.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Statistical learning based congestion control for real-time video communication</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Build a statistical function between the sending rate and RTT and adjust the sending rate based on the linear regression given the estimated RTT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Online</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCP: adaptive congestion control protocol in named data networking based on deep learning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neural Computing and Applications</t>
-  </si>
-  <si>
-    <t>Calculate the average queue length based on the prediction of pending interest table entries</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Centralized and localized data congestion control strategy for vehicular ad hoc networks using a machine learning clustering algorithm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> IEEE Trans. Intell. Transp. Syst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Model: k-means; Cluster the data into groups based on message size, validity of messages, distance between vehicles and RSUs, types of message and direction of message sender and assign a sending rate for each cluste</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2733,6 +2698,101 @@
   </si>
   <si>
     <t>EURASIP Journal on Wireless Communications and Networking 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congestion Control/ Flow Control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Machine Learning Approach to TCP Throughput Prediction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Support Vector Regression (SVR) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>features like file size, measurements of path properties</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Predicted Throughput</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A machine learning framework for TCP round-trip time estimation</t>
+  </si>
+  <si>
+    <t>TCP's round-trip time (RTT)</t>
+  </si>
+  <si>
+    <t>TCP's round-trip time (RTT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>experts framework (online learning)</t>
+  </si>
+  <si>
+    <t>experts framework (online learning)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Each experts' fixed guess about the RTT</t>
+  </si>
+  <si>
+    <t>Each experts' fixed guess about the RTT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QTCP: Adaptive Congestion Control with Reinforcement Learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Deep Reinforcement Learning Perspective
+on Internet Congestion Control,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Deep Learning Approach to Dynamic Passive
+RTT Prediction Model for TCP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> TCP-Drinc: Smart congestion control based on deep rein
+forcement learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdaBoost-TCP: A machine learning-based congestion
+ control methodforsatellitenetworks.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdaBoost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdaBoost-TCP: A machine learning-based congestion control methodforsatellitenetworks.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adaptive Boost recognition model</t>
+  </si>
+  <si>
+    <t>arrival time interval of ACK and RTT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type of packet loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Network Management</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3247,7 +3307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3324,9 +3384,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3477,6 +3534,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3486,6 +3551,24 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3495,24 +3578,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3549,15 +3614,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3845,10 +3929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG160"/>
+  <dimension ref="A1:AG162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E134" sqref="E134"/>
+    <sheetView topLeftCell="A129" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4478,14 +4562,14 @@
       <c r="AE15"/>
     </row>
     <row r="16" spans="1:31" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C16" s="87" t="s">
+      <c r="C16" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="89"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="92"/>
     </row>
     <row r="17" spans="1:33" s="11" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A17"/>
@@ -4677,7 +4761,7 @@
     </row>
     <row r="21" spans="1:33" ht="56" x14ac:dyDescent="0.3">
       <c r="C21" s="6" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D21" s="6">
         <v>2002</v>
@@ -4686,13 +4770,13 @@
         <v>10</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
     </row>
     <row r="22" spans="1:33" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
@@ -4758,10 +4842,10 @@
         <v>60</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
@@ -4791,7 +4875,7 @@
     </row>
     <row r="24" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C24" s="6" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="D24" s="6">
         <v>2013</v>
@@ -4800,13 +4884,13 @@
         <v>10</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
     </row>
     <row r="25" spans="1:33" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
@@ -4906,22 +4990,22 @@
     <row r="27" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27"/>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D27" s="33">
         <v>2017</v>
       </c>
-      <c r="E27" s="34" t="s">
+      <c r="E27" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="34" t="s">
+      <c r="F27" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="G27" s="34" t="s">
+      <c r="G27" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="H27" s="34" t="s">
+      <c r="H27" s="33" t="s">
         <v>74</v>
       </c>
       <c r="I27"/>
@@ -4953,21 +5037,21 @@
     <row r="28" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28"/>
       <c r="B28"/>
-      <c r="C28" s="36" t="s">
-        <v>438</v>
-      </c>
-      <c r="D28" s="36">
+      <c r="C28" s="35" t="s">
+        <v>429</v>
+      </c>
+      <c r="D28" s="35">
         <v>2019</v>
       </c>
-      <c r="E28" s="36" t="s">
-        <v>441</v>
-      </c>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="H28" s="36" t="s">
-        <v>426</v>
+      <c r="E28" s="35" t="s">
+        <v>432</v>
+      </c>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35" t="s">
+        <v>420</v>
+      </c>
+      <c r="H28" s="35" t="s">
+        <v>417</v>
       </c>
       <c r="I28"/>
       <c r="J28"/>
@@ -4995,11 +5079,11 @@
       <c r="AF28"/>
       <c r="AG28"/>
     </row>
-    <row r="29" spans="1:33" s="35" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" s="34" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="27"/>
       <c r="B29" s="27"/>
       <c r="C29" s="6" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D29" s="6">
         <v>2020</v>
@@ -5009,10 +5093,10 @@
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="I29" s="27"/>
       <c r="J29" s="27"/>
@@ -5044,20 +5128,20 @@
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30" s="6" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="D30" s="6">
         <v>2022</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
@@ -5606,14 +5690,14 @@
       </c>
     </row>
     <row r="44" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C44" s="87" t="s">
+      <c r="C44" s="90" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="88"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="89"/>
+      <c r="D44" s="91"/>
+      <c r="E44" s="91"/>
+      <c r="F44" s="91"/>
+      <c r="G44" s="91"/>
+      <c r="H44" s="92"/>
     </row>
     <row r="45" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C45" s="8" t="s">
@@ -6017,59 +6101,59 @@
     </row>
     <row r="65" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C65" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="E65" s="37" t="s">
-        <v>444</v>
+        <v>434</v>
+      </c>
+      <c r="E65" s="36" t="s">
+        <v>435</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="66" spans="3:8" s="38" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="C66" s="8" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="D66" s="8">
         <v>2011</v>
       </c>
-      <c r="E66" s="39" t="s">
-        <v>448</v>
+      <c r="E66" s="38" t="s">
+        <v>439</v>
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
     </row>
     <row r="67" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C67" s="7" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="D67" s="7">
         <v>2015</v>
       </c>
-      <c r="E67" s="37" t="s">
-        <v>449</v>
+      <c r="E67" s="36" t="s">
+        <v>440</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="68" spans="3:8" s="38" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" s="37" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="7" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="D68" s="7">
         <v>2016</v>
       </c>
       <c r="E68" s="28" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="69" spans="3:8" ht="28" x14ac:dyDescent="0.3">
@@ -6094,27 +6178,27 @@
     </row>
     <row r="70" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C70" s="7" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="D70" s="7">
         <v>2023</v>
       </c>
-      <c r="E70" s="37" t="s">
-        <v>452</v>
+      <c r="E70" s="36" t="s">
+        <v>443</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="71" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C71" s="87" t="s">
+      <c r="C71" s="90" t="s">
         <v>216</v>
       </c>
-      <c r="D71" s="88"/>
-      <c r="E71" s="88"/>
-      <c r="F71" s="88"/>
-      <c r="G71" s="88"/>
-      <c r="H71" s="89"/>
+      <c r="D71" s="91"/>
+      <c r="E71" s="91"/>
+      <c r="F71" s="91"/>
+      <c r="G71" s="91"/>
+      <c r="H71" s="92"/>
     </row>
     <row r="72" spans="3:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C72" s="21" t="s">
@@ -6193,14 +6277,14 @@
       </c>
     </row>
     <row r="77" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C77" s="87" t="s">
+      <c r="C77" s="90" t="s">
         <v>230</v>
       </c>
-      <c r="D77" s="88"/>
-      <c r="E77" s="88"/>
-      <c r="F77" s="88"/>
-      <c r="G77" s="88"/>
-      <c r="H77" s="89"/>
+      <c r="D77" s="91"/>
+      <c r="E77" s="91"/>
+      <c r="F77" s="91"/>
+      <c r="G77" s="91"/>
+      <c r="H77" s="92"/>
     </row>
     <row r="78" spans="3:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C78" s="22" t="s">
@@ -6223,504 +6307,504 @@
       </c>
     </row>
     <row r="79" spans="3:8" s="27" customFormat="1" ht="84" x14ac:dyDescent="0.3">
-      <c r="C79" s="32" t="s">
+      <c r="C79" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="D79" s="32">
+      <c r="D79" s="31">
         <v>2009</v>
       </c>
-      <c r="E79" s="32" t="s">
+      <c r="E79" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="F79" s="32" t="s">
+      <c r="F79" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="G79" s="32" t="s">
+      <c r="G79" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="H79" s="32" t="s">
+      <c r="H79" s="31" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="80" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C80" s="42" t="s">
+      <c r="C80" s="41" t="s">
         <v>383</v>
       </c>
-      <c r="D80" s="42">
+      <c r="D80" s="41">
         <v>2016</v>
       </c>
-      <c r="E80" s="42" t="s">
+      <c r="E80" s="41" t="s">
         <v>384</v>
       </c>
-      <c r="F80" s="42" t="s">
-        <v>473</v>
-      </c>
-      <c r="G80" s="42" t="s">
+      <c r="F80" s="41" t="s">
+        <v>464</v>
+      </c>
+      <c r="G80" s="41" t="s">
+        <v>460</v>
+      </c>
+      <c r="H80" s="41" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" ht="98" x14ac:dyDescent="0.3">
+      <c r="C81" s="41" t="s">
+        <v>380</v>
+      </c>
+      <c r="D81" s="41">
+        <v>2019</v>
+      </c>
+      <c r="E81" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="F81" s="41" t="s">
+        <v>465</v>
+      </c>
+      <c r="G81" s="41" t="s">
+        <v>466</v>
+      </c>
+      <c r="H81" s="41" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C82" s="41" t="s">
+        <v>373</v>
+      </c>
+      <c r="D82" s="41">
+        <v>2019</v>
+      </c>
+      <c r="E82" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="F82" s="41" t="s">
+        <v>467</v>
+      </c>
+      <c r="G82" s="41" t="s">
+        <v>468</v>
+      </c>
+      <c r="H82" s="41" t="s">
         <v>469</v>
       </c>
-      <c r="H80" s="42" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="81" spans="3:8" ht="98" x14ac:dyDescent="0.3">
-      <c r="C81" s="42" t="s">
-        <v>380</v>
-      </c>
-      <c r="D81" s="42">
+    </row>
+    <row r="83" spans="3:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C83" s="41" t="s">
+        <v>502</v>
+      </c>
+      <c r="D83" s="41">
         <v>2019</v>
       </c>
-      <c r="E81" s="42" t="s">
-        <v>381</v>
-      </c>
-      <c r="F81" s="42" t="s">
-        <v>474</v>
-      </c>
-      <c r="G81" s="42" t="s">
-        <v>475</v>
-      </c>
-      <c r="H81" s="42" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="82" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C82" s="42" t="s">
-        <v>373</v>
-      </c>
-      <c r="D82" s="42">
+      <c r="E83" s="41" t="s">
+        <v>503</v>
+      </c>
+      <c r="F83" s="41" t="s">
+        <v>507</v>
+      </c>
+      <c r="G83" s="41" t="s">
+        <v>504</v>
+      </c>
+      <c r="H83" s="41" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" ht="84" x14ac:dyDescent="0.3">
+      <c r="C84" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="D84" s="41">
+        <v>2020</v>
+      </c>
+      <c r="E84" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="F84" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="G84" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="H84" s="41" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C85" s="52" t="s">
+        <v>535</v>
+      </c>
+      <c r="D85" s="52">
+        <v>2020</v>
+      </c>
+      <c r="E85" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="F85" s="52" t="s">
+        <v>452</v>
+      </c>
+      <c r="G85" s="52" t="s">
+        <v>459</v>
+      </c>
+      <c r="H85" s="52" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C86" s="52" t="s">
+        <v>375</v>
+      </c>
+      <c r="D86" s="52">
+        <v>2020</v>
+      </c>
+      <c r="E86" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="F86" s="52" t="s">
+        <v>452</v>
+      </c>
+      <c r="G86" s="52" t="s">
+        <v>459</v>
+      </c>
+      <c r="H86" s="52" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" ht="84" x14ac:dyDescent="0.3">
+      <c r="C87" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="D87" s="31">
+        <v>2021</v>
+      </c>
+      <c r="E87" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="F87" s="31" t="s">
+        <v>496</v>
+      </c>
+      <c r="G87" s="31" t="s">
+        <v>497</v>
+      </c>
+      <c r="H87" s="31" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C89" s="99" t="s">
+        <v>235</v>
+      </c>
+      <c r="D89" s="100"/>
+      <c r="E89" s="100"/>
+      <c r="F89" s="100"/>
+      <c r="G89" s="100"/>
+      <c r="H89" s="101"/>
+    </row>
+    <row r="90" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C90" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="D90" s="31">
+        <v>2005</v>
+      </c>
+      <c r="E90" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="F90" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="G90" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="H90" s="31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C91" s="39" t="s">
+        <v>362</v>
+      </c>
+      <c r="D91" s="39">
+        <v>2007</v>
+      </c>
+      <c r="E91" s="39" t="s">
+        <v>363</v>
+      </c>
+      <c r="F91" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="G91" s="39" t="s">
+        <v>448</v>
+      </c>
+      <c r="H91" s="39" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C92" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="D92" s="39">
+        <v>2009</v>
+      </c>
+      <c r="E92" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="F92" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="G92" s="39" t="s">
+        <v>576</v>
+      </c>
+      <c r="H92" s="39" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8" ht="70" x14ac:dyDescent="0.3">
+      <c r="C93" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="D93" s="31">
+        <v>2015</v>
+      </c>
+      <c r="E93" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="F93" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="G93" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="H93" s="31" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C94" s="40" t="s">
+        <v>449</v>
+      </c>
+      <c r="D94" s="39">
+        <v>2015</v>
+      </c>
+      <c r="E94" s="39" t="s">
+        <v>450</v>
+      </c>
+      <c r="F94" s="39" t="s">
+        <v>452</v>
+      </c>
+      <c r="G94" s="39" t="s">
+        <v>448</v>
+      </c>
+      <c r="H94" s="39" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="C95" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="D95" s="31">
+        <v>2016</v>
+      </c>
+      <c r="E95" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="F95" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="G95" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="H95" s="31" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C96" s="31" t="s">
+        <v>412</v>
+      </c>
+      <c r="D96" s="31">
+        <v>2016</v>
+      </c>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31" t="s">
+        <v>485</v>
+      </c>
+      <c r="G96" s="31" t="s">
+        <v>486</v>
+      </c>
+      <c r="H96" s="42" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="97" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C97" s="43" t="s">
+        <v>425</v>
+      </c>
+      <c r="D97" s="43">
+        <v>2016</v>
+      </c>
+      <c r="E97" s="44" t="s">
+        <v>426</v>
+      </c>
+      <c r="F97" s="43" t="s">
+        <v>424</v>
+      </c>
+      <c r="G97" s="43"/>
+      <c r="H97" s="43"/>
+    </row>
+    <row r="98" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C98" s="43" t="s">
+        <v>422</v>
+      </c>
+      <c r="D98" s="43">
+        <v>2017</v>
+      </c>
+      <c r="E98" s="43" t="s">
+        <v>423</v>
+      </c>
+      <c r="F98" s="43" t="s">
+        <v>424</v>
+      </c>
+      <c r="G98" s="43"/>
+      <c r="H98" s="43"/>
+    </row>
+    <row r="99" spans="3:8" s="27" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+      <c r="C99" s="46" t="s">
+        <v>325</v>
+      </c>
+      <c r="D99" s="31">
+        <v>2017</v>
+      </c>
+      <c r="E99" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="F99" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="G99" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="H99" s="31" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="100" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C100" s="45" t="s">
+        <v>427</v>
+      </c>
+      <c r="D100" s="43">
         <v>2019</v>
       </c>
-      <c r="E82" s="42" t="s">
-        <v>374</v>
-      </c>
-      <c r="F82" s="42" t="s">
-        <v>476</v>
-      </c>
-      <c r="G82" s="42" t="s">
-        <v>477</v>
-      </c>
-      <c r="H82" s="42" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="83" spans="3:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C83" s="42" t="s">
-        <v>511</v>
-      </c>
-      <c r="D83" s="42">
+      <c r="E100" s="43" t="s">
+        <v>428</v>
+      </c>
+      <c r="F100" s="43" t="s">
+        <v>424</v>
+      </c>
+      <c r="G100" s="43"/>
+      <c r="H100" s="43"/>
+    </row>
+    <row r="101" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C101" s="46" t="s">
+        <v>365</v>
+      </c>
+      <c r="D101" s="31">
         <v>2019</v>
       </c>
-      <c r="E83" s="42" t="s">
-        <v>512</v>
-      </c>
-      <c r="F83" s="42" t="s">
-        <v>516</v>
-      </c>
-      <c r="G83" s="42" t="s">
-        <v>513</v>
-      </c>
-      <c r="H83" s="42" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="84" spans="3:8" ht="84" x14ac:dyDescent="0.3">
-      <c r="C84" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="D84" s="42">
+      <c r="E101" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="F101" s="31"/>
+      <c r="G101" s="31"/>
+      <c r="H101" s="31"/>
+    </row>
+    <row r="102" spans="3:8" ht="70" x14ac:dyDescent="0.3">
+      <c r="C102" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="D102" s="31">
         <v>2020</v>
       </c>
-      <c r="E84" s="42" t="s">
-        <v>284</v>
-      </c>
-      <c r="F84" s="42" t="s">
-        <v>287</v>
-      </c>
-      <c r="G84" s="42" t="s">
-        <v>286</v>
-      </c>
-      <c r="H84" s="42" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="85" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C85" s="53" t="s">
-        <v>544</v>
-      </c>
-      <c r="D85" s="53">
+      <c r="E102" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="F102" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="G102" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="H102" s="31" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="103" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C103" s="39" t="s">
+        <v>367</v>
+      </c>
+      <c r="D103" s="39">
         <v>2020</v>
       </c>
-      <c r="E85" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="F85" s="53" t="s">
-        <v>461</v>
-      </c>
-      <c r="G85" s="53" t="s">
-        <v>468</v>
-      </c>
-      <c r="H85" s="53" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="86" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C86" s="53" t="s">
-        <v>375</v>
-      </c>
-      <c r="D86" s="53">
-        <v>2020</v>
-      </c>
-      <c r="E86" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="F86" s="53" t="s">
-        <v>461</v>
-      </c>
-      <c r="G86" s="53" t="s">
-        <v>468</v>
-      </c>
-      <c r="H86" s="53" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="87" spans="3:8" ht="84" x14ac:dyDescent="0.3">
-      <c r="C87" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="D87" s="32">
+      <c r="E103" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="F103" s="39" t="s">
+        <v>452</v>
+      </c>
+      <c r="G103" s="39" t="s">
+        <v>448</v>
+      </c>
+      <c r="H103" s="39" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="104" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C104" s="39" t="s">
+        <v>456</v>
+      </c>
+      <c r="D104" s="39">
         <v>2021</v>
       </c>
-      <c r="E87" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="F87" s="32" t="s">
-        <v>505</v>
-      </c>
-      <c r="G87" s="32" t="s">
-        <v>506</v>
-      </c>
-      <c r="H87" s="32" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="89" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C89" s="90" t="s">
-        <v>235</v>
-      </c>
-      <c r="D89" s="91"/>
-      <c r="E89" s="91"/>
-      <c r="F89" s="91"/>
-      <c r="G89" s="91"/>
-      <c r="H89" s="92"/>
-    </row>
-    <row r="90" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C90" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="D90" s="32">
-        <v>2005</v>
-      </c>
-      <c r="E90" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="F90" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="G90" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="H90" s="32" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="91" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C91" s="40" t="s">
-        <v>362</v>
-      </c>
-      <c r="D91" s="40">
-        <v>2007</v>
-      </c>
-      <c r="E91" s="40" t="s">
-        <v>363</v>
-      </c>
-      <c r="F91" s="40" t="s">
-        <v>364</v>
-      </c>
-      <c r="G91" s="40" t="s">
+      <c r="E104" s="39" t="s">
         <v>457</v>
       </c>
-      <c r="H91" s="40" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="92" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C92" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="D92" s="40">
-        <v>2009</v>
-      </c>
-      <c r="E92" s="40" t="s">
-        <v>239</v>
-      </c>
-      <c r="F92" s="40" t="s">
-        <v>321</v>
-      </c>
-      <c r="G92" s="40" t="s">
-        <v>585</v>
-      </c>
-      <c r="H92" s="40" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="93" spans="3:8" ht="70" x14ac:dyDescent="0.3">
-      <c r="C93" s="32" t="s">
-        <v>335</v>
-      </c>
-      <c r="D93" s="32">
-        <v>2015</v>
-      </c>
-      <c r="E93" s="32" t="s">
-        <v>336</v>
-      </c>
-      <c r="F93" s="32" t="s">
-        <v>338</v>
-      </c>
-      <c r="G93" s="32" t="s">
-        <v>339</v>
-      </c>
-      <c r="H93" s="32" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="94" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C94" s="41" t="s">
+      <c r="F104" s="39" t="s">
+        <v>452</v>
+      </c>
+      <c r="G104" s="39" t="s">
+        <v>448</v>
+      </c>
+      <c r="H104" s="39" t="s">
         <v>458</v>
       </c>
-      <c r="D94" s="40">
-        <v>2015</v>
-      </c>
-      <c r="E94" s="40" t="s">
-        <v>459</v>
-      </c>
-      <c r="F94" s="40" t="s">
-        <v>461</v>
-      </c>
-      <c r="G94" s="40" t="s">
-        <v>457</v>
-      </c>
-      <c r="H94" s="40" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="95" spans="3:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="C95" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="D95" s="32">
-        <v>2016</v>
-      </c>
-      <c r="E95" s="32" t="s">
-        <v>331</v>
-      </c>
-      <c r="F95" s="32" t="s">
-        <v>333</v>
-      </c>
-      <c r="G95" s="32" t="s">
-        <v>332</v>
-      </c>
-      <c r="H95" s="32" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="96" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C96" s="32" t="s">
-        <v>421</v>
-      </c>
-      <c r="D96" s="32">
-        <v>2016</v>
-      </c>
-      <c r="E96" s="32"/>
-      <c r="F96" s="32" t="s">
-        <v>494</v>
-      </c>
-      <c r="G96" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="H96" s="43" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="97" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C97" s="44" t="s">
-        <v>434</v>
-      </c>
-      <c r="D97" s="44">
-        <v>2016</v>
-      </c>
-      <c r="E97" s="45" t="s">
-        <v>435</v>
-      </c>
-      <c r="F97" s="44" t="s">
-        <v>433</v>
-      </c>
-      <c r="G97" s="44"/>
-      <c r="H97" s="44"/>
-    </row>
-    <row r="98" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C98" s="44" t="s">
-        <v>431</v>
-      </c>
-      <c r="D98" s="44">
-        <v>2017</v>
-      </c>
-      <c r="E98" s="44" t="s">
-        <v>432</v>
-      </c>
-      <c r="F98" s="44" t="s">
-        <v>433</v>
-      </c>
-      <c r="G98" s="44"/>
-      <c r="H98" s="44"/>
-    </row>
-    <row r="99" spans="3:8" s="27" customFormat="1" ht="56" x14ac:dyDescent="0.3">
-      <c r="C99" s="47" t="s">
-        <v>325</v>
-      </c>
-      <c r="D99" s="32">
-        <v>2017</v>
-      </c>
-      <c r="E99" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="F99" s="32" t="s">
-        <v>329</v>
-      </c>
-      <c r="G99" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="H99" s="32" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="100" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C100" s="46" t="s">
-        <v>436</v>
-      </c>
-      <c r="D100" s="44">
-        <v>2019</v>
-      </c>
-      <c r="E100" s="44" t="s">
-        <v>437</v>
-      </c>
-      <c r="F100" s="44" t="s">
-        <v>433</v>
-      </c>
-      <c r="G100" s="44"/>
-      <c r="H100" s="44"/>
-    </row>
-    <row r="101" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C101" s="47" t="s">
-        <v>365</v>
-      </c>
-      <c r="D101" s="32">
-        <v>2019</v>
-      </c>
-      <c r="E101" s="32" t="s">
-        <v>366</v>
-      </c>
-      <c r="F101" s="32"/>
-      <c r="G101" s="32"/>
-      <c r="H101" s="32"/>
-    </row>
-    <row r="102" spans="3:8" ht="70" x14ac:dyDescent="0.3">
-      <c r="C102" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="D102" s="32">
-        <v>2020</v>
-      </c>
-      <c r="E102" s="32" t="s">
-        <v>289</v>
-      </c>
-      <c r="F102" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="G102" s="32" t="s">
-        <v>291</v>
-      </c>
-      <c r="H102" s="32" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="103" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C103" s="40" t="s">
-        <v>367</v>
-      </c>
-      <c r="D103" s="40">
-        <v>2020</v>
-      </c>
-      <c r="E103" s="40" t="s">
-        <v>368</v>
-      </c>
-      <c r="F103" s="40" t="s">
-        <v>461</v>
-      </c>
-      <c r="G103" s="40" t="s">
-        <v>457</v>
-      </c>
-      <c r="H103" s="40" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="104" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C104" s="40" t="s">
-        <v>465</v>
-      </c>
-      <c r="D104" s="40">
-        <v>2021</v>
-      </c>
-      <c r="E104" s="40" t="s">
-        <v>466</v>
-      </c>
-      <c r="F104" s="40" t="s">
-        <v>461</v>
-      </c>
-      <c r="G104" s="40" t="s">
-        <v>457</v>
-      </c>
-      <c r="H104" s="40" t="s">
-        <v>467</v>
-      </c>
     </row>
     <row r="105" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C105" s="40" t="s">
+      <c r="C105" s="39" t="s">
         <v>385</v>
       </c>
-      <c r="D105" s="40">
+      <c r="D105" s="39">
         <v>2022</v>
       </c>
-      <c r="E105" s="40" t="s">
+      <c r="E105" s="39" t="s">
         <v>386</v>
       </c>
-      <c r="F105" s="40" t="s">
-        <v>461</v>
-      </c>
-      <c r="G105" s="40" t="s">
-        <v>457</v>
-      </c>
-      <c r="H105" s="40" t="s">
-        <v>464</v>
+      <c r="F105" s="39" t="s">
+        <v>452</v>
+      </c>
+      <c r="G105" s="39" t="s">
+        <v>448</v>
+      </c>
+      <c r="H105" s="39" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="107" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C107" s="87" t="s">
+      <c r="C107" s="90" t="s">
         <v>236</v>
       </c>
-      <c r="D107" s="88"/>
-      <c r="E107" s="88"/>
-      <c r="F107" s="88"/>
-      <c r="G107" s="88"/>
-      <c r="H107" s="89"/>
+      <c r="D107" s="91"/>
+      <c r="E107" s="91"/>
+      <c r="F107" s="91"/>
+      <c r="G107" s="91"/>
+      <c r="H107" s="92"/>
     </row>
     <row r="108" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C108" s="7" t="s">
@@ -6736,10 +6820,10 @@
         <v>353</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
     </row>
     <row r="109" spans="3:8" ht="42" x14ac:dyDescent="0.3">
@@ -6776,10 +6860,10 @@
         <v>348</v>
       </c>
       <c r="G110" s="12" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="H110" s="12" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
     </row>
     <row r="111" spans="3:8" ht="28" x14ac:dyDescent="0.3">
@@ -6796,10 +6880,10 @@
         <v>348</v>
       </c>
       <c r="G111" s="12" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="H111" s="12" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
     </row>
     <row r="112" spans="3:8" ht="42" x14ac:dyDescent="0.3">
@@ -6816,10 +6900,10 @@
         <v>347</v>
       </c>
       <c r="G112" s="12" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="H112" s="12" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="113" spans="1:33" ht="56" x14ac:dyDescent="0.3">
@@ -6836,7 +6920,7 @@
         <v>344</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
     </row>
     <row r="114" spans="1:33" ht="28" x14ac:dyDescent="0.3">
@@ -6853,10 +6937,10 @@
         <v>361</v>
       </c>
       <c r="G114" s="12" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="H114" s="12" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
     </row>
     <row r="115" spans="1:33" ht="70" x14ac:dyDescent="0.3">
@@ -6910,7 +6994,7 @@
         <v>263</v>
       </c>
       <c r="F117" s="12" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="G117" s="12" t="s">
         <v>265</v>
@@ -6918,8 +7002,8 @@
       <c r="H117" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="I117" s="79" t="s">
-        <v>626</v>
+      <c r="I117" s="78" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="118" spans="1:33" ht="42" x14ac:dyDescent="0.3">
@@ -6936,67 +7020,67 @@
         <v>347</v>
       </c>
       <c r="G118" s="12" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="H118" s="12"/>
     </row>
     <row r="119" spans="1:33" s="14" customFormat="1" ht="84" x14ac:dyDescent="0.3">
-      <c r="C119" s="80" t="s">
+      <c r="C119" s="79" t="s">
         <v>270</v>
       </c>
       <c r="D119" s="12">
         <v>2019</v>
       </c>
-      <c r="E119" s="80" t="s">
+      <c r="E119" s="79" t="s">
         <v>271</v>
       </c>
-      <c r="F119" s="80" t="s">
+      <c r="F119" s="79" t="s">
         <v>274</v>
       </c>
-      <c r="G119" s="80" t="s">
+      <c r="G119" s="79" t="s">
         <v>272</v>
       </c>
-      <c r="H119" s="80" t="s">
+      <c r="H119" s="79" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="120" spans="1:33" s="14" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="C120" s="80" t="s">
+      <c r="C120" s="79" t="s">
         <v>354</v>
       </c>
       <c r="D120" s="12">
         <v>2019</v>
       </c>
-      <c r="E120" s="80" t="s">
+      <c r="E120" s="79" t="s">
         <v>355</v>
       </c>
-      <c r="F120" s="80" t="s">
+      <c r="F120" s="79" t="s">
         <v>356</v>
       </c>
-      <c r="G120" s="80" t="s">
-        <v>638</v>
-      </c>
-      <c r="H120" s="80" t="s">
-        <v>640</v>
+      <c r="G120" s="79" t="s">
+        <v>629</v>
+      </c>
+      <c r="H120" s="79" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="121" spans="1:33" s="14" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="C121" s="74" t="s">
+      <c r="C121" s="73" t="s">
         <v>276</v>
       </c>
-      <c r="D121" s="75">
+      <c r="D121" s="74">
         <v>2020</v>
       </c>
-      <c r="E121" s="76" t="s">
+      <c r="E121" s="75" t="s">
         <v>277</v>
       </c>
-      <c r="F121" s="74" t="s">
+      <c r="F121" s="73" t="s">
         <v>280</v>
       </c>
-      <c r="G121" s="74" t="s">
+      <c r="G121" s="73" t="s">
         <v>279</v>
       </c>
-      <c r="H121" s="74" t="s">
+      <c r="H121" s="73" t="s">
         <v>278</v>
       </c>
     </row>
@@ -7004,7 +7088,7 @@
       <c r="C122" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="D122" s="54">
+      <c r="D122" s="53">
         <v>2021</v>
       </c>
       <c r="E122" s="7" t="s">
@@ -7020,593 +7104,615 @@
         <v>304</v>
       </c>
     </row>
-    <row r="123" spans="1:33" s="33" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="C123" s="80" t="s">
-        <v>422</v>
-      </c>
-      <c r="D123" s="82">
+    <row r="123" spans="1:33" s="32" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="C123" s="79" t="s">
+        <v>413</v>
+      </c>
+      <c r="D123" s="81">
         <v>2022</v>
       </c>
-      <c r="E123" s="83" t="s">
-        <v>663</v>
-      </c>
-      <c r="F123" s="80" t="s">
-        <v>658</v>
-      </c>
-      <c r="G123" s="80" t="s">
-        <v>659</v>
-      </c>
-      <c r="H123" s="80" t="s">
-        <v>661</v>
+      <c r="E123" s="82" t="s">
+        <v>654</v>
+      </c>
+      <c r="F123" s="79" t="s">
+        <v>649</v>
+      </c>
+      <c r="G123" s="79" t="s">
+        <v>650</v>
+      </c>
+      <c r="H123" s="79" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="124" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C124" s="7" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="D124" s="26">
         <v>2021</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="H124" s="57" t="s">
-        <v>683</v>
+        <v>576</v>
+      </c>
+      <c r="H124" s="56" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="125" spans="1:33" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C125" s="80" t="s">
+      <c r="C125" s="79" t="s">
         <v>357</v>
       </c>
-      <c r="D125" s="81">
+      <c r="D125" s="80">
         <v>2019</v>
       </c>
-      <c r="E125" s="80" t="s">
-        <v>645</v>
-      </c>
-      <c r="F125" s="80" t="s">
+      <c r="E125" s="79" t="s">
+        <v>636</v>
+      </c>
+      <c r="F125" s="79" t="s">
         <v>358</v>
       </c>
-      <c r="G125" s="80" t="s">
-        <v>652</v>
-      </c>
-      <c r="H125" s="80" t="s">
-        <v>653</v>
+      <c r="G125" s="79" t="s">
+        <v>643</v>
+      </c>
+      <c r="H125" s="79" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="126" spans="1:33" ht="70" x14ac:dyDescent="0.3">
-      <c r="C126" s="77" t="s">
-        <v>576</v>
-      </c>
-      <c r="D126" s="77">
+      <c r="C126" s="76" t="s">
+        <v>567</v>
+      </c>
+      <c r="D126" s="76">
         <v>2023</v>
       </c>
-      <c r="E126" s="77" t="s">
-        <v>577</v>
-      </c>
-      <c r="F126" s="77" t="s">
-        <v>578</v>
-      </c>
-      <c r="G126" s="77" t="s">
-        <v>579</v>
-      </c>
-      <c r="H126" s="77" t="s">
-        <v>580</v>
+      <c r="E126" s="76" t="s">
+        <v>568</v>
+      </c>
+      <c r="F126" s="76" t="s">
+        <v>569</v>
+      </c>
+      <c r="G126" s="76" t="s">
+        <v>570</v>
+      </c>
+      <c r="H126" s="76" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="127" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C127" s="90" t="s">
+      <c r="C127" s="99" t="s">
         <v>237</v>
       </c>
-      <c r="D127" s="91"/>
-      <c r="E127" s="91"/>
-      <c r="F127" s="91"/>
-      <c r="G127" s="91"/>
-      <c r="H127" s="92"/>
-    </row>
-    <row r="128" spans="1:33" s="113" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="112"/>
-      <c r="B128" s="112"/>
-      <c r="C128" s="111" t="s">
-        <v>685</v>
-      </c>
-      <c r="D128" s="114">
+      <c r="D127" s="100"/>
+      <c r="E127" s="100"/>
+      <c r="F127" s="100"/>
+      <c r="G127" s="100"/>
+      <c r="H127" s="101"/>
+    </row>
+    <row r="128" spans="1:33" ht="43" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="87"/>
+      <c r="B128" s="87"/>
+      <c r="C128" s="86" t="s">
+        <v>676</v>
+      </c>
+      <c r="D128" s="88">
         <v>2010</v>
       </c>
-      <c r="E128" s="115" t="s">
+      <c r="E128" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="F128" s="115"/>
-      <c r="G128" s="115"/>
-      <c r="H128" s="115"/>
-      <c r="I128" s="112"/>
-      <c r="J128" s="112"/>
-      <c r="K128" s="112"/>
-      <c r="L128" s="112"/>
-      <c r="M128" s="112"/>
-      <c r="N128" s="112"/>
-      <c r="O128" s="112"/>
-      <c r="P128" s="112"/>
-      <c r="Q128" s="112"/>
-      <c r="R128" s="112"/>
-      <c r="S128" s="112"/>
-      <c r="T128" s="112"/>
-      <c r="U128" s="112"/>
-      <c r="V128" s="112"/>
-      <c r="W128" s="112"/>
-      <c r="X128" s="112"/>
-      <c r="Y128" s="112"/>
-      <c r="Z128" s="112"/>
-      <c r="AA128" s="112"/>
-      <c r="AB128" s="112"/>
-      <c r="AC128" s="112"/>
-      <c r="AD128" s="112"/>
-      <c r="AE128" s="112"/>
-      <c r="AF128" s="112"/>
-      <c r="AG128" s="112"/>
-    </row>
-    <row r="129" spans="1:33" s="113" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="112"/>
-      <c r="B129" s="112"/>
-      <c r="C129" s="111" t="s">
+      <c r="F128" s="89" t="s">
+        <v>684</v>
+      </c>
+      <c r="G128" s="89"/>
+      <c r="H128" s="89"/>
+      <c r="I128" s="87"/>
+      <c r="J128" s="87"/>
+      <c r="K128" s="87"/>
+      <c r="L128" s="87"/>
+      <c r="M128" s="87"/>
+      <c r="N128" s="87"/>
+      <c r="O128" s="87"/>
+      <c r="P128" s="87"/>
+      <c r="Q128" s="87"/>
+      <c r="R128" s="87"/>
+      <c r="S128" s="87"/>
+      <c r="T128" s="87"/>
+      <c r="U128" s="87"/>
+      <c r="V128" s="87"/>
+      <c r="W128" s="87"/>
+      <c r="X128" s="87"/>
+      <c r="Y128" s="87"/>
+      <c r="Z128" s="87"/>
+      <c r="AA128" s="87"/>
+      <c r="AB128" s="87"/>
+      <c r="AC128" s="87"/>
+      <c r="AD128" s="87"/>
+      <c r="AE128" s="87"/>
+      <c r="AF128" s="87"/>
+      <c r="AG128" s="87"/>
+    </row>
+    <row r="129" spans="1:33" ht="43" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="87"/>
+      <c r="B129" s="87"/>
+      <c r="C129" s="86" t="s">
+        <v>677</v>
+      </c>
+      <c r="D129" s="88">
+        <v>2014</v>
+      </c>
+      <c r="E129" s="86" t="s">
+        <v>678</v>
+      </c>
+      <c r="F129" s="89" t="s">
+        <v>688</v>
+      </c>
+      <c r="G129" s="89" t="s">
+        <v>690</v>
+      </c>
+      <c r="H129" s="89" t="s">
         <v>686</v>
       </c>
-      <c r="D129" s="114">
-        <v>2014</v>
-      </c>
-      <c r="E129" s="111" t="s">
-        <v>687</v>
-      </c>
-      <c r="F129" s="115"/>
-      <c r="G129" s="115"/>
-      <c r="H129" s="115"/>
-      <c r="I129" s="112"/>
-      <c r="J129" s="112"/>
-      <c r="K129" s="112"/>
-      <c r="L129" s="112"/>
-      <c r="M129" s="112"/>
-      <c r="N129" s="112"/>
-      <c r="O129" s="112"/>
-      <c r="P129" s="112"/>
-      <c r="Q129" s="112"/>
-      <c r="R129" s="112"/>
-      <c r="S129" s="112"/>
-      <c r="T129" s="112"/>
-      <c r="U129" s="112"/>
-      <c r="V129" s="112"/>
-      <c r="W129" s="112"/>
-      <c r="X129" s="112"/>
-      <c r="Y129" s="112"/>
-      <c r="Z129" s="112"/>
-      <c r="AA129" s="112"/>
-      <c r="AB129" s="112"/>
-      <c r="AC129" s="112"/>
-      <c r="AD129" s="112"/>
-      <c r="AE129" s="112"/>
-      <c r="AF129" s="112"/>
-      <c r="AG129" s="112"/>
-    </row>
-    <row r="130" spans="1:33" s="25" customFormat="1" ht="56" x14ac:dyDescent="0.3">
-      <c r="C130" s="80" t="s">
-        <v>397</v>
-      </c>
-      <c r="D130" s="80">
-        <v>2016</v>
-      </c>
-      <c r="E130" s="80" t="s">
-        <v>398</v>
-      </c>
-      <c r="F130" s="80" t="s">
-        <v>399</v>
-      </c>
-      <c r="G130" s="80"/>
-      <c r="H130" s="80"/>
-    </row>
-    <row r="131" spans="1:33" s="29" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="I129" s="87"/>
+      <c r="J129" s="87"/>
+      <c r="K129" s="87"/>
+      <c r="L129" s="87"/>
+      <c r="M129" s="87"/>
+      <c r="N129" s="87"/>
+      <c r="O129" s="87"/>
+      <c r="P129" s="87"/>
+      <c r="Q129" s="87"/>
+      <c r="R129" s="87"/>
+      <c r="S129" s="87"/>
+      <c r="T129" s="87"/>
+      <c r="U129" s="87"/>
+      <c r="V129" s="87"/>
+      <c r="W129" s="87"/>
+      <c r="X129" s="87"/>
+      <c r="Y129" s="87"/>
+      <c r="Z129" s="87"/>
+      <c r="AA129" s="87"/>
+      <c r="AB129" s="87"/>
+      <c r="AC129" s="87"/>
+      <c r="AD129" s="87"/>
+      <c r="AE129" s="87"/>
+      <c r="AF129" s="87"/>
+      <c r="AG129" s="87"/>
+    </row>
+    <row r="130" spans="1:33" s="29" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="C130" s="30" t="s">
+        <v>408</v>
+      </c>
+      <c r="D130" s="30">
+        <v>2017</v>
+      </c>
+      <c r="E130" t="s">
+        <v>409</v>
+      </c>
+      <c r="F130" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="G130" s="30"/>
+      <c r="H130" s="30"/>
+    </row>
+    <row r="131" spans="1:33" s="29" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="C131" s="30" t="s">
-        <v>417</v>
+        <v>391</v>
       </c>
       <c r="D131" s="30">
-        <v>2017</v>
-      </c>
-      <c r="E131" t="s">
-        <v>418</v>
+        <v>2018</v>
+      </c>
+      <c r="E131" s="27" t="s">
+        <v>392</v>
       </c>
       <c r="F131" s="30" t="s">
-        <v>419</v>
+        <v>393</v>
       </c>
       <c r="G131" s="30"/>
       <c r="H131" s="30"/>
     </row>
-    <row r="132" spans="1:33" s="29" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C132" s="30" t="s">
+    <row r="132" spans="1:33" s="29" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+      <c r="C132" s="114" t="s">
+        <v>397</v>
+      </c>
+      <c r="D132" s="114">
+        <v>2018</v>
+      </c>
+      <c r="E132" s="115" t="s">
+        <v>398</v>
+      </c>
+      <c r="F132" s="114" t="s">
         <v>400</v>
       </c>
-      <c r="D132" s="30">
-        <v>2018</v>
-      </c>
-      <c r="E132" s="27" t="s">
+      <c r="G132" s="114" t="s">
+        <v>399</v>
+      </c>
+      <c r="H132" s="114" t="s">
         <v>401</v>
       </c>
-      <c r="F132" s="30" t="s">
+    </row>
+    <row r="133" spans="1:33" s="29" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="C133" s="122" t="s">
+        <v>694</v>
+      </c>
+      <c r="D133" s="122">
+        <v>2019</v>
+      </c>
+      <c r="E133" s="123"/>
+      <c r="F133" s="122" t="s">
+        <v>467</v>
+      </c>
+      <c r="G133" s="122"/>
+      <c r="H133" s="122"/>
+    </row>
+    <row r="134" spans="1:33" ht="98" x14ac:dyDescent="0.3">
+      <c r="C134" s="121" t="s">
+        <v>266</v>
+      </c>
+      <c r="D134" s="121">
+        <v>2019</v>
+      </c>
+      <c r="E134" s="121" t="s">
+        <v>101</v>
+      </c>
+      <c r="F134" s="121" t="s">
+        <v>269</v>
+      </c>
+      <c r="G134" s="121" t="s">
+        <v>267</v>
+      </c>
+      <c r="H134" s="121" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="135" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+      <c r="C135" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="D135" s="7">
+        <v>2019</v>
+      </c>
+      <c r="E135" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="136" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+      <c r="C136" s="28" t="s">
         <v>402</v>
-      </c>
-      <c r="G132" s="30"/>
-      <c r="H132" s="30"/>
-    </row>
-    <row r="133" spans="1:33" s="29" customFormat="1" ht="112" x14ac:dyDescent="0.3">
-      <c r="C133" s="30" t="s">
-        <v>406</v>
-      </c>
-      <c r="D133" s="30">
-        <v>2018</v>
-      </c>
-      <c r="E133" s="31" t="s">
-        <v>407</v>
-      </c>
-      <c r="F133" s="30" t="s">
-        <v>409</v>
-      </c>
-      <c r="G133" s="30" t="s">
-        <v>408</v>
-      </c>
-      <c r="H133" s="30" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="134" spans="1:33" ht="98" x14ac:dyDescent="0.3">
-      <c r="C134" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="D134" s="26">
-        <v>2019</v>
-      </c>
-      <c r="E134" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="F134" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="G134" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="H134" s="26" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="135" spans="1:33" ht="28" x14ac:dyDescent="0.3">
-      <c r="C135" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="D135" s="12">
-        <v>2019</v>
-      </c>
-      <c r="E135" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="F135" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="G135" s="12"/>
-      <c r="H135" s="12"/>
-    </row>
-    <row r="136" spans="1:33" ht="28" x14ac:dyDescent="0.3">
-      <c r="C136" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="D136" s="7">
         <v>2019</v>
       </c>
-      <c r="E136" s="27" t="s">
+      <c r="E136" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F136" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="F136" s="7" t="s">
-        <v>405</v>
-      </c>
     </row>
     <row r="137" spans="1:33" ht="28" x14ac:dyDescent="0.3">
-      <c r="C137" s="111" t="s">
-        <v>394</v>
-      </c>
-      <c r="D137" s="12">
+      <c r="C137" s="45" t="s">
+        <v>692</v>
+      </c>
+      <c r="D137" s="43">
         <v>2019</v>
       </c>
-      <c r="E137" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="F137" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="G137" s="12"/>
-      <c r="H137" s="12"/>
+      <c r="E137" s="43"/>
+      <c r="F137" s="43"/>
+      <c r="G137" s="43"/>
+      <c r="H137" s="43"/>
     </row>
     <row r="138" spans="1:33" ht="28" x14ac:dyDescent="0.3">
-      <c r="C138" s="28" t="s">
-        <v>411</v>
-      </c>
-      <c r="D138" s="7">
+      <c r="C138" s="45" t="s">
+        <v>695</v>
+      </c>
+      <c r="D138" s="43">
         <v>2019</v>
       </c>
-      <c r="E138" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="F138" s="7" t="s">
-        <v>413</v>
-      </c>
+      <c r="E138" s="43"/>
+      <c r="F138" s="43"/>
+      <c r="G138" s="43"/>
+      <c r="H138" s="43"/>
     </row>
     <row r="139" spans="1:33" ht="28" x14ac:dyDescent="0.3">
-      <c r="C139" s="7" t="s">
-        <v>414</v>
+      <c r="C139" s="28" t="s">
+        <v>693</v>
       </c>
       <c r="D139" s="7">
         <v>2019</v>
       </c>
-      <c r="E139" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F139" s="7" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="140" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C140" s="87" t="s">
-        <v>565</v>
-      </c>
-      <c r="D140" s="88"/>
-      <c r="E140" s="88"/>
-      <c r="F140" s="88"/>
-      <c r="G140" s="88"/>
-      <c r="H140" s="89"/>
+    </row>
+    <row r="140" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+      <c r="C140" s="86" t="s">
+        <v>696</v>
+      </c>
+      <c r="D140" s="12">
+        <v>2019</v>
+      </c>
+      <c r="E140" s="12"/>
+      <c r="F140" s="12" t="s">
+        <v>697</v>
+      </c>
+      <c r="G140" s="12"/>
+      <c r="H140" s="12"/>
     </row>
     <row r="141" spans="1:33" ht="28" x14ac:dyDescent="0.3">
-      <c r="C141" s="67" t="s">
-        <v>589</v>
-      </c>
-      <c r="D141" s="67">
+      <c r="C141" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="D141" s="43">
+        <v>2019</v>
+      </c>
+      <c r="E141" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="F141" s="43" t="s">
+        <v>407</v>
+      </c>
+      <c r="G141" s="43"/>
+      <c r="H141" s="43"/>
+    </row>
+    <row r="142" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C142" s="90" t="s">
+        <v>556</v>
+      </c>
+      <c r="D142" s="91"/>
+      <c r="E142" s="91"/>
+      <c r="F142" s="91"/>
+      <c r="G142" s="91"/>
+      <c r="H142" s="92"/>
+    </row>
+    <row r="143" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+      <c r="C143" s="66" t="s">
+        <v>580</v>
+      </c>
+      <c r="D143" s="66">
         <v>2007</v>
       </c>
-      <c r="E141" s="67" t="s">
-        <v>590</v>
-      </c>
-      <c r="F141" s="67" t="s">
-        <v>591</v>
-      </c>
-      <c r="G141" s="67" t="s">
-        <v>585</v>
-      </c>
-      <c r="H141" s="67" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="142" spans="1:33" ht="28" x14ac:dyDescent="0.3">
-      <c r="C142" s="55" t="s">
+      <c r="E143" s="66" t="s">
+        <v>581</v>
+      </c>
+      <c r="F143" s="66" t="s">
+        <v>582</v>
+      </c>
+      <c r="G143" s="66" t="s">
+        <v>576</v>
+      </c>
+      <c r="H143" s="66" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="144" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+      <c r="C144" s="54" t="s">
         <v>376</v>
       </c>
-      <c r="D142" s="55">
+      <c r="D144" s="54">
         <v>2018</v>
       </c>
-      <c r="E142" s="55" t="s">
+      <c r="E144" s="54" t="s">
         <v>377</v>
       </c>
-      <c r="F142" s="55" t="s">
-        <v>570</v>
-      </c>
-      <c r="G142" s="55" t="s">
-        <v>572</v>
-      </c>
-      <c r="H142" s="55" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="143" spans="1:33" ht="28" x14ac:dyDescent="0.3">
-      <c r="C143" s="70" t="s">
+      <c r="F144" s="54" t="s">
+        <v>561</v>
+      </c>
+      <c r="G144" s="54" t="s">
+        <v>563</v>
+      </c>
+      <c r="H144" s="54" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="145" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C145" s="69" t="s">
         <v>369</v>
       </c>
-      <c r="D143" s="70">
+      <c r="D145" s="69">
         <v>2023</v>
       </c>
-      <c r="E143" s="70" t="s">
+      <c r="E145" s="69" t="s">
         <v>370</v>
       </c>
-      <c r="F143" s="70" t="s">
-        <v>461</v>
-      </c>
-      <c r="G143" s="70" t="s">
-        <v>585</v>
-      </c>
-      <c r="H143" s="70"/>
-    </row>
-    <row r="144" spans="1:33" s="14" customFormat="1" ht="56" x14ac:dyDescent="0.3">
-      <c r="C144" s="64" t="s">
+      <c r="F145" s="69" t="s">
+        <v>452</v>
+      </c>
+      <c r="G145" s="69" t="s">
+        <v>576</v>
+      </c>
+      <c r="H145" s="69"/>
+    </row>
+    <row r="146" spans="3:8" s="14" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+      <c r="C146" s="63" t="s">
         <v>313</v>
       </c>
-      <c r="D144" s="65">
+      <c r="D146" s="64">
         <v>2023</v>
       </c>
-      <c r="E144" s="66" t="s">
+      <c r="E146" s="65" t="s">
         <v>314</v>
       </c>
-      <c r="F144" s="64" t="s">
-        <v>566</v>
-      </c>
-      <c r="G144" s="64" t="s">
+      <c r="F146" s="63" t="s">
+        <v>557</v>
+      </c>
+      <c r="G146" s="63" t="s">
         <v>315</v>
       </c>
-      <c r="H144" s="64" t="s">
+      <c r="H146" s="63" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="148" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C148" s="87" t="s">
+    <row r="150" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C150" s="90" t="s">
         <v>275</v>
       </c>
-      <c r="D148" s="88"/>
-      <c r="E148" s="88"/>
-      <c r="F148" s="88"/>
-      <c r="G148" s="88"/>
-      <c r="H148" s="89"/>
-    </row>
-    <row r="149" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C149" s="7" t="s">
+      <c r="D150" s="91"/>
+      <c r="E150" s="91"/>
+      <c r="F150" s="91"/>
+      <c r="G150" s="91"/>
+      <c r="H150" s="92"/>
+    </row>
+    <row r="151" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C151" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D149" s="7">
+      <c r="D151" s="7">
         <v>2020</v>
       </c>
-      <c r="E149" s="7" t="s">
+      <c r="E151" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="F149" s="7" t="s">
+      <c r="F151" s="7" t="s">
         <v>282</v>
-      </c>
-    </row>
-    <row r="150" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C150" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="D150" s="7">
-        <v>2021</v>
-      </c>
-      <c r="E150" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F150" s="7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="151" spans="3:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="C151" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="D151" s="7">
-        <v>2022</v>
-      </c>
-      <c r="E151" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F151" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G151" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="152" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C152" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D152" s="7">
+        <v>2021</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F152" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="153" spans="3:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="C153" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D153" s="7">
+        <v>2022</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F153" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G153" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="154" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C154" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="D152" s="7">
+      <c r="D154" s="7">
         <v>2023</v>
       </c>
-      <c r="E152" s="7" t="s">
+      <c r="E154" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="F152" s="7" t="s">
+      <c r="F154" s="7" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="153" spans="3:8" ht="98" x14ac:dyDescent="0.3">
-      <c r="C153" s="7" t="s">
+    <row r="155" spans="3:8" ht="98" x14ac:dyDescent="0.3">
+      <c r="C155" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="D153" s="7">
+      <c r="D155" s="7">
         <v>2023</v>
       </c>
-      <c r="E153" s="7" t="s">
+      <c r="E155" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="F153" s="7" t="s">
+      <c r="F155" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="G153" s="7" t="s">
+      <c r="G155" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="H153" s="7" t="s">
+      <c r="H155" s="7" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="156" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C156" s="87" t="s">
-        <v>471</v>
-      </c>
-      <c r="D156" s="88"/>
-      <c r="E156" s="88"/>
-      <c r="F156" s="88"/>
-      <c r="G156" s="88"/>
-      <c r="H156" s="89"/>
-    </row>
-    <row r="157" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C157" s="26" t="s">
+    <row r="158" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C158" s="90" t="s">
+        <v>462</v>
+      </c>
+      <c r="D158" s="91"/>
+      <c r="E158" s="91"/>
+      <c r="F158" s="91"/>
+      <c r="G158" s="91"/>
+      <c r="H158" s="92"/>
+    </row>
+    <row r="159" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C159" s="26" t="s">
         <v>378</v>
       </c>
-      <c r="D157" s="26">
+      <c r="D159" s="26">
         <v>2017</v>
       </c>
-      <c r="E157" s="26" t="s">
+      <c r="E159" s="26" t="s">
         <v>379</v>
       </c>
-      <c r="F157" s="26"/>
-      <c r="G157" s="26"/>
-      <c r="H157" s="26"/>
-    </row>
-    <row r="158" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C158" s="26" t="s">
+      <c r="F159" s="26"/>
+      <c r="G159" s="26"/>
+      <c r="H159" s="26"/>
+    </row>
+    <row r="160" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C160" s="26" t="s">
         <v>387</v>
       </c>
-      <c r="D158" s="26">
+      <c r="D160" s="26">
         <v>2020</v>
       </c>
-      <c r="E158" s="26" t="s">
+      <c r="E160" s="26" t="s">
         <v>388</v>
       </c>
-      <c r="F158" s="26" t="s">
+      <c r="F160" s="26" t="s">
         <v>382</v>
       </c>
-      <c r="G158" s="26"/>
-      <c r="H158" s="26"/>
-    </row>
-    <row r="159" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C159" s="7" t="s">
+      <c r="G160" s="26"/>
+      <c r="H160" s="26"/>
+    </row>
+    <row r="161" spans="3:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="C161" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="D159" s="7">
+      <c r="D161" s="7">
         <v>2021</v>
       </c>
-      <c r="E159" s="7" t="s">
+      <c r="E161" s="7" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="160" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C160" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="D160" s="7">
+    <row r="162" spans="3:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="C162" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="D162" s="7">
         <v>2021</v>
       </c>
-      <c r="E160" s="7" t="s">
-        <v>549</v>
+      <c r="E162" s="7" t="s">
+        <v>540</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C158:H158"/>
+    <mergeCell ref="C150:H150"/>
+    <mergeCell ref="C89:H89"/>
+    <mergeCell ref="C107:H107"/>
+    <mergeCell ref="C127:H127"/>
+    <mergeCell ref="C142:H142"/>
     <mergeCell ref="C77:H77"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="C44:H44"/>
     <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C156:H156"/>
-    <mergeCell ref="C148:H148"/>
-    <mergeCell ref="C89:H89"/>
-    <mergeCell ref="C107:H107"/>
-    <mergeCell ref="C127:H127"/>
-    <mergeCell ref="C140:H140"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7621,7 +7727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F283F35-418D-4BB1-82BA-2ABDAAC924FE}">
   <dimension ref="B5:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -7630,391 +7736,391 @@
     <col min="2" max="2" width="11.9140625" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="24.83203125" customWidth="1"/>
-    <col min="5" max="5" width="19.25" style="38" customWidth="1"/>
+    <col min="5" max="5" width="19.25" style="37" customWidth="1"/>
     <col min="6" max="6" width="35.33203125" customWidth="1"/>
-    <col min="7" max="7" width="28.75" style="38" customWidth="1"/>
+    <col min="7" max="7" width="28.75" style="37" customWidth="1"/>
     <col min="8" max="8" width="29.9140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:8" ht="20" x14ac:dyDescent="0.4">
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="102" t="s">
+        <v>470</v>
+      </c>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="104"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="58" t="s">
+        <v>471</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>472</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>473</v>
+      </c>
+      <c r="E7" s="77" t="s">
+        <v>474</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>475</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="104.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="105" t="s">
+        <v>495</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>585</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>477</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="91" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="105"/>
+      <c r="C9" s="55" t="s">
+        <v>586</v>
+      </c>
+      <c r="D9" s="28" t="s">
         <v>479</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="101"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="59" t="s">
+      <c r="E9" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="F9" s="49" t="s">
         <v>481</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="G9" s="47" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="105"/>
+      <c r="C10" s="55" t="s">
+        <v>587</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>482</v>
       </c>
-      <c r="E7" s="78" t="s">
+      <c r="E10" s="28" t="s">
         <v>483</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F10" s="50" t="s">
         <v>484</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G10" s="47" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="96.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="105"/>
+      <c r="C11" s="55" t="s">
+        <v>587</v>
+      </c>
+      <c r="D11" s="27" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" ht="104.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="102" t="s">
-        <v>504</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>594</v>
-      </c>
-      <c r="D8" s="27" t="s">
+      <c r="E11" s="28" t="s">
         <v>486</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F11" s="50" t="s">
         <v>487</v>
       </c>
-      <c r="F8" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="G8" s="48" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="91" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="102"/>
-      <c r="C9" s="56" t="s">
-        <v>595</v>
-      </c>
-      <c r="D9" s="28" t="s">
+      <c r="G11" s="47" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="109" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="105"/>
+      <c r="C12" s="55" t="s">
+        <v>587</v>
+      </c>
+      <c r="D12" s="27" t="s">
         <v>488</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E12" s="28" t="s">
         <v>489</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F12" s="50" t="s">
         <v>490</v>
       </c>
-      <c r="G9" s="48" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="102"/>
-      <c r="C10" s="56" t="s">
-        <v>596</v>
-      </c>
-      <c r="D10" s="27" t="s">
+      <c r="G12" s="48" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="89" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="105"/>
+      <c r="C13" s="55" t="s">
+        <v>587</v>
+      </c>
+      <c r="D13" s="28" t="s">
         <v>491</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E13" s="28" t="s">
         <v>492</v>
       </c>
-      <c r="F10" s="51" t="s">
+      <c r="F13" s="50" t="s">
         <v>493</v>
       </c>
-      <c r="G10" s="48" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="96.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="102"/>
-      <c r="C11" s="56" t="s">
-        <v>596</v>
-      </c>
-      <c r="D11" s="27" t="s">
+      <c r="G13" s="48" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="B14" s="105"/>
+      <c r="C14" s="55" t="s">
+        <v>587</v>
+      </c>
+      <c r="D14" s="27" t="s">
         <v>494</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>495</v>
-      </c>
-      <c r="F11" s="51" t="s">
-        <v>496</v>
-      </c>
-      <c r="G11" s="48" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="109" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="102"/>
-      <c r="C12" s="56" t="s">
-        <v>596</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>497</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>498</v>
-      </c>
-      <c r="F12" s="51" t="s">
-        <v>499</v>
-      </c>
-      <c r="G12" s="49" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="89" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="102"/>
-      <c r="C13" s="56" t="s">
-        <v>596</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>500</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>501</v>
-      </c>
-      <c r="F13" s="51" t="s">
-        <v>502</v>
-      </c>
-      <c r="G13" s="49" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="B14" s="102"/>
-      <c r="C14" s="56" t="s">
-        <v>596</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>503</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F14" s="50" t="s">
+      <c r="F14" s="49" t="s">
         <v>292</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="47" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="B15" s="102" t="s">
-        <v>542</v>
+      <c r="B15" s="105" t="s">
+        <v>533</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="D15" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>510</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>511</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="B16" s="105"/>
+      <c r="C16" s="28" t="s">
+        <v>590</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>464</v>
+      </c>
+      <c r="E16" s="28" t="s">
         <v>517</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="F16" s="50" t="s">
         <v>518</v>
       </c>
-      <c r="F15" s="51" t="s">
+      <c r="G16" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="84" x14ac:dyDescent="0.3">
+      <c r="B17" s="105"/>
+      <c r="C17" s="28" t="s">
+        <v>589</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>527</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>523</v>
+      </c>
+      <c r="F17" s="50" t="s">
         <v>519</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G17" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="B18" s="105"/>
+      <c r="C18" s="28" t="s">
+        <v>590</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>467</v>
+      </c>
+      <c r="E18" s="28" t="s">
         <v>520</v>
       </c>
-      <c r="H15" s="28" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="B16" s="102"/>
-      <c r="C16" s="28" t="s">
-        <v>599</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>473</v>
-      </c>
-      <c r="E16" s="28" t="s">
+      <c r="F18" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>514</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="B19" s="105"/>
+      <c r="C19" s="28" t="s">
+        <v>590</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>500</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="F19" s="50" t="s">
+        <v>505</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="69.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="105"/>
+      <c r="C20" s="28" t="s">
+        <v>589</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>494</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>525</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>522</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="B21" s="105"/>
+      <c r="C21" s="28" t="s">
+        <v>590</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>528</v>
+      </c>
+      <c r="E21" s="28" t="s">
         <v>526</v>
       </c>
-      <c r="F16" s="51" t="s">
-        <v>527</v>
-      </c>
-      <c r="G16" s="38" t="s">
-        <v>521</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="84" x14ac:dyDescent="0.3">
-      <c r="B17" s="102"/>
-      <c r="C17" s="28" t="s">
-        <v>598</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>536</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>532</v>
-      </c>
-      <c r="F17" s="51" t="s">
-        <v>528</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>522</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="B18" s="102"/>
-      <c r="C18" s="28" t="s">
-        <v>599</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>476</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>529</v>
-      </c>
-      <c r="F18" s="51" t="s">
-        <v>530</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>523</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="B19" s="102"/>
-      <c r="C19" s="28" t="s">
-        <v>599</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>533</v>
-      </c>
-      <c r="F19" s="51" t="s">
-        <v>514</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>510</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="69.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="102"/>
-      <c r="C20" s="28" t="s">
-        <v>598</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>503</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>534</v>
-      </c>
-      <c r="F20" s="51" t="s">
+      <c r="F21" s="50" t="s">
+        <v>498</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>516</v>
+      </c>
+      <c r="H21" s="28" t="s">
         <v>531</v>
       </c>
-      <c r="G20" s="38" t="s">
-        <v>524</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="B21" s="102"/>
-      <c r="C21" s="28" t="s">
-        <v>599</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>537</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>535</v>
-      </c>
-      <c r="F21" s="51" t="s">
-        <v>507</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>525</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>540</v>
-      </c>
     </row>
     <row r="22" spans="2:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="B22" s="103" t="s">
+      <c r="B22" s="106" t="s">
         <v>136</v>
       </c>
       <c r="C22" s="28" t="s">
         <v>204</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="E22" s="28" t="s">
+        <v>564</v>
+      </c>
+      <c r="F22" s="50" t="s">
+        <v>565</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="B23" s="107"/>
+      <c r="C23" s="28" t="s">
+        <v>591</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="E23" s="28" t="s">
         <v>573</v>
       </c>
-      <c r="F22" s="51" t="s">
-        <v>574</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="B23" s="104"/>
-      <c r="C23" s="28" t="s">
-        <v>600</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>581</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>582</v>
-      </c>
-      <c r="F23" s="51" t="s">
-        <v>580</v>
-      </c>
-      <c r="G23" s="38" t="s">
-        <v>575</v>
+      <c r="F23" s="50" t="s">
+        <v>571</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="B24" s="104"/>
-      <c r="C24" s="68" t="s">
-        <v>601</v>
-      </c>
-      <c r="D24" s="68" t="s">
-        <v>503</v>
-      </c>
-      <c r="E24" s="68" t="s">
-        <v>606</v>
-      </c>
-      <c r="F24" s="69" t="s">
-        <v>607</v>
+      <c r="B24" s="107"/>
+      <c r="C24" s="67" t="s">
+        <v>592</v>
+      </c>
+      <c r="D24" s="67" t="s">
+        <v>494</v>
+      </c>
+      <c r="E24" s="67" t="s">
+        <v>597</v>
+      </c>
+      <c r="F24" s="68" t="s">
+        <v>598</v>
       </c>
       <c r="G24" s="30" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="105"/>
-      <c r="C25" s="52" t="s">
-        <v>601</v>
-      </c>
-      <c r="D25" s="62" t="s">
-        <v>569</v>
-      </c>
-      <c r="E25" s="62" t="s">
-        <v>571</v>
-      </c>
-      <c r="F25" s="63" t="s">
-        <v>567</v>
-      </c>
-      <c r="G25" s="38" t="s">
-        <v>584</v>
+      <c r="B25" s="108"/>
+      <c r="C25" s="51" t="s">
+        <v>592</v>
+      </c>
+      <c r="D25" s="61" t="s">
+        <v>560</v>
+      </c>
+      <c r="E25" s="61" t="s">
+        <v>562</v>
+      </c>
+      <c r="F25" s="62" t="s">
+        <v>558</v>
+      </c>
+      <c r="G25" s="37" t="s">
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -8050,204 +8156,204 @@
   <sheetData>
     <row r="4" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:7" ht="20" x14ac:dyDescent="0.4">
-      <c r="B5" s="99" t="s">
-        <v>468</v>
-      </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="101"/>
+      <c r="B5" s="102" t="s">
+        <v>459</v>
+      </c>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="104"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="59" t="s">
-        <v>480</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>481</v>
-      </c>
-      <c r="D6" s="58" t="s">
+      <c r="B6" s="58" t="s">
+        <v>471</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>472</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>542</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>543</v>
+      </c>
+      <c r="F6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="B7" s="105" t="s">
+        <v>495</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>587</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>545</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="B8" s="105"/>
+      <c r="C8" s="28" t="s">
+        <v>593</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>577</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>578</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="B9" s="105"/>
+      <c r="C9" s="28" t="s">
+        <v>594</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>546</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="B10" s="105"/>
+      <c r="C10" s="55" t="s">
+        <v>587</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>551</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E10" s="50" t="s">
+        <v>547</v>
+      </c>
+      <c r="F10" s="60" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="B11" s="105"/>
+      <c r="C11" s="28" t="s">
+        <v>595</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>548</v>
+      </c>
+      <c r="F11" s="48" t="s">
         <v>552</v>
       </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="12" spans="2:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="B12" s="105"/>
+      <c r="C12" s="28" t="s">
+        <v>595</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>550</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>549</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="B13" s="105" t="s">
+        <v>533</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>589</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>555</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>538</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>534</v>
+      </c>
+      <c r="G13" s="28" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="B7" s="102" t="s">
-        <v>504</v>
-      </c>
-      <c r="C7" s="56" t="s">
+    <row r="14" spans="2:7" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="105"/>
+      <c r="C14" s="28" t="s">
         <v>596</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E7" s="57" t="s">
+      <c r="D14" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>536</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>599</v>
+      </c>
+      <c r="G14" s="51" t="s">
         <v>554</v>
       </c>
-      <c r="F7" s="49" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="B8" s="102"/>
-      <c r="C8" s="28" t="s">
+    </row>
+    <row r="15" spans="2:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="B15" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>556</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>583</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="B16" s="105"/>
+      <c r="C16" s="28" t="s">
+        <v>556</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>601</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>600</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="109"/>
+      <c r="C17" s="51" t="s">
+        <v>556</v>
+      </c>
+      <c r="D17" s="71" t="s">
+        <v>550</v>
+      </c>
+      <c r="E17" s="72" t="s">
         <v>602</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>586</v>
-      </c>
-      <c r="E8" s="57" t="s">
-        <v>587</v>
-      </c>
-      <c r="F8" s="49" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="B9" s="102"/>
-      <c r="C9" s="28" t="s">
-        <v>603</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E9" s="51" t="s">
-        <v>555</v>
-      </c>
-      <c r="F9" s="49" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B10" s="102"/>
-      <c r="C10" s="56" t="s">
-        <v>596</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>560</v>
-      </c>
-      <c r="E10" s="51" t="s">
-        <v>556</v>
-      </c>
-      <c r="F10" s="61" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B11" s="102"/>
-      <c r="C11" s="28" t="s">
-        <v>604</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E11" s="51" t="s">
-        <v>557</v>
-      </c>
-      <c r="F11" s="49" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B12" s="102"/>
-      <c r="C12" s="28" t="s">
-        <v>604</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>559</v>
-      </c>
-      <c r="E12" s="51" t="s">
-        <v>558</v>
-      </c>
-      <c r="F12" s="49" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B13" s="102" t="s">
-        <v>542</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>598</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>564</v>
-      </c>
-      <c r="E13" s="51" t="s">
-        <v>547</v>
-      </c>
-      <c r="F13" s="49" t="s">
-        <v>543</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="102"/>
-      <c r="C14" s="28" t="s">
-        <v>605</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E14" s="51" t="s">
-        <v>545</v>
-      </c>
-      <c r="F14" s="49" t="s">
-        <v>608</v>
-      </c>
-      <c r="G14" s="52" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B15" s="102" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>565</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E15" s="51" t="s">
-        <v>592</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B16" s="102"/>
-      <c r="C16" s="28" t="s">
-        <v>565</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>610</v>
-      </c>
-      <c r="E16" s="51" t="s">
-        <v>609</v>
-      </c>
-      <c r="F16" s="48" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="106"/>
-      <c r="C17" s="52" t="s">
-        <v>565</v>
-      </c>
-      <c r="D17" s="72" t="s">
-        <v>559</v>
-      </c>
-      <c r="E17" s="73" t="s">
-        <v>611</v>
-      </c>
-      <c r="F17" s="71" t="s">
+      <c r="F17" s="70" t="s">
         <v>313</v>
       </c>
     </row>
@@ -8266,10 +8372,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5ECC81-6914-43CE-AB0A-E1BBB7ABC546}">
-  <dimension ref="B7:I23"/>
+  <dimension ref="B7:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8284,294 +8390,351 @@
   <sheetData>
     <row r="7" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="2:9" ht="20" x14ac:dyDescent="0.4">
-      <c r="D8" s="107" t="s">
-        <v>479</v>
-      </c>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="109"/>
+      <c r="D8" s="110" t="s">
+        <v>470</v>
+      </c>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="112"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="59" t="s">
-        <v>480</v>
-      </c>
-      <c r="E9" s="58" t="s">
-        <v>481</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>482</v>
-      </c>
-      <c r="G9" s="78" t="s">
-        <v>483</v>
-      </c>
-      <c r="H9" s="60" t="s">
-        <v>484</v>
-      </c>
-      <c r="I9" s="38" t="s">
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="58" t="s">
+        <v>471</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>472</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>473</v>
+      </c>
+      <c r="G9" s="77" t="s">
+        <v>474</v>
+      </c>
+      <c r="H9" s="59" t="s">
+        <v>475</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="42" x14ac:dyDescent="0.3">
+      <c r="D10" s="105" t="s">
+        <v>662</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>603</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>488</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>607</v>
+      </c>
+      <c r="H10" s="50" t="s">
+        <v>604</v>
+      </c>
+      <c r="I10" s="48" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="D11" s="105"/>
+      <c r="E11" s="28" t="s">
+        <v>603</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>488</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>612</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>610</v>
+      </c>
+      <c r="I11" s="48" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="D12" s="105"/>
+      <c r="E12" s="28" t="s">
+        <v>603</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>467</v>
+      </c>
+      <c r="G12" s="55" t="s">
+        <v>615</v>
+      </c>
+      <c r="H12" s="56" t="s">
+        <v>614</v>
+      </c>
+      <c r="I12" s="48" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="D13" s="105"/>
+      <c r="E13" s="28" t="s">
+        <v>603</v>
+      </c>
+      <c r="F13" s="27" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" ht="42" x14ac:dyDescent="0.3">
-      <c r="D10" s="103" t="s">
-        <v>671</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>612</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>497</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>616</v>
-      </c>
-      <c r="H10" s="51" t="s">
+      <c r="G13" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="H13" s="56" t="s">
+        <v>614</v>
+      </c>
+      <c r="I13" s="48" t="s">
         <v>613</v>
       </c>
-      <c r="I10" s="49" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="28" x14ac:dyDescent="0.3">
-      <c r="D11" s="104"/>
-      <c r="E11" s="28" t="s">
-        <v>612</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>497</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>621</v>
-      </c>
-      <c r="H11" s="51" t="s">
+    </row>
+    <row r="14" spans="2:9" ht="42" x14ac:dyDescent="0.3">
+      <c r="D14" s="105"/>
+      <c r="E14" s="28" t="s">
         <v>619</v>
       </c>
-      <c r="I11" s="49" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="28" x14ac:dyDescent="0.3">
-      <c r="D12" s="104"/>
-      <c r="E12" s="28" t="s">
-        <v>612</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>476</v>
-      </c>
-      <c r="G12" s="56" t="s">
+      <c r="F14" s="28" t="s">
+        <v>488</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="H14" s="56" t="s">
         <v>624</v>
       </c>
-      <c r="H12" s="57" t="s">
-        <v>623</v>
-      </c>
-      <c r="I12" s="49" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="28" x14ac:dyDescent="0.3">
-      <c r="D13" s="104"/>
-      <c r="E13" s="28" t="s">
-        <v>612</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>494</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>629</v>
-      </c>
-      <c r="H13" s="57" t="s">
-        <v>623</v>
-      </c>
-      <c r="I13" s="49" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="42" x14ac:dyDescent="0.3">
-      <c r="D14" s="104"/>
-      <c r="E14" s="28" t="s">
+      <c r="I14" s="48" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="42" x14ac:dyDescent="0.3">
+      <c r="D15" s="105"/>
+      <c r="E15" s="28" t="s">
+        <v>619</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>488</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>647</v>
+      </c>
+      <c r="H15" s="56" t="s">
+        <v>624</v>
+      </c>
+      <c r="I15" s="48" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="42" x14ac:dyDescent="0.3">
+      <c r="D16" s="105"/>
+      <c r="E16" s="28" t="s">
+        <v>619</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>666</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="H16" s="49" t="s">
+        <v>668</v>
+      </c>
+      <c r="I16" s="47" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="D17" s="105"/>
+      <c r="E17" s="28" t="s">
+        <v>619</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>467</v>
+      </c>
+      <c r="G17" s="28" t="s">
         <v>628</v>
       </c>
-      <c r="F14" s="28" t="s">
-        <v>497</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>631</v>
-      </c>
-      <c r="H14" s="57" t="s">
+      <c r="H17" s="50" t="s">
+        <v>632</v>
+      </c>
+      <c r="I17" s="48" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="D18" s="105"/>
+      <c r="E18" s="28" t="s">
+        <v>619</v>
+      </c>
+      <c r="F18" s="28" t="s">
         <v>633</v>
       </c>
-      <c r="I14" s="49" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="42" x14ac:dyDescent="0.3">
-      <c r="D15" s="104"/>
-      <c r="E15" s="28" t="s">
+      <c r="G18" s="28" t="s">
         <v>628</v>
       </c>
-      <c r="F15" s="28" t="s">
-        <v>497</v>
-      </c>
-      <c r="G15" s="28" t="s">
+      <c r="H18" s="50" t="s">
+        <v>632</v>
+      </c>
+      <c r="I18" s="48" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" ht="42" x14ac:dyDescent="0.3">
+      <c r="D19" s="105"/>
+      <c r="E19" s="28" t="s">
+        <v>619</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>467</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>630</v>
+      </c>
+      <c r="H19" s="50" t="s">
+        <v>632</v>
+      </c>
+      <c r="I19" s="48" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="D20" s="105"/>
+      <c r="E20" s="28" t="s">
+        <v>619</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>467</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>640</v>
+      </c>
+      <c r="H20" s="50" t="s">
+        <v>641</v>
+      </c>
+      <c r="I20" s="48" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="D21" s="105"/>
+      <c r="E21" s="28" t="s">
+        <v>619</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>649</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>651</v>
+      </c>
+      <c r="H21" s="50" t="s">
+        <v>653</v>
+      </c>
+      <c r="I21" s="48" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="D22" s="105"/>
+      <c r="E22" s="28" t="s">
+        <v>619</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>655</v>
+      </c>
+      <c r="G22" s="28" t="s">
         <v>656</v>
       </c>
-      <c r="H15" s="57" t="s">
-        <v>633</v>
-      </c>
-      <c r="I15" s="49" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="42" x14ac:dyDescent="0.3">
-      <c r="D16" s="104"/>
-      <c r="E16" s="28" t="s">
-        <v>628</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>675</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>676</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>677</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="17" spans="4:9" ht="28" x14ac:dyDescent="0.3">
-      <c r="D17" s="104"/>
-      <c r="E17" s="28" t="s">
-        <v>628</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>476</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>637</v>
-      </c>
-      <c r="H17" s="51" t="s">
-        <v>641</v>
-      </c>
-      <c r="I17" s="49" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="18" spans="4:9" ht="28" x14ac:dyDescent="0.3">
-      <c r="D18" s="104"/>
-      <c r="E18" s="28" t="s">
-        <v>628</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>642</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>637</v>
-      </c>
-      <c r="H18" s="51" t="s">
-        <v>641</v>
-      </c>
-      <c r="I18" s="49" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="19" spans="4:9" ht="42" x14ac:dyDescent="0.3">
-      <c r="D19" s="104"/>
-      <c r="E19" s="28" t="s">
-        <v>628</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>476</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>639</v>
-      </c>
-      <c r="H19" s="51" t="s">
-        <v>641</v>
-      </c>
-      <c r="I19" s="49" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="20" spans="4:9" ht="28" x14ac:dyDescent="0.3">
-      <c r="D20" s="104"/>
-      <c r="E20" s="28" t="s">
-        <v>628</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>476</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>649</v>
-      </c>
-      <c r="H20" s="51" t="s">
-        <v>650</v>
-      </c>
-      <c r="I20" s="49" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="21" spans="4:9" ht="28" x14ac:dyDescent="0.3">
-      <c r="D21" s="104"/>
-      <c r="E21" s="28" t="s">
-        <v>628</v>
-      </c>
-      <c r="F21" s="28" t="s">
+      <c r="H22" s="50" t="s">
+        <v>657</v>
+      </c>
+      <c r="I22" s="48" t="s">
         <v>658</v>
       </c>
-      <c r="G21" s="28" t="s">
+    </row>
+    <row r="23" spans="4:9" ht="56" x14ac:dyDescent="0.3">
+      <c r="D23" s="105"/>
+      <c r="E23" s="28" t="s">
+        <v>659</v>
+      </c>
+      <c r="F23" s="28" t="s">
         <v>660</v>
       </c>
-      <c r="H21" s="51" t="s">
-        <v>662</v>
-      </c>
-      <c r="I21" s="49" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="22" spans="4:9" ht="28" x14ac:dyDescent="0.3">
-      <c r="D22" s="104"/>
-      <c r="E22" s="28" t="s">
-        <v>628</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>664</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>665</v>
-      </c>
-      <c r="H22" s="51" t="s">
-        <v>666</v>
-      </c>
-      <c r="I22" s="49" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="23" spans="4:9" ht="56.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D23" s="105"/>
-      <c r="E23" s="52" t="s">
-        <v>668</v>
-      </c>
-      <c r="F23" s="52" t="s">
-        <v>669</v>
-      </c>
-      <c r="G23" s="52" t="s">
+      <c r="G23" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="H23" s="73" t="s">
+      <c r="H23" s="50" t="s">
         <v>273</v>
       </c>
-      <c r="I23" s="49" t="s">
-        <v>670</v>
+      <c r="I23" s="48" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" ht="42" x14ac:dyDescent="0.3">
+      <c r="D24" s="105" t="s">
+        <v>702</v>
+      </c>
+      <c r="E24" s="116" t="s">
+        <v>679</v>
+      </c>
+      <c r="F24" s="116" t="s">
+        <v>681</v>
+      </c>
+      <c r="G24" s="116" t="s">
+        <v>682</v>
+      </c>
+      <c r="H24" s="118" t="s">
+        <v>683</v>
+      </c>
+      <c r="I24" s="37" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" ht="42" x14ac:dyDescent="0.3">
+      <c r="D25" s="105"/>
+      <c r="E25" s="116" t="s">
+        <v>679</v>
+      </c>
+      <c r="F25" s="116" t="s">
+        <v>689</v>
+      </c>
+      <c r="G25" s="116" t="s">
+        <v>691</v>
+      </c>
+      <c r="H25" s="118" t="s">
+        <v>687</v>
+      </c>
+      <c r="I25" s="37" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D26" s="109"/>
+      <c r="E26" s="119" t="s">
+        <v>679</v>
+      </c>
+      <c r="F26" s="51" t="s">
+        <v>699</v>
+      </c>
+      <c r="G26" s="119" t="s">
+        <v>700</v>
+      </c>
+      <c r="H26" s="120" t="s">
+        <v>701</v>
+      </c>
+      <c r="I26" s="117" t="s">
+        <v>698</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="D8:H8"/>
     <mergeCell ref="D10:D23"/>
+    <mergeCell ref="D24:D26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8596,114 +8759,114 @@
   <sheetData>
     <row r="5" spans="3:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="3:7" ht="20" x14ac:dyDescent="0.4">
-      <c r="C6" s="107" t="s">
-        <v>468</v>
-      </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="38"/>
+      <c r="C6" s="110" t="s">
+        <v>459</v>
+      </c>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C7" s="85" t="s">
-        <v>480</v>
-      </c>
-      <c r="D7" s="78" t="s">
-        <v>481</v>
-      </c>
-      <c r="E7" s="78" t="s">
-        <v>551</v>
-      </c>
-      <c r="F7" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>553</v>
+      <c r="C7" s="84" t="s">
+        <v>471</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>472</v>
+      </c>
+      <c r="E7" s="77" t="s">
+        <v>542</v>
+      </c>
+      <c r="F7" s="85" t="s">
+        <v>543</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="8" spans="3:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="C8" s="103" t="s">
+      <c r="C8" s="106" t="s">
+        <v>662</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>619</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="F8" s="56" t="s">
+        <v>665</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="C9" s="107"/>
+      <c r="D9" s="28" t="s">
+        <v>619</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>673</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>674</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C10" s="107"/>
+      <c r="D10" s="28" t="s">
+        <v>603</v>
+      </c>
+      <c r="E10" s="28" t="s">
         <v>671</v>
       </c>
-      <c r="D8" s="56" t="s">
-        <v>628</v>
-      </c>
-      <c r="E8" s="28" t="s">
+      <c r="F10" s="50" t="s">
         <v>672</v>
-      </c>
-      <c r="F8" s="57" t="s">
-        <v>674</v>
-      </c>
-      <c r="G8" s="49" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="C9" s="104"/>
-      <c r="D9" s="28" t="s">
-        <v>628</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>682</v>
-      </c>
-      <c r="F9" s="57" t="s">
-        <v>683</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C10" s="104"/>
-      <c r="D10" s="28" t="s">
-        <v>612</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>680</v>
-      </c>
-      <c r="F10" s="51" t="s">
-        <v>681</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="11" spans="3:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="C11" s="104"/>
-      <c r="D11" s="56" t="s">
-        <v>612</v>
+      <c r="C11" s="107"/>
+      <c r="D11" s="55" t="s">
+        <v>603</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>684</v>
-      </c>
-      <c r="F11" s="51" t="s">
-        <v>679</v>
+        <v>675</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>670</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="12" spans="3:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="C12" s="110"/>
+      <c r="C12" s="113"/>
       <c r="D12" s="28" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>684</v>
-      </c>
-      <c r="F12" s="51" t="s">
-        <v>679</v>
+        <v>675</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>670</v>
       </c>
       <c r="G12" s="25" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8716,23 +8879,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="74117954-47dd-4623-be10-f2d34b3fe6e8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100650C27B66691BA4BB901C940018B449F" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="856977a71e7c379887d8f02f6ee17dc3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="74117954-47dd-4623-be10-f2d34b3fe6e8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f93a31a691d6cd74e693f1feb46bcb1" ns3:_="">
     <xsd:import namespace="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
@@ -8876,10 +9022,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="74117954-47dd-4623-be10-f2d34b3fe6e8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16812470-A4E1-4DBD-AEE1-4642C4933AF0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{411558D9-DEA1-49BF-987E-1A683BCBCD59}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8901,19 +9074,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{411558D9-DEA1-49BF-987E-1A683BCBCD59}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16812470-A4E1-4DBD-AEE1-4642C4933AF0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ML Apply in OS/summary (new version).xlsx
+++ b/ML Apply in OS/summary (new version).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research-23\AIOS\ML Apply in OS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HKU\HKU\23Fall\AI-OS\ML Apply in OS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5C1C2F-926A-45D0-8BC7-075ADB3C43BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796CD28F-64C8-4336-8CD4-7C6E24911544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="709">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1099,10 +1099,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Implement in Linux Kernel. Deep reinforcement learning for congestion control; Use LSTM to encode the current state; For actor network, use fully connected feed-forward neural network with 2 hidden layers. Use iPerf3 to produced sufficient transition samples</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> Kleio: A Hybrid Memory Page Scheduler with Machine
  Intelligence</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1593,31 +1589,6 @@
   </si>
   <si>
     <t>Proceedings of the International Conference for High Performance Computing, Networking, Storage and Analysis.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A congestion control method of SDN data center based on reinforcement learning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int. J. Communication Systems</t>
-  </si>
-  <si>
-    <t>Q-learning-Train an off-policy method based Q learning and an
-online-policy method based on Sarsa to control congestion.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A deep reinforcement
-learning based congestion control mechanism for NDN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IEEE International Conference on Communications</t>
-  </si>
-  <si>
-    <t>Learn an optimal CC policy by taking the diversified contents
-in NDN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1643,18 +1614,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Experience-driven congestion control: When multi-path TCP meets deep reinforcement learning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> IEEE J. Sel. Areas Commun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Network with time-varying flows; LSTM-based representation networks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dynamic TCP initial windows and congestion control schemes through reinforcement learning</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1664,17 +1623,6 @@
   </si>
   <si>
     <t>Employ the RL algorithm to configure the initial window and CC policy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reinforcement learning-based variable speed limit control strategy to reduce traffic congestion at freeway recurrent bottlenecks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IEEE Trans. Intell. Transp. Syst</t>
-  </si>
-  <si>
-    <t>Detect network and data patterns such as latency to get the necessary adjustment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2315,10 +2263,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Temporal Difference (TD) learning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>utilities got from job completions</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2363,10 +2307,6 @@
   </si>
   <si>
     <t>I/O Scheduling for storage devices</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Space allocation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2676,10 +2616,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SARSA (State-Action-Reward-State-Action)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Effective prefetching and efficient resource utilization</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2753,11 +2689,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A Deep Reinforcement Learning Perspective
-on Internet Congestion Control,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A Deep Learning Approach to Dynamic Passive
 RTT Prediction Model for TCP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2793,6 +2724,97 @@
   </si>
   <si>
     <t>Network Management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Deep Learning Approach to Dynamic Passive
+RTT Prediction Model for TCP</t>
+  </si>
+  <si>
+    <t>predicted RTT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSTM, Keras implementation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array of Data-ACK matching timestamps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Implement in Linux Kernel. Deep reinforcement learning for congestion control; Use LSTM to encode the current state; For actor network, use fully connected feed-forward neural network with 2 hidden layers. Use iPerf3 to produced sufficient transition samples; Network with time-varying flows; LSTM-based representation networks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Improving TCP congestion control with machine intelligence</t>
+  </si>
+  <si>
+    <t>Experience-Driven Congestion Control: When Multi-Path TCP Meets Deep Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>QTCP: Adaptive Congestion Control with Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>actor-critic method, LSTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximize utility of the active MPTCP/TCP flows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The possibility of losing a packet if sent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random Forests</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55 features based on received ACKs
+and variables in the TCP sender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SARSA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP-Drinc: Smart congestion control based on deep rein
+forcement learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Utility across two consecutive time steps (throughput and RTT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Utility across two consecutive time steps (with respect to throughput, RTT and packet loss rate)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SARSA </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TD(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Utility across two consecutive time steps (throughput and latency)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQN, LSTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actor-critic method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximize TCP performance metric (respect to throughput and RTT)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3290,14 +3312,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -3307,7 +3329,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3542,6 +3564,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3551,6 +3588,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3569,15 +3615,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3611,36 +3648,30 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3929,24 +3960,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG162"/>
+  <dimension ref="A1:AG157"/>
   <sheetViews>
-    <sheetView topLeftCell="A129" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C131" sqref="C131"/>
+    <sheetView topLeftCell="A137" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="48.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="48.46484375" style="7" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="7"/>
-    <col min="5" max="5" width="42.25" style="7" customWidth="1"/>
+    <col min="5" max="5" width="42.265625" style="7" customWidth="1"/>
     <col min="6" max="6" width="58.6640625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="20.08203125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="38.25" style="7" customWidth="1"/>
+    <col min="7" max="7" width="20.06640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="38.265625" style="7" customWidth="1"/>
     <col min="9" max="9" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3966,17 +3997,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C2" s="93" t="s">
+    <row r="2" spans="1:31" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C2" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="95"/>
-    </row>
-    <row r="3" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="103"/>
+    </row>
+    <row r="3" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3" s="10" t="s">
@@ -4021,7 +4052,7 @@
       <c r="AD3"/>
       <c r="AE3"/>
     </row>
-    <row r="4" spans="1:31" s="11" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" s="11" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4" s="10" t="s">
@@ -4066,7 +4097,7 @@
       <c r="AD4"/>
       <c r="AE4"/>
     </row>
-    <row r="5" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5" s="6" t="s">
@@ -4111,7 +4142,7 @@
       <c r="AD5"/>
       <c r="AE5"/>
     </row>
-    <row r="6" spans="1:31" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" s="9" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6" s="8" t="s">
@@ -4156,7 +4187,7 @@
       <c r="AD6"/>
       <c r="AE6"/>
     </row>
-    <row r="7" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7" s="6" t="s">
@@ -4201,7 +4232,7 @@
       <c r="AD7"/>
       <c r="AE7"/>
     </row>
-    <row r="8" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8" s="6" t="s">
@@ -4246,7 +4277,7 @@
       <c r="AD8"/>
       <c r="AE8"/>
     </row>
-    <row r="9" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9" s="8" t="s">
@@ -4291,7 +4322,7 @@
       <c r="AD9"/>
       <c r="AE9"/>
     </row>
-    <row r="10" spans="1:31" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10" s="8" t="s">
@@ -4336,7 +4367,7 @@
       <c r="AD10"/>
       <c r="AE10"/>
     </row>
-    <row r="11" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11" s="6" t="s">
@@ -4381,7 +4412,7 @@
       <c r="AD11"/>
       <c r="AE11"/>
     </row>
-    <row r="12" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12" s="6" t="s">
@@ -4426,7 +4457,7 @@
       <c r="AD12"/>
       <c r="AE12"/>
     </row>
-    <row r="13" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13" s="6" t="s">
@@ -4471,7 +4502,7 @@
       <c r="AD13"/>
       <c r="AE13"/>
     </row>
-    <row r="14" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14" s="6" t="s">
@@ -4516,7 +4547,7 @@
       <c r="AD14"/>
       <c r="AE14"/>
     </row>
-    <row r="15" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" s="2" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15" s="6" t="s">
@@ -4561,17 +4592,17 @@
       <c r="AD15"/>
       <c r="AE15"/>
     </row>
-    <row r="16" spans="1:31" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C16" s="90" t="s">
+    <row r="16" spans="1:31" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C16" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="92"/>
-    </row>
-    <row r="17" spans="1:33" s="11" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="97"/>
+    </row>
+    <row r="17" spans="1:33" s="11" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17" s="10" t="s">
@@ -4618,7 +4649,7 @@
       <c r="AF17"/>
       <c r="AG17"/>
     </row>
-    <row r="18" spans="1:33" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" s="9" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18" s="8" t="s">
@@ -4665,7 +4696,7 @@
       <c r="AF18"/>
       <c r="AG18"/>
     </row>
-    <row r="19" spans="1:33" s="9" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" s="9" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19" s="8" t="s">
@@ -4712,7 +4743,7 @@
       <c r="AF19"/>
       <c r="AG19"/>
     </row>
-    <row r="20" spans="1:33" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" s="9" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20" s="8" t="s">
@@ -4759,9 +4790,9 @@
       <c r="AF20"/>
       <c r="AG20"/>
     </row>
-    <row r="21" spans="1:33" ht="56" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" ht="55.5" x14ac:dyDescent="0.4">
       <c r="C21" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="D21" s="6">
         <v>2002</v>
@@ -4770,16 +4801,16 @@
         <v>10</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22" s="8" t="s">
@@ -4826,7 +4857,7 @@
       <c r="AF22"/>
       <c r="AG22"/>
     </row>
-    <row r="23" spans="1:33" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23" s="6" t="s">
@@ -4842,10 +4873,10 @@
         <v>60</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
@@ -4873,9 +4904,9 @@
       <c r="AF23"/>
       <c r="AG23"/>
     </row>
-    <row r="24" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C24" s="6" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="D24" s="6">
         <v>2013</v>
@@ -4884,16 +4915,16 @@
         <v>10</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" s="3" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25" s="8" t="s">
@@ -4940,7 +4971,7 @@
       <c r="AF25"/>
       <c r="AG25"/>
     </row>
-    <row r="26" spans="1:33" s="11" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" s="11" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26" s="10" t="s">
@@ -4987,7 +5018,7 @@
       <c r="AF26"/>
       <c r="AG26"/>
     </row>
-    <row r="27" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27" s="33" t="s">
@@ -5034,24 +5065,24 @@
       <c r="AF27"/>
       <c r="AG27"/>
     </row>
-    <row r="28" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28" s="35" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="D28" s="35">
         <v>2019</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="F28" s="35"/>
       <c r="G28" s="35" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="H28" s="35" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="I28"/>
       <c r="J28"/>
@@ -5079,11 +5110,11 @@
       <c r="AF28"/>
       <c r="AG28"/>
     </row>
-    <row r="29" spans="1:33" s="34" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" s="34" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="27"/>
       <c r="B29" s="27"/>
       <c r="C29" s="6" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="D29" s="6">
         <v>2020</v>
@@ -5093,10 +5124,10 @@
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="I29" s="27"/>
       <c r="J29" s="27"/>
@@ -5124,24 +5155,24 @@
       <c r="AF29" s="27"/>
       <c r="AG29" s="27"/>
     </row>
-    <row r="30" spans="1:33" s="11" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" s="11" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30" s="6" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="D30" s="6">
         <v>2022</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
@@ -5169,17 +5200,17 @@
       <c r="AF30"/>
       <c r="AG30"/>
     </row>
-    <row r="31" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C31" s="96" t="s">
+    <row r="31" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C31" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="98"/>
-    </row>
-    <row r="32" spans="1:33" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="106"/>
+    </row>
+    <row r="32" spans="1:33" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32" s="6" t="s">
@@ -5226,7 +5257,7 @@
       <c r="AF32"/>
       <c r="AG32"/>
     </row>
-    <row r="33" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" s="13" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33" s="12" t="s">
@@ -5273,7 +5304,7 @@
       <c r="AF33"/>
       <c r="AG33"/>
     </row>
-    <row r="34" spans="1:33" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" s="2" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34" s="6" t="s">
@@ -5320,7 +5351,7 @@
       <c r="AF34"/>
       <c r="AG34"/>
     </row>
-    <row r="35" spans="1:33" s="11" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" s="11" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35" s="10" t="s">
@@ -5367,7 +5398,7 @@
       <c r="AF35"/>
       <c r="AG35"/>
     </row>
-    <row r="36" spans="1:33" s="13" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" s="13" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36" s="12" t="s">
@@ -5414,7 +5445,7 @@
       <c r="AF36"/>
       <c r="AG36"/>
     </row>
-    <row r="37" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33" s="13" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37" s="12" t="s">
@@ -5461,7 +5492,7 @@
       <c r="AF37"/>
       <c r="AG37"/>
     </row>
-    <row r="38" spans="1:33" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38" s="12" t="s">
@@ -5508,7 +5539,7 @@
       <c r="AF38"/>
       <c r="AG38"/>
     </row>
-    <row r="39" spans="1:33" s="11" customFormat="1" ht="56.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33" s="11" customFormat="1" ht="56.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39" s="10" t="s">
@@ -5555,7 +5586,7 @@
       <c r="AF39"/>
       <c r="AG39"/>
     </row>
-    <row r="40" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:33" s="13" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40" s="12" t="s">
@@ -5602,7 +5633,7 @@
       <c r="AF40"/>
       <c r="AG40"/>
     </row>
-    <row r="41" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:33" s="13" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41" s="12" t="s">
@@ -5649,7 +5680,7 @@
       <c r="AF41"/>
       <c r="AG41"/>
     </row>
-    <row r="42" spans="1:33" ht="42" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:33" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C42" s="12" t="s">
         <v>95</v>
       </c>
@@ -5669,7 +5700,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:33" ht="42" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:33" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C43" s="12" t="s">
         <v>96</v>
       </c>
@@ -5689,17 +5720,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C44" s="90" t="s">
+    <row r="44" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C44" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="91"/>
-      <c r="E44" s="91"/>
-      <c r="F44" s="91"/>
-      <c r="G44" s="91"/>
-      <c r="H44" s="92"/>
-    </row>
-    <row r="45" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+      <c r="D44" s="96"/>
+      <c r="E44" s="96"/>
+      <c r="F44" s="96"/>
+      <c r="G44" s="96"/>
+      <c r="H44" s="97"/>
+    </row>
+    <row r="45" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C45" s="8" t="s">
         <v>198</v>
       </c>
@@ -5719,7 +5750,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C46" s="8" t="s">
         <v>195</v>
       </c>
@@ -5739,7 +5770,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C47" s="18" t="s">
         <v>208</v>
       </c>
@@ -5759,7 +5790,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="48" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C48" s="18" t="s">
         <v>210</v>
       </c>
@@ -5779,7 +5810,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="49" spans="3:8" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C49" s="19" t="s">
         <v>160</v>
       </c>
@@ -5799,7 +5830,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="50" spans="3:8" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C50" s="16" t="s">
         <v>186</v>
       </c>
@@ -5819,7 +5850,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C51" s="8" t="s">
         <v>150</v>
       </c>
@@ -5839,7 +5870,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C52" s="8" t="s">
         <v>144</v>
       </c>
@@ -5859,7 +5890,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C53" s="8" t="s">
         <v>172</v>
       </c>
@@ -5879,7 +5910,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="54" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C54" s="8" t="s">
         <v>143</v>
       </c>
@@ -5899,7 +5930,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C55" s="8" t="s">
         <v>176</v>
       </c>
@@ -5919,7 +5950,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C56" s="8" t="s">
         <v>188</v>
       </c>
@@ -5939,7 +5970,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C57" s="8" t="s">
         <v>140</v>
       </c>
@@ -5959,7 +5990,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C58" s="8" t="s">
         <v>191</v>
       </c>
@@ -5979,7 +6010,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="59" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C59" s="8" t="s">
         <v>166</v>
       </c>
@@ -5999,7 +6030,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="3:8" ht="56" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
       <c r="C60" s="8" t="s">
         <v>179</v>
       </c>
@@ -6019,7 +6050,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="61" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C61" s="18" t="s">
         <v>205</v>
       </c>
@@ -6039,7 +6070,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="3:8" ht="56" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
       <c r="C62" s="8" t="s">
         <v>154</v>
       </c>
@@ -6059,7 +6090,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C63" s="8" t="s">
         <v>183</v>
       </c>
@@ -6079,7 +6110,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C64" s="8" t="s">
         <v>157</v>
       </c>
@@ -6099,64 +6130,64 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C65" s="7" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="E65" s="36" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="66" spans="3:8" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" s="37" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C66" s="8" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="D66" s="8">
         <v>2011</v>
       </c>
       <c r="E66" s="38" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="67" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C67" s="7" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="D67" s="7">
         <v>2015</v>
       </c>
       <c r="E67" s="36" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="68" spans="3:8" s="37" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" s="37" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C68" s="7" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="D68" s="7">
         <v>2016</v>
       </c>
       <c r="E68" s="28" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="69" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C69" s="18" t="s">
         <v>162</v>
       </c>
@@ -6176,31 +6207,31 @@
         <v>201</v>
       </c>
     </row>
-    <row r="70" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C70" s="7" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="D70" s="7">
         <v>2023</v>
       </c>
       <c r="E70" s="36" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="71" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C71" s="90" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C71" s="95" t="s">
         <v>216</v>
       </c>
-      <c r="D71" s="91"/>
-      <c r="E71" s="91"/>
-      <c r="F71" s="91"/>
-      <c r="G71" s="91"/>
-      <c r="H71" s="92"/>
-    </row>
-    <row r="72" spans="3:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D71" s="96"/>
+      <c r="E71" s="96"/>
+      <c r="F71" s="96"/>
+      <c r="G71" s="96"/>
+      <c r="H71" s="97"/>
+    </row>
+    <row r="72" spans="3:8" ht="15" x14ac:dyDescent="0.4">
       <c r="C72" s="21" t="s">
         <v>0</v>
       </c>
@@ -6220,7 +6251,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="73" spans="3:8" ht="98" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:8" ht="97.15" x14ac:dyDescent="0.4">
       <c r="C73" s="7" t="s">
         <v>223</v>
       </c>
@@ -6234,7 +6265,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="74" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C74" s="7" t="s">
         <v>217</v>
       </c>
@@ -6248,7 +6279,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="75" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C75" s="7" t="s">
         <v>219</v>
       </c>
@@ -6262,7 +6293,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="76" spans="3:8" ht="70.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:8" ht="70.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C76" s="7" t="s">
         <v>221</v>
       </c>
@@ -6276,17 +6307,17 @@
         <v>225</v>
       </c>
     </row>
-    <row r="77" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C77" s="90" t="s">
+    <row r="77" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C77" s="95" t="s">
         <v>230</v>
       </c>
-      <c r="D77" s="91"/>
-      <c r="E77" s="91"/>
-      <c r="F77" s="91"/>
-      <c r="G77" s="91"/>
-      <c r="H77" s="92"/>
-    </row>
-    <row r="78" spans="3:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D77" s="96"/>
+      <c r="E77" s="96"/>
+      <c r="F77" s="96"/>
+      <c r="G77" s="96"/>
+      <c r="H77" s="97"/>
+    </row>
+    <row r="78" spans="3:8" s="23" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C78" s="22" t="s">
         <v>0</v>
       </c>
@@ -6306,7 +6337,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="79" spans="3:8" s="27" customFormat="1" ht="84" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:8" s="27" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
       <c r="C79" s="31" t="s">
         <v>246</v>
       </c>
@@ -6326,109 +6357,109 @@
         <v>248</v>
       </c>
     </row>
-    <row r="80" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C80" s="41" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D80" s="41">
         <v>2016</v>
       </c>
       <c r="E80" s="41" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F80" s="41" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="G80" s="41" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="H80" s="41" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="81" spans="3:8" ht="98" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" ht="97.15" x14ac:dyDescent="0.4">
       <c r="C81" s="41" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D81" s="41">
         <v>2019</v>
       </c>
       <c r="E81" s="41" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F81" s="41" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="G81" s="41" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="H81" s="41" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="82" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C82" s="41" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D82" s="41">
         <v>2019</v>
       </c>
       <c r="E82" s="41" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F82" s="41" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="G82" s="41" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="H82" s="41" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="83" spans="3:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" ht="138" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C83" s="41" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="D83" s="41">
         <v>2019</v>
       </c>
       <c r="E83" s="41" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="F83" s="41" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="G83" s="41" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="H83" s="41" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="84" spans="3:8" ht="84" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" ht="111" x14ac:dyDescent="0.4">
       <c r="C84" s="41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D84" s="41">
         <v>2020</v>
       </c>
       <c r="E84" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="F84" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="G84" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="H84" s="41" t="s">
         <v>284</v>
       </c>
-      <c r="F84" s="41" t="s">
-        <v>287</v>
-      </c>
-      <c r="G84" s="41" t="s">
-        <v>286</v>
-      </c>
-      <c r="H84" s="41" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="85" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C85" s="52" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="D85" s="52">
         <v>2020</v>
@@ -6437,18 +6468,18 @@
         <v>32</v>
       </c>
       <c r="F85" s="52" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="G85" s="52" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="H85" s="52" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="86" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C86" s="52" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D86" s="52">
         <v>2020</v>
@@ -6457,46 +6488,46 @@
         <v>239</v>
       </c>
       <c r="F86" s="52" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="G86" s="52" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="H86" s="52" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="87" spans="3:8" ht="84" x14ac:dyDescent="0.3">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" ht="83.25" x14ac:dyDescent="0.4">
       <c r="C87" s="31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D87" s="31">
         <v>2021</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F87" s="31" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="G87" s="31" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="H87" s="31" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="89" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C89" s="99" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C89" s="98" t="s">
         <v>235</v>
       </c>
-      <c r="D89" s="100"/>
-      <c r="E89" s="100"/>
-      <c r="F89" s="100"/>
-      <c r="G89" s="100"/>
-      <c r="H89" s="101"/>
-    </row>
-    <row r="90" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="D89" s="99"/>
+      <c r="E89" s="99"/>
+      <c r="F89" s="99"/>
+      <c r="G89" s="99"/>
+      <c r="H89" s="100"/>
+    </row>
+    <row r="90" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C90" s="31" t="s">
         <v>240</v>
       </c>
@@ -6516,27 +6547,27 @@
         <v>244</v>
       </c>
     </row>
-    <row r="91" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C91" s="39" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D91" s="39">
         <v>2007</v>
       </c>
       <c r="E91" s="39" t="s">
+        <v>362</v>
+      </c>
+      <c r="F91" s="39" t="s">
         <v>363</v>
       </c>
-      <c r="F91" s="39" t="s">
-        <v>364</v>
-      </c>
       <c r="G91" s="39" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="H91" s="39" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="92" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C92" s="39" t="s">
         <v>238</v>
       </c>
@@ -6547,286 +6578,286 @@
         <v>239</v>
       </c>
       <c r="F92" s="39" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G92" s="39" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="H92" s="39" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="93" spans="3:8" ht="70" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="C93" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D93" s="31">
         <v>2015</v>
       </c>
       <c r="E93" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="F93" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="G93" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="H93" s="31" t="s">
         <v>336</v>
       </c>
-      <c r="F93" s="31" t="s">
-        <v>338</v>
-      </c>
-      <c r="G93" s="31" t="s">
-        <v>339</v>
-      </c>
-      <c r="H93" s="31" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="94" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C94" s="40" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="D94" s="39">
         <v>2015</v>
       </c>
       <c r="E94" s="39" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="F94" s="39" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="G94" s="39" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="H94" s="39" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="95" spans="3:8" ht="56" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
       <c r="C95" s="31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D95" s="31">
         <v>2016</v>
       </c>
       <c r="E95" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="F95" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="G95" s="31" t="s">
         <v>331</v>
       </c>
-      <c r="F95" s="31" t="s">
+      <c r="H95" s="31" t="s">
         <v>333</v>
       </c>
-      <c r="G95" s="31" t="s">
-        <v>332</v>
-      </c>
-      <c r="H95" s="31" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="96" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C96" s="31" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="D96" s="31">
         <v>2016</v>
       </c>
       <c r="E96" s="31"/>
       <c r="F96" s="31" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="G96" s="31" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="H96" s="42" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="97" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="97" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C97" s="43" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="D97" s="43">
         <v>2016</v>
       </c>
       <c r="E97" s="44" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="F97" s="43" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="G97" s="43"/>
       <c r="H97" s="43"/>
     </row>
-    <row r="98" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C98" s="43" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="D98" s="43">
         <v>2017</v>
       </c>
       <c r="E98" s="43" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="F98" s="43" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="G98" s="43"/>
       <c r="H98" s="43"/>
     </row>
-    <row r="99" spans="3:8" s="27" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:8" s="27" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
       <c r="C99" s="46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D99" s="31">
         <v>2017</v>
       </c>
       <c r="E99" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="F99" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="G99" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="F99" s="31" t="s">
-        <v>329</v>
-      </c>
-      <c r="G99" s="31" t="s">
+      <c r="H99" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="H99" s="31" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="100" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C100" s="45" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="D100" s="43">
         <v>2019</v>
       </c>
       <c r="E100" s="43" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="F100" s="43" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="G100" s="43"/>
       <c r="H100" s="43"/>
     </row>
-    <row r="101" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C101" s="46" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D101" s="31">
         <v>2019</v>
       </c>
       <c r="E101" s="31" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F101" s="31"/>
       <c r="G101" s="31"/>
       <c r="H101" s="31"/>
     </row>
-    <row r="102" spans="3:8" ht="70" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="C102" s="31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D102" s="31">
         <v>2020</v>
       </c>
       <c r="E102" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="F102" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="F102" s="31" t="s">
+      <c r="G102" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="G102" s="31" t="s">
+      <c r="H102" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="H102" s="31" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="103" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C103" s="39" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D103" s="39">
         <v>2020</v>
       </c>
       <c r="E103" s="39" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F103" s="39" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="G103" s="39" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="H103" s="39" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="104" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="104" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C104" s="39" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="D104" s="39">
         <v>2021</v>
       </c>
       <c r="E104" s="39" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="F104" s="39" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="G104" s="39" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="H104" s="39" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="105" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="105" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C105" s="39" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D105" s="39">
         <v>2022</v>
       </c>
       <c r="E105" s="39" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F105" s="39" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="G105" s="39" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="H105" s="39" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="107" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C107" s="90" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="107" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C107" s="95" t="s">
         <v>236</v>
       </c>
-      <c r="D107" s="91"/>
-      <c r="E107" s="91"/>
-      <c r="F107" s="91"/>
-      <c r="G107" s="91"/>
-      <c r="H107" s="92"/>
-    </row>
-    <row r="108" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="D107" s="96"/>
+      <c r="E107" s="96"/>
+      <c r="F107" s="96"/>
+      <c r="G107" s="96"/>
+      <c r="H107" s="97"/>
+    </row>
+    <row r="108" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C108" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D108" s="7">
         <v>2015</v>
       </c>
       <c r="E108" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F108" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="F108" s="7" t="s">
-        <v>353</v>
-      </c>
       <c r="G108" s="7" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="109" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="109" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C109" s="12" t="s">
         <v>252</v>
       </c>
@@ -6846,67 +6877,67 @@
         <v>255</v>
       </c>
     </row>
-    <row r="110" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C110" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D110" s="12">
         <v>2016</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G110" s="12" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="H110" s="12" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="111" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="111" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C111" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D111" s="12">
         <v>2017</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F111" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="G111" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="H111" s="12" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="112" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C112" s="12" t="s">
         <v>348</v>
-      </c>
-      <c r="G111" s="12" t="s">
-        <v>611</v>
-      </c>
-      <c r="H111" s="12" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="112" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C112" s="12" t="s">
-        <v>349</v>
       </c>
       <c r="D112" s="12">
         <v>2017</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G112" s="12" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
       <c r="H112" s="12" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="113" spans="1:33" ht="56" x14ac:dyDescent="0.3">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="113" spans="1:33" ht="55.5" x14ac:dyDescent="0.4">
       <c r="C113" s="7" t="s">
         <v>154</v>
       </c>
@@ -6917,33 +6948,33 @@
         <v>155</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="114" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="114" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C114" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D114" s="12">
         <v>2017</v>
       </c>
       <c r="E114" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="F114" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="F114" s="12" t="s">
-        <v>361</v>
-      </c>
       <c r="G114" s="12" t="s">
-        <v>627</v>
+        <v>612</v>
       </c>
       <c r="H114" s="12" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="115" spans="1:33" ht="70" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="115" spans="1:33" ht="83.25" x14ac:dyDescent="0.4">
       <c r="C115" s="12" t="s">
         <v>257</v>
       </c>
@@ -6963,27 +6994,27 @@
         <v>260</v>
       </c>
     </row>
-    <row r="116" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C116" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D116" s="7">
         <v>2018</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G116" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H116" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="H116" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="117" spans="1:33" ht="56" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:33" ht="55.5" x14ac:dyDescent="0.4">
       <c r="C117" s="12" t="s">
         <v>262</v>
       </c>
@@ -6994,7 +7025,7 @@
         <v>263</v>
       </c>
       <c r="F117" s="12" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="G117" s="12" t="s">
         <v>265</v>
@@ -7003,202 +7034,202 @@
         <v>264</v>
       </c>
       <c r="I117" s="78" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="118" spans="1:33" ht="42" x14ac:dyDescent="0.3">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="118" spans="1:33" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C118" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D118" s="12">
         <v>2019</v>
       </c>
       <c r="E118" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="F118" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="F118" s="12" t="s">
-        <v>347</v>
-      </c>
       <c r="G118" s="12" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="H118" s="12"/>
     </row>
-    <row r="119" spans="1:33" s="14" customFormat="1" ht="84" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:33" s="14" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
       <c r="C119" s="79" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D119" s="12">
         <v>2019</v>
       </c>
       <c r="E119" s="79" t="s">
+        <v>270</v>
+      </c>
+      <c r="F119" s="79" t="s">
+        <v>273</v>
+      </c>
+      <c r="G119" s="79" t="s">
         <v>271</v>
       </c>
-      <c r="F119" s="79" t="s">
-        <v>274</v>
-      </c>
-      <c r="G119" s="79" t="s">
+      <c r="H119" s="79" t="s">
         <v>272</v>
       </c>
-      <c r="H119" s="79" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="120" spans="1:33" s="14" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:33" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C120" s="79" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D120" s="12">
         <v>2019</v>
       </c>
       <c r="E120" s="79" t="s">
+        <v>354</v>
+      </c>
+      <c r="F120" s="79" t="s">
         <v>355</v>
       </c>
-      <c r="F120" s="79" t="s">
-        <v>356</v>
-      </c>
       <c r="G120" s="79" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="H120" s="79" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="121" spans="1:33" s="14" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="121" spans="1:33" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C121" s="73" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D121" s="74">
         <v>2020</v>
       </c>
       <c r="E121" s="75" t="s">
+        <v>276</v>
+      </c>
+      <c r="F121" s="73" t="s">
+        <v>279</v>
+      </c>
+      <c r="G121" s="73" t="s">
+        <v>278</v>
+      </c>
+      <c r="H121" s="73" t="s">
         <v>277</v>
       </c>
-      <c r="F121" s="73" t="s">
-        <v>280</v>
-      </c>
-      <c r="G121" s="73" t="s">
-        <v>279</v>
-      </c>
-      <c r="H121" s="73" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="122" spans="1:33" s="14" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:33" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C122" s="25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D122" s="53">
         <v>2021</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F122" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="G122" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="G122" s="25" t="s">
+      <c r="H122" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="H122" s="25" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="123" spans="1:33" s="32" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:33" s="32" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C123" s="79" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="D123" s="81">
         <v>2022</v>
       </c>
       <c r="E123" s="82" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="F123" s="79" t="s">
-        <v>649</v>
+        <v>634</v>
       </c>
       <c r="G123" s="79" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
       <c r="H123" s="79" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="124" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="124" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C124" s="7" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="D124" s="26">
         <v>2021</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="H124" s="56" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="125" spans="1:33" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="125" spans="1:33" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C125" s="79" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D125" s="80">
         <v>2019</v>
       </c>
       <c r="E125" s="79" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="F125" s="79" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G125" s="79" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="H125" s="79" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="126" spans="1:33" ht="70" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="126" spans="1:33" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="C126" s="76" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="D126" s="76">
         <v>2023</v>
       </c>
       <c r="E126" s="76" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="F126" s="76" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="G126" s="76" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="H126" s="76" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="127" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C127" s="99" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="127" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C127" s="98" t="s">
         <v>237</v>
       </c>
-      <c r="D127" s="100"/>
-      <c r="E127" s="100"/>
-      <c r="F127" s="100"/>
-      <c r="G127" s="100"/>
-      <c r="H127" s="101"/>
-    </row>
-    <row r="128" spans="1:33" ht="43" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D127" s="99"/>
+      <c r="E127" s="99"/>
+      <c r="F127" s="99"/>
+      <c r="G127" s="99"/>
+      <c r="H127" s="100"/>
+    </row>
+    <row r="128" spans="1:33" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="87"/>
       <c r="B128" s="87"/>
       <c r="C128" s="86" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="D128" s="88">
         <v>2010</v>
@@ -7207,7 +7238,7 @@
         <v>81</v>
       </c>
       <c r="F128" s="89" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="G128" s="89"/>
       <c r="H128" s="89"/>
@@ -7237,26 +7268,26 @@
       <c r="AF128" s="87"/>
       <c r="AG128" s="87"/>
     </row>
-    <row r="129" spans="1:33" ht="43" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:33" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="87"/>
       <c r="B129" s="87"/>
       <c r="C129" s="86" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="D129" s="88">
         <v>2014</v>
       </c>
       <c r="E129" s="86" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="F129" s="89" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="G129" s="89" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="H129" s="89" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="I129" s="87"/>
       <c r="J129" s="87"/>
@@ -7284,435 +7315,369 @@
       <c r="AF129" s="87"/>
       <c r="AG129" s="87"/>
     </row>
-    <row r="130" spans="1:33" s="29" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="C130" s="30" t="s">
-        <v>408</v>
-      </c>
-      <c r="D130" s="30">
+    <row r="130" spans="1:33" s="29" customFormat="1" ht="111" x14ac:dyDescent="0.4">
+      <c r="C130" s="93" t="s">
+        <v>390</v>
+      </c>
+      <c r="D130" s="90">
+        <v>2018</v>
+      </c>
+      <c r="E130" s="91" t="s">
+        <v>391</v>
+      </c>
+      <c r="F130" s="90" t="s">
+        <v>393</v>
+      </c>
+      <c r="G130" s="90" t="s">
+        <v>392</v>
+      </c>
+      <c r="H130" s="90" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="131" spans="1:33" s="29" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C131" s="93" t="s">
+        <v>677</v>
+      </c>
+      <c r="D131" s="93">
+        <v>2019</v>
+      </c>
+      <c r="E131" s="94"/>
+      <c r="F131" s="93" t="s">
+        <v>688</v>
+      </c>
+      <c r="G131" s="93"/>
+      <c r="H131" s="93"/>
+    </row>
+    <row r="132" spans="1:33" ht="97.15" x14ac:dyDescent="0.4">
+      <c r="C132" s="92" t="s">
+        <v>266</v>
+      </c>
+      <c r="D132" s="92">
+        <v>2019</v>
+      </c>
+      <c r="E132" s="92" t="s">
+        <v>101</v>
+      </c>
+      <c r="F132" s="92" t="s">
+        <v>690</v>
+      </c>
+      <c r="G132" s="92" t="s">
+        <v>267</v>
+      </c>
+      <c r="H132" s="92" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="133" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C133" s="45" t="s">
+        <v>676</v>
+      </c>
+      <c r="D133" s="43">
+        <v>2019</v>
+      </c>
+      <c r="E133" s="43"/>
+      <c r="F133" s="43"/>
+      <c r="G133" s="43"/>
+      <c r="H133" s="43"/>
+    </row>
+    <row r="134" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C134" s="45" t="s">
+        <v>678</v>
+      </c>
+      <c r="D134" s="43">
+        <v>2019</v>
+      </c>
+      <c r="E134" s="43"/>
+      <c r="F134" s="43" t="s">
+        <v>537</v>
+      </c>
+      <c r="G134" s="43"/>
+      <c r="H134" s="43"/>
+    </row>
+    <row r="135" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C135" s="86" t="s">
+        <v>679</v>
+      </c>
+      <c r="D135" s="12">
+        <v>2019</v>
+      </c>
+      <c r="E135" s="12"/>
+      <c r="F135" s="12" t="s">
+        <v>680</v>
+      </c>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
+    </row>
+    <row r="136" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C136" s="43" t="s">
+        <v>395</v>
+      </c>
+      <c r="D136" s="43">
+        <v>2019</v>
+      </c>
+      <c r="E136" s="43" t="s">
+        <v>396</v>
+      </c>
+      <c r="F136" s="43" t="s">
+        <v>397</v>
+      </c>
+      <c r="G136" s="43"/>
+      <c r="H136" s="43"/>
+    </row>
+    <row r="137" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C137" s="95" t="s">
+        <v>543</v>
+      </c>
+      <c r="D137" s="96"/>
+      <c r="E137" s="96"/>
+      <c r="F137" s="96"/>
+      <c r="G137" s="96"/>
+      <c r="H137" s="97"/>
+    </row>
+    <row r="138" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C138" s="66" t="s">
+        <v>566</v>
+      </c>
+      <c r="D138" s="66">
+        <v>2007</v>
+      </c>
+      <c r="E138" s="66" t="s">
+        <v>567</v>
+      </c>
+      <c r="F138" s="66" t="s">
+        <v>568</v>
+      </c>
+      <c r="G138" s="66" t="s">
+        <v>563</v>
+      </c>
+      <c r="H138" s="66" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="139" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C139" s="54" t="s">
+        <v>375</v>
+      </c>
+      <c r="D139" s="54">
+        <v>2018</v>
+      </c>
+      <c r="E139" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="F139" s="54" t="s">
+        <v>548</v>
+      </c>
+      <c r="G139" s="54" t="s">
+        <v>550</v>
+      </c>
+      <c r="H139" s="54" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="140" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C140" s="69" t="s">
+        <v>368</v>
+      </c>
+      <c r="D140" s="69">
+        <v>2023</v>
+      </c>
+      <c r="E140" s="69" t="s">
+        <v>369</v>
+      </c>
+      <c r="F140" s="69" t="s">
+        <v>439</v>
+      </c>
+      <c r="G140" s="69" t="s">
+        <v>563</v>
+      </c>
+      <c r="H140" s="69"/>
+    </row>
+    <row r="141" spans="1:33" s="14" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C141" s="63" t="s">
+        <v>312</v>
+      </c>
+      <c r="D141" s="64">
+        <v>2023</v>
+      </c>
+      <c r="E141" s="65" t="s">
+        <v>313</v>
+      </c>
+      <c r="F141" s="63" t="s">
+        <v>544</v>
+      </c>
+      <c r="G141" s="63" t="s">
+        <v>314</v>
+      </c>
+      <c r="H141" s="63" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="145" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C145" s="95" t="s">
+        <v>274</v>
+      </c>
+      <c r="D145" s="96"/>
+      <c r="E145" s="96"/>
+      <c r="F145" s="96"/>
+      <c r="G145" s="96"/>
+      <c r="H145" s="97"/>
+    </row>
+    <row r="146" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C146" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D146" s="7">
+        <v>2020</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F146" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="147" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C147" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D147" s="7">
+        <v>2021</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F147" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="148" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C148" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D148" s="7">
+        <v>2022</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F148" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G148" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="149" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C149" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D149" s="7">
+        <v>2023</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F149" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="150" spans="3:8" ht="111" x14ac:dyDescent="0.4">
+      <c r="C150" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D150" s="7">
+        <v>2023</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F150" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G150" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H150" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="153" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C153" s="95" t="s">
+        <v>449</v>
+      </c>
+      <c r="D153" s="96"/>
+      <c r="E153" s="96"/>
+      <c r="F153" s="96"/>
+      <c r="G153" s="96"/>
+      <c r="H153" s="97"/>
+    </row>
+    <row r="154" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C154" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="D154" s="26">
         <v>2017</v>
       </c>
-      <c r="E130" t="s">
-        <v>409</v>
-      </c>
-      <c r="F130" s="30" t="s">
-        <v>410</v>
-      </c>
-      <c r="G130" s="30"/>
-      <c r="H130" s="30"/>
-    </row>
-    <row r="131" spans="1:33" s="29" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C131" s="30" t="s">
-        <v>391</v>
-      </c>
-      <c r="D131" s="30">
-        <v>2018</v>
-      </c>
-      <c r="E131" s="27" t="s">
-        <v>392</v>
-      </c>
-      <c r="F131" s="30" t="s">
-        <v>393</v>
-      </c>
-      <c r="G131" s="30"/>
-      <c r="H131" s="30"/>
-    </row>
-    <row r="132" spans="1:33" s="29" customFormat="1" ht="112" x14ac:dyDescent="0.3">
-      <c r="C132" s="114" t="s">
-        <v>397</v>
-      </c>
-      <c r="D132" s="114">
-        <v>2018</v>
-      </c>
-      <c r="E132" s="115" t="s">
-        <v>398</v>
-      </c>
-      <c r="F132" s="114" t="s">
-        <v>400</v>
-      </c>
-      <c r="G132" s="114" t="s">
-        <v>399</v>
-      </c>
-      <c r="H132" s="114" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="133" spans="1:33" s="29" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C133" s="122" t="s">
-        <v>694</v>
-      </c>
-      <c r="D133" s="122">
-        <v>2019</v>
-      </c>
-      <c r="E133" s="123"/>
-      <c r="F133" s="122" t="s">
-        <v>467</v>
-      </c>
-      <c r="G133" s="122"/>
-      <c r="H133" s="122"/>
-    </row>
-    <row r="134" spans="1:33" ht="98" x14ac:dyDescent="0.3">
-      <c r="C134" s="121" t="s">
-        <v>266</v>
-      </c>
-      <c r="D134" s="121">
-        <v>2019</v>
-      </c>
-      <c r="E134" s="121" t="s">
-        <v>101</v>
-      </c>
-      <c r="F134" s="121" t="s">
-        <v>269</v>
-      </c>
-      <c r="G134" s="121" t="s">
-        <v>267</v>
-      </c>
-      <c r="H134" s="121" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="135" spans="1:33" ht="28" x14ac:dyDescent="0.3">
-      <c r="C135" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="D135" s="7">
-        <v>2019</v>
-      </c>
-      <c r="E135" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="F135" s="7" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="136" spans="1:33" ht="28" x14ac:dyDescent="0.3">
-      <c r="C136" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="D136" s="7">
-        <v>2019</v>
-      </c>
-      <c r="E136" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="F136" s="7" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="137" spans="1:33" ht="28" x14ac:dyDescent="0.3">
-      <c r="C137" s="45" t="s">
-        <v>692</v>
-      </c>
-      <c r="D137" s="43">
-        <v>2019</v>
-      </c>
-      <c r="E137" s="43"/>
-      <c r="F137" s="43"/>
-      <c r="G137" s="43"/>
-      <c r="H137" s="43"/>
-    </row>
-    <row r="138" spans="1:33" ht="28" x14ac:dyDescent="0.3">
-      <c r="C138" s="45" t="s">
-        <v>695</v>
-      </c>
-      <c r="D138" s="43">
-        <v>2019</v>
-      </c>
-      <c r="E138" s="43"/>
-      <c r="F138" s="43"/>
-      <c r="G138" s="43"/>
-      <c r="H138" s="43"/>
-    </row>
-    <row r="139" spans="1:33" ht="28" x14ac:dyDescent="0.3">
-      <c r="C139" s="28" t="s">
-        <v>693</v>
-      </c>
-      <c r="D139" s="7">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="140" spans="1:33" ht="28" x14ac:dyDescent="0.3">
-      <c r="C140" s="86" t="s">
-        <v>696</v>
-      </c>
-      <c r="D140" s="12">
-        <v>2019</v>
-      </c>
-      <c r="E140" s="12"/>
-      <c r="F140" s="12" t="s">
-        <v>697</v>
-      </c>
-      <c r="G140" s="12"/>
-      <c r="H140" s="12"/>
-    </row>
-    <row r="141" spans="1:33" ht="28" x14ac:dyDescent="0.3">
-      <c r="C141" s="43" t="s">
-        <v>405</v>
-      </c>
-      <c r="D141" s="43">
-        <v>2019</v>
-      </c>
-      <c r="E141" s="43" t="s">
-        <v>406</v>
-      </c>
-      <c r="F141" s="43" t="s">
-        <v>407</v>
-      </c>
-      <c r="G141" s="43"/>
-      <c r="H141" s="43"/>
-    </row>
-    <row r="142" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C142" s="90" t="s">
-        <v>556</v>
-      </c>
-      <c r="D142" s="91"/>
-      <c r="E142" s="91"/>
-      <c r="F142" s="91"/>
-      <c r="G142" s="91"/>
-      <c r="H142" s="92"/>
-    </row>
-    <row r="143" spans="1:33" ht="28" x14ac:dyDescent="0.3">
-      <c r="C143" s="66" t="s">
-        <v>580</v>
-      </c>
-      <c r="D143" s="66">
-        <v>2007</v>
-      </c>
-      <c r="E143" s="66" t="s">
-        <v>581</v>
-      </c>
-      <c r="F143" s="66" t="s">
-        <v>582</v>
-      </c>
-      <c r="G143" s="66" t="s">
-        <v>576</v>
-      </c>
-      <c r="H143" s="66" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="144" spans="1:33" ht="28" x14ac:dyDescent="0.3">
-      <c r="C144" s="54" t="s">
-        <v>376</v>
-      </c>
-      <c r="D144" s="54">
-        <v>2018</v>
-      </c>
-      <c r="E144" s="54" t="s">
-        <v>377</v>
-      </c>
-      <c r="F144" s="54" t="s">
-        <v>561</v>
-      </c>
-      <c r="G144" s="54" t="s">
-        <v>563</v>
-      </c>
-      <c r="H144" s="54" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="145" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C145" s="69" t="s">
-        <v>369</v>
-      </c>
-      <c r="D145" s="69">
-        <v>2023</v>
-      </c>
-      <c r="E145" s="69" t="s">
-        <v>370</v>
-      </c>
-      <c r="F145" s="69" t="s">
-        <v>452</v>
-      </c>
-      <c r="G145" s="69" t="s">
-        <v>576</v>
-      </c>
-      <c r="H145" s="69"/>
-    </row>
-    <row r="146" spans="3:8" s="14" customFormat="1" ht="56" x14ac:dyDescent="0.3">
-      <c r="C146" s="63" t="s">
-        <v>313</v>
-      </c>
-      <c r="D146" s="64">
-        <v>2023</v>
-      </c>
-      <c r="E146" s="65" t="s">
-        <v>314</v>
-      </c>
-      <c r="F146" s="63" t="s">
-        <v>557</v>
-      </c>
-      <c r="G146" s="63" t="s">
-        <v>315</v>
-      </c>
-      <c r="H146" s="63" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="150" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C150" s="90" t="s">
-        <v>275</v>
-      </c>
-      <c r="D150" s="91"/>
-      <c r="E150" s="91"/>
-      <c r="F150" s="91"/>
-      <c r="G150" s="91"/>
-      <c r="H150" s="92"/>
-    </row>
-    <row r="151" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C151" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="D151" s="7">
+      <c r="E154" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="F154" s="26"/>
+      <c r="G154" s="26"/>
+      <c r="H154" s="26"/>
+    </row>
+    <row r="155" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C155" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="D155" s="26">
         <v>2020</v>
       </c>
-      <c r="E151" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F151" s="7" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="152" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C152" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="D152" s="7">
+      <c r="E155" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="F155" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="G155" s="26"/>
+      <c r="H155" s="26"/>
+    </row>
+    <row r="156" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C156" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="D156" s="7">
         <v>2021</v>
       </c>
-      <c r="E152" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F152" s="7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="153" spans="3:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="C153" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="D153" s="7">
-        <v>2022</v>
-      </c>
-      <c r="E153" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F153" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G153" s="7" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="154" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C154" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="D154" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E154" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="F154" s="7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="155" spans="3:8" ht="98" x14ac:dyDescent="0.3">
-      <c r="C155" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="D155" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E155" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F155" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G155" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="H155" s="7" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="158" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C158" s="90" t="s">
-        <v>462</v>
-      </c>
-      <c r="D158" s="91"/>
-      <c r="E158" s="91"/>
-      <c r="F158" s="91"/>
-      <c r="G158" s="91"/>
-      <c r="H158" s="92"/>
-    </row>
-    <row r="159" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C159" s="26" t="s">
-        <v>378</v>
-      </c>
-      <c r="D159" s="26">
-        <v>2017</v>
-      </c>
-      <c r="E159" s="26" t="s">
-        <v>379</v>
-      </c>
-      <c r="F159" s="26"/>
-      <c r="G159" s="26"/>
-      <c r="H159" s="26"/>
-    </row>
-    <row r="160" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C160" s="26" t="s">
-        <v>387</v>
-      </c>
-      <c r="D160" s="26">
-        <v>2020</v>
-      </c>
-      <c r="E160" s="26" t="s">
-        <v>388</v>
-      </c>
-      <c r="F160" s="26" t="s">
-        <v>382</v>
-      </c>
-      <c r="G160" s="26"/>
-      <c r="H160" s="26"/>
-    </row>
-    <row r="161" spans="3:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="C161" s="7" t="s">
+      <c r="E156" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="D161" s="7">
+    </row>
+    <row r="157" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C157" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="D157" s="7">
         <v>2021</v>
       </c>
-      <c r="E161" s="7" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="162" spans="3:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="C162" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="D162" s="7">
-        <v>2021</v>
-      </c>
-      <c r="E162" s="7" t="s">
-        <v>540</v>
+      <c r="E157" s="7" t="s">
+        <v>527</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C158:H158"/>
-    <mergeCell ref="C150:H150"/>
-    <mergeCell ref="C89:H89"/>
-    <mergeCell ref="C107:H107"/>
-    <mergeCell ref="C127:H127"/>
-    <mergeCell ref="C142:H142"/>
     <mergeCell ref="C77:H77"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="C44:H44"/>
     <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C153:H153"/>
+    <mergeCell ref="C145:H145"/>
+    <mergeCell ref="C89:H89"/>
+    <mergeCell ref="C107:H107"/>
+    <mergeCell ref="C127:H127"/>
+    <mergeCell ref="C137:H137"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7725,65 +7690,79 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F283F35-418D-4BB1-82BA-2ABDAAC924FE}">
-  <dimension ref="B5:H25"/>
+  <dimension ref="B1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.9140625" customWidth="1"/>
+    <col min="2" max="2" width="11.9296875" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" customWidth="1"/>
-    <col min="5" max="5" width="19.25" style="37" customWidth="1"/>
+    <col min="4" max="4" width="24.796875" customWidth="1"/>
+    <col min="5" max="5" width="19.265625" style="37" customWidth="1"/>
     <col min="6" max="6" width="35.33203125" customWidth="1"/>
-    <col min="7" max="7" width="28.75" style="37" customWidth="1"/>
-    <col min="8" max="8" width="29.9140625" customWidth="1"/>
+    <col min="7" max="7" width="40.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:8" ht="20" x14ac:dyDescent="0.4">
-      <c r="B6" s="102" t="s">
-        <v>470</v>
-      </c>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="104"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="G1" s="37"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="G2" s="37"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="G3" s="37"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="G4" s="37"/>
+    </row>
+    <row r="5" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G5" s="37"/>
+    </row>
+    <row r="6" spans="2:8" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="107" t="s">
+        <v>457</v>
+      </c>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="37"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="58" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="D7" s="57" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="E7" s="77" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="F7" s="59" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="104.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="105" t="s">
-        <v>495</v>
-      </c>
-      <c r="C8" s="55" t="s">
-        <v>585</v>
+        <v>463</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="104.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="110" t="s">
+        <v>482</v>
+      </c>
+      <c r="C8" s="126" t="s">
+        <v>571</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="F8" s="49" t="s">
         <v>244</v>
@@ -7792,343 +7771,328 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="91" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="105"/>
-      <c r="C9" s="55" t="s">
-        <v>586</v>
+    <row r="9" spans="2:8" ht="91.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="110"/>
+      <c r="C9" s="126" t="s">
+        <v>572</v>
       </c>
       <c r="D9" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>468</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="110"/>
+      <c r="C10" s="122" t="s">
+        <v>573</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>469</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>470</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>471</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="96.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="110"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="27" t="s">
+        <v>472</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>474</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="109.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="110"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="27" t="s">
+        <v>475</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>477</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="89" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="110"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="E13" s="28" t="s">
         <v>479</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F13" s="50" t="s">
         <v>480</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="G13" s="48" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B14" s="110"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="27" t="s">
         <v>481</v>
       </c>
-      <c r="G9" s="47" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="105"/>
-      <c r="C10" s="55" t="s">
-        <v>587</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>482</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>483</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>484</v>
-      </c>
-      <c r="G10" s="47" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="96.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="105"/>
-      <c r="C11" s="55" t="s">
-        <v>587</v>
-      </c>
-      <c r="D11" s="27" t="s">
+      <c r="E14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>291</v>
+      </c>
+      <c r="G14" s="47" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="B15" s="110" t="s">
+        <v>520</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>495</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>496</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>497</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>498</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="B16" s="110"/>
+      <c r="C16" s="122" t="s">
+        <v>576</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>451</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>505</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="B17" s="110"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="28" t="s">
+        <v>515</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>513</v>
+      </c>
+      <c r="F17" s="50" t="s">
         <v>485</v>
       </c>
-      <c r="E11" s="28" t="s">
-        <v>486</v>
-      </c>
-      <c r="F11" s="50" t="s">
+      <c r="G17" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="B18" s="110"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="27" t="s">
+        <v>454</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="F18" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="B19" s="110"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="28" t="s">
         <v>487</v>
       </c>
-      <c r="G11" s="47" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="109" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="105"/>
-      <c r="C12" s="55" t="s">
-        <v>587</v>
-      </c>
-      <c r="D12" s="27" t="s">
+      <c r="E19" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="F19" s="50" t="s">
+        <v>492</v>
+      </c>
+      <c r="G19" s="37" t="s">
         <v>488</v>
       </c>
-      <c r="E12" s="28" t="s">
-        <v>489</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>490</v>
-      </c>
-      <c r="G12" s="48" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="89" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="105"/>
-      <c r="C13" s="55" t="s">
-        <v>587</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>491</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>492</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>493</v>
-      </c>
-      <c r="G13" s="48" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="B14" s="105"/>
-      <c r="C14" s="55" t="s">
-        <v>587</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>494</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="F14" s="49" t="s">
-        <v>292</v>
-      </c>
-      <c r="G14" s="47" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="B15" s="105" t="s">
-        <v>533</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>588</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="E15" s="28" t="s">
+      <c r="H19" s="28" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="97.15" x14ac:dyDescent="0.4">
+      <c r="B20" s="110"/>
+      <c r="C20" s="122" t="s">
+        <v>575</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>514</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>506</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>500</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="69.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="110"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="27" t="s">
+        <v>481</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="F21" s="50" t="s">
         <v>509</v>
       </c>
-      <c r="F15" s="50" t="s">
-        <v>510</v>
-      </c>
-      <c r="G15" s="37" t="s">
-        <v>511</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="B16" s="105"/>
-      <c r="C16" s="28" t="s">
-        <v>590</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>464</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>517</v>
-      </c>
-      <c r="F16" s="50" t="s">
+      <c r="G21" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="H21" s="28" t="s">
         <v>518</v>
       </c>
-      <c r="G16" s="37" t="s">
-        <v>512</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="84" x14ac:dyDescent="0.3">
-      <c r="B17" s="105"/>
-      <c r="C17" s="28" t="s">
-        <v>589</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>527</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>523</v>
-      </c>
-      <c r="F17" s="50" t="s">
-        <v>519</v>
-      </c>
-      <c r="G17" s="37" t="s">
-        <v>513</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="B18" s="105"/>
-      <c r="C18" s="28" t="s">
-        <v>590</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>467</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>520</v>
-      </c>
-      <c r="F18" s="50" t="s">
-        <v>521</v>
-      </c>
-      <c r="G18" s="37" t="s">
-        <v>514</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="B19" s="105"/>
-      <c r="C19" s="28" t="s">
-        <v>590</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>500</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>524</v>
-      </c>
-      <c r="F19" s="50" t="s">
-        <v>505</v>
-      </c>
-      <c r="G19" s="37" t="s">
-        <v>501</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="69.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="105"/>
-      <c r="C20" s="28" t="s">
-        <v>589</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>494</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>525</v>
-      </c>
-      <c r="F20" s="50" t="s">
-        <v>522</v>
-      </c>
-      <c r="G20" s="37" t="s">
-        <v>515</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="B21" s="105"/>
-      <c r="C21" s="28" t="s">
-        <v>590</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>528</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>526</v>
-      </c>
-      <c r="F21" s="50" t="s">
-        <v>498</v>
-      </c>
-      <c r="G21" s="37" t="s">
-        <v>516</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="B22" s="106" t="s">
+    </row>
+    <row r="22" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B22" s="111" t="s">
         <v>136</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="122" t="s">
         <v>204</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="F22" s="50" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="B23" s="107"/>
-      <c r="C23" s="28" t="s">
-        <v>591</v>
-      </c>
+        <v>561</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B23" s="112"/>
+      <c r="C23" s="124"/>
       <c r="D23" s="28" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="F23" s="50" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="G23" s="37" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="B24" s="107"/>
-      <c r="C24" s="67" t="s">
-        <v>592</v>
+        <v>553</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B24" s="112"/>
+      <c r="C24" s="122" t="s">
+        <v>577</v>
       </c>
       <c r="D24" s="67" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="E24" s="67" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="F24" s="68" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="108"/>
-      <c r="C25" s="51" t="s">
-        <v>592</v>
-      </c>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="42" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="113"/>
+      <c r="C25" s="125"/>
       <c r="D25" s="61" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="E25" s="61" t="s">
+        <v>549</v>
+      </c>
+      <c r="F25" s="62" t="s">
+        <v>545</v>
+      </c>
+      <c r="G25" s="37" t="s">
         <v>562</v>
       </c>
-      <c r="F25" s="62" t="s">
-        <v>558</v>
-      </c>
-      <c r="G25" s="37" t="s">
-        <v>575</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="9">
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B8:B14"/>
     <mergeCell ref="B15:B21"/>
     <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8140,221 +8104,221 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA2D5F7-875F-47F0-9F8A-B0600D2F9679}">
   <dimension ref="B4:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="14.9140625" customWidth="1"/>
-    <col min="3" max="3" width="21.4140625" customWidth="1"/>
-    <col min="4" max="4" width="20.9140625" customWidth="1"/>
-    <col min="5" max="5" width="25.58203125" customWidth="1"/>
-    <col min="6" max="6" width="41.25" customWidth="1"/>
-    <col min="7" max="7" width="15.58203125" customWidth="1"/>
+    <col min="2" max="2" width="14.9296875" customWidth="1"/>
+    <col min="3" max="3" width="21.3984375" customWidth="1"/>
+    <col min="4" max="4" width="20.9296875" customWidth="1"/>
+    <col min="5" max="5" width="25.59765625" customWidth="1"/>
+    <col min="6" max="6" width="41.265625" customWidth="1"/>
+    <col min="7" max="7" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:7" ht="20" x14ac:dyDescent="0.4">
-      <c r="B5" s="102" t="s">
+    <row r="4" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="2:7" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="107" t="s">
+        <v>446</v>
+      </c>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="109"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="58" t="s">
+        <v>458</v>
+      </c>
+      <c r="C6" s="57" t="s">
         <v>459</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="104"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="58" t="s">
-        <v>471</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>472</v>
-      </c>
       <c r="D6" s="57" t="s">
+        <v>529</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>530</v>
+      </c>
+      <c r="F6" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B7" s="110" t="s">
+        <v>482</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>573</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>532</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B8" s="110"/>
+      <c r="C8" s="28" t="s">
+        <v>578</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>704</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>564</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B9" s="110"/>
+      <c r="C9" s="28" t="s">
+        <v>579</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>533</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B10" s="110"/>
+      <c r="C10" s="55" t="s">
+        <v>573</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>538</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>534</v>
+      </c>
+      <c r="F10" s="60" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B11" s="110"/>
+      <c r="C11" s="28" t="s">
+        <v>580</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>535</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="B12" s="110"/>
+      <c r="C12" s="28" t="s">
+        <v>580</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>537</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>536</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B13" s="110" t="s">
+        <v>520</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="D13" s="27" t="s">
         <v>542</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E13" s="50" t="s">
+        <v>525</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>521</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="55.9" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="110"/>
+      <c r="C14" s="28" t="s">
+        <v>581</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>523</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>584</v>
+      </c>
+      <c r="G14" s="51" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B15" s="110" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="28" t="s">
         <v>543</v>
       </c>
-      <c r="F6" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="B7" s="105" t="s">
-        <v>495</v>
-      </c>
-      <c r="C7" s="55" t="s">
+      <c r="D15" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>569</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B16" s="110"/>
+      <c r="C16" s="28" t="s">
+        <v>543</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>585</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="42" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="114"/>
+      <c r="C17" s="51" t="s">
+        <v>543</v>
+      </c>
+      <c r="D17" s="71" t="s">
+        <v>537</v>
+      </c>
+      <c r="E17" s="72" t="s">
         <v>587</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="E7" s="56" t="s">
-        <v>545</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="B8" s="105"/>
-      <c r="C8" s="28" t="s">
-        <v>593</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>577</v>
-      </c>
-      <c r="E8" s="56" t="s">
-        <v>578</v>
-      </c>
-      <c r="F8" s="48" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="B9" s="105"/>
-      <c r="C9" s="28" t="s">
-        <v>594</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="E9" s="50" t="s">
-        <v>546</v>
-      </c>
-      <c r="F9" s="48" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B10" s="105"/>
-      <c r="C10" s="55" t="s">
-        <v>587</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>551</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>547</v>
-      </c>
-      <c r="F10" s="60" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B11" s="105"/>
-      <c r="C11" s="28" t="s">
-        <v>595</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>548</v>
-      </c>
-      <c r="F11" s="48" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B12" s="105"/>
-      <c r="C12" s="28" t="s">
-        <v>595</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>550</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>549</v>
-      </c>
-      <c r="F12" s="48" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B13" s="105" t="s">
-        <v>533</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>589</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>555</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>538</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>534</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="105"/>
-      <c r="C14" s="28" t="s">
-        <v>596</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>536</v>
-      </c>
-      <c r="F14" s="48" t="s">
-        <v>599</v>
-      </c>
-      <c r="G14" s="51" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B15" s="105" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>556</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="E15" s="50" t="s">
-        <v>583</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B16" s="105"/>
-      <c r="C16" s="28" t="s">
-        <v>556</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>601</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>600</v>
-      </c>
-      <c r="F16" s="47" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="109"/>
-      <c r="C17" s="51" t="s">
-        <v>556</v>
-      </c>
-      <c r="D17" s="71" t="s">
-        <v>550</v>
-      </c>
-      <c r="E17" s="72" t="s">
-        <v>602</v>
-      </c>
       <c r="F17" s="70" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -8372,369 +8336,439 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5ECC81-6914-43CE-AB0A-E1BBB7ABC546}">
-  <dimension ref="B7:I26"/>
+  <dimension ref="B7:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="A13" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
-    <col min="6" max="6" width="15.75" customWidth="1"/>
-    <col min="7" max="7" width="20.58203125" customWidth="1"/>
-    <col min="8" max="8" width="22.5" customWidth="1"/>
-    <col min="9" max="9" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.1328125" customWidth="1"/>
+    <col min="5" max="6" width="16.1328125" customWidth="1"/>
+    <col min="7" max="7" width="15.73046875" customWidth="1"/>
+    <col min="8" max="8" width="20.59765625" customWidth="1"/>
+    <col min="9" max="9" width="22.46484375" customWidth="1"/>
+    <col min="10" max="10" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="2:9" ht="20" x14ac:dyDescent="0.4">
-      <c r="D8" s="110" t="s">
-        <v>470</v>
-      </c>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="112"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:10" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8" s="115" t="s">
+        <v>457</v>
+      </c>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="117"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="83"/>
       <c r="C9" s="83"/>
       <c r="D9" s="58" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="E9" s="57" t="s">
+        <v>459</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>531</v>
+      </c>
+      <c r="G9" s="57" t="s">
+        <v>460</v>
+      </c>
+      <c r="H9" s="77" t="s">
+        <v>461</v>
+      </c>
+      <c r="I9" s="59" t="s">
+        <v>462</v>
+      </c>
+      <c r="J9" s="37" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="D10" s="110" t="s">
+        <v>647</v>
+      </c>
+      <c r="E10" s="122" t="s">
+        <v>588</v>
+      </c>
+      <c r="F10" s="28">
+        <v>1</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>475</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="I10" s="50" t="s">
+        <v>589</v>
+      </c>
+      <c r="J10" s="48" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D11" s="110"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="28">
+        <v>2</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>475</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>597</v>
+      </c>
+      <c r="I11" s="50" t="s">
+        <v>595</v>
+      </c>
+      <c r="J11" s="48" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D12" s="110"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="28">
+        <v>3</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="H12" s="55" t="s">
+        <v>600</v>
+      </c>
+      <c r="I12" s="56" t="s">
+        <v>599</v>
+      </c>
+      <c r="J12" s="48" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D13" s="110"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="28">
+        <v>4</v>
+      </c>
+      <c r="G13" s="27" t="s">
         <v>472</v>
       </c>
-      <c r="F9" s="57" t="s">
-        <v>473</v>
-      </c>
-      <c r="G9" s="77" t="s">
-        <v>474</v>
-      </c>
-      <c r="H9" s="59" t="s">
+      <c r="H13" s="28" t="s">
+        <v>605</v>
+      </c>
+      <c r="I13" s="56" t="s">
+        <v>599</v>
+      </c>
+      <c r="J13" s="48" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="D14" s="110"/>
+      <c r="E14" s="122" t="s">
+        <v>604</v>
+      </c>
+      <c r="F14" s="28">
+        <v>5</v>
+      </c>
+      <c r="G14" s="28" t="s">
         <v>475</v>
       </c>
-      <c r="I9" s="37" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="42" x14ac:dyDescent="0.3">
-      <c r="D10" s="105" t="s">
-        <v>662</v>
-      </c>
-      <c r="E10" s="28" t="s">
+      <c r="H14" s="28" t="s">
+        <v>607</v>
+      </c>
+      <c r="I14" s="56" t="s">
+        <v>609</v>
+      </c>
+      <c r="J14" s="48" t="s">
         <v>603</v>
       </c>
-      <c r="F10" s="28" t="s">
-        <v>488</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>607</v>
-      </c>
-      <c r="H10" s="50" t="s">
-        <v>604</v>
-      </c>
-      <c r="I10" s="48" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="28" x14ac:dyDescent="0.3">
-      <c r="D11" s="105"/>
-      <c r="E11" s="28" t="s">
-        <v>603</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>488</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>612</v>
-      </c>
-      <c r="H11" s="50" t="s">
+    </row>
+    <row r="15" spans="2:10" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="D15" s="110"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="28">
+        <v>6</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>475</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="I15" s="56" t="s">
+        <v>609</v>
+      </c>
+      <c r="J15" s="48" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="D16" s="110"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="28">
+        <v>7</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>651</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="I16" s="49" t="s">
+        <v>653</v>
+      </c>
+      <c r="J16" s="47" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D17" s="110"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="28">
+        <v>8</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="I17" s="50" t="s">
+        <v>617</v>
+      </c>
+      <c r="J17" s="48" t="s">
         <v>610</v>
       </c>
-      <c r="I11" s="48" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="28" x14ac:dyDescent="0.3">
-      <c r="D12" s="105"/>
-      <c r="E12" s="28" t="s">
-        <v>603</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>467</v>
-      </c>
-      <c r="G12" s="55" t="s">
+    </row>
+    <row r="18" spans="4:10" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D18" s="110"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="28">
+        <v>9</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>618</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="I18" s="50" t="s">
+        <v>617</v>
+      </c>
+      <c r="J18" s="48" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="D19" s="110"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="28">
+        <v>10</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="H19" s="28" t="s">
         <v>615</v>
       </c>
-      <c r="H12" s="56" t="s">
-        <v>614</v>
-      </c>
-      <c r="I12" s="48" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="28" x14ac:dyDescent="0.3">
-      <c r="D13" s="105"/>
-      <c r="E13" s="28" t="s">
-        <v>603</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>485</v>
-      </c>
-      <c r="G13" s="28" t="s">
+      <c r="I19" s="50" t="s">
+        <v>617</v>
+      </c>
+      <c r="J19" s="48" t="s">
         <v>620</v>
       </c>
-      <c r="H13" s="56" t="s">
-        <v>614</v>
-      </c>
-      <c r="I13" s="48" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="42" x14ac:dyDescent="0.3">
-      <c r="D14" s="105"/>
-      <c r="E14" s="28" t="s">
-        <v>619</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>488</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="H14" s="56" t="s">
-        <v>624</v>
-      </c>
-      <c r="I14" s="48" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="42" x14ac:dyDescent="0.3">
-      <c r="D15" s="105"/>
-      <c r="E15" s="28" t="s">
-        <v>619</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>488</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>647</v>
-      </c>
-      <c r="H15" s="56" t="s">
-        <v>624</v>
-      </c>
-      <c r="I15" s="48" t="s">
+    </row>
+    <row r="20" spans="4:10" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="D20" s="110"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="28">
+        <v>11</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>625</v>
+      </c>
+      <c r="I20" s="50" t="s">
+        <v>626</v>
+      </c>
+      <c r="J20" s="48" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="D21" s="110"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="28">
+        <v>12</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="I21" s="50" t="s">
+        <v>638</v>
+      </c>
+      <c r="J21" s="48" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D22" s="110"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="28">
+        <v>13</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>640</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>641</v>
+      </c>
+      <c r="I22" s="50" t="s">
+        <v>642</v>
+      </c>
+      <c r="J22" s="48" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="D23" s="110"/>
+      <c r="E23" s="126" t="s">
+        <v>644</v>
+      </c>
+      <c r="F23" s="28">
+        <v>14</v>
+      </c>
+      <c r="G23" s="28" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" ht="42" x14ac:dyDescent="0.3">
-      <c r="D16" s="105"/>
-      <c r="E16" s="28" t="s">
-        <v>619</v>
-      </c>
-      <c r="F16" s="28" t="s">
+      <c r="H23" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="I23" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="J23" s="48" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="D24" s="110" t="s">
+        <v>685</v>
+      </c>
+      <c r="E24" s="122" t="s">
+        <v>663</v>
+      </c>
+      <c r="F24" s="28">
+        <v>15</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>665</v>
+      </c>
+      <c r="H24" s="28" t="s">
         <v>666</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="I24" s="50" t="s">
         <v>667</v>
       </c>
-      <c r="H16" s="49" t="s">
-        <v>668</v>
-      </c>
-      <c r="I16" s="47" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="17" spans="4:9" ht="28" x14ac:dyDescent="0.3">
-      <c r="D17" s="105"/>
-      <c r="E17" s="28" t="s">
-        <v>619</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>467</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>628</v>
-      </c>
-      <c r="H17" s="50" t="s">
-        <v>632</v>
-      </c>
-      <c r="I17" s="48" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="18" spans="4:9" ht="28" x14ac:dyDescent="0.3">
-      <c r="D18" s="105"/>
-      <c r="E18" s="28" t="s">
-        <v>619</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>633</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>628</v>
-      </c>
-      <c r="H18" s="50" t="s">
-        <v>632</v>
-      </c>
-      <c r="I18" s="48" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="19" spans="4:9" ht="42" x14ac:dyDescent="0.3">
-      <c r="D19" s="105"/>
-      <c r="E19" s="28" t="s">
-        <v>619</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>467</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>630</v>
-      </c>
-      <c r="H19" s="50" t="s">
-        <v>632</v>
-      </c>
-      <c r="I19" s="48" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="20" spans="4:9" ht="28" x14ac:dyDescent="0.3">
-      <c r="D20" s="105"/>
-      <c r="E20" s="28" t="s">
-        <v>619</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>467</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>640</v>
-      </c>
-      <c r="H20" s="50" t="s">
-        <v>641</v>
-      </c>
-      <c r="I20" s="48" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="21" spans="4:9" ht="28" x14ac:dyDescent="0.3">
-      <c r="D21" s="105"/>
-      <c r="E21" s="28" t="s">
-        <v>619</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>649</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>651</v>
-      </c>
-      <c r="H21" s="50" t="s">
-        <v>653</v>
-      </c>
-      <c r="I21" s="48" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="22" spans="4:9" ht="28" x14ac:dyDescent="0.3">
-      <c r="D22" s="105"/>
-      <c r="E22" s="28" t="s">
-        <v>619</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>655</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>656</v>
-      </c>
-      <c r="H22" s="50" t="s">
-        <v>657</v>
-      </c>
-      <c r="I22" s="48" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="23" spans="4:9" ht="56" x14ac:dyDescent="0.3">
-      <c r="D23" s="105"/>
-      <c r="E23" s="28" t="s">
-        <v>659</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>660</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="H23" s="50" t="s">
-        <v>273</v>
-      </c>
-      <c r="I23" s="48" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="24" spans="4:9" ht="42" x14ac:dyDescent="0.3">
-      <c r="D24" s="105" t="s">
-        <v>702</v>
-      </c>
-      <c r="E24" s="116" t="s">
-        <v>679</v>
-      </c>
-      <c r="F24" s="116" t="s">
+      <c r="J24" s="37" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="D25" s="110"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="28">
+        <v>16</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>673</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>675</v>
+      </c>
+      <c r="I25" s="50" t="s">
+        <v>671</v>
+      </c>
+      <c r="J25" s="37" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="D26" s="110"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="28">
+        <v>17</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>697</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>698</v>
+      </c>
+      <c r="I26" s="50" t="s">
+        <v>696</v>
+      </c>
+      <c r="J26" s="37" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="27" spans="4:10" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="D27" s="110"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="28">
+        <v>18</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="I27" s="118" t="s">
+        <v>684</v>
+      </c>
+      <c r="J27" s="48" t="s">
         <v>681</v>
       </c>
-      <c r="G24" s="116" t="s">
-        <v>682</v>
-      </c>
-      <c r="H24" s="118" t="s">
-        <v>683</v>
-      </c>
-      <c r="I24" s="37" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="25" spans="4:9" ht="42" x14ac:dyDescent="0.3">
-      <c r="D25" s="105"/>
-      <c r="E25" s="116" t="s">
-        <v>679</v>
-      </c>
-      <c r="F25" s="116" t="s">
+    </row>
+    <row r="28" spans="4:10" ht="42" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D28" s="114"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="28">
+        <v>19</v>
+      </c>
+      <c r="G28" s="119" t="s">
+        <v>454</v>
+      </c>
+      <c r="H28" s="119" t="s">
         <v>689</v>
       </c>
-      <c r="G25" s="116" t="s">
-        <v>691</v>
-      </c>
-      <c r="H25" s="118" t="s">
+      <c r="I28" s="120" t="s">
         <v>687</v>
       </c>
-      <c r="I25" s="37" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="26" spans="4:9" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D26" s="109"/>
-      <c r="E26" s="119" t="s">
-        <v>679</v>
-      </c>
-      <c r="F26" s="51" t="s">
-        <v>699</v>
-      </c>
-      <c r="G26" s="119" t="s">
-        <v>700</v>
-      </c>
-      <c r="H26" s="120" t="s">
-        <v>701</v>
-      </c>
-      <c r="I26" s="117" t="s">
-        <v>698</v>
+      <c r="J28" s="37" t="s">
+        <v>686</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D8:H8"/>
+  <mergeCells count="6">
+    <mergeCell ref="D8:I8"/>
     <mergeCell ref="D10:D23"/>
-    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E14:E22"/>
+    <mergeCell ref="E24:E28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8743,135 +8777,206 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3F6B80-8172-4F79-9600-6FDEB5D9C203}">
-  <dimension ref="C5:G13"/>
+  <dimension ref="C5:G17"/>
   <sheetViews>
-    <sheetView zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A6" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="22.58203125" customWidth="1"/>
-    <col min="6" max="6" width="25.25" customWidth="1"/>
-    <col min="7" max="7" width="43.9140625" customWidth="1"/>
+    <col min="4" max="4" width="20.265625" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="25.265625" customWidth="1"/>
+    <col min="7" max="7" width="43.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="3:7" ht="20" x14ac:dyDescent="0.4">
-      <c r="C6" s="110" t="s">
+    <row r="5" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="3:7" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="115" t="s">
+        <v>446</v>
+      </c>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="37"/>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C7" s="84" t="s">
+        <v>458</v>
+      </c>
+      <c r="D7" s="77" t="s">
         <v>459</v>
       </c>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="37"/>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C7" s="84" t="s">
-        <v>471</v>
-      </c>
-      <c r="D7" s="77" t="s">
-        <v>472</v>
-      </c>
       <c r="E7" s="77" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="F7" s="85" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="C8" s="106" t="s">
-        <v>662</v>
+        <v>531</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C8" s="110" t="s">
+        <v>647</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="E8" s="28" t="s">
+        <v>648</v>
+      </c>
+      <c r="F8" s="56" t="s">
+        <v>650</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C9" s="110"/>
+      <c r="D9" s="28" t="s">
+        <v>604</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>703</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>658</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C10" s="110"/>
+      <c r="D10" s="28" t="s">
+        <v>588</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>656</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>657</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C11" s="110"/>
+      <c r="D11" s="55" t="s">
+        <v>588</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>659</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>655</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C12" s="110"/>
+      <c r="D12" s="28" t="s">
+        <v>588</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>659</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>655</v>
+      </c>
+      <c r="G12" s="121" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C13" s="110" t="s">
+        <v>685</v>
+      </c>
+      <c r="D13" s="28" t="s">
         <v>663</v>
       </c>
-      <c r="F8" s="56" t="s">
-        <v>665</v>
-      </c>
-      <c r="G8" s="48" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="C9" s="107"/>
-      <c r="D9" s="28" t="s">
-        <v>619</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>673</v>
-      </c>
-      <c r="F9" s="56" t="s">
-        <v>674</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C10" s="107"/>
-      <c r="D10" s="28" t="s">
-        <v>603</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>671</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>672</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="C11" s="107"/>
-      <c r="D11" s="55" t="s">
-        <v>603</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>675</v>
-      </c>
-      <c r="F11" s="50" t="s">
-        <v>670</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="C12" s="113"/>
-      <c r="D12" s="28" t="s">
-        <v>603</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>675</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>670</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
+      <c r="E13" s="37" t="s">
+        <v>699</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>702</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C14" s="110"/>
+      <c r="D14" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>694</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>695</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C15" s="110"/>
+      <c r="D15" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>701</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C16" s="110"/>
+      <c r="D16" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>706</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>705</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" ht="42" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C17" s="114"/>
+      <c r="D17" s="51" t="s">
+        <v>663</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="F17" s="72" t="s">
+        <v>708</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>395</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="C8:C12"/>
+    <mergeCell ref="C13:C17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8879,6 +8984,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="74117954-47dd-4623-be10-f2d34b3fe6e8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100650C27B66691BA4BB901C940018B449F" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="856977a71e7c379887d8f02f6ee17dc3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="74117954-47dd-4623-be10-f2d34b3fe6e8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f93a31a691d6cd74e693f1feb46bcb1" ns3:_="">
     <xsd:import namespace="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
@@ -9022,37 +9144,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="74117954-47dd-4623-be10-f2d34b3fe6e8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{411558D9-DEA1-49BF-987E-1A683BCBCD59}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16812470-A4E1-4DBD-AEE1-4642C4933AF0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9074,9 +9169,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16812470-A4E1-4DBD-AEE1-4642C4933AF0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{411558D9-DEA1-49BF-987E-1A683BCBCD59}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ML Apply in OS/summary (new version).xlsx
+++ b/ML Apply in OS/summary (new version).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HKU\HKU\23Fall\AI-OS\ML Apply in OS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research-23\AIOS\ML Apply in OS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796CD28F-64C8-4336-8CD4-7C6E24911544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFEAE93-1825-42D4-A9D5-72221622FACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="709">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3329,7 +3329,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3579,6 +3579,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3588,6 +3595,24 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3597,24 +3622,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3636,6 +3643,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3647,31 +3666,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3966,18 +3960,18 @@
       <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="48.46484375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="48.5" style="7" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="7"/>
-    <col min="5" max="5" width="42.265625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="42.25" style="7" customWidth="1"/>
     <col min="6" max="6" width="58.6640625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="20.06640625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="38.265625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="20.08203125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="38.25" style="7" customWidth="1"/>
     <col min="9" max="9" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:31" s="1" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3997,7 +3991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:31" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C2" s="101" t="s">
         <v>4</v>
       </c>
@@ -4007,7 +4001,7 @@
       <c r="G2" s="102"/>
       <c r="H2" s="103"/>
     </row>
-    <row r="3" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3" s="10" t="s">
@@ -4052,7 +4046,7 @@
       <c r="AD3"/>
       <c r="AE3"/>
     </row>
-    <row r="4" spans="1:31" s="11" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:31" s="11" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4" s="10" t="s">
@@ -4097,7 +4091,7 @@
       <c r="AD4"/>
       <c r="AE4"/>
     </row>
-    <row r="5" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5" s="6" t="s">
@@ -4142,7 +4136,7 @@
       <c r="AD5"/>
       <c r="AE5"/>
     </row>
-    <row r="6" spans="1:31" s="9" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:31" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6" s="8" t="s">
@@ -4187,7 +4181,7 @@
       <c r="AD6"/>
       <c r="AE6"/>
     </row>
-    <row r="7" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7" s="6" t="s">
@@ -4232,7 +4226,7 @@
       <c r="AD7"/>
       <c r="AE7"/>
     </row>
-    <row r="8" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8" s="6" t="s">
@@ -4277,7 +4271,7 @@
       <c r="AD8"/>
       <c r="AE8"/>
     </row>
-    <row r="9" spans="1:31" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9" s="8" t="s">
@@ -4322,7 +4316,7 @@
       <c r="AD9"/>
       <c r="AE9"/>
     </row>
-    <row r="10" spans="1:31" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:31" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10" s="8" t="s">
@@ -4367,7 +4361,7 @@
       <c r="AD10"/>
       <c r="AE10"/>
     </row>
-    <row r="11" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11" s="6" t="s">
@@ -4412,7 +4406,7 @@
       <c r="AD11"/>
       <c r="AE11"/>
     </row>
-    <row r="12" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12" s="6" t="s">
@@ -4457,7 +4451,7 @@
       <c r="AD12"/>
       <c r="AE12"/>
     </row>
-    <row r="13" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13" s="6" t="s">
@@ -4502,7 +4496,7 @@
       <c r="AD13"/>
       <c r="AE13"/>
     </row>
-    <row r="14" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14" s="6" t="s">
@@ -4547,7 +4541,7 @@
       <c r="AD14"/>
       <c r="AE14"/>
     </row>
-    <row r="15" spans="1:31" s="2" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15" s="6" t="s">
@@ -4592,17 +4586,17 @@
       <c r="AD15"/>
       <c r="AE15"/>
     </row>
-    <row r="16" spans="1:31" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C16" s="95" t="s">
+    <row r="16" spans="1:31" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C16" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="97"/>
-    </row>
-    <row r="17" spans="1:33" s="11" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="100"/>
+    </row>
+    <row r="17" spans="1:33" s="11" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17" s="10" t="s">
@@ -4649,7 +4643,7 @@
       <c r="AF17"/>
       <c r="AG17"/>
     </row>
-    <row r="18" spans="1:33" s="9" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:33" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18" s="8" t="s">
@@ -4696,7 +4690,7 @@
       <c r="AF18"/>
       <c r="AG18"/>
     </row>
-    <row r="19" spans="1:33" s="9" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:33" s="9" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19" s="8" t="s">
@@ -4743,7 +4737,7 @@
       <c r="AF19"/>
       <c r="AG19"/>
     </row>
-    <row r="20" spans="1:33" s="9" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:33" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20" s="8" t="s">
@@ -4790,7 +4784,7 @@
       <c r="AF20"/>
       <c r="AG20"/>
     </row>
-    <row r="21" spans="1:33" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:33" ht="56" x14ac:dyDescent="0.3">
       <c r="C21" s="6" t="s">
         <v>398</v>
       </c>
@@ -4810,7 +4804,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="22" spans="1:33" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:33" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22" s="8" t="s">
@@ -4857,7 +4851,7 @@
       <c r="AF22"/>
       <c r="AG22"/>
     </row>
-    <row r="23" spans="1:33" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:33" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23" s="6" t="s">
@@ -4904,7 +4898,7 @@
       <c r="AF23"/>
       <c r="AG23"/>
     </row>
-    <row r="24" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C24" s="6" t="s">
         <v>405</v>
       </c>
@@ -4924,7 +4918,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="25" spans="1:33" s="3" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:33" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25" s="8" t="s">
@@ -4971,7 +4965,7 @@
       <c r="AF25"/>
       <c r="AG25"/>
     </row>
-    <row r="26" spans="1:33" s="11" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:33" s="11" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26" s="10" t="s">
@@ -5018,7 +5012,7 @@
       <c r="AF26"/>
       <c r="AG26"/>
     </row>
-    <row r="27" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27" s="33" t="s">
@@ -5065,7 +5059,7 @@
       <c r="AF27"/>
       <c r="AG27"/>
     </row>
-    <row r="28" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28" s="35" t="s">
@@ -5110,7 +5104,7 @@
       <c r="AF28"/>
       <c r="AG28"/>
     </row>
-    <row r="29" spans="1:33" s="34" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:33" s="34" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="27"/>
       <c r="B29" s="27"/>
       <c r="C29" s="6" t="s">
@@ -5155,7 +5149,7 @@
       <c r="AF29" s="27"/>
       <c r="AG29" s="27"/>
     </row>
-    <row r="30" spans="1:33" s="11" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:33" s="11" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30" s="6" t="s">
@@ -5200,7 +5194,7 @@
       <c r="AF30"/>
       <c r="AG30"/>
     </row>
-    <row r="31" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C31" s="104" t="s">
         <v>75</v>
       </c>
@@ -5210,7 +5204,7 @@
       <c r="G31" s="105"/>
       <c r="H31" s="106"/>
     </row>
-    <row r="32" spans="1:33" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:33" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32" s="6" t="s">
@@ -5257,7 +5251,7 @@
       <c r="AF32"/>
       <c r="AG32"/>
     </row>
-    <row r="33" spans="1:33" s="13" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33" s="12" t="s">
@@ -5304,7 +5298,7 @@
       <c r="AF33"/>
       <c r="AG33"/>
     </row>
-    <row r="34" spans="1:33" s="2" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:33" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34" s="6" t="s">
@@ -5351,7 +5345,7 @@
       <c r="AF34"/>
       <c r="AG34"/>
     </row>
-    <row r="35" spans="1:33" s="11" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:33" s="11" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35" s="10" t="s">
@@ -5398,7 +5392,7 @@
       <c r="AF35"/>
       <c r="AG35"/>
     </row>
-    <row r="36" spans="1:33" s="13" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:33" s="13" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36" s="12" t="s">
@@ -5445,7 +5439,7 @@
       <c r="AF36"/>
       <c r="AG36"/>
     </row>
-    <row r="37" spans="1:33" s="13" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37" s="12" t="s">
@@ -5492,7 +5486,7 @@
       <c r="AF37"/>
       <c r="AG37"/>
     </row>
-    <row r="38" spans="1:33" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:33" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38" s="12" t="s">
@@ -5539,7 +5533,7 @@
       <c r="AF38"/>
       <c r="AG38"/>
     </row>
-    <row r="39" spans="1:33" s="11" customFormat="1" ht="56.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:33" s="11" customFormat="1" ht="56.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39" s="10" t="s">
@@ -5586,7 +5580,7 @@
       <c r="AF39"/>
       <c r="AG39"/>
     </row>
-    <row r="40" spans="1:33" s="13" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40" s="12" t="s">
@@ -5633,7 +5627,7 @@
       <c r="AF40"/>
       <c r="AG40"/>
     </row>
-    <row r="41" spans="1:33" s="13" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41" s="12" t="s">
@@ -5680,7 +5674,7 @@
       <c r="AF41"/>
       <c r="AG41"/>
     </row>
-    <row r="42" spans="1:33" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:33" ht="42" x14ac:dyDescent="0.3">
       <c r="C42" s="12" t="s">
         <v>95</v>
       </c>
@@ -5700,7 +5694,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:33" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:33" ht="42" x14ac:dyDescent="0.3">
       <c r="C43" s="12" t="s">
         <v>96</v>
       </c>
@@ -5720,17 +5714,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C44" s="95" t="s">
+    <row r="44" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C44" s="98" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="96"/>
-      <c r="E44" s="96"/>
-      <c r="F44" s="96"/>
-      <c r="G44" s="96"/>
-      <c r="H44" s="97"/>
-    </row>
-    <row r="45" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D44" s="99"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="100"/>
+    </row>
+    <row r="45" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C45" s="8" t="s">
         <v>198</v>
       </c>
@@ -5750,7 +5744,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C46" s="8" t="s">
         <v>195</v>
       </c>
@@ -5770,7 +5764,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C47" s="18" t="s">
         <v>208</v>
       </c>
@@ -5790,7 +5784,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="48" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C48" s="18" t="s">
         <v>210</v>
       </c>
@@ -5810,7 +5804,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="49" spans="3:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:8" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="C49" s="19" t="s">
         <v>160</v>
       </c>
@@ -5830,7 +5824,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="50" spans="3:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:8" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="C50" s="16" t="s">
         <v>186</v>
       </c>
@@ -5850,7 +5844,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C51" s="8" t="s">
         <v>150</v>
       </c>
@@ -5870,7 +5864,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C52" s="8" t="s">
         <v>144</v>
       </c>
@@ -5890,7 +5884,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C53" s="8" t="s">
         <v>172</v>
       </c>
@@ -5910,7 +5904,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="54" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C54" s="8" t="s">
         <v>143</v>
       </c>
@@ -5930,7 +5924,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C55" s="8" t="s">
         <v>176</v>
       </c>
@@ -5950,7 +5944,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="56" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C56" s="8" t="s">
         <v>188</v>
       </c>
@@ -5970,7 +5964,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="57" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C57" s="8" t="s">
         <v>140</v>
       </c>
@@ -5990,7 +5984,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C58" s="8" t="s">
         <v>191</v>
       </c>
@@ -6010,7 +6004,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="59" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C59" s="8" t="s">
         <v>166</v>
       </c>
@@ -6030,7 +6024,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:8" ht="56" x14ac:dyDescent="0.3">
       <c r="C60" s="8" t="s">
         <v>179</v>
       </c>
@@ -6050,7 +6044,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="61" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C61" s="18" t="s">
         <v>205</v>
       </c>
@@ -6070,7 +6064,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="62" spans="3:8" ht="56" x14ac:dyDescent="0.3">
       <c r="C62" s="8" t="s">
         <v>154</v>
       </c>
@@ -6090,7 +6084,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="63" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C63" s="8" t="s">
         <v>183</v>
       </c>
@@ -6110,7 +6104,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="64" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C64" s="8" t="s">
         <v>157</v>
       </c>
@@ -6130,7 +6124,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="65" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C65" s="7" t="s">
         <v>421</v>
       </c>
@@ -6141,7 +6135,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="66" spans="3:8" s="37" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="66" spans="3:8" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="C66" s="8" t="s">
         <v>425</v>
       </c>
@@ -6157,7 +6151,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="67" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="67" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C67" s="7" t="s">
         <v>424</v>
       </c>
@@ -6171,7 +6165,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="68" spans="3:8" s="37" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="3:8" s="37" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="7" t="s">
         <v>423</v>
       </c>
@@ -6187,7 +6181,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="69" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="69" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C69" s="18" t="s">
         <v>162</v>
       </c>
@@ -6207,7 +6201,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="70" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="70" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C70" s="7" t="s">
         <v>429</v>
       </c>
@@ -6221,17 +6215,17 @@
         <v>434</v>
       </c>
     </row>
-    <row r="71" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C71" s="95" t="s">
+    <row r="71" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C71" s="98" t="s">
         <v>216</v>
       </c>
-      <c r="D71" s="96"/>
-      <c r="E71" s="96"/>
-      <c r="F71" s="96"/>
-      <c r="G71" s="96"/>
-      <c r="H71" s="97"/>
-    </row>
-    <row r="72" spans="3:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="D71" s="99"/>
+      <c r="E71" s="99"/>
+      <c r="F71" s="99"/>
+      <c r="G71" s="99"/>
+      <c r="H71" s="100"/>
+    </row>
+    <row r="72" spans="3:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C72" s="21" t="s">
         <v>0</v>
       </c>
@@ -6251,7 +6245,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="73" spans="3:8" ht="97.15" x14ac:dyDescent="0.4">
+    <row r="73" spans="3:8" ht="98" x14ac:dyDescent="0.3">
       <c r="C73" s="7" t="s">
         <v>223</v>
       </c>
@@ -6265,7 +6259,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="74" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="74" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C74" s="7" t="s">
         <v>217</v>
       </c>
@@ -6279,7 +6273,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="75" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="75" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C75" s="7" t="s">
         <v>219</v>
       </c>
@@ -6293,7 +6287,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="76" spans="3:8" ht="70.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="3:8" ht="70.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="7" t="s">
         <v>221</v>
       </c>
@@ -6307,17 +6301,17 @@
         <v>225</v>
       </c>
     </row>
-    <row r="77" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C77" s="95" t="s">
+    <row r="77" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C77" s="98" t="s">
         <v>230</v>
       </c>
-      <c r="D77" s="96"/>
-      <c r="E77" s="96"/>
-      <c r="F77" s="96"/>
-      <c r="G77" s="96"/>
-      <c r="H77" s="97"/>
-    </row>
-    <row r="78" spans="3:8" s="23" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="D77" s="99"/>
+      <c r="E77" s="99"/>
+      <c r="F77" s="99"/>
+      <c r="G77" s="99"/>
+      <c r="H77" s="100"/>
+    </row>
+    <row r="78" spans="3:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C78" s="22" t="s">
         <v>0</v>
       </c>
@@ -6337,7 +6331,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="79" spans="3:8" s="27" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
+    <row r="79" spans="3:8" s="27" customFormat="1" ht="84" x14ac:dyDescent="0.3">
       <c r="C79" s="31" t="s">
         <v>246</v>
       </c>
@@ -6357,7 +6351,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="80" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="80" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C80" s="41" t="s">
         <v>382</v>
       </c>
@@ -6377,7 +6371,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="81" spans="3:8" ht="97.15" x14ac:dyDescent="0.4">
+    <row r="81" spans="3:8" ht="98" x14ac:dyDescent="0.3">
       <c r="C81" s="41" t="s">
         <v>379</v>
       </c>
@@ -6397,7 +6391,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="82" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="82" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C82" s="41" t="s">
         <v>372</v>
       </c>
@@ -6417,7 +6411,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="83" spans="3:8" ht="138" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="3:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="41" t="s">
         <v>489</v>
       </c>
@@ -6437,7 +6431,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="84" spans="3:8" ht="111" x14ac:dyDescent="0.4">
+    <row r="84" spans="3:8" ht="84" x14ac:dyDescent="0.3">
       <c r="C84" s="41" t="s">
         <v>282</v>
       </c>
@@ -6457,7 +6451,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="85" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="85" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C85" s="52" t="s">
         <v>522</v>
       </c>
@@ -6477,7 +6471,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="86" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="86" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C86" s="52" t="s">
         <v>374</v>
       </c>
@@ -6497,7 +6491,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="87" spans="3:8" ht="83.25" x14ac:dyDescent="0.4">
+    <row r="87" spans="3:8" ht="84" x14ac:dyDescent="0.3">
       <c r="C87" s="31" t="s">
         <v>370</v>
       </c>
@@ -6517,17 +6511,17 @@
         <v>486</v>
       </c>
     </row>
-    <row r="89" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C89" s="98" t="s">
+    <row r="89" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C89" s="107" t="s">
         <v>235</v>
       </c>
-      <c r="D89" s="99"/>
-      <c r="E89" s="99"/>
-      <c r="F89" s="99"/>
-      <c r="G89" s="99"/>
-      <c r="H89" s="100"/>
-    </row>
-    <row r="90" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="D89" s="108"/>
+      <c r="E89" s="108"/>
+      <c r="F89" s="108"/>
+      <c r="G89" s="108"/>
+      <c r="H89" s="109"/>
+    </row>
+    <row r="90" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C90" s="31" t="s">
         <v>240</v>
       </c>
@@ -6547,7 +6541,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="91" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="91" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C91" s="39" t="s">
         <v>361</v>
       </c>
@@ -6567,7 +6561,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="92" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="92" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C92" s="39" t="s">
         <v>238</v>
       </c>
@@ -6587,7 +6581,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="93" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+    <row r="93" spans="3:8" ht="70" x14ac:dyDescent="0.3">
       <c r="C93" s="31" t="s">
         <v>334</v>
       </c>
@@ -6607,7 +6601,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="94" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="94" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C94" s="40" t="s">
         <v>436</v>
       </c>
@@ -6627,7 +6621,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="95" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="95" spans="3:8" ht="56" x14ac:dyDescent="0.3">
       <c r="C95" s="31" t="s">
         <v>329</v>
       </c>
@@ -6647,7 +6641,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="96" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="96" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C96" s="31" t="s">
         <v>399</v>
       </c>
@@ -6665,7 +6659,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="97" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="97" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C97" s="43" t="s">
         <v>412</v>
       </c>
@@ -6681,7 +6675,7 @@
       <c r="G97" s="43"/>
       <c r="H97" s="43"/>
     </row>
-    <row r="98" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="98" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C98" s="43" t="s">
         <v>409</v>
       </c>
@@ -6697,7 +6691,7 @@
       <c r="G98" s="43"/>
       <c r="H98" s="43"/>
     </row>
-    <row r="99" spans="3:8" s="27" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="99" spans="3:8" s="27" customFormat="1" ht="56" x14ac:dyDescent="0.3">
       <c r="C99" s="46" t="s">
         <v>324</v>
       </c>
@@ -6717,7 +6711,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="100" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="100" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C100" s="45" t="s">
         <v>414</v>
       </c>
@@ -6733,7 +6727,7 @@
       <c r="G100" s="43"/>
       <c r="H100" s="43"/>
     </row>
-    <row r="101" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="101" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C101" s="46" t="s">
         <v>364</v>
       </c>
@@ -6747,7 +6741,7 @@
       <c r="G101" s="31"/>
       <c r="H101" s="31"/>
     </row>
-    <row r="102" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+    <row r="102" spans="3:8" ht="70" x14ac:dyDescent="0.3">
       <c r="C102" s="31" t="s">
         <v>287</v>
       </c>
@@ -6767,7 +6761,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="103" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="103" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C103" s="39" t="s">
         <v>366</v>
       </c>
@@ -6787,7 +6781,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="104" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="104" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C104" s="39" t="s">
         <v>443</v>
       </c>
@@ -6807,7 +6801,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="105" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="105" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C105" s="39" t="s">
         <v>384</v>
       </c>
@@ -6827,17 +6821,17 @@
         <v>442</v>
       </c>
     </row>
-    <row r="107" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C107" s="95" t="s">
+    <row r="107" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C107" s="98" t="s">
         <v>236</v>
       </c>
-      <c r="D107" s="96"/>
-      <c r="E107" s="96"/>
-      <c r="F107" s="96"/>
-      <c r="G107" s="96"/>
-      <c r="H107" s="97"/>
-    </row>
-    <row r="108" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D107" s="99"/>
+      <c r="E107" s="99"/>
+      <c r="F107" s="99"/>
+      <c r="G107" s="99"/>
+      <c r="H107" s="100"/>
+    </row>
+    <row r="108" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C108" s="7" t="s">
         <v>350</v>
       </c>
@@ -6857,7 +6851,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="109" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="109" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C109" s="12" t="s">
         <v>252</v>
       </c>
@@ -6877,7 +6871,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="110" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="110" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C110" s="12" t="s">
         <v>341</v>
       </c>
@@ -6897,7 +6891,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="111" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="111" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C111" s="12" t="s">
         <v>339</v>
       </c>
@@ -6917,7 +6911,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="112" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="112" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C112" s="12" t="s">
         <v>348</v>
       </c>
@@ -6937,7 +6931,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="113" spans="1:33" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:33" ht="56" x14ac:dyDescent="0.3">
       <c r="C113" s="7" t="s">
         <v>154</v>
       </c>
@@ -6954,7 +6948,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="114" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C114" s="12" t="s">
         <v>358</v>
       </c>
@@ -6974,7 +6968,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="115" spans="1:33" ht="83.25" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:33" ht="70" x14ac:dyDescent="0.3">
       <c r="C115" s="12" t="s">
         <v>257</v>
       </c>
@@ -6994,7 +6988,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="116" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C116" s="7" t="s">
         <v>300</v>
       </c>
@@ -7014,7 +7008,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="117" spans="1:33" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:33" ht="56" x14ac:dyDescent="0.3">
       <c r="C117" s="12" t="s">
         <v>262</v>
       </c>
@@ -7037,7 +7031,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="118" spans="1:33" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:33" ht="42" x14ac:dyDescent="0.3">
       <c r="C118" s="12" t="s">
         <v>344</v>
       </c>
@@ -7055,7 +7049,7 @@
       </c>
       <c r="H118" s="12"/>
     </row>
-    <row r="119" spans="1:33" s="14" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:33" s="14" customFormat="1" ht="84" x14ac:dyDescent="0.3">
       <c r="C119" s="79" t="s">
         <v>269</v>
       </c>
@@ -7075,7 +7069,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="120" spans="1:33" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:33" s="14" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="C120" s="79" t="s">
         <v>353</v>
       </c>
@@ -7095,7 +7089,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="121" spans="1:33" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:33" s="14" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="C121" s="73" t="s">
         <v>275</v>
       </c>
@@ -7115,7 +7109,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="122" spans="1:33" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:33" s="14" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="C122" s="25" t="s">
         <v>297</v>
       </c>
@@ -7135,7 +7129,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="123" spans="1:33" s="32" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:33" s="32" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="C123" s="79" t="s">
         <v>400</v>
       </c>
@@ -7155,7 +7149,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="124" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C124" s="7" t="s">
         <v>622</v>
       </c>
@@ -7175,7 +7169,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="125" spans="1:33" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:33" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="C125" s="79" t="s">
         <v>356</v>
       </c>
@@ -7195,7 +7189,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="126" spans="1:33" ht="69.400000000000006" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:33" ht="70" x14ac:dyDescent="0.3">
       <c r="C126" s="76" t="s">
         <v>554</v>
       </c>
@@ -7215,17 +7209,17 @@
         <v>558</v>
       </c>
     </row>
-    <row r="127" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C127" s="98" t="s">
+    <row r="127" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C127" s="107" t="s">
         <v>237</v>
       </c>
-      <c r="D127" s="99"/>
-      <c r="E127" s="99"/>
-      <c r="F127" s="99"/>
-      <c r="G127" s="99"/>
-      <c r="H127" s="100"/>
-    </row>
-    <row r="128" spans="1:33" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D127" s="108"/>
+      <c r="E127" s="108"/>
+      <c r="F127" s="108"/>
+      <c r="G127" s="108"/>
+      <c r="H127" s="109"/>
+    </row>
+    <row r="128" spans="1:33" ht="43" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="87"/>
       <c r="B128" s="87"/>
       <c r="C128" s="86" t="s">
@@ -7268,7 +7262,7 @@
       <c r="AF128" s="87"/>
       <c r="AG128" s="87"/>
     </row>
-    <row r="129" spans="1:33" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:33" ht="43" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="87"/>
       <c r="B129" s="87"/>
       <c r="C129" s="86" t="s">
@@ -7315,7 +7309,7 @@
       <c r="AF129" s="87"/>
       <c r="AG129" s="87"/>
     </row>
-    <row r="130" spans="1:33" s="29" customFormat="1" ht="111" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:33" s="29" customFormat="1" ht="112" x14ac:dyDescent="0.3">
       <c r="C130" s="93" t="s">
         <v>390</v>
       </c>
@@ -7335,7 +7329,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="131" spans="1:33" s="29" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:33" s="29" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="C131" s="93" t="s">
         <v>677</v>
       </c>
@@ -7349,7 +7343,7 @@
       <c r="G131" s="93"/>
       <c r="H131" s="93"/>
     </row>
-    <row r="132" spans="1:33" ht="97.15" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:33" ht="98" x14ac:dyDescent="0.3">
       <c r="C132" s="92" t="s">
         <v>266</v>
       </c>
@@ -7369,7 +7363,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="133" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C133" s="45" t="s">
         <v>676</v>
       </c>
@@ -7381,7 +7375,7 @@
       <c r="G133" s="43"/>
       <c r="H133" s="43"/>
     </row>
-    <row r="134" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C134" s="45" t="s">
         <v>678</v>
       </c>
@@ -7395,7 +7389,7 @@
       <c r="G134" s="43"/>
       <c r="H134" s="43"/>
     </row>
-    <row r="135" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C135" s="86" t="s">
         <v>679</v>
       </c>
@@ -7409,7 +7403,7 @@
       <c r="G135" s="12"/>
       <c r="H135" s="12"/>
     </row>
-    <row r="136" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C136" s="43" t="s">
         <v>395</v>
       </c>
@@ -7425,17 +7419,17 @@
       <c r="G136" s="43"/>
       <c r="H136" s="43"/>
     </row>
-    <row r="137" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C137" s="95" t="s">
+    <row r="137" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C137" s="98" t="s">
         <v>543</v>
       </c>
-      <c r="D137" s="96"/>
-      <c r="E137" s="96"/>
-      <c r="F137" s="96"/>
-      <c r="G137" s="96"/>
-      <c r="H137" s="97"/>
-    </row>
-    <row r="138" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D137" s="99"/>
+      <c r="E137" s="99"/>
+      <c r="F137" s="99"/>
+      <c r="G137" s="99"/>
+      <c r="H137" s="100"/>
+    </row>
+    <row r="138" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C138" s="66" t="s">
         <v>566</v>
       </c>
@@ -7455,7 +7449,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="139" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C139" s="54" t="s">
         <v>375</v>
       </c>
@@ -7475,7 +7469,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="140" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C140" s="69" t="s">
         <v>368</v>
       </c>
@@ -7493,7 +7487,7 @@
       </c>
       <c r="H140" s="69"/>
     </row>
-    <row r="141" spans="1:33" s="14" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:33" s="14" customFormat="1" ht="56" x14ac:dyDescent="0.3">
       <c r="C141" s="63" t="s">
         <v>312</v>
       </c>
@@ -7513,17 +7507,17 @@
         <v>315</v>
       </c>
     </row>
-    <row r="145" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C145" s="95" t="s">
+    <row r="145" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C145" s="98" t="s">
         <v>274</v>
       </c>
-      <c r="D145" s="96"/>
-      <c r="E145" s="96"/>
-      <c r="F145" s="96"/>
-      <c r="G145" s="96"/>
-      <c r="H145" s="97"/>
-    </row>
-    <row r="146" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="D145" s="99"/>
+      <c r="E145" s="99"/>
+      <c r="F145" s="99"/>
+      <c r="G145" s="99"/>
+      <c r="H145" s="100"/>
+    </row>
+    <row r="146" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C146" s="7" t="s">
         <v>280</v>
       </c>
@@ -7537,7 +7531,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="147" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="147" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C147" s="7" t="s">
         <v>304</v>
       </c>
@@ -7551,7 +7545,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="148" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="148" spans="3:8" ht="56" x14ac:dyDescent="0.3">
       <c r="C148" s="7" t="s">
         <v>308</v>
       </c>
@@ -7568,7 +7562,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="149" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="149" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C149" s="7" t="s">
         <v>316</v>
       </c>
@@ -7582,7 +7576,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="150" spans="3:8" ht="111" x14ac:dyDescent="0.4">
+    <row r="150" spans="3:8" ht="98" x14ac:dyDescent="0.3">
       <c r="C150" s="7" t="s">
         <v>293</v>
       </c>
@@ -7602,17 +7596,17 @@
         <v>295</v>
       </c>
     </row>
-    <row r="153" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C153" s="95" t="s">
+    <row r="153" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C153" s="98" t="s">
         <v>449</v>
       </c>
-      <c r="D153" s="96"/>
-      <c r="E153" s="96"/>
-      <c r="F153" s="96"/>
-      <c r="G153" s="96"/>
-      <c r="H153" s="97"/>
-    </row>
-    <row r="154" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D153" s="99"/>
+      <c r="E153" s="99"/>
+      <c r="F153" s="99"/>
+      <c r="G153" s="99"/>
+      <c r="H153" s="100"/>
+    </row>
+    <row r="154" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C154" s="26" t="s">
         <v>377</v>
       </c>
@@ -7626,7 +7620,7 @@
       <c r="G154" s="26"/>
       <c r="H154" s="26"/>
     </row>
-    <row r="155" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="155" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C155" s="26" t="s">
         <v>386</v>
       </c>
@@ -7642,7 +7636,7 @@
       <c r="G155" s="26"/>
       <c r="H155" s="26"/>
     </row>
-    <row r="156" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="156" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C156" s="7" t="s">
         <v>388</v>
       </c>
@@ -7653,7 +7647,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="157" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="157" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C157" s="7" t="s">
         <v>526</v>
       </c>
@@ -7666,18 +7660,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C153:H153"/>
+    <mergeCell ref="C145:H145"/>
+    <mergeCell ref="C89:H89"/>
+    <mergeCell ref="C107:H107"/>
+    <mergeCell ref="C127:H127"/>
+    <mergeCell ref="C137:H137"/>
     <mergeCell ref="C77:H77"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="C44:H44"/>
     <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C153:H153"/>
-    <mergeCell ref="C145:H145"/>
-    <mergeCell ref="C89:H89"/>
-    <mergeCell ref="C107:H107"/>
-    <mergeCell ref="C127:H127"/>
-    <mergeCell ref="C137:H137"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7692,46 +7686,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F283F35-418D-4BB1-82BA-2ABDAAC924FE}">
   <dimension ref="B1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+    <sheetView zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.9296875" customWidth="1"/>
+    <col min="2" max="2" width="11.9140625" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.796875" customWidth="1"/>
-    <col min="5" max="5" width="19.265625" style="37" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19.25" style="37" customWidth="1"/>
     <col min="6" max="6" width="35.33203125" customWidth="1"/>
-    <col min="7" max="7" width="40.46484375" customWidth="1"/>
+    <col min="7" max="7" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G1" s="37"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G2" s="37"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G3" s="37"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G4" s="37"/>
     </row>
-    <row r="5" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="2:8" ht="20.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="107" t="s">
+    <row r="6" spans="2:8" ht="20" x14ac:dyDescent="0.4">
+      <c r="B6" s="110" t="s">
         <v>457</v>
       </c>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="109"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="112"/>
       <c r="G6" s="37"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="58" t="s">
         <v>458</v>
       </c>
@@ -7751,11 +7745,11 @@
         <v>463</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="104.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="110" t="s">
+    <row r="8" spans="2:8" ht="104.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="113" t="s">
         <v>482</v>
       </c>
-      <c r="C8" s="126" t="s">
+      <c r="C8" s="97" t="s">
         <v>571</v>
       </c>
       <c r="D8" s="27" t="s">
@@ -7771,9 +7765,9 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="91.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="110"/>
-      <c r="C9" s="126" t="s">
+    <row r="9" spans="2:8" ht="91" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="113"/>
+      <c r="C9" s="97" t="s">
         <v>572</v>
       </c>
       <c r="D9" s="28" t="s">
@@ -7789,9 +7783,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="110"/>
-      <c r="C10" s="122" t="s">
+    <row r="10" spans="2:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="113"/>
+      <c r="C10" s="117" t="s">
         <v>573</v>
       </c>
       <c r="D10" s="27" t="s">
@@ -7807,9 +7801,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="96.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="110"/>
-      <c r="C11" s="123"/>
+    <row r="11" spans="2:8" ht="96.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="113"/>
+      <c r="C11" s="118"/>
       <c r="D11" s="27" t="s">
         <v>472</v>
       </c>
@@ -7823,9 +7817,9 @@
         <v>399</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="109.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="110"/>
-      <c r="C12" s="123"/>
+    <row r="12" spans="2:8" ht="109" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="113"/>
+      <c r="C12" s="118"/>
       <c r="D12" s="27" t="s">
         <v>475</v>
       </c>
@@ -7839,9 +7833,9 @@
         <v>324</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="89" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="110"/>
-      <c r="C13" s="123"/>
+    <row r="13" spans="2:8" ht="89" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="113"/>
+      <c r="C13" s="118"/>
       <c r="D13" s="28" t="s">
         <v>478</v>
       </c>
@@ -7855,9 +7849,9 @@
         <v>364</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B14" s="110"/>
-      <c r="C14" s="124"/>
+    <row r="14" spans="2:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="B14" s="113"/>
+      <c r="C14" s="119"/>
       <c r="D14" s="27" t="s">
         <v>481</v>
       </c>
@@ -7871,8 +7865,8 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="83.25" x14ac:dyDescent="0.4">
-      <c r="B15" s="110" t="s">
+    <row r="15" spans="2:8" ht="84" x14ac:dyDescent="0.3">
+      <c r="B15" s="113" t="s">
         <v>520</v>
       </c>
       <c r="C15" s="28" t="s">
@@ -7894,9 +7888,9 @@
         <v>516</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="B16" s="110"/>
-      <c r="C16" s="122" t="s">
+    <row r="16" spans="2:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="B16" s="113"/>
+      <c r="C16" s="117" t="s">
         <v>576</v>
       </c>
       <c r="D16" s="27" t="s">
@@ -7915,9 +7909,9 @@
         <v>517</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
-      <c r="B17" s="110"/>
-      <c r="C17" s="123"/>
+    <row r="17" spans="2:8" ht="70" x14ac:dyDescent="0.3">
+      <c r="B17" s="113"/>
+      <c r="C17" s="118"/>
       <c r="D17" s="28" t="s">
         <v>515</v>
       </c>
@@ -7934,9 +7928,9 @@
         <v>518</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="B18" s="110"/>
-      <c r="C18" s="123"/>
+    <row r="18" spans="2:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="B18" s="113"/>
+      <c r="C18" s="118"/>
       <c r="D18" s="27" t="s">
         <v>454</v>
       </c>
@@ -7953,9 +7947,9 @@
         <v>519</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
-      <c r="B19" s="110"/>
-      <c r="C19" s="124"/>
+    <row r="19" spans="2:8" ht="70" x14ac:dyDescent="0.3">
+      <c r="B19" s="113"/>
+      <c r="C19" s="119"/>
       <c r="D19" s="28" t="s">
         <v>487</v>
       </c>
@@ -7972,9 +7966,9 @@
         <v>518</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="97.15" x14ac:dyDescent="0.4">
-      <c r="B20" s="110"/>
-      <c r="C20" s="122" t="s">
+    <row r="20" spans="2:8" ht="84" x14ac:dyDescent="0.3">
+      <c r="B20" s="113"/>
+      <c r="C20" s="117" t="s">
         <v>575</v>
       </c>
       <c r="D20" s="28" t="s">
@@ -7993,9 +7987,9 @@
         <v>518</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="69.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="110"/>
-      <c r="C21" s="124"/>
+    <row r="21" spans="2:8" ht="69.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="113"/>
+      <c r="C21" s="119"/>
       <c r="D21" s="27" t="s">
         <v>481</v>
       </c>
@@ -8012,11 +8006,11 @@
         <v>518</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="111" t="s">
+    <row r="22" spans="2:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="B22" s="114" t="s">
         <v>136</v>
       </c>
-      <c r="C22" s="122" t="s">
+      <c r="C22" s="117" t="s">
         <v>204</v>
       </c>
       <c r="D22" s="27" t="s">
@@ -8032,9 +8026,9 @@
         <v>561</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B23" s="112"/>
-      <c r="C23" s="124"/>
+    <row r="23" spans="2:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="B23" s="115"/>
+      <c r="C23" s="119"/>
       <c r="D23" s="28" t="s">
         <v>559</v>
       </c>
@@ -8048,9 +8042,9 @@
         <v>553</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B24" s="112"/>
-      <c r="C24" s="122" t="s">
+    <row r="24" spans="2:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="B24" s="115"/>
+      <c r="C24" s="117" t="s">
         <v>577</v>
       </c>
       <c r="D24" s="67" t="s">
@@ -8066,9 +8060,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="42" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="113"/>
-      <c r="C25" s="125"/>
+    <row r="25" spans="2:8" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="116"/>
+      <c r="C25" s="120"/>
       <c r="D25" s="61" t="s">
         <v>547</v>
       </c>
@@ -8108,26 +8102,26 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.9296875" customWidth="1"/>
-    <col min="3" max="3" width="21.3984375" customWidth="1"/>
-    <col min="4" max="4" width="20.9296875" customWidth="1"/>
-    <col min="5" max="5" width="25.59765625" customWidth="1"/>
-    <col min="6" max="6" width="41.265625" customWidth="1"/>
-    <col min="7" max="7" width="15.59765625" customWidth="1"/>
+    <col min="2" max="2" width="14.9140625" customWidth="1"/>
+    <col min="3" max="3" width="21.4140625" customWidth="1"/>
+    <col min="4" max="4" width="20.9140625" customWidth="1"/>
+    <col min="5" max="5" width="25.58203125" customWidth="1"/>
+    <col min="6" max="6" width="41.25" customWidth="1"/>
+    <col min="7" max="7" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="2:7" ht="20.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="107" t="s">
+    <row r="4" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:7" ht="20" x14ac:dyDescent="0.4">
+      <c r="B5" s="110" t="s">
         <v>446</v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="109"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="112"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="58" t="s">
         <v>458</v>
       </c>
@@ -8144,8 +8138,8 @@
         <v>531</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="110" t="s">
+    <row r="7" spans="2:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="B7" s="113" t="s">
         <v>482</v>
       </c>
       <c r="C7" s="55" t="s">
@@ -8161,8 +8155,8 @@
         <v>361</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B8" s="110"/>
+    <row r="8" spans="2:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="B8" s="113"/>
       <c r="C8" s="28" t="s">
         <v>578</v>
       </c>
@@ -8176,8 +8170,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B9" s="110"/>
+    <row r="9" spans="2:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="B9" s="113"/>
       <c r="C9" s="28" t="s">
         <v>579</v>
       </c>
@@ -8191,8 +8185,8 @@
         <v>436</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B10" s="110"/>
+    <row r="10" spans="2:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="B10" s="113"/>
       <c r="C10" s="55" t="s">
         <v>573</v>
       </c>
@@ -8206,8 +8200,8 @@
         <v>366</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B11" s="110"/>
+    <row r="11" spans="2:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="B11" s="113"/>
       <c r="C11" s="28" t="s">
         <v>580</v>
       </c>
@@ -8221,8 +8215,8 @@
         <v>539</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="B12" s="110"/>
+    <row r="12" spans="2:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="B12" s="113"/>
       <c r="C12" s="28" t="s">
         <v>580</v>
       </c>
@@ -8236,8 +8230,8 @@
         <v>384</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B13" s="110" t="s">
+    <row r="13" spans="2:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="B13" s="113" t="s">
         <v>520</v>
       </c>
       <c r="C13" s="28" t="s">
@@ -8256,8 +8250,8 @@
         <v>540</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="55.9" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="110"/>
+    <row r="14" spans="2:7" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="113"/>
       <c r="C14" s="28" t="s">
         <v>581</v>
       </c>
@@ -8274,8 +8268,8 @@
         <v>541</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B15" s="110" t="s">
+    <row r="15" spans="2:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="B15" s="113" t="s">
         <v>136</v>
       </c>
       <c r="C15" s="28" t="s">
@@ -8291,8 +8285,8 @@
         <v>565</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B16" s="110"/>
+    <row r="16" spans="2:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="B16" s="113"/>
       <c r="C16" s="28" t="s">
         <v>543</v>
       </c>
@@ -8306,8 +8300,8 @@
         <v>368</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="42" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="114"/>
+    <row r="17" spans="2:6" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="121"/>
       <c r="C17" s="51" t="s">
         <v>543</v>
       </c>
@@ -8342,28 +8336,28 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="14.1328125" customWidth="1"/>
-    <col min="5" max="6" width="16.1328125" customWidth="1"/>
-    <col min="7" max="7" width="15.73046875" customWidth="1"/>
-    <col min="8" max="8" width="20.59765625" customWidth="1"/>
-    <col min="9" max="9" width="22.46484375" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="6" width="16.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="20.58203125" customWidth="1"/>
+    <col min="9" max="9" width="22.5" customWidth="1"/>
     <col min="10" max="10" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:10" ht="20.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="D8" s="115" t="s">
+    <row r="7" spans="2:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:10" ht="20" x14ac:dyDescent="0.4">
+      <c r="D8" s="122" t="s">
         <v>457</v>
       </c>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="117"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="124"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="83"/>
       <c r="C9" s="83"/>
       <c r="D9" s="58" t="s">
@@ -8388,11 +8382,11 @@
         <v>463</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="D10" s="110" t="s">
+    <row r="10" spans="2:10" ht="42" x14ac:dyDescent="0.3">
+      <c r="D10" s="113" t="s">
         <v>647</v>
       </c>
-      <c r="E10" s="122" t="s">
+      <c r="E10" s="117" t="s">
         <v>588</v>
       </c>
       <c r="F10" s="28">
@@ -8411,9 +8405,9 @@
         <v>591</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="D11" s="110"/>
-      <c r="E11" s="123"/>
+    <row r="11" spans="2:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="D11" s="113"/>
+      <c r="E11" s="118"/>
       <c r="F11" s="28">
         <v>2</v>
       </c>
@@ -8430,9 +8424,9 @@
         <v>593</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="D12" s="110"/>
-      <c r="E12" s="123"/>
+    <row r="12" spans="2:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="D12" s="113"/>
+      <c r="E12" s="118"/>
       <c r="F12" s="28">
         <v>3</v>
       </c>
@@ -8449,9 +8443,9 @@
         <v>598</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="D13" s="110"/>
-      <c r="E13" s="124"/>
+    <row r="13" spans="2:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="D13" s="113"/>
+      <c r="E13" s="119"/>
       <c r="F13" s="28">
         <v>4</v>
       </c>
@@ -8468,9 +8462,9 @@
         <v>598</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="D14" s="110"/>
-      <c r="E14" s="122" t="s">
+    <row r="14" spans="2:10" ht="42" x14ac:dyDescent="0.3">
+      <c r="D14" s="113"/>
+      <c r="E14" s="117" t="s">
         <v>604</v>
       </c>
       <c r="F14" s="28">
@@ -8489,9 +8483,9 @@
         <v>603</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="D15" s="110"/>
-      <c r="E15" s="123"/>
+    <row r="15" spans="2:10" ht="42" x14ac:dyDescent="0.3">
+      <c r="D15" s="113"/>
+      <c r="E15" s="118"/>
       <c r="F15" s="28">
         <v>6</v>
       </c>
@@ -8508,9 +8502,9 @@
         <v>630</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="D16" s="110"/>
-      <c r="E16" s="123"/>
+    <row r="16" spans="2:10" ht="42" x14ac:dyDescent="0.3">
+      <c r="D16" s="113"/>
+      <c r="E16" s="118"/>
       <c r="F16" s="28">
         <v>7</v>
       </c>
@@ -8527,9 +8521,9 @@
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="4:10" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="D17" s="110"/>
-      <c r="E17" s="123"/>
+    <row r="17" spans="4:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="D17" s="113"/>
+      <c r="E17" s="118"/>
       <c r="F17" s="28">
         <v>8</v>
       </c>
@@ -8546,9 +8540,9 @@
         <v>610</v>
       </c>
     </row>
-    <row r="18" spans="4:10" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="D18" s="110"/>
-      <c r="E18" s="123"/>
+    <row r="18" spans="4:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="D18" s="113"/>
+      <c r="E18" s="118"/>
       <c r="F18" s="28">
         <v>9</v>
       </c>
@@ -8565,9 +8559,9 @@
         <v>619</v>
       </c>
     </row>
-    <row r="19" spans="4:10" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="D19" s="110"/>
-      <c r="E19" s="123"/>
+    <row r="19" spans="4:10" ht="42" x14ac:dyDescent="0.3">
+      <c r="D19" s="113"/>
+      <c r="E19" s="118"/>
       <c r="F19" s="28">
         <v>10</v>
       </c>
@@ -8584,9 +8578,9 @@
         <v>620</v>
       </c>
     </row>
-    <row r="20" spans="4:10" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="D20" s="110"/>
-      <c r="E20" s="123"/>
+    <row r="20" spans="4:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="D20" s="113"/>
+      <c r="E20" s="118"/>
       <c r="F20" s="28">
         <v>11</v>
       </c>
@@ -8603,9 +8597,9 @@
         <v>627</v>
       </c>
     </row>
-    <row r="21" spans="4:10" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="D21" s="110"/>
-      <c r="E21" s="123"/>
+    <row r="21" spans="4:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="D21" s="113"/>
+      <c r="E21" s="118"/>
       <c r="F21" s="28">
         <v>12</v>
       </c>
@@ -8622,9 +8616,9 @@
         <v>633</v>
       </c>
     </row>
-    <row r="22" spans="4:10" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="D22" s="110"/>
-      <c r="E22" s="124"/>
+    <row r="22" spans="4:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="D22" s="113"/>
+      <c r="E22" s="119"/>
       <c r="F22" s="28">
         <v>13</v>
       </c>
@@ -8641,9 +8635,9 @@
         <v>643</v>
       </c>
     </row>
-    <row r="23" spans="4:10" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="D23" s="110"/>
-      <c r="E23" s="126" t="s">
+    <row r="23" spans="4:10" ht="56" x14ac:dyDescent="0.3">
+      <c r="D23" s="113"/>
+      <c r="E23" s="97" t="s">
         <v>644</v>
       </c>
       <c r="F23" s="28">
@@ -8662,11 +8656,11 @@
         <v>646</v>
       </c>
     </row>
-    <row r="24" spans="4:10" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="D24" s="110" t="s">
+    <row r="24" spans="4:10" ht="42" x14ac:dyDescent="0.3">
+      <c r="D24" s="113" t="s">
         <v>685</v>
       </c>
-      <c r="E24" s="122" t="s">
+      <c r="E24" s="117" t="s">
         <v>663</v>
       </c>
       <c r="F24" s="28">
@@ -8685,9 +8679,9 @@
         <v>664</v>
       </c>
     </row>
-    <row r="25" spans="4:10" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="D25" s="110"/>
-      <c r="E25" s="123"/>
+    <row r="25" spans="4:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="D25" s="113"/>
+      <c r="E25" s="118"/>
       <c r="F25" s="28">
         <v>16</v>
       </c>
@@ -8704,9 +8698,9 @@
         <v>669</v>
       </c>
     </row>
-    <row r="26" spans="4:10" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="D26" s="110"/>
-      <c r="E26" s="123"/>
+    <row r="26" spans="4:10" ht="56" x14ac:dyDescent="0.3">
+      <c r="D26" s="113"/>
+      <c r="E26" s="118"/>
       <c r="F26" s="28">
         <v>17</v>
       </c>
@@ -8723,9 +8717,9 @@
         <v>691</v>
       </c>
     </row>
-    <row r="27" spans="4:10" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="D27" s="110"/>
-      <c r="E27" s="123"/>
+    <row r="27" spans="4:10" ht="42" x14ac:dyDescent="0.3">
+      <c r="D27" s="113"/>
+      <c r="E27" s="118"/>
       <c r="F27" s="28">
         <v>18</v>
       </c>
@@ -8735,26 +8729,26 @@
       <c r="H27" s="28" t="s">
         <v>683</v>
       </c>
-      <c r="I27" s="118" t="s">
+      <c r="I27" s="95" t="s">
         <v>684</v>
       </c>
       <c r="J27" s="48" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="28" spans="4:10" ht="42" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D28" s="114"/>
-      <c r="E28" s="125"/>
+    <row r="28" spans="4:10" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D28" s="121"/>
+      <c r="E28" s="120"/>
       <c r="F28" s="28">
         <v>19</v>
       </c>
-      <c r="G28" s="119" t="s">
+      <c r="G28" s="51" t="s">
         <v>454</v>
       </c>
-      <c r="H28" s="119" t="s">
+      <c r="H28" s="51" t="s">
         <v>689</v>
       </c>
-      <c r="I28" s="120" t="s">
+      <c r="I28" s="72" t="s">
         <v>687</v>
       </c>
       <c r="J28" s="37" t="s">
@@ -8779,29 +8773,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3F6B80-8172-4F79-9600-6FDEB5D9C203}">
   <dimension ref="C5:G17"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="20.265625" customWidth="1"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="25.265625" customWidth="1"/>
-    <col min="7" max="7" width="43.9296875" customWidth="1"/>
+    <col min="6" max="6" width="25.25" customWidth="1"/>
+    <col min="7" max="7" width="43.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="3:7" ht="20.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="115" t="s">
+    <row r="5" spans="3:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="3:7" ht="20" x14ac:dyDescent="0.4">
+      <c r="C6" s="122" t="s">
         <v>446</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="117"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="124"/>
       <c r="G6" s="37"/>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C7" s="84" t="s">
         <v>458</v>
       </c>
@@ -8818,11 +8812,11 @@
         <v>531</v>
       </c>
     </row>
-    <row r="8" spans="3:7" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C8" s="110" t="s">
+    <row r="8" spans="3:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="C8" s="113" t="s">
         <v>647</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="117" t="s">
         <v>604</v>
       </c>
       <c r="E8" s="28" t="s">
@@ -8835,11 +8829,9 @@
         <v>649</v>
       </c>
     </row>
-    <row r="9" spans="3:7" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C9" s="110"/>
-      <c r="D9" s="28" t="s">
-        <v>604</v>
-      </c>
+    <row r="9" spans="3:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="C9" s="113"/>
+      <c r="D9" s="119"/>
       <c r="E9" s="28" t="s">
         <v>703</v>
       </c>
@@ -8850,9 +8842,9 @@
         <v>654</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C10" s="110"/>
-      <c r="D10" s="28" t="s">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C10" s="113"/>
+      <c r="D10" s="117" t="s">
         <v>588</v>
       </c>
       <c r="E10" s="28" t="s">
@@ -8865,11 +8857,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="3:7" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C11" s="110"/>
-      <c r="D11" s="55" t="s">
-        <v>588</v>
-      </c>
+    <row r="11" spans="3:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="C11" s="113"/>
+      <c r="D11" s="118"/>
       <c r="E11" s="28" t="s">
         <v>659</v>
       </c>
@@ -8880,26 +8870,24 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="3:7" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C12" s="110"/>
-      <c r="D12" s="28" t="s">
-        <v>588</v>
-      </c>
+    <row r="12" spans="3:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="C12" s="113"/>
+      <c r="D12" s="119"/>
       <c r="E12" s="28" t="s">
         <v>659</v>
       </c>
       <c r="F12" s="50" t="s">
         <v>655</v>
       </c>
-      <c r="G12" s="121" t="s">
+      <c r="G12" s="96" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="13" spans="3:7" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C13" s="110" t="s">
+    <row r="13" spans="3:7" ht="56" x14ac:dyDescent="0.3">
+      <c r="C13" s="113" t="s">
         <v>685</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="117" t="s">
         <v>663</v>
       </c>
       <c r="E13" s="37" t="s">
@@ -8912,11 +8900,9 @@
         <v>691</v>
       </c>
     </row>
-    <row r="14" spans="3:7" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C14" s="110"/>
-      <c r="D14" s="28" t="s">
-        <v>663</v>
-      </c>
+    <row r="14" spans="3:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="C14" s="113"/>
+      <c r="D14" s="118"/>
       <c r="E14" s="27" t="s">
         <v>694</v>
       </c>
@@ -8927,11 +8913,9 @@
         <v>692</v>
       </c>
     </row>
-    <row r="15" spans="3:7" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C15" s="110"/>
-      <c r="D15" s="28" t="s">
-        <v>663</v>
-      </c>
+    <row r="15" spans="3:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="C15" s="113"/>
+      <c r="D15" s="118"/>
       <c r="E15" s="27" t="s">
         <v>393</v>
       </c>
@@ -8942,11 +8926,9 @@
         <v>693</v>
       </c>
     </row>
-    <row r="16" spans="3:7" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C16" s="110"/>
-      <c r="D16" s="28" t="s">
-        <v>663</v>
-      </c>
+    <row r="16" spans="3:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="C16" s="113"/>
+      <c r="D16" s="118"/>
       <c r="E16" s="27" t="s">
         <v>706</v>
       </c>
@@ -8957,11 +8939,9 @@
         <v>700</v>
       </c>
     </row>
-    <row r="17" spans="3:7" ht="42" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="114"/>
-      <c r="D17" s="51" t="s">
-        <v>663</v>
-      </c>
+    <row r="17" spans="3:7" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="121"/>
+      <c r="D17" s="120"/>
       <c r="E17" s="27" t="s">
         <v>707</v>
       </c>
@@ -8973,10 +8953,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="C8:C12"/>
     <mergeCell ref="C13:C17"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8984,23 +8967,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="74117954-47dd-4623-be10-f2d34b3fe6e8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100650C27B66691BA4BB901C940018B449F" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="856977a71e7c379887d8f02f6ee17dc3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="74117954-47dd-4623-be10-f2d34b3fe6e8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f93a31a691d6cd74e693f1feb46bcb1" ns3:_="">
     <xsd:import namespace="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
@@ -9144,10 +9110,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="74117954-47dd-4623-be10-f2d34b3fe6e8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16812470-A4E1-4DBD-AEE1-4642C4933AF0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{411558D9-DEA1-49BF-987E-1A683BCBCD59}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9169,19 +9162,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{411558D9-DEA1-49BF-987E-1A683BCBCD59}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16812470-A4E1-4DBD-AEE1-4642C4933AF0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ML Apply in OS/summary (new version).xlsx
+++ b/ML Apply in OS/summary (new version).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research-23\AIOS\ML Apply in OS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HKU\HKU\23Fall\AI-OS\ML Apply in OS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFEAE93-1825-42D4-A9D5-72221622FACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB2BE93-F855-41CA-994B-3638936722F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="730">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1918,10 +1919,6 @@
     <t xml:space="preserve">Thread characterization features from PCA. </t>
   </si>
   <si>
-    <t>values of performance indicators, counters for the next time
-unit of a given thread execution</t>
-  </si>
-  <si>
     <t>SVM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2815,6 +2812,94 @@
   </si>
   <si>
     <t>Maximize TCP performance metric (respect to throughput and RTT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multi-Resource Interleaving for Deep Learning Training</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evaluation Metrics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>implementation Details</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overhead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deploy in user space, use system call</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matrix multiplication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classification accuracy, turn-around-time Reduction, Time Overhead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220milliseconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Operating system scheduling on heterogeneous core systems. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No discussion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> The total final utility of all completed jobs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oversubscribing and Preemption by Simulator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not implement in OS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not mentioned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.4% to 5.8% reduction in turn-around-time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9% to 22.6% increase in productivity/ 12.1% to 30% increase in machine utilization </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPEC benchmarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approximately 12 us for LR, 60 us for SVR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Structural Similarity, Time overhead</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2982,7 +3067,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -3324,12 +3409,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3443,12 +3550,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3595,6 +3696,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3613,15 +3723,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3665,6 +3766,169 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3956,23 +4220,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG157"/>
   <sheetViews>
-    <sheetView topLeftCell="A137" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C136" sqref="C136"/>
+    <sheetView topLeftCell="A87" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="48.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="9.06640625" style="154"/>
+    <col min="2" max="2" width="9.06640625" style="160"/>
+    <col min="3" max="3" width="48.46484375" style="45" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="7"/>
-    <col min="5" max="5" width="42.25" style="7" customWidth="1"/>
+    <col min="5" max="5" width="42.265625" style="7" customWidth="1"/>
     <col min="6" max="6" width="58.6640625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="20.08203125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="38.25" style="7" customWidth="1"/>
+    <col min="7" max="7" width="20.06640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="38.265625" style="7" customWidth="1"/>
     <col min="9" max="9" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:31" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A1" s="153"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="123" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="15" t="s">
@@ -3991,20 +4259,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C2" s="101" t="s">
+    <row r="2" spans="1:31" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C2" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="103"/>
-    </row>
-    <row r="3" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3" s="10" t="s">
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="104"/>
+    </row>
+    <row r="3" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="154"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="124" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="10">
@@ -4046,10 +4314,10 @@
       <c r="AD3"/>
       <c r="AE3"/>
     </row>
-    <row r="4" spans="1:31" s="11" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4" s="10" t="s">
+    <row r="4" spans="1:31" s="11" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="154"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="124" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="10">
@@ -4091,10 +4359,10 @@
       <c r="AD4"/>
       <c r="AE4"/>
     </row>
-    <row r="5" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5" s="6" t="s">
+    <row r="5" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A5" s="154"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="125" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="6">
@@ -4136,10 +4404,10 @@
       <c r="AD5"/>
       <c r="AE5"/>
     </row>
-    <row r="6" spans="1:31" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6" s="8" t="s">
+    <row r="6" spans="1:31" s="9" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A6" s="154"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="126" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="8">
@@ -4181,10 +4449,10 @@
       <c r="AD6"/>
       <c r="AE6"/>
     </row>
-    <row r="7" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7" s="6" t="s">
+    <row r="7" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A7" s="154"/>
+      <c r="B7" s="160"/>
+      <c r="C7" s="125" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="6">
@@ -4226,10 +4494,10 @@
       <c r="AD7"/>
       <c r="AE7"/>
     </row>
-    <row r="8" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8" s="6" t="s">
+    <row r="8" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A8" s="154"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="125" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="6">
@@ -4271,10 +4539,10 @@
       <c r="AD8"/>
       <c r="AE8"/>
     </row>
-    <row r="9" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9" s="8" t="s">
+    <row r="9" spans="1:31" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A9" s="154"/>
+      <c r="B9" s="160"/>
+      <c r="C9" s="126" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="8">
@@ -4316,10 +4584,10 @@
       <c r="AD9"/>
       <c r="AE9"/>
     </row>
-    <row r="10" spans="1:31" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10" s="8" t="s">
+    <row r="10" spans="1:31" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A10" s="154"/>
+      <c r="B10" s="160"/>
+      <c r="C10" s="126" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="8">
@@ -4361,10 +4629,10 @@
       <c r="AD10"/>
       <c r="AE10"/>
     </row>
-    <row r="11" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11" s="6" t="s">
+    <row r="11" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A11" s="154"/>
+      <c r="B11" s="160"/>
+      <c r="C11" s="125" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="6">
@@ -4406,10 +4674,10 @@
       <c r="AD11"/>
       <c r="AE11"/>
     </row>
-    <row r="12" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12" s="6" t="s">
+    <row r="12" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A12" s="154"/>
+      <c r="B12" s="160"/>
+      <c r="C12" s="125" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="6">
@@ -4451,10 +4719,10 @@
       <c r="AD12"/>
       <c r="AE12"/>
     </row>
-    <row r="13" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13" s="6" t="s">
+    <row r="13" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A13" s="154"/>
+      <c r="B13" s="160"/>
+      <c r="C13" s="125" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="6">
@@ -4496,10 +4764,10 @@
       <c r="AD13"/>
       <c r="AE13"/>
     </row>
-    <row r="14" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14" s="6" t="s">
+    <row r="14" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A14" s="154"/>
+      <c r="B14" s="160"/>
+      <c r="C14" s="125" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="6">
@@ -4541,10 +4809,10 @@
       <c r="AD14"/>
       <c r="AE14"/>
     </row>
-    <row r="15" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15" s="6" t="s">
+    <row r="15" spans="1:31" s="2" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A15" s="154"/>
+      <c r="B15" s="160"/>
+      <c r="C15" s="125" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="6">
@@ -4586,20 +4854,20 @@
       <c r="AD15"/>
       <c r="AE15"/>
     </row>
-    <row r="16" spans="1:31" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C16" s="98" t="s">
+    <row r="16" spans="1:31" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C16" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="100"/>
-    </row>
-    <row r="17" spans="1:33" s="11" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17" s="10" t="s">
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="98"/>
+    </row>
+    <row r="17" spans="1:33" s="11" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A17" s="154"/>
+      <c r="B17" s="160"/>
+      <c r="C17" s="124" t="s">
         <v>45</v>
       </c>
       <c r="D17" s="10">
@@ -4643,10 +4911,10 @@
       <c r="AF17"/>
       <c r="AG17"/>
     </row>
-    <row r="18" spans="1:33" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18" s="8" t="s">
+    <row r="18" spans="1:33" s="9" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A18" s="154"/>
+      <c r="B18" s="160"/>
+      <c r="C18" s="126" t="s">
         <v>48</v>
       </c>
       <c r="D18" s="8">
@@ -4690,10 +4958,10 @@
       <c r="AF18"/>
       <c r="AG18"/>
     </row>
-    <row r="19" spans="1:33" s="9" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19" s="8" t="s">
+    <row r="19" spans="1:33" s="9" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A19" s="154"/>
+      <c r="B19" s="160"/>
+      <c r="C19" s="126" t="s">
         <v>50</v>
       </c>
       <c r="D19" s="8">
@@ -4737,10 +5005,10 @@
       <c r="AF19"/>
       <c r="AG19"/>
     </row>
-    <row r="20" spans="1:33" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20" s="8" t="s">
+    <row r="20" spans="1:33" s="9" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A20" s="154"/>
+      <c r="B20" s="160"/>
+      <c r="C20" s="126" t="s">
         <v>53</v>
       </c>
       <c r="D20" s="8">
@@ -4784,8 +5052,8 @@
       <c r="AF20"/>
       <c r="AG20"/>
     </row>
-    <row r="21" spans="1:33" ht="56" x14ac:dyDescent="0.3">
-      <c r="C21" s="6" t="s">
+    <row r="21" spans="1:33" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C21" s="125" t="s">
         <v>398</v>
       </c>
       <c r="D21" s="6">
@@ -4804,10 +5072,10 @@
         <v>404</v>
       </c>
     </row>
-    <row r="22" spans="1:33" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22" s="8" t="s">
+    <row r="22" spans="1:33" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A22" s="154"/>
+      <c r="B22" s="160"/>
+      <c r="C22" s="126" t="s">
         <v>128</v>
       </c>
       <c r="D22" s="8">
@@ -4851,10 +5119,10 @@
       <c r="AF22"/>
       <c r="AG22"/>
     </row>
-    <row r="23" spans="1:33" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23" s="6" t="s">
+    <row r="23" spans="1:33" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A23" s="154"/>
+      <c r="B23" s="160"/>
+      <c r="C23" s="125" t="s">
         <v>58</v>
       </c>
       <c r="D23" s="6">
@@ -4898,8 +5166,8 @@
       <c r="AF23"/>
       <c r="AG23"/>
     </row>
-    <row r="24" spans="1:33" ht="28" x14ac:dyDescent="0.3">
-      <c r="C24" s="6" t="s">
+    <row r="24" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C24" s="125" t="s">
         <v>405</v>
       </c>
       <c r="D24" s="6">
@@ -4918,10 +5186,10 @@
         <v>404</v>
       </c>
     </row>
-    <row r="25" spans="1:33" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25" s="8" t="s">
+    <row r="25" spans="1:33" s="3" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A25" s="154"/>
+      <c r="B25" s="160"/>
+      <c r="C25" s="126" t="s">
         <v>61</v>
       </c>
       <c r="D25" s="8">
@@ -4965,10 +5233,10 @@
       <c r="AF25"/>
       <c r="AG25"/>
     </row>
-    <row r="26" spans="1:33" s="11" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26" s="10" t="s">
+    <row r="26" spans="1:33" s="11" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A26" s="154"/>
+      <c r="B26" s="160"/>
+      <c r="C26" s="124" t="s">
         <v>67</v>
       </c>
       <c r="D26" s="10">
@@ -5012,10 +5280,10 @@
       <c r="AF26"/>
       <c r="AG26"/>
     </row>
-    <row r="27" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27" s="33" t="s">
+    <row r="27" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="154"/>
+      <c r="B27" s="160"/>
+      <c r="C27" s="127" t="s">
         <v>71</v>
       </c>
       <c r="D27" s="33">
@@ -5059,10 +5327,10 @@
       <c r="AF27"/>
       <c r="AG27"/>
     </row>
-    <row r="28" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28" s="35" t="s">
+    <row r="28" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="154"/>
+      <c r="B28" s="160"/>
+      <c r="C28" s="128" t="s">
         <v>416</v>
       </c>
       <c r="D28" s="35">
@@ -5104,10 +5372,10 @@
       <c r="AF28"/>
       <c r="AG28"/>
     </row>
-    <row r="29" spans="1:33" s="34" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="6" t="s">
+    <row r="29" spans="1:33" s="34" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="154"/>
+      <c r="B29" s="160"/>
+      <c r="C29" s="125" t="s">
         <v>408</v>
       </c>
       <c r="D29" s="6">
@@ -5149,10 +5417,10 @@
       <c r="AF29" s="27"/>
       <c r="AG29" s="27"/>
     </row>
-    <row r="30" spans="1:33" s="11" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30" s="6" t="s">
+    <row r="30" spans="1:33" s="11" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="154"/>
+      <c r="B30" s="160"/>
+      <c r="C30" s="125" t="s">
         <v>417</v>
       </c>
       <c r="D30" s="6">
@@ -5194,20 +5462,20 @@
       <c r="AF30"/>
       <c r="AG30"/>
     </row>
-    <row r="31" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C31" s="104" t="s">
+    <row r="31" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C31" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="106"/>
-    </row>
-    <row r="32" spans="1:33" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32" s="6" t="s">
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="107"/>
+    </row>
+    <row r="32" spans="1:33" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A32" s="154"/>
+      <c r="B32" s="160"/>
+      <c r="C32" s="125" t="s">
         <v>76</v>
       </c>
       <c r="D32" s="6">
@@ -5251,10 +5519,10 @@
       <c r="AF32"/>
       <c r="AG32"/>
     </row>
-    <row r="33" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33" s="12" t="s">
+    <row r="33" spans="1:33" s="13" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A33" s="154"/>
+      <c r="B33" s="160"/>
+      <c r="C33" s="129" t="s">
         <v>89</v>
       </c>
       <c r="D33" s="12">
@@ -5298,10 +5566,10 @@
       <c r="AF33"/>
       <c r="AG33"/>
     </row>
-    <row r="34" spans="1:33" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34" s="6" t="s">
+    <row r="34" spans="1:33" s="2" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A34" s="154"/>
+      <c r="B34" s="160"/>
+      <c r="C34" s="125" t="s">
         <v>77</v>
       </c>
       <c r="D34" s="6">
@@ -5345,10 +5613,10 @@
       <c r="AF34"/>
       <c r="AG34"/>
     </row>
-    <row r="35" spans="1:33" s="11" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35" s="10" t="s">
+    <row r="35" spans="1:33" s="11" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A35" s="154"/>
+      <c r="B35" s="160"/>
+      <c r="C35" s="124" t="s">
         <v>78</v>
       </c>
       <c r="D35" s="10">
@@ -5392,10 +5660,10 @@
       <c r="AF35"/>
       <c r="AG35"/>
     </row>
-    <row r="36" spans="1:33" s="13" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36" s="12" t="s">
+    <row r="36" spans="1:33" s="13" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A36" s="154"/>
+      <c r="B36" s="160"/>
+      <c r="C36" s="129" t="s">
         <v>90</v>
       </c>
       <c r="D36" s="12">
@@ -5439,10 +5707,10 @@
       <c r="AF36"/>
       <c r="AG36"/>
     </row>
-    <row r="37" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A37"/>
-      <c r="B37"/>
-      <c r="C37" s="12" t="s">
+    <row r="37" spans="1:33" s="13" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A37" s="154"/>
+      <c r="B37" s="160"/>
+      <c r="C37" s="129" t="s">
         <v>91</v>
       </c>
       <c r="D37" s="12">
@@ -5486,10 +5754,10 @@
       <c r="AF37"/>
       <c r="AG37"/>
     </row>
-    <row r="38" spans="1:33" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38"/>
-      <c r="B38"/>
-      <c r="C38" s="12" t="s">
+    <row r="38" spans="1:33" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="154"/>
+      <c r="B38" s="160"/>
+      <c r="C38" s="129" t="s">
         <v>92</v>
       </c>
       <c r="D38" s="12">
@@ -5533,10 +5801,10 @@
       <c r="AF38"/>
       <c r="AG38"/>
     </row>
-    <row r="39" spans="1:33" s="11" customFormat="1" ht="56.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39"/>
-      <c r="B39"/>
-      <c r="C39" s="10" t="s">
+    <row r="39" spans="1:33" s="11" customFormat="1" ht="56.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="154"/>
+      <c r="B39" s="160"/>
+      <c r="C39" s="124" t="s">
         <v>79</v>
       </c>
       <c r="D39" s="10">
@@ -5580,10 +5848,10 @@
       <c r="AF39"/>
       <c r="AG39"/>
     </row>
-    <row r="40" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A40"/>
-      <c r="B40"/>
-      <c r="C40" s="12" t="s">
+    <row r="40" spans="1:33" s="13" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A40" s="154"/>
+      <c r="B40" s="160"/>
+      <c r="C40" s="129" t="s">
         <v>93</v>
       </c>
       <c r="D40" s="12">
@@ -5627,10 +5895,10 @@
       <c r="AF40"/>
       <c r="AG40"/>
     </row>
-    <row r="41" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A41"/>
-      <c r="B41"/>
-      <c r="C41" s="12" t="s">
+    <row r="41" spans="1:33" s="13" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A41" s="154"/>
+      <c r="B41" s="160"/>
+      <c r="C41" s="129" t="s">
         <v>94</v>
       </c>
       <c r="D41" s="12">
@@ -5674,8 +5942,8 @@
       <c r="AF41"/>
       <c r="AG41"/>
     </row>
-    <row r="42" spans="1:33" ht="42" x14ac:dyDescent="0.3">
-      <c r="C42" s="12" t="s">
+    <row r="42" spans="1:33" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C42" s="129" t="s">
         <v>95</v>
       </c>
       <c r="D42" s="12">
@@ -5694,8 +5962,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:33" ht="42" x14ac:dyDescent="0.3">
-      <c r="C43" s="12" t="s">
+    <row r="43" spans="1:33" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C43" s="129" t="s">
         <v>96</v>
       </c>
       <c r="D43" s="12">
@@ -5714,18 +5982,18 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C44" s="98" t="s">
+    <row r="44" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C44" s="96" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="99"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="99"/>
-      <c r="G44" s="99"/>
-      <c r="H44" s="100"/>
-    </row>
-    <row r="45" spans="1:33" ht="28" x14ac:dyDescent="0.3">
-      <c r="C45" s="8" t="s">
+      <c r="D44" s="97"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="97"/>
+      <c r="G44" s="97"/>
+      <c r="H44" s="98"/>
+    </row>
+    <row r="45" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C45" s="126" t="s">
         <v>198</v>
       </c>
       <c r="D45" s="8">
@@ -5744,8 +6012,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:33" ht="28" x14ac:dyDescent="0.3">
-      <c r="C46" s="8" t="s">
+    <row r="46" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C46" s="126" t="s">
         <v>195</v>
       </c>
       <c r="D46" s="16">
@@ -5764,8 +6032,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:33" ht="28" x14ac:dyDescent="0.3">
-      <c r="C47" s="18" t="s">
+    <row r="47" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C47" s="130" t="s">
         <v>208</v>
       </c>
       <c r="D47" s="19">
@@ -5784,8 +6052,8 @@
         <v>214</v>
       </c>
     </row>
-    <row r="48" spans="1:33" ht="28" x14ac:dyDescent="0.3">
-      <c r="C48" s="18" t="s">
+    <row r="48" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C48" s="130" t="s">
         <v>210</v>
       </c>
       <c r="D48" s="19">
@@ -5804,8 +6072,10 @@
         <v>214</v>
       </c>
     </row>
-    <row r="49" spans="3:8" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C49" s="19" t="s">
+    <row r="49" spans="1:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A49" s="155"/>
+      <c r="B49" s="161"/>
+      <c r="C49" s="131" t="s">
         <v>160</v>
       </c>
       <c r="D49" s="20">
@@ -5824,8 +6094,10 @@
         <v>215</v>
       </c>
     </row>
-    <row r="50" spans="3:8" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C50" s="16" t="s">
+    <row r="50" spans="1:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A50" s="155"/>
+      <c r="B50" s="161"/>
+      <c r="C50" s="132" t="s">
         <v>186</v>
       </c>
       <c r="D50" s="17">
@@ -5844,8 +6116,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C51" s="8" t="s">
+    <row r="51" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C51" s="126" t="s">
         <v>150</v>
       </c>
       <c r="D51" s="8">
@@ -5864,8 +6136,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C52" s="8" t="s">
+    <row r="52" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C52" s="126" t="s">
         <v>144</v>
       </c>
       <c r="D52" s="8">
@@ -5884,8 +6156,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C53" s="8" t="s">
+    <row r="53" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C53" s="126" t="s">
         <v>172</v>
       </c>
       <c r="D53" s="8">
@@ -5904,8 +6176,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="54" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C54" s="8" t="s">
+    <row r="54" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C54" s="126" t="s">
         <v>143</v>
       </c>
       <c r="D54" s="8">
@@ -5924,8 +6196,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C55" s="8" t="s">
+    <row r="55" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C55" s="126" t="s">
         <v>176</v>
       </c>
       <c r="D55" s="8">
@@ -5944,8 +6216,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C56" s="8" t="s">
+    <row r="56" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C56" s="126" t="s">
         <v>188</v>
       </c>
       <c r="D56" s="8">
@@ -5964,8 +6236,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C57" s="8" t="s">
+    <row r="57" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C57" s="126" t="s">
         <v>140</v>
       </c>
       <c r="D57" s="8">
@@ -5984,8 +6256,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C58" s="8" t="s">
+    <row r="58" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C58" s="126" t="s">
         <v>191</v>
       </c>
       <c r="D58" s="8">
@@ -6004,8 +6276,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="59" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C59" s="8" t="s">
+    <row r="59" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C59" s="126" t="s">
         <v>166</v>
       </c>
       <c r="D59" s="8">
@@ -6024,8 +6296,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="3:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="C60" s="8" t="s">
+    <row r="60" spans="1:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C60" s="126" t="s">
         <v>179</v>
       </c>
       <c r="D60" s="8">
@@ -6044,8 +6316,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="61" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C61" s="18" t="s">
+    <row r="61" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C61" s="130" t="s">
         <v>205</v>
       </c>
       <c r="D61" s="18">
@@ -6064,8 +6336,8 @@
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="3:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="C62" s="8" t="s">
+    <row r="62" spans="1:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C62" s="126" t="s">
         <v>154</v>
       </c>
       <c r="D62" s="8">
@@ -6084,8 +6356,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C63" s="8" t="s">
+    <row r="63" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C63" s="126" t="s">
         <v>183</v>
       </c>
       <c r="D63" s="8">
@@ -6104,8 +6376,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C64" s="8" t="s">
+    <row r="64" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C64" s="126" t="s">
         <v>157</v>
       </c>
       <c r="D64" s="8">
@@ -6124,8 +6396,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C65" s="7" t="s">
+    <row r="65" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C65" s="45" t="s">
         <v>421</v>
       </c>
       <c r="E65" s="36" t="s">
@@ -6135,8 +6407,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="66" spans="3:8" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C66" s="8" t="s">
+    <row r="66" spans="1:8" s="37" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A66" s="156"/>
+      <c r="B66" s="162"/>
+      <c r="C66" s="126" t="s">
         <v>425</v>
       </c>
       <c r="D66" s="8">
@@ -6151,8 +6425,8 @@
         <v>431</v>
       </c>
     </row>
-    <row r="67" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C67" s="7" t="s">
+    <row r="67" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C67" s="45" t="s">
         <v>424</v>
       </c>
       <c r="D67" s="7">
@@ -6165,8 +6439,10 @@
         <v>432</v>
       </c>
     </row>
-    <row r="68" spans="3:8" s="37" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="7" t="s">
+    <row r="68" spans="1:8" s="37" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="156"/>
+      <c r="B68" s="162"/>
+      <c r="C68" s="45" t="s">
         <v>423</v>
       </c>
       <c r="D68" s="7">
@@ -6181,8 +6457,8 @@
         <v>433</v>
       </c>
     </row>
-    <row r="69" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C69" s="18" t="s">
+    <row r="69" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C69" s="130" t="s">
         <v>162</v>
       </c>
       <c r="D69" s="18">
@@ -6201,8 +6477,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="70" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C70" s="7" t="s">
+    <row r="70" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C70" s="45" t="s">
         <v>429</v>
       </c>
       <c r="D70" s="7">
@@ -6215,18 +6491,18 @@
         <v>434</v>
       </c>
     </row>
-    <row r="71" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C71" s="98" t="s">
+    <row r="71" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C71" s="96" t="s">
         <v>216</v>
       </c>
-      <c r="D71" s="99"/>
-      <c r="E71" s="99"/>
-      <c r="F71" s="99"/>
-      <c r="G71" s="99"/>
-      <c r="H71" s="100"/>
-    </row>
-    <row r="72" spans="3:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C72" s="21" t="s">
+      <c r="D71" s="97"/>
+      <c r="E71" s="97"/>
+      <c r="F71" s="97"/>
+      <c r="G71" s="97"/>
+      <c r="H71" s="98"/>
+    </row>
+    <row r="72" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="C72" s="133" t="s">
         <v>0</v>
       </c>
       <c r="D72" s="21" t="s">
@@ -6245,8 +6521,8 @@
         <v>228</v>
       </c>
     </row>
-    <row r="73" spans="3:8" ht="98" x14ac:dyDescent="0.3">
-      <c r="C73" s="7" t="s">
+    <row r="73" spans="1:8" ht="97.15" x14ac:dyDescent="0.4">
+      <c r="C73" s="45" t="s">
         <v>223</v>
       </c>
       <c r="D73" s="7">
@@ -6259,8 +6535,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="74" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C74" s="7" t="s">
+    <row r="74" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C74" s="45" t="s">
         <v>217</v>
       </c>
       <c r="D74" s="7">
@@ -6273,8 +6549,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="75" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C75" s="7" t="s">
+    <row r="75" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C75" s="45" t="s">
         <v>219</v>
       </c>
       <c r="D75" s="7">
@@ -6287,8 +6563,8 @@
         <v>226</v>
       </c>
     </row>
-    <row r="76" spans="3:8" ht="70.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C76" s="7" t="s">
+    <row r="76" spans="1:8" ht="70.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C76" s="45" t="s">
         <v>221</v>
       </c>
       <c r="D76" s="7">
@@ -6301,18 +6577,20 @@
         <v>225</v>
       </c>
     </row>
-    <row r="77" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C77" s="98" t="s">
+    <row r="77" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C77" s="96" t="s">
         <v>230</v>
       </c>
-      <c r="D77" s="99"/>
-      <c r="E77" s="99"/>
-      <c r="F77" s="99"/>
-      <c r="G77" s="99"/>
-      <c r="H77" s="100"/>
-    </row>
-    <row r="78" spans="3:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C78" s="22" t="s">
+      <c r="D77" s="97"/>
+      <c r="E77" s="97"/>
+      <c r="F77" s="97"/>
+      <c r="G77" s="97"/>
+      <c r="H77" s="98"/>
+    </row>
+    <row r="78" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="157"/>
+      <c r="B78" s="163"/>
+      <c r="C78" s="134" t="s">
         <v>0</v>
       </c>
       <c r="D78" s="22" t="s">
@@ -6331,8 +6609,10 @@
         <v>234</v>
       </c>
     </row>
-    <row r="79" spans="3:8" s="27" customFormat="1" ht="84" x14ac:dyDescent="0.3">
-      <c r="C79" s="31" t="s">
+    <row r="79" spans="1:8" s="27" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="A79" s="154"/>
+      <c r="B79" s="160"/>
+      <c r="C79" s="135" t="s">
         <v>246</v>
       </c>
       <c r="D79" s="31">
@@ -6351,8 +6631,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="80" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C80" s="41" t="s">
+    <row r="80" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C80" s="136" t="s">
         <v>382</v>
       </c>
       <c r="D80" s="41">
@@ -6371,8 +6651,8 @@
         <v>448</v>
       </c>
     </row>
-    <row r="81" spans="3:8" ht="98" x14ac:dyDescent="0.3">
-      <c r="C81" s="41" t="s">
+    <row r="81" spans="3:8" ht="97.15" x14ac:dyDescent="0.4">
+      <c r="C81" s="136" t="s">
         <v>379</v>
       </c>
       <c r="D81" s="41">
@@ -6391,8 +6671,8 @@
         <v>450</v>
       </c>
     </row>
-    <row r="82" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C82" s="41" t="s">
+    <row r="82" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C82" s="136" t="s">
         <v>372</v>
       </c>
       <c r="D82" s="41">
@@ -6411,28 +6691,28 @@
         <v>456</v>
       </c>
     </row>
-    <row r="83" spans="3:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C83" s="41" t="s">
-        <v>489</v>
+    <row r="83" spans="3:8" ht="138" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C83" s="136" t="s">
+        <v>488</v>
       </c>
       <c r="D83" s="41">
         <v>2019</v>
       </c>
       <c r="E83" s="41" t="s">
+        <v>489</v>
+      </c>
+      <c r="F83" s="41" t="s">
+        <v>493</v>
+      </c>
+      <c r="G83" s="41" t="s">
         <v>490</v>
       </c>
-      <c r="F83" s="41" t="s">
-        <v>494</v>
-      </c>
-      <c r="G83" s="41" t="s">
-        <v>491</v>
-      </c>
       <c r="H83" s="41" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="84" spans="3:8" ht="84" x14ac:dyDescent="0.3">
-      <c r="C84" s="41" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" ht="111" x14ac:dyDescent="0.4">
+      <c r="C84" s="136" t="s">
         <v>282</v>
       </c>
       <c r="D84" s="41">
@@ -6451,48 +6731,48 @@
         <v>284</v>
       </c>
     </row>
-    <row r="85" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C85" s="52" t="s">
-        <v>522</v>
-      </c>
-      <c r="D85" s="52">
+    <row r="85" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C85" s="137" t="s">
+        <v>521</v>
+      </c>
+      <c r="D85" s="50">
         <v>2020</v>
       </c>
-      <c r="E85" s="52" t="s">
+      <c r="E85" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="F85" s="52" t="s">
+      <c r="F85" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="G85" s="52" t="s">
+      <c r="G85" s="50" t="s">
         <v>446</v>
       </c>
-      <c r="H85" s="52" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="86" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C86" s="52" t="s">
+      <c r="H85" s="50" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C86" s="137" t="s">
         <v>374</v>
       </c>
-      <c r="D86" s="52">
+      <c r="D86" s="50">
         <v>2020</v>
       </c>
-      <c r="E86" s="52" t="s">
+      <c r="E86" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="F86" s="52" t="s">
+      <c r="F86" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="G86" s="52" t="s">
+      <c r="G86" s="50" t="s">
         <v>446</v>
       </c>
-      <c r="H86" s="52" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="87" spans="3:8" ht="84" x14ac:dyDescent="0.3">
-      <c r="C87" s="31" t="s">
+      <c r="H86" s="50" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="C87" s="135" t="s">
         <v>370</v>
       </c>
       <c r="D87" s="31">
@@ -6502,27 +6782,27 @@
         <v>371</v>
       </c>
       <c r="F87" s="31" t="s">
+        <v>482</v>
+      </c>
+      <c r="G87" s="31" t="s">
         <v>483</v>
       </c>
-      <c r="G87" s="31" t="s">
-        <v>484</v>
-      </c>
       <c r="H87" s="31" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="89" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C89" s="107" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C89" s="99" t="s">
         <v>235</v>
       </c>
-      <c r="D89" s="108"/>
-      <c r="E89" s="108"/>
-      <c r="F89" s="108"/>
-      <c r="G89" s="108"/>
-      <c r="H89" s="109"/>
-    </row>
-    <row r="90" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C90" s="31" t="s">
+      <c r="D89" s="100"/>
+      <c r="E89" s="100"/>
+      <c r="F89" s="100"/>
+      <c r="G89" s="100"/>
+      <c r="H89" s="101"/>
+    </row>
+    <row r="90" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C90" s="135" t="s">
         <v>240</v>
       </c>
       <c r="D90" s="31">
@@ -6541,8 +6821,8 @@
         <v>244</v>
       </c>
     </row>
-    <row r="91" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C91" s="39" t="s">
+    <row r="91" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C91" s="138" t="s">
         <v>361</v>
       </c>
       <c r="D91" s="39">
@@ -6561,8 +6841,8 @@
         <v>438</v>
       </c>
     </row>
-    <row r="92" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C92" s="39" t="s">
+    <row r="92" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C92" s="138" t="s">
         <v>238</v>
       </c>
       <c r="D92" s="39">
@@ -6575,14 +6855,14 @@
         <v>320</v>
       </c>
       <c r="G92" s="39" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H92" s="39" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="93" spans="3:8" ht="70" x14ac:dyDescent="0.3">
-      <c r="C93" s="31" t="s">
+    <row r="93" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="C93" s="135" t="s">
         <v>334</v>
       </c>
       <c r="D93" s="31">
@@ -6601,7 +6881,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="94" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C94" s="40" t="s">
         <v>436</v>
       </c>
@@ -6621,8 +6901,8 @@
         <v>440</v>
       </c>
     </row>
-    <row r="95" spans="3:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="C95" s="31" t="s">
+    <row r="95" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C95" s="135" t="s">
         <v>329</v>
       </c>
       <c r="D95" s="31">
@@ -6641,8 +6921,8 @@
         <v>333</v>
       </c>
     </row>
-    <row r="96" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C96" s="31" t="s">
+    <row r="96" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C96" s="135" t="s">
         <v>399</v>
       </c>
       <c r="D96" s="31">
@@ -6650,17 +6930,17 @@
       </c>
       <c r="E96" s="31"/>
       <c r="F96" s="31" t="s">
+        <v>471</v>
+      </c>
+      <c r="G96" s="31" t="s">
         <v>472</v>
       </c>
-      <c r="G96" s="31" t="s">
+      <c r="H96" s="42" t="s">
         <v>473</v>
       </c>
-      <c r="H96" s="42" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="97" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C97" s="43" t="s">
+    </row>
+    <row r="97" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C97" s="139" t="s">
         <v>412</v>
       </c>
       <c r="D97" s="43">
@@ -6675,8 +6955,8 @@
       <c r="G97" s="43"/>
       <c r="H97" s="43"/>
     </row>
-    <row r="98" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C98" s="43" t="s">
+    <row r="98" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C98" s="139" t="s">
         <v>409</v>
       </c>
       <c r="D98" s="43">
@@ -6691,8 +6971,10 @@
       <c r="G98" s="43"/>
       <c r="H98" s="43"/>
     </row>
-    <row r="99" spans="3:8" s="27" customFormat="1" ht="56" x14ac:dyDescent="0.3">
-      <c r="C99" s="46" t="s">
+    <row r="99" spans="1:8" s="27" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="A99" s="154"/>
+      <c r="B99" s="160"/>
+      <c r="C99" s="140" t="s">
         <v>324</v>
       </c>
       <c r="D99" s="31">
@@ -6711,8 +6993,8 @@
         <v>327</v>
       </c>
     </row>
-    <row r="100" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C100" s="45" t="s">
+    <row r="100" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C100" s="141" t="s">
         <v>414</v>
       </c>
       <c r="D100" s="43">
@@ -6727,8 +7009,8 @@
       <c r="G100" s="43"/>
       <c r="H100" s="43"/>
     </row>
-    <row r="101" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C101" s="46" t="s">
+    <row r="101" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C101" s="140" t="s">
         <v>364</v>
       </c>
       <c r="D101" s="31">
@@ -6741,8 +7023,8 @@
       <c r="G101" s="31"/>
       <c r="H101" s="31"/>
     </row>
-    <row r="102" spans="3:8" ht="70" x14ac:dyDescent="0.3">
-      <c r="C102" s="31" t="s">
+    <row r="102" spans="1:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="C102" s="135" t="s">
         <v>287</v>
       </c>
       <c r="D102" s="31">
@@ -6761,8 +7043,8 @@
         <v>291</v>
       </c>
     </row>
-    <row r="103" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C103" s="39" t="s">
+    <row r="103" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C103" s="138" t="s">
         <v>366</v>
       </c>
       <c r="D103" s="39">
@@ -6781,8 +7063,8 @@
         <v>441</v>
       </c>
     </row>
-    <row r="104" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C104" s="39" t="s">
+    <row r="104" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C104" s="138" t="s">
         <v>443</v>
       </c>
       <c r="D104" s="39">
@@ -6801,8 +7083,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="105" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C105" s="39" t="s">
+    <row r="105" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C105" s="138" t="s">
         <v>384</v>
       </c>
       <c r="D105" s="39">
@@ -6821,18 +7103,18 @@
         <v>442</v>
       </c>
     </row>
-    <row r="107" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C107" s="98" t="s">
+    <row r="107" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C107" s="96" t="s">
         <v>236</v>
       </c>
-      <c r="D107" s="99"/>
-      <c r="E107" s="99"/>
-      <c r="F107" s="99"/>
-      <c r="G107" s="99"/>
-      <c r="H107" s="100"/>
-    </row>
-    <row r="108" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C108" s="7" t="s">
+      <c r="D107" s="97"/>
+      <c r="E107" s="97"/>
+      <c r="F107" s="97"/>
+      <c r="G107" s="97"/>
+      <c r="H107" s="98"/>
+    </row>
+    <row r="108" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C108" s="45" t="s">
         <v>350</v>
       </c>
       <c r="D108" s="7">
@@ -6845,14 +7127,14 @@
         <v>352</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="109" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C109" s="12" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C109" s="129" t="s">
         <v>252</v>
       </c>
       <c r="D109" s="12">
@@ -6871,8 +7153,8 @@
         <v>255</v>
       </c>
     </row>
-    <row r="110" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C110" s="12" t="s">
+    <row r="110" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C110" s="129" t="s">
         <v>341</v>
       </c>
       <c r="D110" s="12">
@@ -6885,14 +7167,14 @@
         <v>347</v>
       </c>
       <c r="G110" s="12" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H110" s="12" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="111" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C111" s="12" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C111" s="129" t="s">
         <v>339</v>
       </c>
       <c r="D111" s="12">
@@ -6905,14 +7187,14 @@
         <v>347</v>
       </c>
       <c r="G111" s="12" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H111" s="12" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="112" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C112" s="12" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C112" s="129" t="s">
         <v>348</v>
       </c>
       <c r="D112" s="12">
@@ -6925,14 +7207,14 @@
         <v>346</v>
       </c>
       <c r="G112" s="12" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H112" s="12" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="113" spans="1:33" ht="56" x14ac:dyDescent="0.3">
-      <c r="C113" s="7" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="113" spans="1:33" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C113" s="45" t="s">
         <v>154</v>
       </c>
       <c r="D113" s="7">
@@ -6945,11 +7227,11 @@
         <v>343</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="114" spans="1:33" ht="28" x14ac:dyDescent="0.3">
-      <c r="C114" s="12" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="114" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C114" s="129" t="s">
         <v>358</v>
       </c>
       <c r="D114" s="12">
@@ -6962,14 +7244,14 @@
         <v>360</v>
       </c>
       <c r="G114" s="12" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H114" s="12" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="115" spans="1:33" ht="70" x14ac:dyDescent="0.3">
-      <c r="C115" s="12" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="115" spans="1:33" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="C115" s="129" t="s">
         <v>257</v>
       </c>
       <c r="D115" s="12">
@@ -6988,8 +7270,8 @@
         <v>260</v>
       </c>
     </row>
-    <row r="116" spans="1:33" ht="28" x14ac:dyDescent="0.3">
-      <c r="C116" s="7" t="s">
+    <row r="116" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C116" s="45" t="s">
         <v>300</v>
       </c>
       <c r="D116" s="7">
@@ -7008,8 +7290,8 @@
         <v>322</v>
       </c>
     </row>
-    <row r="117" spans="1:33" ht="56" x14ac:dyDescent="0.3">
-      <c r="C117" s="12" t="s">
+    <row r="117" spans="1:33" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C117" s="129" t="s">
         <v>262</v>
       </c>
       <c r="D117" s="12">
@@ -7019,7 +7301,7 @@
         <v>263</v>
       </c>
       <c r="F117" s="12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G117" s="12" t="s">
         <v>265</v>
@@ -7027,12 +7309,12 @@
       <c r="H117" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="I117" s="78" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="118" spans="1:33" ht="42" x14ac:dyDescent="0.3">
-      <c r="C118" s="12" t="s">
+      <c r="I117" s="76" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="118" spans="1:33" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C118" s="129" t="s">
         <v>344</v>
       </c>
       <c r="D118" s="12">
@@ -7045,75 +7327,83 @@
         <v>346</v>
       </c>
       <c r="G118" s="12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H118" s="12"/>
     </row>
-    <row r="119" spans="1:33" s="14" customFormat="1" ht="84" x14ac:dyDescent="0.3">
-      <c r="C119" s="79" t="s">
+    <row r="119" spans="1:33" s="14" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="A119" s="155"/>
+      <c r="B119" s="161"/>
+      <c r="C119" s="142" t="s">
         <v>269</v>
       </c>
       <c r="D119" s="12">
         <v>2019</v>
       </c>
-      <c r="E119" s="79" t="s">
+      <c r="E119" s="77" t="s">
         <v>270</v>
       </c>
-      <c r="F119" s="79" t="s">
+      <c r="F119" s="77" t="s">
         <v>273</v>
       </c>
-      <c r="G119" s="79" t="s">
+      <c r="G119" s="77" t="s">
         <v>271</v>
       </c>
-      <c r="H119" s="79" t="s">
+      <c r="H119" s="77" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="120" spans="1:33" s="14" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="C120" s="79" t="s">
+    <row r="120" spans="1:33" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A120" s="155"/>
+      <c r="B120" s="161"/>
+      <c r="C120" s="142" t="s">
         <v>353</v>
       </c>
       <c r="D120" s="12">
         <v>2019</v>
       </c>
-      <c r="E120" s="79" t="s">
+      <c r="E120" s="77" t="s">
         <v>354</v>
       </c>
-      <c r="F120" s="79" t="s">
+      <c r="F120" s="77" t="s">
         <v>355</v>
       </c>
-      <c r="G120" s="79" t="s">
-        <v>614</v>
-      </c>
-      <c r="H120" s="79" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="121" spans="1:33" s="14" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="C121" s="73" t="s">
+      <c r="G120" s="77" t="s">
+        <v>613</v>
+      </c>
+      <c r="H120" s="77" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="121" spans="1:33" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A121" s="155"/>
+      <c r="B121" s="161"/>
+      <c r="C121" s="143" t="s">
         <v>275</v>
       </c>
-      <c r="D121" s="74">
+      <c r="D121" s="72">
         <v>2020</v>
       </c>
-      <c r="E121" s="75" t="s">
+      <c r="E121" s="73" t="s">
         <v>276</v>
       </c>
-      <c r="F121" s="73" t="s">
+      <c r="F121" s="71" t="s">
         <v>279</v>
       </c>
-      <c r="G121" s="73" t="s">
+      <c r="G121" s="71" t="s">
         <v>278</v>
       </c>
-      <c r="H121" s="73" t="s">
+      <c r="H121" s="71" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="122" spans="1:33" s="14" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="C122" s="25" t="s">
+    <row r="122" spans="1:33" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A122" s="155"/>
+      <c r="B122" s="161"/>
+      <c r="C122" s="94" t="s">
         <v>297</v>
       </c>
-      <c r="D122" s="53">
+      <c r="D122" s="51">
         <v>2021</v>
       </c>
       <c r="E122" s="7" t="s">
@@ -7129,243 +7419,247 @@
         <v>303</v>
       </c>
     </row>
-    <row r="123" spans="1:33" s="32" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="C123" s="79" t="s">
+    <row r="123" spans="1:33" s="32" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A123" s="155"/>
+      <c r="B123" s="161"/>
+      <c r="C123" s="142" t="s">
         <v>400</v>
       </c>
-      <c r="D123" s="81">
+      <c r="D123" s="79">
         <v>2022</v>
       </c>
-      <c r="E123" s="82" t="s">
-        <v>639</v>
-      </c>
-      <c r="F123" s="79" t="s">
+      <c r="E123" s="80" t="s">
+        <v>638</v>
+      </c>
+      <c r="F123" s="77" t="s">
+        <v>633</v>
+      </c>
+      <c r="G123" s="77" t="s">
         <v>634</v>
       </c>
-      <c r="G123" s="79" t="s">
-        <v>635</v>
-      </c>
-      <c r="H123" s="79" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="124" spans="1:33" ht="28" x14ac:dyDescent="0.3">
-      <c r="C124" s="7" t="s">
-        <v>622</v>
+      <c r="H123" s="77" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="124" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C124" s="45" t="s">
+        <v>621</v>
       </c>
       <c r="D124" s="26">
         <v>2021</v>
       </c>
       <c r="E124" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="F124" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="F124" s="7" t="s">
-        <v>624</v>
-      </c>
       <c r="G124" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="H124" s="56" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="125" spans="1:33" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C125" s="79" t="s">
+        <v>562</v>
+      </c>
+      <c r="H124" s="54" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="125" spans="1:33" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A125" s="155"/>
+      <c r="B125" s="161"/>
+      <c r="C125" s="142" t="s">
         <v>356</v>
       </c>
-      <c r="D125" s="80">
+      <c r="D125" s="78">
         <v>2019</v>
       </c>
-      <c r="E125" s="79" t="s">
-        <v>621</v>
-      </c>
-      <c r="F125" s="79" t="s">
+      <c r="E125" s="77" t="s">
+        <v>620</v>
+      </c>
+      <c r="F125" s="77" t="s">
         <v>357</v>
       </c>
-      <c r="G125" s="79" t="s">
+      <c r="G125" s="77" t="s">
+        <v>627</v>
+      </c>
+      <c r="H125" s="77" t="s">
         <v>628</v>
       </c>
-      <c r="H125" s="79" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="126" spans="1:33" ht="70" x14ac:dyDescent="0.3">
-      <c r="C126" s="76" t="s">
+    </row>
+    <row r="126" spans="1:33" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="C126" s="144" t="s">
+        <v>553</v>
+      </c>
+      <c r="D126" s="74">
+        <v>2023</v>
+      </c>
+      <c r="E126" s="74" t="s">
         <v>554</v>
       </c>
-      <c r="D126" s="76">
-        <v>2023</v>
-      </c>
-      <c r="E126" s="76" t="s">
+      <c r="F126" s="74" t="s">
         <v>555</v>
       </c>
-      <c r="F126" s="76" t="s">
+      <c r="G126" s="74" t="s">
         <v>556</v>
       </c>
-      <c r="G126" s="76" t="s">
+      <c r="H126" s="74" t="s">
         <v>557</v>
       </c>
-      <c r="H126" s="76" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="127" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C127" s="107" t="s">
+    </row>
+    <row r="127" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C127" s="99" t="s">
         <v>237</v>
       </c>
-      <c r="D127" s="108"/>
-      <c r="E127" s="108"/>
-      <c r="F127" s="108"/>
-      <c r="G127" s="108"/>
-      <c r="H127" s="109"/>
-    </row>
-    <row r="128" spans="1:33" ht="43" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="87"/>
-      <c r="B128" s="87"/>
-      <c r="C128" s="86" t="s">
+      <c r="D127" s="100"/>
+      <c r="E127" s="100"/>
+      <c r="F127" s="100"/>
+      <c r="G127" s="100"/>
+      <c r="H127" s="101"/>
+    </row>
+    <row r="128" spans="1:33" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C128" s="145" t="s">
+        <v>659</v>
+      </c>
+      <c r="D128" s="86">
+        <v>2010</v>
+      </c>
+      <c r="E128" s="87" t="s">
+        <v>81</v>
+      </c>
+      <c r="F128" s="87" t="s">
+        <v>667</v>
+      </c>
+      <c r="G128" s="87"/>
+      <c r="H128" s="87"/>
+      <c r="I128" s="85"/>
+      <c r="J128" s="85"/>
+      <c r="K128" s="85"/>
+      <c r="L128" s="85"/>
+      <c r="M128" s="85"/>
+      <c r="N128" s="85"/>
+      <c r="O128" s="85"/>
+      <c r="P128" s="85"/>
+      <c r="Q128" s="85"/>
+      <c r="R128" s="85"/>
+      <c r="S128" s="85"/>
+      <c r="T128" s="85"/>
+      <c r="U128" s="85"/>
+      <c r="V128" s="85"/>
+      <c r="W128" s="85"/>
+      <c r="X128" s="85"/>
+      <c r="Y128" s="85"/>
+      <c r="Z128" s="85"/>
+      <c r="AA128" s="85"/>
+      <c r="AB128" s="85"/>
+      <c r="AC128" s="85"/>
+      <c r="AD128" s="85"/>
+      <c r="AE128" s="85"/>
+      <c r="AF128" s="85"/>
+      <c r="AG128" s="85"/>
+    </row>
+    <row r="129" spans="1:33" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C129" s="145" t="s">
         <v>660</v>
       </c>
-      <c r="D128" s="88">
-        <v>2010</v>
-      </c>
-      <c r="E128" s="89" t="s">
-        <v>81</v>
-      </c>
-      <c r="F128" s="89" t="s">
-        <v>668</v>
-      </c>
-      <c r="G128" s="89"/>
-      <c r="H128" s="89"/>
-      <c r="I128" s="87"/>
-      <c r="J128" s="87"/>
-      <c r="K128" s="87"/>
-      <c r="L128" s="87"/>
-      <c r="M128" s="87"/>
-      <c r="N128" s="87"/>
-      <c r="O128" s="87"/>
-      <c r="P128" s="87"/>
-      <c r="Q128" s="87"/>
-      <c r="R128" s="87"/>
-      <c r="S128" s="87"/>
-      <c r="T128" s="87"/>
-      <c r="U128" s="87"/>
-      <c r="V128" s="87"/>
-      <c r="W128" s="87"/>
-      <c r="X128" s="87"/>
-      <c r="Y128" s="87"/>
-      <c r="Z128" s="87"/>
-      <c r="AA128" s="87"/>
-      <c r="AB128" s="87"/>
-      <c r="AC128" s="87"/>
-      <c r="AD128" s="87"/>
-      <c r="AE128" s="87"/>
-      <c r="AF128" s="87"/>
-      <c r="AG128" s="87"/>
-    </row>
-    <row r="129" spans="1:33" ht="43" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="87"/>
-      <c r="B129" s="87"/>
-      <c r="C129" s="86" t="s">
+      <c r="D129" s="86">
+        <v>2014</v>
+      </c>
+      <c r="E129" s="84" t="s">
         <v>661</v>
       </c>
-      <c r="D129" s="88">
-        <v>2014</v>
-      </c>
-      <c r="E129" s="86" t="s">
-        <v>662</v>
-      </c>
-      <c r="F129" s="89" t="s">
-        <v>672</v>
-      </c>
-      <c r="G129" s="89" t="s">
-        <v>674</v>
-      </c>
-      <c r="H129" s="89" t="s">
-        <v>670</v>
-      </c>
-      <c r="I129" s="87"/>
-      <c r="J129" s="87"/>
-      <c r="K129" s="87"/>
-      <c r="L129" s="87"/>
-      <c r="M129" s="87"/>
-      <c r="N129" s="87"/>
-      <c r="O129" s="87"/>
-      <c r="P129" s="87"/>
-      <c r="Q129" s="87"/>
-      <c r="R129" s="87"/>
-      <c r="S129" s="87"/>
-      <c r="T129" s="87"/>
-      <c r="U129" s="87"/>
-      <c r="V129" s="87"/>
-      <c r="W129" s="87"/>
-      <c r="X129" s="87"/>
-      <c r="Y129" s="87"/>
-      <c r="Z129" s="87"/>
-      <c r="AA129" s="87"/>
-      <c r="AB129" s="87"/>
-      <c r="AC129" s="87"/>
-      <c r="AD129" s="87"/>
-      <c r="AE129" s="87"/>
-      <c r="AF129" s="87"/>
-      <c r="AG129" s="87"/>
-    </row>
-    <row r="130" spans="1:33" s="29" customFormat="1" ht="112" x14ac:dyDescent="0.3">
-      <c r="C130" s="93" t="s">
+      <c r="F129" s="87" t="s">
+        <v>671</v>
+      </c>
+      <c r="G129" s="87" t="s">
+        <v>673</v>
+      </c>
+      <c r="H129" s="87" t="s">
+        <v>669</v>
+      </c>
+      <c r="I129" s="85"/>
+      <c r="J129" s="85"/>
+      <c r="K129" s="85"/>
+      <c r="L129" s="85"/>
+      <c r="M129" s="85"/>
+      <c r="N129" s="85"/>
+      <c r="O129" s="85"/>
+      <c r="P129" s="85"/>
+      <c r="Q129" s="85"/>
+      <c r="R129" s="85"/>
+      <c r="S129" s="85"/>
+      <c r="T129" s="85"/>
+      <c r="U129" s="85"/>
+      <c r="V129" s="85"/>
+      <c r="W129" s="85"/>
+      <c r="X129" s="85"/>
+      <c r="Y129" s="85"/>
+      <c r="Z129" s="85"/>
+      <c r="AA129" s="85"/>
+      <c r="AB129" s="85"/>
+      <c r="AC129" s="85"/>
+      <c r="AD129" s="85"/>
+      <c r="AE129" s="85"/>
+      <c r="AF129" s="85"/>
+      <c r="AG129" s="85"/>
+    </row>
+    <row r="130" spans="1:33" s="29" customFormat="1" ht="111" x14ac:dyDescent="0.4">
+      <c r="A130" s="158"/>
+      <c r="B130" s="164"/>
+      <c r="C130" s="146" t="s">
         <v>390</v>
       </c>
-      <c r="D130" s="90">
+      <c r="D130" s="88">
         <v>2018</v>
       </c>
-      <c r="E130" s="91" t="s">
+      <c r="E130" s="89" t="s">
         <v>391</v>
       </c>
-      <c r="F130" s="90" t="s">
+      <c r="F130" s="88" t="s">
         <v>393</v>
       </c>
-      <c r="G130" s="90" t="s">
+      <c r="G130" s="88" t="s">
         <v>392</v>
       </c>
-      <c r="H130" s="90" t="s">
+      <c r="H130" s="88" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="131" spans="1:33" s="29" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C131" s="93" t="s">
-        <v>677</v>
-      </c>
-      <c r="D131" s="93">
+    <row r="131" spans="1:33" s="29" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A131" s="158"/>
+      <c r="B131" s="164"/>
+      <c r="C131" s="146" t="s">
+        <v>676</v>
+      </c>
+      <c r="D131" s="91">
         <v>2019</v>
       </c>
-      <c r="E131" s="94"/>
-      <c r="F131" s="93" t="s">
-        <v>688</v>
-      </c>
-      <c r="G131" s="93"/>
-      <c r="H131" s="93"/>
-    </row>
-    <row r="132" spans="1:33" ht="98" x14ac:dyDescent="0.3">
-      <c r="C132" s="92" t="s">
+      <c r="E131" s="92"/>
+      <c r="F131" s="91" t="s">
+        <v>687</v>
+      </c>
+      <c r="G131" s="91"/>
+      <c r="H131" s="91"/>
+    </row>
+    <row r="132" spans="1:33" ht="97.15" x14ac:dyDescent="0.4">
+      <c r="C132" s="147" t="s">
         <v>266</v>
       </c>
-      <c r="D132" s="92">
+      <c r="D132" s="90">
         <v>2019</v>
       </c>
-      <c r="E132" s="92" t="s">
+      <c r="E132" s="90" t="s">
         <v>101</v>
       </c>
-      <c r="F132" s="92" t="s">
-        <v>690</v>
-      </c>
-      <c r="G132" s="92" t="s">
+      <c r="F132" s="90" t="s">
+        <v>689</v>
+      </c>
+      <c r="G132" s="90" t="s">
         <v>267</v>
       </c>
-      <c r="H132" s="92" t="s">
+      <c r="H132" s="90" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="133" spans="1:33" ht="28" x14ac:dyDescent="0.3">
-      <c r="C133" s="45" t="s">
-        <v>676</v>
+    <row r="133" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C133" s="141" t="s">
+        <v>675</v>
       </c>
       <c r="D133" s="43">
         <v>2019</v>
@@ -7375,36 +7669,36 @@
       <c r="G133" s="43"/>
       <c r="H133" s="43"/>
     </row>
-    <row r="134" spans="1:33" ht="28" x14ac:dyDescent="0.3">
-      <c r="C134" s="45" t="s">
-        <v>678</v>
+    <row r="134" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C134" s="141" t="s">
+        <v>677</v>
       </c>
       <c r="D134" s="43">
         <v>2019</v>
       </c>
       <c r="E134" s="43"/>
       <c r="F134" s="43" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G134" s="43"/>
       <c r="H134" s="43"/>
     </row>
-    <row r="135" spans="1:33" ht="28" x14ac:dyDescent="0.3">
-      <c r="C135" s="86" t="s">
-        <v>679</v>
+    <row r="135" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C135" s="145" t="s">
+        <v>678</v>
       </c>
       <c r="D135" s="12">
         <v>2019</v>
       </c>
       <c r="E135" s="12"/>
       <c r="F135" s="12" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G135" s="12"/>
       <c r="H135" s="12"/>
     </row>
-    <row r="136" spans="1:33" ht="28" x14ac:dyDescent="0.3">
-      <c r="C136" s="43" t="s">
+    <row r="136" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C136" s="139" t="s">
         <v>395</v>
       </c>
       <c r="D136" s="43">
@@ -7419,106 +7713,116 @@
       <c r="G136" s="43"/>
       <c r="H136" s="43"/>
     </row>
-    <row r="137" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C137" s="98" t="s">
+    <row r="137" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C137" s="96" t="s">
+        <v>542</v>
+      </c>
+      <c r="D137" s="97"/>
+      <c r="E137" s="97"/>
+      <c r="F137" s="97"/>
+      <c r="G137" s="97"/>
+      <c r="H137" s="98"/>
+    </row>
+    <row r="138" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C138" s="148" t="s">
+        <v>565</v>
+      </c>
+      <c r="D138" s="64">
+        <v>2007</v>
+      </c>
+      <c r="E138" s="64" t="s">
+        <v>566</v>
+      </c>
+      <c r="F138" s="64" t="s">
+        <v>567</v>
+      </c>
+      <c r="G138" s="64" t="s">
+        <v>562</v>
+      </c>
+      <c r="H138" s="64" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="139" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C139" s="149" t="s">
+        <v>375</v>
+      </c>
+      <c r="D139" s="52">
+        <v>2018</v>
+      </c>
+      <c r="E139" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="F139" s="52" t="s">
+        <v>547</v>
+      </c>
+      <c r="G139" s="52" t="s">
+        <v>549</v>
+      </c>
+      <c r="H139" s="52" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="140" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C140" s="150" t="s">
+        <v>368</v>
+      </c>
+      <c r="D140" s="67">
+        <v>2023</v>
+      </c>
+      <c r="E140" s="67" t="s">
+        <v>369</v>
+      </c>
+      <c r="F140" s="67" t="s">
+        <v>439</v>
+      </c>
+      <c r="G140" s="67" t="s">
+        <v>562</v>
+      </c>
+      <c r="H140" s="67"/>
+    </row>
+    <row r="141" spans="1:33" s="14" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="A141" s="155"/>
+      <c r="B141" s="161"/>
+      <c r="C141" s="151" t="s">
+        <v>312</v>
+      </c>
+      <c r="D141" s="62">
+        <v>2023</v>
+      </c>
+      <c r="E141" s="63" t="s">
+        <v>313</v>
+      </c>
+      <c r="F141" s="61" t="s">
         <v>543</v>
       </c>
-      <c r="D137" s="99"/>
-      <c r="E137" s="99"/>
-      <c r="F137" s="99"/>
-      <c r="G137" s="99"/>
-      <c r="H137" s="100"/>
-    </row>
-    <row r="138" spans="1:33" ht="28" x14ac:dyDescent="0.3">
-      <c r="C138" s="66" t="s">
-        <v>566</v>
-      </c>
-      <c r="D138" s="66">
-        <v>2007</v>
-      </c>
-      <c r="E138" s="66" t="s">
-        <v>567</v>
-      </c>
-      <c r="F138" s="66" t="s">
-        <v>568</v>
-      </c>
-      <c r="G138" s="66" t="s">
-        <v>563</v>
-      </c>
-      <c r="H138" s="66" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="139" spans="1:33" ht="28" x14ac:dyDescent="0.3">
-      <c r="C139" s="54" t="s">
-        <v>375</v>
-      </c>
-      <c r="D139" s="54">
-        <v>2018</v>
-      </c>
-      <c r="E139" s="54" t="s">
-        <v>376</v>
-      </c>
-      <c r="F139" s="54" t="s">
-        <v>548</v>
-      </c>
-      <c r="G139" s="54" t="s">
-        <v>550</v>
-      </c>
-      <c r="H139" s="54" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="140" spans="1:33" ht="28" x14ac:dyDescent="0.3">
-      <c r="C140" s="69" t="s">
-        <v>368</v>
-      </c>
-      <c r="D140" s="69">
+      <c r="G141" s="61" t="s">
+        <v>314</v>
+      </c>
+      <c r="H141" s="61" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="143" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="C143" s="45" t="s">
+        <v>708</v>
+      </c>
+      <c r="D143" s="7">
         <v>2023</v>
       </c>
-      <c r="E140" s="69" t="s">
-        <v>369</v>
-      </c>
-      <c r="F140" s="69" t="s">
-        <v>439</v>
-      </c>
-      <c r="G140" s="69" t="s">
-        <v>563</v>
-      </c>
-      <c r="H140" s="69"/>
-    </row>
-    <row r="141" spans="1:33" s="14" customFormat="1" ht="56" x14ac:dyDescent="0.3">
-      <c r="C141" s="63" t="s">
-        <v>312</v>
-      </c>
-      <c r="D141" s="64">
-        <v>2023</v>
-      </c>
-      <c r="E141" s="65" t="s">
-        <v>313</v>
-      </c>
-      <c r="F141" s="63" t="s">
-        <v>544</v>
-      </c>
-      <c r="G141" s="63" t="s">
-        <v>314</v>
-      </c>
-      <c r="H141" s="63" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="145" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C145" s="98" t="s">
+    </row>
+    <row r="145" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C145" s="96" t="s">
         <v>274</v>
       </c>
-      <c r="D145" s="99"/>
-      <c r="E145" s="99"/>
-      <c r="F145" s="99"/>
-      <c r="G145" s="99"/>
-      <c r="H145" s="100"/>
-    </row>
-    <row r="146" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C146" s="7" t="s">
+      <c r="D145" s="97"/>
+      <c r="E145" s="97"/>
+      <c r="F145" s="97"/>
+      <c r="G145" s="97"/>
+      <c r="H145" s="98"/>
+    </row>
+    <row r="146" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C146" s="45" t="s">
         <v>280</v>
       </c>
       <c r="D146" s="7">
@@ -7531,8 +7835,8 @@
         <v>281</v>
       </c>
     </row>
-    <row r="147" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C147" s="7" t="s">
+    <row r="147" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C147" s="45" t="s">
         <v>304</v>
       </c>
       <c r="D147" s="7">
@@ -7545,8 +7849,8 @@
         <v>307</v>
       </c>
     </row>
-    <row r="148" spans="3:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="C148" s="7" t="s">
+    <row r="148" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C148" s="45" t="s">
         <v>308</v>
       </c>
       <c r="D148" s="7">
@@ -7562,8 +7866,8 @@
         <v>311</v>
       </c>
     </row>
-    <row r="149" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C149" s="7" t="s">
+    <row r="149" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C149" s="45" t="s">
         <v>316</v>
       </c>
       <c r="D149" s="7">
@@ -7576,8 +7880,8 @@
         <v>318</v>
       </c>
     </row>
-    <row r="150" spans="3:8" ht="98" x14ac:dyDescent="0.3">
-      <c r="C150" s="7" t="s">
+    <row r="150" spans="3:8" ht="111" x14ac:dyDescent="0.4">
+      <c r="C150" s="45" t="s">
         <v>293</v>
       </c>
       <c r="D150" s="7">
@@ -7596,18 +7900,18 @@
         <v>295</v>
       </c>
     </row>
-    <row r="153" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C153" s="98" t="s">
+    <row r="153" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C153" s="96" t="s">
         <v>449</v>
       </c>
-      <c r="D153" s="99"/>
-      <c r="E153" s="99"/>
-      <c r="F153" s="99"/>
-      <c r="G153" s="99"/>
-      <c r="H153" s="100"/>
-    </row>
-    <row r="154" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C154" s="26" t="s">
+      <c r="D153" s="97"/>
+      <c r="E153" s="97"/>
+      <c r="F153" s="97"/>
+      <c r="G153" s="97"/>
+      <c r="H153" s="98"/>
+    </row>
+    <row r="154" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C154" s="152" t="s">
         <v>377</v>
       </c>
       <c r="D154" s="26">
@@ -7620,8 +7924,8 @@
       <c r="G154" s="26"/>
       <c r="H154" s="26"/>
     </row>
-    <row r="155" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C155" s="26" t="s">
+    <row r="155" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C155" s="152" t="s">
         <v>386</v>
       </c>
       <c r="D155" s="26">
@@ -7636,8 +7940,8 @@
       <c r="G155" s="26"/>
       <c r="H155" s="26"/>
     </row>
-    <row r="156" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C156" s="7" t="s">
+    <row r="156" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C156" s="45" t="s">
         <v>388</v>
       </c>
       <c r="D156" s="7">
@@ -7647,31 +7951,31 @@
         <v>389</v>
       </c>
     </row>
-    <row r="157" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C157" s="7" t="s">
-        <v>526</v>
+    <row r="157" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C157" s="45" t="s">
+        <v>525</v>
       </c>
       <c r="D157" s="7">
         <v>2021</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C71:H71"/>
     <mergeCell ref="C153:H153"/>
     <mergeCell ref="C145:H145"/>
     <mergeCell ref="C89:H89"/>
     <mergeCell ref="C107:H107"/>
     <mergeCell ref="C127:H127"/>
     <mergeCell ref="C137:H137"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C71:H71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7687,70 +7991,70 @@
   <dimension ref="B1:H25"/>
   <sheetViews>
     <sheetView zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.9140625" customWidth="1"/>
+    <col min="2" max="2" width="11.9296875" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" customWidth="1"/>
-    <col min="5" max="5" width="19.25" style="37" customWidth="1"/>
+    <col min="4" max="4" width="24.796875" customWidth="1"/>
+    <col min="5" max="5" width="19.265625" style="37" customWidth="1"/>
     <col min="6" max="6" width="35.33203125" customWidth="1"/>
-    <col min="7" max="7" width="40.5" customWidth="1"/>
+    <col min="7" max="7" width="40.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.4">
       <c r="G1" s="37"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="G2" s="37"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="G3" s="37"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="G4" s="37"/>
     </row>
-    <row r="5" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="2:8" ht="20" x14ac:dyDescent="0.4">
-      <c r="B6" s="110" t="s">
+    <row r="6" spans="2:8" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="108" t="s">
         <v>457</v>
       </c>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="112"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="110"/>
       <c r="G6" s="37"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="58" t="s">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B7" s="56" t="s">
         <v>458</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="55" t="s">
         <v>459</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="55" t="s">
         <v>460</v>
       </c>
-      <c r="E7" s="77" t="s">
+      <c r="E7" s="75" t="s">
         <v>461</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="57" t="s">
         <v>462</v>
       </c>
       <c r="G7" s="37" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="104.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="113" t="s">
-        <v>482</v>
-      </c>
-      <c r="C8" s="97" t="s">
-        <v>571</v>
+    <row r="8" spans="2:8" ht="104.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="111" t="s">
+        <v>481</v>
+      </c>
+      <c r="C8" s="95" t="s">
+        <v>570</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>464</v>
@@ -7758,17 +8062,17 @@
       <c r="E8" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="45" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="91" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="113"/>
-      <c r="C9" s="97" t="s">
-        <v>572</v>
+    <row r="9" spans="2:8" ht="91.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="111"/>
+      <c r="C9" s="95" t="s">
+        <v>571</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>466</v>
@@ -7776,17 +8080,17 @@
       <c r="E9" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="47" t="s">
         <v>468</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="45" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="113"/>
-      <c r="C10" s="117" t="s">
-        <v>573</v>
+    <row r="10" spans="2:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="111"/>
+      <c r="C10" s="115" t="s">
+        <v>572</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>469</v>
@@ -7794,286 +8098,286 @@
       <c r="E10" s="28" t="s">
         <v>470</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="96.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="111"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="27" t="s">
         <v>471</v>
       </c>
-      <c r="G10" s="47" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="96.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="113"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="27" t="s">
+      <c r="E11" s="28" t="s">
         <v>472</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="F11" s="48" t="s">
         <v>473</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="G11" s="45" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="109.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="111"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="27" t="s">
         <v>474</v>
       </c>
-      <c r="G11" s="47" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="109" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="113"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="27" t="s">
+      <c r="E12" s="28" t="s">
         <v>475</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="F12" s="48" t="s">
         <v>476</v>
       </c>
-      <c r="F12" s="50" t="s">
+      <c r="G12" s="46" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="89" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="111"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="28" t="s">
         <v>477</v>
       </c>
-      <c r="G12" s="48" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="89" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="113"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="28" t="s">
+      <c r="E13" s="28" t="s">
         <v>478</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="F13" s="48" t="s">
         <v>479</v>
       </c>
-      <c r="F13" s="50" t="s">
+      <c r="G13" s="46" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B14" s="111"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="27" t="s">
         <v>480</v>
-      </c>
-      <c r="G13" s="48" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="B14" s="113"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="27" t="s">
-        <v>481</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F14" s="49" t="s">
+      <c r="F14" s="47" t="s">
         <v>291</v>
       </c>
-      <c r="G14" s="47" t="s">
+      <c r="G14" s="45" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="84" x14ac:dyDescent="0.3">
-      <c r="B15" s="113" t="s">
-        <v>520</v>
+    <row r="15" spans="2:8" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="B15" s="111" t="s">
+        <v>519</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D15" s="28" t="s">
+        <v>494</v>
+      </c>
+      <c r="E15" s="28" t="s">
         <v>495</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="F15" s="48" t="s">
         <v>496</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="G15" s="37" t="s">
         <v>497</v>
       </c>
-      <c r="G15" s="37" t="s">
-        <v>498</v>
-      </c>
       <c r="H15" s="28" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="B16" s="113"/>
-      <c r="C16" s="117" t="s">
-        <v>576</v>
+        <v>515</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="B16" s="111"/>
+      <c r="C16" s="115" t="s">
+        <v>575</v>
       </c>
       <c r="D16" s="27" t="s">
         <v>451</v>
       </c>
       <c r="E16" s="28" t="s">
+        <v>503</v>
+      </c>
+      <c r="F16" s="48" t="s">
         <v>504</v>
       </c>
-      <c r="F16" s="50" t="s">
-        <v>505</v>
-      </c>
       <c r="G16" s="37" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H16" s="28" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="B17" s="111"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="28" t="s">
+        <v>514</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="F17" s="48" t="s">
+        <v>484</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="H17" s="28" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="70" x14ac:dyDescent="0.3">
-      <c r="B17" s="113"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="28" t="s">
-        <v>515</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>513</v>
-      </c>
-      <c r="F17" s="50" t="s">
-        <v>485</v>
-      </c>
-      <c r="G17" s="37" t="s">
-        <v>503</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="B18" s="113"/>
-      <c r="C18" s="118"/>
+    <row r="18" spans="2:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="B18" s="111"/>
+      <c r="C18" s="116"/>
       <c r="D18" s="27" t="s">
         <v>454</v>
       </c>
       <c r="E18" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="F18" s="48" t="s">
         <v>507</v>
       </c>
-      <c r="F18" s="50" t="s">
+      <c r="G18" s="37" t="s">
+        <v>500</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="B19" s="111"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="F19" s="48" t="s">
+        <v>491</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>487</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="97.15" x14ac:dyDescent="0.4">
+      <c r="B20" s="111"/>
+      <c r="C20" s="115" t="s">
+        <v>574</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>513</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="F20" s="48" t="s">
+        <v>505</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="69.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="111"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="27" t="s">
+        <v>480</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="F21" s="48" t="s">
         <v>508</v>
       </c>
-      <c r="G18" s="37" t="s">
+      <c r="G21" s="37" t="s">
         <v>501</v>
       </c>
-      <c r="H18" s="28" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="70" x14ac:dyDescent="0.3">
-      <c r="B19" s="113"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="28" t="s">
-        <v>487</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="F19" s="50" t="s">
-        <v>492</v>
-      </c>
-      <c r="G19" s="37" t="s">
-        <v>488</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="84" x14ac:dyDescent="0.3">
-      <c r="B20" s="113"/>
-      <c r="C20" s="117" t="s">
-        <v>575</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>514</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="F20" s="50" t="s">
-        <v>506</v>
-      </c>
-      <c r="G20" s="37" t="s">
-        <v>500</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="69.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="113"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="27" t="s">
-        <v>481</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>512</v>
-      </c>
-      <c r="F21" s="50" t="s">
-        <v>509</v>
-      </c>
-      <c r="G21" s="37" t="s">
-        <v>502</v>
-      </c>
       <c r="H21" s="28" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="B22" s="114" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B22" s="112" t="s">
         <v>136</v>
       </c>
-      <c r="C22" s="117" t="s">
+      <c r="C22" s="115" t="s">
         <v>204</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>454</v>
       </c>
       <c r="E22" s="28" t="s">
+        <v>550</v>
+      </c>
+      <c r="F22" s="48" t="s">
         <v>551</v>
       </c>
-      <c r="F22" s="50" t="s">
+      <c r="G22" s="37" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B23" s="113"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="28" t="s">
+        <v>558</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>559</v>
+      </c>
+      <c r="F23" s="48" t="s">
+        <v>557</v>
+      </c>
+      <c r="G23" s="37" t="s">
         <v>552</v>
       </c>
-      <c r="G22" s="37" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="B23" s="115"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="28" t="s">
-        <v>559</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>560</v>
-      </c>
-      <c r="F23" s="50" t="s">
-        <v>558</v>
-      </c>
-      <c r="G23" s="37" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="B24" s="115"/>
-      <c r="C24" s="117" t="s">
-        <v>577</v>
-      </c>
-      <c r="D24" s="67" t="s">
-        <v>481</v>
-      </c>
-      <c r="E24" s="67" t="s">
+    </row>
+    <row r="24" spans="2:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B24" s="113"/>
+      <c r="C24" s="115" t="s">
+        <v>576</v>
+      </c>
+      <c r="D24" s="65" t="s">
+        <v>480</v>
+      </c>
+      <c r="E24" s="65" t="s">
+        <v>581</v>
+      </c>
+      <c r="F24" s="66" t="s">
         <v>582</v>
-      </c>
-      <c r="F24" s="68" t="s">
-        <v>583</v>
       </c>
       <c r="G24" s="30" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="116"/>
-      <c r="C25" s="120"/>
-      <c r="D25" s="61" t="s">
-        <v>547</v>
-      </c>
-      <c r="E25" s="61" t="s">
-        <v>549</v>
-      </c>
-      <c r="F25" s="62" t="s">
-        <v>545</v>
+    <row r="25" spans="2:8" ht="42" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="114"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="59" t="s">
+        <v>546</v>
+      </c>
+      <c r="E25" s="59" t="s">
+        <v>548</v>
+      </c>
+      <c r="F25" s="60" t="s">
+        <v>544</v>
       </c>
       <c r="G25" s="37" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -8102,216 +8406,216 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="14.9140625" customWidth="1"/>
-    <col min="3" max="3" width="21.4140625" customWidth="1"/>
-    <col min="4" max="4" width="20.9140625" customWidth="1"/>
-    <col min="5" max="5" width="25.58203125" customWidth="1"/>
-    <col min="6" max="6" width="41.25" customWidth="1"/>
-    <col min="7" max="7" width="15.58203125" customWidth="1"/>
+    <col min="2" max="2" width="14.9296875" customWidth="1"/>
+    <col min="3" max="3" width="21.3984375" customWidth="1"/>
+    <col min="4" max="4" width="20.9296875" customWidth="1"/>
+    <col min="5" max="5" width="25.59765625" customWidth="1"/>
+    <col min="6" max="6" width="41.265625" customWidth="1"/>
+    <col min="7" max="7" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:7" ht="20" x14ac:dyDescent="0.4">
-      <c r="B5" s="110" t="s">
+    <row r="4" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="2:7" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="108" t="s">
         <v>446</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="112"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="58" t="s">
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="110"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="56" t="s">
         <v>458</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="55" t="s">
         <v>459</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="55" t="s">
+        <v>528</v>
+      </c>
+      <c r="E6" s="57" t="s">
         <v>529</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="F6" t="s">
         <v>530</v>
       </c>
-      <c r="F6" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="B7" s="113" t="s">
-        <v>482</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>573</v>
+    </row>
+    <row r="7" spans="2:7" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B7" s="111" t="s">
+        <v>481</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>572</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="E7" s="56" t="s">
-        <v>532</v>
-      </c>
-      <c r="F7" s="48" t="s">
+      <c r="E7" s="54" t="s">
+        <v>531</v>
+      </c>
+      <c r="F7" s="46" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="B8" s="113"/>
+    <row r="8" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B8" s="111"/>
       <c r="C8" s="28" t="s">
+        <v>577</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>703</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>563</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B9" s="111"/>
+      <c r="C9" s="28" t="s">
         <v>578</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>704</v>
-      </c>
-      <c r="E8" s="56" t="s">
-        <v>564</v>
-      </c>
-      <c r="F8" s="48" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="B9" s="113"/>
-      <c r="C9" s="28" t="s">
-        <v>579</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="48" t="s">
+        <v>532</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B10" s="111"/>
+      <c r="C10" s="53" t="s">
+        <v>572</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>537</v>
+      </c>
+      <c r="E10" s="48" t="s">
         <v>533</v>
       </c>
-      <c r="F9" s="48" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B10" s="113"/>
-      <c r="C10" s="55" t="s">
-        <v>573</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>538</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>534</v>
-      </c>
-      <c r="F10" s="60" t="s">
+      <c r="F10" s="58" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B11" s="113"/>
+    <row r="11" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B11" s="111"/>
       <c r="C11" s="28" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="48" t="s">
+        <v>534</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="B12" s="111"/>
+      <c r="C12" s="28" t="s">
+        <v>579</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>536</v>
+      </c>
+      <c r="E12" s="48" t="s">
         <v>535</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="F12" s="46" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B13" s="111" t="s">
+        <v>519</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>524</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>520</v>
+      </c>
+      <c r="G13" s="28" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B12" s="113"/>
-      <c r="C12" s="28" t="s">
+    <row r="14" spans="2:7" ht="55.9" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="111"/>
+      <c r="C14" s="28" t="s">
         <v>580</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>537</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>536</v>
-      </c>
-      <c r="F12" s="48" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B13" s="113" t="s">
-        <v>520</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>575</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>542</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>525</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>521</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="113"/>
-      <c r="C14" s="28" t="s">
-        <v>581</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="E14" s="50" t="s">
-        <v>523</v>
-      </c>
-      <c r="F14" s="48" t="s">
-        <v>584</v>
-      </c>
-      <c r="G14" s="51" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B15" s="113" t="s">
+      <c r="E14" s="48" t="s">
+        <v>522</v>
+      </c>
+      <c r="F14" s="46" t="s">
+        <v>583</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B15" s="111" t="s">
         <v>136</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D15" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="E15" s="50" t="s">
-        <v>569</v>
+      <c r="E15" s="48" t="s">
+        <v>568</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B16" s="113"/>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B16" s="111"/>
       <c r="C16" s="28" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D16" s="28" t="s">
+        <v>585</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>584</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="42" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="119"/>
+      <c r="C17" s="49" t="s">
+        <v>542</v>
+      </c>
+      <c r="D17" s="69" t="s">
+        <v>536</v>
+      </c>
+      <c r="E17" s="70" t="s">
         <v>586</v>
       </c>
-      <c r="E16" s="50" t="s">
-        <v>585</v>
-      </c>
-      <c r="F16" s="47" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="121"/>
-      <c r="C17" s="51" t="s">
-        <v>543</v>
-      </c>
-      <c r="D17" s="71" t="s">
-        <v>537</v>
-      </c>
-      <c r="E17" s="72" t="s">
-        <v>587</v>
-      </c>
-      <c r="F17" s="70" t="s">
+      <c r="F17" s="68" t="s">
         <v>312</v>
       </c>
     </row>
@@ -8336,194 +8640,194 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="6" width="16.1640625" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="20.58203125" customWidth="1"/>
-    <col min="9" max="9" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="14.1328125" customWidth="1"/>
+    <col min="5" max="6" width="16.1328125" customWidth="1"/>
+    <col min="7" max="7" width="15.73046875" customWidth="1"/>
+    <col min="8" max="8" width="20.59765625" customWidth="1"/>
+    <col min="9" max="9" width="22.46484375" customWidth="1"/>
     <col min="10" max="10" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="2:10" ht="20" x14ac:dyDescent="0.4">
-      <c r="D8" s="122" t="s">
+    <row r="7" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:10" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8" s="120" t="s">
         <v>457</v>
       </c>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="124"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="58" t="s">
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="122"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="56" t="s">
         <v>458</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="55" t="s">
         <v>459</v>
       </c>
-      <c r="F9" s="57" t="s">
-        <v>531</v>
-      </c>
-      <c r="G9" s="57" t="s">
+      <c r="F9" s="55" t="s">
+        <v>530</v>
+      </c>
+      <c r="G9" s="55" t="s">
         <v>460</v>
       </c>
-      <c r="H9" s="77" t="s">
+      <c r="H9" s="75" t="s">
         <v>461</v>
       </c>
-      <c r="I9" s="59" t="s">
+      <c r="I9" s="57" t="s">
         <v>462</v>
       </c>
       <c r="J9" s="37" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="42" x14ac:dyDescent="0.3">
-      <c r="D10" s="113" t="s">
-        <v>647</v>
-      </c>
-      <c r="E10" s="117" t="s">
-        <v>588</v>
+    <row r="10" spans="2:10" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="D10" s="111" t="s">
+        <v>646</v>
+      </c>
+      <c r="E10" s="115" t="s">
+        <v>587</v>
       </c>
       <c r="F10" s="28">
         <v>1</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>592</v>
-      </c>
-      <c r="I10" s="50" t="s">
-        <v>589</v>
-      </c>
-      <c r="J10" s="48" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="D11" s="113"/>
-      <c r="E11" s="118"/>
+      <c r="I10" s="48" t="s">
+        <v>588</v>
+      </c>
+      <c r="J10" s="46" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D11" s="111"/>
+      <c r="E11" s="116"/>
       <c r="F11" s="28">
         <v>2</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>597</v>
-      </c>
-      <c r="I11" s="50" t="s">
-        <v>595</v>
-      </c>
-      <c r="J11" s="48" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="D12" s="113"/>
-      <c r="E12" s="118"/>
+        <v>596</v>
+      </c>
+      <c r="I11" s="48" t="s">
+        <v>594</v>
+      </c>
+      <c r="J11" s="46" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D12" s="111"/>
+      <c r="E12" s="116"/>
       <c r="F12" s="28">
         <v>3</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>454</v>
       </c>
-      <c r="H12" s="55" t="s">
-        <v>600</v>
-      </c>
-      <c r="I12" s="56" t="s">
+      <c r="H12" s="53" t="s">
         <v>599</v>
       </c>
-      <c r="J12" s="48" t="s">
+      <c r="I12" s="54" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="D13" s="113"/>
-      <c r="E13" s="119"/>
+      <c r="J12" s="46" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D13" s="111"/>
+      <c r="E13" s="117"/>
       <c r="F13" s="28">
         <v>4</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>605</v>
-      </c>
-      <c r="I13" s="56" t="s">
-        <v>599</v>
-      </c>
-      <c r="J13" s="48" t="s">
+        <v>604</v>
+      </c>
+      <c r="I13" s="54" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" ht="42" x14ac:dyDescent="0.3">
-      <c r="D14" s="113"/>
-      <c r="E14" s="117" t="s">
-        <v>604</v>
+      <c r="J13" s="46" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="D14" s="111"/>
+      <c r="E14" s="115" t="s">
+        <v>603</v>
       </c>
       <c r="F14" s="28">
         <v>5</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>607</v>
-      </c>
-      <c r="I14" s="56" t="s">
-        <v>609</v>
-      </c>
-      <c r="J14" s="48" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="42" x14ac:dyDescent="0.3">
-      <c r="D15" s="113"/>
-      <c r="E15" s="118"/>
+        <v>606</v>
+      </c>
+      <c r="I14" s="54" t="s">
+        <v>608</v>
+      </c>
+      <c r="J14" s="46" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="D15" s="111"/>
+      <c r="E15" s="116"/>
       <c r="F15" s="28">
         <v>6</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>632</v>
-      </c>
-      <c r="I15" s="56" t="s">
-        <v>609</v>
-      </c>
-      <c r="J15" s="48" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="42" x14ac:dyDescent="0.3">
-      <c r="D16" s="113"/>
-      <c r="E16" s="118"/>
+        <v>631</v>
+      </c>
+      <c r="I15" s="54" t="s">
+        <v>608</v>
+      </c>
+      <c r="J15" s="46" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="D16" s="111"/>
+      <c r="E16" s="116"/>
       <c r="F16" s="28">
         <v>7</v>
       </c>
       <c r="G16" s="28" t="s">
+        <v>650</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>651</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="I16" s="47" t="s">
         <v>652</v>
       </c>
-      <c r="I16" s="49" t="s">
-        <v>653</v>
-      </c>
-      <c r="J16" s="47" t="s">
+      <c r="J16" s="45" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="4:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="D17" s="113"/>
-      <c r="E17" s="118"/>
+    <row r="17" spans="4:10" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D17" s="111"/>
+      <c r="E17" s="116"/>
       <c r="F17" s="28">
         <v>8</v>
       </c>
@@ -8531,37 +8835,37 @@
         <v>454</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>613</v>
-      </c>
-      <c r="I17" s="50" t="s">
-        <v>617</v>
-      </c>
-      <c r="J17" s="48" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="18" spans="4:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="D18" s="113"/>
-      <c r="E18" s="118"/>
+        <v>612</v>
+      </c>
+      <c r="I17" s="48" t="s">
+        <v>616</v>
+      </c>
+      <c r="J17" s="46" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D18" s="111"/>
+      <c r="E18" s="116"/>
       <c r="F18" s="28">
         <v>9</v>
       </c>
       <c r="G18" s="28" t="s">
+        <v>617</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>612</v>
+      </c>
+      <c r="I18" s="48" t="s">
+        <v>616</v>
+      </c>
+      <c r="J18" s="46" t="s">
         <v>618</v>
       </c>
-      <c r="H18" s="28" t="s">
-        <v>613</v>
-      </c>
-      <c r="I18" s="50" t="s">
-        <v>617</v>
-      </c>
-      <c r="J18" s="48" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="19" spans="4:10" ht="42" x14ac:dyDescent="0.3">
-      <c r="D19" s="113"/>
-      <c r="E19" s="118"/>
+    </row>
+    <row r="19" spans="4:10" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="D19" s="111"/>
+      <c r="E19" s="116"/>
       <c r="F19" s="28">
         <v>10</v>
       </c>
@@ -8569,18 +8873,18 @@
         <v>454</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>615</v>
-      </c>
-      <c r="I19" s="50" t="s">
-        <v>617</v>
-      </c>
-      <c r="J19" s="48" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="20" spans="4:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="D20" s="113"/>
-      <c r="E20" s="118"/>
+        <v>614</v>
+      </c>
+      <c r="I19" s="48" t="s">
+        <v>616</v>
+      </c>
+      <c r="J19" s="46" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="D20" s="111"/>
+      <c r="E20" s="116"/>
       <c r="F20" s="28">
         <v>11</v>
       </c>
@@ -8588,171 +8892,171 @@
         <v>454</v>
       </c>
       <c r="H20" s="28" t="s">
+        <v>624</v>
+      </c>
+      <c r="I20" s="48" t="s">
         <v>625</v>
       </c>
-      <c r="I20" s="50" t="s">
+      <c r="J20" s="46" t="s">
         <v>626</v>
       </c>
-      <c r="J20" s="48" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="21" spans="4:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="D21" s="113"/>
-      <c r="E21" s="118"/>
+    </row>
+    <row r="21" spans="4:10" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="D21" s="111"/>
+      <c r="E21" s="116"/>
       <c r="F21" s="28">
         <v>12</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>636</v>
-      </c>
-      <c r="I21" s="50" t="s">
-        <v>638</v>
-      </c>
-      <c r="J21" s="48" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="22" spans="4:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="D22" s="113"/>
-      <c r="E22" s="119"/>
+        <v>635</v>
+      </c>
+      <c r="I21" s="48" t="s">
+        <v>637</v>
+      </c>
+      <c r="J21" s="46" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D22" s="111"/>
+      <c r="E22" s="117"/>
       <c r="F22" s="28">
         <v>13</v>
       </c>
       <c r="G22" s="28" t="s">
+        <v>639</v>
+      </c>
+      <c r="H22" s="28" t="s">
         <v>640</v>
       </c>
-      <c r="H22" s="28" t="s">
+      <c r="I22" s="48" t="s">
         <v>641</v>
       </c>
-      <c r="I22" s="50" t="s">
+      <c r="J22" s="46" t="s">
         <v>642</v>
       </c>
-      <c r="J22" s="48" t="s">
+    </row>
+    <row r="23" spans="4:10" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="D23" s="111"/>
+      <c r="E23" s="95" t="s">
         <v>643</v>
-      </c>
-    </row>
-    <row r="23" spans="4:10" ht="56" x14ac:dyDescent="0.3">
-      <c r="D23" s="113"/>
-      <c r="E23" s="97" t="s">
-        <v>644</v>
       </c>
       <c r="F23" s="28">
         <v>14</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H23" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="I23" s="50" t="s">
+      <c r="I23" s="48" t="s">
         <v>272</v>
       </c>
-      <c r="J23" s="48" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="24" spans="4:10" ht="42" x14ac:dyDescent="0.3">
-      <c r="D24" s="113" t="s">
-        <v>685</v>
-      </c>
-      <c r="E24" s="117" t="s">
-        <v>663</v>
+      <c r="J23" s="46" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="D24" s="111" t="s">
+        <v>684</v>
+      </c>
+      <c r="E24" s="115" t="s">
+        <v>662</v>
       </c>
       <c r="F24" s="28">
         <v>15</v>
       </c>
       <c r="G24" s="28" t="s">
+        <v>664</v>
+      </c>
+      <c r="H24" s="28" t="s">
         <v>665</v>
       </c>
-      <c r="H24" s="28" t="s">
+      <c r="I24" s="48" t="s">
         <v>666</v>
       </c>
-      <c r="I24" s="50" t="s">
-        <v>667</v>
-      </c>
       <c r="J24" s="37" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="25" spans="4:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="D25" s="113"/>
-      <c r="E25" s="118"/>
+        <v>663</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="D25" s="111"/>
+      <c r="E25" s="116"/>
       <c r="F25" s="28">
         <v>16</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>675</v>
-      </c>
-      <c r="I25" s="50" t="s">
-        <v>671</v>
+        <v>674</v>
+      </c>
+      <c r="I25" s="48" t="s">
+        <v>670</v>
       </c>
       <c r="J25" s="37" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="26" spans="4:10" ht="56" x14ac:dyDescent="0.3">
-      <c r="D26" s="113"/>
-      <c r="E26" s="118"/>
+        <v>668</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="D26" s="111"/>
+      <c r="E26" s="116"/>
       <c r="F26" s="28">
         <v>17</v>
       </c>
       <c r="G26" s="28" t="s">
+        <v>696</v>
+      </c>
+      <c r="H26" s="28" t="s">
         <v>697</v>
       </c>
-      <c r="H26" s="28" t="s">
-        <v>698</v>
-      </c>
-      <c r="I26" s="50" t="s">
-        <v>696</v>
+      <c r="I26" s="48" t="s">
+        <v>695</v>
       </c>
       <c r="J26" s="37" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="27" spans="4:10" ht="42" x14ac:dyDescent="0.3">
-      <c r="D27" s="113"/>
-      <c r="E27" s="118"/>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="27" spans="4:10" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="D27" s="111"/>
+      <c r="E27" s="116"/>
       <c r="F27" s="28">
         <v>18</v>
       </c>
       <c r="G27" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="H27" s="28" t="s">
         <v>682</v>
       </c>
-      <c r="H27" s="28" t="s">
+      <c r="I27" s="93" t="s">
         <v>683</v>
       </c>
-      <c r="I27" s="95" t="s">
-        <v>684</v>
-      </c>
-      <c r="J27" s="48" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="28" spans="4:10" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D28" s="121"/>
-      <c r="E28" s="120"/>
+      <c r="J27" s="46" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10" ht="42" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D28" s="119"/>
+      <c r="E28" s="118"/>
       <c r="F28" s="28">
         <v>19</v>
       </c>
-      <c r="G28" s="51" t="s">
+      <c r="G28" s="49" t="s">
         <v>454</v>
       </c>
-      <c r="H28" s="51" t="s">
-        <v>689</v>
-      </c>
-      <c r="I28" s="72" t="s">
-        <v>687</v>
+      <c r="H28" s="49" t="s">
+        <v>688</v>
+      </c>
+      <c r="I28" s="70" t="s">
+        <v>686</v>
       </c>
       <c r="J28" s="37" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
   </sheetData>
@@ -8773,180 +9077,180 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3F6B80-8172-4F79-9600-6FDEB5D9C203}">
   <dimension ref="C5:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="4" max="4" width="20.265625" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="25.25" customWidth="1"/>
-    <col min="7" max="7" width="43.9140625" customWidth="1"/>
+    <col min="6" max="6" width="25.265625" customWidth="1"/>
+    <col min="7" max="7" width="43.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="3:7" ht="20" x14ac:dyDescent="0.4">
-      <c r="C6" s="122" t="s">
+    <row r="5" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="3:7" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="120" t="s">
         <v>446</v>
       </c>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="124"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="122"/>
       <c r="G6" s="37"/>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C7" s="84" t="s">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C7" s="82" t="s">
         <v>458</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="75" t="s">
         <v>459</v>
       </c>
-      <c r="E7" s="77" t="s">
+      <c r="E7" s="75" t="s">
+        <v>528</v>
+      </c>
+      <c r="F7" s="83" t="s">
         <v>529</v>
       </c>
-      <c r="F7" s="85" t="s">
+      <c r="G7" s="37" t="s">
         <v>530</v>
       </c>
-      <c r="G7" s="37" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="C8" s="113" t="s">
+    </row>
+    <row r="8" spans="3:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C8" s="111" t="s">
+        <v>646</v>
+      </c>
+      <c r="D8" s="115" t="s">
+        <v>603</v>
+      </c>
+      <c r="E8" s="28" t="s">
         <v>647</v>
       </c>
-      <c r="D8" s="117" t="s">
-        <v>604</v>
-      </c>
-      <c r="E8" s="28" t="s">
+      <c r="F8" s="54" t="s">
+        <v>649</v>
+      </c>
+      <c r="G8" s="46" t="s">
         <v>648</v>
       </c>
-      <c r="F8" s="56" t="s">
-        <v>650</v>
-      </c>
-      <c r="G8" s="48" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="C9" s="113"/>
-      <c r="D9" s="119"/>
+    </row>
+    <row r="9" spans="3:7" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C9" s="111"/>
+      <c r="D9" s="117"/>
       <c r="E9" s="28" t="s">
-        <v>703</v>
-      </c>
-      <c r="F9" s="56" t="s">
+        <v>702</v>
+      </c>
+      <c r="F9" s="54" t="s">
+        <v>657</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C10" s="111"/>
+      <c r="D10" s="115" t="s">
+        <v>587</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>655</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>656</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C11" s="111"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="28" t="s">
         <v>658</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="F11" s="48" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C10" s="113"/>
-      <c r="D10" s="117" t="s">
-        <v>588</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>656</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>657</v>
-      </c>
-      <c r="G10" s="47" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="C11" s="113"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="28" t="s">
-        <v>659</v>
-      </c>
-      <c r="F11" s="50" t="s">
-        <v>655</v>
-      </c>
-      <c r="G11" s="47" t="s">
+      <c r="G11" s="45" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="3:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="C12" s="113"/>
-      <c r="D12" s="119"/>
+    <row r="12" spans="3:7" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C12" s="111"/>
+      <c r="D12" s="117"/>
       <c r="E12" s="28" t="s">
-        <v>659</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>655</v>
-      </c>
-      <c r="G12" s="96" t="s">
+        <v>658</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>654</v>
+      </c>
+      <c r="G12" s="94" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="13" spans="3:7" ht="56" x14ac:dyDescent="0.3">
-      <c r="C13" s="113" t="s">
-        <v>685</v>
-      </c>
-      <c r="D13" s="117" t="s">
-        <v>663</v>
+    <row r="13" spans="3:7" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C13" s="111" t="s">
+        <v>684</v>
+      </c>
+      <c r="D13" s="115" t="s">
+        <v>662</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>699</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>702</v>
+        <v>698</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>701</v>
       </c>
       <c r="G13" s="37" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C14" s="111"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="27" t="s">
+        <v>693</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>694</v>
+      </c>
+      <c r="G14" s="37" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="14" spans="3:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="C14" s="113"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="27" t="s">
-        <v>694</v>
-      </c>
-      <c r="F14" s="50" t="s">
-        <v>695</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="C15" s="113"/>
-      <c r="D15" s="118"/>
+    <row r="15" spans="3:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C15" s="111"/>
+      <c r="D15" s="116"/>
       <c r="E15" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="F15" s="50" t="s">
-        <v>701</v>
+      <c r="F15" s="48" t="s">
+        <v>700</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="C16" s="113"/>
-      <c r="D16" s="118"/>
+        <v>692</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C16" s="111"/>
+      <c r="D16" s="116"/>
       <c r="E16" s="27" t="s">
+        <v>705</v>
+      </c>
+      <c r="F16" s="48" t="s">
+        <v>704</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" ht="42" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C17" s="119"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="27" t="s">
         <v>706</v>
       </c>
-      <c r="F16" s="50" t="s">
-        <v>705</v>
-      </c>
-      <c r="G16" s="37" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="121"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="27" t="s">
+      <c r="F17" s="70" t="s">
         <v>707</v>
-      </c>
-      <c r="F17" s="72" t="s">
-        <v>708</v>
       </c>
       <c r="G17" s="37" t="s">
         <v>395</v>
@@ -8966,7 +9270,322 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6FED96-B02C-4C68-8AE8-637A87A3F611}">
+  <dimension ref="C1:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="64.86328125" style="165" customWidth="1"/>
+    <col min="4" max="4" width="50.19921875" style="166" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" style="166" customWidth="1"/>
+    <col min="6" max="6" width="40.1328125" style="166" customWidth="1"/>
+    <col min="7" max="7" width="19.3984375" style="166" customWidth="1"/>
+    <col min="8" max="8" width="29.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:8" s="37" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C1" s="165"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+    </row>
+    <row r="2" spans="3:8" s="37" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="165"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+    </row>
+    <row r="3" spans="3:8" s="37" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="165"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+    </row>
+    <row r="4" spans="3:8" s="37" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C4" s="165"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+    </row>
+    <row r="5" spans="3:8" s="37" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="169" t="s">
+        <v>709</v>
+      </c>
+      <c r="D5" s="170" t="s">
+        <v>710</v>
+      </c>
+      <c r="E5" s="170" t="s">
+        <v>711</v>
+      </c>
+      <c r="F5" s="170" t="s">
+        <v>712</v>
+      </c>
+      <c r="G5" s="170" t="s">
+        <v>713</v>
+      </c>
+      <c r="H5" s="171" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" s="37" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C6" s="172" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6" s="168" t="s">
+        <v>716</v>
+      </c>
+      <c r="E6" s="168" t="s">
+        <v>715</v>
+      </c>
+      <c r="F6" s="168" t="s">
+        <v>714</v>
+      </c>
+      <c r="G6" s="168" t="s">
+        <v>718</v>
+      </c>
+      <c r="H6" s="173" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" s="37" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="172" t="s">
+        <v>719</v>
+      </c>
+      <c r="D7" s="177" t="s">
+        <v>720</v>
+      </c>
+      <c r="E7" s="178"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="178"/>
+      <c r="H7" s="179"/>
+    </row>
+    <row r="8" spans="3:8" s="37" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C8" s="172" t="s">
+        <v>238</v>
+      </c>
+      <c r="D8" s="168" t="s">
+        <v>721</v>
+      </c>
+      <c r="E8" s="168" t="s">
+        <v>722</v>
+      </c>
+      <c r="F8" s="168" t="s">
+        <v>723</v>
+      </c>
+      <c r="G8" s="168" t="s">
+        <v>724</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" s="37" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C9" s="172" t="s">
+        <v>334</v>
+      </c>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="48"/>
+    </row>
+    <row r="10" spans="3:8" s="37" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="174" t="s">
+        <v>436</v>
+      </c>
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="48"/>
+    </row>
+    <row r="11" spans="3:8" s="37" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C11" s="172" t="s">
+        <v>329</v>
+      </c>
+      <c r="D11" s="168" t="s">
+        <v>729</v>
+      </c>
+      <c r="E11" s="168" t="s">
+        <v>727</v>
+      </c>
+      <c r="F11" s="168"/>
+      <c r="G11" s="48" t="s">
+        <v>728</v>
+      </c>
+      <c r="H11" s="48"/>
+    </row>
+    <row r="12" spans="3:8" s="37" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C12" s="172" t="s">
+        <v>399</v>
+      </c>
+      <c r="D12" s="168"/>
+      <c r="E12" s="168"/>
+      <c r="F12" s="168"/>
+      <c r="G12" s="168"/>
+      <c r="H12" s="48"/>
+    </row>
+    <row r="13" spans="3:8" s="37" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C13" s="172" t="s">
+        <v>412</v>
+      </c>
+      <c r="D13" s="168"/>
+      <c r="E13" s="168"/>
+      <c r="F13" s="168"/>
+      <c r="G13" s="168"/>
+      <c r="H13" s="48"/>
+    </row>
+    <row r="14" spans="3:8" s="37" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C14" s="172" t="s">
+        <v>409</v>
+      </c>
+      <c r="D14" s="168"/>
+      <c r="E14" s="168"/>
+      <c r="F14" s="168"/>
+      <c r="G14" s="168"/>
+      <c r="H14" s="48"/>
+    </row>
+    <row r="15" spans="3:8" s="37" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C15" s="174" t="s">
+        <v>324</v>
+      </c>
+      <c r="D15" s="168"/>
+      <c r="E15" s="168"/>
+      <c r="F15" s="168"/>
+      <c r="G15" s="168"/>
+      <c r="H15" s="48"/>
+    </row>
+    <row r="16" spans="3:8" s="37" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C16" s="174" t="s">
+        <v>414</v>
+      </c>
+      <c r="D16" s="168"/>
+      <c r="E16" s="168"/>
+      <c r="F16" s="168"/>
+      <c r="G16" s="168"/>
+      <c r="H16" s="48"/>
+    </row>
+    <row r="17" spans="3:8" s="37" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C17" s="174" t="s">
+        <v>364</v>
+      </c>
+      <c r="D17" s="168"/>
+      <c r="E17" s="168"/>
+      <c r="F17" s="168"/>
+      <c r="G17" s="168"/>
+      <c r="H17" s="48"/>
+    </row>
+    <row r="18" spans="3:8" s="37" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C18" s="172" t="s">
+        <v>287</v>
+      </c>
+      <c r="D18" s="168"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="168"/>
+      <c r="H18" s="48"/>
+    </row>
+    <row r="19" spans="3:8" s="37" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C19" s="172" t="s">
+        <v>366</v>
+      </c>
+      <c r="D19" s="168"/>
+      <c r="E19" s="168"/>
+      <c r="F19" s="168"/>
+      <c r="G19" s="168"/>
+      <c r="H19" s="48"/>
+    </row>
+    <row r="20" spans="3:8" s="37" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C20" s="172" t="s">
+        <v>443</v>
+      </c>
+      <c r="D20" s="168"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="168"/>
+      <c r="H20" s="48"/>
+    </row>
+    <row r="21" spans="3:8" s="37" customFormat="1" ht="28.15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C21" s="175" t="s">
+        <v>384</v>
+      </c>
+      <c r="D21" s="176"/>
+      <c r="E21" s="176"/>
+      <c r="F21" s="176"/>
+      <c r="G21" s="176"/>
+      <c r="H21" s="70"/>
+    </row>
+    <row r="22" spans="3:8" s="37" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C22" s="165"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="167"/>
+      <c r="F22" s="167"/>
+      <c r="G22" s="167"/>
+    </row>
+    <row r="23" spans="3:8" s="37" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C23" s="165"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="167"/>
+    </row>
+    <row r="24" spans="3:8" s="37" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C24" s="165"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="167"/>
+    </row>
+    <row r="25" spans="3:8" s="37" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C25" s="165"/>
+      <c r="D25" s="167"/>
+      <c r="E25" s="167"/>
+      <c r="F25" s="167"/>
+      <c r="G25" s="167"/>
+    </row>
+    <row r="26" spans="3:8" s="37" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C26" s="165"/>
+      <c r="D26" s="167"/>
+      <c r="E26" s="167"/>
+      <c r="F26" s="167"/>
+      <c r="G26" s="167"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D7:H7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="74117954-47dd-4623-be10-f2d34b3fe6e8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100650C27B66691BA4BB901C940018B449F" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="856977a71e7c379887d8f02f6ee17dc3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="74117954-47dd-4623-be10-f2d34b3fe6e8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f93a31a691d6cd74e693f1feb46bcb1" ns3:_="">
     <xsd:import namespace="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
@@ -9110,37 +9729,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="74117954-47dd-4623-be10-f2d34b3fe6e8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{411558D9-DEA1-49BF-987E-1A683BCBCD59}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16812470-A4E1-4DBD-AEE1-4642C4933AF0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9162,9 +9754,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16812470-A4E1-4DBD-AEE1-4642C4933AF0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{411558D9-DEA1-49BF-987E-1A683BCBCD59}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ML Apply in OS/summary (new version).xlsx
+++ b/ML Apply in OS/summary (new version).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HKU\HKU\23Fall\AI-OS\ML Apply in OS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research-23\AIOS\ML Apply in OS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB2BE93-F855-41CA-994B-3638936722F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7886794-CCB4-4460-9546-EDCEF9B7137A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="777">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2851,22 +2851,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>220milliseconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> Operating system scheduling on heterogeneous core systems. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>No discussion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> The total final utility of all completed jobs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2900,6 +2888,207 @@
   </si>
   <si>
     <t>Structural Similarity, Time overhead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Characterization method achieves higher SSIM values.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trained offline, not mention inference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Correlation Coefficient(CC),  Relative Absolute Error (RAE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>highest CC 0.9687 and lowest RAE 7.40% achieved by KNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trained offline, deploy in grid's scheduling system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A machine learning based approach to estimate the cpu-burst time for processes in the computational grids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GWA-T-4 AuverGrid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://liuyix.org/splash2-benchmark</t>
+  </si>
+  <si>
+    <t>Time Cost for RL Task Allocation, Reduction in Peak Temperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reduce peak temperature by 4.3 ℃ on average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>less than 1ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPLASH-2 suite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not mentiond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total time of processing tasks in a scheduling environment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 sets of increasing workload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35% reduction in total process time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220 milliseconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>improvement in system throughput (25% to 31%) over conventional heterogeneous schedulers</t>
+  </si>
+  <si>
+    <t>Average System Performance (IPC) Prediction Error, System Throughput Increase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPLASH-2 and SPEC2006</t>
+  </si>
+  <si>
+    <t>2% time overhead every every scheduling quantum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable online learning but not mentioned explicitly about deployment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17 benchmark applications from AMD, Polybench, Rodinia and own-developed matrix-vector multiplication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Execution time, Throughput, Average time (of a job), Load balance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>182% lower execution time, 2.85 times  reduced average execution time, 40% higher throughput compare to CPU-only, and achieves a load balance of 98.4%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The scheduling process is outside OS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use eBPF and BCC to collect the migration-related data of the running system through dynamic kernel tracing with kprobes; offline training and in-kernel implementation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> add 1.8µs (13%) overhead to the original load balancing function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> PARSEC Benchmark Suite and own-developed corpus of 500,000 load-balancer invocations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evaluation accuracy, Time overhead,  the distribution of job imbalance, the distributions of the total runqueue lengths, runtimes of benchmark programs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy of 99% in making migration decisions</t>
+  </si>
+  <si>
+    <t>Main result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-6us inference overhead; 68KB Kernel memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Microsoft Azure (AZ), Bing Index (BingI/BI),
+ Bing Select (BingS/BS), and Cosmos (CO) servers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> I/O latencies, inference accuracy, time overhead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LinnOS improves the average I/O latencies by 9.6-79.6% with 87-97% inference accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offline training and in-kernel implementation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduces memory fragmentation by up to 78%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not mentioned (Tensorflow)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image Processing Server
+ TensorFlow InceptionV3 Benchmark
+ Data Processing Pipeline
+ Redis Key-Value Store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prediction Accuracy, Final Steady-state Memory, Fragmentation Reduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> latency increase with
+ increasing stack sizes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self-Learning Disk Scheduling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">achieving 80-97% inference accuracy </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> sub-10µs inference overhead for each I/O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azure, BingI, BingS, and Cosmos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offline training</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modeling I/O interference with a median Normalized Root-MeanSquare Error (NRMSE) of 2.5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Normalized Root Mean Square Error (NRMSE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generate workload by Nginx,
+MySQL, WordPress, FileBench, ffmpeg, Parsec benchmark suite and  GNU Compiler Collection</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3423,12 +3612,8 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -3436,7 +3621,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3687,87 +3872,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3856,20 +3960,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3886,9 +3976,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3898,7 +3985,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3907,29 +3994,132 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4220,27 +4410,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG157"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView topLeftCell="A75" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="154"/>
-    <col min="2" max="2" width="9.06640625" style="160"/>
-    <col min="3" max="3" width="48.46484375" style="45" customWidth="1"/>
+    <col min="1" max="1" width="9.08203125"/>
+    <col min="2" max="2" width="9.08203125" style="127"/>
+    <col min="3" max="3" width="48.5" style="45" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="7"/>
-    <col min="5" max="5" width="42.265625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="42.25" style="7" customWidth="1"/>
     <col min="6" max="6" width="58.6640625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="20.06640625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="38.265625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="20.08203125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="38.25" style="7" customWidth="1"/>
     <col min="9" max="9" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="A1" s="153"/>
-      <c r="B1" s="159"/>
-      <c r="C1" s="123" t="s">
+    <row r="1" spans="1:31" s="1" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B1" s="126"/>
+      <c r="C1" s="96" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="15" t="s">
@@ -4259,20 +4448,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C2" s="102" t="s">
+    <row r="2" spans="1:31" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C2" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104"/>
-    </row>
-    <row r="3" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="154"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="124" t="s">
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="146"/>
+    </row>
+    <row r="3" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="97" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="10">
@@ -4314,10 +4503,10 @@
       <c r="AD3"/>
       <c r="AE3"/>
     </row>
-    <row r="4" spans="1:31" s="11" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="154"/>
-      <c r="B4" s="160"/>
-      <c r="C4" s="124" t="s">
+    <row r="4" spans="1:31" s="11" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="97" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="10">
@@ -4359,10 +4548,10 @@
       <c r="AD4"/>
       <c r="AE4"/>
     </row>
-    <row r="5" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A5" s="154"/>
-      <c r="B5" s="160"/>
-      <c r="C5" s="125" t="s">
+    <row r="5" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A5"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="98" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="6">
@@ -4404,10 +4593,10 @@
       <c r="AD5"/>
       <c r="AE5"/>
     </row>
-    <row r="6" spans="1:31" s="9" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A6" s="154"/>
-      <c r="B6" s="160"/>
-      <c r="C6" s="126" t="s">
+    <row r="6" spans="1:31" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A6"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="99" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="8">
@@ -4449,10 +4638,10 @@
       <c r="AD6"/>
       <c r="AE6"/>
     </row>
-    <row r="7" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A7" s="154"/>
-      <c r="B7" s="160"/>
-      <c r="C7" s="125" t="s">
+    <row r="7" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A7"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="98" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="6">
@@ -4494,10 +4683,10 @@
       <c r="AD7"/>
       <c r="AE7"/>
     </row>
-    <row r="8" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A8" s="154"/>
-      <c r="B8" s="160"/>
-      <c r="C8" s="125" t="s">
+    <row r="8" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A8"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="98" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="6">
@@ -4539,10 +4728,10 @@
       <c r="AD8"/>
       <c r="AE8"/>
     </row>
-    <row r="9" spans="1:31" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A9" s="154"/>
-      <c r="B9" s="160"/>
-      <c r="C9" s="126" t="s">
+    <row r="9" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="99" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="8">
@@ -4584,10 +4773,10 @@
       <c r="AD9"/>
       <c r="AE9"/>
     </row>
-    <row r="10" spans="1:31" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A10" s="154"/>
-      <c r="B10" s="160"/>
-      <c r="C10" s="126" t="s">
+    <row r="10" spans="1:31" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A10"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="99" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="8">
@@ -4629,10 +4818,10 @@
       <c r="AD10"/>
       <c r="AE10"/>
     </row>
-    <row r="11" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A11" s="154"/>
-      <c r="B11" s="160"/>
-      <c r="C11" s="125" t="s">
+    <row r="11" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A11"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="98" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="6">
@@ -4674,10 +4863,10 @@
       <c r="AD11"/>
       <c r="AE11"/>
     </row>
-    <row r="12" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A12" s="154"/>
-      <c r="B12" s="160"/>
-      <c r="C12" s="125" t="s">
+    <row r="12" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A12"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="98" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="6">
@@ -4719,10 +4908,10 @@
       <c r="AD12"/>
       <c r="AE12"/>
     </row>
-    <row r="13" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A13" s="154"/>
-      <c r="B13" s="160"/>
-      <c r="C13" s="125" t="s">
+    <row r="13" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A13"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="98" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="6">
@@ -4764,10 +4953,10 @@
       <c r="AD13"/>
       <c r="AE13"/>
     </row>
-    <row r="14" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A14" s="154"/>
-      <c r="B14" s="160"/>
-      <c r="C14" s="125" t="s">
+    <row r="14" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A14"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="98" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="6">
@@ -4809,10 +4998,10 @@
       <c r="AD14"/>
       <c r="AE14"/>
     </row>
-    <row r="15" spans="1:31" s="2" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A15" s="154"/>
-      <c r="B15" s="160"/>
-      <c r="C15" s="125" t="s">
+    <row r="15" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A15"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="98" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="6">
@@ -4854,20 +5043,20 @@
       <c r="AD15"/>
       <c r="AE15"/>
     </row>
-    <row r="16" spans="1:31" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C16" s="96" t="s">
+    <row r="16" spans="1:31" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C16" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="98"/>
-    </row>
-    <row r="17" spans="1:33" s="11" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A17" s="154"/>
-      <c r="B17" s="160"/>
-      <c r="C17" s="124" t="s">
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="143"/>
+    </row>
+    <row r="17" spans="1:33" s="11" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A17"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="97" t="s">
         <v>45</v>
       </c>
       <c r="D17" s="10">
@@ -4911,10 +5100,10 @@
       <c r="AF17"/>
       <c r="AG17"/>
     </row>
-    <row r="18" spans="1:33" s="9" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A18" s="154"/>
-      <c r="B18" s="160"/>
-      <c r="C18" s="126" t="s">
+    <row r="18" spans="1:33" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A18"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="99" t="s">
         <v>48</v>
       </c>
       <c r="D18" s="8">
@@ -4958,10 +5147,10 @@
       <c r="AF18"/>
       <c r="AG18"/>
     </row>
-    <row r="19" spans="1:33" s="9" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A19" s="154"/>
-      <c r="B19" s="160"/>
-      <c r="C19" s="126" t="s">
+    <row r="19" spans="1:33" s="9" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="A19"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="99" t="s">
         <v>50</v>
       </c>
       <c r="D19" s="8">
@@ -5005,10 +5194,10 @@
       <c r="AF19"/>
       <c r="AG19"/>
     </row>
-    <row r="20" spans="1:33" s="9" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A20" s="154"/>
-      <c r="B20" s="160"/>
-      <c r="C20" s="126" t="s">
+    <row r="20" spans="1:33" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A20"/>
+      <c r="B20" s="127"/>
+      <c r="C20" s="99" t="s">
         <v>53</v>
       </c>
       <c r="D20" s="8">
@@ -5052,8 +5241,8 @@
       <c r="AF20"/>
       <c r="AG20"/>
     </row>
-    <row r="21" spans="1:33" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C21" s="125" t="s">
+    <row r="21" spans="1:33" ht="56" x14ac:dyDescent="0.3">
+      <c r="C21" s="98" t="s">
         <v>398</v>
       </c>
       <c r="D21" s="6">
@@ -5072,10 +5261,10 @@
         <v>404</v>
       </c>
     </row>
-    <row r="22" spans="1:33" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A22" s="154"/>
-      <c r="B22" s="160"/>
-      <c r="C22" s="126" t="s">
+    <row r="22" spans="1:33" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A22"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="99" t="s">
         <v>128</v>
       </c>
       <c r="D22" s="8">
@@ -5119,10 +5308,10 @@
       <c r="AF22"/>
       <c r="AG22"/>
     </row>
-    <row r="23" spans="1:33" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A23" s="154"/>
-      <c r="B23" s="160"/>
-      <c r="C23" s="125" t="s">
+    <row r="23" spans="1:33" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A23"/>
+      <c r="B23" s="127"/>
+      <c r="C23" s="98" t="s">
         <v>58</v>
       </c>
       <c r="D23" s="6">
@@ -5166,8 +5355,8 @@
       <c r="AF23"/>
       <c r="AG23"/>
     </row>
-    <row r="24" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C24" s="125" t="s">
+    <row r="24" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+      <c r="C24" s="98" t="s">
         <v>405</v>
       </c>
       <c r="D24" s="6">
@@ -5186,10 +5375,10 @@
         <v>404</v>
       </c>
     </row>
-    <row r="25" spans="1:33" s="3" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A25" s="154"/>
-      <c r="B25" s="160"/>
-      <c r="C25" s="126" t="s">
+    <row r="25" spans="1:33" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="A25"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="99" t="s">
         <v>61</v>
       </c>
       <c r="D25" s="8">
@@ -5233,10 +5422,10 @@
       <c r="AF25"/>
       <c r="AG25"/>
     </row>
-    <row r="26" spans="1:33" s="11" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A26" s="154"/>
-      <c r="B26" s="160"/>
-      <c r="C26" s="124" t="s">
+    <row r="26" spans="1:33" s="11" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="A26"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="97" t="s">
         <v>67</v>
       </c>
       <c r="D26" s="10">
@@ -5280,10 +5469,10 @@
       <c r="AF26"/>
       <c r="AG26"/>
     </row>
-    <row r="27" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="154"/>
-      <c r="B27" s="160"/>
-      <c r="C27" s="127" t="s">
+    <row r="27" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27"/>
+      <c r="B27" s="127"/>
+      <c r="C27" s="100" t="s">
         <v>71</v>
       </c>
       <c r="D27" s="33">
@@ -5327,10 +5516,10 @@
       <c r="AF27"/>
       <c r="AG27"/>
     </row>
-    <row r="28" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="154"/>
-      <c r="B28" s="160"/>
-      <c r="C28" s="128" t="s">
+    <row r="28" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28"/>
+      <c r="B28" s="127"/>
+      <c r="C28" s="101" t="s">
         <v>416</v>
       </c>
       <c r="D28" s="35">
@@ -5372,10 +5561,10 @@
       <c r="AF28"/>
       <c r="AG28"/>
     </row>
-    <row r="29" spans="1:33" s="34" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="154"/>
-      <c r="B29" s="160"/>
-      <c r="C29" s="125" t="s">
+    <row r="29" spans="1:33" s="34" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="98" t="s">
         <v>408</v>
       </c>
       <c r="D29" s="6">
@@ -5417,10 +5606,10 @@
       <c r="AF29" s="27"/>
       <c r="AG29" s="27"/>
     </row>
-    <row r="30" spans="1:33" s="11" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="154"/>
-      <c r="B30" s="160"/>
-      <c r="C30" s="125" t="s">
+    <row r="30" spans="1:33" s="11" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30"/>
+      <c r="B30" s="127"/>
+      <c r="C30" s="98" t="s">
         <v>417</v>
       </c>
       <c r="D30" s="6">
@@ -5462,20 +5651,20 @@
       <c r="AF30"/>
       <c r="AG30"/>
     </row>
-    <row r="31" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C31" s="105" t="s">
+    <row r="31" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C31" s="147" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="106"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="107"/>
-    </row>
-    <row r="32" spans="1:33" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A32" s="154"/>
-      <c r="B32" s="160"/>
-      <c r="C32" s="125" t="s">
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="149"/>
+    </row>
+    <row r="32" spans="1:33" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A32"/>
+      <c r="B32" s="127"/>
+      <c r="C32" s="98" t="s">
         <v>76</v>
       </c>
       <c r="D32" s="6">
@@ -5519,10 +5708,10 @@
       <c r="AF32"/>
       <c r="AG32"/>
     </row>
-    <row r="33" spans="1:33" s="13" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A33" s="154"/>
-      <c r="B33" s="160"/>
-      <c r="C33" s="129" t="s">
+    <row r="33" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A33"/>
+      <c r="B33" s="127"/>
+      <c r="C33" s="102" t="s">
         <v>89</v>
       </c>
       <c r="D33" s="12">
@@ -5566,10 +5755,10 @@
       <c r="AF33"/>
       <c r="AG33"/>
     </row>
-    <row r="34" spans="1:33" s="2" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A34" s="154"/>
-      <c r="B34" s="160"/>
-      <c r="C34" s="125" t="s">
+    <row r="34" spans="1:33" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="A34"/>
+      <c r="B34" s="127"/>
+      <c r="C34" s="98" t="s">
         <v>77</v>
       </c>
       <c r="D34" s="6">
@@ -5613,10 +5802,10 @@
       <c r="AF34"/>
       <c r="AG34"/>
     </row>
-    <row r="35" spans="1:33" s="11" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A35" s="154"/>
-      <c r="B35" s="160"/>
-      <c r="C35" s="124" t="s">
+    <row r="35" spans="1:33" s="11" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="A35"/>
+      <c r="B35" s="127"/>
+      <c r="C35" s="97" t="s">
         <v>78</v>
       </c>
       <c r="D35" s="10">
@@ -5660,10 +5849,10 @@
       <c r="AF35"/>
       <c r="AG35"/>
     </row>
-    <row r="36" spans="1:33" s="13" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A36" s="154"/>
-      <c r="B36" s="160"/>
-      <c r="C36" s="129" t="s">
+    <row r="36" spans="1:33" s="13" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="A36"/>
+      <c r="B36" s="127"/>
+      <c r="C36" s="102" t="s">
         <v>90</v>
       </c>
       <c r="D36" s="12">
@@ -5707,10 +5896,10 @@
       <c r="AF36"/>
       <c r="AG36"/>
     </row>
-    <row r="37" spans="1:33" s="13" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A37" s="154"/>
-      <c r="B37" s="160"/>
-      <c r="C37" s="129" t="s">
+    <row r="37" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A37"/>
+      <c r="B37" s="127"/>
+      <c r="C37" s="102" t="s">
         <v>91</v>
       </c>
       <c r="D37" s="12">
@@ -5754,10 +5943,10 @@
       <c r="AF37"/>
       <c r="AG37"/>
     </row>
-    <row r="38" spans="1:33" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="154"/>
-      <c r="B38" s="160"/>
-      <c r="C38" s="129" t="s">
+    <row r="38" spans="1:33" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38"/>
+      <c r="B38" s="127"/>
+      <c r="C38" s="102" t="s">
         <v>92</v>
       </c>
       <c r="D38" s="12">
@@ -5801,10 +5990,10 @@
       <c r="AF38"/>
       <c r="AG38"/>
     </row>
-    <row r="39" spans="1:33" s="11" customFormat="1" ht="56.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="154"/>
-      <c r="B39" s="160"/>
-      <c r="C39" s="124" t="s">
+    <row r="39" spans="1:33" s="11" customFormat="1" ht="56.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39"/>
+      <c r="B39" s="127"/>
+      <c r="C39" s="97" t="s">
         <v>79</v>
       </c>
       <c r="D39" s="10">
@@ -5848,10 +6037,10 @@
       <c r="AF39"/>
       <c r="AG39"/>
     </row>
-    <row r="40" spans="1:33" s="13" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A40" s="154"/>
-      <c r="B40" s="160"/>
-      <c r="C40" s="129" t="s">
+    <row r="40" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A40"/>
+      <c r="B40" s="127"/>
+      <c r="C40" s="102" t="s">
         <v>93</v>
       </c>
       <c r="D40" s="12">
@@ -5895,10 +6084,10 @@
       <c r="AF40"/>
       <c r="AG40"/>
     </row>
-    <row r="41" spans="1:33" s="13" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A41" s="154"/>
-      <c r="B41" s="160"/>
-      <c r="C41" s="129" t="s">
+    <row r="41" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A41"/>
+      <c r="B41" s="127"/>
+      <c r="C41" s="102" t="s">
         <v>94</v>
       </c>
       <c r="D41" s="12">
@@ -5942,8 +6131,8 @@
       <c r="AF41"/>
       <c r="AG41"/>
     </row>
-    <row r="42" spans="1:33" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C42" s="129" t="s">
+    <row r="42" spans="1:33" ht="42" x14ac:dyDescent="0.3">
+      <c r="C42" s="102" t="s">
         <v>95</v>
       </c>
       <c r="D42" s="12">
@@ -5962,8 +6151,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:33" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C43" s="129" t="s">
+    <row r="43" spans="1:33" ht="42" x14ac:dyDescent="0.3">
+      <c r="C43" s="102" t="s">
         <v>96</v>
       </c>
       <c r="D43" s="12">
@@ -5982,18 +6171,18 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C44" s="96" t="s">
+    <row r="44" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C44" s="141" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="97"/>
-      <c r="E44" s="97"/>
-      <c r="F44" s="97"/>
-      <c r="G44" s="97"/>
-      <c r="H44" s="98"/>
-    </row>
-    <row r="45" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C45" s="126" t="s">
+      <c r="D44" s="142"/>
+      <c r="E44" s="142"/>
+      <c r="F44" s="142"/>
+      <c r="G44" s="142"/>
+      <c r="H44" s="143"/>
+    </row>
+    <row r="45" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+      <c r="C45" s="99" t="s">
         <v>198</v>
       </c>
       <c r="D45" s="8">
@@ -6012,8 +6201,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C46" s="126" t="s">
+    <row r="46" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+      <c r="C46" s="99" t="s">
         <v>195</v>
       </c>
       <c r="D46" s="16">
@@ -6032,8 +6221,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C47" s="130" t="s">
+    <row r="47" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+      <c r="C47" s="103" t="s">
         <v>208</v>
       </c>
       <c r="D47" s="19">
@@ -6052,8 +6241,8 @@
         <v>214</v>
       </c>
     </row>
-    <row r="48" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C48" s="130" t="s">
+    <row r="48" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+      <c r="C48" s="103" t="s">
         <v>210</v>
       </c>
       <c r="D48" s="19">
@@ -6072,10 +6261,9 @@
         <v>214</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A49" s="155"/>
-      <c r="B49" s="161"/>
-      <c r="C49" s="131" t="s">
+    <row r="49" spans="2:8" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="B49" s="128"/>
+      <c r="C49" s="104" t="s">
         <v>160</v>
       </c>
       <c r="D49" s="20">
@@ -6094,10 +6282,9 @@
         <v>215</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A50" s="155"/>
-      <c r="B50" s="161"/>
-      <c r="C50" s="132" t="s">
+    <row r="50" spans="2:8" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="B50" s="128"/>
+      <c r="C50" s="105" t="s">
         <v>186</v>
       </c>
       <c r="D50" s="17">
@@ -6116,8 +6303,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C51" s="126" t="s">
+    <row r="51" spans="2:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C51" s="99" t="s">
         <v>150</v>
       </c>
       <c r="D51" s="8">
@@ -6136,8 +6323,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C52" s="126" t="s">
+    <row r="52" spans="2:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C52" s="99" t="s">
         <v>144</v>
       </c>
       <c r="D52" s="8">
@@ -6156,8 +6343,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C53" s="126" t="s">
+    <row r="53" spans="2:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C53" s="99" t="s">
         <v>172</v>
       </c>
       <c r="D53" s="8">
@@ -6176,8 +6363,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C54" s="126" t="s">
+    <row r="54" spans="2:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C54" s="99" t="s">
         <v>143</v>
       </c>
       <c r="D54" s="8">
@@ -6196,8 +6383,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C55" s="126" t="s">
+    <row r="55" spans="2:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C55" s="99" t="s">
         <v>176</v>
       </c>
       <c r="D55" s="8">
@@ -6216,8 +6403,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C56" s="126" t="s">
+    <row r="56" spans="2:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C56" s="99" t="s">
         <v>188</v>
       </c>
       <c r="D56" s="8">
@@ -6236,8 +6423,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C57" s="126" t="s">
+    <row r="57" spans="2:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C57" s="99" t="s">
         <v>140</v>
       </c>
       <c r="D57" s="8">
@@ -6256,8 +6443,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C58" s="126" t="s">
+    <row r="58" spans="2:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C58" s="99" t="s">
         <v>191</v>
       </c>
       <c r="D58" s="8">
@@ -6276,8 +6463,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C59" s="126" t="s">
+    <row r="59" spans="2:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C59" s="99" t="s">
         <v>166</v>
       </c>
       <c r="D59" s="8">
@@ -6296,8 +6483,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C60" s="126" t="s">
+    <row r="60" spans="2:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="C60" s="99" t="s">
         <v>179</v>
       </c>
       <c r="D60" s="8">
@@ -6316,8 +6503,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C61" s="130" t="s">
+    <row r="61" spans="2:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C61" s="103" t="s">
         <v>205</v>
       </c>
       <c r="D61" s="18">
@@ -6336,8 +6523,8 @@
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C62" s="126" t="s">
+    <row r="62" spans="2:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="C62" s="99" t="s">
         <v>154</v>
       </c>
       <c r="D62" s="8">
@@ -6356,8 +6543,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C63" s="126" t="s">
+    <row r="63" spans="2:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C63" s="99" t="s">
         <v>183</v>
       </c>
       <c r="D63" s="8">
@@ -6376,8 +6563,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C64" s="126" t="s">
+    <row r="64" spans="2:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C64" s="99" t="s">
         <v>157</v>
       </c>
       <c r="D64" s="8">
@@ -6396,7 +6583,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C65" s="45" t="s">
         <v>421</v>
       </c>
@@ -6407,10 +6594,9 @@
         <v>420</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="37" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A66" s="156"/>
-      <c r="B66" s="162"/>
-      <c r="C66" s="126" t="s">
+    <row r="66" spans="1:8" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="B66" s="129"/>
+      <c r="C66" s="99" t="s">
         <v>425</v>
       </c>
       <c r="D66" s="8">
@@ -6425,7 +6611,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C67" s="45" t="s">
         <v>424</v>
       </c>
@@ -6439,9 +6625,8 @@
         <v>432</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="37" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="156"/>
-      <c r="B68" s="162"/>
+    <row r="68" spans="1:8" s="37" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="129"/>
       <c r="C68" s="45" t="s">
         <v>423</v>
       </c>
@@ -6457,8 +6642,8 @@
         <v>433</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C69" s="130" t="s">
+    <row r="69" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C69" s="103" t="s">
         <v>162</v>
       </c>
       <c r="D69" s="18">
@@ -6477,7 +6662,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C70" s="45" t="s">
         <v>429</v>
       </c>
@@ -6491,18 +6676,18 @@
         <v>434</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C71" s="96" t="s">
+    <row r="71" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C71" s="141" t="s">
         <v>216</v>
       </c>
-      <c r="D71" s="97"/>
-      <c r="E71" s="97"/>
-      <c r="F71" s="97"/>
-      <c r="G71" s="97"/>
-      <c r="H71" s="98"/>
-    </row>
-    <row r="72" spans="1:8" ht="15" x14ac:dyDescent="0.4">
-      <c r="C72" s="133" t="s">
+      <c r="D71" s="142"/>
+      <c r="E71" s="142"/>
+      <c r="F71" s="142"/>
+      <c r="G71" s="142"/>
+      <c r="H71" s="143"/>
+    </row>
+    <row r="72" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C72" s="106" t="s">
         <v>0</v>
       </c>
       <c r="D72" s="21" t="s">
@@ -6521,7 +6706,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="97.15" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" ht="98" x14ac:dyDescent="0.3">
       <c r="C73" s="45" t="s">
         <v>223</v>
       </c>
@@ -6535,7 +6720,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C74" s="45" t="s">
         <v>217</v>
       </c>
@@ -6549,7 +6734,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C75" s="45" t="s">
         <v>219</v>
       </c>
@@ -6563,7 +6748,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="70.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:8" ht="70.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="45" t="s">
         <v>221</v>
       </c>
@@ -6577,20 +6762,19 @@
         <v>225</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C77" s="96" t="s">
+    <row r="77" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C77" s="141" t="s">
         <v>230</v>
       </c>
-      <c r="D77" s="97"/>
-      <c r="E77" s="97"/>
-      <c r="F77" s="97"/>
-      <c r="G77" s="97"/>
-      <c r="H77" s="98"/>
-    </row>
-    <row r="78" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="157"/>
-      <c r="B78" s="163"/>
-      <c r="C78" s="134" t="s">
+      <c r="D77" s="142"/>
+      <c r="E77" s="142"/>
+      <c r="F77" s="142"/>
+      <c r="G77" s="142"/>
+      <c r="H77" s="143"/>
+    </row>
+    <row r="78" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="130"/>
+      <c r="C78" s="107" t="s">
         <v>0</v>
       </c>
       <c r="D78" s="22" t="s">
@@ -6609,10 +6793,10 @@
         <v>234</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="27" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
-      <c r="A79" s="154"/>
-      <c r="B79" s="160"/>
-      <c r="C79" s="135" t="s">
+    <row r="79" spans="1:8" s="27" customFormat="1" ht="84" x14ac:dyDescent="0.3">
+      <c r="A79"/>
+      <c r="B79" s="127"/>
+      <c r="C79" s="108" t="s">
         <v>246</v>
       </c>
       <c r="D79" s="31">
@@ -6631,8 +6815,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C80" s="136" t="s">
+    <row r="80" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C80" s="109" t="s">
         <v>382</v>
       </c>
       <c r="D80" s="41">
@@ -6651,8 +6835,8 @@
         <v>448</v>
       </c>
     </row>
-    <row r="81" spans="3:8" ht="97.15" x14ac:dyDescent="0.4">
-      <c r="C81" s="136" t="s">
+    <row r="81" spans="3:8" ht="98" x14ac:dyDescent="0.3">
+      <c r="C81" s="109" t="s">
         <v>379</v>
       </c>
       <c r="D81" s="41">
@@ -6671,8 +6855,8 @@
         <v>450</v>
       </c>
     </row>
-    <row r="82" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C82" s="136" t="s">
+    <row r="82" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C82" s="109" t="s">
         <v>372</v>
       </c>
       <c r="D82" s="41">
@@ -6691,8 +6875,8 @@
         <v>456</v>
       </c>
     </row>
-    <row r="83" spans="3:8" ht="138" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C83" s="136" t="s">
+    <row r="83" spans="3:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C83" s="109" t="s">
         <v>488</v>
       </c>
       <c r="D83" s="41">
@@ -6711,8 +6895,8 @@
         <v>492</v>
       </c>
     </row>
-    <row r="84" spans="3:8" ht="111" x14ac:dyDescent="0.4">
-      <c r="C84" s="136" t="s">
+    <row r="84" spans="3:8" ht="84" x14ac:dyDescent="0.3">
+      <c r="C84" s="109" t="s">
         <v>282</v>
       </c>
       <c r="D84" s="41">
@@ -6731,8 +6915,8 @@
         <v>284</v>
       </c>
     </row>
-    <row r="85" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C85" s="137" t="s">
+    <row r="85" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C85" s="110" t="s">
         <v>521</v>
       </c>
       <c r="D85" s="50">
@@ -6751,8 +6935,8 @@
         <v>524</v>
       </c>
     </row>
-    <row r="86" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C86" s="137" t="s">
+    <row r="86" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C86" s="110" t="s">
         <v>374</v>
       </c>
       <c r="D86" s="50">
@@ -6771,8 +6955,8 @@
         <v>523</v>
       </c>
     </row>
-    <row r="87" spans="3:8" ht="83.25" x14ac:dyDescent="0.4">
-      <c r="C87" s="135" t="s">
+    <row r="87" spans="3:8" ht="84" x14ac:dyDescent="0.3">
+      <c r="C87" s="108" t="s">
         <v>370</v>
       </c>
       <c r="D87" s="31">
@@ -6791,18 +6975,18 @@
         <v>485</v>
       </c>
     </row>
-    <row r="89" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C89" s="99" t="s">
+    <row r="89" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C89" s="150" t="s">
         <v>235</v>
       </c>
-      <c r="D89" s="100"/>
-      <c r="E89" s="100"/>
-      <c r="F89" s="100"/>
-      <c r="G89" s="100"/>
-      <c r="H89" s="101"/>
-    </row>
-    <row r="90" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C90" s="135" t="s">
+      <c r="D89" s="151"/>
+      <c r="E89" s="151"/>
+      <c r="F89" s="151"/>
+      <c r="G89" s="151"/>
+      <c r="H89" s="152"/>
+    </row>
+    <row r="90" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C90" s="108" t="s">
         <v>240</v>
       </c>
       <c r="D90" s="31">
@@ -6821,8 +7005,8 @@
         <v>244</v>
       </c>
     </row>
-    <row r="91" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C91" s="138" t="s">
+    <row r="91" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C91" s="111" t="s">
         <v>361</v>
       </c>
       <c r="D91" s="39">
@@ -6841,8 +7025,8 @@
         <v>438</v>
       </c>
     </row>
-    <row r="92" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C92" s="138" t="s">
+    <row r="92" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C92" s="111" t="s">
         <v>238</v>
       </c>
       <c r="D92" s="39">
@@ -6861,8 +7045,8 @@
         <v>319</v>
       </c>
     </row>
-    <row r="93" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
-      <c r="C93" s="135" t="s">
+    <row r="93" spans="3:8" ht="70" x14ac:dyDescent="0.3">
+      <c r="C93" s="108" t="s">
         <v>334</v>
       </c>
       <c r="D93" s="31">
@@ -6881,7 +7065,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="94" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="94" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C94" s="40" t="s">
         <v>436</v>
       </c>
@@ -6901,8 +7085,8 @@
         <v>440</v>
       </c>
     </row>
-    <row r="95" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C95" s="135" t="s">
+    <row r="95" spans="3:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="C95" s="108" t="s">
         <v>329</v>
       </c>
       <c r="D95" s="31">
@@ -6921,8 +7105,8 @@
         <v>333</v>
       </c>
     </row>
-    <row r="96" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C96" s="135" t="s">
+    <row r="96" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C96" s="108" t="s">
         <v>399</v>
       </c>
       <c r="D96" s="31">
@@ -6939,8 +7123,8 @@
         <v>473</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C97" s="139" t="s">
+    <row r="97" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C97" s="112" t="s">
         <v>412</v>
       </c>
       <c r="D97" s="43">
@@ -6955,8 +7139,8 @@
       <c r="G97" s="43"/>
       <c r="H97" s="43"/>
     </row>
-    <row r="98" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C98" s="139" t="s">
+    <row r="98" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C98" s="112" t="s">
         <v>409</v>
       </c>
       <c r="D98" s="43">
@@ -6971,10 +7155,10 @@
       <c r="G98" s="43"/>
       <c r="H98" s="43"/>
     </row>
-    <row r="99" spans="1:8" s="27" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="A99" s="154"/>
-      <c r="B99" s="160"/>
-      <c r="C99" s="140" t="s">
+    <row r="99" spans="1:8" s="27" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+      <c r="A99"/>
+      <c r="B99" s="127"/>
+      <c r="C99" s="113" t="s">
         <v>324</v>
       </c>
       <c r="D99" s="31">
@@ -6993,8 +7177,8 @@
         <v>327</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C100" s="141" t="s">
+    <row r="100" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C100" s="114" t="s">
         <v>414</v>
       </c>
       <c r="D100" s="43">
@@ -7009,8 +7193,8 @@
       <c r="G100" s="43"/>
       <c r="H100" s="43"/>
     </row>
-    <row r="101" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C101" s="140" t="s">
+    <row r="101" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C101" s="113" t="s">
         <v>364</v>
       </c>
       <c r="D101" s="31">
@@ -7023,8 +7207,8 @@
       <c r="G101" s="31"/>
       <c r="H101" s="31"/>
     </row>
-    <row r="102" spans="1:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
-      <c r="C102" s="135" t="s">
+    <row r="102" spans="1:8" ht="70" x14ac:dyDescent="0.3">
+      <c r="C102" s="108" t="s">
         <v>287</v>
       </c>
       <c r="D102" s="31">
@@ -7043,8 +7227,8 @@
         <v>291</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C103" s="138" t="s">
+    <row r="103" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C103" s="111" t="s">
         <v>366</v>
       </c>
       <c r="D103" s="39">
@@ -7063,8 +7247,8 @@
         <v>441</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C104" s="138" t="s">
+    <row r="104" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C104" s="111" t="s">
         <v>443</v>
       </c>
       <c r="D104" s="39">
@@ -7083,8 +7267,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C105" s="138" t="s">
+    <row r="105" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C105" s="111" t="s">
         <v>384</v>
       </c>
       <c r="D105" s="39">
@@ -7103,17 +7287,17 @@
         <v>442</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C107" s="96" t="s">
+    <row r="107" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C107" s="141" t="s">
         <v>236</v>
       </c>
-      <c r="D107" s="97"/>
-      <c r="E107" s="97"/>
-      <c r="F107" s="97"/>
-      <c r="G107" s="97"/>
-      <c r="H107" s="98"/>
-    </row>
-    <row r="108" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D107" s="142"/>
+      <c r="E107" s="142"/>
+      <c r="F107" s="142"/>
+      <c r="G107" s="142"/>
+      <c r="H107" s="143"/>
+    </row>
+    <row r="108" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C108" s="45" t="s">
         <v>350</v>
       </c>
@@ -7133,8 +7317,8 @@
         <v>649</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C109" s="129" t="s">
+    <row r="109" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C109" s="102" t="s">
         <v>252</v>
       </c>
       <c r="D109" s="12">
@@ -7153,8 +7337,8 @@
         <v>255</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C110" s="129" t="s">
+    <row r="110" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C110" s="102" t="s">
         <v>341</v>
       </c>
       <c r="D110" s="12">
@@ -7173,8 +7357,8 @@
         <v>588</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C111" s="129" t="s">
+    <row r="111" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C111" s="102" t="s">
         <v>339</v>
       </c>
       <c r="D111" s="12">
@@ -7193,8 +7377,8 @@
         <v>593</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C112" s="129" t="s">
+    <row r="112" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C112" s="102" t="s">
         <v>348</v>
       </c>
       <c r="D112" s="12">
@@ -7213,7 +7397,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="113" spans="1:33" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:33" ht="56" x14ac:dyDescent="0.3">
       <c r="C113" s="45" t="s">
         <v>154</v>
       </c>
@@ -7230,8 +7414,8 @@
         <v>562</v>
       </c>
     </row>
-    <row r="114" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C114" s="129" t="s">
+    <row r="114" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+      <c r="C114" s="102" t="s">
         <v>358</v>
       </c>
       <c r="D114" s="12">
@@ -7250,8 +7434,8 @@
         <v>610</v>
       </c>
     </row>
-    <row r="115" spans="1:33" ht="83.25" x14ac:dyDescent="0.4">
-      <c r="C115" s="129" t="s">
+    <row r="115" spans="1:33" ht="70" x14ac:dyDescent="0.3">
+      <c r="C115" s="102" t="s">
         <v>257</v>
       </c>
       <c r="D115" s="12">
@@ -7270,7 +7454,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="116" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C116" s="45" t="s">
         <v>300</v>
       </c>
@@ -7290,8 +7474,8 @@
         <v>322</v>
       </c>
     </row>
-    <row r="117" spans="1:33" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C117" s="129" t="s">
+    <row r="117" spans="1:33" ht="56" x14ac:dyDescent="0.3">
+      <c r="C117" s="102" t="s">
         <v>262</v>
       </c>
       <c r="D117" s="12">
@@ -7313,8 +7497,8 @@
         <v>601</v>
       </c>
     </row>
-    <row r="118" spans="1:33" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C118" s="129" t="s">
+    <row r="118" spans="1:33" ht="42" x14ac:dyDescent="0.3">
+      <c r="C118" s="102" t="s">
         <v>344</v>
       </c>
       <c r="D118" s="12">
@@ -7331,10 +7515,9 @@
       </c>
       <c r="H118" s="12"/>
     </row>
-    <row r="119" spans="1:33" s="14" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
-      <c r="A119" s="155"/>
-      <c r="B119" s="161"/>
-      <c r="C119" s="142" t="s">
+    <row r="119" spans="1:33" s="14" customFormat="1" ht="84" x14ac:dyDescent="0.3">
+      <c r="B119" s="128"/>
+      <c r="C119" s="115" t="s">
         <v>269</v>
       </c>
       <c r="D119" s="12">
@@ -7353,10 +7536,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="120" spans="1:33" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A120" s="155"/>
-      <c r="B120" s="161"/>
-      <c r="C120" s="142" t="s">
+    <row r="120" spans="1:33" s="14" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="B120" s="128"/>
+      <c r="C120" s="115" t="s">
         <v>353</v>
       </c>
       <c r="D120" s="12">
@@ -7375,10 +7557,9 @@
         <v>615</v>
       </c>
     </row>
-    <row r="121" spans="1:33" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A121" s="155"/>
-      <c r="B121" s="161"/>
-      <c r="C121" s="143" t="s">
+    <row r="121" spans="1:33" s="14" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="B121" s="128"/>
+      <c r="C121" s="116" t="s">
         <v>275</v>
       </c>
       <c r="D121" s="72">
@@ -7397,9 +7578,8 @@
         <v>277</v>
       </c>
     </row>
-    <row r="122" spans="1:33" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A122" s="155"/>
-      <c r="B122" s="161"/>
+    <row r="122" spans="1:33" s="14" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="B122" s="128"/>
       <c r="C122" s="94" t="s">
         <v>297</v>
       </c>
@@ -7419,10 +7599,10 @@
         <v>303</v>
       </c>
     </row>
-    <row r="123" spans="1:33" s="32" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A123" s="155"/>
-      <c r="B123" s="161"/>
-      <c r="C123" s="142" t="s">
+    <row r="123" spans="1:33" s="32" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="A123" s="14"/>
+      <c r="B123" s="128"/>
+      <c r="C123" s="115" t="s">
         <v>400</v>
       </c>
       <c r="D123" s="79">
@@ -7441,7 +7621,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="124" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C124" s="45" t="s">
         <v>621</v>
       </c>
@@ -7461,10 +7641,9 @@
         <v>657</v>
       </c>
     </row>
-    <row r="125" spans="1:33" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A125" s="155"/>
-      <c r="B125" s="161"/>
-      <c r="C125" s="142" t="s">
+    <row r="125" spans="1:33" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="B125" s="128"/>
+      <c r="C125" s="115" t="s">
         <v>356</v>
       </c>
       <c r="D125" s="78">
@@ -7483,8 +7662,8 @@
         <v>628</v>
       </c>
     </row>
-    <row r="126" spans="1:33" ht="69.400000000000006" x14ac:dyDescent="0.4">
-      <c r="C126" s="144" t="s">
+    <row r="126" spans="1:33" ht="70" x14ac:dyDescent="0.3">
+      <c r="C126" s="117" t="s">
         <v>553</v>
       </c>
       <c r="D126" s="74">
@@ -7503,18 +7682,18 @@
         <v>557</v>
       </c>
     </row>
-    <row r="127" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C127" s="99" t="s">
+    <row r="127" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C127" s="150" t="s">
         <v>237</v>
       </c>
-      <c r="D127" s="100"/>
-      <c r="E127" s="100"/>
-      <c r="F127" s="100"/>
-      <c r="G127" s="100"/>
-      <c r="H127" s="101"/>
-    </row>
-    <row r="128" spans="1:33" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C128" s="145" t="s">
+      <c r="D127" s="151"/>
+      <c r="E127" s="151"/>
+      <c r="F127" s="151"/>
+      <c r="G127" s="151"/>
+      <c r="H127" s="152"/>
+    </row>
+    <row r="128" spans="1:33" ht="43" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C128" s="118" t="s">
         <v>659</v>
       </c>
       <c r="D128" s="86">
@@ -7554,8 +7733,8 @@
       <c r="AF128" s="85"/>
       <c r="AG128" s="85"/>
     </row>
-    <row r="129" spans="1:33" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C129" s="145" t="s">
+    <row r="129" spans="2:33" ht="43" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C129" s="118" t="s">
         <v>660</v>
       </c>
       <c r="D129" s="86">
@@ -7599,10 +7778,9 @@
       <c r="AF129" s="85"/>
       <c r="AG129" s="85"/>
     </row>
-    <row r="130" spans="1:33" s="29" customFormat="1" ht="111" x14ac:dyDescent="0.4">
-      <c r="A130" s="158"/>
-      <c r="B130" s="164"/>
-      <c r="C130" s="146" t="s">
+    <row r="130" spans="2:33" s="29" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+      <c r="B130" s="131"/>
+      <c r="C130" s="119" t="s">
         <v>390</v>
       </c>
       <c r="D130" s="88">
@@ -7621,10 +7799,9 @@
         <v>394</v>
       </c>
     </row>
-    <row r="131" spans="1:33" s="29" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A131" s="158"/>
-      <c r="B131" s="164"/>
-      <c r="C131" s="146" t="s">
+    <row r="131" spans="2:33" s="29" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="B131" s="131"/>
+      <c r="C131" s="119" t="s">
         <v>676</v>
       </c>
       <c r="D131" s="91">
@@ -7637,8 +7814,8 @@
       <c r="G131" s="91"/>
       <c r="H131" s="91"/>
     </row>
-    <row r="132" spans="1:33" ht="97.15" x14ac:dyDescent="0.4">
-      <c r="C132" s="147" t="s">
+    <row r="132" spans="2:33" ht="98" x14ac:dyDescent="0.3">
+      <c r="C132" s="120" t="s">
         <v>266</v>
       </c>
       <c r="D132" s="90">
@@ -7657,8 +7834,8 @@
         <v>268</v>
       </c>
     </row>
-    <row r="133" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C133" s="141" t="s">
+    <row r="133" spans="2:33" ht="28" x14ac:dyDescent="0.3">
+      <c r="C133" s="114" t="s">
         <v>675</v>
       </c>
       <c r="D133" s="43">
@@ -7669,8 +7846,8 @@
       <c r="G133" s="43"/>
       <c r="H133" s="43"/>
     </row>
-    <row r="134" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C134" s="141" t="s">
+    <row r="134" spans="2:33" ht="28" x14ac:dyDescent="0.3">
+      <c r="C134" s="114" t="s">
         <v>677</v>
       </c>
       <c r="D134" s="43">
@@ -7683,8 +7860,8 @@
       <c r="G134" s="43"/>
       <c r="H134" s="43"/>
     </row>
-    <row r="135" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C135" s="145" t="s">
+    <row r="135" spans="2:33" ht="28" x14ac:dyDescent="0.3">
+      <c r="C135" s="118" t="s">
         <v>678</v>
       </c>
       <c r="D135" s="12">
@@ -7697,8 +7874,8 @@
       <c r="G135" s="12"/>
       <c r="H135" s="12"/>
     </row>
-    <row r="136" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C136" s="139" t="s">
+    <row r="136" spans="2:33" ht="28" x14ac:dyDescent="0.3">
+      <c r="C136" s="112" t="s">
         <v>395</v>
       </c>
       <c r="D136" s="43">
@@ -7713,18 +7890,18 @@
       <c r="G136" s="43"/>
       <c r="H136" s="43"/>
     </row>
-    <row r="137" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C137" s="96" t="s">
+    <row r="137" spans="2:33" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C137" s="141" t="s">
         <v>542</v>
       </c>
-      <c r="D137" s="97"/>
-      <c r="E137" s="97"/>
-      <c r="F137" s="97"/>
-      <c r="G137" s="97"/>
-      <c r="H137" s="98"/>
-    </row>
-    <row r="138" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C138" s="148" t="s">
+      <c r="D137" s="142"/>
+      <c r="E137" s="142"/>
+      <c r="F137" s="142"/>
+      <c r="G137" s="142"/>
+      <c r="H137" s="143"/>
+    </row>
+    <row r="138" spans="2:33" ht="28" x14ac:dyDescent="0.3">
+      <c r="C138" s="121" t="s">
         <v>565</v>
       </c>
       <c r="D138" s="64">
@@ -7743,8 +7920,8 @@
         <v>569</v>
       </c>
     </row>
-    <row r="139" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C139" s="149" t="s">
+    <row r="139" spans="2:33" ht="28" x14ac:dyDescent="0.3">
+      <c r="C139" s="122" t="s">
         <v>375</v>
       </c>
       <c r="D139" s="52">
@@ -7763,8 +7940,8 @@
         <v>545</v>
       </c>
     </row>
-    <row r="140" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C140" s="150" t="s">
+    <row r="140" spans="2:33" ht="28" x14ac:dyDescent="0.3">
+      <c r="C140" s="123" t="s">
         <v>368</v>
       </c>
       <c r="D140" s="67">
@@ -7781,10 +7958,9 @@
       </c>
       <c r="H140" s="67"/>
     </row>
-    <row r="141" spans="1:33" s="14" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="A141" s="155"/>
-      <c r="B141" s="161"/>
-      <c r="C141" s="151" t="s">
+    <row r="141" spans="2:33" s="14" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+      <c r="B141" s="128"/>
+      <c r="C141" s="124" t="s">
         <v>312</v>
       </c>
       <c r="D141" s="62">
@@ -7803,7 +7979,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="143" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="143" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C143" s="45" t="s">
         <v>708</v>
       </c>
@@ -7811,17 +7987,17 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="145" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C145" s="96" t="s">
+    <row r="145" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C145" s="141" t="s">
         <v>274</v>
       </c>
-      <c r="D145" s="97"/>
-      <c r="E145" s="97"/>
-      <c r="F145" s="97"/>
-      <c r="G145" s="97"/>
-      <c r="H145" s="98"/>
-    </row>
-    <row r="146" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="D145" s="142"/>
+      <c r="E145" s="142"/>
+      <c r="F145" s="142"/>
+      <c r="G145" s="142"/>
+      <c r="H145" s="143"/>
+    </row>
+    <row r="146" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C146" s="45" t="s">
         <v>280</v>
       </c>
@@ -7835,7 +8011,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="147" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="147" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C147" s="45" t="s">
         <v>304</v>
       </c>
@@ -7849,7 +8025,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="148" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="148" spans="3:8" ht="56" x14ac:dyDescent="0.3">
       <c r="C148" s="45" t="s">
         <v>308</v>
       </c>
@@ -7866,7 +8042,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="149" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="149" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C149" s="45" t="s">
         <v>316</v>
       </c>
@@ -7880,7 +8056,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="150" spans="3:8" ht="111" x14ac:dyDescent="0.4">
+    <row r="150" spans="3:8" ht="98" x14ac:dyDescent="0.3">
       <c r="C150" s="45" t="s">
         <v>293</v>
       </c>
@@ -7900,18 +8076,18 @@
         <v>295</v>
       </c>
     </row>
-    <row r="153" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C153" s="96" t="s">
+    <row r="153" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="C153" s="141" t="s">
         <v>449</v>
       </c>
-      <c r="D153" s="97"/>
-      <c r="E153" s="97"/>
-      <c r="F153" s="97"/>
-      <c r="G153" s="97"/>
-      <c r="H153" s="98"/>
-    </row>
-    <row r="154" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C154" s="152" t="s">
+      <c r="D153" s="142"/>
+      <c r="E153" s="142"/>
+      <c r="F153" s="142"/>
+      <c r="G153" s="142"/>
+      <c r="H153" s="143"/>
+    </row>
+    <row r="154" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C154" s="125" t="s">
         <v>377</v>
       </c>
       <c r="D154" s="26">
@@ -7924,8 +8100,8 @@
       <c r="G154" s="26"/>
       <c r="H154" s="26"/>
     </row>
-    <row r="155" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C155" s="152" t="s">
+    <row r="155" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C155" s="125" t="s">
         <v>386</v>
       </c>
       <c r="D155" s="26">
@@ -7940,7 +8116,7 @@
       <c r="G155" s="26"/>
       <c r="H155" s="26"/>
     </row>
-    <row r="156" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="156" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C156" s="45" t="s">
         <v>388</v>
       </c>
@@ -7951,7 +8127,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="157" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="157" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C157" s="45" t="s">
         <v>525</v>
       </c>
@@ -7964,18 +8140,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C153:H153"/>
+    <mergeCell ref="C145:H145"/>
+    <mergeCell ref="C89:H89"/>
+    <mergeCell ref="C107:H107"/>
+    <mergeCell ref="C127:H127"/>
+    <mergeCell ref="C137:H137"/>
     <mergeCell ref="C77:H77"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="C44:H44"/>
     <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C153:H153"/>
-    <mergeCell ref="C145:H145"/>
-    <mergeCell ref="C89:H89"/>
-    <mergeCell ref="C107:H107"/>
-    <mergeCell ref="C127:H127"/>
-    <mergeCell ref="C137:H137"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7990,46 +8166,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F283F35-418D-4BB1-82BA-2ABDAAC924FE}">
   <dimension ref="B1:H25"/>
   <sheetViews>
-    <sheetView zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A15" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22:G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.9296875" customWidth="1"/>
+    <col min="2" max="2" width="11.9140625" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.796875" customWidth="1"/>
-    <col min="5" max="5" width="19.265625" style="37" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19.25" style="37" customWidth="1"/>
     <col min="6" max="6" width="35.33203125" customWidth="1"/>
-    <col min="7" max="7" width="40.46484375" customWidth="1"/>
+    <col min="7" max="7" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G1" s="37"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G2" s="37"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G3" s="37"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G4" s="37"/>
     </row>
-    <row r="5" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="2:8" ht="20.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="108" t="s">
+    <row r="6" spans="2:8" ht="20" x14ac:dyDescent="0.4">
+      <c r="B6" s="153" t="s">
         <v>457</v>
       </c>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="110"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="155"/>
       <c r="G6" s="37"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="56" t="s">
         <v>458</v>
       </c>
@@ -8049,8 +8225,8 @@
         <v>463</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="104.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="111" t="s">
+    <row r="8" spans="2:8" ht="104.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="156" t="s">
         <v>481</v>
       </c>
       <c r="C8" s="95" t="s">
@@ -8069,8 +8245,8 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="91.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="111"/>
+    <row r="9" spans="2:8" ht="91" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="156"/>
       <c r="C9" s="95" t="s">
         <v>571</v>
       </c>
@@ -8087,9 +8263,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="111"/>
-      <c r="C10" s="115" t="s">
+    <row r="10" spans="2:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="156"/>
+      <c r="C10" s="160" t="s">
         <v>572</v>
       </c>
       <c r="D10" s="27" t="s">
@@ -8105,9 +8281,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="96.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="111"/>
-      <c r="C11" s="116"/>
+    <row r="11" spans="2:8" ht="96.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="156"/>
+      <c r="C11" s="161"/>
       <c r="D11" s="27" t="s">
         <v>471</v>
       </c>
@@ -8121,9 +8297,9 @@
         <v>399</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="109.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="111"/>
-      <c r="C12" s="116"/>
+    <row r="12" spans="2:8" ht="109" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="156"/>
+      <c r="C12" s="161"/>
       <c r="D12" s="27" t="s">
         <v>474</v>
       </c>
@@ -8137,9 +8313,9 @@
         <v>324</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="89" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="111"/>
-      <c r="C13" s="116"/>
+    <row r="13" spans="2:8" ht="89" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="156"/>
+      <c r="C13" s="161"/>
       <c r="D13" s="28" t="s">
         <v>477</v>
       </c>
@@ -8153,9 +8329,9 @@
         <v>364</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B14" s="111"/>
-      <c r="C14" s="117"/>
+    <row r="14" spans="2:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="B14" s="156"/>
+      <c r="C14" s="162"/>
       <c r="D14" s="27" t="s">
         <v>480</v>
       </c>
@@ -8169,8 +8345,8 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="83.25" x14ac:dyDescent="0.4">
-      <c r="B15" s="111" t="s">
+    <row r="15" spans="2:8" ht="84" x14ac:dyDescent="0.3">
+      <c r="B15" s="156" t="s">
         <v>519</v>
       </c>
       <c r="C15" s="28" t="s">
@@ -8192,9 +8368,9 @@
         <v>515</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="B16" s="111"/>
-      <c r="C16" s="115" t="s">
+    <row r="16" spans="2:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="B16" s="156"/>
+      <c r="C16" s="160" t="s">
         <v>575</v>
       </c>
       <c r="D16" s="27" t="s">
@@ -8213,9 +8389,9 @@
         <v>516</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
-      <c r="B17" s="111"/>
-      <c r="C17" s="116"/>
+    <row r="17" spans="2:8" ht="70" x14ac:dyDescent="0.3">
+      <c r="B17" s="156"/>
+      <c r="C17" s="161"/>
       <c r="D17" s="28" t="s">
         <v>514</v>
       </c>
@@ -8232,9 +8408,9 @@
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="B18" s="111"/>
-      <c r="C18" s="116"/>
+    <row r="18" spans="2:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="B18" s="156"/>
+      <c r="C18" s="161"/>
       <c r="D18" s="27" t="s">
         <v>454</v>
       </c>
@@ -8251,9 +8427,9 @@
         <v>518</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
-      <c r="B19" s="111"/>
-      <c r="C19" s="117"/>
+    <row r="19" spans="2:8" ht="70" x14ac:dyDescent="0.3">
+      <c r="B19" s="156"/>
+      <c r="C19" s="162"/>
       <c r="D19" s="28" t="s">
         <v>486</v>
       </c>
@@ -8270,9 +8446,9 @@
         <v>517</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="97.15" x14ac:dyDescent="0.4">
-      <c r="B20" s="111"/>
-      <c r="C20" s="115" t="s">
+    <row r="20" spans="2:8" ht="84" x14ac:dyDescent="0.3">
+      <c r="B20" s="156"/>
+      <c r="C20" s="160" t="s">
         <v>574</v>
       </c>
       <c r="D20" s="28" t="s">
@@ -8291,9 +8467,9 @@
         <v>517</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="69.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="111"/>
-      <c r="C21" s="117"/>
+    <row r="21" spans="2:8" ht="69.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="156"/>
+      <c r="C21" s="162"/>
       <c r="D21" s="27" t="s">
         <v>480</v>
       </c>
@@ -8310,11 +8486,11 @@
         <v>517</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="112" t="s">
+    <row r="22" spans="2:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="B22" s="157" t="s">
         <v>136</v>
       </c>
-      <c r="C22" s="115" t="s">
+      <c r="C22" s="160" t="s">
         <v>204</v>
       </c>
       <c r="D22" s="27" t="s">
@@ -8330,9 +8506,9 @@
         <v>560</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B23" s="113"/>
-      <c r="C23" s="117"/>
+    <row r="23" spans="2:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="B23" s="158"/>
+      <c r="C23" s="162"/>
       <c r="D23" s="28" t="s">
         <v>558</v>
       </c>
@@ -8346,9 +8522,9 @@
         <v>552</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B24" s="113"/>
-      <c r="C24" s="115" t="s">
+    <row r="24" spans="2:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="B24" s="158"/>
+      <c r="C24" s="160" t="s">
         <v>576</v>
       </c>
       <c r="D24" s="65" t="s">
@@ -8364,9 +8540,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="42" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="114"/>
-      <c r="C25" s="118"/>
+    <row r="25" spans="2:8" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="159"/>
+      <c r="C25" s="163"/>
       <c r="D25" s="59" t="s">
         <v>546</v>
       </c>
@@ -8402,30 +8578,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA2D5F7-875F-47F0-9F8A-B0600D2F9679}">
   <dimension ref="B4:G17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.9296875" customWidth="1"/>
-    <col min="3" max="3" width="21.3984375" customWidth="1"/>
-    <col min="4" max="4" width="20.9296875" customWidth="1"/>
-    <col min="5" max="5" width="25.59765625" customWidth="1"/>
-    <col min="6" max="6" width="41.265625" customWidth="1"/>
-    <col min="7" max="7" width="15.59765625" customWidth="1"/>
+    <col min="2" max="2" width="14.9140625" customWidth="1"/>
+    <col min="3" max="3" width="21.4140625" customWidth="1"/>
+    <col min="4" max="4" width="20.9140625" customWidth="1"/>
+    <col min="5" max="5" width="25.58203125" customWidth="1"/>
+    <col min="6" max="6" width="41.25" customWidth="1"/>
+    <col min="7" max="7" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="2:7" ht="20.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="108" t="s">
+    <row r="4" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:7" ht="20" x14ac:dyDescent="0.4">
+      <c r="B5" s="153" t="s">
         <v>446</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="110"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="155"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="56" t="s">
         <v>458</v>
       </c>
@@ -8442,8 +8618,8 @@
         <v>530</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="111" t="s">
+    <row r="7" spans="2:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="B7" s="156" t="s">
         <v>481</v>
       </c>
       <c r="C7" s="53" t="s">
@@ -8459,8 +8635,8 @@
         <v>361</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B8" s="111"/>
+    <row r="8" spans="2:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="B8" s="156"/>
       <c r="C8" s="28" t="s">
         <v>577</v>
       </c>
@@ -8474,8 +8650,8 @@
         <v>527</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B9" s="111"/>
+    <row r="9" spans="2:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="B9" s="156"/>
       <c r="C9" s="28" t="s">
         <v>578</v>
       </c>
@@ -8489,8 +8665,8 @@
         <v>436</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B10" s="111"/>
+    <row r="10" spans="2:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="B10" s="156"/>
       <c r="C10" s="53" t="s">
         <v>572</v>
       </c>
@@ -8504,8 +8680,8 @@
         <v>366</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B11" s="111"/>
+    <row r="11" spans="2:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="B11" s="156"/>
       <c r="C11" s="28" t="s">
         <v>579</v>
       </c>
@@ -8519,8 +8695,8 @@
         <v>538</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="B12" s="111"/>
+    <row r="12" spans="2:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="B12" s="156"/>
       <c r="C12" s="28" t="s">
         <v>579</v>
       </c>
@@ -8534,8 +8710,8 @@
         <v>384</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B13" s="111" t="s">
+    <row r="13" spans="2:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="B13" s="156" t="s">
         <v>519</v>
       </c>
       <c r="C13" s="28" t="s">
@@ -8554,8 +8730,8 @@
         <v>539</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="55.9" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="111"/>
+    <row r="14" spans="2:7" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="156"/>
       <c r="C14" s="28" t="s">
         <v>580</v>
       </c>
@@ -8572,8 +8748,8 @@
         <v>540</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B15" s="111" t="s">
+    <row r="15" spans="2:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="B15" s="156" t="s">
         <v>136</v>
       </c>
       <c r="C15" s="28" t="s">
@@ -8589,8 +8765,8 @@
         <v>564</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B16" s="111"/>
+    <row r="16" spans="2:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="B16" s="156"/>
       <c r="C16" s="28" t="s">
         <v>542</v>
       </c>
@@ -8604,8 +8780,8 @@
         <v>368</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="42" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="119"/>
+    <row r="17" spans="2:6" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="164"/>
       <c r="C17" s="49" t="s">
         <v>542</v>
       </c>
@@ -8636,32 +8812,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5ECC81-6914-43CE-AB0A-E1BBB7ABC546}">
   <dimension ref="B7:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A16" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="14.1328125" customWidth="1"/>
-    <col min="5" max="6" width="16.1328125" customWidth="1"/>
-    <col min="7" max="7" width="15.73046875" customWidth="1"/>
-    <col min="8" max="8" width="20.59765625" customWidth="1"/>
-    <col min="9" max="9" width="22.46484375" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="6" width="16.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="20.58203125" customWidth="1"/>
+    <col min="9" max="9" width="22.5" customWidth="1"/>
     <col min="10" max="10" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:10" ht="20.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="D8" s="120" t="s">
+    <row r="7" spans="2:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:10" ht="20" x14ac:dyDescent="0.4">
+      <c r="D8" s="165" t="s">
         <v>457</v>
       </c>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="122"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="E8" s="166"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="166"/>
+      <c r="H8" s="166"/>
+      <c r="I8" s="167"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="81"/>
       <c r="C9" s="81"/>
       <c r="D9" s="56" t="s">
@@ -8686,11 +8862,11 @@
         <v>463</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="D10" s="111" t="s">
+    <row r="10" spans="2:10" ht="42" x14ac:dyDescent="0.3">
+      <c r="D10" s="156" t="s">
         <v>646</v>
       </c>
-      <c r="E10" s="115" t="s">
+      <c r="E10" s="160" t="s">
         <v>587</v>
       </c>
       <c r="F10" s="28">
@@ -8709,9 +8885,9 @@
         <v>590</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="D11" s="111"/>
-      <c r="E11" s="116"/>
+    <row r="11" spans="2:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="D11" s="156"/>
+      <c r="E11" s="161"/>
       <c r="F11" s="28">
         <v>2</v>
       </c>
@@ -8728,9 +8904,9 @@
         <v>592</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="D12" s="111"/>
-      <c r="E12" s="116"/>
+    <row r="12" spans="2:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="D12" s="156"/>
+      <c r="E12" s="161"/>
       <c r="F12" s="28">
         <v>3</v>
       </c>
@@ -8747,9 +8923,9 @@
         <v>597</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="D13" s="111"/>
-      <c r="E13" s="117"/>
+    <row r="13" spans="2:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="D13" s="156"/>
+      <c r="E13" s="162"/>
       <c r="F13" s="28">
         <v>4</v>
       </c>
@@ -8766,9 +8942,9 @@
         <v>597</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="D14" s="111"/>
-      <c r="E14" s="115" t="s">
+    <row r="14" spans="2:10" ht="42" x14ac:dyDescent="0.3">
+      <c r="D14" s="156"/>
+      <c r="E14" s="160" t="s">
         <v>603</v>
       </c>
       <c r="F14" s="28">
@@ -8787,9 +8963,9 @@
         <v>602</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="D15" s="111"/>
-      <c r="E15" s="116"/>
+    <row r="15" spans="2:10" ht="42" x14ac:dyDescent="0.3">
+      <c r="D15" s="156"/>
+      <c r="E15" s="161"/>
       <c r="F15" s="28">
         <v>6</v>
       </c>
@@ -8806,9 +8982,9 @@
         <v>629</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="D16" s="111"/>
-      <c r="E16" s="116"/>
+    <row r="16" spans="2:10" ht="42" x14ac:dyDescent="0.3">
+      <c r="D16" s="156"/>
+      <c r="E16" s="161"/>
       <c r="F16" s="28">
         <v>7</v>
       </c>
@@ -8825,9 +9001,9 @@
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="4:10" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="D17" s="111"/>
-      <c r="E17" s="116"/>
+    <row r="17" spans="4:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="D17" s="156"/>
+      <c r="E17" s="161"/>
       <c r="F17" s="28">
         <v>8</v>
       </c>
@@ -8844,9 +9020,9 @@
         <v>609</v>
       </c>
     </row>
-    <row r="18" spans="4:10" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="D18" s="111"/>
-      <c r="E18" s="116"/>
+    <row r="18" spans="4:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="D18" s="156"/>
+      <c r="E18" s="161"/>
       <c r="F18" s="28">
         <v>9</v>
       </c>
@@ -8863,9 +9039,9 @@
         <v>618</v>
       </c>
     </row>
-    <row r="19" spans="4:10" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="D19" s="111"/>
-      <c r="E19" s="116"/>
+    <row r="19" spans="4:10" ht="42" x14ac:dyDescent="0.3">
+      <c r="D19" s="156"/>
+      <c r="E19" s="161"/>
       <c r="F19" s="28">
         <v>10</v>
       </c>
@@ -8882,9 +9058,9 @@
         <v>619</v>
       </c>
     </row>
-    <row r="20" spans="4:10" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="D20" s="111"/>
-      <c r="E20" s="116"/>
+    <row r="20" spans="4:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="D20" s="156"/>
+      <c r="E20" s="161"/>
       <c r="F20" s="28">
         <v>11</v>
       </c>
@@ -8901,9 +9077,9 @@
         <v>626</v>
       </c>
     </row>
-    <row r="21" spans="4:10" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="D21" s="111"/>
-      <c r="E21" s="116"/>
+    <row r="21" spans="4:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="D21" s="156"/>
+      <c r="E21" s="161"/>
       <c r="F21" s="28">
         <v>12</v>
       </c>
@@ -8920,9 +9096,9 @@
         <v>632</v>
       </c>
     </row>
-    <row r="22" spans="4:10" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="D22" s="111"/>
-      <c r="E22" s="117"/>
+    <row r="22" spans="4:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="D22" s="156"/>
+      <c r="E22" s="162"/>
       <c r="F22" s="28">
         <v>13</v>
       </c>
@@ -8939,8 +9115,8 @@
         <v>642</v>
       </c>
     </row>
-    <row r="23" spans="4:10" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="D23" s="111"/>
+    <row r="23" spans="4:10" ht="56" x14ac:dyDescent="0.3">
+      <c r="D23" s="156"/>
       <c r="E23" s="95" t="s">
         <v>643</v>
       </c>
@@ -8960,11 +9136,11 @@
         <v>645</v>
       </c>
     </row>
-    <row r="24" spans="4:10" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="D24" s="111" t="s">
+    <row r="24" spans="4:10" ht="42" x14ac:dyDescent="0.3">
+      <c r="D24" s="156" t="s">
         <v>684</v>
       </c>
-      <c r="E24" s="115" t="s">
+      <c r="E24" s="160" t="s">
         <v>662</v>
       </c>
       <c r="F24" s="28">
@@ -8983,9 +9159,9 @@
         <v>663</v>
       </c>
     </row>
-    <row r="25" spans="4:10" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="D25" s="111"/>
-      <c r="E25" s="116"/>
+    <row r="25" spans="4:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="D25" s="156"/>
+      <c r="E25" s="161"/>
       <c r="F25" s="28">
         <v>16</v>
       </c>
@@ -9002,9 +9178,9 @@
         <v>668</v>
       </c>
     </row>
-    <row r="26" spans="4:10" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="D26" s="111"/>
-      <c r="E26" s="116"/>
+    <row r="26" spans="4:10" ht="56" x14ac:dyDescent="0.3">
+      <c r="D26" s="156"/>
+      <c r="E26" s="161"/>
       <c r="F26" s="28">
         <v>17</v>
       </c>
@@ -9021,9 +9197,9 @@
         <v>690</v>
       </c>
     </row>
-    <row r="27" spans="4:10" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="D27" s="111"/>
-      <c r="E27" s="116"/>
+    <row r="27" spans="4:10" ht="42" x14ac:dyDescent="0.3">
+      <c r="D27" s="156"/>
+      <c r="E27" s="161"/>
       <c r="F27" s="28">
         <v>18</v>
       </c>
@@ -9040,9 +9216,9 @@
         <v>680</v>
       </c>
     </row>
-    <row r="28" spans="4:10" ht="42" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D28" s="119"/>
-      <c r="E28" s="118"/>
+    <row r="28" spans="4:10" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D28" s="164"/>
+      <c r="E28" s="163"/>
       <c r="F28" s="28">
         <v>19</v>
       </c>
@@ -9077,29 +9253,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3F6B80-8172-4F79-9600-6FDEB5D9C203}">
   <dimension ref="C5:G17"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="20.265625" customWidth="1"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="25.265625" customWidth="1"/>
-    <col min="7" max="7" width="43.9296875" customWidth="1"/>
+    <col min="6" max="6" width="25.25" customWidth="1"/>
+    <col min="7" max="7" width="43.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="3:7" ht="20.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="120" t="s">
+    <row r="5" spans="3:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="3:7" ht="20" x14ac:dyDescent="0.4">
+      <c r="C6" s="165" t="s">
         <v>446</v>
       </c>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="122"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="167"/>
       <c r="G6" s="37"/>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C7" s="82" t="s">
         <v>458</v>
       </c>
@@ -9116,11 +9292,11 @@
         <v>530</v>
       </c>
     </row>
-    <row r="8" spans="3:7" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C8" s="111" t="s">
+    <row r="8" spans="3:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="C8" s="156" t="s">
         <v>646</v>
       </c>
-      <c r="D8" s="115" t="s">
+      <c r="D8" s="160" t="s">
         <v>603</v>
       </c>
       <c r="E8" s="28" t="s">
@@ -9133,9 +9309,9 @@
         <v>648</v>
       </c>
     </row>
-    <row r="9" spans="3:7" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C9" s="111"/>
-      <c r="D9" s="117"/>
+    <row r="9" spans="3:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="C9" s="156"/>
+      <c r="D9" s="162"/>
       <c r="E9" s="28" t="s">
         <v>702</v>
       </c>
@@ -9146,9 +9322,9 @@
         <v>653</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C10" s="111"/>
-      <c r="D10" s="115" t="s">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C10" s="156"/>
+      <c r="D10" s="160" t="s">
         <v>587</v>
       </c>
       <c r="E10" s="28" t="s">
@@ -9161,9 +9337,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="3:7" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C11" s="111"/>
-      <c r="D11" s="116"/>
+    <row r="11" spans="3:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="C11" s="156"/>
+      <c r="D11" s="161"/>
       <c r="E11" s="28" t="s">
         <v>658</v>
       </c>
@@ -9174,9 +9350,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="3:7" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C12" s="111"/>
-      <c r="D12" s="117"/>
+    <row r="12" spans="3:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="C12" s="156"/>
+      <c r="D12" s="162"/>
       <c r="E12" s="28" t="s">
         <v>658</v>
       </c>
@@ -9187,11 +9363,11 @@
         <v>297</v>
       </c>
     </row>
-    <row r="13" spans="3:7" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C13" s="111" t="s">
+    <row r="13" spans="3:7" ht="56" x14ac:dyDescent="0.3">
+      <c r="C13" s="156" t="s">
         <v>684</v>
       </c>
-      <c r="D13" s="115" t="s">
+      <c r="D13" s="160" t="s">
         <v>662</v>
       </c>
       <c r="E13" s="37" t="s">
@@ -9204,9 +9380,9 @@
         <v>690</v>
       </c>
     </row>
-    <row r="14" spans="3:7" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C14" s="111"/>
-      <c r="D14" s="116"/>
+    <row r="14" spans="3:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="C14" s="156"/>
+      <c r="D14" s="161"/>
       <c r="E14" s="27" t="s">
         <v>693</v>
       </c>
@@ -9217,9 +9393,9 @@
         <v>691</v>
       </c>
     </row>
-    <row r="15" spans="3:7" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C15" s="111"/>
-      <c r="D15" s="116"/>
+    <row r="15" spans="3:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="C15" s="156"/>
+      <c r="D15" s="161"/>
       <c r="E15" s="27" t="s">
         <v>393</v>
       </c>
@@ -9230,9 +9406,9 @@
         <v>692</v>
       </c>
     </row>
-    <row r="16" spans="3:7" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C16" s="111"/>
-      <c r="D16" s="116"/>
+    <row r="16" spans="3:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="C16" s="156"/>
+      <c r="D16" s="161"/>
       <c r="E16" s="27" t="s">
         <v>705</v>
       </c>
@@ -9243,9 +9419,9 @@
         <v>699</v>
       </c>
     </row>
-    <row r="17" spans="3:7" ht="42" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="119"/>
-      <c r="D17" s="118"/>
+    <row r="17" spans="3:7" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="164"/>
+      <c r="D17" s="163"/>
       <c r="E17" s="27" t="s">
         <v>706</v>
       </c>
@@ -9272,292 +9448,459 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6FED96-B02C-4C68-8AE8-637A87A3F611}">
-  <dimension ref="C1:H26"/>
+  <dimension ref="C1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="64.86328125" style="165" customWidth="1"/>
-    <col min="4" max="4" width="50.19921875" style="166" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" style="166" customWidth="1"/>
-    <col min="6" max="6" width="40.1328125" style="166" customWidth="1"/>
-    <col min="7" max="7" width="19.3984375" style="166" customWidth="1"/>
-    <col min="8" max="8" width="29.73046875" customWidth="1"/>
+    <col min="3" max="3" width="64.83203125" style="37" customWidth="1"/>
+    <col min="4" max="4" width="50.1640625" style="132" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" style="132" customWidth="1"/>
+    <col min="6" max="6" width="43.1640625" style="132" customWidth="1"/>
+    <col min="7" max="7" width="19.4140625" style="132" customWidth="1"/>
+    <col min="8" max="8" width="29.75" customWidth="1"/>
+    <col min="9" max="9" width="32.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" s="37" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="165"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-    </row>
-    <row r="2" spans="3:8" s="37" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="165"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-    </row>
-    <row r="3" spans="3:8" s="37" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="165"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-    </row>
-    <row r="4" spans="3:8" s="37" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="165"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-    </row>
-    <row r="5" spans="3:8" s="37" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="169" t="s">
+    <row r="1" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+    </row>
+    <row r="2" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+    </row>
+    <row r="3" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+    </row>
+    <row r="4" spans="3:9" s="37" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+    </row>
+    <row r="5" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="135" t="s">
         <v>709</v>
       </c>
-      <c r="D5" s="170" t="s">
+      <c r="D5" s="136" t="s">
         <v>710</v>
       </c>
-      <c r="E5" s="170" t="s">
+      <c r="E5" s="136" t="s">
         <v>711</v>
       </c>
-      <c r="F5" s="170" t="s">
+      <c r="F5" s="136" t="s">
         <v>712</v>
       </c>
-      <c r="G5" s="170" t="s">
+      <c r="G5" s="136" t="s">
         <v>713</v>
       </c>
-      <c r="H5" s="171" t="s">
+      <c r="H5" s="137" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="C6" s="138" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6" s="134" t="s">
+        <v>716</v>
+      </c>
+      <c r="E6" s="134" t="s">
+        <v>715</v>
+      </c>
+      <c r="F6" s="134" t="s">
+        <v>714</v>
+      </c>
+      <c r="G6" s="134" t="s">
+        <v>743</v>
+      </c>
+      <c r="H6" s="139" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="138" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="6" spans="3:8" s="37" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C6" s="172" t="s">
-        <v>240</v>
-      </c>
-      <c r="D6" s="168" t="s">
-        <v>716</v>
-      </c>
-      <c r="E6" s="168" t="s">
-        <v>715</v>
-      </c>
-      <c r="F6" s="168" t="s">
-        <v>714</v>
-      </c>
-      <c r="G6" s="168" t="s">
+      <c r="D7" s="171" t="s">
+        <v>739</v>
+      </c>
+      <c r="E7" s="171"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="173"/>
+    </row>
+    <row r="8" spans="3:9" s="37" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="C8" s="138" t="s">
+        <v>238</v>
+      </c>
+      <c r="D8" s="134" t="s">
         <v>718</v>
       </c>
-      <c r="H6" s="173" t="s">
+      <c r="E8" s="134" t="s">
+        <v>719</v>
+      </c>
+      <c r="F8" s="134" t="s">
+        <v>720</v>
+      </c>
+      <c r="G8" s="134" t="s">
+        <v>721</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="C9" s="138" t="s">
+        <v>732</v>
+      </c>
+      <c r="D9" s="134" t="s">
+        <v>729</v>
+      </c>
+      <c r="E9" s="134" t="s">
+        <v>733</v>
+      </c>
+      <c r="F9" s="134" t="s">
+        <v>731</v>
+      </c>
+      <c r="G9" s="134" t="s">
+        <v>721</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="C10" s="169" t="s">
+        <v>436</v>
+      </c>
+      <c r="D10" s="134" t="s">
+        <v>735</v>
+      </c>
+      <c r="E10" s="134" t="s">
+        <v>738</v>
+      </c>
+      <c r="F10" s="134" t="s">
+        <v>721</v>
+      </c>
+      <c r="G10" s="134" t="s">
+        <v>737</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>736</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="C11" s="138" t="s">
+        <v>329</v>
+      </c>
+      <c r="D11" s="134" t="s">
+        <v>726</v>
+      </c>
+      <c r="E11" s="134" t="s">
+        <v>724</v>
+      </c>
+      <c r="F11" s="134" t="s">
+        <v>728</v>
+      </c>
+      <c r="G11" s="28" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="7" spans="3:8" s="37" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="172" t="s">
-        <v>719</v>
-      </c>
-      <c r="D7" s="177" t="s">
+      <c r="H11" s="48" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="C12" s="168" t="s">
+        <v>399</v>
+      </c>
+      <c r="D12" s="134" t="s">
+        <v>740</v>
+      </c>
+      <c r="E12" s="134" t="s">
+        <v>741</v>
+      </c>
+      <c r="F12" s="134" t="s">
         <v>720</v>
       </c>
-      <c r="E7" s="178"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="178"/>
-      <c r="H7" s="179"/>
-    </row>
-    <row r="8" spans="3:8" s="37" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C8" s="172" t="s">
-        <v>238</v>
-      </c>
-      <c r="D8" s="168" t="s">
+      <c r="G12" s="134" t="s">
         <v>721</v>
       </c>
-      <c r="E8" s="168" t="s">
-        <v>722</v>
-      </c>
-      <c r="F8" s="168" t="s">
-        <v>723</v>
-      </c>
-      <c r="G8" s="168" t="s">
-        <v>724</v>
-      </c>
-      <c r="H8" s="48" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" s="37" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C9" s="172" t="s">
-        <v>334</v>
-      </c>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="168"/>
-      <c r="H9" s="48"/>
-    </row>
-    <row r="10" spans="3:8" s="37" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="174" t="s">
-        <v>436</v>
-      </c>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
-      <c r="G10" s="168"/>
-      <c r="H10" s="48"/>
-    </row>
-    <row r="11" spans="3:8" s="37" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C11" s="172" t="s">
-        <v>329</v>
-      </c>
-      <c r="D11" s="168" t="s">
-        <v>729</v>
-      </c>
-      <c r="E11" s="168" t="s">
-        <v>727</v>
-      </c>
-      <c r="F11" s="168"/>
-      <c r="G11" s="48" t="s">
-        <v>728</v>
-      </c>
-      <c r="H11" s="48"/>
-    </row>
-    <row r="12" spans="3:8" s="37" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C12" s="172" t="s">
-        <v>399</v>
-      </c>
-      <c r="D12" s="168"/>
-      <c r="E12" s="168"/>
-      <c r="F12" s="168"/>
-      <c r="G12" s="168"/>
-      <c r="H12" s="48"/>
-    </row>
-    <row r="13" spans="3:8" s="37" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C13" s="172" t="s">
-        <v>412</v>
-      </c>
-      <c r="D13" s="168"/>
-      <c r="E13" s="168"/>
-      <c r="F13" s="168"/>
-      <c r="G13" s="168"/>
-      <c r="H13" s="48"/>
-    </row>
-    <row r="14" spans="3:8" s="37" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C14" s="172" t="s">
-        <v>409</v>
-      </c>
-      <c r="D14" s="168"/>
-      <c r="E14" s="168"/>
-      <c r="F14" s="168"/>
-      <c r="G14" s="168"/>
-      <c r="H14" s="48"/>
-    </row>
-    <row r="15" spans="3:8" s="37" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C15" s="174" t="s">
+      <c r="H12" s="48" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" s="37" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="C13" s="140" t="s">
         <v>324</v>
       </c>
-      <c r="D15" s="168"/>
-      <c r="E15" s="168"/>
-      <c r="F15" s="168"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="48"/>
-    </row>
-    <row r="16" spans="3:8" s="37" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C16" s="174" t="s">
-        <v>414</v>
-      </c>
-      <c r="D16" s="168"/>
-      <c r="E16" s="168"/>
-      <c r="F16" s="168"/>
-      <c r="G16" s="168"/>
+      <c r="D13" s="134" t="s">
+        <v>745</v>
+      </c>
+      <c r="E13" s="134" t="s">
+        <v>746</v>
+      </c>
+      <c r="F13" s="134" t="s">
+        <v>748</v>
+      </c>
+      <c r="G13" s="134" t="s">
+        <v>747</v>
+      </c>
+      <c r="H13" s="48" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" s="37" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+      <c r="C14" s="140" t="s">
+        <v>364</v>
+      </c>
+      <c r="D14" s="134" t="s">
+        <v>750</v>
+      </c>
+      <c r="E14" s="134" t="s">
+        <v>749</v>
+      </c>
+      <c r="F14" s="134" t="s">
+        <v>752</v>
+      </c>
+      <c r="G14" s="134" t="s">
+        <v>721</v>
+      </c>
+      <c r="H14" s="48" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" s="37" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+      <c r="C15" s="138" t="s">
+        <v>287</v>
+      </c>
+      <c r="D15" s="134" t="s">
+        <v>756</v>
+      </c>
+      <c r="E15" s="134" t="s">
+        <v>755</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>754</v>
+      </c>
+      <c r="H15" s="170" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="C16" s="138" t="s">
+        <v>366</v>
+      </c>
+      <c r="D16" s="134"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
       <c r="H16" s="48"/>
     </row>
-    <row r="17" spans="3:8" s="37" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C17" s="174" t="s">
-        <v>364</v>
-      </c>
-      <c r="D17" s="168"/>
-      <c r="E17" s="168"/>
-      <c r="F17" s="168"/>
-      <c r="G17" s="168"/>
+    <row r="17" spans="3:8" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="C17" s="138" t="s">
+        <v>538</v>
+      </c>
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="134"/>
       <c r="H17" s="48"/>
     </row>
-    <row r="18" spans="3:8" s="37" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C18" s="172" t="s">
-        <v>287</v>
-      </c>
-      <c r="D18" s="168"/>
-      <c r="E18" s="168"/>
-      <c r="F18" s="168"/>
-      <c r="G18" s="168"/>
+    <row r="18" spans="3:8" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="C18" s="138" t="s">
+        <v>384</v>
+      </c>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="134"/>
       <c r="H18" s="48"/>
     </row>
-    <row r="19" spans="3:8" s="37" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C19" s="172" t="s">
-        <v>366</v>
-      </c>
-      <c r="D19" s="168"/>
-      <c r="E19" s="168"/>
-      <c r="F19" s="168"/>
-      <c r="G19" s="168"/>
+    <row r="19" spans="3:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="174" t="s">
+        <v>769</v>
+      </c>
+      <c r="D19" s="134"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="134"/>
       <c r="H19" s="48"/>
     </row>
-    <row r="20" spans="3:8" s="37" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C20" s="172" t="s">
-        <v>443</v>
-      </c>
-      <c r="D20" s="168"/>
-      <c r="E20" s="168"/>
-      <c r="F20" s="168"/>
-      <c r="G20" s="168"/>
+    <row r="20" spans="3:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="174" t="s">
+        <v>382</v>
+      </c>
+      <c r="D20" s="134"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="134"/>
       <c r="H20" s="48"/>
     </row>
-    <row r="21" spans="3:8" s="37" customFormat="1" ht="28.15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C21" s="175" t="s">
-        <v>384</v>
-      </c>
-      <c r="D21" s="176"/>
-      <c r="E21" s="176"/>
-      <c r="F21" s="176"/>
-      <c r="G21" s="176"/>
-      <c r="H21" s="70"/>
-    </row>
-    <row r="22" spans="3:8" s="37" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="165"/>
-      <c r="D22" s="167"/>
-      <c r="E22" s="167"/>
-      <c r="F22" s="167"/>
-      <c r="G22" s="167"/>
-    </row>
-    <row r="23" spans="3:8" s="37" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="165"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="167"/>
-      <c r="G23" s="167"/>
-    </row>
-    <row r="24" spans="3:8" s="37" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="165"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="167"/>
-    </row>
-    <row r="25" spans="3:8" s="37" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C25" s="165"/>
-      <c r="D25" s="167"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="167"/>
-      <c r="G25" s="167"/>
-    </row>
-    <row r="26" spans="3:8" s="37" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="165"/>
-      <c r="D26" s="167"/>
-      <c r="E26" s="167"/>
-      <c r="F26" s="167"/>
-      <c r="G26" s="167"/>
+    <row r="21" spans="3:8" s="37" customFormat="1" ht="84" x14ac:dyDescent="0.3">
+      <c r="C21" s="174" t="s">
+        <v>379</v>
+      </c>
+      <c r="D21" s="134" t="s">
+        <v>775</v>
+      </c>
+      <c r="E21" s="134" t="s">
+        <v>776</v>
+      </c>
+      <c r="F21" s="134" t="s">
+        <v>773</v>
+      </c>
+      <c r="G21" s="134"/>
+      <c r="H21" s="180" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="C22" s="174" t="s">
+        <v>372</v>
+      </c>
+      <c r="D22" s="134"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="48"/>
+    </row>
+    <row r="23" spans="3:8" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="C23" s="174" t="s">
+        <v>488</v>
+      </c>
+      <c r="D23" s="134"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="134"/>
+      <c r="H23" s="48"/>
+    </row>
+    <row r="24" spans="3:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="C24" s="174" t="s">
+        <v>282</v>
+      </c>
+      <c r="D24" s="172" t="s">
+        <v>761</v>
+      </c>
+      <c r="E24" s="134" t="s">
+        <v>760</v>
+      </c>
+      <c r="F24" s="172" t="s">
+        <v>763</v>
+      </c>
+      <c r="G24" s="134" t="s">
+        <v>759</v>
+      </c>
+      <c r="H24" s="180" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C25" s="174" t="s">
+        <v>521</v>
+      </c>
+      <c r="D25" s="172"/>
+      <c r="E25" s="172"/>
+      <c r="F25" s="172"/>
+      <c r="G25" s="172"/>
+      <c r="H25" s="93"/>
+    </row>
+    <row r="26" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C26" s="174" t="s">
+        <v>374</v>
+      </c>
+      <c r="D26" s="172"/>
+      <c r="E26" s="172"/>
+      <c r="F26" s="172"/>
+      <c r="G26" s="172"/>
+      <c r="H26" s="93"/>
+    </row>
+    <row r="27" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C27" s="174" t="s">
+        <v>370</v>
+      </c>
+      <c r="D27" s="172" t="s">
+        <v>761</v>
+      </c>
+      <c r="E27" s="95" t="s">
+        <v>772</v>
+      </c>
+      <c r="F27" s="172" t="s">
+        <v>773</v>
+      </c>
+      <c r="G27" s="134" t="s">
+        <v>771</v>
+      </c>
+      <c r="H27" s="93" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" ht="70" x14ac:dyDescent="0.3">
+      <c r="C28" s="175" t="s">
+        <v>560</v>
+      </c>
+      <c r="D28" s="134" t="s">
+        <v>767</v>
+      </c>
+      <c r="E28" s="134" t="s">
+        <v>766</v>
+      </c>
+      <c r="F28" s="172" t="s">
+        <v>765</v>
+      </c>
+      <c r="G28" s="134" t="s">
+        <v>768</v>
+      </c>
+      <c r="H28" s="48" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C29" s="175" t="s">
+        <v>552</v>
+      </c>
+      <c r="D29" s="172"/>
+      <c r="E29" s="172"/>
+      <c r="F29" s="172"/>
+      <c r="G29" s="172"/>
+      <c r="H29" s="93"/>
+    </row>
+    <row r="30" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C30" s="176" t="s">
+        <v>312</v>
+      </c>
+      <c r="D30" s="172"/>
+      <c r="E30" s="172"/>
+      <c r="F30" s="172"/>
+      <c r="G30" s="172"/>
+      <c r="H30" s="93"/>
+    </row>
+    <row r="31" spans="3:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="177" t="s">
+        <v>561</v>
+      </c>
+      <c r="D31" s="178"/>
+      <c r="E31" s="178"/>
+      <c r="F31" s="178"/>
+      <c r="G31" s="178"/>
+      <c r="H31" s="179"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9569,23 +9912,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="74117954-47dd-4623-be10-f2d34b3fe6e8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100650C27B66691BA4BB901C940018B449F" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="856977a71e7c379887d8f02f6ee17dc3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="74117954-47dd-4623-be10-f2d34b3fe6e8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f93a31a691d6cd74e693f1feb46bcb1" ns3:_="">
     <xsd:import namespace="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
@@ -9729,10 +10055,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="74117954-47dd-4623-be10-f2d34b3fe6e8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16812470-A4E1-4DBD-AEE1-4642C4933AF0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{411558D9-DEA1-49BF-987E-1A683BCBCD59}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9754,19 +10107,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{411558D9-DEA1-49BF-987E-1A683BCBCD59}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16812470-A4E1-4DBD-AEE1-4642C4933AF0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ML Apply in OS/summary (new version).xlsx
+++ b/ML Apply in OS/summary (new version).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research-23\AIOS\ML Apply in OS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7886794-CCB4-4460-9546-EDCEF9B7137A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8F1091-8FB6-430D-B0FD-FE45B751B817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,8 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="966">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3064,10 +3066,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">achieving 80-97% inference accuracy </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> sub-10µs inference overhead for each I/O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3089,6 +3087,804 @@
   <si>
     <t>Generate workload by Nginx,
 MySQL, WordPress, FileBench, ffmpeg, Parsec benchmark suite and  GNU Compiler Collection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> kernel runtimes， workload latency and scheduler execution latency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Variant Calling and Genotyping Analysis in Human Genome Datasets， Epilepsy Detection and Localization Using Intra-cranial Electroencephalography Data， Online Security Analytics for Intrusion Detection Systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8 times faster than Paragon and 1.6 times faster than Graphene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not in the kernel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the median and tail (i.e., 99th percentile) runtime of Symphony outperformed the second best by close to 32%.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 workloads: file reading, file writing, random SQL database queries, two mixed access pattern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It outperforms existing disk schedulers by as much as
+15.8 percent while consuming less than 3 percent - 5 percent of CPU time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prediction Accuracy, Response Time,  Throughput, CPU Utilization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>less than 3 percent - 5 percent of CPU time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train offline, in-kernel implementation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Success Rate (SR), Average Response Time (ART), Energy Cost (EC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not mentioned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>own-developed workloads</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. less energy cost, only about 60%–70% of the baselines; 2.  about 35%–40% higher success rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>training time overhead: with
+a median time of about 40 seconds (for 6000 training
+samples)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPI-IO Test benchmarking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">improves performance by up
+to 75% </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Median Performance Increases and Decreases, Correct Selection Rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Financial 1 and WebSearch 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prediction accuracy, the computational speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">trained offline </t>
+  </si>
+  <si>
+    <t>method reduced the computational speed by almost 24% and increased the accuracy by 14%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interleaved or Random I/O benchmark (IOR) , S3D-IO, GenericIO, BT-IO </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">upto 11× improvements in read and write bandwidths </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I/O bandwidths,  median absolute percentage prediction error (MdAPE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in O(N)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSRC traces, FIO traces, Personal computer traces</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System Throughput, Standard Deviation of I/O Latency, Worst-Case Latency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>less than 300 ns for each table query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce the standard deviation of I/O latency by 19.1 percent, worstcase latency by 7.3-60.9 percent at the cost of 3.9 percent system throughput on average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conducted with a trace-driven simulator SSDsim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Precision,  Execution time, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the minimum observed overhead was 0.02%, the median, 1.8%, and the maximum of 32%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieving 80-97% inference accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">reaching a precision
+of ≈ 88%, improvements of up to 19.3% </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPI-IO Test benchmarking, MADbench2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user-space task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> DaCapo benchmark suite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mean per-class accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSML lies in the user space and exchanges information with the OS kernel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>highets achieves 92% MPCA, dropped to 51% on the held-out test datase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> QoS,  Effective Machine Utilization (EMU), </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.01s of a single core for ML mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> OSML supports higher
+loads and meets QoS targets with lower scheduling overheads
+and shorter convergence time than previous studies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tailbench, Memcached official website,  MongoDB official website</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAS Parallel Benchmarks, Lawrence Livermore Lab’s Co-design benchmarks, Argonne’s CESAR Proxy-apps, XSBench,  RSBench</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>: Execution time, power, energy eiciency, and energy consumption behavior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decreasing energy consumption over the naive race scheduler by 20% on average, and by as much as 38%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>possibly in user space and use system call to allocate,  co-worker of the operating system (OS) scheduler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prediction overhead from 0.13 to 0.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total Service Level Agreement (SLA) revenue per allocation decision, summed over all applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in both openloop and closed-loop traffic, hybrid RL training can achieve significant performance improvements over a variety of initial model-based policies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adapts a learned autoscaling policy to new workloads 5.5× faster than the existing approaches</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenAI Gym-like RL interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adaptation Speed, Online Policy-serving Performance, Bootstrapping Efficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> real-world datacenter traces released by Microsoft Azure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in applications, decentralized</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29 SPEC CPU 2006 benchmarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consume approximately 11KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use in-house simulator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29 SPEC CPU 2006 benchmarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>about  10KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weighted speedup, misses per 1000 instructions
+(MPKI), average false positive rate , memory overhead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weighted speedup, MPKI, False Positive Rate and True Positive Rate, Misses per 1000 Instructions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.0% speedup over LRU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1% speedup over LRU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPEC CPU2006, SPEC CPU2017, GAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trained offline, test on CRC2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accuracy, Miss rate reduction,  Speedup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reducing the miss rate over
+LRU by 8.9%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62KB model size, 8 operations per sample for both training and testing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPEC CPU 2006 benchmarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>implement in MARSSx86 simulator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPC,Prefetch Correct and Error, Perceptron Deny Rate, Prefetch Suggestion Decrease,  Cache Hits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yields a geometric mean of 60.64%-83.84% decrease in prefetching memory requests</t>
+  </si>
+  <si>
+    <t>7.375KB memory overhead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Improve performance of 3.78% for a single-core configuration, and by 11.4% for a 4-core
+configuration,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">implement in ChampSim </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 39.34 KB storage overhead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>geometric mean speedup, Fraction of Cache Misses Covered, IPC speedup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> divides the number of page cache misses (major page faults) by 2 on average and thus
+reduces TPC-H queries execution time by 50% </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> TPC-H benchmark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>implement in Linux kernel, use system call</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Total execution time, Major page-faults, System time, Memory overhead, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>94MB, less than 1% of the TPC-H file data size (10GB), and less than 0.5% of the overall workload (18GB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPEC CPU2006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU-related</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Precision, Recall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Higher precision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.17KB storage overhead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Prediction Accuracy, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSTM prefetcher can achieve 85.6%, 82.8%, and 86.8% accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieve over 95% accuracy</t>
+  </si>
+  <si>
+    <t>own-developed: generated a suite of microbenchmarks written in C++,
+representing the different memory access patterns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>possibly own-developed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no n-system implement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SPEC06, and GAP </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prediction accuracy and performance improvements</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>implement in ChampSim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">speedup in maximum over 80% </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPEC06 and SPEC17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy, coverage, MPKI (miss per kilo-instructions) improvement, and IPC (instructions per cycle) improvement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieves 35.67% MPKI improvement and 20.55% IPC improvement</t>
+  </si>
+  <si>
+    <t>user-level trained kernel insertion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Performance, prediction accuracy and CPU overheads</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21us </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>on average</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for readahead; 432KB of  kernel module readhead,  memory footprint of 5.5MB for the framework</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>improve  I/O throughput by 2.3x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> RocksDB--TPC-H </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPEC CPU 2017 benchmark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduces on average 80% of the performance gap between the existing solutions and an oracle with knowledge of
+future access pattern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CORAL, PARSEC, Rodinia and windows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prediction accuracy using e Mean Absolute
+Error (MAE),  Reduction in the number of page misplacements</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>less than 0.5 MB per model for inference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not explicitly mention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Relative prediction error</t>
+  </si>
+  <si>
+    <t>the SVR-based predictions were within 10% of the actual throughput 87% of the time for bulk transfers under heavy traffic conditions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mean absolute difference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.5 MB of measurement traffic was generated; ver the 30-minute measurement period, the system produced about 633 Kb/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>own-developed: many files with different file sizes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Linux implementation (fix-point)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>implement in NS2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>throughput of a flow, average delay d of a flow, packet loss rate of a flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>possibly standalone between hosts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>learns effectively in dynamic network environments, and achieves better throughput and/or delay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>possibly own-developed: single/multiple sender with different buffer sizes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>own-developed with different file sizes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>packet loss rate and throughput rate, Fairness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 79% of predictions achieve within 10% error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the AdaBoost-TCP strategy can increase throughput by up to 10%</t>
+  </si>
+  <si>
+    <t>iperf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prediction accuracy using Root Mean Square
+Error (RMSE) and Mean Absolute Percentage Error (MAPE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>implement in  experimental testbed and
+in a realistic scenario on the Google Cloud platform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in an emulated setting, the RMSE values ranged from 0.1587 to 0.2103, and MAPE values ranged from 0.6341% to 1.0217%; In a realistic setting using Google Cloud Platform, the RMSE values ranged from 0.2504 to 0.4155, and MAPE values ranged from 0.8730% to 2.3097%​</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Learning accuracy, Prefetcher accuracy, Speedup, Misses per kilo-instruction (MPKI)  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d speed up execution by up to 4.3× compared to a system with no prefetching</t>
+  </si>
+  <si>
+    <t>SPEC 2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPEC 2006, Graph500, PBBS and HPCS </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gem5 simulator/ CPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.03% area overhead over a desktop-class processor (25.5KB of metadata storage)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPEC06, SPEC17, PARSEC, Ligra, Cloudsuite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coverage and overprediction, geometric speed up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pythia outperforms two state-of-the-art prefetchers (MLOP and Bingo) by 3.4% and 3.8% in single-core, 7.7% and 9.6% in twelve-core, and 16.9% and 20.2% in bandwidth-constrained core configurations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use Chisel hardware design language (HDL).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPEC CPU2006 and OMP2012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adds 1% area on a 1 MB cache vs. SHiP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in-CPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> reduces Last Level Cache (LLC) misses, closing 57% of the gap between random replacement and the ideal MIN replacement policy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPKI, IPC over Random</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outperform 18x in hit rate to baseline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIU, MSR, CloudPhysics, CloudVPS, CloudCache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Improvement in Hit Rate, hording rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">computational overhead in O(logN), </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cache hit rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In best case improve  38.32% cache hit rate on CloudPhysics comapre to ARC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">goodput, Jain’s Fairness Index </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In a highly dynamic environment, compared with the baseline algorithm, DRL-CC improves the total goodput by 382%, 351%, 336% and 257% respectively.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5m online reference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QTCP outperforms the traditional rule-based TCP by providing 59.5% higher throughput while maintaining low transmission latency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>implement user-space process using TensorFlow, actively interact with MPTCP in the kernel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>throughput, RTT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed simulation settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in ns-3 simulator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in  ns-3 simulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Throughput, RTT, fairness index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>three simulation settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decrease RTT about  46% to 65% compare to baseline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in Pantheon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>possibly own-developed 288 synthetic network conditions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average Reward, TCP Response Time, Throughput, Degradation in Average RTT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>The paper reports that TCP-RL significantly outperforms the baseline TCP-10, with improvements of 30% in average reward, 29% in average response time, and 49% in average throughput</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>​</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Related Works</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type of Task Apply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPEC 2017</t>
+  </si>
+  <si>
+    <t>TPC benchmark</t>
+  </si>
+  <si>
+    <t>MPI-IO Test</t>
+  </si>
+  <si>
+    <t>iPerf</t>
+  </si>
+  <si>
+    <t>SPLASH-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1980s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARSEC Benchmark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloudSuite</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3096,7 +3892,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="0_ "/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3162,6 +3961,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="16">
@@ -3256,7 +4062,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -3607,21 +4413,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3994,15 +4791,37 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4012,6 +4831,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4030,15 +4858,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4084,43 +4903,76 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4410,8 +5262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG157"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView topLeftCell="A136" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="F119" sqref="F119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4449,14 +5301,14 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C2" s="144" t="s">
+      <c r="C2" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="146"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="157"/>
     </row>
     <row r="3" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3"/>
@@ -5044,14 +5896,14 @@
       <c r="AE15"/>
     </row>
     <row r="16" spans="1:31" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C16" s="141" t="s">
+      <c r="C16" s="149" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="143"/>
+      <c r="D16" s="150"/>
+      <c r="E16" s="150"/>
+      <c r="F16" s="150"/>
+      <c r="G16" s="150"/>
+      <c r="H16" s="151"/>
     </row>
     <row r="17" spans="1:33" s="11" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A17"/>
@@ -5652,14 +6504,14 @@
       <c r="AG30"/>
     </row>
     <row r="31" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C31" s="147" t="s">
+      <c r="C31" s="158" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="148"/>
-      <c r="E31" s="148"/>
-      <c r="F31" s="148"/>
-      <c r="G31" s="148"/>
-      <c r="H31" s="149"/>
+      <c r="D31" s="159"/>
+      <c r="E31" s="159"/>
+      <c r="F31" s="159"/>
+      <c r="G31" s="159"/>
+      <c r="H31" s="160"/>
     </row>
     <row r="32" spans="1:33" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A32"/>
@@ -6172,14 +7024,14 @@
       </c>
     </row>
     <row r="44" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C44" s="141" t="s">
+      <c r="C44" s="149" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="142"/>
-      <c r="E44" s="142"/>
-      <c r="F44" s="142"/>
-      <c r="G44" s="142"/>
-      <c r="H44" s="143"/>
+      <c r="D44" s="150"/>
+      <c r="E44" s="150"/>
+      <c r="F44" s="150"/>
+      <c r="G44" s="150"/>
+      <c r="H44" s="151"/>
     </row>
     <row r="45" spans="1:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C45" s="99" t="s">
@@ -6677,14 +7529,14 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C71" s="141" t="s">
+      <c r="C71" s="149" t="s">
         <v>216</v>
       </c>
-      <c r="D71" s="142"/>
-      <c r="E71" s="142"/>
-      <c r="F71" s="142"/>
-      <c r="G71" s="142"/>
-      <c r="H71" s="143"/>
+      <c r="D71" s="150"/>
+      <c r="E71" s="150"/>
+      <c r="F71" s="150"/>
+      <c r="G71" s="150"/>
+      <c r="H71" s="151"/>
     </row>
     <row r="72" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C72" s="106" t="s">
@@ -6763,14 +7615,14 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C77" s="141" t="s">
+      <c r="C77" s="149" t="s">
         <v>230</v>
       </c>
-      <c r="D77" s="142"/>
-      <c r="E77" s="142"/>
-      <c r="F77" s="142"/>
-      <c r="G77" s="142"/>
-      <c r="H77" s="143"/>
+      <c r="D77" s="150"/>
+      <c r="E77" s="150"/>
+      <c r="F77" s="150"/>
+      <c r="G77" s="150"/>
+      <c r="H77" s="151"/>
     </row>
     <row r="78" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B78" s="130"/>
@@ -6976,14 +7828,14 @@
       </c>
     </row>
     <row r="89" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C89" s="150" t="s">
+      <c r="C89" s="152" t="s">
         <v>235</v>
       </c>
-      <c r="D89" s="151"/>
-      <c r="E89" s="151"/>
-      <c r="F89" s="151"/>
-      <c r="G89" s="151"/>
-      <c r="H89" s="152"/>
+      <c r="D89" s="153"/>
+      <c r="E89" s="153"/>
+      <c r="F89" s="153"/>
+      <c r="G89" s="153"/>
+      <c r="H89" s="154"/>
     </row>
     <row r="90" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C90" s="108" t="s">
@@ -7288,14 +8140,14 @@
       </c>
     </row>
     <row r="107" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C107" s="141" t="s">
+      <c r="C107" s="149" t="s">
         <v>236</v>
       </c>
-      <c r="D107" s="142"/>
-      <c r="E107" s="142"/>
-      <c r="F107" s="142"/>
-      <c r="G107" s="142"/>
-      <c r="H107" s="143"/>
+      <c r="D107" s="150"/>
+      <c r="E107" s="150"/>
+      <c r="F107" s="150"/>
+      <c r="G107" s="150"/>
+      <c r="H107" s="151"/>
     </row>
     <row r="108" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C108" s="45" t="s">
@@ -7683,14 +8535,14 @@
       </c>
     </row>
     <row r="127" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C127" s="150" t="s">
+      <c r="C127" s="152" t="s">
         <v>237</v>
       </c>
-      <c r="D127" s="151"/>
-      <c r="E127" s="151"/>
-      <c r="F127" s="151"/>
-      <c r="G127" s="151"/>
-      <c r="H127" s="152"/>
+      <c r="D127" s="153"/>
+      <c r="E127" s="153"/>
+      <c r="F127" s="153"/>
+      <c r="G127" s="153"/>
+      <c r="H127" s="154"/>
     </row>
     <row r="128" spans="1:33" ht="43" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C128" s="118" t="s">
@@ -7891,14 +8743,14 @@
       <c r="H136" s="43"/>
     </row>
     <row r="137" spans="2:33" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C137" s="141" t="s">
+      <c r="C137" s="149" t="s">
         <v>542</v>
       </c>
-      <c r="D137" s="142"/>
-      <c r="E137" s="142"/>
-      <c r="F137" s="142"/>
-      <c r="G137" s="142"/>
-      <c r="H137" s="143"/>
+      <c r="D137" s="150"/>
+      <c r="E137" s="150"/>
+      <c r="F137" s="150"/>
+      <c r="G137" s="150"/>
+      <c r="H137" s="151"/>
     </row>
     <row r="138" spans="2:33" ht="28" x14ac:dyDescent="0.3">
       <c r="C138" s="121" t="s">
@@ -7988,14 +8840,14 @@
       </c>
     </row>
     <row r="145" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C145" s="141" t="s">
+      <c r="C145" s="149" t="s">
         <v>274</v>
       </c>
-      <c r="D145" s="142"/>
-      <c r="E145" s="142"/>
-      <c r="F145" s="142"/>
-      <c r="G145" s="142"/>
-      <c r="H145" s="143"/>
+      <c r="D145" s="150"/>
+      <c r="E145" s="150"/>
+      <c r="F145" s="150"/>
+      <c r="G145" s="150"/>
+      <c r="H145" s="151"/>
     </row>
     <row r="146" spans="3:8" ht="42" x14ac:dyDescent="0.3">
       <c r="C146" s="45" t="s">
@@ -8077,14 +8929,14 @@
       </c>
     </row>
     <row r="153" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C153" s="141" t="s">
+      <c r="C153" s="149" t="s">
         <v>449</v>
       </c>
-      <c r="D153" s="142"/>
-      <c r="E153" s="142"/>
-      <c r="F153" s="142"/>
-      <c r="G153" s="142"/>
-      <c r="H153" s="143"/>
+      <c r="D153" s="150"/>
+      <c r="E153" s="150"/>
+      <c r="F153" s="150"/>
+      <c r="G153" s="150"/>
+      <c r="H153" s="151"/>
     </row>
     <row r="154" spans="3:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C154" s="125" t="s">
@@ -8140,18 +8992,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C71:H71"/>
     <mergeCell ref="C153:H153"/>
     <mergeCell ref="C145:H145"/>
     <mergeCell ref="C89:H89"/>
     <mergeCell ref="C107:H107"/>
     <mergeCell ref="C127:H127"/>
     <mergeCell ref="C137:H137"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C71:H71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8164,10 +9016,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F283F35-418D-4BB1-82BA-2ABDAAC924FE}">
-  <dimension ref="B1:H25"/>
+  <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22:G25"/>
+    <sheetView topLeftCell="A12" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8178,6 +9030,7 @@
     <col min="5" max="5" width="19.25" style="37" customWidth="1"/>
     <col min="6" max="6" width="35.33203125" customWidth="1"/>
     <col min="7" max="7" width="40.5" customWidth="1"/>
+    <col min="8" max="8" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.3">
@@ -8196,43 +9049,43 @@
       <c r="G5" s="37"/>
     </row>
     <row r="6" spans="2:8" ht="20" x14ac:dyDescent="0.4">
-      <c r="B6" s="153" t="s">
+      <c r="B6" s="173" t="s">
         <v>457</v>
       </c>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="155"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="175"/>
       <c r="G6" s="37"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="82" t="s">
         <v>458</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="75" t="s">
         <v>459</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="75" t="s">
         <v>460</v>
       </c>
       <c r="E7" s="75" t="s">
         <v>461</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="83" t="s">
         <v>462</v>
       </c>
       <c r="G7" s="37" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="104.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="156" t="s">
+    <row r="8" spans="2:8" ht="63.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="164" t="s">
         <v>481</v>
       </c>
       <c r="C8" s="95" t="s">
         <v>570</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="28" t="s">
         <v>464</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -8246,7 +9099,7 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="91" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="156"/>
+      <c r="B9" s="164"/>
       <c r="C9" s="95" t="s">
         <v>571</v>
       </c>
@@ -8264,11 +9117,11 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="156"/>
-      <c r="C10" s="160" t="s">
+      <c r="B10" s="164"/>
+      <c r="C10" s="168" t="s">
         <v>572</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="28" t="s">
         <v>469</v>
       </c>
       <c r="E10" s="28" t="s">
@@ -8282,9 +9135,9 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="96.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="156"/>
-      <c r="C11" s="161"/>
-      <c r="D11" s="27" t="s">
+      <c r="B11" s="164"/>
+      <c r="C11" s="169"/>
+      <c r="D11" s="28" t="s">
         <v>471</v>
       </c>
       <c r="E11" s="28" t="s">
@@ -8298,9 +9151,9 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="109" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="156"/>
-      <c r="C12" s="161"/>
-      <c r="D12" s="27" t="s">
+      <c r="B12" s="164"/>
+      <c r="C12" s="169"/>
+      <c r="D12" s="28" t="s">
         <v>474</v>
       </c>
       <c r="E12" s="28" t="s">
@@ -8314,8 +9167,8 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="89" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="156"/>
-      <c r="C13" s="161"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="169"/>
       <c r="D13" s="28" t="s">
         <v>477</v>
       </c>
@@ -8330,9 +9183,9 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="B14" s="156"/>
-      <c r="C14" s="162"/>
-      <c r="D14" s="27" t="s">
+      <c r="B14" s="164"/>
+      <c r="C14" s="170"/>
+      <c r="D14" s="28" t="s">
         <v>480</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -8345,8 +9198,8 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="84" x14ac:dyDescent="0.3">
-      <c r="B15" s="156" t="s">
+    <row r="15" spans="2:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="B15" s="164" t="s">
         <v>519</v>
       </c>
       <c r="C15" s="28" t="s">
@@ -8368,12 +9221,12 @@
         <v>515</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="B16" s="156"/>
-      <c r="C16" s="160" t="s">
+    <row r="16" spans="2:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="B16" s="164"/>
+      <c r="C16" s="168" t="s">
         <v>575</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="28" t="s">
         <v>451</v>
       </c>
       <c r="E16" s="28" t="s">
@@ -8389,9 +9242,9 @@
         <v>516</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="70" x14ac:dyDescent="0.3">
-      <c r="B17" s="156"/>
-      <c r="C17" s="161"/>
+    <row r="17" spans="2:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="B17" s="164"/>
+      <c r="C17" s="169"/>
       <c r="D17" s="28" t="s">
         <v>514</v>
       </c>
@@ -8408,10 +9261,10 @@
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="B18" s="156"/>
-      <c r="C18" s="161"/>
-      <c r="D18" s="27" t="s">
+    <row r="18" spans="2:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="B18" s="164"/>
+      <c r="C18" s="169"/>
+      <c r="D18" s="28" t="s">
         <v>454</v>
       </c>
       <c r="E18" s="28" t="s">
@@ -8427,9 +9280,9 @@
         <v>518</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="70" x14ac:dyDescent="0.3">
-      <c r="B19" s="156"/>
-      <c r="C19" s="162"/>
+    <row r="19" spans="2:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="B19" s="164"/>
+      <c r="C19" s="170"/>
       <c r="D19" s="28" t="s">
         <v>486</v>
       </c>
@@ -8447,8 +9300,8 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="84" x14ac:dyDescent="0.3">
-      <c r="B20" s="156"/>
-      <c r="C20" s="160" t="s">
+      <c r="B20" s="164"/>
+      <c r="C20" s="168" t="s">
         <v>574</v>
       </c>
       <c r="D20" s="28" t="s">
@@ -8468,9 +9321,9 @@
       </c>
     </row>
     <row r="21" spans="2:8" ht="69.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="156"/>
-      <c r="C21" s="162"/>
-      <c r="D21" s="27" t="s">
+      <c r="B21" s="164"/>
+      <c r="C21" s="170"/>
+      <c r="D21" s="28" t="s">
         <v>480</v>
       </c>
       <c r="E21" s="28" t="s">
@@ -8487,13 +9340,13 @@
       </c>
     </row>
     <row r="22" spans="2:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="B22" s="157" t="s">
+      <c r="B22" s="165" t="s">
         <v>136</v>
       </c>
-      <c r="C22" s="160" t="s">
+      <c r="C22" s="168" t="s">
         <v>204</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="28" t="s">
         <v>454</v>
       </c>
       <c r="E22" s="28" t="s">
@@ -8507,8 +9360,8 @@
       </c>
     </row>
     <row r="23" spans="2:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="B23" s="158"/>
-      <c r="C23" s="162"/>
+      <c r="B23" s="166"/>
+      <c r="C23" s="170"/>
       <c r="D23" s="28" t="s">
         <v>558</v>
       </c>
@@ -8523,8 +9376,8 @@
       </c>
     </row>
     <row r="24" spans="2:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="B24" s="158"/>
-      <c r="C24" s="160" t="s">
+      <c r="B24" s="166"/>
+      <c r="C24" s="168" t="s">
         <v>576</v>
       </c>
       <c r="D24" s="65" t="s">
@@ -8541,8 +9394,8 @@
       </c>
     </row>
     <row r="25" spans="2:8" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="159"/>
-      <c r="C25" s="163"/>
+      <c r="B25" s="167"/>
+      <c r="C25" s="171"/>
       <c r="D25" s="59" t="s">
         <v>546</v>
       </c>
@@ -8555,6 +9408,20 @@
       <c r="G25" s="37" t="s">
         <v>561</v>
       </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -8579,7 +9446,7 @@
   <dimension ref="B4:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8594,12 +9461,12 @@
   <sheetData>
     <row r="4" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:7" ht="20" x14ac:dyDescent="0.4">
-      <c r="B5" s="153" t="s">
+      <c r="B5" s="161" t="s">
         <v>446</v>
       </c>
-      <c r="C5" s="154"/>
-      <c r="D5" s="154"/>
-      <c r="E5" s="155"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="163"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="56" t="s">
@@ -8619,7 +9486,7 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="B7" s="156" t="s">
+      <c r="B7" s="164" t="s">
         <v>481</v>
       </c>
       <c r="C7" s="53" t="s">
@@ -8636,7 +9503,7 @@
       </c>
     </row>
     <row r="8" spans="2:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="B8" s="156"/>
+      <c r="B8" s="164"/>
       <c r="C8" s="28" t="s">
         <v>577</v>
       </c>
@@ -8651,7 +9518,7 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="B9" s="156"/>
+      <c r="B9" s="164"/>
       <c r="C9" s="28" t="s">
         <v>578</v>
       </c>
@@ -8666,7 +9533,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B10" s="156"/>
+      <c r="B10" s="164"/>
       <c r="C10" s="53" t="s">
         <v>572</v>
       </c>
@@ -8681,7 +9548,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B11" s="156"/>
+      <c r="B11" s="164"/>
       <c r="C11" s="28" t="s">
         <v>579</v>
       </c>
@@ -8696,7 +9563,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B12" s="156"/>
+      <c r="B12" s="164"/>
       <c r="C12" s="28" t="s">
         <v>579</v>
       </c>
@@ -8711,7 +9578,7 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B13" s="156" t="s">
+      <c r="B13" s="164" t="s">
         <v>519</v>
       </c>
       <c r="C13" s="28" t="s">
@@ -8731,7 +9598,7 @@
       </c>
     </row>
     <row r="14" spans="2:7" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="156"/>
+      <c r="B14" s="164"/>
       <c r="C14" s="28" t="s">
         <v>580</v>
       </c>
@@ -8749,7 +9616,7 @@
       </c>
     </row>
     <row r="15" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B15" s="156" t="s">
+      <c r="B15" s="164" t="s">
         <v>136</v>
       </c>
       <c r="C15" s="28" t="s">
@@ -8766,7 +9633,7 @@
       </c>
     </row>
     <row r="16" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B16" s="156"/>
+      <c r="B16" s="164"/>
       <c r="C16" s="28" t="s">
         <v>542</v>
       </c>
@@ -8781,7 +9648,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="164"/>
+      <c r="B17" s="172"/>
       <c r="C17" s="49" t="s">
         <v>542</v>
       </c>
@@ -8812,8 +9679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5ECC81-6914-43CE-AB0A-E1BBB7ABC546}">
   <dimension ref="B7:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A13" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8828,14 +9695,14 @@
   <sheetData>
     <row r="7" spans="2:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="2:10" ht="20" x14ac:dyDescent="0.4">
-      <c r="D8" s="165" t="s">
+      <c r="D8" s="173" t="s">
         <v>457</v>
       </c>
-      <c r="E8" s="166"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="166"/>
-      <c r="H8" s="166"/>
-      <c r="I8" s="167"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="174"/>
+      <c r="G8" s="174"/>
+      <c r="H8" s="174"/>
+      <c r="I8" s="175"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="81"/>
@@ -8863,10 +9730,10 @@
       </c>
     </row>
     <row r="10" spans="2:10" ht="42" x14ac:dyDescent="0.3">
-      <c r="D10" s="156" t="s">
+      <c r="D10" s="164" t="s">
         <v>646</v>
       </c>
-      <c r="E10" s="160" t="s">
+      <c r="E10" s="168" t="s">
         <v>587</v>
       </c>
       <c r="F10" s="28">
@@ -8886,8 +9753,8 @@
       </c>
     </row>
     <row r="11" spans="2:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="D11" s="156"/>
-      <c r="E11" s="161"/>
+      <c r="D11" s="164"/>
+      <c r="E11" s="169"/>
       <c r="F11" s="28">
         <v>2</v>
       </c>
@@ -8905,8 +9772,8 @@
       </c>
     </row>
     <row r="12" spans="2:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="D12" s="156"/>
-      <c r="E12" s="161"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="169"/>
       <c r="F12" s="28">
         <v>3</v>
       </c>
@@ -8924,8 +9791,8 @@
       </c>
     </row>
     <row r="13" spans="2:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="D13" s="156"/>
-      <c r="E13" s="162"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="170"/>
       <c r="F13" s="28">
         <v>4</v>
       </c>
@@ -8943,8 +9810,8 @@
       </c>
     </row>
     <row r="14" spans="2:10" ht="42" x14ac:dyDescent="0.3">
-      <c r="D14" s="156"/>
-      <c r="E14" s="160" t="s">
+      <c r="D14" s="164"/>
+      <c r="E14" s="168" t="s">
         <v>603</v>
       </c>
       <c r="F14" s="28">
@@ -8964,8 +9831,8 @@
       </c>
     </row>
     <row r="15" spans="2:10" ht="42" x14ac:dyDescent="0.3">
-      <c r="D15" s="156"/>
-      <c r="E15" s="161"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="169"/>
       <c r="F15" s="28">
         <v>6</v>
       </c>
@@ -8983,8 +9850,8 @@
       </c>
     </row>
     <row r="16" spans="2:10" ht="42" x14ac:dyDescent="0.3">
-      <c r="D16" s="156"/>
-      <c r="E16" s="161"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="169"/>
       <c r="F16" s="28">
         <v>7</v>
       </c>
@@ -9002,8 +9869,8 @@
       </c>
     </row>
     <row r="17" spans="4:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="D17" s="156"/>
-      <c r="E17" s="161"/>
+      <c r="D17" s="164"/>
+      <c r="E17" s="169"/>
       <c r="F17" s="28">
         <v>8</v>
       </c>
@@ -9021,8 +9888,8 @@
       </c>
     </row>
     <row r="18" spans="4:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="D18" s="156"/>
-      <c r="E18" s="161"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="169"/>
       <c r="F18" s="28">
         <v>9</v>
       </c>
@@ -9040,8 +9907,8 @@
       </c>
     </row>
     <row r="19" spans="4:10" ht="42" x14ac:dyDescent="0.3">
-      <c r="D19" s="156"/>
-      <c r="E19" s="161"/>
+      <c r="D19" s="164"/>
+      <c r="E19" s="169"/>
       <c r="F19" s="28">
         <v>10</v>
       </c>
@@ -9059,8 +9926,8 @@
       </c>
     </row>
     <row r="20" spans="4:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="D20" s="156"/>
-      <c r="E20" s="161"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="169"/>
       <c r="F20" s="28">
         <v>11</v>
       </c>
@@ -9078,8 +9945,8 @@
       </c>
     </row>
     <row r="21" spans="4:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="D21" s="156"/>
-      <c r="E21" s="161"/>
+      <c r="D21" s="164"/>
+      <c r="E21" s="169"/>
       <c r="F21" s="28">
         <v>12</v>
       </c>
@@ -9097,8 +9964,8 @@
       </c>
     </row>
     <row r="22" spans="4:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="D22" s="156"/>
-      <c r="E22" s="162"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="170"/>
       <c r="F22" s="28">
         <v>13</v>
       </c>
@@ -9116,7 +9983,7 @@
       </c>
     </row>
     <row r="23" spans="4:10" ht="56" x14ac:dyDescent="0.3">
-      <c r="D23" s="156"/>
+      <c r="D23" s="164"/>
       <c r="E23" s="95" t="s">
         <v>643</v>
       </c>
@@ -9137,10 +10004,10 @@
       </c>
     </row>
     <row r="24" spans="4:10" ht="42" x14ac:dyDescent="0.3">
-      <c r="D24" s="156" t="s">
+      <c r="D24" s="164" t="s">
         <v>684</v>
       </c>
-      <c r="E24" s="160" t="s">
+      <c r="E24" s="168" t="s">
         <v>662</v>
       </c>
       <c r="F24" s="28">
@@ -9160,8 +10027,8 @@
       </c>
     </row>
     <row r="25" spans="4:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="D25" s="156"/>
-      <c r="E25" s="161"/>
+      <c r="D25" s="164"/>
+      <c r="E25" s="169"/>
       <c r="F25" s="28">
         <v>16</v>
       </c>
@@ -9179,8 +10046,8 @@
       </c>
     </row>
     <row r="26" spans="4:10" ht="56" x14ac:dyDescent="0.3">
-      <c r="D26" s="156"/>
-      <c r="E26" s="161"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="169"/>
       <c r="F26" s="28">
         <v>17</v>
       </c>
@@ -9198,8 +10065,8 @@
       </c>
     </row>
     <row r="27" spans="4:10" ht="42" x14ac:dyDescent="0.3">
-      <c r="D27" s="156"/>
-      <c r="E27" s="161"/>
+      <c r="D27" s="164"/>
+      <c r="E27" s="169"/>
       <c r="F27" s="28">
         <v>18</v>
       </c>
@@ -9217,8 +10084,8 @@
       </c>
     </row>
     <row r="28" spans="4:10" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D28" s="164"/>
-      <c r="E28" s="163"/>
+      <c r="D28" s="172"/>
+      <c r="E28" s="171"/>
       <c r="F28" s="28">
         <v>19</v>
       </c>
@@ -9254,7 +10121,7 @@
   <dimension ref="C5:G17"/>
   <sheetViews>
     <sheetView zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9267,12 +10134,12 @@
   <sheetData>
     <row r="5" spans="3:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="3:7" ht="20" x14ac:dyDescent="0.4">
-      <c r="C6" s="165" t="s">
+      <c r="C6" s="173" t="s">
         <v>446</v>
       </c>
-      <c r="D6" s="166"/>
-      <c r="E6" s="166"/>
-      <c r="F6" s="167"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="175"/>
       <c r="G6" s="37"/>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.3">
@@ -9293,10 +10160,10 @@
       </c>
     </row>
     <row r="8" spans="3:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="C8" s="156" t="s">
+      <c r="C8" s="164" t="s">
         <v>646</v>
       </c>
-      <c r="D8" s="160" t="s">
+      <c r="D8" s="168" t="s">
         <v>603</v>
       </c>
       <c r="E8" s="28" t="s">
@@ -9310,8 +10177,8 @@
       </c>
     </row>
     <row r="9" spans="3:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="C9" s="156"/>
-      <c r="D9" s="162"/>
+      <c r="C9" s="164"/>
+      <c r="D9" s="170"/>
       <c r="E9" s="28" t="s">
         <v>702</v>
       </c>
@@ -9323,8 +10190,8 @@
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C10" s="156"/>
-      <c r="D10" s="160" t="s">
+      <c r="C10" s="164"/>
+      <c r="D10" s="168" t="s">
         <v>587</v>
       </c>
       <c r="E10" s="28" t="s">
@@ -9338,8 +10205,8 @@
       </c>
     </row>
     <row r="11" spans="3:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="C11" s="156"/>
-      <c r="D11" s="161"/>
+      <c r="C11" s="164"/>
+      <c r="D11" s="169"/>
       <c r="E11" s="28" t="s">
         <v>658</v>
       </c>
@@ -9351,8 +10218,8 @@
       </c>
     </row>
     <row r="12" spans="3:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="C12" s="156"/>
-      <c r="D12" s="162"/>
+      <c r="C12" s="164"/>
+      <c r="D12" s="170"/>
       <c r="E12" s="28" t="s">
         <v>658</v>
       </c>
@@ -9364,10 +10231,10 @@
       </c>
     </row>
     <row r="13" spans="3:7" ht="56" x14ac:dyDescent="0.3">
-      <c r="C13" s="156" t="s">
+      <c r="C13" s="164" t="s">
         <v>684</v>
       </c>
-      <c r="D13" s="160" t="s">
+      <c r="D13" s="168" t="s">
         <v>662</v>
       </c>
       <c r="E13" s="37" t="s">
@@ -9381,8 +10248,8 @@
       </c>
     </row>
     <row r="14" spans="3:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="C14" s="156"/>
-      <c r="D14" s="161"/>
+      <c r="C14" s="164"/>
+      <c r="D14" s="169"/>
       <c r="E14" s="27" t="s">
         <v>693</v>
       </c>
@@ -9394,8 +10261,8 @@
       </c>
     </row>
     <row r="15" spans="3:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="C15" s="156"/>
-      <c r="D15" s="161"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="169"/>
       <c r="E15" s="27" t="s">
         <v>393</v>
       </c>
@@ -9407,8 +10274,8 @@
       </c>
     </row>
     <row r="16" spans="3:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="C16" s="156"/>
-      <c r="D16" s="161"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="169"/>
       <c r="E16" s="27" t="s">
         <v>705</v>
       </c>
@@ -9420,8 +10287,8 @@
       </c>
     </row>
     <row r="17" spans="3:7" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="164"/>
-      <c r="D17" s="163"/>
+      <c r="C17" s="172"/>
+      <c r="D17" s="171"/>
       <c r="E17" s="27" t="s">
         <v>706</v>
       </c>
@@ -9448,19 +10315,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6FED96-B02C-4C68-8AE8-637A87A3F611}">
-  <dimension ref="C1:I31"/>
+  <dimension ref="C1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="D18" sqref="C5:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="64.83203125" style="37" customWidth="1"/>
     <col min="4" max="4" width="50.1640625" style="132" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" style="132" customWidth="1"/>
-    <col min="6" max="6" width="43.1640625" style="132" customWidth="1"/>
-    <col min="7" max="7" width="19.4140625" style="132" customWidth="1"/>
+    <col min="5" max="5" width="29.9140625" style="132" customWidth="1"/>
+    <col min="6" max="6" width="46.9140625" style="132" customWidth="1"/>
+    <col min="7" max="7" width="27.75" style="132" customWidth="1"/>
     <col min="8" max="8" width="29.75" customWidth="1"/>
     <col min="9" max="9" width="32.9140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -9489,28 +10356,28 @@
       <c r="F4" s="133"/>
       <c r="G4" s="133"/>
     </row>
-    <row r="5" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="135" t="s">
+    <row r="5" spans="3:9" s="37" customFormat="1" ht="20" x14ac:dyDescent="0.4">
+      <c r="C5" s="140" t="s">
         <v>709</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="141" t="s">
         <v>710</v>
       </c>
-      <c r="E5" s="136" t="s">
+      <c r="E5" s="141" t="s">
         <v>711</v>
       </c>
-      <c r="F5" s="136" t="s">
+      <c r="F5" s="141" t="s">
         <v>712</v>
       </c>
-      <c r="G5" s="136" t="s">
+      <c r="G5" s="141" t="s">
         <v>713</v>
       </c>
-      <c r="H5" s="137" t="s">
+      <c r="H5" s="142" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="6" spans="3:9" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C6" s="138" t="s">
+      <c r="C6" s="143" t="s">
         <v>240</v>
       </c>
       <c r="D6" s="134" t="s">
@@ -9525,24 +10392,24 @@
       <c r="G6" s="134" t="s">
         <v>743</v>
       </c>
-      <c r="H6" s="139" t="s">
+      <c r="H6" s="138" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="7" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="138" t="s">
+      <c r="C7" s="143" t="s">
         <v>717</v>
       </c>
-      <c r="D7" s="171" t="s">
+      <c r="D7" s="176" t="s">
         <v>739</v>
       </c>
-      <c r="E7" s="171"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="171"/>
-      <c r="H7" s="173"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="176"/>
+      <c r="H7" s="177"/>
     </row>
     <row r="8" spans="3:9" s="37" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="C8" s="138" t="s">
+      <c r="C8" s="143" t="s">
         <v>238</v>
       </c>
       <c r="D8" s="134" t="s">
@@ -9562,7 +10429,7 @@
       </c>
     </row>
     <row r="9" spans="3:9" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C9" s="138" t="s">
+      <c r="C9" s="143" t="s">
         <v>732</v>
       </c>
       <c r="D9" s="134" t="s">
@@ -9582,7 +10449,7 @@
       </c>
     </row>
     <row r="10" spans="3:9" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C10" s="169" t="s">
+      <c r="C10" s="144" t="s">
         <v>436</v>
       </c>
       <c r="D10" s="134" t="s">
@@ -9605,7 +10472,7 @@
       </c>
     </row>
     <row r="11" spans="3:9" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="143" t="s">
         <v>329</v>
       </c>
       <c r="D11" s="134" t="s">
@@ -9624,8 +10491,8 @@
         <v>727</v>
       </c>
     </row>
-    <row r="12" spans="3:9" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C12" s="168" t="s">
+    <row r="12" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="143" t="s">
         <v>399</v>
       </c>
       <c r="D12" s="134" t="s">
@@ -9645,7 +10512,7 @@
       </c>
     </row>
     <row r="13" spans="3:9" s="37" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="C13" s="140" t="s">
+      <c r="C13" s="144" t="s">
         <v>324</v>
       </c>
       <c r="D13" s="134" t="s">
@@ -9665,7 +10532,7 @@
       </c>
     </row>
     <row r="14" spans="3:9" s="37" customFormat="1" ht="70" x14ac:dyDescent="0.3">
-      <c r="C14" s="140" t="s">
+      <c r="C14" s="144" t="s">
         <v>364</v>
       </c>
       <c r="D14" s="134" t="s">
@@ -9684,8 +10551,8 @@
         <v>751</v>
       </c>
     </row>
-    <row r="15" spans="3:9" s="37" customFormat="1" ht="56" x14ac:dyDescent="0.3">
-      <c r="C15" s="138" t="s">
+    <row r="15" spans="3:9" s="37" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="C15" s="143" t="s">
         <v>287</v>
       </c>
       <c r="D15" s="134" t="s">
@@ -9700,160 +10567,244 @@
       <c r="G15" s="28" t="s">
         <v>754</v>
       </c>
-      <c r="H15" s="170" t="s">
+      <c r="H15" s="145" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="16" spans="3:9" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C16" s="138" t="s">
+    <row r="16" spans="3:9" s="37" customFormat="1" ht="98" x14ac:dyDescent="0.3">
+      <c r="C16" s="143" t="s">
         <v>366</v>
       </c>
-      <c r="D16" s="134"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="48"/>
+      <c r="D16" s="134" t="s">
+        <v>776</v>
+      </c>
+      <c r="E16" s="134" t="s">
+        <v>777</v>
+      </c>
+      <c r="F16" s="134" t="s">
+        <v>779</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>778</v>
+      </c>
+      <c r="H16" s="48" t="s">
+        <v>780</v>
+      </c>
     </row>
     <row r="17" spans="3:8" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C17" s="138" t="s">
+      <c r="C17" s="143" t="s">
         <v>538</v>
       </c>
-      <c r="D17" s="134"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="134"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="48"/>
-    </row>
-    <row r="18" spans="3:8" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C18" s="138" t="s">
+      <c r="D17" s="176" t="s">
+        <v>739</v>
+      </c>
+      <c r="E17" s="176"/>
+      <c r="F17" s="176"/>
+      <c r="G17" s="176"/>
+      <c r="H17" s="177"/>
+    </row>
+    <row r="18" spans="3:8" s="37" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="143" t="s">
         <v>384</v>
       </c>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="48"/>
-    </row>
-    <row r="19" spans="3:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="174" t="s">
+      <c r="D18" s="134" t="s">
+        <v>786</v>
+      </c>
+      <c r="E18" s="134" t="s">
+        <v>788</v>
+      </c>
+      <c r="F18" s="134" t="s">
+        <v>787</v>
+      </c>
+      <c r="G18" s="134" t="s">
+        <v>721</v>
+      </c>
+      <c r="H18" s="48" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" s="37" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+      <c r="C19" s="183" t="s">
         <v>769</v>
       </c>
-      <c r="D19" s="134"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="134"/>
-      <c r="G19" s="134"/>
-      <c r="H19" s="48"/>
-    </row>
-    <row r="20" spans="3:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="174" t="s">
+      <c r="D19" s="134" t="s">
+        <v>783</v>
+      </c>
+      <c r="E19" s="134" t="s">
+        <v>781</v>
+      </c>
+      <c r="F19" s="134" t="s">
+        <v>785</v>
+      </c>
+      <c r="G19" s="134" t="s">
+        <v>784</v>
+      </c>
+      <c r="H19" s="48" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="C20" s="183" t="s">
         <v>382</v>
       </c>
-      <c r="D20" s="134"/>
-      <c r="E20" s="134"/>
-      <c r="F20" s="134"/>
-      <c r="G20" s="134"/>
-      <c r="H20" s="48"/>
-    </row>
-    <row r="21" spans="3:8" s="37" customFormat="1" ht="84" x14ac:dyDescent="0.3">
-      <c r="C21" s="174" t="s">
+      <c r="D20" s="134" t="s">
+        <v>793</v>
+      </c>
+      <c r="E20" s="134" t="s">
+        <v>791</v>
+      </c>
+      <c r="F20" s="134" t="s">
+        <v>796</v>
+      </c>
+      <c r="G20" s="134" t="s">
+        <v>721</v>
+      </c>
+      <c r="H20" s="48" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" s="37" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+      <c r="C21" s="183" t="s">
         <v>379</v>
       </c>
       <c r="D21" s="134" t="s">
+        <v>774</v>
+      </c>
+      <c r="E21" s="134" t="s">
         <v>775</v>
       </c>
-      <c r="E21" s="134" t="s">
-        <v>776</v>
-      </c>
       <c r="F21" s="134" t="s">
+        <v>772</v>
+      </c>
+      <c r="G21" s="178" t="s">
+        <v>790</v>
+      </c>
+      <c r="H21" s="48" t="s">
         <v>773</v>
       </c>
-      <c r="G21" s="134"/>
-      <c r="H21" s="180" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C22" s="174" t="s">
+    </row>
+    <row r="22" spans="3:8" s="37" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="C22" s="183" t="s">
         <v>372</v>
       </c>
-      <c r="D22" s="134"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="48"/>
-    </row>
-    <row r="23" spans="3:8" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C23" s="174" t="s">
+      <c r="D22" s="134" t="s">
+        <v>795</v>
+      </c>
+      <c r="E22" s="134" t="s">
+        <v>794</v>
+      </c>
+      <c r="F22" s="134" t="s">
+        <v>787</v>
+      </c>
+      <c r="G22" s="134" t="s">
+        <v>721</v>
+      </c>
+      <c r="H22" s="48" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" s="37" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="C23" s="183" t="s">
         <v>488</v>
       </c>
-      <c r="D23" s="134"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="134"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="48"/>
+      <c r="D23" s="134" t="s">
+        <v>800</v>
+      </c>
+      <c r="E23" s="134" t="s">
+        <v>798</v>
+      </c>
+      <c r="F23" s="134" t="s">
+        <v>787</v>
+      </c>
+      <c r="G23" s="134" t="s">
+        <v>801</v>
+      </c>
+      <c r="H23" s="48" t="s">
+        <v>799</v>
+      </c>
     </row>
     <row r="24" spans="3:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="C24" s="174" t="s">
+      <c r="C24" s="183" t="s">
         <v>282</v>
       </c>
-      <c r="D24" s="172" t="s">
+      <c r="D24" s="146" t="s">
         <v>761</v>
       </c>
       <c r="E24" s="134" t="s">
         <v>760</v>
       </c>
-      <c r="F24" s="172" t="s">
+      <c r="F24" s="146" t="s">
         <v>763</v>
       </c>
       <c r="G24" s="134" t="s">
         <v>759</v>
       </c>
-      <c r="H24" s="180" t="s">
+      <c r="H24" s="48" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="25" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C25" s="174" t="s">
+    <row r="25" spans="3:8" s="37" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+      <c r="C25" s="183" t="s">
         <v>521</v>
       </c>
-      <c r="D25" s="172"/>
-      <c r="E25" s="172"/>
-      <c r="F25" s="172"/>
-      <c r="G25" s="172"/>
-      <c r="H25" s="93"/>
-    </row>
-    <row r="26" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C26" s="174" t="s">
+      <c r="D25" s="134" t="s">
+        <v>803</v>
+      </c>
+      <c r="E25" s="134" t="s">
+        <v>802</v>
+      </c>
+      <c r="F25" s="134" t="s">
+        <v>806</v>
+      </c>
+      <c r="G25" s="134" t="s">
+        <v>804</v>
+      </c>
+      <c r="H25" s="48" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C26" s="183" t="s">
         <v>374</v>
       </c>
-      <c r="D26" s="172"/>
-      <c r="E26" s="172"/>
-      <c r="F26" s="172"/>
-      <c r="G26" s="172"/>
-      <c r="H26" s="93"/>
+      <c r="D26" s="146" t="s">
+        <v>807</v>
+      </c>
+      <c r="E26" s="134" t="s">
+        <v>811</v>
+      </c>
+      <c r="F26" s="146" t="s">
+        <v>787</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>808</v>
+      </c>
+      <c r="H26" s="48" t="s">
+        <v>810</v>
+      </c>
     </row>
     <row r="27" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C27" s="174" t="s">
+      <c r="C27" s="183" t="s">
         <v>370</v>
       </c>
-      <c r="D27" s="172" t="s">
+      <c r="D27" s="146" t="s">
         <v>761</v>
       </c>
       <c r="E27" s="95" t="s">
+        <v>771</v>
+      </c>
+      <c r="F27" s="146" t="s">
         <v>772</v>
       </c>
-      <c r="F27" s="172" t="s">
-        <v>773</v>
-      </c>
       <c r="G27" s="134" t="s">
-        <v>771</v>
-      </c>
-      <c r="H27" s="93" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="28" spans="3:8" ht="70" x14ac:dyDescent="0.3">
-      <c r="C28" s="175" t="s">
+      <c r="H27" s="48" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="C28" s="184" t="s">
         <v>560</v>
       </c>
       <c r="D28" s="134" t="s">
@@ -9862,7 +10813,7 @@
       <c r="E28" s="134" t="s">
         <v>766</v>
       </c>
-      <c r="F28" s="172" t="s">
+      <c r="F28" s="146" t="s">
         <v>765</v>
       </c>
       <c r="G28" s="134" t="s">
@@ -9872,39 +10823,941 @@
         <v>764</v>
       </c>
     </row>
-    <row r="29" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C29" s="175" t="s">
+    <row r="29" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="C29" s="184" t="s">
         <v>552</v>
       </c>
-      <c r="D29" s="172"/>
-      <c r="E29" s="172"/>
-      <c r="F29" s="172"/>
-      <c r="G29" s="172"/>
-      <c r="H29" s="93"/>
-    </row>
-    <row r="30" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C30" s="176" t="s">
+      <c r="D29" s="146" t="s">
+        <v>814</v>
+      </c>
+      <c r="E29" s="146" t="s">
+        <v>813</v>
+      </c>
+      <c r="F29" s="146" t="s">
+        <v>812</v>
+      </c>
+      <c r="G29" s="146" t="s">
+        <v>721</v>
+      </c>
+      <c r="H29" s="48" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" ht="70" x14ac:dyDescent="0.3">
+      <c r="C30" s="185" t="s">
         <v>312</v>
       </c>
-      <c r="D30" s="172"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="172"/>
-      <c r="G30" s="172"/>
-      <c r="H30" s="93"/>
-    </row>
-    <row r="31" spans="3:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="177" t="s">
+      <c r="D30" s="146" t="s">
+        <v>817</v>
+      </c>
+      <c r="E30" s="134" t="s">
+        <v>820</v>
+      </c>
+      <c r="F30" s="134" t="s">
+        <v>815</v>
+      </c>
+      <c r="G30" s="134" t="s">
+        <v>818</v>
+      </c>
+      <c r="H30" s="48" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="C31" s="184" t="s">
         <v>561</v>
       </c>
-      <c r="D31" s="178"/>
-      <c r="E31" s="178"/>
-      <c r="F31" s="178"/>
-      <c r="G31" s="178"/>
-      <c r="H31" s="179"/>
+      <c r="D31" s="134" t="s">
+        <v>822</v>
+      </c>
+      <c r="E31" s="134" t="s">
+        <v>821</v>
+      </c>
+      <c r="F31" s="178" t="s">
+        <v>824</v>
+      </c>
+      <c r="G31" s="134" t="s">
+        <v>825</v>
+      </c>
+      <c r="H31" s="48" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" ht="70" x14ac:dyDescent="0.3">
+      <c r="C32" s="184" t="s">
+        <v>564</v>
+      </c>
+      <c r="D32" s="134" t="s">
+        <v>826</v>
+      </c>
+      <c r="E32" s="134" t="s">
+        <v>788</v>
+      </c>
+      <c r="F32" s="146" t="s">
+        <v>832</v>
+      </c>
+      <c r="G32" s="146" t="s">
+        <v>721</v>
+      </c>
+      <c r="H32" s="48" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="186" t="s">
+        <v>368</v>
+      </c>
+      <c r="D33" s="180" t="s">
+        <v>830</v>
+      </c>
+      <c r="E33" s="181" t="s">
+        <v>831</v>
+      </c>
+      <c r="F33" s="147" t="s">
+        <v>829</v>
+      </c>
+      <c r="G33" s="147" t="s">
+        <v>721</v>
+      </c>
+      <c r="H33" s="70" t="s">
+        <v>828</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D17:H17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C055E65A-D9A3-4C6F-8010-2B4845E23311}">
+  <dimension ref="B2:G30"/>
+  <sheetViews>
+    <sheetView topLeftCell="B17" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="50.75" customWidth="1"/>
+    <col min="3" max="3" width="39.08203125" style="37" customWidth="1"/>
+    <col min="4" max="4" width="35.5" style="188" customWidth="1"/>
+    <col min="5" max="5" width="36" style="132" customWidth="1"/>
+    <col min="6" max="6" width="39.58203125" style="188" customWidth="1"/>
+    <col min="7" max="7" width="38.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="135" t="s">
+        <v>709</v>
+      </c>
+      <c r="C3" s="136" t="s">
+        <v>710</v>
+      </c>
+      <c r="D3" s="187" t="s">
+        <v>711</v>
+      </c>
+      <c r="E3" s="136" t="s">
+        <v>712</v>
+      </c>
+      <c r="F3" s="187" t="s">
+        <v>713</v>
+      </c>
+      <c r="G3" s="137" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" s="37" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="B4" s="184" t="s">
+        <v>590</v>
+      </c>
+      <c r="C4" s="134" t="s">
+        <v>838</v>
+      </c>
+      <c r="D4" s="95" t="s">
+        <v>833</v>
+      </c>
+      <c r="E4" s="134" t="s">
+        <v>835</v>
+      </c>
+      <c r="F4" s="95" t="s">
+        <v>834</v>
+      </c>
+      <c r="G4" s="93" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="B5" s="184" t="s">
+        <v>592</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>839</v>
+      </c>
+      <c r="D5" s="182" t="s">
+        <v>836</v>
+      </c>
+      <c r="E5" s="146" t="s">
+        <v>835</v>
+      </c>
+      <c r="F5" s="182" t="s">
+        <v>837</v>
+      </c>
+      <c r="G5" s="93" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="B6" s="184" t="s">
+        <v>597</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>844</v>
+      </c>
+      <c r="D6" s="182" t="s">
+        <v>842</v>
+      </c>
+      <c r="E6" s="179" t="s">
+        <v>843</v>
+      </c>
+      <c r="F6" s="95" t="s">
+        <v>846</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="B7" s="184" t="s">
+        <v>602</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>849</v>
+      </c>
+      <c r="D7" s="182" t="s">
+        <v>847</v>
+      </c>
+      <c r="E7" s="146" t="s">
+        <v>848</v>
+      </c>
+      <c r="F7" s="182" t="s">
+        <v>851</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="B8" s="184" t="s">
+        <v>629</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>855</v>
+      </c>
+      <c r="D8" s="182" t="s">
+        <v>885</v>
+      </c>
+      <c r="E8" s="146" t="s">
+        <v>853</v>
+      </c>
+      <c r="F8" s="182" t="s">
+        <v>854</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="B9" s="189" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>859</v>
+      </c>
+      <c r="D9" s="182" t="s">
+        <v>857</v>
+      </c>
+      <c r="E9" s="182" t="s">
+        <v>858</v>
+      </c>
+      <c r="F9" s="95" t="s">
+        <v>860</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="B10" s="184" t="s">
+        <v>609</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>866</v>
+      </c>
+      <c r="D10" s="182" t="s">
+        <v>871</v>
+      </c>
+      <c r="E10" s="146" t="s">
+        <v>862</v>
+      </c>
+      <c r="F10" s="182" t="s">
+        <v>865</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="184" t="s">
+        <v>618</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>863</v>
+      </c>
+      <c r="D11" s="182" t="s">
+        <v>861</v>
+      </c>
+      <c r="E11" s="182" t="s">
+        <v>862</v>
+      </c>
+      <c r="F11" s="182" t="s">
+        <v>787</v>
+      </c>
+      <c r="G11" s="93" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="56" x14ac:dyDescent="0.3">
+      <c r="B12" s="184" t="s">
+        <v>619</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>870</v>
+      </c>
+      <c r="D12" s="95" t="s">
+        <v>869</v>
+      </c>
+      <c r="E12" s="146" t="s">
+        <v>872</v>
+      </c>
+      <c r="F12" s="182" t="s">
+        <v>787</v>
+      </c>
+      <c r="G12" s="93" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="B13" s="184" t="s">
+        <v>626</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>874</v>
+      </c>
+      <c r="D13" s="182" t="s">
+        <v>873</v>
+      </c>
+      <c r="E13" s="182" t="s">
+        <v>875</v>
+      </c>
+      <c r="F13" s="182" t="s">
+        <v>787</v>
+      </c>
+      <c r="G13" s="93" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="B14" s="184" t="s">
+        <v>632</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>878</v>
+      </c>
+      <c r="D14" s="182" t="s">
+        <v>877</v>
+      </c>
+      <c r="E14" s="146" t="s">
+        <v>875</v>
+      </c>
+      <c r="F14" s="182" t="s">
+        <v>787</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="B15" s="184" t="s">
+        <v>642</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>881</v>
+      </c>
+      <c r="D15" s="182" t="s">
+        <v>884</v>
+      </c>
+      <c r="E15" s="146" t="s">
+        <v>880</v>
+      </c>
+      <c r="F15" s="95" t="s">
+        <v>882</v>
+      </c>
+      <c r="G15" s="93" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="56" x14ac:dyDescent="0.3">
+      <c r="B16" s="184" t="s">
+        <v>645</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="D16" s="182" t="s">
+        <v>887</v>
+      </c>
+      <c r="E16" s="146" t="s">
+        <v>890</v>
+      </c>
+      <c r="F16" s="182" t="s">
+        <v>889</v>
+      </c>
+      <c r="G16" s="48" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="B17" s="144" t="s">
+        <v>663</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>891</v>
+      </c>
+      <c r="D17" s="95" t="s">
+        <v>895</v>
+      </c>
+      <c r="E17" s="146" t="s">
+        <v>899</v>
+      </c>
+      <c r="F17" s="95" t="s">
+        <v>894</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="B18" s="144" t="s">
+        <v>668</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>893</v>
+      </c>
+      <c r="D18" s="182" t="s">
+        <v>902</v>
+      </c>
+      <c r="E18" s="146" t="s">
+        <v>896</v>
+      </c>
+      <c r="F18" s="182" t="s">
+        <v>787</v>
+      </c>
+      <c r="G18" s="48" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="B19" s="144" t="s">
+        <v>690</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>898</v>
+      </c>
+      <c r="D19" s="95" t="s">
+        <v>901</v>
+      </c>
+      <c r="E19" s="146" t="s">
+        <v>897</v>
+      </c>
+      <c r="F19" s="182" t="s">
+        <v>787</v>
+      </c>
+      <c r="G19" s="48" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="B20" s="144" t="s">
+        <v>680</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>903</v>
+      </c>
+      <c r="D20" s="182" t="s">
+        <v>787</v>
+      </c>
+      <c r="E20" s="146" t="s">
+        <v>897</v>
+      </c>
+      <c r="F20" s="182" t="s">
+        <v>787</v>
+      </c>
+      <c r="G20" s="48" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="84" x14ac:dyDescent="0.3">
+      <c r="B21" s="144" t="s">
+        <v>685</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>907</v>
+      </c>
+      <c r="D21" s="182" t="s">
+        <v>906</v>
+      </c>
+      <c r="E21" s="134" t="s">
+        <v>908</v>
+      </c>
+      <c r="F21" s="182" t="s">
+        <v>787</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="B22" s="184" t="s">
+        <v>648</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>910</v>
+      </c>
+      <c r="D22" s="182" t="s">
+        <v>913</v>
+      </c>
+      <c r="E22" s="146" t="s">
+        <v>914</v>
+      </c>
+      <c r="F22" s="182" t="s">
+        <v>787</v>
+      </c>
+      <c r="G22" s="48" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="70" x14ac:dyDescent="0.3">
+      <c r="B23" s="189" t="s">
+        <v>653</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>917</v>
+      </c>
+      <c r="D23" s="182" t="s">
+        <v>916</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>919</v>
+      </c>
+      <c r="F23" s="95" t="s">
+        <v>915</v>
+      </c>
+      <c r="G23" s="48" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="B24" s="189" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>924</v>
+      </c>
+      <c r="D24" s="182" t="s">
+        <v>920</v>
+      </c>
+      <c r="E24" s="146" t="s">
+        <v>922</v>
+      </c>
+      <c r="F24" s="95" t="s">
+        <v>921</v>
+      </c>
+      <c r="G24" s="48" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="189" t="s">
+        <v>300</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>928</v>
+      </c>
+      <c r="D25" s="182" t="s">
+        <v>927</v>
+      </c>
+      <c r="E25" s="146" t="s">
+        <v>922</v>
+      </c>
+      <c r="F25" s="182" t="s">
+        <v>787</v>
+      </c>
+      <c r="G25" s="93" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="B26" s="185" t="s">
+        <v>297</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>930</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>926</v>
+      </c>
+      <c r="E26" s="146" t="s">
+        <v>922</v>
+      </c>
+      <c r="F26" s="182" t="s">
+        <v>929</v>
+      </c>
+      <c r="G26" s="48" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="56" x14ac:dyDescent="0.3">
+      <c r="B27" s="144" t="s">
+        <v>691</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>932</v>
+      </c>
+      <c r="D27" s="182" t="s">
+        <v>871</v>
+      </c>
+      <c r="E27" s="95" t="s">
+        <v>936</v>
+      </c>
+      <c r="F27" s="182" t="s">
+        <v>934</v>
+      </c>
+      <c r="G27" s="48" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="B28" s="144" t="s">
+        <v>692</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>937</v>
+      </c>
+      <c r="D28" s="182" t="s">
+        <v>938</v>
+      </c>
+      <c r="E28" s="146" t="s">
+        <v>939</v>
+      </c>
+      <c r="F28" s="182" t="s">
+        <v>787</v>
+      </c>
+      <c r="G28" s="48" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="B29" s="144" t="s">
+        <v>699</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>941</v>
+      </c>
+      <c r="D29" s="182" t="s">
+        <v>942</v>
+      </c>
+      <c r="E29" s="146" t="s">
+        <v>940</v>
+      </c>
+      <c r="F29" s="182" t="s">
+        <v>787</v>
+      </c>
+      <c r="G29" s="48" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="70.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="190" t="s">
+        <v>395</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>946</v>
+      </c>
+      <c r="D30" s="180" t="s">
+        <v>945</v>
+      </c>
+      <c r="E30" s="147" t="s">
+        <v>944</v>
+      </c>
+      <c r="F30" s="147" t="s">
+        <v>787</v>
+      </c>
+      <c r="G30" s="70" t="s">
+        <v>947</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8628A958-657B-48E6-8A18-5AA42088DA01}">
+  <dimension ref="C3:K14"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.4140625" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.9140625" customWidth="1"/>
+    <col min="7" max="8" width="11.08203125" customWidth="1"/>
+    <col min="9" max="9" width="14.9140625" customWidth="1"/>
+    <col min="10" max="10" width="13.9140625" customWidth="1"/>
+    <col min="11" max="11" width="12.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C4" s="192" t="s">
+        <v>711</v>
+      </c>
+      <c r="D4" s="193" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="193" t="s">
+        <v>954</v>
+      </c>
+      <c r="F4" s="193"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="193"/>
+      <c r="I4" s="193"/>
+      <c r="J4" s="193" t="s">
+        <v>952</v>
+      </c>
+      <c r="K4" s="194" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C5" s="195"/>
+      <c r="D5" s="191"/>
+      <c r="E5" s="27" t="s">
+        <v>948</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>949</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>950</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>951</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>964</v>
+      </c>
+      <c r="J5" s="191"/>
+      <c r="K5" s="196"/>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C6" s="197" t="s">
+        <v>956</v>
+      </c>
+      <c r="D6" s="200" t="s">
+        <v>960</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27">
+        <v>1</v>
+      </c>
+      <c r="J6" s="27"/>
+      <c r="K6" s="93"/>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C7" s="197" t="s">
+        <v>959</v>
+      </c>
+      <c r="D7" s="199">
+        <v>1995</v>
+      </c>
+      <c r="E7" s="27">
+        <v>1</v>
+      </c>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="93"/>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C8" s="197" t="s">
+        <v>957</v>
+      </c>
+      <c r="D8" s="199">
+        <v>1997</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27">
+        <v>1</v>
+      </c>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="93"/>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C9" s="197" t="s">
+        <v>958</v>
+      </c>
+      <c r="D9" s="200" t="s">
+        <v>963</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27">
+        <v>1</v>
+      </c>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="93"/>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C10" s="197" t="s">
+        <v>912</v>
+      </c>
+      <c r="D10" s="199">
+        <v>2006</v>
+      </c>
+      <c r="E10" s="27">
+        <v>1</v>
+      </c>
+      <c r="F10" s="27">
+        <v>1</v>
+      </c>
+      <c r="G10" s="27">
+        <v>1</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="93"/>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C11" s="139" t="s">
+        <v>961</v>
+      </c>
+      <c r="D11" s="199">
+        <v>2008</v>
+      </c>
+      <c r="E11" s="27">
+        <v>1</v>
+      </c>
+      <c r="F11" s="27">
+        <v>1</v>
+      </c>
+      <c r="G11" s="27">
+        <v>1</v>
+      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="93"/>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C12" s="197" t="s">
+        <v>927</v>
+      </c>
+      <c r="D12" s="200" t="s">
+        <v>962</v>
+      </c>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27">
+        <v>1</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="93"/>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C13" s="197" t="s">
+        <v>965</v>
+      </c>
+      <c r="D13" s="200">
+        <v>2011</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27">
+        <v>1</v>
+      </c>
+      <c r="J13" s="27"/>
+      <c r="K13" s="93"/>
+    </row>
+    <row r="14" spans="3:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="198" t="s">
+        <v>955</v>
+      </c>
+      <c r="D14" s="201">
+        <v>2017</v>
+      </c>
+      <c r="E14" s="69">
+        <v>1</v>
+      </c>
+      <c r="F14" s="69">
+        <v>1</v>
+      </c>
+      <c r="G14" s="69">
+        <v>1</v>
+      </c>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="148"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:D12">
+    <sortCondition descending="1" ref="C6:C12"/>
+  </sortState>
+  <mergeCells count="5">
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9912,6 +11765,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="74117954-47dd-4623-be10-f2d34b3fe6e8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100650C27B66691BA4BB901C940018B449F" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="856977a71e7c379887d8f02f6ee17dc3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="74117954-47dd-4623-be10-f2d34b3fe6e8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f93a31a691d6cd74e693f1feb46bcb1" ns3:_="">
     <xsd:import namespace="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
@@ -10055,37 +11925,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="74117954-47dd-4623-be10-f2d34b3fe6e8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{411558D9-DEA1-49BF-987E-1A683BCBCD59}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16812470-A4E1-4DBD-AEE1-4642C4933AF0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10107,9 +11950,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16812470-A4E1-4DBD-AEE1-4642C4933AF0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{411558D9-DEA1-49BF-987E-1A683BCBCD59}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ML Apply in OS/summary (new version).xlsx
+++ b/ML Apply in OS/summary (new version).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research-23\AIOS\ML Apply in OS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HKU\HKU\23Fall\AI-OS\ML Apply in OS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8F1091-8FB6-430D-B0FD-FE45B751B817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968A7FA1-AB0B-4F6D-AA2D-83A47947127E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Sheet7" sheetId="7" r:id="rId6"/>
     <sheet name="Sheet6" sheetId="8" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="1012">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3085,11 +3086,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Generate workload by Nginx,
-MySQL, WordPress, FileBench, ffmpeg, Parsec benchmark suite and  GNU Compiler Collection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> kernel runtimes， workload latency and scheduler execution latency</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3276,10 +3272,6 @@
   </si>
   <si>
     <t>NAS Parallel Benchmarks, Lawrence Livermore Lab’s Co-design benchmarks, Argonne’s CESAR Proxy-apps, XSBench,  RSBench</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>: Execution time, power, energy eiciency, and energy consumption behavior</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3864,27 +3856,207 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1980s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PARSEC Benchmark</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2010s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CloudSuite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Introduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GWA-T-4 AuverGrid</t>
+  </si>
+  <si>
+    <t>Polybench</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rodinia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generate workload by Nginx,
+MySQL, WordPress, FileBench, ffmpeg, PARSEC benchmark suite and  GNU Compiler Collection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileBench</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3D-IO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GenericIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BT-IO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bingl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BingS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cosmos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image Processing Server TensorFlow InceptionV3 Benchmark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DaCapo benchmark suite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tailbench</t>
+  </si>
+  <si>
+    <t>NAS Parallel Benchmarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Argonne's CESAR Proxy-apps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XSBench</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSBench</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lawrence Livermore Lab’s Co-design benchmarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CORAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Graph500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PBBS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HPCS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ligra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OMP2012</t>
+  </si>
+  <si>
+    <t>CloudPhysics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloudVPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lmbench</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sysbench</t>
+  </si>
+  <si>
+    <t>Phoronix Test Suite</t>
+  </si>
+  <si>
+    <t>Hackbench</t>
+  </si>
+  <si>
+    <t>IOzone</t>
+  </si>
+  <si>
+    <t>FIO (Flexible I/O Tester)</t>
+  </si>
+  <si>
+    <t>Iometer</t>
+  </si>
+  <si>
+    <t>AS SSD Benchmark</t>
+  </si>
+  <si>
+    <t>STREAM Benchmark</t>
+  </si>
+  <si>
+    <t>Geekbench</t>
+  </si>
+  <si>
+    <t>Netperf</t>
+  </si>
+  <si>
+    <t>TTCP (Test TCP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetBench</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPEC NetBenc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tmix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloudCache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Execution time, power, energy eiciency, and energy consumption behavior</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3892,9 +4064,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0_ "/>
-  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4418,7 +4587,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4794,9 +4963,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4822,6 +4988,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4831,6 +5036,24 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4840,23 +5063,38 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4867,112 +5105,60 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5266,20 +5452,19 @@
       <selection activeCell="F119" sqref="F119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.08203125"/>
-    <col min="2" max="2" width="9.08203125" style="127"/>
-    <col min="3" max="3" width="48.5" style="45" customWidth="1"/>
+    <col min="2" max="2" width="9.06640625" style="127"/>
+    <col min="3" max="3" width="48.46484375" style="45" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="7"/>
-    <col min="5" max="5" width="42.25" style="7" customWidth="1"/>
+    <col min="5" max="5" width="42.265625" style="7" customWidth="1"/>
     <col min="6" max="6" width="58.6640625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="20.08203125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="38.25" style="7" customWidth="1"/>
+    <col min="7" max="7" width="20.06640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="38.265625" style="7" customWidth="1"/>
     <col min="9" max="9" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="B1" s="126"/>
       <c r="C1" s="96" t="s">
         <v>0</v>
@@ -5300,17 +5485,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C2" s="155" t="s">
+    <row r="2" spans="1:31" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C2" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="157"/>
-    </row>
-    <row r="3" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="166"/>
+    </row>
+    <row r="3" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3"/>
       <c r="B3" s="127"/>
       <c r="C3" s="97" t="s">
@@ -5355,7 +5540,7 @@
       <c r="AD3"/>
       <c r="AE3"/>
     </row>
-    <row r="4" spans="1:31" s="11" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" s="11" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4"/>
       <c r="B4" s="127"/>
       <c r="C4" s="97" t="s">
@@ -5400,7 +5585,7 @@
       <c r="AD4"/>
       <c r="AE4"/>
     </row>
-    <row r="5" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A5"/>
       <c r="B5" s="127"/>
       <c r="C5" s="98" t="s">
@@ -5445,7 +5630,7 @@
       <c r="AD5"/>
       <c r="AE5"/>
     </row>
-    <row r="6" spans="1:31" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" s="9" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A6"/>
       <c r="B6" s="127"/>
       <c r="C6" s="99" t="s">
@@ -5490,7 +5675,7 @@
       <c r="AD6"/>
       <c r="AE6"/>
     </row>
-    <row r="7" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A7"/>
       <c r="B7" s="127"/>
       <c r="C7" s="98" t="s">
@@ -5535,7 +5720,7 @@
       <c r="AD7"/>
       <c r="AE7"/>
     </row>
-    <row r="8" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A8"/>
       <c r="B8" s="127"/>
       <c r="C8" s="98" t="s">
@@ -5580,7 +5765,7 @@
       <c r="AD8"/>
       <c r="AE8"/>
     </row>
-    <row r="9" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A9"/>
       <c r="B9" s="127"/>
       <c r="C9" s="99" t="s">
@@ -5625,7 +5810,7 @@
       <c r="AD9"/>
       <c r="AE9"/>
     </row>
-    <row r="10" spans="1:31" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A10"/>
       <c r="B10" s="127"/>
       <c r="C10" s="99" t="s">
@@ -5670,7 +5855,7 @@
       <c r="AD10"/>
       <c r="AE10"/>
     </row>
-    <row r="11" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A11"/>
       <c r="B11" s="127"/>
       <c r="C11" s="98" t="s">
@@ -5715,7 +5900,7 @@
       <c r="AD11"/>
       <c r="AE11"/>
     </row>
-    <row r="12" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A12"/>
       <c r="B12" s="127"/>
       <c r="C12" s="98" t="s">
@@ -5760,7 +5945,7 @@
       <c r="AD12"/>
       <c r="AE12"/>
     </row>
-    <row r="13" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A13"/>
       <c r="B13" s="127"/>
       <c r="C13" s="98" t="s">
@@ -5805,7 +5990,7 @@
       <c r="AD13"/>
       <c r="AE13"/>
     </row>
-    <row r="14" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A14"/>
       <c r="B14" s="127"/>
       <c r="C14" s="98" t="s">
@@ -5850,7 +6035,7 @@
       <c r="AD14"/>
       <c r="AE14"/>
     </row>
-    <row r="15" spans="1:31" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" s="2" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A15"/>
       <c r="B15" s="127"/>
       <c r="C15" s="98" t="s">
@@ -5895,17 +6080,17 @@
       <c r="AD15"/>
       <c r="AE15"/>
     </row>
-    <row r="16" spans="1:31" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C16" s="149" t="s">
+    <row r="16" spans="1:31" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C16" s="161" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="150"/>
-      <c r="E16" s="150"/>
-      <c r="F16" s="150"/>
-      <c r="G16" s="150"/>
-      <c r="H16" s="151"/>
-    </row>
-    <row r="17" spans="1:33" s="11" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="D16" s="162"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="162"/>
+      <c r="G16" s="162"/>
+      <c r="H16" s="163"/>
+    </row>
+    <row r="17" spans="1:33" s="11" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A17"/>
       <c r="B17" s="127"/>
       <c r="C17" s="97" t="s">
@@ -5952,7 +6137,7 @@
       <c r="AF17"/>
       <c r="AG17"/>
     </row>
-    <row r="18" spans="1:33" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" s="9" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A18"/>
       <c r="B18" s="127"/>
       <c r="C18" s="99" t="s">
@@ -5999,7 +6184,7 @@
       <c r="AF18"/>
       <c r="AG18"/>
     </row>
-    <row r="19" spans="1:33" s="9" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" s="9" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A19"/>
       <c r="B19" s="127"/>
       <c r="C19" s="99" t="s">
@@ -6046,7 +6231,7 @@
       <c r="AF19"/>
       <c r="AG19"/>
     </row>
-    <row r="20" spans="1:33" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" s="9" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A20"/>
       <c r="B20" s="127"/>
       <c r="C20" s="99" t="s">
@@ -6093,7 +6278,7 @@
       <c r="AF20"/>
       <c r="AG20"/>
     </row>
-    <row r="21" spans="1:33" ht="56" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" ht="55.5" x14ac:dyDescent="0.4">
       <c r="C21" s="98" t="s">
         <v>398</v>
       </c>
@@ -6113,7 +6298,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="22" spans="1:33" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A22"/>
       <c r="B22" s="127"/>
       <c r="C22" s="99" t="s">
@@ -6160,7 +6345,7 @@
       <c r="AF22"/>
       <c r="AG22"/>
     </row>
-    <row r="23" spans="1:33" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A23"/>
       <c r="B23" s="127"/>
       <c r="C23" s="98" t="s">
@@ -6207,7 +6392,7 @@
       <c r="AF23"/>
       <c r="AG23"/>
     </row>
-    <row r="24" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C24" s="98" t="s">
         <v>405</v>
       </c>
@@ -6227,7 +6412,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="25" spans="1:33" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" s="3" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A25"/>
       <c r="B25" s="127"/>
       <c r="C25" s="99" t="s">
@@ -6274,7 +6459,7 @@
       <c r="AF25"/>
       <c r="AG25"/>
     </row>
-    <row r="26" spans="1:33" s="11" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" s="11" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A26"/>
       <c r="B26" s="127"/>
       <c r="C26" s="97" t="s">
@@ -6321,7 +6506,7 @@
       <c r="AF26"/>
       <c r="AG26"/>
     </row>
-    <row r="27" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27"/>
       <c r="B27" s="127"/>
       <c r="C27" s="100" t="s">
@@ -6368,7 +6553,7 @@
       <c r="AF27"/>
       <c r="AG27"/>
     </row>
-    <row r="28" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28"/>
       <c r="B28" s="127"/>
       <c r="C28" s="101" t="s">
@@ -6413,7 +6598,7 @@
       <c r="AF28"/>
       <c r="AG28"/>
     </row>
-    <row r="29" spans="1:33" s="34" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" s="34" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29"/>
       <c r="B29" s="127"/>
       <c r="C29" s="98" t="s">
@@ -6458,7 +6643,7 @@
       <c r="AF29" s="27"/>
       <c r="AG29" s="27"/>
     </row>
-    <row r="30" spans="1:33" s="11" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" s="11" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30"/>
       <c r="B30" s="127"/>
       <c r="C30" s="98" t="s">
@@ -6503,17 +6688,17 @@
       <c r="AF30"/>
       <c r="AG30"/>
     </row>
-    <row r="31" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C31" s="158" t="s">
+    <row r="31" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C31" s="167" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="159"/>
-      <c r="E31" s="159"/>
-      <c r="F31" s="159"/>
-      <c r="G31" s="159"/>
-      <c r="H31" s="160"/>
-    </row>
-    <row r="32" spans="1:33" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="D31" s="168"/>
+      <c r="E31" s="168"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="168"/>
+      <c r="H31" s="169"/>
+    </row>
+    <row r="32" spans="1:33" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="127"/>
       <c r="C32" s="98" t="s">
@@ -6560,7 +6745,7 @@
       <c r="AF32"/>
       <c r="AG32"/>
     </row>
-    <row r="33" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" s="13" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="127"/>
       <c r="C33" s="102" t="s">
@@ -6607,7 +6792,7 @@
       <c r="AF33"/>
       <c r="AG33"/>
     </row>
-    <row r="34" spans="1:33" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" s="2" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="127"/>
       <c r="C34" s="98" t="s">
@@ -6654,7 +6839,7 @@
       <c r="AF34"/>
       <c r="AG34"/>
     </row>
-    <row r="35" spans="1:33" s="11" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" s="11" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="127"/>
       <c r="C35" s="97" t="s">
@@ -6701,7 +6886,7 @@
       <c r="AF35"/>
       <c r="AG35"/>
     </row>
-    <row r="36" spans="1:33" s="13" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" s="13" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="127"/>
       <c r="C36" s="102" t="s">
@@ -6748,7 +6933,7 @@
       <c r="AF36"/>
       <c r="AG36"/>
     </row>
-    <row r="37" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33" s="13" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="127"/>
       <c r="C37" s="102" t="s">
@@ -6795,7 +6980,7 @@
       <c r="AF37"/>
       <c r="AG37"/>
     </row>
-    <row r="38" spans="1:33" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="127"/>
       <c r="C38" s="102" t="s">
@@ -6842,7 +7027,7 @@
       <c r="AF38"/>
       <c r="AG38"/>
     </row>
-    <row r="39" spans="1:33" s="11" customFormat="1" ht="56.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33" s="11" customFormat="1" ht="56.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="127"/>
       <c r="C39" s="97" t="s">
@@ -6889,7 +7074,7 @@
       <c r="AF39"/>
       <c r="AG39"/>
     </row>
-    <row r="40" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:33" s="13" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="127"/>
       <c r="C40" s="102" t="s">
@@ -6936,7 +7121,7 @@
       <c r="AF40"/>
       <c r="AG40"/>
     </row>
-    <row r="41" spans="1:33" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:33" s="13" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A41"/>
       <c r="B41" s="127"/>
       <c r="C41" s="102" t="s">
@@ -6983,7 +7168,7 @@
       <c r="AF41"/>
       <c r="AG41"/>
     </row>
-    <row r="42" spans="1:33" ht="42" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:33" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C42" s="102" t="s">
         <v>95</v>
       </c>
@@ -7003,7 +7188,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:33" ht="42" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:33" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C43" s="102" t="s">
         <v>96</v>
       </c>
@@ -7023,17 +7208,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C44" s="149" t="s">
+    <row r="44" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C44" s="161" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="150"/>
-      <c r="E44" s="150"/>
-      <c r="F44" s="150"/>
-      <c r="G44" s="150"/>
-      <c r="H44" s="151"/>
-    </row>
-    <row r="45" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+      <c r="D44" s="162"/>
+      <c r="E44" s="162"/>
+      <c r="F44" s="162"/>
+      <c r="G44" s="162"/>
+      <c r="H44" s="163"/>
+    </row>
+    <row r="45" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C45" s="99" t="s">
         <v>198</v>
       </c>
@@ -7053,7 +7238,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C46" s="99" t="s">
         <v>195</v>
       </c>
@@ -7073,7 +7258,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C47" s="103" t="s">
         <v>208</v>
       </c>
@@ -7093,7 +7278,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="48" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C48" s="103" t="s">
         <v>210</v>
       </c>
@@ -7113,7 +7298,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="49" spans="2:8" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B49" s="128"/>
       <c r="C49" s="104" t="s">
         <v>160</v>
@@ -7134,7 +7319,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="50" spans="2:8" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B50" s="128"/>
       <c r="C50" s="105" t="s">
         <v>186</v>
@@ -7155,7 +7340,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C51" s="99" t="s">
         <v>150</v>
       </c>
@@ -7175,7 +7360,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C52" s="99" t="s">
         <v>144</v>
       </c>
@@ -7195,7 +7380,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C53" s="99" t="s">
         <v>172</v>
       </c>
@@ -7215,7 +7400,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C54" s="99" t="s">
         <v>143</v>
       </c>
@@ -7235,7 +7420,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C55" s="99" t="s">
         <v>176</v>
       </c>
@@ -7255,7 +7440,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C56" s="99" t="s">
         <v>188</v>
       </c>
@@ -7275,7 +7460,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C57" s="99" t="s">
         <v>140</v>
       </c>
@@ -7295,7 +7480,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C58" s="99" t="s">
         <v>191</v>
       </c>
@@ -7315,7 +7500,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="59" spans="2:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C59" s="99" t="s">
         <v>166</v>
       </c>
@@ -7335,7 +7520,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="56" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:8" ht="55.5" x14ac:dyDescent="0.4">
       <c r="C60" s="99" t="s">
         <v>179</v>
       </c>
@@ -7355,7 +7540,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="61" spans="2:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C61" s="103" t="s">
         <v>205</v>
       </c>
@@ -7375,7 +7560,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="56" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:8" ht="55.5" x14ac:dyDescent="0.4">
       <c r="C62" s="99" t="s">
         <v>154</v>
       </c>
@@ -7395,7 +7580,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C63" s="99" t="s">
         <v>183</v>
       </c>
@@ -7415,7 +7600,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C64" s="99" t="s">
         <v>157</v>
       </c>
@@ -7435,7 +7620,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C65" s="45" t="s">
         <v>421</v>
       </c>
@@ -7446,7 +7631,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" s="37" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B66" s="129"/>
       <c r="C66" s="99" t="s">
         <v>425</v>
@@ -7463,7 +7648,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C67" s="45" t="s">
         <v>424</v>
       </c>
@@ -7477,7 +7662,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="37" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" s="37" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B68" s="129"/>
       <c r="C68" s="45" t="s">
         <v>423</v>
@@ -7494,7 +7679,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C69" s="103" t="s">
         <v>162</v>
       </c>
@@ -7514,7 +7699,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C70" s="45" t="s">
         <v>429</v>
       </c>
@@ -7528,17 +7713,17 @@
         <v>434</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C71" s="149" t="s">
+    <row r="71" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C71" s="161" t="s">
         <v>216</v>
       </c>
-      <c r="D71" s="150"/>
-      <c r="E71" s="150"/>
-      <c r="F71" s="150"/>
-      <c r="G71" s="150"/>
-      <c r="H71" s="151"/>
-    </row>
-    <row r="72" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D71" s="162"/>
+      <c r="E71" s="162"/>
+      <c r="F71" s="162"/>
+      <c r="G71" s="162"/>
+      <c r="H71" s="163"/>
+    </row>
+    <row r="72" spans="1:8" ht="15" x14ac:dyDescent="0.4">
       <c r="C72" s="106" t="s">
         <v>0</v>
       </c>
@@ -7558,7 +7743,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="98" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="97.15" x14ac:dyDescent="0.4">
       <c r="C73" s="45" t="s">
         <v>223</v>
       </c>
@@ -7572,7 +7757,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C74" s="45" t="s">
         <v>217</v>
       </c>
@@ -7586,7 +7771,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C75" s="45" t="s">
         <v>219</v>
       </c>
@@ -7600,7 +7785,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="70.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="70.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C76" s="45" t="s">
         <v>221</v>
       </c>
@@ -7614,17 +7799,17 @@
         <v>225</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C77" s="149" t="s">
+    <row r="77" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C77" s="161" t="s">
         <v>230</v>
       </c>
-      <c r="D77" s="150"/>
-      <c r="E77" s="150"/>
-      <c r="F77" s="150"/>
-      <c r="G77" s="150"/>
-      <c r="H77" s="151"/>
-    </row>
-    <row r="78" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D77" s="162"/>
+      <c r="E77" s="162"/>
+      <c r="F77" s="162"/>
+      <c r="G77" s="162"/>
+      <c r="H77" s="163"/>
+    </row>
+    <row r="78" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B78" s="130"/>
       <c r="C78" s="107" t="s">
         <v>0</v>
@@ -7645,7 +7830,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="27" customFormat="1" ht="84" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" s="27" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
       <c r="A79"/>
       <c r="B79" s="127"/>
       <c r="C79" s="108" t="s">
@@ -7667,7 +7852,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C80" s="109" t="s">
         <v>382</v>
       </c>
@@ -7687,7 +7872,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="81" spans="3:8" ht="98" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:8" ht="97.15" x14ac:dyDescent="0.4">
       <c r="C81" s="109" t="s">
         <v>379</v>
       </c>
@@ -7707,7 +7892,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="82" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C82" s="109" t="s">
         <v>372</v>
       </c>
@@ -7727,7 +7912,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="83" spans="3:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:8" ht="138" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C83" s="109" t="s">
         <v>488</v>
       </c>
@@ -7747,7 +7932,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="84" spans="3:8" ht="84" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:8" ht="111" x14ac:dyDescent="0.4">
       <c r="C84" s="109" t="s">
         <v>282</v>
       </c>
@@ -7767,7 +7952,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="85" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C85" s="110" t="s">
         <v>521</v>
       </c>
@@ -7787,7 +7972,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="86" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C86" s="110" t="s">
         <v>374</v>
       </c>
@@ -7807,7 +7992,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="87" spans="3:8" ht="84" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:8" ht="83.25" x14ac:dyDescent="0.4">
       <c r="C87" s="108" t="s">
         <v>370</v>
       </c>
@@ -7827,17 +8012,17 @@
         <v>485</v>
       </c>
     </row>
-    <row r="89" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C89" s="152" t="s">
+    <row r="89" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C89" s="170" t="s">
         <v>235</v>
       </c>
-      <c r="D89" s="153"/>
-      <c r="E89" s="153"/>
-      <c r="F89" s="153"/>
-      <c r="G89" s="153"/>
-      <c r="H89" s="154"/>
-    </row>
-    <row r="90" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="D89" s="171"/>
+      <c r="E89" s="171"/>
+      <c r="F89" s="171"/>
+      <c r="G89" s="171"/>
+      <c r="H89" s="172"/>
+    </row>
+    <row r="90" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C90" s="108" t="s">
         <v>240</v>
       </c>
@@ -7857,7 +8042,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="91" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C91" s="111" t="s">
         <v>361</v>
       </c>
@@ -7877,7 +8062,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="92" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C92" s="111" t="s">
         <v>238</v>
       </c>
@@ -7897,7 +8082,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="93" spans="3:8" ht="70" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="C93" s="108" t="s">
         <v>334</v>
       </c>
@@ -7917,7 +8102,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="94" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C94" s="40" t="s">
         <v>436</v>
       </c>
@@ -7937,7 +8122,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="95" spans="3:8" ht="56" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
       <c r="C95" s="108" t="s">
         <v>329</v>
       </c>
@@ -7957,7 +8142,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="96" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C96" s="108" t="s">
         <v>399</v>
       </c>
@@ -7975,7 +8160,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C97" s="112" t="s">
         <v>412</v>
       </c>
@@ -7991,7 +8176,7 @@
       <c r="G97" s="43"/>
       <c r="H97" s="43"/>
     </row>
-    <row r="98" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C98" s="112" t="s">
         <v>409</v>
       </c>
@@ -8007,7 +8192,7 @@
       <c r="G98" s="43"/>
       <c r="H98" s="43"/>
     </row>
-    <row r="99" spans="1:8" s="27" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" s="27" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
       <c r="A99"/>
       <c r="B99" s="127"/>
       <c r="C99" s="113" t="s">
@@ -8029,7 +8214,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C100" s="114" t="s">
         <v>414</v>
       </c>
@@ -8045,7 +8230,7 @@
       <c r="G100" s="43"/>
       <c r="H100" s="43"/>
     </row>
-    <row r="101" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C101" s="113" t="s">
         <v>364</v>
       </c>
@@ -8059,7 +8244,7 @@
       <c r="G101" s="31"/>
       <c r="H101" s="31"/>
     </row>
-    <row r="102" spans="1:8" ht="70" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="C102" s="108" t="s">
         <v>287</v>
       </c>
@@ -8079,7 +8264,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C103" s="111" t="s">
         <v>366</v>
       </c>
@@ -8099,7 +8284,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C104" s="111" t="s">
         <v>443</v>
       </c>
@@ -8119,7 +8304,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C105" s="111" t="s">
         <v>384</v>
       </c>
@@ -8139,17 +8324,17 @@
         <v>442</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C107" s="149" t="s">
+    <row r="107" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C107" s="161" t="s">
         <v>236</v>
       </c>
-      <c r="D107" s="150"/>
-      <c r="E107" s="150"/>
-      <c r="F107" s="150"/>
-      <c r="G107" s="150"/>
-      <c r="H107" s="151"/>
-    </row>
-    <row r="108" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="D107" s="162"/>
+      <c r="E107" s="162"/>
+      <c r="F107" s="162"/>
+      <c r="G107" s="162"/>
+      <c r="H107" s="163"/>
+    </row>
+    <row r="108" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C108" s="45" t="s">
         <v>350</v>
       </c>
@@ -8169,7 +8354,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C109" s="102" t="s">
         <v>252</v>
       </c>
@@ -8189,7 +8374,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C110" s="102" t="s">
         <v>341</v>
       </c>
@@ -8209,7 +8394,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C111" s="102" t="s">
         <v>339</v>
       </c>
@@ -8229,7 +8414,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C112" s="102" t="s">
         <v>348</v>
       </c>
@@ -8249,7 +8434,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="113" spans="1:33" ht="56" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:33" ht="55.5" x14ac:dyDescent="0.4">
       <c r="C113" s="45" t="s">
         <v>154</v>
       </c>
@@ -8266,7 +8451,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="114" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C114" s="102" t="s">
         <v>358</v>
       </c>
@@ -8286,7 +8471,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="115" spans="1:33" ht="70" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:33" ht="83.25" x14ac:dyDescent="0.4">
       <c r="C115" s="102" t="s">
         <v>257</v>
       </c>
@@ -8306,7 +8491,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="116" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C116" s="45" t="s">
         <v>300</v>
       </c>
@@ -8326,7 +8511,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="117" spans="1:33" ht="56" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:33" ht="55.5" x14ac:dyDescent="0.4">
       <c r="C117" s="102" t="s">
         <v>262</v>
       </c>
@@ -8349,7 +8534,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="118" spans="1:33" ht="42" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:33" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C118" s="102" t="s">
         <v>344</v>
       </c>
@@ -8367,7 +8552,7 @@
       </c>
       <c r="H118" s="12"/>
     </row>
-    <row r="119" spans="1:33" s="14" customFormat="1" ht="84" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:33" s="14" customFormat="1" ht="83.25" x14ac:dyDescent="0.4">
       <c r="B119" s="128"/>
       <c r="C119" s="115" t="s">
         <v>269</v>
@@ -8388,7 +8573,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="120" spans="1:33" s="14" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:33" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="B120" s="128"/>
       <c r="C120" s="115" t="s">
         <v>353</v>
@@ -8409,7 +8594,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="121" spans="1:33" s="14" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:33" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="B121" s="128"/>
       <c r="C121" s="116" t="s">
         <v>275</v>
@@ -8430,7 +8615,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="122" spans="1:33" s="14" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:33" s="14" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="B122" s="128"/>
       <c r="C122" s="94" t="s">
         <v>297</v>
@@ -8451,7 +8636,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="123" spans="1:33" s="32" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:33" s="32" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A123" s="14"/>
       <c r="B123" s="128"/>
       <c r="C123" s="115" t="s">
@@ -8473,7 +8658,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="124" spans="1:33" ht="28" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C124" s="45" t="s">
         <v>621</v>
       </c>
@@ -8493,7 +8678,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="125" spans="1:33" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:33" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B125" s="128"/>
       <c r="C125" s="115" t="s">
         <v>356</v>
@@ -8514,7 +8699,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="126" spans="1:33" ht="70" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:33" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="C126" s="117" t="s">
         <v>553</v>
       </c>
@@ -8534,17 +8719,17 @@
         <v>557</v>
       </c>
     </row>
-    <row r="127" spans="1:33" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C127" s="152" t="s">
+    <row r="127" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C127" s="170" t="s">
         <v>237</v>
       </c>
-      <c r="D127" s="153"/>
-      <c r="E127" s="153"/>
-      <c r="F127" s="153"/>
-      <c r="G127" s="153"/>
-      <c r="H127" s="154"/>
-    </row>
-    <row r="128" spans="1:33" ht="43" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D127" s="171"/>
+      <c r="E127" s="171"/>
+      <c r="F127" s="171"/>
+      <c r="G127" s="171"/>
+      <c r="H127" s="172"/>
+    </row>
+    <row r="128" spans="1:33" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C128" s="118" t="s">
         <v>659</v>
       </c>
@@ -8585,7 +8770,7 @@
       <c r="AF128" s="85"/>
       <c r="AG128" s="85"/>
     </row>
-    <row r="129" spans="2:33" ht="43" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:33" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C129" s="118" t="s">
         <v>660</v>
       </c>
@@ -8630,7 +8815,7 @@
       <c r="AF129" s="85"/>
       <c r="AG129" s="85"/>
     </row>
-    <row r="130" spans="2:33" s="29" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:33" s="29" customFormat="1" ht="111" x14ac:dyDescent="0.4">
       <c r="B130" s="131"/>
       <c r="C130" s="119" t="s">
         <v>390</v>
@@ -8651,7 +8836,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="131" spans="2:33" s="29" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:33" s="29" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B131" s="131"/>
       <c r="C131" s="119" t="s">
         <v>676</v>
@@ -8666,7 +8851,7 @@
       <c r="G131" s="91"/>
       <c r="H131" s="91"/>
     </row>
-    <row r="132" spans="2:33" ht="98" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:33" ht="97.15" x14ac:dyDescent="0.4">
       <c r="C132" s="120" t="s">
         <v>266</v>
       </c>
@@ -8686,7 +8871,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="133" spans="2:33" ht="28" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:33" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C133" s="114" t="s">
         <v>675</v>
       </c>
@@ -8698,7 +8883,7 @@
       <c r="G133" s="43"/>
       <c r="H133" s="43"/>
     </row>
-    <row r="134" spans="2:33" ht="28" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:33" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C134" s="114" t="s">
         <v>677</v>
       </c>
@@ -8712,7 +8897,7 @@
       <c r="G134" s="43"/>
       <c r="H134" s="43"/>
     </row>
-    <row r="135" spans="2:33" ht="28" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:33" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C135" s="118" t="s">
         <v>678</v>
       </c>
@@ -8726,7 +8911,7 @@
       <c r="G135" s="12"/>
       <c r="H135" s="12"/>
     </row>
-    <row r="136" spans="2:33" ht="28" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:33" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C136" s="112" t="s">
         <v>395</v>
       </c>
@@ -8742,17 +8927,17 @@
       <c r="G136" s="43"/>
       <c r="H136" s="43"/>
     </row>
-    <row r="137" spans="2:33" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C137" s="149" t="s">
+    <row r="137" spans="2:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C137" s="161" t="s">
         <v>542</v>
       </c>
-      <c r="D137" s="150"/>
-      <c r="E137" s="150"/>
-      <c r="F137" s="150"/>
-      <c r="G137" s="150"/>
-      <c r="H137" s="151"/>
-    </row>
-    <row r="138" spans="2:33" ht="28" x14ac:dyDescent="0.3">
+      <c r="D137" s="162"/>
+      <c r="E137" s="162"/>
+      <c r="F137" s="162"/>
+      <c r="G137" s="162"/>
+      <c r="H137" s="163"/>
+    </row>
+    <row r="138" spans="2:33" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C138" s="121" t="s">
         <v>565</v>
       </c>
@@ -8772,7 +8957,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="139" spans="2:33" ht="28" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:33" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C139" s="122" t="s">
         <v>375</v>
       </c>
@@ -8792,7 +8977,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="140" spans="2:33" ht="28" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:33" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C140" s="123" t="s">
         <v>368</v>
       </c>
@@ -8810,7 +8995,7 @@
       </c>
       <c r="H140" s="67"/>
     </row>
-    <row r="141" spans="2:33" s="14" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:33" s="14" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
       <c r="B141" s="128"/>
       <c r="C141" s="124" t="s">
         <v>312</v>
@@ -8831,7 +9016,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="143" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:33" x14ac:dyDescent="0.4">
       <c r="C143" s="45" t="s">
         <v>708</v>
       </c>
@@ -8839,17 +9024,17 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="145" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C145" s="149" t="s">
+    <row r="145" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C145" s="161" t="s">
         <v>274</v>
       </c>
-      <c r="D145" s="150"/>
-      <c r="E145" s="150"/>
-      <c r="F145" s="150"/>
-      <c r="G145" s="150"/>
-      <c r="H145" s="151"/>
-    </row>
-    <row r="146" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="D145" s="162"/>
+      <c r="E145" s="162"/>
+      <c r="F145" s="162"/>
+      <c r="G145" s="162"/>
+      <c r="H145" s="163"/>
+    </row>
+    <row r="146" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
       <c r="C146" s="45" t="s">
         <v>280</v>
       </c>
@@ -8863,7 +9048,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="147" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C147" s="45" t="s">
         <v>304</v>
       </c>
@@ -8877,7 +9062,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="148" spans="3:8" ht="56" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
       <c r="C148" s="45" t="s">
         <v>308</v>
       </c>
@@ -8894,7 +9079,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="149" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C149" s="45" t="s">
         <v>316</v>
       </c>
@@ -8908,7 +9093,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="150" spans="3:8" ht="98" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:8" ht="111" x14ac:dyDescent="0.4">
       <c r="C150" s="45" t="s">
         <v>293</v>
       </c>
@@ -8928,17 +9113,17 @@
         <v>295</v>
       </c>
     </row>
-    <row r="153" spans="3:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="C153" s="149" t="s">
+    <row r="153" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="C153" s="161" t="s">
         <v>449</v>
       </c>
-      <c r="D153" s="150"/>
-      <c r="E153" s="150"/>
-      <c r="F153" s="150"/>
-      <c r="G153" s="150"/>
-      <c r="H153" s="151"/>
-    </row>
-    <row r="154" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="D153" s="162"/>
+      <c r="E153" s="162"/>
+      <c r="F153" s="162"/>
+      <c r="G153" s="162"/>
+      <c r="H153" s="163"/>
+    </row>
+    <row r="154" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C154" s="125" t="s">
         <v>377</v>
       </c>
@@ -8952,7 +9137,7 @@
       <c r="G154" s="26"/>
       <c r="H154" s="26"/>
     </row>
-    <row r="155" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C155" s="125" t="s">
         <v>386</v>
       </c>
@@ -8968,7 +9153,7 @@
       <c r="G155" s="26"/>
       <c r="H155" s="26"/>
     </row>
-    <row r="156" spans="3:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C156" s="45" t="s">
         <v>388</v>
       </c>
@@ -8979,7 +9164,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="157" spans="3:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C157" s="45" t="s">
         <v>525</v>
       </c>
@@ -8992,18 +9177,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C153:H153"/>
+    <mergeCell ref="C145:H145"/>
+    <mergeCell ref="C89:H89"/>
+    <mergeCell ref="C107:H107"/>
+    <mergeCell ref="C127:H127"/>
+    <mergeCell ref="C137:H137"/>
     <mergeCell ref="C77:H77"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="C44:H44"/>
     <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C153:H153"/>
-    <mergeCell ref="C145:H145"/>
-    <mergeCell ref="C89:H89"/>
-    <mergeCell ref="C107:H107"/>
-    <mergeCell ref="C127:H127"/>
-    <mergeCell ref="C137:H137"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9019,36 +9204,36 @@
   <dimension ref="B1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="A12" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:F6"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.9140625" customWidth="1"/>
+    <col min="2" max="2" width="11.9296875" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" customWidth="1"/>
-    <col min="5" max="5" width="19.25" style="37" customWidth="1"/>
+    <col min="4" max="4" width="24.796875" customWidth="1"/>
+    <col min="5" max="5" width="19.265625" style="37" customWidth="1"/>
     <col min="6" max="6" width="35.33203125" customWidth="1"/>
-    <col min="7" max="7" width="40.5" customWidth="1"/>
-    <col min="8" max="8" width="28.83203125" customWidth="1"/>
+    <col min="7" max="7" width="40.46484375" customWidth="1"/>
+    <col min="8" max="8" width="28.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.4">
       <c r="G1" s="37"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="G2" s="37"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="G3" s="37"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="G4" s="37"/>
     </row>
-    <row r="5" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="2:8" ht="20" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="173" t="s">
         <v>457</v>
       </c>
@@ -9058,7 +9243,7 @@
       <c r="F6" s="175"/>
       <c r="G6" s="37"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="82" t="s">
         <v>458</v>
       </c>
@@ -9078,8 +9263,8 @@
         <v>463</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="63.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="164" t="s">
+    <row r="8" spans="2:8" ht="63.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="176" t="s">
         <v>481</v>
       </c>
       <c r="C8" s="95" t="s">
@@ -9098,8 +9283,8 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="91" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="164"/>
+    <row r="9" spans="2:8" ht="91.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="176"/>
       <c r="C9" s="95" t="s">
         <v>571</v>
       </c>
@@ -9116,9 +9301,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="164"/>
-      <c r="C10" s="168" t="s">
+    <row r="10" spans="2:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="176"/>
+      <c r="C10" s="180" t="s">
         <v>572</v>
       </c>
       <c r="D10" s="28" t="s">
@@ -9134,9 +9319,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="96.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="164"/>
-      <c r="C11" s="169"/>
+    <row r="11" spans="2:8" ht="96.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="176"/>
+      <c r="C11" s="181"/>
       <c r="D11" s="28" t="s">
         <v>471</v>
       </c>
@@ -9150,9 +9335,9 @@
         <v>399</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="109" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="164"/>
-      <c r="C12" s="169"/>
+    <row r="12" spans="2:8" ht="109.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="176"/>
+      <c r="C12" s="181"/>
       <c r="D12" s="28" t="s">
         <v>474</v>
       </c>
@@ -9166,9 +9351,9 @@
         <v>324</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="89" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="164"/>
-      <c r="C13" s="169"/>
+    <row r="13" spans="2:8" ht="89" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="176"/>
+      <c r="C13" s="181"/>
       <c r="D13" s="28" t="s">
         <v>477</v>
       </c>
@@ -9182,9 +9367,9 @@
         <v>364</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="B14" s="164"/>
-      <c r="C14" s="170"/>
+    <row r="14" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B14" s="176"/>
+      <c r="C14" s="182"/>
       <c r="D14" s="28" t="s">
         <v>480</v>
       </c>
@@ -9198,8 +9383,8 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="B15" s="164" t="s">
+    <row r="15" spans="2:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="B15" s="176" t="s">
         <v>519</v>
       </c>
       <c r="C15" s="28" t="s">
@@ -9221,9 +9406,9 @@
         <v>515</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="B16" s="164"/>
-      <c r="C16" s="168" t="s">
+    <row r="16" spans="2:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B16" s="176"/>
+      <c r="C16" s="180" t="s">
         <v>575</v>
       </c>
       <c r="D16" s="28" t="s">
@@ -9242,9 +9427,9 @@
         <v>516</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="B17" s="164"/>
-      <c r="C17" s="169"/>
+    <row r="17" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B17" s="176"/>
+      <c r="C17" s="181"/>
       <c r="D17" s="28" t="s">
         <v>514</v>
       </c>
@@ -9261,9 +9446,9 @@
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="B18" s="164"/>
-      <c r="C18" s="169"/>
+    <row r="18" spans="2:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B18" s="176"/>
+      <c r="C18" s="181"/>
       <c r="D18" s="28" t="s">
         <v>454</v>
       </c>
@@ -9280,9 +9465,9 @@
         <v>518</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="B19" s="164"/>
-      <c r="C19" s="170"/>
+    <row r="19" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B19" s="176"/>
+      <c r="C19" s="182"/>
       <c r="D19" s="28" t="s">
         <v>486</v>
       </c>
@@ -9299,9 +9484,9 @@
         <v>517</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="84" x14ac:dyDescent="0.3">
-      <c r="B20" s="164"/>
-      <c r="C20" s="168" t="s">
+    <row r="20" spans="2:8" ht="97.15" x14ac:dyDescent="0.4">
+      <c r="B20" s="176"/>
+      <c r="C20" s="180" t="s">
         <v>574</v>
       </c>
       <c r="D20" s="28" t="s">
@@ -9320,9 +9505,9 @@
         <v>517</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="69.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="164"/>
-      <c r="C21" s="170"/>
+    <row r="21" spans="2:8" ht="69.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="176"/>
+      <c r="C21" s="182"/>
       <c r="D21" s="28" t="s">
         <v>480</v>
       </c>
@@ -9339,11 +9524,11 @@
         <v>517</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="B22" s="165" t="s">
+    <row r="22" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B22" s="177" t="s">
         <v>136</v>
       </c>
-      <c r="C22" s="168" t="s">
+      <c r="C22" s="180" t="s">
         <v>204</v>
       </c>
       <c r="D22" s="28" t="s">
@@ -9359,9 +9544,9 @@
         <v>560</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="B23" s="166"/>
-      <c r="C23" s="170"/>
+    <row r="23" spans="2:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B23" s="178"/>
+      <c r="C23" s="182"/>
       <c r="D23" s="28" t="s">
         <v>558</v>
       </c>
@@ -9375,9 +9560,9 @@
         <v>552</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="B24" s="166"/>
-      <c r="C24" s="168" t="s">
+    <row r="24" spans="2:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B24" s="178"/>
+      <c r="C24" s="180" t="s">
         <v>576</v>
       </c>
       <c r="D24" s="65" t="s">
@@ -9393,9 +9578,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="167"/>
-      <c r="C25" s="171"/>
+    <row r="25" spans="2:8" ht="42" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="179"/>
+      <c r="C25" s="183"/>
       <c r="D25" s="59" t="s">
         <v>546</v>
       </c>
@@ -9409,14 +9594,14 @@
         <v>561</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
       <c r="D26" s="37"/>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
       <c r="D27" s="37"/>
@@ -9449,26 +9634,26 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="14.9140625" customWidth="1"/>
-    <col min="3" max="3" width="21.4140625" customWidth="1"/>
-    <col min="4" max="4" width="20.9140625" customWidth="1"/>
-    <col min="5" max="5" width="25.58203125" customWidth="1"/>
-    <col min="6" max="6" width="41.25" customWidth="1"/>
-    <col min="7" max="7" width="15.58203125" customWidth="1"/>
+    <col min="2" max="2" width="14.9296875" customWidth="1"/>
+    <col min="3" max="3" width="21.3984375" customWidth="1"/>
+    <col min="4" max="4" width="20.9296875" customWidth="1"/>
+    <col min="5" max="5" width="25.59765625" customWidth="1"/>
+    <col min="6" max="6" width="41.265625" customWidth="1"/>
+    <col min="7" max="7" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:7" ht="20" x14ac:dyDescent="0.4">
-      <c r="B5" s="161" t="s">
+    <row r="4" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="2:7" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="184" t="s">
         <v>446</v>
       </c>
-      <c r="C5" s="162"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="163"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C5" s="185"/>
+      <c r="D5" s="185"/>
+      <c r="E5" s="186"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="56" t="s">
         <v>458</v>
       </c>
@@ -9485,8 +9670,8 @@
         <v>530</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="B7" s="164" t="s">
+    <row r="7" spans="2:7" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B7" s="176" t="s">
         <v>481</v>
       </c>
       <c r="C7" s="53" t="s">
@@ -9502,8 +9687,8 @@
         <v>361</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="B8" s="164"/>
+    <row r="8" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B8" s="176"/>
       <c r="C8" s="28" t="s">
         <v>577</v>
       </c>
@@ -9517,8 +9702,8 @@
         <v>527</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="B9" s="164"/>
+    <row r="9" spans="2:7" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B9" s="176"/>
       <c r="C9" s="28" t="s">
         <v>578</v>
       </c>
@@ -9532,8 +9717,8 @@
         <v>436</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B10" s="164"/>
+    <row r="10" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B10" s="176"/>
       <c r="C10" s="53" t="s">
         <v>572</v>
       </c>
@@ -9547,8 +9732,8 @@
         <v>366</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B11" s="164"/>
+    <row r="11" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B11" s="176"/>
       <c r="C11" s="28" t="s">
         <v>579</v>
       </c>
@@ -9562,8 +9747,8 @@
         <v>538</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B12" s="164"/>
+    <row r="12" spans="2:7" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="B12" s="176"/>
       <c r="C12" s="28" t="s">
         <v>579</v>
       </c>
@@ -9577,8 +9762,8 @@
         <v>384</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B13" s="164" t="s">
+    <row r="13" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B13" s="176" t="s">
         <v>519</v>
       </c>
       <c r="C13" s="28" t="s">
@@ -9597,8 +9782,8 @@
         <v>539</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="164"/>
+    <row r="14" spans="2:7" ht="55.9" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="176"/>
       <c r="C14" s="28" t="s">
         <v>580</v>
       </c>
@@ -9615,8 +9800,8 @@
         <v>540</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B15" s="164" t="s">
+    <row r="15" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B15" s="176" t="s">
         <v>136</v>
       </c>
       <c r="C15" s="28" t="s">
@@ -9632,8 +9817,8 @@
         <v>564</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B16" s="164"/>
+    <row r="16" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B16" s="176"/>
       <c r="C16" s="28" t="s">
         <v>542</v>
       </c>
@@ -9647,8 +9832,8 @@
         <v>368</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="172"/>
+    <row r="17" spans="2:6" ht="42" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="187"/>
       <c r="C17" s="49" t="s">
         <v>542</v>
       </c>
@@ -9679,22 +9864,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5ECC81-6914-43CE-AB0A-E1BBB7ABC546}">
   <dimension ref="B7:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="6" width="16.1640625" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="20.58203125" customWidth="1"/>
-    <col min="9" max="9" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="14.1328125" customWidth="1"/>
+    <col min="5" max="6" width="16.1328125" customWidth="1"/>
+    <col min="7" max="7" width="15.73046875" customWidth="1"/>
+    <col min="8" max="8" width="20.59765625" customWidth="1"/>
+    <col min="9" max="9" width="22.46484375" customWidth="1"/>
     <col min="10" max="10" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="2:10" ht="20" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:10" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="D8" s="173" t="s">
         <v>457</v>
       </c>
@@ -9704,7 +9889,7 @@
       <c r="H8" s="174"/>
       <c r="I8" s="175"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="81"/>
       <c r="C9" s="81"/>
       <c r="D9" s="56" t="s">
@@ -9729,11 +9914,11 @@
         <v>463</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="42" x14ac:dyDescent="0.3">
-      <c r="D10" s="164" t="s">
+    <row r="10" spans="2:10" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="D10" s="176" t="s">
         <v>646</v>
       </c>
-      <c r="E10" s="168" t="s">
+      <c r="E10" s="180" t="s">
         <v>587</v>
       </c>
       <c r="F10" s="28">
@@ -9752,9 +9937,9 @@
         <v>590</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="D11" s="164"/>
-      <c r="E11" s="169"/>
+    <row r="11" spans="2:10" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D11" s="176"/>
+      <c r="E11" s="181"/>
       <c r="F11" s="28">
         <v>2</v>
       </c>
@@ -9771,9 +9956,9 @@
         <v>592</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="D12" s="164"/>
-      <c r="E12" s="169"/>
+    <row r="12" spans="2:10" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D12" s="176"/>
+      <c r="E12" s="181"/>
       <c r="F12" s="28">
         <v>3</v>
       </c>
@@ -9790,9 +9975,9 @@
         <v>597</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="D13" s="164"/>
-      <c r="E13" s="170"/>
+    <row r="13" spans="2:10" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D13" s="176"/>
+      <c r="E13" s="182"/>
       <c r="F13" s="28">
         <v>4</v>
       </c>
@@ -9809,9 +9994,9 @@
         <v>597</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="42" x14ac:dyDescent="0.3">
-      <c r="D14" s="164"/>
-      <c r="E14" s="168" t="s">
+    <row r="14" spans="2:10" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="D14" s="176"/>
+      <c r="E14" s="180" t="s">
         <v>603</v>
       </c>
       <c r="F14" s="28">
@@ -9830,9 +10015,9 @@
         <v>602</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="42" x14ac:dyDescent="0.3">
-      <c r="D15" s="164"/>
-      <c r="E15" s="169"/>
+    <row r="15" spans="2:10" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="D15" s="176"/>
+      <c r="E15" s="181"/>
       <c r="F15" s="28">
         <v>6</v>
       </c>
@@ -9849,9 +10034,9 @@
         <v>629</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="42" x14ac:dyDescent="0.3">
-      <c r="D16" s="164"/>
-      <c r="E16" s="169"/>
+    <row r="16" spans="2:10" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="D16" s="176"/>
+      <c r="E16" s="181"/>
       <c r="F16" s="28">
         <v>7</v>
       </c>
@@ -9868,9 +10053,9 @@
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="4:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="D17" s="164"/>
-      <c r="E17" s="169"/>
+    <row r="17" spans="4:10" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D17" s="176"/>
+      <c r="E17" s="181"/>
       <c r="F17" s="28">
         <v>8</v>
       </c>
@@ -9887,9 +10072,9 @@
         <v>609</v>
       </c>
     </row>
-    <row r="18" spans="4:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="D18" s="164"/>
-      <c r="E18" s="169"/>
+    <row r="18" spans="4:10" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D18" s="176"/>
+      <c r="E18" s="181"/>
       <c r="F18" s="28">
         <v>9</v>
       </c>
@@ -9906,9 +10091,9 @@
         <v>618</v>
       </c>
     </row>
-    <row r="19" spans="4:10" ht="42" x14ac:dyDescent="0.3">
-      <c r="D19" s="164"/>
-      <c r="E19" s="169"/>
+    <row r="19" spans="4:10" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="D19" s="176"/>
+      <c r="E19" s="181"/>
       <c r="F19" s="28">
         <v>10</v>
       </c>
@@ -9925,9 +10110,9 @@
         <v>619</v>
       </c>
     </row>
-    <row r="20" spans="4:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="D20" s="164"/>
-      <c r="E20" s="169"/>
+    <row r="20" spans="4:10" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="D20" s="176"/>
+      <c r="E20" s="181"/>
       <c r="F20" s="28">
         <v>11</v>
       </c>
@@ -9944,9 +10129,9 @@
         <v>626</v>
       </c>
     </row>
-    <row r="21" spans="4:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="D21" s="164"/>
-      <c r="E21" s="169"/>
+    <row r="21" spans="4:10" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="D21" s="176"/>
+      <c r="E21" s="181"/>
       <c r="F21" s="28">
         <v>12</v>
       </c>
@@ -9963,9 +10148,9 @@
         <v>632</v>
       </c>
     </row>
-    <row r="22" spans="4:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="D22" s="164"/>
-      <c r="E22" s="170"/>
+    <row r="22" spans="4:10" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D22" s="176"/>
+      <c r="E22" s="182"/>
       <c r="F22" s="28">
         <v>13</v>
       </c>
@@ -9982,8 +10167,8 @@
         <v>642</v>
       </c>
     </row>
-    <row r="23" spans="4:10" ht="56" x14ac:dyDescent="0.3">
-      <c r="D23" s="164"/>
+    <row r="23" spans="4:10" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="D23" s="176"/>
       <c r="E23" s="95" t="s">
         <v>643</v>
       </c>
@@ -10003,11 +10188,11 @@
         <v>645</v>
       </c>
     </row>
-    <row r="24" spans="4:10" ht="42" x14ac:dyDescent="0.3">
-      <c r="D24" s="164" t="s">
+    <row r="24" spans="4:10" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="D24" s="176" t="s">
         <v>684</v>
       </c>
-      <c r="E24" s="168" t="s">
+      <c r="E24" s="180" t="s">
         <v>662</v>
       </c>
       <c r="F24" s="28">
@@ -10026,9 +10211,9 @@
         <v>663</v>
       </c>
     </row>
-    <row r="25" spans="4:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="D25" s="164"/>
-      <c r="E25" s="169"/>
+    <row r="25" spans="4:10" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="D25" s="176"/>
+      <c r="E25" s="181"/>
       <c r="F25" s="28">
         <v>16</v>
       </c>
@@ -10045,9 +10230,9 @@
         <v>668</v>
       </c>
     </row>
-    <row r="26" spans="4:10" ht="56" x14ac:dyDescent="0.3">
-      <c r="D26" s="164"/>
-      <c r="E26" s="169"/>
+    <row r="26" spans="4:10" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="D26" s="176"/>
+      <c r="E26" s="181"/>
       <c r="F26" s="28">
         <v>17</v>
       </c>
@@ -10064,9 +10249,9 @@
         <v>690</v>
       </c>
     </row>
-    <row r="27" spans="4:10" ht="42" x14ac:dyDescent="0.3">
-      <c r="D27" s="164"/>
-      <c r="E27" s="169"/>
+    <row r="27" spans="4:10" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="D27" s="176"/>
+      <c r="E27" s="181"/>
       <c r="F27" s="28">
         <v>18</v>
       </c>
@@ -10083,9 +10268,9 @@
         <v>680</v>
       </c>
     </row>
-    <row r="28" spans="4:10" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D28" s="172"/>
-      <c r="E28" s="171"/>
+    <row r="28" spans="4:10" ht="42" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D28" s="187"/>
+      <c r="E28" s="183"/>
       <c r="F28" s="28">
         <v>19</v>
       </c>
@@ -10124,16 +10309,16 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="4" max="4" width="20.265625" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="25.25" customWidth="1"/>
-    <col min="7" max="7" width="43.9140625" customWidth="1"/>
+    <col min="6" max="6" width="25.265625" customWidth="1"/>
+    <col min="7" max="7" width="43.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="3:7" ht="20" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="3:7" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="173" t="s">
         <v>446</v>
       </c>
@@ -10142,7 +10327,7 @@
       <c r="F6" s="175"/>
       <c r="G6" s="37"/>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C7" s="82" t="s">
         <v>458</v>
       </c>
@@ -10159,11 +10344,11 @@
         <v>530</v>
       </c>
     </row>
-    <row r="8" spans="3:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="C8" s="164" t="s">
+    <row r="8" spans="3:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C8" s="176" t="s">
         <v>646</v>
       </c>
-      <c r="D8" s="168" t="s">
+      <c r="D8" s="180" t="s">
         <v>603</v>
       </c>
       <c r="E8" s="28" t="s">
@@ -10176,9 +10361,9 @@
         <v>648</v>
       </c>
     </row>
-    <row r="9" spans="3:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="C9" s="164"/>
-      <c r="D9" s="170"/>
+    <row r="9" spans="3:7" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C9" s="176"/>
+      <c r="D9" s="182"/>
       <c r="E9" s="28" t="s">
         <v>702</v>
       </c>
@@ -10189,9 +10374,9 @@
         <v>653</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C10" s="164"/>
-      <c r="D10" s="168" t="s">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C10" s="176"/>
+      <c r="D10" s="180" t="s">
         <v>587</v>
       </c>
       <c r="E10" s="28" t="s">
@@ -10204,9 +10389,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="3:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="C11" s="164"/>
-      <c r="D11" s="169"/>
+    <row r="11" spans="3:7" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C11" s="176"/>
+      <c r="D11" s="181"/>
       <c r="E11" s="28" t="s">
         <v>658</v>
       </c>
@@ -10217,9 +10402,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="3:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="C12" s="164"/>
-      <c r="D12" s="170"/>
+    <row r="12" spans="3:7" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C12" s="176"/>
+      <c r="D12" s="182"/>
       <c r="E12" s="28" t="s">
         <v>658</v>
       </c>
@@ -10230,11 +10415,11 @@
         <v>297</v>
       </c>
     </row>
-    <row r="13" spans="3:7" ht="56" x14ac:dyDescent="0.3">
-      <c r="C13" s="164" t="s">
+    <row r="13" spans="3:7" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C13" s="176" t="s">
         <v>684</v>
       </c>
-      <c r="D13" s="168" t="s">
+      <c r="D13" s="180" t="s">
         <v>662</v>
       </c>
       <c r="E13" s="37" t="s">
@@ -10247,9 +10432,9 @@
         <v>690</v>
       </c>
     </row>
-    <row r="14" spans="3:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="C14" s="164"/>
-      <c r="D14" s="169"/>
+    <row r="14" spans="3:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C14" s="176"/>
+      <c r="D14" s="181"/>
       <c r="E14" s="27" t="s">
         <v>693</v>
       </c>
@@ -10260,9 +10445,9 @@
         <v>691</v>
       </c>
     </row>
-    <row r="15" spans="3:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="C15" s="164"/>
-      <c r="D15" s="169"/>
+    <row r="15" spans="3:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C15" s="176"/>
+      <c r="D15" s="181"/>
       <c r="E15" s="27" t="s">
         <v>393</v>
       </c>
@@ -10273,9 +10458,9 @@
         <v>692</v>
       </c>
     </row>
-    <row r="16" spans="3:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="C16" s="164"/>
-      <c r="D16" s="169"/>
+    <row r="16" spans="3:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C16" s="176"/>
+      <c r="D16" s="181"/>
       <c r="E16" s="27" t="s">
         <v>705</v>
       </c>
@@ -10286,9 +10471,9 @@
         <v>699</v>
       </c>
     </row>
-    <row r="17" spans="3:7" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="172"/>
-      <c r="D17" s="171"/>
+    <row r="17" spans="3:7" ht="42" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C17" s="187"/>
+      <c r="D17" s="183"/>
       <c r="E17" s="27" t="s">
         <v>706</v>
       </c>
@@ -10317,70 +10502,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6FED96-B02C-4C68-8AE8-637A87A3F611}">
   <dimension ref="C1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="D18" sqref="C5:I33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="64.83203125" style="37" customWidth="1"/>
-    <col min="4" max="4" width="50.1640625" style="132" customWidth="1"/>
-    <col min="5" max="5" width="29.9140625" style="132" customWidth="1"/>
-    <col min="6" max="6" width="46.9140625" style="132" customWidth="1"/>
-    <col min="7" max="7" width="27.75" style="132" customWidth="1"/>
-    <col min="8" max="8" width="29.75" customWidth="1"/>
-    <col min="9" max="9" width="32.9140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.796875" style="37" customWidth="1"/>
+    <col min="4" max="4" width="50.1328125" style="132" customWidth="1"/>
+    <col min="5" max="5" width="29.9296875" style="132" customWidth="1"/>
+    <col min="6" max="6" width="46.9296875" style="132" customWidth="1"/>
+    <col min="7" max="7" width="27.73046875" style="132" customWidth="1"/>
+    <col min="8" max="8" width="29.73046875" customWidth="1"/>
+    <col min="9" max="9" width="32.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D1" s="133"/>
       <c r="E1" s="133"/>
       <c r="F1" s="133"/>
       <c r="G1" s="133"/>
     </row>
-    <row r="2" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D2" s="133"/>
       <c r="E2" s="133"/>
       <c r="F2" s="133"/>
       <c r="G2" s="133"/>
     </row>
-    <row r="3" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D3" s="133"/>
       <c r="E3" s="133"/>
       <c r="F3" s="133"/>
       <c r="G3" s="133"/>
     </row>
-    <row r="4" spans="3:9" s="37" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:9" s="37" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D4" s="133"/>
       <c r="E4" s="133"/>
       <c r="F4" s="133"/>
       <c r="G4" s="133"/>
     </row>
-    <row r="5" spans="3:9" s="37" customFormat="1" ht="20" x14ac:dyDescent="0.4">
-      <c r="C5" s="140" t="s">
+    <row r="5" spans="3:9" s="37" customFormat="1" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" s="139" t="s">
         <v>709</v>
       </c>
-      <c r="D5" s="141" t="s">
+      <c r="D5" s="140" t="s">
         <v>710</v>
       </c>
-      <c r="E5" s="141" t="s">
+      <c r="E5" s="140" t="s">
         <v>711</v>
       </c>
-      <c r="F5" s="141" t="s">
+      <c r="F5" s="140" t="s">
         <v>712</v>
       </c>
-      <c r="G5" s="141" t="s">
+      <c r="G5" s="140" t="s">
         <v>713</v>
       </c>
-      <c r="H5" s="142" t="s">
+      <c r="H5" s="141" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="6" spans="3:9" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C6" s="143" t="s">
+    <row r="6" spans="3:9" s="37" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C6" s="142" t="s">
         <v>240</v>
       </c>
-      <c r="D6" s="134" t="s">
+      <c r="D6" s="204" t="s">
         <v>716</v>
       </c>
       <c r="E6" s="134" t="s">
@@ -10396,20 +10581,20 @@
         <v>722</v>
       </c>
     </row>
-    <row r="7" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="143" t="s">
+    <row r="7" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="142" t="s">
         <v>717</v>
       </c>
-      <c r="D7" s="176" t="s">
+      <c r="D7" s="188" t="s">
         <v>739</v>
       </c>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="176"/>
-      <c r="H7" s="177"/>
-    </row>
-    <row r="8" spans="3:9" s="37" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="C8" s="143" t="s">
+      <c r="E7" s="188"/>
+      <c r="F7" s="188"/>
+      <c r="G7" s="188"/>
+      <c r="H7" s="189"/>
+    </row>
+    <row r="8" spans="3:9" s="37" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C8" s="142" t="s">
         <v>238</v>
       </c>
       <c r="D8" s="134" t="s">
@@ -10428,11 +10613,11 @@
         <v>723</v>
       </c>
     </row>
-    <row r="9" spans="3:9" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C9" s="143" t="s">
+    <row r="9" spans="3:9" s="37" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C9" s="142" t="s">
         <v>732</v>
       </c>
-      <c r="D9" s="134" t="s">
+      <c r="D9" s="204" t="s">
         <v>729</v>
       </c>
       <c r="E9" s="134" t="s">
@@ -10448,8 +10633,8 @@
         <v>730</v>
       </c>
     </row>
-    <row r="10" spans="3:9" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C10" s="144" t="s">
+    <row r="10" spans="3:9" s="37" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C10" s="143" t="s">
         <v>436</v>
       </c>
       <c r="D10" s="134" t="s">
@@ -10471,11 +10656,11 @@
         <v>734</v>
       </c>
     </row>
-    <row r="11" spans="3:9" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C11" s="143" t="s">
+    <row r="11" spans="3:9" s="37" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C11" s="142" t="s">
         <v>329</v>
       </c>
-      <c r="D11" s="134" t="s">
+      <c r="D11" s="204" t="s">
         <v>726</v>
       </c>
       <c r="E11" s="134" t="s">
@@ -10491,11 +10676,11 @@
         <v>727</v>
       </c>
     </row>
-    <row r="12" spans="3:9" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="143" t="s">
+    <row r="12" spans="3:9" s="37" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C12" s="142" t="s">
         <v>399</v>
       </c>
-      <c r="D12" s="134" t="s">
+      <c r="D12" s="204" t="s">
         <v>740</v>
       </c>
       <c r="E12" s="134" t="s">
@@ -10511,11 +10696,11 @@
         <v>742</v>
       </c>
     </row>
-    <row r="13" spans="3:9" s="37" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="C13" s="144" t="s">
+    <row r="13" spans="3:9" s="37" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C13" s="143" t="s">
         <v>324</v>
       </c>
-      <c r="D13" s="134" t="s">
+      <c r="D13" s="204" t="s">
         <v>745</v>
       </c>
       <c r="E13" s="134" t="s">
@@ -10531,11 +10716,11 @@
         <v>744</v>
       </c>
     </row>
-    <row r="14" spans="3:9" s="37" customFormat="1" ht="70" x14ac:dyDescent="0.3">
-      <c r="C14" s="144" t="s">
+    <row r="14" spans="3:9" s="37" customFormat="1" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="C14" s="143" t="s">
         <v>364</v>
       </c>
-      <c r="D14" s="134" t="s">
+      <c r="D14" s="204" t="s">
         <v>750</v>
       </c>
       <c r="E14" s="134" t="s">
@@ -10551,11 +10736,11 @@
         <v>751</v>
       </c>
     </row>
-    <row r="15" spans="3:9" s="37" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="C15" s="143" t="s">
+    <row r="15" spans="3:9" s="37" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C15" s="142" t="s">
         <v>287</v>
       </c>
-      <c r="D15" s="134" t="s">
+      <c r="D15" s="204" t="s">
         <v>756</v>
       </c>
       <c r="E15" s="134" t="s">
@@ -10567,173 +10752,173 @@
       <c r="G15" s="28" t="s">
         <v>754</v>
       </c>
-      <c r="H15" s="145" t="s">
+      <c r="H15" s="144" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="16" spans="3:9" s="37" customFormat="1" ht="98" x14ac:dyDescent="0.3">
-      <c r="C16" s="143" t="s">
+    <row r="16" spans="3:9" s="37" customFormat="1" ht="97.15" x14ac:dyDescent="0.4">
+      <c r="C16" s="142" t="s">
         <v>366</v>
       </c>
       <c r="D16" s="134" t="s">
+        <v>775</v>
+      </c>
+      <c r="E16" s="134" t="s">
         <v>776</v>
       </c>
-      <c r="E16" s="134" t="s">
+      <c r="F16" s="134" t="s">
+        <v>778</v>
+      </c>
+      <c r="G16" s="28" t="s">
         <v>777</v>
       </c>
-      <c r="F16" s="134" t="s">
+      <c r="H16" s="48" t="s">
         <v>779</v>
       </c>
-      <c r="G16" s="28" t="s">
-        <v>778</v>
-      </c>
-      <c r="H16" s="48" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C17" s="143" t="s">
+    </row>
+    <row r="17" spans="3:8" s="37" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C17" s="142" t="s">
         <v>538</v>
       </c>
-      <c r="D17" s="176" t="s">
+      <c r="D17" s="188" t="s">
         <v>739</v>
       </c>
-      <c r="E17" s="176"/>
-      <c r="F17" s="176"/>
-      <c r="G17" s="176"/>
-      <c r="H17" s="177"/>
-    </row>
-    <row r="18" spans="3:8" s="37" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="143" t="s">
+      <c r="E17" s="188"/>
+      <c r="F17" s="188"/>
+      <c r="G17" s="188"/>
+      <c r="H17" s="189"/>
+    </row>
+    <row r="18" spans="3:8" s="37" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C18" s="142" t="s">
         <v>384</v>
       </c>
       <c r="D18" s="134" t="s">
+        <v>785</v>
+      </c>
+      <c r="E18" s="134" t="s">
+        <v>787</v>
+      </c>
+      <c r="F18" s="134" t="s">
         <v>786</v>
-      </c>
-      <c r="E18" s="134" t="s">
-        <v>788</v>
-      </c>
-      <c r="F18" s="134" t="s">
-        <v>787</v>
       </c>
       <c r="G18" s="134" t="s">
         <v>721</v>
       </c>
       <c r="H18" s="48" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" s="37" customFormat="1" ht="70" x14ac:dyDescent="0.3">
-      <c r="C19" s="183" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" s="37" customFormat="1" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="C19" s="153" t="s">
         <v>769</v>
       </c>
-      <c r="D19" s="134" t="s">
+      <c r="D19" s="204" t="s">
+        <v>782</v>
+      </c>
+      <c r="E19" s="134" t="s">
+        <v>780</v>
+      </c>
+      <c r="F19" s="134" t="s">
+        <v>784</v>
+      </c>
+      <c r="G19" s="134" t="s">
         <v>783</v>
       </c>
-      <c r="E19" s="134" t="s">
+      <c r="H19" s="48" t="s">
         <v>781</v>
       </c>
-      <c r="F19" s="134" t="s">
-        <v>785</v>
-      </c>
-      <c r="G19" s="134" t="s">
-        <v>784</v>
-      </c>
-      <c r="H19" s="48" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="C20" s="183" t="s">
+    </row>
+    <row r="20" spans="3:8" s="37" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C20" s="153" t="s">
         <v>382</v>
       </c>
-      <c r="D20" s="134" t="s">
-        <v>793</v>
+      <c r="D20" s="204" t="s">
+        <v>792</v>
       </c>
       <c r="E20" s="134" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F20" s="134" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G20" s="134" t="s">
         <v>721</v>
       </c>
       <c r="H20" s="48" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" s="37" customFormat="1" ht="56" x14ac:dyDescent="0.3">
-      <c r="C21" s="183" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" s="37" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C21" s="153" t="s">
         <v>379</v>
       </c>
-      <c r="D21" s="134" t="s">
+      <c r="D21" s="204" t="s">
         <v>774</v>
       </c>
       <c r="E21" s="134" t="s">
-        <v>775</v>
+        <v>967</v>
       </c>
       <c r="F21" s="134" t="s">
         <v>772</v>
       </c>
-      <c r="G21" s="178" t="s">
-        <v>790</v>
+      <c r="G21" s="148" t="s">
+        <v>789</v>
       </c>
       <c r="H21" s="48" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="22" spans="3:8" s="37" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="C22" s="183" t="s">
+    <row r="22" spans="3:8" s="37" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C22" s="153" t="s">
         <v>372</v>
       </c>
-      <c r="D22" s="134" t="s">
-        <v>795</v>
+      <c r="D22" s="204" t="s">
+        <v>794</v>
       </c>
       <c r="E22" s="134" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F22" s="134" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G22" s="134" t="s">
         <v>721</v>
       </c>
       <c r="H22" s="48" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" s="37" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C23" s="153" t="s">
+        <v>488</v>
+      </c>
+      <c r="D23" s="204" t="s">
+        <v>799</v>
+      </c>
+      <c r="E23" s="134" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="23" spans="3:8" s="37" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="C23" s="183" t="s">
-        <v>488</v>
-      </c>
-      <c r="D23" s="134" t="s">
+      <c r="F23" s="134" t="s">
+        <v>786</v>
+      </c>
+      <c r="G23" s="134" t="s">
         <v>800</v>
       </c>
-      <c r="E23" s="134" t="s">
+      <c r="H23" s="48" t="s">
         <v>798</v>
       </c>
-      <c r="F23" s="134" t="s">
-        <v>787</v>
-      </c>
-      <c r="G23" s="134" t="s">
-        <v>801</v>
-      </c>
-      <c r="H23" s="48" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="C24" s="183" t="s">
+    </row>
+    <row r="24" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C24" s="153" t="s">
         <v>282</v>
       </c>
-      <c r="D24" s="146" t="s">
+      <c r="D24" s="205" t="s">
         <v>761</v>
       </c>
       <c r="E24" s="134" t="s">
         <v>760</v>
       </c>
-      <c r="F24" s="146" t="s">
+      <c r="F24" s="145" t="s">
         <v>763</v>
       </c>
       <c r="G24" s="134" t="s">
@@ -10743,77 +10928,77 @@
         <v>762</v>
       </c>
     </row>
-    <row r="25" spans="3:8" s="37" customFormat="1" ht="70" x14ac:dyDescent="0.3">
-      <c r="C25" s="183" t="s">
+    <row r="25" spans="3:8" s="37" customFormat="1" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="C25" s="153" t="s">
         <v>521</v>
       </c>
       <c r="D25" s="134" t="s">
+        <v>802</v>
+      </c>
+      <c r="E25" s="134" t="s">
+        <v>801</v>
+      </c>
+      <c r="F25" s="134" t="s">
+        <v>805</v>
+      </c>
+      <c r="G25" s="134" t="s">
         <v>803</v>
       </c>
-      <c r="E25" s="134" t="s">
-        <v>802</v>
-      </c>
-      <c r="F25" s="134" t="s">
+      <c r="H25" s="48" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="C26" s="153" t="s">
+        <v>374</v>
+      </c>
+      <c r="D26" s="145" t="s">
         <v>806</v>
       </c>
-      <c r="G25" s="134" t="s">
-        <v>804</v>
-      </c>
-      <c r="H25" s="48" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C26" s="183" t="s">
-        <v>374</v>
-      </c>
-      <c r="D26" s="146" t="s">
+      <c r="E26" s="134" t="s">
+        <v>810</v>
+      </c>
+      <c r="F26" s="145" t="s">
+        <v>786</v>
+      </c>
+      <c r="G26" s="28" t="s">
         <v>807</v>
       </c>
-      <c r="E26" s="134" t="s">
-        <v>811</v>
-      </c>
-      <c r="F26" s="146" t="s">
-        <v>787</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>808</v>
-      </c>
       <c r="H26" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C27" s="183" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="C27" s="153" t="s">
         <v>370</v>
       </c>
-      <c r="D27" s="146" t="s">
+      <c r="D27" s="205" t="s">
         <v>761</v>
       </c>
       <c r="E27" s="95" t="s">
         <v>771</v>
       </c>
-      <c r="F27" s="146" t="s">
+      <c r="F27" s="145" t="s">
         <v>772</v>
       </c>
       <c r="G27" s="134" t="s">
         <v>770</v>
       </c>
       <c r="H27" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="C28" s="184" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="C28" s="154" t="s">
         <v>560</v>
       </c>
-      <c r="D28" s="134" t="s">
+      <c r="D28" s="204" t="s">
         <v>767</v>
       </c>
       <c r="E28" s="134" t="s">
         <v>766</v>
       </c>
-      <c r="F28" s="146" t="s">
+      <c r="F28" s="145" t="s">
         <v>765</v>
       </c>
       <c r="G28" s="134" t="s">
@@ -10823,104 +11008,104 @@
         <v>764</v>
       </c>
     </row>
-    <row r="29" spans="3:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="C29" s="184" t="s">
+    <row r="29" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="C29" s="154" t="s">
         <v>552</v>
       </c>
-      <c r="D29" s="146" t="s">
+      <c r="D29" s="205" t="s">
+        <v>813</v>
+      </c>
+      <c r="E29" s="145" t="s">
+        <v>812</v>
+      </c>
+      <c r="F29" s="145" t="s">
+        <v>811</v>
+      </c>
+      <c r="G29" s="145" t="s">
+        <v>721</v>
+      </c>
+      <c r="H29" s="48" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="C30" s="155" t="s">
+        <v>312</v>
+      </c>
+      <c r="D30" s="205" t="s">
+        <v>816</v>
+      </c>
+      <c r="E30" s="134" t="s">
+        <v>819</v>
+      </c>
+      <c r="F30" s="134" t="s">
         <v>814</v>
       </c>
-      <c r="E29" s="146" t="s">
-        <v>813</v>
-      </c>
-      <c r="F29" s="146" t="s">
-        <v>812</v>
-      </c>
-      <c r="G29" s="146" t="s">
+      <c r="G30" s="134" t="s">
+        <v>817</v>
+      </c>
+      <c r="H30" s="48" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="C31" s="154" t="s">
+        <v>561</v>
+      </c>
+      <c r="D31" s="204" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E31" s="134" t="s">
+        <v>820</v>
+      </c>
+      <c r="F31" s="148" t="s">
+        <v>822</v>
+      </c>
+      <c r="G31" s="134" t="s">
+        <v>823</v>
+      </c>
+      <c r="H31" s="48" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="C32" s="154" t="s">
+        <v>564</v>
+      </c>
+      <c r="D32" s="134" t="s">
+        <v>824</v>
+      </c>
+      <c r="E32" s="134" t="s">
+        <v>787</v>
+      </c>
+      <c r="F32" s="145" t="s">
+        <v>830</v>
+      </c>
+      <c r="G32" s="145" t="s">
         <v>721</v>
       </c>
-      <c r="H29" s="48" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" ht="70" x14ac:dyDescent="0.3">
-      <c r="C30" s="185" t="s">
-        <v>312</v>
-      </c>
-      <c r="D30" s="146" t="s">
-        <v>817</v>
-      </c>
-      <c r="E30" s="134" t="s">
-        <v>820</v>
-      </c>
-      <c r="F30" s="134" t="s">
-        <v>815</v>
-      </c>
-      <c r="G30" s="134" t="s">
-        <v>818</v>
-      </c>
-      <c r="H30" s="48" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" ht="56" x14ac:dyDescent="0.3">
-      <c r="C31" s="184" t="s">
-        <v>561</v>
-      </c>
-      <c r="D31" s="134" t="s">
-        <v>822</v>
-      </c>
-      <c r="E31" s="134" t="s">
-        <v>821</v>
-      </c>
-      <c r="F31" s="178" t="s">
-        <v>824</v>
-      </c>
-      <c r="G31" s="134" t="s">
+      <c r="H32" s="48" t="s">
         <v>825</v>
       </c>
-      <c r="H31" s="48" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" ht="70" x14ac:dyDescent="0.3">
-      <c r="C32" s="184" t="s">
-        <v>564</v>
-      </c>
-      <c r="D32" s="134" t="s">
+    </row>
+    <row r="33" spans="3:8" ht="55.9" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C33" s="156" t="s">
+        <v>368</v>
+      </c>
+      <c r="D33" s="150" t="s">
+        <v>828</v>
+      </c>
+      <c r="E33" s="151" t="s">
+        <v>829</v>
+      </c>
+      <c r="F33" s="146" t="s">
+        <v>827</v>
+      </c>
+      <c r="G33" s="146" t="s">
+        <v>721</v>
+      </c>
+      <c r="H33" s="70" t="s">
         <v>826</v>
-      </c>
-      <c r="E32" s="134" t="s">
-        <v>788</v>
-      </c>
-      <c r="F32" s="146" t="s">
-        <v>832</v>
-      </c>
-      <c r="G32" s="146" t="s">
-        <v>721</v>
-      </c>
-      <c r="H32" s="48" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="186" t="s">
-        <v>368</v>
-      </c>
-      <c r="D33" s="180" t="s">
-        <v>830</v>
-      </c>
-      <c r="E33" s="181" t="s">
-        <v>831</v>
-      </c>
-      <c r="F33" s="147" t="s">
-        <v>829</v>
-      </c>
-      <c r="G33" s="147" t="s">
-        <v>721</v>
-      </c>
-      <c r="H33" s="70" t="s">
-        <v>828</v>
       </c>
     </row>
   </sheetData>
@@ -10937,579 +11122,579 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C055E65A-D9A3-4C6F-8010-2B4845E23311}">
   <dimension ref="B2:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="B17" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="50.75" customWidth="1"/>
-    <col min="3" max="3" width="39.08203125" style="37" customWidth="1"/>
-    <col min="4" max="4" width="35.5" style="188" customWidth="1"/>
+    <col min="2" max="2" width="50.73046875" customWidth="1"/>
+    <col min="3" max="3" width="39.06640625" style="37" customWidth="1"/>
+    <col min="4" max="4" width="35.46484375" style="158" customWidth="1"/>
     <col min="5" max="5" width="36" style="132" customWidth="1"/>
-    <col min="6" max="6" width="39.58203125" style="188" customWidth="1"/>
+    <col min="6" max="6" width="39.59765625" style="158" customWidth="1"/>
     <col min="7" max="7" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="2:7" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B3" s="135" t="s">
         <v>709</v>
       </c>
       <c r="C3" s="136" t="s">
         <v>710</v>
       </c>
-      <c r="D3" s="187" t="s">
+      <c r="D3" s="157" t="s">
         <v>711</v>
       </c>
       <c r="E3" s="136" t="s">
         <v>712</v>
       </c>
-      <c r="F3" s="187" t="s">
+      <c r="F3" s="157" t="s">
         <v>713</v>
       </c>
       <c r="G3" s="137" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="4" spans="2:7" s="37" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="B4" s="184" t="s">
+    <row r="4" spans="2:7" s="37" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="B4" s="154" t="s">
         <v>590</v>
       </c>
-      <c r="C4" s="134" t="s">
+      <c r="C4" s="204" t="s">
+        <v>836</v>
+      </c>
+      <c r="D4" s="95" t="s">
+        <v>831</v>
+      </c>
+      <c r="E4" s="134" t="s">
+        <v>833</v>
+      </c>
+      <c r="F4" s="95" t="s">
+        <v>832</v>
+      </c>
+      <c r="G4" s="93" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B5" s="154" t="s">
+        <v>592</v>
+      </c>
+      <c r="C5" s="206" t="s">
+        <v>837</v>
+      </c>
+      <c r="D5" s="152" t="s">
+        <v>834</v>
+      </c>
+      <c r="E5" s="145" t="s">
+        <v>833</v>
+      </c>
+      <c r="F5" s="152" t="s">
+        <v>835</v>
+      </c>
+      <c r="G5" s="93" t="s">
         <v>838</v>
       </c>
-      <c r="D4" s="95" t="s">
-        <v>833</v>
-      </c>
-      <c r="E4" s="134" t="s">
-        <v>835</v>
-      </c>
-      <c r="F4" s="95" t="s">
-        <v>834</v>
-      </c>
-      <c r="G4" s="93" t="s">
+    </row>
+    <row r="6" spans="2:7" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B6" s="154" t="s">
+        <v>597</v>
+      </c>
+      <c r="C6" s="206" t="s">
+        <v>842</v>
+      </c>
+      <c r="D6" s="152" t="s">
+        <v>840</v>
+      </c>
+      <c r="E6" s="149" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="B5" s="184" t="s">
-        <v>592</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>839</v>
-      </c>
-      <c r="D5" s="182" t="s">
-        <v>836</v>
-      </c>
-      <c r="E5" s="146" t="s">
-        <v>835</v>
-      </c>
-      <c r="F5" s="182" t="s">
-        <v>837</v>
-      </c>
-      <c r="G5" s="93" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="B6" s="184" t="s">
-        <v>597</v>
-      </c>
-      <c r="C6" s="28" t="s">
+      <c r="F6" s="95" t="s">
         <v>844</v>
       </c>
-      <c r="D6" s="182" t="s">
-        <v>842</v>
-      </c>
-      <c r="E6" s="179" t="s">
+      <c r="G6" s="48" t="s">
         <v>843</v>
       </c>
-      <c r="F6" s="95" t="s">
+    </row>
+    <row r="7" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B7" s="154" t="s">
+        <v>602</v>
+      </c>
+      <c r="C7" s="206" t="s">
+        <v>847</v>
+      </c>
+      <c r="D7" s="152" t="s">
+        <v>845</v>
+      </c>
+      <c r="E7" s="145" t="s">
         <v>846</v>
       </c>
-      <c r="G6" s="48" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="B7" s="184" t="s">
-        <v>602</v>
-      </c>
-      <c r="C7" s="28" t="s">
+      <c r="F7" s="152" t="s">
         <v>849</v>
       </c>
-      <c r="D7" s="182" t="s">
-        <v>847</v>
-      </c>
-      <c r="E7" s="146" t="s">
+      <c r="G7" s="48" t="s">
         <v>848</v>
       </c>
-      <c r="F7" s="182" t="s">
+    </row>
+    <row r="8" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B8" s="154" t="s">
+        <v>629</v>
+      </c>
+      <c r="C8" s="206" t="s">
+        <v>853</v>
+      </c>
+      <c r="D8" s="152" t="s">
+        <v>883</v>
+      </c>
+      <c r="E8" s="145" t="s">
         <v>851</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="F8" s="152" t="s">
+        <v>852</v>
+      </c>
+      <c r="G8" s="48" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B8" s="184" t="s">
-        <v>629</v>
-      </c>
-      <c r="C8" s="28" t="s">
+    <row r="9" spans="2:7" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="B9" s="159" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" s="206" t="s">
+        <v>857</v>
+      </c>
+      <c r="D9" s="152" t="s">
         <v>855</v>
       </c>
-      <c r="D8" s="182" t="s">
+      <c r="E9" s="152" t="s">
+        <v>856</v>
+      </c>
+      <c r="F9" s="95" t="s">
+        <v>858</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B10" s="154" t="s">
+        <v>609</v>
+      </c>
+      <c r="C10" s="206" t="s">
+        <v>864</v>
+      </c>
+      <c r="D10" s="152" t="s">
+        <v>869</v>
+      </c>
+      <c r="E10" s="145" t="s">
+        <v>860</v>
+      </c>
+      <c r="F10" s="152" t="s">
+        <v>863</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B11" s="154" t="s">
+        <v>618</v>
+      </c>
+      <c r="C11" s="206" t="s">
+        <v>861</v>
+      </c>
+      <c r="D11" s="152" t="s">
+        <v>859</v>
+      </c>
+      <c r="E11" s="152" t="s">
+        <v>860</v>
+      </c>
+      <c r="F11" s="152" t="s">
+        <v>786</v>
+      </c>
+      <c r="G11" s="93" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="B12" s="154" t="s">
+        <v>619</v>
+      </c>
+      <c r="C12" s="206" t="s">
+        <v>868</v>
+      </c>
+      <c r="D12" s="95" t="s">
+        <v>867</v>
+      </c>
+      <c r="E12" s="145" t="s">
+        <v>870</v>
+      </c>
+      <c r="F12" s="152" t="s">
+        <v>786</v>
+      </c>
+      <c r="G12" s="93" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B13" s="154" t="s">
+        <v>626</v>
+      </c>
+      <c r="C13" s="206" t="s">
+        <v>872</v>
+      </c>
+      <c r="D13" s="152" t="s">
+        <v>871</v>
+      </c>
+      <c r="E13" s="152" t="s">
+        <v>873</v>
+      </c>
+      <c r="F13" s="152" t="s">
+        <v>786</v>
+      </c>
+      <c r="G13" s="93" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B14" s="154" t="s">
+        <v>632</v>
+      </c>
+      <c r="C14" s="206" t="s">
+        <v>876</v>
+      </c>
+      <c r="D14" s="152" t="s">
+        <v>875</v>
+      </c>
+      <c r="E14" s="145" t="s">
+        <v>873</v>
+      </c>
+      <c r="F14" s="152" t="s">
+        <v>786</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B15" s="154" t="s">
+        <v>642</v>
+      </c>
+      <c r="C15" s="206" t="s">
+        <v>879</v>
+      </c>
+      <c r="D15" s="152" t="s">
+        <v>882</v>
+      </c>
+      <c r="E15" s="145" t="s">
+        <v>878</v>
+      </c>
+      <c r="F15" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="G15" s="93" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="B16" s="154" t="s">
+        <v>645</v>
+      </c>
+      <c r="C16" s="206" t="s">
+        <v>886</v>
+      </c>
+      <c r="D16" s="152" t="s">
         <v>885</v>
       </c>
-      <c r="E8" s="146" t="s">
-        <v>853</v>
-      </c>
-      <c r="F8" s="182" t="s">
-        <v>854</v>
-      </c>
-      <c r="G8" s="48" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B9" s="189" t="s">
-        <v>252</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>859</v>
-      </c>
-      <c r="D9" s="182" t="s">
-        <v>857</v>
-      </c>
-      <c r="E9" s="182" t="s">
-        <v>858</v>
-      </c>
-      <c r="F9" s="95" t="s">
-        <v>860</v>
-      </c>
-      <c r="G9" s="48" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="B10" s="184" t="s">
-        <v>609</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>866</v>
-      </c>
-      <c r="D10" s="182" t="s">
-        <v>871</v>
-      </c>
-      <c r="E10" s="146" t="s">
-        <v>862</v>
-      </c>
-      <c r="F10" s="182" t="s">
-        <v>865</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="184" t="s">
-        <v>618</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>863</v>
-      </c>
-      <c r="D11" s="182" t="s">
-        <v>861</v>
-      </c>
-      <c r="E11" s="182" t="s">
-        <v>862</v>
-      </c>
-      <c r="F11" s="182" t="s">
-        <v>787</v>
-      </c>
-      <c r="G11" s="93" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="56" x14ac:dyDescent="0.3">
-      <c r="B12" s="184" t="s">
-        <v>619</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>870</v>
-      </c>
-      <c r="D12" s="95" t="s">
+      <c r="E16" s="145" t="s">
+        <v>888</v>
+      </c>
+      <c r="F16" s="152" t="s">
+        <v>887</v>
+      </c>
+      <c r="G16" s="48" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B17" s="143" t="s">
+        <v>663</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>889</v>
+      </c>
+      <c r="D17" s="95" t="s">
+        <v>893</v>
+      </c>
+      <c r="E17" s="145" t="s">
+        <v>897</v>
+      </c>
+      <c r="F17" s="95" t="s">
+        <v>892</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B18" s="143" t="s">
+        <v>668</v>
+      </c>
+      <c r="C18" s="206" t="s">
+        <v>891</v>
+      </c>
+      <c r="D18" s="152" t="s">
+        <v>900</v>
+      </c>
+      <c r="E18" s="145" t="s">
+        <v>894</v>
+      </c>
+      <c r="F18" s="152" t="s">
+        <v>786</v>
+      </c>
+      <c r="G18" s="48" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B19" s="143" t="s">
+        <v>690</v>
+      </c>
+      <c r="C19" s="206" t="s">
+        <v>896</v>
+      </c>
+      <c r="D19" s="95" t="s">
+        <v>899</v>
+      </c>
+      <c r="E19" s="145" t="s">
+        <v>895</v>
+      </c>
+      <c r="F19" s="152" t="s">
+        <v>786</v>
+      </c>
+      <c r="G19" s="48" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B20" s="143" t="s">
+        <v>680</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>901</v>
+      </c>
+      <c r="D20" s="152" t="s">
+        <v>786</v>
+      </c>
+      <c r="E20" s="145" t="s">
+        <v>895</v>
+      </c>
+      <c r="F20" s="152" t="s">
+        <v>786</v>
+      </c>
+      <c r="G20" s="48" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="97.15" x14ac:dyDescent="0.4">
+      <c r="B21" s="143" t="s">
+        <v>685</v>
+      </c>
+      <c r="C21" s="206" t="s">
+        <v>905</v>
+      </c>
+      <c r="D21" s="152" t="s">
+        <v>904</v>
+      </c>
+      <c r="E21" s="134" t="s">
+        <v>906</v>
+      </c>
+      <c r="F21" s="152" t="s">
+        <v>786</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B22" s="154" t="s">
+        <v>648</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>908</v>
+      </c>
+      <c r="D22" s="152" t="s">
+        <v>911</v>
+      </c>
+      <c r="E22" s="145" t="s">
+        <v>912</v>
+      </c>
+      <c r="F22" s="152" t="s">
+        <v>786</v>
+      </c>
+      <c r="G22" s="48" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="B23" s="159" t="s">
+        <v>653</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>915</v>
+      </c>
+      <c r="D23" s="152" t="s">
+        <v>914</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>917</v>
+      </c>
+      <c r="F23" s="95" t="s">
+        <v>913</v>
+      </c>
+      <c r="G23" s="48" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="B24" s="159" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>922</v>
+      </c>
+      <c r="D24" s="152" t="s">
+        <v>918</v>
+      </c>
+      <c r="E24" s="145" t="s">
+        <v>920</v>
+      </c>
+      <c r="F24" s="95" t="s">
+        <v>919</v>
+      </c>
+      <c r="G24" s="48" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B25" s="159" t="s">
+        <v>300</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>926</v>
+      </c>
+      <c r="D25" s="152" t="s">
+        <v>925</v>
+      </c>
+      <c r="E25" s="145" t="s">
+        <v>920</v>
+      </c>
+      <c r="F25" s="152" t="s">
+        <v>786</v>
+      </c>
+      <c r="G25" s="93" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B26" s="155" t="s">
+        <v>297</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>928</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>924</v>
+      </c>
+      <c r="E26" s="145" t="s">
+        <v>920</v>
+      </c>
+      <c r="F26" s="152" t="s">
+        <v>927</v>
+      </c>
+      <c r="G26" s="48" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="B27" s="143" t="s">
+        <v>691</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>930</v>
+      </c>
+      <c r="D27" s="152" t="s">
         <v>869</v>
       </c>
-      <c r="E12" s="146" t="s">
-        <v>872</v>
-      </c>
-      <c r="F12" s="182" t="s">
-        <v>787</v>
-      </c>
-      <c r="G12" s="93" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="B13" s="184" t="s">
-        <v>626</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>874</v>
-      </c>
-      <c r="D13" s="182" t="s">
-        <v>873</v>
-      </c>
-      <c r="E13" s="182" t="s">
-        <v>875</v>
-      </c>
-      <c r="F13" s="182" t="s">
-        <v>787</v>
-      </c>
-      <c r="G13" s="93" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B14" s="184" t="s">
-        <v>632</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>878</v>
-      </c>
-      <c r="D14" s="182" t="s">
-        <v>877</v>
-      </c>
-      <c r="E14" s="146" t="s">
-        <v>875</v>
-      </c>
-      <c r="F14" s="182" t="s">
-        <v>787</v>
-      </c>
-      <c r="G14" s="48" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B15" s="184" t="s">
-        <v>642</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>881</v>
-      </c>
-      <c r="D15" s="182" t="s">
-        <v>884</v>
-      </c>
-      <c r="E15" s="146" t="s">
-        <v>880</v>
-      </c>
-      <c r="F15" s="95" t="s">
-        <v>882</v>
-      </c>
-      <c r="G15" s="93" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="56" x14ac:dyDescent="0.3">
-      <c r="B16" s="184" t="s">
-        <v>645</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>888</v>
-      </c>
-      <c r="D16" s="182" t="s">
-        <v>887</v>
-      </c>
-      <c r="E16" s="146" t="s">
-        <v>890</v>
-      </c>
-      <c r="F16" s="182" t="s">
-        <v>889</v>
-      </c>
-      <c r="G16" s="48" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B17" s="144" t="s">
-        <v>663</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>891</v>
-      </c>
-      <c r="D17" s="95" t="s">
-        <v>895</v>
-      </c>
-      <c r="E17" s="146" t="s">
-        <v>899</v>
-      </c>
-      <c r="F17" s="95" t="s">
-        <v>894</v>
-      </c>
-      <c r="G17" s="48" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="B18" s="144" t="s">
-        <v>668</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>893</v>
-      </c>
-      <c r="D18" s="182" t="s">
-        <v>902</v>
-      </c>
-      <c r="E18" s="146" t="s">
-        <v>896</v>
-      </c>
-      <c r="F18" s="182" t="s">
-        <v>787</v>
-      </c>
-      <c r="G18" s="48" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B19" s="144" t="s">
-        <v>690</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>898</v>
-      </c>
-      <c r="D19" s="95" t="s">
-        <v>901</v>
-      </c>
-      <c r="E19" s="146" t="s">
-        <v>897</v>
-      </c>
-      <c r="F19" s="182" t="s">
-        <v>787</v>
-      </c>
-      <c r="G19" s="48" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="B20" s="144" t="s">
-        <v>680</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>903</v>
-      </c>
-      <c r="D20" s="182" t="s">
-        <v>787</v>
-      </c>
-      <c r="E20" s="146" t="s">
-        <v>897</v>
-      </c>
-      <c r="F20" s="182" t="s">
-        <v>787</v>
-      </c>
-      <c r="G20" s="48" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="84" x14ac:dyDescent="0.3">
-      <c r="B21" s="144" t="s">
-        <v>685</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>907</v>
-      </c>
-      <c r="D21" s="182" t="s">
-        <v>906</v>
-      </c>
-      <c r="E21" s="134" t="s">
-        <v>908</v>
-      </c>
-      <c r="F21" s="182" t="s">
-        <v>787</v>
-      </c>
-      <c r="G21" s="48" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="B22" s="184" t="s">
-        <v>648</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>910</v>
-      </c>
-      <c r="D22" s="182" t="s">
-        <v>913</v>
-      </c>
-      <c r="E22" s="146" t="s">
-        <v>914</v>
-      </c>
-      <c r="F22" s="182" t="s">
-        <v>787</v>
-      </c>
-      <c r="G22" s="48" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="70" x14ac:dyDescent="0.3">
-      <c r="B23" s="189" t="s">
-        <v>653</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>917</v>
-      </c>
-      <c r="D23" s="182" t="s">
-        <v>916</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>919</v>
-      </c>
-      <c r="F23" s="95" t="s">
-        <v>915</v>
-      </c>
-      <c r="G23" s="48" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B24" s="189" t="s">
-        <v>154</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>924</v>
-      </c>
-      <c r="D24" s="182" t="s">
-        <v>920</v>
-      </c>
-      <c r="E24" s="146" t="s">
-        <v>922</v>
-      </c>
-      <c r="F24" s="95" t="s">
-        <v>921</v>
-      </c>
-      <c r="G24" s="48" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="189" t="s">
-        <v>300</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>928</v>
-      </c>
-      <c r="D25" s="182" t="s">
-        <v>927</v>
-      </c>
-      <c r="E25" s="146" t="s">
-        <v>922</v>
-      </c>
-      <c r="F25" s="182" t="s">
-        <v>787</v>
-      </c>
-      <c r="G25" s="93" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="B26" s="185" t="s">
-        <v>297</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>930</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>926</v>
-      </c>
-      <c r="E26" s="146" t="s">
-        <v>922</v>
-      </c>
-      <c r="F26" s="182" t="s">
-        <v>929</v>
-      </c>
-      <c r="G26" s="48" t="s">
+      <c r="E27" s="95" t="s">
+        <v>934</v>
+      </c>
+      <c r="F27" s="152" t="s">
+        <v>932</v>
+      </c>
+      <c r="G27" s="48" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="56" x14ac:dyDescent="0.3">
-      <c r="B27" s="144" t="s">
-        <v>691</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>932</v>
-      </c>
-      <c r="D27" s="182" t="s">
-        <v>871</v>
-      </c>
-      <c r="E27" s="95" t="s">
+    <row r="28" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B28" s="143" t="s">
+        <v>692</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>935</v>
+      </c>
+      <c r="D28" s="152" t="s">
         <v>936</v>
       </c>
-      <c r="F27" s="182" t="s">
-        <v>934</v>
-      </c>
-      <c r="G27" s="48" t="s">
+      <c r="E28" s="145" t="s">
+        <v>937</v>
+      </c>
+      <c r="F28" s="152" t="s">
+        <v>786</v>
+      </c>
+      <c r="G28" s="48" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B28" s="144" t="s">
-        <v>692</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>937</v>
-      </c>
-      <c r="D28" s="182" t="s">
+    <row r="29" spans="2:7" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B29" s="143" t="s">
+        <v>699</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>939</v>
+      </c>
+      <c r="D29" s="152" t="s">
+        <v>940</v>
+      </c>
+      <c r="E29" s="145" t="s">
         <v>938</v>
       </c>
-      <c r="E28" s="146" t="s">
-        <v>939</v>
-      </c>
-      <c r="F28" s="182" t="s">
-        <v>787</v>
-      </c>
-      <c r="G28" s="48" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="B29" s="144" t="s">
-        <v>699</v>
-      </c>
-      <c r="C29" s="28" t="s">
+      <c r="F29" s="152" t="s">
+        <v>786</v>
+      </c>
+      <c r="G29" s="48" t="s">
         <v>941</v>
       </c>
-      <c r="D29" s="182" t="s">
+    </row>
+    <row r="30" spans="2:7" ht="69.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="160" t="s">
+        <v>395</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>944</v>
+      </c>
+      <c r="D30" s="150" t="s">
+        <v>943</v>
+      </c>
+      <c r="E30" s="146" t="s">
         <v>942</v>
       </c>
-      <c r="E29" s="146" t="s">
-        <v>940</v>
-      </c>
-      <c r="F29" s="182" t="s">
-        <v>787</v>
-      </c>
-      <c r="G29" s="48" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="70.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="190" t="s">
-        <v>395</v>
-      </c>
-      <c r="C30" s="49" t="s">
-        <v>946</v>
-      </c>
-      <c r="D30" s="180" t="s">
+      <c r="F30" s="146" t="s">
+        <v>786</v>
+      </c>
+      <c r="G30" s="70" t="s">
         <v>945</v>
-      </c>
-      <c r="E30" s="147" t="s">
-        <v>944</v>
-      </c>
-      <c r="F30" s="147" t="s">
-        <v>787</v>
-      </c>
-      <c r="G30" s="70" t="s">
-        <v>947</v>
       </c>
     </row>
   </sheetData>
@@ -11520,93 +11705,82 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8628A958-657B-48E6-8A18-5AA42088DA01}">
-  <dimension ref="C3:K14"/>
+  <dimension ref="C3:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.4140625" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" customWidth="1"/>
-    <col min="6" max="6" width="14.9140625" customWidth="1"/>
-    <col min="7" max="8" width="11.08203125" customWidth="1"/>
-    <col min="9" max="9" width="14.9140625" customWidth="1"/>
-    <col min="10" max="10" width="13.9140625" customWidth="1"/>
-    <col min="11" max="11" width="12.58203125" customWidth="1"/>
+    <col min="4" max="4" width="23.59765625" customWidth="1"/>
+    <col min="5" max="5" width="29.9296875" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
+    <col min="7" max="7" width="11.06640625" customWidth="1"/>
+    <col min="8" max="8" width="14.9296875" customWidth="1"/>
+    <col min="9" max="9" width="13.9296875" customWidth="1"/>
+    <col min="10" max="10" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C4" s="192" t="s">
         <v>711</v>
       </c>
-      <c r="D4" s="193" t="s">
+      <c r="D4" s="191" t="s">
+        <v>952</v>
+      </c>
+      <c r="E4" s="191"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="191" t="s">
+        <v>950</v>
+      </c>
+      <c r="J4" s="193" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C5" s="190"/>
+      <c r="D5" s="55" t="s">
+        <v>946</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>947</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>948</v>
+      </c>
+      <c r="G5" s="55" t="s">
+        <v>949</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>959</v>
+      </c>
+      <c r="I5" s="194"/>
+      <c r="J5" s="195"/>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C6" s="196" t="s">
+        <v>957</v>
+      </c>
+      <c r="D6" s="27">
         <v>1</v>
-      </c>
-      <c r="E4" s="193" t="s">
-        <v>954</v>
-      </c>
-      <c r="F4" s="193"/>
-      <c r="G4" s="193"/>
-      <c r="H4" s="193"/>
-      <c r="I4" s="193"/>
-      <c r="J4" s="193" t="s">
-        <v>952</v>
-      </c>
-      <c r="K4" s="194" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C5" s="195"/>
-      <c r="D5" s="191"/>
-      <c r="E5" s="27" t="s">
-        <v>948</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>949</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>950</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>951</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>964</v>
-      </c>
-      <c r="J5" s="191"/>
-      <c r="K5" s="196"/>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C6" s="197" t="s">
-        <v>956</v>
-      </c>
-      <c r="D6" s="200" t="s">
-        <v>960</v>
       </c>
       <c r="E6" s="27"/>
       <c r="F6" s="27"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
+      <c r="G6" s="27"/>
       <c r="H6" s="27"/>
-      <c r="I6" s="27">
-        <v>1</v>
-      </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="93"/>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C7" s="197" t="s">
-        <v>959</v>
-      </c>
-      <c r="D7" s="199">
-        <v>1995</v>
-      </c>
+      <c r="I6" s="27"/>
+      <c r="J6" s="93"/>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C7" s="196" t="s">
+        <v>955</v>
+      </c>
+      <c r="D7" s="27"/>
       <c r="E7" s="27">
         <v>1</v>
       </c>
@@ -11614,174 +11788,564 @@
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="93"/>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C8" s="197" t="s">
-        <v>957</v>
-      </c>
-      <c r="D8" s="199">
-        <v>1997</v>
-      </c>
-      <c r="E8" s="27"/>
+      <c r="J7" s="93"/>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C8" s="196" t="s">
+        <v>910</v>
+      </c>
+      <c r="D8" s="27">
+        <v>1</v>
+      </c>
+      <c r="E8" s="27">
+        <v>1</v>
+      </c>
       <c r="F8" s="27">
         <v>1</v>
       </c>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="93"/>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="J8" s="93"/>
+    </row>
+    <row r="9" spans="3:10" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C9" s="197" t="s">
         <v>958</v>
       </c>
-      <c r="D9" s="200" t="s">
-        <v>963</v>
-      </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
+      <c r="D9" s="27">
+        <v>1</v>
+      </c>
+      <c r="E9" s="27">
+        <v>1</v>
+      </c>
+      <c r="F9" s="27">
+        <v>1</v>
+      </c>
       <c r="G9" s="27"/>
-      <c r="H9" s="27">
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="93"/>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C10" s="197" t="s">
+        <v>965</v>
+      </c>
+      <c r="D10" s="27">
         <v>1</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="93"/>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C10" s="197" t="s">
-        <v>912</v>
-      </c>
-      <c r="D10" s="199">
-        <v>2006</v>
-      </c>
-      <c r="E10" s="27">
-        <v>1</v>
-      </c>
+      <c r="E10" s="27"/>
       <c r="F10" s="27">
         <v>1</v>
       </c>
-      <c r="G10" s="27">
-        <v>1</v>
-      </c>
+      <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="93"/>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C11" s="139" t="s">
-        <v>961</v>
-      </c>
-      <c r="D11" s="199">
-        <v>2008</v>
-      </c>
-      <c r="E11" s="27">
-        <v>1</v>
-      </c>
+      <c r="J10" s="93"/>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C11" s="196" t="s">
+        <v>925</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="27">
         <v>1</v>
       </c>
-      <c r="G11" s="27">
-        <v>1</v>
-      </c>
+      <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="93"/>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C12" s="197" t="s">
-        <v>927</v>
-      </c>
-      <c r="D12" s="200" t="s">
-        <v>962</v>
-      </c>
+      <c r="J11" s="93"/>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C12" s="196" t="s">
+        <v>985</v>
+      </c>
+      <c r="D12" s="27"/>
       <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27">
+      <c r="F12" s="27">
         <v>1</v>
       </c>
+      <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="93"/>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C13" s="197" t="s">
-        <v>965</v>
-      </c>
-      <c r="D13" s="200">
-        <v>2011</v>
-      </c>
+      <c r="J12" s="93"/>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C13" s="196" t="s">
+        <v>960</v>
+      </c>
+      <c r="D13" s="27"/>
       <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
+      <c r="F13" s="27">
+        <v>1</v>
+      </c>
       <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27">
+      <c r="H13" s="27">
         <v>1</v>
       </c>
-      <c r="J13" s="27"/>
-      <c r="K13" s="93"/>
-    </row>
-    <row r="14" spans="3:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="198" t="s">
-        <v>955</v>
-      </c>
-      <c r="D14" s="201">
-        <v>2017</v>
-      </c>
-      <c r="E14" s="69">
+      <c r="I13" s="27"/>
+      <c r="J13" s="93"/>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C14" s="196" t="s">
+        <v>954</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27">
         <v>1</v>
       </c>
-      <c r="F14" s="69">
+      <c r="G14" s="27"/>
+      <c r="H14" s="27">
         <v>1</v>
       </c>
-      <c r="G14" s="69">
+      <c r="I14" s="27"/>
+      <c r="J14" s="93"/>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C15" s="196" t="s">
+        <v>953</v>
+      </c>
+      <c r="D15" s="27">
         <v>1</v>
       </c>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="148"/>
+      <c r="E15" s="27">
+        <v>1</v>
+      </c>
+      <c r="F15" s="27">
+        <v>1</v>
+      </c>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="93"/>
+    </row>
+    <row r="16" spans="3:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C16" s="198" t="s">
+        <v>956</v>
+      </c>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69">
+        <v>1</v>
+      </c>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="147"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:D12">
-    <sortCondition descending="1" ref="C6:C12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:C11">
+    <sortCondition descending="1" ref="C6:C11"/>
   </sortState>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF4EDA6-A567-4EBB-BC83-3F974E01DAE7}">
+  <dimension ref="C7:F52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="23.59765625" style="37" customWidth="1"/>
+    <col min="4" max="4" width="51.9296875" style="203" customWidth="1"/>
+    <col min="5" max="5" width="52.265625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="15.53125" style="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C7" s="199" t="s">
+        <v>962</v>
+      </c>
+      <c r="D7" s="200" t="s">
+        <v>711</v>
+      </c>
+      <c r="E7" s="199" t="s">
+        <v>961</v>
+      </c>
+      <c r="F7" s="199" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C8" s="28"/>
+      <c r="D8" s="201" t="s">
+        <v>963</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C9" s="28"/>
+      <c r="D9" s="201" t="s">
+        <v>966</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C10" s="28"/>
+      <c r="D10" s="201" t="s">
+        <v>964</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C11" s="28"/>
+      <c r="D11" s="201" t="s">
+        <v>968</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C12" s="28"/>
+      <c r="D12" s="201" t="s">
+        <v>972</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C13" s="28"/>
+      <c r="D13" s="201" t="s">
+        <v>969</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C14" s="28"/>
+      <c r="D14" s="201" t="s">
+        <v>970</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C15" s="28"/>
+      <c r="D15" s="201" t="s">
+        <v>971</v>
+      </c>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C16" s="28"/>
+      <c r="D16" s="201" t="s">
+        <v>976</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C17" s="28"/>
+      <c r="D17" s="201" t="s">
+        <v>973</v>
+      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C18" s="28"/>
+      <c r="D18" s="201" t="s">
+        <v>974</v>
+      </c>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C19" s="28"/>
+      <c r="D19" s="201" t="s">
+        <v>975</v>
+      </c>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C20" s="28"/>
+      <c r="D20" s="201" t="s">
+        <v>977</v>
+      </c>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C21" s="28"/>
+      <c r="D21" s="201" t="s">
+        <v>978</v>
+      </c>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C22" s="28"/>
+      <c r="D22" s="201" t="s">
+        <v>979</v>
+      </c>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C23" s="28"/>
+      <c r="D23" s="201" t="s">
+        <v>980</v>
+      </c>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C24" s="28"/>
+      <c r="D24" s="201" t="s">
+        <v>984</v>
+      </c>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C25" s="28"/>
+      <c r="D25" s="202" t="s">
+        <v>981</v>
+      </c>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C26" s="28"/>
+      <c r="D26" s="202" t="s">
+        <v>982</v>
+      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C27" s="28"/>
+      <c r="D27" s="202" t="s">
+        <v>983</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C28" s="28"/>
+      <c r="D28" s="201" t="s">
+        <v>986</v>
+      </c>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C29" s="28"/>
+      <c r="D29" s="201" t="s">
+        <v>987</v>
+      </c>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C30" s="28"/>
+      <c r="D30" s="201" t="s">
+        <v>988</v>
+      </c>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C31" s="28"/>
+      <c r="D31" s="201" t="s">
+        <v>989</v>
+      </c>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C32" s="28"/>
+      <c r="D32" s="201" t="s">
+        <v>990</v>
+      </c>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C33" s="28"/>
+      <c r="D33" s="201" t="s">
+        <v>991</v>
+      </c>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C34" s="28"/>
+      <c r="D34" s="201" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C35" s="28"/>
+      <c r="D35" s="201" t="s">
+        <v>992</v>
+      </c>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C36" s="28"/>
+      <c r="D36" s="201" t="s">
+        <v>993</v>
+      </c>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C37" s="28"/>
+      <c r="D37" s="201" t="s">
+        <v>994</v>
+      </c>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C38" s="28"/>
+      <c r="D38" s="201" t="s">
+        <v>995</v>
+      </c>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C39" s="28"/>
+      <c r="D39" s="201" t="s">
+        <v>996</v>
+      </c>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C40" s="28"/>
+      <c r="D40" s="201" t="s">
+        <v>997</v>
+      </c>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C41" s="28"/>
+      <c r="D41" s="201" t="s">
+        <v>998</v>
+      </c>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C42" s="28"/>
+      <c r="D42" s="201" t="s">
+        <v>999</v>
+      </c>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C43" s="28"/>
+      <c r="D43" s="201" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C44" s="28"/>
+      <c r="D44" s="201" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C45" s="28"/>
+      <c r="D45" s="201" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C46" s="28"/>
+      <c r="D46" s="201" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C47" s="28"/>
+      <c r="D47" s="201" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C48" s="28"/>
+      <c r="D48" s="201" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C49" s="28"/>
+      <c r="D49" s="201" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C50" s="28"/>
+      <c r="D50" s="201" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C51" s="28"/>
+      <c r="D51" s="201" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C52" s="28"/>
+      <c r="D52" s="201" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="74117954-47dd-4623-be10-f2d34b3fe6e8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100650C27B66691BA4BB901C940018B449F" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="856977a71e7c379887d8f02f6ee17dc3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="74117954-47dd-4623-be10-f2d34b3fe6e8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f93a31a691d6cd74e693f1feb46bcb1" ns3:_="">
     <xsd:import namespace="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
@@ -11925,10 +12489,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="74117954-47dd-4623-be10-f2d34b3fe6e8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16812470-A4E1-4DBD-AEE1-4642C4933AF0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{411558D9-DEA1-49BF-987E-1A683BCBCD59}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11950,19 +12541,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{411558D9-DEA1-49BF-987E-1A683BCBCD59}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16812470-A4E1-4DBD-AEE1-4642C4933AF0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ML Apply in OS/summary (new version).xlsx
+++ b/ML Apply in OS/summary (new version).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HKU\HKU\23Fall\AI-OS\ML Apply in OS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968A7FA1-AB0B-4F6D-AA2D-83A47947127E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BB0A9B-1C3D-4866-BD9B-06BD6EE4D334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4139,7 +4139,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4227,6 +4227,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4587,7 +4599,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5027,6 +5039,31 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -5036,6 +5073,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5054,15 +5100,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -5114,50 +5151,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5486,14 +5517,14 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C2" s="164" t="s">
+      <c r="C2" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="166"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="178"/>
     </row>
     <row r="3" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3"/>
@@ -6081,14 +6112,14 @@
       <c r="AE15"/>
     </row>
     <row r="16" spans="1:31" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C16" s="161" t="s">
+      <c r="C16" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="162"/>
-      <c r="E16" s="162"/>
-      <c r="F16" s="162"/>
-      <c r="G16" s="162"/>
-      <c r="H16" s="163"/>
+      <c r="D16" s="171"/>
+      <c r="E16" s="171"/>
+      <c r="F16" s="171"/>
+      <c r="G16" s="171"/>
+      <c r="H16" s="172"/>
     </row>
     <row r="17" spans="1:33" s="11" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A17"/>
@@ -6689,14 +6720,14 @@
       <c r="AG30"/>
     </row>
     <row r="31" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C31" s="167" t="s">
+      <c r="C31" s="179" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="168"/>
-      <c r="E31" s="168"/>
-      <c r="F31" s="168"/>
-      <c r="G31" s="168"/>
-      <c r="H31" s="169"/>
+      <c r="D31" s="180"/>
+      <c r="E31" s="180"/>
+      <c r="F31" s="180"/>
+      <c r="G31" s="180"/>
+      <c r="H31" s="181"/>
     </row>
     <row r="32" spans="1:33" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A32"/>
@@ -7209,14 +7240,14 @@
       </c>
     </row>
     <row r="44" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C44" s="161" t="s">
+      <c r="C44" s="170" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="162"/>
-      <c r="E44" s="162"/>
-      <c r="F44" s="162"/>
-      <c r="G44" s="162"/>
-      <c r="H44" s="163"/>
+      <c r="D44" s="171"/>
+      <c r="E44" s="171"/>
+      <c r="F44" s="171"/>
+      <c r="G44" s="171"/>
+      <c r="H44" s="172"/>
     </row>
     <row r="45" spans="1:33" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C45" s="99" t="s">
@@ -7714,14 +7745,14 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C71" s="161" t="s">
+      <c r="C71" s="170" t="s">
         <v>216</v>
       </c>
-      <c r="D71" s="162"/>
-      <c r="E71" s="162"/>
-      <c r="F71" s="162"/>
-      <c r="G71" s="162"/>
-      <c r="H71" s="163"/>
+      <c r="D71" s="171"/>
+      <c r="E71" s="171"/>
+      <c r="F71" s="171"/>
+      <c r="G71" s="171"/>
+      <c r="H71" s="172"/>
     </row>
     <row r="72" spans="1:8" ht="15" x14ac:dyDescent="0.4">
       <c r="C72" s="106" t="s">
@@ -7800,14 +7831,14 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C77" s="161" t="s">
+      <c r="C77" s="170" t="s">
         <v>230</v>
       </c>
-      <c r="D77" s="162"/>
-      <c r="E77" s="162"/>
-      <c r="F77" s="162"/>
-      <c r="G77" s="162"/>
-      <c r="H77" s="163"/>
+      <c r="D77" s="171"/>
+      <c r="E77" s="171"/>
+      <c r="F77" s="171"/>
+      <c r="G77" s="171"/>
+      <c r="H77" s="172"/>
     </row>
     <row r="78" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B78" s="130"/>
@@ -8013,14 +8044,14 @@
       </c>
     </row>
     <row r="89" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C89" s="170" t="s">
+      <c r="C89" s="173" t="s">
         <v>235</v>
       </c>
-      <c r="D89" s="171"/>
-      <c r="E89" s="171"/>
-      <c r="F89" s="171"/>
-      <c r="G89" s="171"/>
-      <c r="H89" s="172"/>
+      <c r="D89" s="174"/>
+      <c r="E89" s="174"/>
+      <c r="F89" s="174"/>
+      <c r="G89" s="174"/>
+      <c r="H89" s="175"/>
     </row>
     <row r="90" spans="3:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C90" s="108" t="s">
@@ -8325,14 +8356,14 @@
       </c>
     </row>
     <row r="107" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C107" s="161" t="s">
+      <c r="C107" s="170" t="s">
         <v>236</v>
       </c>
-      <c r="D107" s="162"/>
-      <c r="E107" s="162"/>
-      <c r="F107" s="162"/>
-      <c r="G107" s="162"/>
-      <c r="H107" s="163"/>
+      <c r="D107" s="171"/>
+      <c r="E107" s="171"/>
+      <c r="F107" s="171"/>
+      <c r="G107" s="171"/>
+      <c r="H107" s="172"/>
     </row>
     <row r="108" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C108" s="45" t="s">
@@ -8720,14 +8751,14 @@
       </c>
     </row>
     <row r="127" spans="1:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C127" s="170" t="s">
+      <c r="C127" s="173" t="s">
         <v>237</v>
       </c>
-      <c r="D127" s="171"/>
-      <c r="E127" s="171"/>
-      <c r="F127" s="171"/>
-      <c r="G127" s="171"/>
-      <c r="H127" s="172"/>
+      <c r="D127" s="174"/>
+      <c r="E127" s="174"/>
+      <c r="F127" s="174"/>
+      <c r="G127" s="174"/>
+      <c r="H127" s="175"/>
     </row>
     <row r="128" spans="1:33" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C128" s="118" t="s">
@@ -8928,14 +8959,14 @@
       <c r="H136" s="43"/>
     </row>
     <row r="137" spans="2:33" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C137" s="161" t="s">
+      <c r="C137" s="170" t="s">
         <v>542</v>
       </c>
-      <c r="D137" s="162"/>
-      <c r="E137" s="162"/>
-      <c r="F137" s="162"/>
-      <c r="G137" s="162"/>
-      <c r="H137" s="163"/>
+      <c r="D137" s="171"/>
+      <c r="E137" s="171"/>
+      <c r="F137" s="171"/>
+      <c r="G137" s="171"/>
+      <c r="H137" s="172"/>
     </row>
     <row r="138" spans="2:33" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C138" s="121" t="s">
@@ -9025,14 +9056,14 @@
       </c>
     </row>
     <row r="145" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C145" s="161" t="s">
+      <c r="C145" s="170" t="s">
         <v>274</v>
       </c>
-      <c r="D145" s="162"/>
-      <c r="E145" s="162"/>
-      <c r="F145" s="162"/>
-      <c r="G145" s="162"/>
-      <c r="H145" s="163"/>
+      <c r="D145" s="171"/>
+      <c r="E145" s="171"/>
+      <c r="F145" s="171"/>
+      <c r="G145" s="171"/>
+      <c r="H145" s="172"/>
     </row>
     <row r="146" spans="3:8" ht="55.5" x14ac:dyDescent="0.4">
       <c r="C146" s="45" t="s">
@@ -9114,14 +9145,14 @@
       </c>
     </row>
     <row r="153" spans="3:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="C153" s="161" t="s">
+      <c r="C153" s="170" t="s">
         <v>449</v>
       </c>
-      <c r="D153" s="162"/>
-      <c r="E153" s="162"/>
-      <c r="F153" s="162"/>
-      <c r="G153" s="162"/>
-      <c r="H153" s="163"/>
+      <c r="D153" s="171"/>
+      <c r="E153" s="171"/>
+      <c r="F153" s="171"/>
+      <c r="G153" s="171"/>
+      <c r="H153" s="172"/>
     </row>
     <row r="154" spans="3:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="C154" s="125" t="s">
@@ -9177,18 +9208,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C71:H71"/>
     <mergeCell ref="C153:H153"/>
     <mergeCell ref="C145:H145"/>
     <mergeCell ref="C89:H89"/>
     <mergeCell ref="C107:H107"/>
     <mergeCell ref="C127:H127"/>
     <mergeCell ref="C137:H137"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C71:H71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9203,7 +9234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F283F35-418D-4BB1-82BA-2ABDAAC924FE}">
   <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -9234,13 +9265,13 @@
       <c r="G5" s="37"/>
     </row>
     <row r="6" spans="2:8" ht="20.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="173" t="s">
+      <c r="B6" s="182" t="s">
         <v>457</v>
       </c>
-      <c r="C6" s="174"/>
-      <c r="D6" s="174"/>
-      <c r="E6" s="174"/>
-      <c r="F6" s="175"/>
+      <c r="C6" s="183"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="184"/>
       <c r="G6" s="37"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
@@ -9264,7 +9295,7 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="63.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="176" t="s">
+      <c r="B8" s="185" t="s">
         <v>481</v>
       </c>
       <c r="C8" s="95" t="s">
@@ -9284,7 +9315,7 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="91.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="176"/>
+      <c r="B9" s="185"/>
       <c r="C9" s="95" t="s">
         <v>571</v>
       </c>
@@ -9302,8 +9333,8 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="176"/>
-      <c r="C10" s="180" t="s">
+      <c r="B10" s="185"/>
+      <c r="C10" s="189" t="s">
         <v>572</v>
       </c>
       <c r="D10" s="28" t="s">
@@ -9320,8 +9351,8 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="96.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="176"/>
-      <c r="C11" s="181"/>
+      <c r="B11" s="185"/>
+      <c r="C11" s="190"/>
       <c r="D11" s="28" t="s">
         <v>471</v>
       </c>
@@ -9336,8 +9367,8 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="109.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="176"/>
-      <c r="C12" s="181"/>
+      <c r="B12" s="185"/>
+      <c r="C12" s="190"/>
       <c r="D12" s="28" t="s">
         <v>474</v>
       </c>
@@ -9352,8 +9383,8 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="89" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="176"/>
-      <c r="C13" s="181"/>
+      <c r="B13" s="185"/>
+      <c r="C13" s="190"/>
       <c r="D13" s="28" t="s">
         <v>477</v>
       </c>
@@ -9368,8 +9399,8 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B14" s="176"/>
-      <c r="C14" s="182"/>
+      <c r="B14" s="185"/>
+      <c r="C14" s="191"/>
       <c r="D14" s="28" t="s">
         <v>480</v>
       </c>
@@ -9384,7 +9415,7 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="B15" s="176" t="s">
+      <c r="B15" s="185" t="s">
         <v>519</v>
       </c>
       <c r="C15" s="28" t="s">
@@ -9407,8 +9438,8 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B16" s="176"/>
-      <c r="C16" s="180" t="s">
+      <c r="B16" s="185"/>
+      <c r="C16" s="189" t="s">
         <v>575</v>
       </c>
       <c r="D16" s="28" t="s">
@@ -9428,8 +9459,8 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B17" s="176"/>
-      <c r="C17" s="181"/>
+      <c r="B17" s="185"/>
+      <c r="C17" s="190"/>
       <c r="D17" s="28" t="s">
         <v>514</v>
       </c>
@@ -9447,8 +9478,8 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B18" s="176"/>
-      <c r="C18" s="181"/>
+      <c r="B18" s="185"/>
+      <c r="C18" s="190"/>
       <c r="D18" s="28" t="s">
         <v>454</v>
       </c>
@@ -9466,8 +9497,8 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B19" s="176"/>
-      <c r="C19" s="182"/>
+      <c r="B19" s="185"/>
+      <c r="C19" s="191"/>
       <c r="D19" s="28" t="s">
         <v>486</v>
       </c>
@@ -9485,8 +9516,8 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="97.15" x14ac:dyDescent="0.4">
-      <c r="B20" s="176"/>
-      <c r="C20" s="180" t="s">
+      <c r="B20" s="185"/>
+      <c r="C20" s="189" t="s">
         <v>574</v>
       </c>
       <c r="D20" s="28" t="s">
@@ -9506,8 +9537,8 @@
       </c>
     </row>
     <row r="21" spans="2:8" ht="69.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="176"/>
-      <c r="C21" s="182"/>
+      <c r="B21" s="185"/>
+      <c r="C21" s="191"/>
       <c r="D21" s="28" t="s">
         <v>480</v>
       </c>
@@ -9525,10 +9556,10 @@
       </c>
     </row>
     <row r="22" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="177" t="s">
+      <c r="B22" s="186" t="s">
         <v>136</v>
       </c>
-      <c r="C22" s="180" t="s">
+      <c r="C22" s="189" t="s">
         <v>204</v>
       </c>
       <c r="D22" s="28" t="s">
@@ -9545,8 +9576,8 @@
       </c>
     </row>
     <row r="23" spans="2:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B23" s="178"/>
-      <c r="C23" s="182"/>
+      <c r="B23" s="187"/>
+      <c r="C23" s="191"/>
       <c r="D23" s="28" t="s">
         <v>558</v>
       </c>
@@ -9561,8 +9592,8 @@
       </c>
     </row>
     <row r="24" spans="2:8" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B24" s="178"/>
-      <c r="C24" s="180" t="s">
+      <c r="B24" s="187"/>
+      <c r="C24" s="189" t="s">
         <v>576</v>
       </c>
       <c r="D24" s="65" t="s">
@@ -9579,8 +9610,8 @@
       </c>
     </row>
     <row r="25" spans="2:8" ht="42" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="179"/>
-      <c r="C25" s="183"/>
+      <c r="B25" s="188"/>
+      <c r="C25" s="192"/>
       <c r="D25" s="59" t="s">
         <v>546</v>
       </c>
@@ -9646,12 +9677,12 @@
   <sheetData>
     <row r="4" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:7" ht="20.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="184" t="s">
+      <c r="B5" s="193" t="s">
         <v>446</v>
       </c>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
-      <c r="E5" s="186"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="195"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="56" t="s">
@@ -9671,7 +9702,7 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="176" t="s">
+      <c r="B7" s="185" t="s">
         <v>481</v>
       </c>
       <c r="C7" s="53" t="s">
@@ -9688,7 +9719,7 @@
       </c>
     </row>
     <row r="8" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B8" s="176"/>
+      <c r="B8" s="185"/>
       <c r="C8" s="28" t="s">
         <v>577</v>
       </c>
@@ -9703,7 +9734,7 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B9" s="176"/>
+      <c r="B9" s="185"/>
       <c r="C9" s="28" t="s">
         <v>578</v>
       </c>
@@ -9718,7 +9749,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B10" s="176"/>
+      <c r="B10" s="185"/>
       <c r="C10" s="53" t="s">
         <v>572</v>
       </c>
@@ -9733,7 +9764,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B11" s="176"/>
+      <c r="B11" s="185"/>
       <c r="C11" s="28" t="s">
         <v>579</v>
       </c>
@@ -9748,7 +9779,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="B12" s="176"/>
+      <c r="B12" s="185"/>
       <c r="C12" s="28" t="s">
         <v>579</v>
       </c>
@@ -9763,7 +9794,7 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B13" s="176" t="s">
+      <c r="B13" s="185" t="s">
         <v>519</v>
       </c>
       <c r="C13" s="28" t="s">
@@ -9783,7 +9814,7 @@
       </c>
     </row>
     <row r="14" spans="2:7" ht="55.9" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="176"/>
+      <c r="B14" s="185"/>
       <c r="C14" s="28" t="s">
         <v>580</v>
       </c>
@@ -9801,7 +9832,7 @@
       </c>
     </row>
     <row r="15" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B15" s="176" t="s">
+      <c r="B15" s="185" t="s">
         <v>136</v>
       </c>
       <c r="C15" s="28" t="s">
@@ -9818,7 +9849,7 @@
       </c>
     </row>
     <row r="16" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B16" s="176"/>
+      <c r="B16" s="185"/>
       <c r="C16" s="28" t="s">
         <v>542</v>
       </c>
@@ -9833,7 +9864,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" ht="42" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="187"/>
+      <c r="B17" s="196"/>
       <c r="C17" s="49" t="s">
         <v>542</v>
       </c>
@@ -9864,8 +9895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5ECC81-6914-43CE-AB0A-E1BBB7ABC546}">
   <dimension ref="B7:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView topLeftCell="A7" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -9880,14 +9911,14 @@
   <sheetData>
     <row r="7" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="2:10" ht="20.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="D8" s="173" t="s">
+      <c r="D8" s="182" t="s">
         <v>457</v>
       </c>
-      <c r="E8" s="174"/>
-      <c r="F8" s="174"/>
-      <c r="G8" s="174"/>
-      <c r="H8" s="174"/>
-      <c r="I8" s="175"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="183"/>
+      <c r="H8" s="183"/>
+      <c r="I8" s="184"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="81"/>
@@ -9915,10 +9946,10 @@
       </c>
     </row>
     <row r="10" spans="2:10" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="D10" s="176" t="s">
+      <c r="D10" s="185" t="s">
         <v>646</v>
       </c>
-      <c r="E10" s="180" t="s">
+      <c r="E10" s="189" t="s">
         <v>587</v>
       </c>
       <c r="F10" s="28">
@@ -9938,8 +9969,8 @@
       </c>
     </row>
     <row r="11" spans="2:10" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="D11" s="176"/>
-      <c r="E11" s="181"/>
+      <c r="D11" s="185"/>
+      <c r="E11" s="190"/>
       <c r="F11" s="28">
         <v>2</v>
       </c>
@@ -9957,8 +9988,8 @@
       </c>
     </row>
     <row r="12" spans="2:10" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="D12" s="176"/>
-      <c r="E12" s="181"/>
+      <c r="D12" s="185"/>
+      <c r="E12" s="190"/>
       <c r="F12" s="28">
         <v>3</v>
       </c>
@@ -9976,8 +10007,8 @@
       </c>
     </row>
     <row r="13" spans="2:10" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="D13" s="176"/>
-      <c r="E13" s="182"/>
+      <c r="D13" s="185"/>
+      <c r="E13" s="191"/>
       <c r="F13" s="28">
         <v>4</v>
       </c>
@@ -9995,8 +10026,8 @@
       </c>
     </row>
     <row r="14" spans="2:10" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="D14" s="176"/>
-      <c r="E14" s="180" t="s">
+      <c r="D14" s="185"/>
+      <c r="E14" s="189" t="s">
         <v>603</v>
       </c>
       <c r="F14" s="28">
@@ -10016,8 +10047,8 @@
       </c>
     </row>
     <row r="15" spans="2:10" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="D15" s="176"/>
-      <c r="E15" s="181"/>
+      <c r="D15" s="185"/>
+      <c r="E15" s="190"/>
       <c r="F15" s="28">
         <v>6</v>
       </c>
@@ -10035,8 +10066,8 @@
       </c>
     </row>
     <row r="16" spans="2:10" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="D16" s="176"/>
-      <c r="E16" s="181"/>
+      <c r="D16" s="185"/>
+      <c r="E16" s="190"/>
       <c r="F16" s="28">
         <v>7</v>
       </c>
@@ -10054,8 +10085,8 @@
       </c>
     </row>
     <row r="17" spans="4:10" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="D17" s="176"/>
-      <c r="E17" s="181"/>
+      <c r="D17" s="185"/>
+      <c r="E17" s="190"/>
       <c r="F17" s="28">
         <v>8</v>
       </c>
@@ -10073,8 +10104,8 @@
       </c>
     </row>
     <row r="18" spans="4:10" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="D18" s="176"/>
-      <c r="E18" s="181"/>
+      <c r="D18" s="185"/>
+      <c r="E18" s="190"/>
       <c r="F18" s="28">
         <v>9</v>
       </c>
@@ -10092,8 +10123,8 @@
       </c>
     </row>
     <row r="19" spans="4:10" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="D19" s="176"/>
-      <c r="E19" s="181"/>
+      <c r="D19" s="185"/>
+      <c r="E19" s="190"/>
       <c r="F19" s="28">
         <v>10</v>
       </c>
@@ -10111,8 +10142,8 @@
       </c>
     </row>
     <row r="20" spans="4:10" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="D20" s="176"/>
-      <c r="E20" s="181"/>
+      <c r="D20" s="185"/>
+      <c r="E20" s="190"/>
       <c r="F20" s="28">
         <v>11</v>
       </c>
@@ -10130,8 +10161,8 @@
       </c>
     </row>
     <row r="21" spans="4:10" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="D21" s="176"/>
-      <c r="E21" s="181"/>
+      <c r="D21" s="185"/>
+      <c r="E21" s="190"/>
       <c r="F21" s="28">
         <v>12</v>
       </c>
@@ -10149,8 +10180,8 @@
       </c>
     </row>
     <row r="22" spans="4:10" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="D22" s="176"/>
-      <c r="E22" s="182"/>
+      <c r="D22" s="185"/>
+      <c r="E22" s="191"/>
       <c r="F22" s="28">
         <v>13</v>
       </c>
@@ -10168,7 +10199,7 @@
       </c>
     </row>
     <row r="23" spans="4:10" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="D23" s="176"/>
+      <c r="D23" s="185"/>
       <c r="E23" s="95" t="s">
         <v>643</v>
       </c>
@@ -10189,10 +10220,10 @@
       </c>
     </row>
     <row r="24" spans="4:10" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="D24" s="176" t="s">
+      <c r="D24" s="185" t="s">
         <v>684</v>
       </c>
-      <c r="E24" s="180" t="s">
+      <c r="E24" s="189" t="s">
         <v>662</v>
       </c>
       <c r="F24" s="28">
@@ -10212,8 +10243,8 @@
       </c>
     </row>
     <row r="25" spans="4:10" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="D25" s="176"/>
-      <c r="E25" s="181"/>
+      <c r="D25" s="185"/>
+      <c r="E25" s="190"/>
       <c r="F25" s="28">
         <v>16</v>
       </c>
@@ -10231,8 +10262,8 @@
       </c>
     </row>
     <row r="26" spans="4:10" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="D26" s="176"/>
-      <c r="E26" s="181"/>
+      <c r="D26" s="185"/>
+      <c r="E26" s="190"/>
       <c r="F26" s="28">
         <v>17</v>
       </c>
@@ -10250,8 +10281,8 @@
       </c>
     </row>
     <row r="27" spans="4:10" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="D27" s="176"/>
-      <c r="E27" s="181"/>
+      <c r="D27" s="185"/>
+      <c r="E27" s="190"/>
       <c r="F27" s="28">
         <v>18</v>
       </c>
@@ -10269,8 +10300,8 @@
       </c>
     </row>
     <row r="28" spans="4:10" ht="42" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D28" s="187"/>
-      <c r="E28" s="183"/>
+      <c r="D28" s="196"/>
+      <c r="E28" s="192"/>
       <c r="F28" s="28">
         <v>19</v>
       </c>
@@ -10319,12 +10350,12 @@
   <sheetData>
     <row r="5" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="3:7" ht="20.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="173" t="s">
+      <c r="C6" s="182" t="s">
         <v>446</v>
       </c>
-      <c r="D6" s="174"/>
-      <c r="E6" s="174"/>
-      <c r="F6" s="175"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="184"/>
       <c r="G6" s="37"/>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.4">
@@ -10345,10 +10376,10 @@
       </c>
     </row>
     <row r="8" spans="3:7" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C8" s="176" t="s">
+      <c r="C8" s="185" t="s">
         <v>646</v>
       </c>
-      <c r="D8" s="180" t="s">
+      <c r="D8" s="189" t="s">
         <v>603</v>
       </c>
       <c r="E8" s="28" t="s">
@@ -10362,8 +10393,8 @@
       </c>
     </row>
     <row r="9" spans="3:7" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C9" s="176"/>
-      <c r="D9" s="182"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="191"/>
       <c r="E9" s="28" t="s">
         <v>702</v>
       </c>
@@ -10375,8 +10406,8 @@
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C10" s="176"/>
-      <c r="D10" s="180" t="s">
+      <c r="C10" s="185"/>
+      <c r="D10" s="189" t="s">
         <v>587</v>
       </c>
       <c r="E10" s="28" t="s">
@@ -10390,8 +10421,8 @@
       </c>
     </row>
     <row r="11" spans="3:7" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C11" s="176"/>
-      <c r="D11" s="181"/>
+      <c r="C11" s="185"/>
+      <c r="D11" s="190"/>
       <c r="E11" s="28" t="s">
         <v>658</v>
       </c>
@@ -10403,8 +10434,8 @@
       </c>
     </row>
     <row r="12" spans="3:7" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C12" s="176"/>
-      <c r="D12" s="182"/>
+      <c r="C12" s="185"/>
+      <c r="D12" s="191"/>
       <c r="E12" s="28" t="s">
         <v>658</v>
       </c>
@@ -10416,10 +10447,10 @@
       </c>
     </row>
     <row r="13" spans="3:7" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="C13" s="176" t="s">
+      <c r="C13" s="185" t="s">
         <v>684</v>
       </c>
-      <c r="D13" s="180" t="s">
+      <c r="D13" s="189" t="s">
         <v>662</v>
       </c>
       <c r="E13" s="37" t="s">
@@ -10433,8 +10464,8 @@
       </c>
     </row>
     <row r="14" spans="3:7" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C14" s="176"/>
-      <c r="D14" s="181"/>
+      <c r="C14" s="185"/>
+      <c r="D14" s="190"/>
       <c r="E14" s="27" t="s">
         <v>693</v>
       </c>
@@ -10446,8 +10477,8 @@
       </c>
     </row>
     <row r="15" spans="3:7" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C15" s="176"/>
-      <c r="D15" s="181"/>
+      <c r="C15" s="185"/>
+      <c r="D15" s="190"/>
       <c r="E15" s="27" t="s">
         <v>393</v>
       </c>
@@ -10459,8 +10490,8 @@
       </c>
     </row>
     <row r="16" spans="3:7" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="C16" s="176"/>
-      <c r="D16" s="181"/>
+      <c r="C16" s="185"/>
+      <c r="D16" s="190"/>
       <c r="E16" s="27" t="s">
         <v>705</v>
       </c>
@@ -10472,8 +10503,8 @@
       </c>
     </row>
     <row r="17" spans="3:7" ht="42" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="187"/>
-      <c r="D17" s="183"/>
+      <c r="C17" s="196"/>
+      <c r="D17" s="192"/>
       <c r="E17" s="27" t="s">
         <v>706</v>
       </c>
@@ -10502,8 +10533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6FED96-B02C-4C68-8AE8-637A87A3F611}">
   <dimension ref="C1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A18" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -10565,13 +10596,13 @@
       <c r="C6" s="142" t="s">
         <v>240</v>
       </c>
-      <c r="D6" s="204" t="s">
+      <c r="D6" s="167" t="s">
         <v>716</v>
       </c>
       <c r="E6" s="134" t="s">
         <v>715</v>
       </c>
-      <c r="F6" s="134" t="s">
+      <c r="F6" s="209" t="s">
         <v>714</v>
       </c>
       <c r="G6" s="134" t="s">
@@ -10585,13 +10616,13 @@
       <c r="C7" s="142" t="s">
         <v>717</v>
       </c>
-      <c r="D7" s="188" t="s">
+      <c r="D7" s="197" t="s">
         <v>739</v>
       </c>
-      <c r="E7" s="188"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="188"/>
-      <c r="H7" s="189"/>
+      <c r="E7" s="197"/>
+      <c r="F7" s="197"/>
+      <c r="G7" s="197"/>
+      <c r="H7" s="198"/>
     </row>
     <row r="8" spans="3:9" s="37" customFormat="1" ht="41.65" x14ac:dyDescent="0.4">
       <c r="C8" s="142" t="s">
@@ -10617,7 +10648,7 @@
       <c r="C9" s="142" t="s">
         <v>732</v>
       </c>
-      <c r="D9" s="204" t="s">
+      <c r="D9" s="167" t="s">
         <v>729</v>
       </c>
       <c r="E9" s="134" t="s">
@@ -10660,7 +10691,7 @@
       <c r="C11" s="142" t="s">
         <v>329</v>
       </c>
-      <c r="D11" s="204" t="s">
+      <c r="D11" s="167" t="s">
         <v>726</v>
       </c>
       <c r="E11" s="134" t="s">
@@ -10680,7 +10711,7 @@
       <c r="C12" s="142" t="s">
         <v>399</v>
       </c>
-      <c r="D12" s="204" t="s">
+      <c r="D12" s="167" t="s">
         <v>740</v>
       </c>
       <c r="E12" s="134" t="s">
@@ -10700,7 +10731,7 @@
       <c r="C13" s="143" t="s">
         <v>324</v>
       </c>
-      <c r="D13" s="204" t="s">
+      <c r="D13" s="167" t="s">
         <v>745</v>
       </c>
       <c r="E13" s="134" t="s">
@@ -10720,7 +10751,7 @@
       <c r="C14" s="143" t="s">
         <v>364</v>
       </c>
-      <c r="D14" s="204" t="s">
+      <c r="D14" s="167" t="s">
         <v>750</v>
       </c>
       <c r="E14" s="134" t="s">
@@ -10740,13 +10771,13 @@
       <c r="C15" s="142" t="s">
         <v>287</v>
       </c>
-      <c r="D15" s="204" t="s">
+      <c r="D15" s="167" t="s">
         <v>756</v>
       </c>
       <c r="E15" s="134" t="s">
         <v>755</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="205" t="s">
         <v>753</v>
       </c>
       <c r="G15" s="28" t="s">
@@ -10780,13 +10811,13 @@
       <c r="C17" s="142" t="s">
         <v>538</v>
       </c>
-      <c r="D17" s="188" t="s">
+      <c r="D17" s="197" t="s">
         <v>739</v>
       </c>
-      <c r="E17" s="188"/>
-      <c r="F17" s="188"/>
-      <c r="G17" s="188"/>
-      <c r="H17" s="189"/>
+      <c r="E17" s="197"/>
+      <c r="F17" s="197"/>
+      <c r="G17" s="197"/>
+      <c r="H17" s="198"/>
     </row>
     <row r="18" spans="3:8" s="37" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C18" s="142" t="s">
@@ -10812,13 +10843,13 @@
       <c r="C19" s="153" t="s">
         <v>769</v>
       </c>
-      <c r="D19" s="204" t="s">
+      <c r="D19" s="167" t="s">
         <v>782</v>
       </c>
       <c r="E19" s="134" t="s">
         <v>780</v>
       </c>
-      <c r="F19" s="134" t="s">
+      <c r="F19" s="206" t="s">
         <v>784</v>
       </c>
       <c r="G19" s="134" t="s">
@@ -10832,7 +10863,7 @@
       <c r="C20" s="153" t="s">
         <v>382</v>
       </c>
-      <c r="D20" s="204" t="s">
+      <c r="D20" s="167" t="s">
         <v>792</v>
       </c>
       <c r="E20" s="134" t="s">
@@ -10852,7 +10883,7 @@
       <c r="C21" s="153" t="s">
         <v>379</v>
       </c>
-      <c r="D21" s="204" t="s">
+      <c r="D21" s="167" t="s">
         <v>774</v>
       </c>
       <c r="E21" s="134" t="s">
@@ -10872,7 +10903,7 @@
       <c r="C22" s="153" t="s">
         <v>372</v>
       </c>
-      <c r="D22" s="204" t="s">
+      <c r="D22" s="167" t="s">
         <v>794</v>
       </c>
       <c r="E22" s="134" t="s">
@@ -10892,7 +10923,7 @@
       <c r="C23" s="153" t="s">
         <v>488</v>
       </c>
-      <c r="D23" s="204" t="s">
+      <c r="D23" s="167" t="s">
         <v>799</v>
       </c>
       <c r="E23" s="134" t="s">
@@ -10912,13 +10943,13 @@
       <c r="C24" s="153" t="s">
         <v>282</v>
       </c>
-      <c r="D24" s="205" t="s">
+      <c r="D24" s="168" t="s">
         <v>761</v>
       </c>
       <c r="E24" s="134" t="s">
         <v>760</v>
       </c>
-      <c r="F24" s="145" t="s">
+      <c r="F24" s="207" t="s">
         <v>763</v>
       </c>
       <c r="G24" s="134" t="s">
@@ -10972,7 +11003,7 @@
       <c r="C27" s="153" t="s">
         <v>370</v>
       </c>
-      <c r="D27" s="205" t="s">
+      <c r="D27" s="168" t="s">
         <v>761</v>
       </c>
       <c r="E27" s="95" t="s">
@@ -10992,7 +11023,7 @@
       <c r="C28" s="154" t="s">
         <v>560</v>
       </c>
-      <c r="D28" s="204" t="s">
+      <c r="D28" s="167" t="s">
         <v>767</v>
       </c>
       <c r="E28" s="134" t="s">
@@ -11012,7 +11043,7 @@
       <c r="C29" s="154" t="s">
         <v>552</v>
       </c>
-      <c r="D29" s="205" t="s">
+      <c r="D29" s="168" t="s">
         <v>813</v>
       </c>
       <c r="E29" s="145" t="s">
@@ -11032,13 +11063,13 @@
       <c r="C30" s="155" t="s">
         <v>312</v>
       </c>
-      <c r="D30" s="205" t="s">
+      <c r="D30" s="168" t="s">
         <v>816</v>
       </c>
       <c r="E30" s="134" t="s">
         <v>819</v>
       </c>
-      <c r="F30" s="134" t="s">
+      <c r="F30" s="209" t="s">
         <v>814</v>
       </c>
       <c r="G30" s="134" t="s">
@@ -11052,13 +11083,13 @@
       <c r="C31" s="154" t="s">
         <v>561</v>
       </c>
-      <c r="D31" s="204" t="s">
+      <c r="D31" s="167" t="s">
         <v>1011</v>
       </c>
       <c r="E31" s="134" t="s">
         <v>820</v>
       </c>
-      <c r="F31" s="148" t="s">
+      <c r="F31" s="210" t="s">
         <v>822</v>
       </c>
       <c r="G31" s="134" t="s">
@@ -11115,6 +11146,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11122,8 +11154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C055E65A-D9A3-4C6F-8010-2B4845E23311}">
   <dimension ref="B2:G30"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -11161,7 +11193,7 @@
       <c r="B4" s="154" t="s">
         <v>590</v>
       </c>
-      <c r="C4" s="204" t="s">
+      <c r="C4" s="167" t="s">
         <v>836</v>
       </c>
       <c r="D4" s="95" t="s">
@@ -11181,7 +11213,7 @@
       <c r="B5" s="154" t="s">
         <v>592</v>
       </c>
-      <c r="C5" s="206" t="s">
+      <c r="C5" s="169" t="s">
         <v>837</v>
       </c>
       <c r="D5" s="152" t="s">
@@ -11201,7 +11233,7 @@
       <c r="B6" s="154" t="s">
         <v>597</v>
       </c>
-      <c r="C6" s="206" t="s">
+      <c r="C6" s="169" t="s">
         <v>842</v>
       </c>
       <c r="D6" s="152" t="s">
@@ -11221,7 +11253,7 @@
       <c r="B7" s="154" t="s">
         <v>602</v>
       </c>
-      <c r="C7" s="206" t="s">
+      <c r="C7" s="169" t="s">
         <v>847</v>
       </c>
       <c r="D7" s="152" t="s">
@@ -11241,7 +11273,7 @@
       <c r="B8" s="154" t="s">
         <v>629</v>
       </c>
-      <c r="C8" s="206" t="s">
+      <c r="C8" s="169" t="s">
         <v>853</v>
       </c>
       <c r="D8" s="152" t="s">
@@ -11261,13 +11293,13 @@
       <c r="B9" s="159" t="s">
         <v>252</v>
       </c>
-      <c r="C9" s="206" t="s">
+      <c r="C9" s="169" t="s">
         <v>857</v>
       </c>
       <c r="D9" s="152" t="s">
         <v>855</v>
       </c>
-      <c r="E9" s="152" t="s">
+      <c r="E9" s="211" t="s">
         <v>856</v>
       </c>
       <c r="F9" s="95" t="s">
@@ -11281,7 +11313,7 @@
       <c r="B10" s="154" t="s">
         <v>609</v>
       </c>
-      <c r="C10" s="206" t="s">
+      <c r="C10" s="169" t="s">
         <v>864</v>
       </c>
       <c r="D10" s="152" t="s">
@@ -11301,7 +11333,7 @@
       <c r="B11" s="154" t="s">
         <v>618</v>
       </c>
-      <c r="C11" s="206" t="s">
+      <c r="C11" s="169" t="s">
         <v>861</v>
       </c>
       <c r="D11" s="152" t="s">
@@ -11321,7 +11353,7 @@
       <c r="B12" s="154" t="s">
         <v>619</v>
       </c>
-      <c r="C12" s="206" t="s">
+      <c r="C12" s="169" t="s">
         <v>868</v>
       </c>
       <c r="D12" s="95" t="s">
@@ -11341,7 +11373,7 @@
       <c r="B13" s="154" t="s">
         <v>626</v>
       </c>
-      <c r="C13" s="206" t="s">
+      <c r="C13" s="169" t="s">
         <v>872</v>
       </c>
       <c r="D13" s="152" t="s">
@@ -11361,7 +11393,7 @@
       <c r="B14" s="154" t="s">
         <v>632</v>
       </c>
-      <c r="C14" s="206" t="s">
+      <c r="C14" s="169" t="s">
         <v>876</v>
       </c>
       <c r="D14" s="152" t="s">
@@ -11381,13 +11413,13 @@
       <c r="B15" s="154" t="s">
         <v>642</v>
       </c>
-      <c r="C15" s="206" t="s">
+      <c r="C15" s="169" t="s">
         <v>879</v>
       </c>
       <c r="D15" s="152" t="s">
         <v>882</v>
       </c>
-      <c r="E15" s="145" t="s">
+      <c r="E15" s="207" t="s">
         <v>878</v>
       </c>
       <c r="F15" s="95" t="s">
@@ -11401,7 +11433,7 @@
       <c r="B16" s="154" t="s">
         <v>645</v>
       </c>
-      <c r="C16" s="206" t="s">
+      <c r="C16" s="169" t="s">
         <v>886</v>
       </c>
       <c r="D16" s="152" t="s">
@@ -11441,13 +11473,13 @@
       <c r="B18" s="143" t="s">
         <v>668</v>
       </c>
-      <c r="C18" s="206" t="s">
+      <c r="C18" s="169" t="s">
         <v>891</v>
       </c>
       <c r="D18" s="152" t="s">
         <v>900</v>
       </c>
-      <c r="E18" s="145" t="s">
+      <c r="E18" s="207" t="s">
         <v>894</v>
       </c>
       <c r="F18" s="152" t="s">
@@ -11461,7 +11493,7 @@
       <c r="B19" s="143" t="s">
         <v>690</v>
       </c>
-      <c r="C19" s="206" t="s">
+      <c r="C19" s="169" t="s">
         <v>896</v>
       </c>
       <c r="D19" s="95" t="s">
@@ -11501,7 +11533,7 @@
       <c r="B21" s="143" t="s">
         <v>685</v>
       </c>
-      <c r="C21" s="206" t="s">
+      <c r="C21" s="169" t="s">
         <v>905</v>
       </c>
       <c r="D21" s="152" t="s">
@@ -11627,7 +11659,7 @@
       <c r="D27" s="152" t="s">
         <v>869</v>
       </c>
-      <c r="E27" s="95" t="s">
+      <c r="E27" s="208" t="s">
         <v>934</v>
       </c>
       <c r="F27" s="152" t="s">
@@ -11639,7 +11671,7 @@
     </row>
     <row r="28" spans="2:7" ht="41.65" x14ac:dyDescent="0.4">
       <c r="B28" s="143" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="C28" s="28" t="s">
         <v>935</v>
@@ -11700,6 +11732,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11725,25 +11758,25 @@
   <sheetData>
     <row r="3" spans="3:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C4" s="192" t="s">
+      <c r="C4" s="199" t="s">
         <v>711</v>
       </c>
-      <c r="D4" s="191" t="s">
+      <c r="D4" s="201" t="s">
         <v>952</v>
       </c>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="191"/>
-      <c r="I4" s="191" t="s">
+      <c r="E4" s="201"/>
+      <c r="F4" s="201"/>
+      <c r="G4" s="201"/>
+      <c r="H4" s="201"/>
+      <c r="I4" s="201" t="s">
         <v>950</v>
       </c>
-      <c r="J4" s="193" t="s">
+      <c r="J4" s="203" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C5" s="190"/>
+      <c r="C5" s="200"/>
       <c r="D5" s="55" t="s">
         <v>946</v>
       </c>
@@ -11759,11 +11792,11 @@
       <c r="H5" s="55" t="s">
         <v>959</v>
       </c>
-      <c r="I5" s="194"/>
-      <c r="J5" s="195"/>
+      <c r="I5" s="202"/>
+      <c r="J5" s="204"/>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C6" s="196" t="s">
+      <c r="C6" s="161" t="s">
         <v>957</v>
       </c>
       <c r="D6" s="27">
@@ -11777,7 +11810,7 @@
       <c r="J6" s="93"/>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C7" s="196" t="s">
+      <c r="C7" s="161" t="s">
         <v>955</v>
       </c>
       <c r="D7" s="27"/>
@@ -11791,7 +11824,7 @@
       <c r="J7" s="93"/>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C8" s="196" t="s">
+      <c r="C8" s="161" t="s">
         <v>910</v>
       </c>
       <c r="D8" s="27">
@@ -11809,7 +11842,7 @@
       <c r="J8" s="93"/>
     </row>
     <row r="9" spans="3:10" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="C9" s="197" t="s">
+      <c r="C9" s="162" t="s">
         <v>958</v>
       </c>
       <c r="D9" s="27">
@@ -11827,7 +11860,7 @@
       <c r="J9" s="93"/>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C10" s="197" t="s">
+      <c r="C10" s="162" t="s">
         <v>965</v>
       </c>
       <c r="D10" s="27">
@@ -11843,7 +11876,7 @@
       <c r="J10" s="93"/>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C11" s="196" t="s">
+      <c r="C11" s="161" t="s">
         <v>925</v>
       </c>
       <c r="D11" s="27"/>
@@ -11857,7 +11890,7 @@
       <c r="J11" s="93"/>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C12" s="196" t="s">
+      <c r="C12" s="161" t="s">
         <v>985</v>
       </c>
       <c r="D12" s="27"/>
@@ -11871,7 +11904,7 @@
       <c r="J12" s="93"/>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C13" s="196" t="s">
+      <c r="C13" s="161" t="s">
         <v>960</v>
       </c>
       <c r="D13" s="27"/>
@@ -11887,7 +11920,7 @@
       <c r="J13" s="93"/>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C14" s="196" t="s">
+      <c r="C14" s="161" t="s">
         <v>954</v>
       </c>
       <c r="D14" s="27"/>
@@ -11903,7 +11936,7 @@
       <c r="J14" s="93"/>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C15" s="196" t="s">
+      <c r="C15" s="161" t="s">
         <v>953</v>
       </c>
       <c r="D15" s="27">
@@ -11921,7 +11954,7 @@
       <c r="J15" s="93"/>
     </row>
     <row r="16" spans="3:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C16" s="198" t="s">
+      <c r="C16" s="163" t="s">
         <v>956</v>
       </c>
       <c r="D16" s="69"/>
@@ -11953,35 +11986,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF4EDA6-A567-4EBB-BC83-3F974E01DAE7}">
   <dimension ref="C7:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="23.59765625" style="37" customWidth="1"/>
-    <col min="4" max="4" width="51.9296875" style="203" customWidth="1"/>
+    <col min="4" max="4" width="51.9296875" customWidth="1"/>
     <col min="5" max="5" width="52.265625" style="37" customWidth="1"/>
     <col min="6" max="6" width="15.53125" style="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C7" s="199" t="s">
+      <c r="C7" s="164" t="s">
         <v>962</v>
       </c>
-      <c r="D7" s="200" t="s">
+      <c r="D7" s="165" t="s">
         <v>711</v>
       </c>
-      <c r="E7" s="199" t="s">
+      <c r="E7" s="164" t="s">
         <v>961</v>
       </c>
-      <c r="F7" s="199" t="s">
+      <c r="F7" s="164" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C8" s="28"/>
-      <c r="D8" s="201" t="s">
+      <c r="D8" s="27" t="s">
         <v>963</v>
       </c>
       <c r="E8" s="28"/>
@@ -11989,7 +12022,7 @@
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C9" s="28"/>
-      <c r="D9" s="201" t="s">
+      <c r="D9" s="27" t="s">
         <v>966</v>
       </c>
       <c r="E9" s="28"/>
@@ -11997,7 +12030,7 @@
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C10" s="28"/>
-      <c r="D10" s="201" t="s">
+      <c r="D10" s="27" t="s">
         <v>964</v>
       </c>
       <c r="E10" s="28"/>
@@ -12005,7 +12038,7 @@
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C11" s="28"/>
-      <c r="D11" s="201" t="s">
+      <c r="D11" s="27" t="s">
         <v>968</v>
       </c>
       <c r="E11" s="28"/>
@@ -12013,7 +12046,7 @@
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C12" s="28"/>
-      <c r="D12" s="201" t="s">
+      <c r="D12" s="27" t="s">
         <v>972</v>
       </c>
       <c r="E12" s="28"/>
@@ -12021,7 +12054,7 @@
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C13" s="28"/>
-      <c r="D13" s="201" t="s">
+      <c r="D13" s="27" t="s">
         <v>969</v>
       </c>
       <c r="E13" s="28"/>
@@ -12029,7 +12062,7 @@
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C14" s="28"/>
-      <c r="D14" s="201" t="s">
+      <c r="D14" s="27" t="s">
         <v>970</v>
       </c>
       <c r="E14" s="28"/>
@@ -12037,7 +12070,7 @@
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C15" s="28"/>
-      <c r="D15" s="201" t="s">
+      <c r="D15" s="27" t="s">
         <v>971</v>
       </c>
       <c r="E15" s="28"/>
@@ -12045,7 +12078,7 @@
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C16" s="28"/>
-      <c r="D16" s="201" t="s">
+      <c r="D16" s="27" t="s">
         <v>976</v>
       </c>
       <c r="E16" s="28"/>
@@ -12053,7 +12086,7 @@
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C17" s="28"/>
-      <c r="D17" s="201" t="s">
+      <c r="D17" s="27" t="s">
         <v>973</v>
       </c>
       <c r="E17" s="28"/>
@@ -12061,7 +12094,7 @@
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C18" s="28"/>
-      <c r="D18" s="201" t="s">
+      <c r="D18" s="27" t="s">
         <v>974</v>
       </c>
       <c r="E18" s="28"/>
@@ -12069,7 +12102,7 @@
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C19" s="28"/>
-      <c r="D19" s="201" t="s">
+      <c r="D19" s="27" t="s">
         <v>975</v>
       </c>
       <c r="E19" s="28"/>
@@ -12077,7 +12110,7 @@
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C20" s="28"/>
-      <c r="D20" s="201" t="s">
+      <c r="D20" s="27" t="s">
         <v>977</v>
       </c>
       <c r="E20" s="28"/>
@@ -12085,7 +12118,7 @@
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C21" s="28"/>
-      <c r="D21" s="201" t="s">
+      <c r="D21" s="27" t="s">
         <v>978</v>
       </c>
       <c r="E21" s="28"/>
@@ -12093,7 +12126,7 @@
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C22" s="28"/>
-      <c r="D22" s="201" t="s">
+      <c r="D22" s="27" t="s">
         <v>979</v>
       </c>
       <c r="E22" s="28"/>
@@ -12101,7 +12134,7 @@
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C23" s="28"/>
-      <c r="D23" s="201" t="s">
+      <c r="D23" s="27" t="s">
         <v>980</v>
       </c>
       <c r="E23" s="28"/>
@@ -12109,7 +12142,7 @@
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C24" s="28"/>
-      <c r="D24" s="201" t="s">
+      <c r="D24" s="27" t="s">
         <v>984</v>
       </c>
       <c r="E24" s="28"/>
@@ -12117,7 +12150,7 @@
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C25" s="28"/>
-      <c r="D25" s="202" t="s">
+      <c r="D25" s="166" t="s">
         <v>981</v>
       </c>
       <c r="E25" s="28"/>
@@ -12125,7 +12158,7 @@
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C26" s="28"/>
-      <c r="D26" s="202" t="s">
+      <c r="D26" s="166" t="s">
         <v>982</v>
       </c>
       <c r="E26" s="28"/>
@@ -12133,7 +12166,7 @@
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C27" s="28"/>
-      <c r="D27" s="202" t="s">
+      <c r="D27" s="166" t="s">
         <v>983</v>
       </c>
       <c r="E27" s="28"/>
@@ -12141,7 +12174,7 @@
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C28" s="28"/>
-      <c r="D28" s="201" t="s">
+      <c r="D28" s="27" t="s">
         <v>986</v>
       </c>
       <c r="E28" s="28"/>
@@ -12149,7 +12182,7 @@
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C29" s="28"/>
-      <c r="D29" s="201" t="s">
+      <c r="D29" s="27" t="s">
         <v>987</v>
       </c>
       <c r="E29" s="28"/>
@@ -12157,7 +12190,7 @@
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C30" s="28"/>
-      <c r="D30" s="201" t="s">
+      <c r="D30" s="27" t="s">
         <v>988</v>
       </c>
       <c r="E30" s="28"/>
@@ -12165,7 +12198,7 @@
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C31" s="28"/>
-      <c r="D31" s="201" t="s">
+      <c r="D31" s="27" t="s">
         <v>989</v>
       </c>
       <c r="E31" s="28"/>
@@ -12173,7 +12206,7 @@
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C32" s="28"/>
-      <c r="D32" s="201" t="s">
+      <c r="D32" s="27" t="s">
         <v>990</v>
       </c>
       <c r="E32" s="28"/>
@@ -12181,7 +12214,7 @@
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C33" s="28"/>
-      <c r="D33" s="201" t="s">
+      <c r="D33" s="27" t="s">
         <v>991</v>
       </c>
       <c r="E33" s="28"/>
@@ -12189,7 +12222,7 @@
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C34" s="28"/>
-      <c r="D34" s="201" t="s">
+      <c r="D34" s="27" t="s">
         <v>1010</v>
       </c>
       <c r="E34" s="28"/>
@@ -12197,7 +12230,7 @@
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C35" s="28"/>
-      <c r="D35" s="201" t="s">
+      <c r="D35" s="27" t="s">
         <v>992</v>
       </c>
       <c r="E35" s="28"/>
@@ -12205,7 +12238,7 @@
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C36" s="28"/>
-      <c r="D36" s="201" t="s">
+      <c r="D36" s="27" t="s">
         <v>993</v>
       </c>
       <c r="E36" s="28"/>
@@ -12213,7 +12246,7 @@
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C37" s="28"/>
-      <c r="D37" s="201" t="s">
+      <c r="D37" s="27" t="s">
         <v>994</v>
       </c>
       <c r="E37" s="28"/>
@@ -12221,7 +12254,7 @@
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C38" s="28"/>
-      <c r="D38" s="201" t="s">
+      <c r="D38" s="27" t="s">
         <v>995</v>
       </c>
       <c r="E38" s="28"/>
@@ -12229,7 +12262,7 @@
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C39" s="28"/>
-      <c r="D39" s="201" t="s">
+      <c r="D39" s="27" t="s">
         <v>996</v>
       </c>
       <c r="E39" s="28"/>
@@ -12237,7 +12270,7 @@
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C40" s="28"/>
-      <c r="D40" s="201" t="s">
+      <c r="D40" s="27" t="s">
         <v>997</v>
       </c>
       <c r="E40" s="28"/>
@@ -12245,7 +12278,7 @@
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C41" s="28"/>
-      <c r="D41" s="201" t="s">
+      <c r="D41" s="27" t="s">
         <v>998</v>
       </c>
       <c r="E41" s="28"/>
@@ -12253,7 +12286,7 @@
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C42" s="28"/>
-      <c r="D42" s="201" t="s">
+      <c r="D42" s="27" t="s">
         <v>999</v>
       </c>
       <c r="E42" s="28"/>
@@ -12261,7 +12294,7 @@
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C43" s="28"/>
-      <c r="D43" s="201" t="s">
+      <c r="D43" s="27" t="s">
         <v>1000</v>
       </c>
       <c r="E43" s="28"/>
@@ -12269,7 +12302,7 @@
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C44" s="28"/>
-      <c r="D44" s="201" t="s">
+      <c r="D44" s="27" t="s">
         <v>1001</v>
       </c>
       <c r="E44" s="28"/>
@@ -12277,7 +12310,7 @@
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C45" s="28"/>
-      <c r="D45" s="201" t="s">
+      <c r="D45" s="27" t="s">
         <v>1002</v>
       </c>
       <c r="E45" s="28"/>
@@ -12285,7 +12318,7 @@
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C46" s="28"/>
-      <c r="D46" s="201" t="s">
+      <c r="D46" s="27" t="s">
         <v>1003</v>
       </c>
       <c r="E46" s="28"/>
@@ -12293,7 +12326,7 @@
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C47" s="28"/>
-      <c r="D47" s="201" t="s">
+      <c r="D47" s="27" t="s">
         <v>1004</v>
       </c>
       <c r="E47" s="28"/>
@@ -12301,7 +12334,7 @@
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C48" s="28"/>
-      <c r="D48" s="201" t="s">
+      <c r="D48" s="27" t="s">
         <v>1005</v>
       </c>
       <c r="E48" s="28"/>
@@ -12309,7 +12342,7 @@
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C49" s="28"/>
-      <c r="D49" s="201" t="s">
+      <c r="D49" s="27" t="s">
         <v>1006</v>
       </c>
       <c r="E49" s="28"/>
@@ -12317,7 +12350,7 @@
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C50" s="28"/>
-      <c r="D50" s="201" t="s">
+      <c r="D50" s="27" t="s">
         <v>1007</v>
       </c>
       <c r="E50" s="28"/>
@@ -12325,7 +12358,7 @@
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C51" s="28"/>
-      <c r="D51" s="201" t="s">
+      <c r="D51" s="27" t="s">
         <v>1008</v>
       </c>
       <c r="E51" s="28"/>
@@ -12333,7 +12366,7 @@
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C52" s="28"/>
-      <c r="D52" s="201" t="s">
+      <c r="D52" s="27" t="s">
         <v>1009</v>
       </c>
       <c r="E52" s="28"/>
@@ -12346,6 +12379,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="74117954-47dd-4623-be10-f2d34b3fe6e8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100650C27B66691BA4BB901C940018B449F" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="856977a71e7c379887d8f02f6ee17dc3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="74117954-47dd-4623-be10-f2d34b3fe6e8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f93a31a691d6cd74e693f1feb46bcb1" ns3:_="">
     <xsd:import namespace="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
@@ -12489,37 +12539,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="74117954-47dd-4623-be10-f2d34b3fe6e8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{411558D9-DEA1-49BF-987E-1A683BCBCD59}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16812470-A4E1-4DBD-AEE1-4642C4933AF0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12541,9 +12564,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16812470-A4E1-4DBD-AEE1-4642C4933AF0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{411558D9-DEA1-49BF-987E-1A683BCBCD59}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="74117954-47dd-4623-be10-f2d34b3fe6e8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>